--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_01\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.2\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6550,7 +6550,7 @@
     <t>PARIS TERRACOTA</t>
   </si>
   <si>
-    <t>Lista Produto : 13-12-2019 10:32:27</t>
+    <t>Lista Produto : 03-01-2020 11:23:29</t>
   </si>
 </sst>
 </file>
@@ -7009,8 +7009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H617" workbookViewId="0">
-      <selection activeCell="Q930" sqref="Q930"/>
+    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
+      <selection activeCell="C960" sqref="C960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16926,7 +16926,7 @@
         <v>358</v>
       </c>
       <c r="Q169" s="6">
-        <v>76.5</v>
+        <v>84</v>
       </c>
       <c r="R169" s="6" t="s">
         <v>23</v>
@@ -17221,7 +17221,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>5283.92</v>
+        <v>3210.95</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -17457,7 +17457,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>1376.3936000000001</v>
+        <v>982.05359999999996</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17516,7 +17516,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>1071.2</v>
+        <v>736.34</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -17988,7 +17988,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>8897.3799999999992</v>
+        <v>8419.09</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18342,7 +18342,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>960</v>
+        <v>1934</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -19050,7 +19050,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>445.54</v>
+        <v>78.23</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19109,7 +19109,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>3829.4</v>
+        <v>3661.8</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19286,7 +19286,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>3529.58</v>
+        <v>3529.36</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20053,7 +20053,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>6874.2650000000003</v>
+        <v>5236.7622000000001</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20348,7 +20348,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>11075.2</v>
+        <v>9230.36</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20407,7 +20407,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>8392.34</v>
+        <v>6435.94</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21115,7 +21115,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>6086.44</v>
+        <v>6084.82</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21528,7 +21528,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>1868.33</v>
+        <v>1398.42</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -21587,7 +21587,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>2290.46</v>
+        <v>2740.34</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -21764,7 +21764,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>2591.31</v>
+        <v>2015.91</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22590,7 +22590,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>2803.55</v>
+        <v>2612.8000000000002</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -22649,7 +22649,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>6414.3</v>
+        <v>6064.63</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -22885,7 +22885,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>479.12</v>
+        <v>478.46</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -23298,7 +23298,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1861.7</v>
+        <v>1830.38</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -23829,7 +23829,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1220.8</v>
+        <v>1162.4000000000001</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -23888,7 +23888,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>3901.53</v>
+        <v>3342.69</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24065,7 +24065,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>4024</v>
+        <v>3997.8</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24124,7 +24124,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>8003.1549999999997</v>
+        <v>6553.2340000000004</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24183,7 +24183,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>377.41</v>
+        <v>326.83</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24478,7 +24478,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3698.06</v>
+        <v>3604.41</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -24596,7 +24596,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>1273.4000000000001</v>
+        <v>1187.5999999999999</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -24655,7 +24655,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>2175.88</v>
+        <v>2158.0500000000002</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -24714,7 +24714,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>1112.31</v>
+        <v>1100.29</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -24773,7 +24773,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>4583.6000000000004</v>
+        <v>4550.6000000000004</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -24832,7 +24832,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>8697.09</v>
+        <v>7960</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -24891,7 +24891,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>51077.741000000002</v>
+        <v>63033.591</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -24950,7 +24950,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>1274.0999999999999</v>
+        <v>1204.9000000000001</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25009,7 +25009,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>4640.8100000000004</v>
+        <v>4538.87</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25304,7 +25304,7 @@
         <v>643</v>
       </c>
       <c r="Q311" s="6">
-        <v>138.6</v>
+        <v>134.32</v>
       </c>
       <c r="R311" s="6" t="s">
         <v>23</v>
@@ -25363,7 +25363,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>4261.95</v>
+        <v>4244.45</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25422,7 +25422,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>472.04</v>
+        <v>414.44</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -25481,7 +25481,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2409.98</v>
+        <v>2371.58</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -25599,7 +25599,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>375.58</v>
+        <v>352.54</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -25717,7 +25717,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>4001.49</v>
+        <v>3976.81</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -25776,7 +25776,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>12376.7</v>
+        <v>11007.87</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -25835,7 +25835,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3311.71</v>
+        <v>3300.87</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -25894,7 +25894,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>8621.08</v>
+        <v>8102.05</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -25953,7 +25953,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>3995</v>
+        <v>3851.7</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26071,7 +26071,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>3072.63</v>
+        <v>3036.5</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26130,7 +26130,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>4313.4799999999996</v>
+        <v>4297.7996999999996</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26189,7 +26189,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>570.18269999999995</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26307,7 +26307,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>4086.79</v>
+        <v>3856.6</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26366,7 +26366,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2322.17</v>
+        <v>2100.11</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26484,7 +26484,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2266.2939999999999</v>
+        <v>2267.1</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26543,7 +26543,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2432.7694000000001</v>
+        <v>2398.0693999999999</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -26602,7 +26602,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>2169.6</v>
+        <v>2108.1999999999998</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -26661,7 +26661,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>213.47399999999999</v>
+        <v>179.5</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -26720,7 +26720,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1443.635</v>
+        <v>1430.845</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -26779,7 +26779,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2848.15</v>
+        <v>2631.57</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27015,7 +27015,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>162.6</v>
+        <v>282.76</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27310,7 +27310,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>8208.56</v>
+        <v>7767.56</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27369,7 +27369,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>1358.54</v>
+        <v>1237.69</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27428,7 +27428,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>264.2</v>
+        <v>245.7</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -27487,7 +27487,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>525.70000000000005</v>
+        <v>447</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -27546,7 +27546,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1462.38</v>
+        <v>1469.88</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -27664,7 +27664,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>29866.78</v>
+        <v>29854.52</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -27723,7 +27723,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3529.65</v>
+        <v>3533.8</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -27841,7 +27841,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>301.7</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -27900,7 +27900,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1661.38</v>
+        <v>1625.83</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28195,7 +28195,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1642.28</v>
+        <v>1630.78</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -28844,7 +28844,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3808.31</v>
+        <v>3806.4</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -34980,7 +34980,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>2346.15</v>
+        <v>1422.85</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35039,7 +35039,7 @@
         <v>1006</v>
       </c>
       <c r="Q476" s="6">
-        <v>963.9</v>
+        <v>674.77</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35098,7 +35098,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>1300</v>
+        <v>1029.4100000000001</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35157,7 +35157,7 @@
         <v>1010</v>
       </c>
       <c r="Q478" s="6">
-        <v>2928.95</v>
+        <v>1491.24</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -35216,7 +35216,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>1752.71</v>
+        <v>1502.1</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -50792,7 +50792,7 @@
         <v>1546</v>
       </c>
       <c r="Q743" s="6">
-        <v>622.4</v>
+        <v>451.4</v>
       </c>
       <c r="R743" s="6" t="s">
         <v>23</v>
@@ -51087,7 +51087,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>641.54</v>
+        <v>602.12</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -53388,7 +53388,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>475.41</v>
+        <v>2117.16</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -53565,7 +53565,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>14171.366</v>
+        <v>14801.396000000001</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -53683,7 +53683,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>4022.95</v>
+        <v>3788.95</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -53801,7 +53801,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>3938.47</v>
+        <v>5482.48</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -53860,7 +53860,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>20814.189999999999</v>
+        <v>28252.49</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54155,7 +54155,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>9127.64</v>
+        <v>9778.93</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54273,7 +54273,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>1545.1</v>
+        <v>1301.29</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54317,7 +54317,7 @@
         <v>23</v>
       </c>
       <c r="L803" s="6">
-        <v>4.4800000000000004</v>
+        <v>4.66</v>
       </c>
       <c r="M803" s="6">
         <v>0</v>
@@ -54332,7 +54332,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>3069.1383000000001</v>
+        <v>27019.134399999999</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54391,7 +54391,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>10850.91</v>
+        <v>26536.57</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54450,7 +54450,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>64610.153899999998</v>
+        <v>67020.758300000001</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54509,7 +54509,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>1486.05</v>
+        <v>1971.89</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -54568,7 +54568,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>4476.62</v>
+        <v>5598</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55866,7 +55866,7 @@
         <v>1758</v>
       </c>
       <c r="Q829" s="6">
-        <v>10684.97</v>
+        <v>10822.53</v>
       </c>
       <c r="R829" s="6" t="s">
         <v>23</v>
@@ -55925,7 +55925,7 @@
         <v>1762</v>
       </c>
       <c r="Q830" s="6">
-        <v>2139.3000000000002</v>
+        <v>2983.86</v>
       </c>
       <c r="R830" s="6" t="s">
         <v>23</v>
@@ -56574,7 +56574,7 @@
         <v>1800</v>
       </c>
       <c r="Q841" s="6">
-        <v>441.98</v>
+        <v>423.69</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -56869,7 +56869,7 @@
         <v>1817</v>
       </c>
       <c r="Q846" s="6">
-        <v>261.14</v>
+        <v>241.96</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -56987,7 +56987,7 @@
         <v>1822</v>
       </c>
       <c r="Q848" s="6">
-        <v>1298.48</v>
+        <v>1281.71</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -57636,7 +57636,7 @@
         <v>1855</v>
       </c>
       <c r="Q859" s="6">
-        <v>18423.72</v>
+        <v>16754.75</v>
       </c>
       <c r="R859" s="6" t="s">
         <v>23</v>
@@ -57754,7 +57754,7 @@
         <v>1861</v>
       </c>
       <c r="Q861" s="6">
-        <v>1746.6</v>
+        <v>1617.93</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -57813,7 +57813,7 @@
         <v>1864</v>
       </c>
       <c r="Q862" s="6">
-        <v>1669.66</v>
+        <v>1620.78</v>
       </c>
       <c r="R862" s="6" t="s">
         <v>23</v>
@@ -57872,7 +57872,7 @@
         <v>1868</v>
       </c>
       <c r="Q863" s="6">
-        <v>686.82</v>
+        <v>903.96</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -57931,7 +57931,7 @@
         <v>1871</v>
       </c>
       <c r="Q864" s="6">
-        <v>1617.36</v>
+        <v>1281.3499999999999</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -57990,7 +57990,7 @@
         <v>1874</v>
       </c>
       <c r="Q865" s="6">
-        <v>50374.98</v>
+        <v>50256.38</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58521,7 +58521,7 @@
         <v>1901</v>
       </c>
       <c r="Q874" s="6">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -58580,7 +58580,7 @@
         <v>1904</v>
       </c>
       <c r="Q875" s="6">
-        <v>208.8</v>
+        <v>426.7</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -58639,7 +58639,7 @@
         <v>1907</v>
       </c>
       <c r="Q876" s="6">
-        <v>60</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="R876" s="6" t="s">
         <v>23</v>
@@ -58698,7 +58698,7 @@
         <v>1910</v>
       </c>
       <c r="Q877" s="6">
-        <v>109.6</v>
+        <v>208.9</v>
       </c>
       <c r="R877" s="6" t="s">
         <v>23</v>
@@ -58993,7 +58993,7 @@
         <v>1925</v>
       </c>
       <c r="Q882" s="6">
-        <v>15207.5</v>
+        <v>12302.9</v>
       </c>
       <c r="R882" s="6" t="s">
         <v>23</v>
@@ -59111,7 +59111,7 @@
         <v>1932</v>
       </c>
       <c r="Q884" s="6">
-        <v>85.8</v>
+        <v>0</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59347,7 +59347,7 @@
         <v>1944</v>
       </c>
       <c r="Q888" s="6">
-        <v>170.06</v>
+        <v>346.28</v>
       </c>
       <c r="R888" s="6" t="s">
         <v>23</v>
@@ -60568,7 +60568,7 @@
         <v>21</v>
       </c>
       <c r="K909" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L909" s="6">
         <v>0</v>
@@ -61176,7 +61176,7 @@
         <v>2038</v>
       </c>
       <c r="Q919" s="6">
-        <v>89.2</v>
+        <v>815.8</v>
       </c>
       <c r="R919" s="6" t="s">
         <v>23</v>
@@ -61235,7 +61235,7 @@
         <v>2041</v>
       </c>
       <c r="Q920" s="6">
-        <v>20205.490000000002</v>
+        <v>18195.97</v>
       </c>
       <c r="R920" s="6" t="s">
         <v>23</v>
@@ -61353,7 +61353,7 @@
         <v>2047</v>
       </c>
       <c r="Q922" s="6">
-        <v>40014.955000000002</v>
+        <v>36911.995000000003</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61471,7 +61471,7 @@
         <v>2053</v>
       </c>
       <c r="Q924" s="6">
-        <v>2371</v>
+        <v>2147</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -61648,7 +61648,7 @@
         <v>2062</v>
       </c>
       <c r="Q927" s="6">
-        <v>614.35</v>
+        <v>392.6</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62061,7 +62061,7 @@
         <v>2083</v>
       </c>
       <c r="Q934" s="6">
-        <v>3662.4</v>
+        <v>4298.12</v>
       </c>
       <c r="R934" s="6" t="s">
         <v>23</v>
@@ -62238,7 +62238,7 @@
         <v>2092</v>
       </c>
       <c r="Q937" s="6">
-        <v>1093.3</v>
+        <v>5437.66</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -62415,7 +62415,7 @@
         <v>2101</v>
       </c>
       <c r="Q940" s="6">
-        <v>362.4</v>
+        <v>156.44</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62474,7 +62474,7 @@
         <v>2104</v>
       </c>
       <c r="Q941" s="6">
-        <v>1422.77</v>
+        <v>2331.94</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62533,7 +62533,7 @@
         <v>2107</v>
       </c>
       <c r="Q942" s="6">
-        <v>3000</v>
+        <v>2855.1</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -62592,7 +62592,7 @@
         <v>2110</v>
       </c>
       <c r="Q943" s="6">
-        <v>1000</v>
+        <v>1962.74</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -63282,7 +63282,7 @@
         <v>21</v>
       </c>
       <c r="K955" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L955" s="6">
         <v>0</v>
@@ -63359,7 +63359,7 @@
         <v>2149</v>
       </c>
       <c r="Q956" s="6">
-        <v>1291.3</v>
+        <v>418.9</v>
       </c>
       <c r="R956" s="6" t="s">
         <v>23</v>
@@ -63400,10 +63400,10 @@
         <v>21</v>
       </c>
       <c r="K957" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L957" s="6">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="M957" s="6">
         <v>0</v>
@@ -63418,7 +63418,7 @@
         <v>2152</v>
       </c>
       <c r="Q957" s="6">
-        <v>0</v>
+        <v>1473.2</v>
       </c>
       <c r="R957" s="6" t="s">
         <v>23</v>
@@ -63518,10 +63518,10 @@
         <v>21</v>
       </c>
       <c r="K959" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L959" s="6">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="M959" s="6">
         <v>0</v>
@@ -63536,7 +63536,7 @@
         <v>2158</v>
       </c>
       <c r="Q959" s="6">
-        <v>0</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14436" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14541" uniqueCount="2197">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6550,7 +6550,70 @@
     <t>PARIS TERRACOTA</t>
   </si>
   <si>
-    <t>Lista Produto : 03-01-2020 11:23:29</t>
+    <t>Lista Produto : 09-01-2020 09:46:53</t>
+  </si>
+  <si>
+    <t>TC14001</t>
+  </si>
+  <si>
+    <t>E0101</t>
+  </si>
+  <si>
+    <t>VENICE - 5</t>
+  </si>
+  <si>
+    <t>TC14002</t>
+  </si>
+  <si>
+    <t>E0201</t>
+  </si>
+  <si>
+    <t>SICILIA - N41 T-NACAR</t>
+  </si>
+  <si>
+    <t>TC15144</t>
+  </si>
+  <si>
+    <t>G2970</t>
+  </si>
+  <si>
+    <t>SORRENTO - 303 (TERRACOTA)</t>
+  </si>
+  <si>
+    <t>TC15145</t>
+  </si>
+  <si>
+    <t>G2930</t>
+  </si>
+  <si>
+    <t>SORRENTO - 501 (VERDE)</t>
+  </si>
+  <si>
+    <t>TC15146</t>
+  </si>
+  <si>
+    <t>G0660</t>
+  </si>
+  <si>
+    <t>BOSTON - MOSTAZA</t>
+  </si>
+  <si>
+    <t>TC16004</t>
+  </si>
+  <si>
+    <t>V0160</t>
+  </si>
+  <si>
+    <t>PARIS  GOLD</t>
+  </si>
+  <si>
+    <t>TC16005</t>
+  </si>
+  <si>
+    <t>V0220</t>
+  </si>
+  <si>
+    <t>QUARTZ - 603 (AZUL MARINHO)</t>
   </si>
 </sst>
 </file>
@@ -6717,8 +6780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S964" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S964"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S971" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S971"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7007,10 +7070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S964"/>
+  <dimension ref="A1:S971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
-      <selection activeCell="C960" sqref="C960"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F977" sqref="F977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7018,7 +7081,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -17457,7 +17520,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>982.05359999999996</v>
+        <v>484.40359999999998</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17516,7 +17579,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>736.34</v>
+        <v>704.39</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -17988,7 +18051,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>8419.09</v>
+        <v>6419.89</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18637,7 +18700,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>1868.3</v>
+        <v>1633.1</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19050,7 +19113,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>78.23</v>
+        <v>76.209999999999994</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19109,7 +19172,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>3661.8</v>
+        <v>3037.49</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19168,7 +19231,7 @@
         <v>434</v>
       </c>
       <c r="Q207" s="6">
-        <v>3679.82</v>
+        <v>3665.61</v>
       </c>
       <c r="R207" s="6" t="s">
         <v>23</v>
@@ -19286,7 +19349,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>3529.36</v>
+        <v>3529.63</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20053,7 +20116,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>5236.7622000000001</v>
+        <v>4977.6671999999999</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20112,7 +20175,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1970.99</v>
+        <v>1962.65</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20348,7 +20411,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>9230.36</v>
+        <v>7963.58</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20407,7 +20470,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>6435.94</v>
+        <v>5225.42</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21115,7 +21178,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>6084.82</v>
+        <v>4964.6000000000004</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21410,7 +21473,7 @@
         <v>510</v>
       </c>
       <c r="Q245" s="6">
-        <v>784</v>
+        <v>696.1</v>
       </c>
       <c r="R245" s="6" t="s">
         <v>23</v>
@@ -21469,7 +21532,7 @@
         <v>512</v>
       </c>
       <c r="Q246" s="6">
-        <v>1454.4</v>
+        <v>1366.5</v>
       </c>
       <c r="R246" s="6" t="s">
         <v>23</v>
@@ -21587,7 +21650,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>2740.34</v>
+        <v>1645.68</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -21705,7 +21768,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>1343.79</v>
+        <v>1045.8800000000001</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -21764,7 +21827,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>2015.91</v>
+        <v>787.59</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22590,7 +22653,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>2612.8000000000002</v>
+        <v>2431.1999999999998</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -22649,7 +22712,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>6064.63</v>
+        <v>5629.63</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -22767,7 +22830,7 @@
         <v>556</v>
       </c>
       <c r="Q268" s="6">
-        <v>421.28</v>
+        <v>86.93</v>
       </c>
       <c r="R268" s="6" t="s">
         <v>23</v>
@@ -22885,7 +22948,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>478.46</v>
+        <v>480</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -23829,7 +23892,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1162.4000000000001</v>
+        <v>1154.6199999999999</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -23888,7 +23951,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>3342.69</v>
+        <v>2836.0250000000001</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -23947,7 +24010,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>4439.5</v>
+        <v>3399.14</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24065,7 +24128,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3997.8</v>
+        <v>3955.32</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24124,7 +24187,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>6553.2340000000004</v>
+        <v>4987.9139999999998</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24183,7 +24246,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>326.83</v>
+        <v>1365.33</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24596,7 +24659,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>1187.5999999999999</v>
+        <v>1185.23</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -24655,7 +24718,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>2158.0500000000002</v>
+        <v>2139.94</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -24714,7 +24777,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>1100.29</v>
+        <v>956.14</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -24773,7 +24836,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>4550.6000000000004</v>
+        <v>4335.59</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -24832,7 +24895,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>7960</v>
+        <v>6880.75</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -24891,7 +24954,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>63033.591</v>
+        <v>58849.845999999998</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -24950,7 +25013,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>1204.9000000000001</v>
+        <v>999.5</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25009,7 +25072,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>4538.87</v>
+        <v>3866.17</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25068,7 +25131,7 @@
         <v>635</v>
       </c>
       <c r="Q307" s="6">
-        <v>1022.2</v>
+        <v>935.2</v>
       </c>
       <c r="R307" s="6" t="s">
         <v>23</v>
@@ -25245,7 +25308,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3876.86</v>
+        <v>3871.22</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25363,7 +25426,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>4244.45</v>
+        <v>2675.12</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25599,7 +25662,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>352.54</v>
+        <v>344.24</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -25658,7 +25721,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8779.49</v>
+        <v>8751.69</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -25776,7 +25839,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>11007.87</v>
+        <v>9277.42</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -25835,7 +25898,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3300.87</v>
+        <v>3288.83</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -25894,7 +25957,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>8102.05</v>
+        <v>5644.64</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -25953,7 +26016,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>3851.7</v>
+        <v>3692.7550000000001</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26012,7 +26075,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1718</v>
+        <v>1704.76</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26071,7 +26134,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>3036.5</v>
+        <v>2989.5</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26130,7 +26193,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>4297.7996999999996</v>
+        <v>4251.2996999999996</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26189,7 +26252,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>561.79999999999995</v>
+        <v>548.55999999999995</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26307,7 +26370,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3856.6</v>
+        <v>3802.95</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26366,7 +26429,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2100.11</v>
+        <v>2092.6999999999998</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26484,7 +26547,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2267.1</v>
+        <v>2022.07</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26543,7 +26606,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2398.0693999999999</v>
+        <v>2376.56</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -26779,7 +26842,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2631.57</v>
+        <v>2629.08</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27015,7 +27078,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>282.76</v>
+        <v>253.22</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27192,7 +27255,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>207.3</v>
+        <v>205.37</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27369,7 +27432,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>1237.69</v>
+        <v>1219.19</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27428,7 +27491,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>245.7</v>
+        <v>226.48</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -27605,7 +27668,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>5368.03</v>
+        <v>5286.63</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -27841,7 +27904,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>291.89999999999998</v>
+        <v>286</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28195,7 +28258,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1630.78</v>
+        <v>1616.56</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -28313,7 +28376,7 @@
         <v>765</v>
       </c>
       <c r="Q362" s="6">
-        <v>1044.72</v>
+        <v>899.82</v>
       </c>
       <c r="R362" s="6" t="s">
         <v>23</v>
@@ -28785,7 +28848,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>161.9</v>
+        <v>160.4</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -35098,7 +35161,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>1029.4100000000001</v>
+        <v>696.15</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35157,7 +35220,7 @@
         <v>1010</v>
       </c>
       <c r="Q478" s="6">
-        <v>1491.24</v>
+        <v>1438.48</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -35216,7 +35279,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>1502.1</v>
+        <v>1370.2</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -50792,7 +50855,7 @@
         <v>1546</v>
       </c>
       <c r="Q743" s="6">
-        <v>451.4</v>
+        <v>447.6</v>
       </c>
       <c r="R743" s="6" t="s">
         <v>23</v>
@@ -53565,7 +53628,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>14801.396000000001</v>
+        <v>13987.126</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -53801,7 +53864,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>5482.48</v>
+        <v>5480.85</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -53860,7 +53923,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>28252.49</v>
+        <v>27011.242600000001</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54155,7 +54218,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>9778.93</v>
+        <v>9067.1239999999998</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54273,7 +54336,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>1301.29</v>
+        <v>1297.6679999999999</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54332,7 +54395,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>27019.134399999999</v>
+        <v>26951.349399999999</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54391,7 +54454,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>26536.57</v>
+        <v>25748.34</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54450,7 +54513,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>67020.758300000001</v>
+        <v>64674.963300000003</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54509,7 +54572,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>1971.89</v>
+        <v>1741.37</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -54568,7 +54631,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>5598</v>
+        <v>5326.8</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55228,16 +55291,16 @@
     </row>
     <row r="819" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
-        <v>1727</v>
+        <v>2176</v>
       </c>
       <c r="B819" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C819" s="5" t="s">
-        <v>1728</v>
+        <v>2177</v>
       </c>
       <c r="D819" s="5" t="s">
-        <v>21</v>
+        <v>2178</v>
       </c>
       <c r="E819" s="6" t="s">
         <v>23</v>
@@ -55258,10 +55321,10 @@
         <v>21</v>
       </c>
       <c r="K819" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L819" s="6">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="M819" s="6">
         <v>0</v>
@@ -55273,10 +55336,10 @@
         <v>21</v>
       </c>
       <c r="P819" s="5" t="s">
-        <v>1729</v>
+        <v>2177</v>
       </c>
       <c r="Q819" s="6">
-        <v>978.2</v>
+        <v>0</v>
       </c>
       <c r="R819" s="6" t="s">
         <v>23</v>
@@ -55287,16 +55350,16 @@
     </row>
     <row r="820" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
-        <v>1730</v>
+        <v>2179</v>
       </c>
       <c r="B820" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C820" s="5" t="s">
-        <v>1731</v>
+        <v>2180</v>
       </c>
       <c r="D820" s="5" t="s">
-        <v>21</v>
+        <v>2181</v>
       </c>
       <c r="E820" s="6" t="s">
         <v>23</v>
@@ -55317,10 +55380,10 @@
         <v>21</v>
       </c>
       <c r="K820" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L820" s="6">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="M820" s="6">
         <v>0</v>
@@ -55332,10 +55395,10 @@
         <v>21</v>
       </c>
       <c r="P820" s="5" t="s">
-        <v>1732</v>
+        <v>2180</v>
       </c>
       <c r="Q820" s="6">
-        <v>911.8</v>
+        <v>0</v>
       </c>
       <c r="R820" s="6" t="s">
         <v>23</v>
@@ -55346,13 +55409,13 @@
     </row>
     <row r="821" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="B821" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C821" s="5" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="D821" s="5" t="s">
         <v>21</v>
@@ -55391,10 +55454,10 @@
         <v>21</v>
       </c>
       <c r="P821" s="5" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="Q821" s="6">
-        <v>2341.8200000000002</v>
+        <v>978.2</v>
       </c>
       <c r="R821" s="6" t="s">
         <v>23</v>
@@ -55405,13 +55468,13 @@
     </row>
     <row r="822" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B822" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C822" s="5" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="D822" s="5" t="s">
         <v>21</v>
@@ -55450,10 +55513,10 @@
         <v>21</v>
       </c>
       <c r="P822" s="5" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="Q822" s="6">
-        <v>796.4</v>
+        <v>911.8</v>
       </c>
       <c r="R822" s="6" t="s">
         <v>23</v>
@@ -55464,13 +55527,13 @@
     </row>
     <row r="823" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="B823" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C823" s="5" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="D823" s="5" t="s">
         <v>21</v>
@@ -55497,7 +55560,7 @@
         <v>23</v>
       </c>
       <c r="L823" s="6">
-        <v>4.45</v>
+        <v>3.42</v>
       </c>
       <c r="M823" s="6">
         <v>0</v>
@@ -55509,10 +55572,10 @@
         <v>21</v>
       </c>
       <c r="P823" s="5" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>3163.7</v>
+        <v>1270.46</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -55523,13 +55586,13 @@
     </row>
     <row r="824" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="B824" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C824" s="5" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="D824" s="5" t="s">
         <v>21</v>
@@ -55556,7 +55619,7 @@
         <v>23</v>
       </c>
       <c r="L824" s="6">
-        <v>4.45</v>
+        <v>3.42</v>
       </c>
       <c r="M824" s="6">
         <v>0</v>
@@ -55568,10 +55631,10 @@
         <v>21</v>
       </c>
       <c r="P824" s="5" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="Q824" s="6">
-        <v>738.9</v>
+        <v>796.4</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -55582,13 +55645,13 @@
     </row>
     <row r="825" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="B825" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C825" s="5" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="D825" s="5" t="s">
         <v>21</v>
@@ -55627,10 +55690,10 @@
         <v>21</v>
       </c>
       <c r="P825" s="5" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="Q825" s="6">
-        <v>760.66</v>
+        <v>3163.7</v>
       </c>
       <c r="R825" s="6" t="s">
         <v>23</v>
@@ -55641,13 +55704,13 @@
     </row>
     <row r="826" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="B826" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C826" s="5" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="D826" s="5" t="s">
         <v>21</v>
@@ -55686,10 +55749,10 @@
         <v>21</v>
       </c>
       <c r="P826" s="5" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="Q826" s="6">
-        <v>3147.1</v>
+        <v>738.9</v>
       </c>
       <c r="R826" s="6" t="s">
         <v>23</v>
@@ -55700,13 +55763,13 @@
     </row>
     <row r="827" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="B827" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C827" s="5" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="D827" s="5" t="s">
         <v>21</v>
@@ -55733,7 +55796,7 @@
         <v>23</v>
       </c>
       <c r="L827" s="6">
-        <v>2</v>
+        <v>4.45</v>
       </c>
       <c r="M827" s="6">
         <v>0</v>
@@ -55745,10 +55808,10 @@
         <v>21</v>
       </c>
       <c r="P827" s="5" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="Q827" s="6">
-        <v>768.3</v>
+        <v>760.66</v>
       </c>
       <c r="R827" s="6" t="s">
         <v>23</v>
@@ -55759,13 +55822,13 @@
     </row>
     <row r="828" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="B828" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C828" s="5" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="D828" s="5" t="s">
         <v>21</v>
@@ -55792,7 +55855,7 @@
         <v>23</v>
       </c>
       <c r="L828" s="6">
-        <v>2</v>
+        <v>4.45</v>
       </c>
       <c r="M828" s="6">
         <v>0</v>
@@ -55804,10 +55867,10 @@
         <v>21</v>
       </c>
       <c r="P828" s="5" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="Q828" s="6">
-        <v>2321.8000000000002</v>
+        <v>3147.1</v>
       </c>
       <c r="R828" s="6" t="s">
         <v>23</v>
@@ -55818,16 +55881,16 @@
     </row>
     <row r="829" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="B829" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C829" s="5" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="D829" s="5" t="s">
-        <v>1759</v>
+        <v>21</v>
       </c>
       <c r="E829" s="6" t="s">
         <v>23</v>
@@ -55851,7 +55914,7 @@
         <v>23</v>
       </c>
       <c r="L829" s="6">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="M829" s="6">
         <v>0</v>
@@ -55863,10 +55926,10 @@
         <v>21</v>
       </c>
       <c r="P829" s="5" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="Q829" s="6">
-        <v>10822.53</v>
+        <v>768.3</v>
       </c>
       <c r="R829" s="6" t="s">
         <v>23</v>
@@ -55877,13 +55940,13 @@
     </row>
     <row r="830" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B830" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C830" s="5" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="D830" s="5" t="s">
         <v>21</v>
@@ -55910,7 +55973,7 @@
         <v>23</v>
       </c>
       <c r="L830" s="6">
-        <v>2.3199999999999998</v>
+        <v>2</v>
       </c>
       <c r="M830" s="6">
         <v>0</v>
@@ -55922,10 +55985,10 @@
         <v>21</v>
       </c>
       <c r="P830" s="5" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="Q830" s="6">
-        <v>2983.86</v>
+        <v>2321.8000000000002</v>
       </c>
       <c r="R830" s="6" t="s">
         <v>23</v>
@@ -55936,16 +55999,16 @@
     </row>
     <row r="831" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B831" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C831" s="5" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="D831" s="5" t="s">
-        <v>21</v>
+        <v>1759</v>
       </c>
       <c r="E831" s="6" t="s">
         <v>23</v>
@@ -55969,7 +56032,7 @@
         <v>23</v>
       </c>
       <c r="L831" s="6">
-        <v>4.45</v>
+        <v>1.44</v>
       </c>
       <c r="M831" s="6">
         <v>0</v>
@@ -55981,10 +56044,10 @@
         <v>21</v>
       </c>
       <c r="P831" s="5" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>4714.6000000000004</v>
+        <v>22609.88</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -55995,13 +56058,13 @@
     </row>
     <row r="832" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="B832" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C832" s="5" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="D832" s="5" t="s">
         <v>21</v>
@@ -56028,7 +56091,7 @@
         <v>23</v>
       </c>
       <c r="L832" s="6">
-        <v>4.45</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M832" s="6">
         <v>0</v>
@@ -56040,10 +56103,10 @@
         <v>21</v>
       </c>
       <c r="P832" s="5" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>5113.3999999999996</v>
+        <v>9322.85</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56054,13 +56117,13 @@
     </row>
     <row r="833" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="B833" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C833" s="5" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="D833" s="5" t="s">
         <v>21</v>
@@ -56087,7 +56150,7 @@
         <v>23</v>
       </c>
       <c r="L833" s="6">
-        <v>2.3199999999999998</v>
+        <v>4.45</v>
       </c>
       <c r="M833" s="6">
         <v>0</v>
@@ -56099,10 +56162,10 @@
         <v>21</v>
       </c>
       <c r="P833" s="5" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="Q833" s="6">
-        <v>0</v>
+        <v>4714.6000000000004</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -56113,16 +56176,16 @@
     </row>
     <row r="834" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="B834" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C834" s="5" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="D834" s="5" t="s">
-        <v>1774</v>
+        <v>21</v>
       </c>
       <c r="E834" s="6" t="s">
         <v>23</v>
@@ -56146,7 +56209,7 @@
         <v>23</v>
       </c>
       <c r="L834" s="6">
-        <v>2.33</v>
+        <v>4.45</v>
       </c>
       <c r="M834" s="6">
         <v>0</v>
@@ -56158,10 +56221,10 @@
         <v>21</v>
       </c>
       <c r="P834" s="5" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="Q834" s="6">
-        <v>247.95</v>
+        <v>5113.3999999999996</v>
       </c>
       <c r="R834" s="6" t="s">
         <v>23</v>
@@ -56172,16 +56235,16 @@
     </row>
     <row r="835" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="B835" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C835" s="5" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="D835" s="5" t="s">
-        <v>1778</v>
+        <v>21</v>
       </c>
       <c r="E835" s="6" t="s">
         <v>23</v>
@@ -56205,7 +56268,7 @@
         <v>23</v>
       </c>
       <c r="L835" s="6">
-        <v>2.84</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M835" s="6">
         <v>0</v>
@@ -56217,10 +56280,10 @@
         <v>21</v>
       </c>
       <c r="P835" s="5" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>562.20000000000005</v>
+        <v>1033</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56231,16 +56294,16 @@
     </row>
     <row r="836" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="B836" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C836" s="5" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="D836" s="5" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="E836" s="6" t="s">
         <v>23</v>
@@ -56264,7 +56327,7 @@
         <v>23</v>
       </c>
       <c r="L836" s="6">
-        <v>4.25</v>
+        <v>2.33</v>
       </c>
       <c r="M836" s="6">
         <v>0</v>
@@ -56276,10 +56339,10 @@
         <v>21</v>
       </c>
       <c r="P836" s="5" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="Q836" s="6">
-        <v>184.8</v>
+        <v>247.95</v>
       </c>
       <c r="R836" s="6" t="s">
         <v>23</v>
@@ -56290,16 +56353,16 @@
     </row>
     <row r="837" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="B837" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C837" s="5" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="D837" s="5" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="E837" s="6" t="s">
         <v>23</v>
@@ -56323,7 +56386,7 @@
         <v>23</v>
       </c>
       <c r="L837" s="6">
-        <v>4.25</v>
+        <v>2.84</v>
       </c>
       <c r="M837" s="6">
         <v>0</v>
@@ -56335,10 +56398,10 @@
         <v>21</v>
       </c>
       <c r="P837" s="5" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="Q837" s="6">
-        <v>130.80000000000001</v>
+        <v>542.84</v>
       </c>
       <c r="R837" s="6" t="s">
         <v>23</v>
@@ -56349,16 +56412,16 @@
     </row>
     <row r="838" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="B838" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C838" s="5" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="D838" s="5" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="E838" s="6" t="s">
         <v>23</v>
@@ -56394,10 +56457,10 @@
         <v>21</v>
       </c>
       <c r="P838" s="5" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="Q838" s="6">
-        <v>4776.16</v>
+        <v>184.8</v>
       </c>
       <c r="R838" s="6" t="s">
         <v>23</v>
@@ -56408,16 +56471,16 @@
     </row>
     <row r="839" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="B839" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C839" s="5" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="D839" s="5" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="E839" s="6" t="s">
         <v>23</v>
@@ -56453,10 +56516,10 @@
         <v>21</v>
       </c>
       <c r="P839" s="5" t="s">
-        <v>747</v>
+        <v>1786</v>
       </c>
       <c r="Q839" s="6">
-        <v>732.5</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="R839" s="6" t="s">
         <v>23</v>
@@ -56467,16 +56530,16 @@
     </row>
     <row r="840" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B840" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C840" s="5" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="D840" s="5" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="E840" s="6" t="s">
         <v>23</v>
@@ -56512,10 +56575,10 @@
         <v>21</v>
       </c>
       <c r="P840" s="5" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="Q840" s="6">
-        <v>48.5</v>
+        <v>4712.12</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -56526,16 +56589,16 @@
     </row>
     <row r="841" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="B841" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C841" s="5" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="D841" s="5" t="s">
-        <v>21</v>
+        <v>1793</v>
       </c>
       <c r="E841" s="6" t="s">
         <v>23</v>
@@ -56571,10 +56634,10 @@
         <v>21</v>
       </c>
       <c r="P841" s="5" t="s">
-        <v>1800</v>
+        <v>747</v>
       </c>
       <c r="Q841" s="6">
-        <v>423.69</v>
+        <v>732.5</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -56585,16 +56648,16 @@
     </row>
     <row r="842" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="B842" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C842" s="5" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="D842" s="5" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="E842" s="6" t="s">
         <v>23</v>
@@ -56618,7 +56681,7 @@
         <v>23</v>
       </c>
       <c r="L842" s="6">
-        <v>2.33</v>
+        <v>4.25</v>
       </c>
       <c r="M842" s="6">
         <v>0</v>
@@ -56630,10 +56693,10 @@
         <v>21</v>
       </c>
       <c r="P842" s="5" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="Q842" s="6">
-        <v>1520.4</v>
+        <v>48.5</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -56644,16 +56707,16 @@
     </row>
     <row r="843" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A843" s="5" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="B843" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C843" s="5" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="D843" s="5" t="s">
-        <v>1807</v>
+        <v>21</v>
       </c>
       <c r="E843" s="6" t="s">
         <v>23</v>
@@ -56677,7 +56740,7 @@
         <v>23</v>
       </c>
       <c r="L843" s="6">
-        <v>2.52</v>
+        <v>4.25</v>
       </c>
       <c r="M843" s="6">
         <v>0</v>
@@ -56689,10 +56752,10 @@
         <v>21</v>
       </c>
       <c r="P843" s="5" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>412.8</v>
+        <v>391.63</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -56703,16 +56766,16 @@
     </row>
     <row r="844" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="B844" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C844" s="5" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="D844" s="5" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="E844" s="6" t="s">
         <v>23</v>
@@ -56736,7 +56799,7 @@
         <v>23</v>
       </c>
       <c r="L844" s="6">
-        <v>3.7</v>
+        <v>2.33</v>
       </c>
       <c r="M844" s="6">
         <v>0</v>
@@ -56748,10 +56811,10 @@
         <v>21</v>
       </c>
       <c r="P844" s="5" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="Q844" s="6">
-        <v>169.3</v>
+        <v>1520.4</v>
       </c>
       <c r="R844" s="6" t="s">
         <v>23</v>
@@ -56762,16 +56825,16 @@
     </row>
     <row r="845" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="B845" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="D845" s="5" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="E845" s="6" t="s">
         <v>23</v>
@@ -56795,7 +56858,7 @@
         <v>23</v>
       </c>
       <c r="L845" s="6">
-        <v>4.25</v>
+        <v>2.52</v>
       </c>
       <c r="M845" s="6">
         <v>0</v>
@@ -56807,10 +56870,10 @@
         <v>21</v>
       </c>
       <c r="P845" s="5" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="Q845" s="6">
-        <v>401.72</v>
+        <v>412.8</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -56821,16 +56884,16 @@
     </row>
     <row r="846" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="B846" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C846" s="5" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="D846" s="5" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="E846" s="6" t="s">
         <v>23</v>
@@ -56854,7 +56917,7 @@
         <v>23</v>
       </c>
       <c r="L846" s="6">
-        <v>2.23</v>
+        <v>3.7</v>
       </c>
       <c r="M846" s="6">
         <v>0</v>
@@ -56866,10 +56929,10 @@
         <v>21</v>
       </c>
       <c r="P846" s="5" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="Q846" s="6">
-        <v>241.96</v>
+        <v>169.3</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -56880,16 +56943,16 @@
     </row>
     <row r="847" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="B847" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="D847" s="5" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="E847" s="6" t="s">
         <v>23</v>
@@ -56910,10 +56973,10 @@
         <v>21</v>
       </c>
       <c r="K847" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L847" s="6">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="M847" s="6">
         <v>0</v>
@@ -56925,10 +56988,10 @@
         <v>21</v>
       </c>
       <c r="P847" s="5" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="Q847" s="6">
-        <v>0</v>
+        <v>401.72</v>
       </c>
       <c r="R847" s="6" t="s">
         <v>23</v>
@@ -56939,16 +57002,16 @@
     </row>
     <row r="848" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="B848" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="D848" s="5" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="E848" s="6" t="s">
         <v>23</v>
@@ -56972,7 +57035,7 @@
         <v>23</v>
       </c>
       <c r="L848" s="6">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="M848" s="6">
         <v>0</v>
@@ -56984,10 +57047,10 @@
         <v>21</v>
       </c>
       <c r="P848" s="5" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="Q848" s="6">
-        <v>1281.71</v>
+        <v>204.82</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -56998,16 +57061,16 @@
     </row>
     <row r="849" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="B849" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C849" s="5" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="D849" s="5" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="E849" s="6" t="s">
         <v>23</v>
@@ -57028,10 +57091,10 @@
         <v>21</v>
       </c>
       <c r="K849" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L849" s="6">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="M849" s="6">
         <v>0</v>
@@ -57043,10 +57106,10 @@
         <v>21</v>
       </c>
       <c r="P849" s="5" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="Q849" s="6">
-        <v>897.6</v>
+        <v>0</v>
       </c>
       <c r="R849" s="6" t="s">
         <v>23</v>
@@ -57057,16 +57120,16 @@
     </row>
     <row r="850" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="B850" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="D850" s="5" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="E850" s="6" t="s">
         <v>23</v>
@@ -57090,7 +57153,7 @@
         <v>23</v>
       </c>
       <c r="L850" s="6">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="M850" s="6">
         <v>0</v>
@@ -57102,10 +57165,10 @@
         <v>21</v>
       </c>
       <c r="P850" s="5" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>1004.4</v>
+        <v>1261.68</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -57116,16 +57179,16 @@
     </row>
     <row r="851" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="B851" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C851" s="5" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="D851" s="5" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="E851" s="6" t="s">
         <v>23</v>
@@ -57149,7 +57212,7 @@
         <v>23</v>
       </c>
       <c r="L851" s="6">
-        <v>4.25</v>
+        <v>2.08</v>
       </c>
       <c r="M851" s="6">
         <v>0</v>
@@ -57161,10 +57224,10 @@
         <v>21</v>
       </c>
       <c r="P851" s="5" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="Q851" s="6">
-        <v>0</v>
+        <v>897.6</v>
       </c>
       <c r="R851" s="6" t="s">
         <v>23</v>
@@ -57175,16 +57238,16 @@
     </row>
     <row r="852" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="B852" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C852" s="5" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="D852" s="5" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="E852" s="6" t="s">
         <v>23</v>
@@ -57205,10 +57268,10 @@
         <v>21</v>
       </c>
       <c r="K852" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L852" s="6">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="M852" s="6">
         <v>0</v>
@@ -57220,10 +57283,10 @@
         <v>21</v>
       </c>
       <c r="P852" s="5" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="Q852" s="6">
-        <v>0</v>
+        <v>1004.4</v>
       </c>
       <c r="R852" s="6" t="s">
         <v>23</v>
@@ -57234,16 +57297,16 @@
     </row>
     <row r="853" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="B853" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C853" s="5" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="D853" s="5" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="E853" s="6" t="s">
         <v>23</v>
@@ -57267,7 +57330,7 @@
         <v>23</v>
       </c>
       <c r="L853" s="6">
-        <v>2.52</v>
+        <v>4.25</v>
       </c>
       <c r="M853" s="6">
         <v>0</v>
@@ -57276,13 +57339,13 @@
         <v>0</v>
       </c>
       <c r="O853" s="5" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="P853" s="5" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="Q853" s="6">
-        <v>84.5</v>
+        <v>0</v>
       </c>
       <c r="R853" s="6" t="s">
         <v>23</v>
@@ -57293,16 +57356,16 @@
     </row>
     <row r="854" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="B854" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C854" s="5" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="D854" s="5" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="E854" s="6" t="s">
         <v>23</v>
@@ -57323,10 +57386,10 @@
         <v>21</v>
       </c>
       <c r="K854" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L854" s="6">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="M854" s="6">
         <v>0</v>
@@ -57338,10 +57401,10 @@
         <v>21</v>
       </c>
       <c r="P854" s="5" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="Q854" s="6">
-        <v>176.9</v>
+        <v>0</v>
       </c>
       <c r="R854" s="6" t="s">
         <v>23</v>
@@ -57352,16 +57415,16 @@
     </row>
     <row r="855" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="B855" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="D855" s="5" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="E855" s="6" t="s">
         <v>23</v>
@@ -57385,7 +57448,7 @@
         <v>23</v>
       </c>
       <c r="L855" s="6">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="M855" s="6">
         <v>0</v>
@@ -57394,13 +57457,13 @@
         <v>0</v>
       </c>
       <c r="O855" s="5" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="P855" s="5" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="Q855" s="6">
-        <v>4496.5</v>
+        <v>84.5</v>
       </c>
       <c r="R855" s="6" t="s">
         <v>23</v>
@@ -57411,16 +57474,16 @@
     </row>
     <row r="856" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="B856" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C856" s="5" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="D856" s="5" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="E856" s="6" t="s">
         <v>23</v>
@@ -57441,10 +57504,10 @@
         <v>21</v>
       </c>
       <c r="K856" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L856" s="6">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="M856" s="6">
         <v>0</v>
@@ -57456,10 +57519,10 @@
         <v>21</v>
       </c>
       <c r="P856" s="5" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="Q856" s="6">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -57470,16 +57533,16 @@
     </row>
     <row r="857" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="B857" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C857" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="D857" s="5" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="E857" s="6" t="s">
         <v>23</v>
@@ -57503,7 +57566,7 @@
         <v>23</v>
       </c>
       <c r="L857" s="6">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="M857" s="6">
         <v>0</v>
@@ -57515,10 +57578,10 @@
         <v>21</v>
       </c>
       <c r="P857" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="Q857" s="6">
-        <v>556.1</v>
+        <v>4496.5</v>
       </c>
       <c r="R857" s="6" t="s">
         <v>23</v>
@@ -57529,16 +57592,16 @@
     </row>
     <row r="858" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="B858" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C858" s="5" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D858" s="5" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="E858" s="6" t="s">
         <v>23</v>
@@ -57559,10 +57622,10 @@
         <v>21</v>
       </c>
       <c r="K858" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L858" s="6">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="M858" s="6">
         <v>0</v>
@@ -57571,13 +57634,13 @@
         <v>0</v>
       </c>
       <c r="O858" s="5" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="P858" s="5" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="Q858" s="6">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="R858" s="6" t="s">
         <v>23</v>
@@ -57588,16 +57651,16 @@
     </row>
     <row r="859" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="B859" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C859" s="5" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="D859" s="5" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="E859" s="6" t="s">
         <v>23</v>
@@ -57621,7 +57684,7 @@
         <v>23</v>
       </c>
       <c r="L859" s="6">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="M859" s="6">
         <v>0</v>
@@ -57633,10 +57696,10 @@
         <v>21</v>
       </c>
       <c r="P859" s="5" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="Q859" s="6">
-        <v>16754.75</v>
+        <v>556.1</v>
       </c>
       <c r="R859" s="6" t="s">
         <v>23</v>
@@ -57647,16 +57710,16 @@
     </row>
     <row r="860" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="B860" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C860" s="5" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="D860" s="5" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="E860" s="6" t="s">
         <v>23</v>
@@ -57680,7 +57743,7 @@
         <v>23</v>
       </c>
       <c r="L860" s="6">
-        <v>1.89</v>
+        <v>4.25</v>
       </c>
       <c r="M860" s="6">
         <v>0</v>
@@ -57689,13 +57752,13 @@
         <v>0</v>
       </c>
       <c r="O860" s="5" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="P860" s="5" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="Q860" s="6">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="R860" s="6" t="s">
         <v>23</v>
@@ -57706,16 +57769,16 @@
     </row>
     <row r="861" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="B861" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C861" s="5" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="D861" s="5" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="E861" s="6" t="s">
         <v>23</v>
@@ -57739,7 +57802,7 @@
         <v>23</v>
       </c>
       <c r="L861" s="6">
-        <v>3.78</v>
+        <v>1.99</v>
       </c>
       <c r="M861" s="6">
         <v>0</v>
@@ -57751,10 +57814,10 @@
         <v>21</v>
       </c>
       <c r="P861" s="5" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="Q861" s="6">
-        <v>1617.93</v>
+        <v>16744.29</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -57765,16 +57828,16 @@
     </row>
     <row r="862" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="B862" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C862" s="5" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="D862" s="5" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="E862" s="6" t="s">
         <v>23</v>
@@ -57798,7 +57861,7 @@
         <v>23</v>
       </c>
       <c r="L862" s="6">
-        <v>3.78</v>
+        <v>1.89</v>
       </c>
       <c r="M862" s="6">
         <v>0</v>
@@ -57807,13 +57870,13 @@
         <v>0</v>
       </c>
       <c r="O862" s="5" t="s">
-        <v>1866</v>
+        <v>21</v>
       </c>
       <c r="P862" s="5" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="Q862" s="6">
-        <v>1620.78</v>
+        <v>45</v>
       </c>
       <c r="R862" s="6" t="s">
         <v>23</v>
@@ -57824,16 +57887,16 @@
     </row>
     <row r="863" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="B863" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C863" s="5" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="D863" s="5" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="E863" s="6" t="s">
         <v>23</v>
@@ -57857,7 +57920,7 @@
         <v>23</v>
       </c>
       <c r="L863" s="6">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="M863" s="6">
         <v>0</v>
@@ -57866,13 +57929,13 @@
         <v>0</v>
       </c>
       <c r="O863" s="5" t="s">
-        <v>1866</v>
+        <v>21</v>
       </c>
       <c r="P863" s="5" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="Q863" s="6">
-        <v>903.96</v>
+        <v>1617.93</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -57883,16 +57946,16 @@
     </row>
     <row r="864" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="B864" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C864" s="5" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="D864" s="5" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="E864" s="6" t="s">
         <v>23</v>
@@ -57928,10 +57991,10 @@
         <v>1866</v>
       </c>
       <c r="P864" s="5" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="Q864" s="6">
-        <v>1281.3499999999999</v>
+        <v>1620.78</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -57942,16 +58005,16 @@
     </row>
     <row r="865" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="B865" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C865" s="5" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D865" s="5" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="E865" s="6" t="s">
         <v>23</v>
@@ -57975,7 +58038,7 @@
         <v>23</v>
       </c>
       <c r="L865" s="6">
-        <v>2.4</v>
+        <v>3.69</v>
       </c>
       <c r="M865" s="6">
         <v>0</v>
@@ -57984,13 +58047,13 @@
         <v>0</v>
       </c>
       <c r="O865" s="5" t="s">
-        <v>21</v>
+        <v>1866</v>
       </c>
       <c r="P865" s="5" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>50256.38</v>
+        <v>707.64</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58001,16 +58064,16 @@
     </row>
     <row r="866" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="B866" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C866" s="5" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="D866" s="5" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="E866" s="6" t="s">
         <v>23</v>
@@ -58034,7 +58097,7 @@
         <v>23</v>
       </c>
       <c r="L866" s="6">
-        <v>2.4</v>
+        <v>3.78</v>
       </c>
       <c r="M866" s="6">
         <v>0</v>
@@ -58043,13 +58106,13 @@
         <v>0</v>
       </c>
       <c r="O866" s="5" t="s">
-        <v>315</v>
+        <v>1866</v>
       </c>
       <c r="P866" s="5" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="Q866" s="6">
-        <v>285.39999999999998</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58060,16 +58123,16 @@
     </row>
     <row r="867" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="B867" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C867" s="5" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="D867" s="5" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="E867" s="6" t="s">
         <v>23</v>
@@ -58105,10 +58168,10 @@
         <v>21</v>
       </c>
       <c r="P867" s="5" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>134.19999999999999</v>
+        <v>47268.7</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58119,16 +58182,16 @@
     </row>
     <row r="868" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="B868" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C868" s="5" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="D868" s="5" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="E868" s="6" t="s">
         <v>23</v>
@@ -58161,13 +58224,13 @@
         <v>0</v>
       </c>
       <c r="O868" s="5" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="P868" s="5" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="Q868" s="6">
-        <v>59.1</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="R868" s="6" t="s">
         <v>23</v>
@@ -58178,16 +58241,16 @@
     </row>
     <row r="869" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="B869" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C869" s="5" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="D869" s="5" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="E869" s="6" t="s">
         <v>23</v>
@@ -58223,10 +58286,10 @@
         <v>21</v>
       </c>
       <c r="P869" s="5" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="Q869" s="6">
-        <v>81</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58237,16 +58300,16 @@
     </row>
     <row r="870" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="B870" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C870" s="5" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="D870" s="5" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="E870" s="6" t="s">
         <v>23</v>
@@ -58270,7 +58333,7 @@
         <v>23</v>
       </c>
       <c r="L870" s="6">
-        <v>2.4500000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="M870" s="6">
         <v>0</v>
@@ -58282,10 +58345,10 @@
         <v>21</v>
       </c>
       <c r="P870" s="5" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="Q870" s="6">
-        <v>322</v>
+        <v>59.1</v>
       </c>
       <c r="R870" s="6" t="s">
         <v>23</v>
@@ -58296,16 +58359,16 @@
     </row>
     <row r="871" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="B871" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C871" s="5" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="D871" s="5" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="E871" s="6" t="s">
         <v>23</v>
@@ -58329,7 +58392,7 @@
         <v>23</v>
       </c>
       <c r="L871" s="6">
-        <v>2.4500000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="M871" s="6">
         <v>0</v>
@@ -58341,10 +58404,10 @@
         <v>21</v>
       </c>
       <c r="P871" s="5" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="Q871" s="6">
-        <v>395.2</v>
+        <v>81</v>
       </c>
       <c r="R871" s="6" t="s">
         <v>23</v>
@@ -58355,16 +58418,16 @@
     </row>
     <row r="872" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="B872" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C872" s="5" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="D872" s="5" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="E872" s="6" t="s">
         <v>23</v>
@@ -58400,10 +58463,10 @@
         <v>21</v>
       </c>
       <c r="P872" s="5" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>701.69</v>
+        <v>322</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58414,16 +58477,16 @@
     </row>
     <row r="873" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="B873" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C873" s="5" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="D873" s="5" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="E873" s="6" t="s">
         <v>23</v>
@@ -58459,10 +58522,10 @@
         <v>21</v>
       </c>
       <c r="P873" s="5" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>109</v>
+        <v>373.34</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -58473,16 +58536,16 @@
     </row>
     <row r="874" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="B874" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C874" s="5" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="D874" s="5" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="E874" s="6" t="s">
         <v>23</v>
@@ -58518,10 +58581,10 @@
         <v>21</v>
       </c>
       <c r="P874" s="5" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="Q874" s="6">
-        <v>186</v>
+        <v>701.02</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -58532,16 +58595,16 @@
     </row>
     <row r="875" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="B875" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C875" s="5" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="D875" s="5" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="E875" s="6" t="s">
         <v>23</v>
@@ -58565,7 +58628,7 @@
         <v>23</v>
       </c>
       <c r="L875" s="6">
-        <v>2.54</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="M875" s="6">
         <v>0</v>
@@ -58577,10 +58640,10 @@
         <v>21</v>
       </c>
       <c r="P875" s="5" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="Q875" s="6">
-        <v>426.7</v>
+        <v>109</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -58591,16 +58654,16 @@
     </row>
     <row r="876" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="B876" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C876" s="5" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="D876" s="5" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="E876" s="6" t="s">
         <v>23</v>
@@ -58624,7 +58687,7 @@
         <v>23</v>
       </c>
       <c r="L876" s="6">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="M876" s="6">
         <v>0</v>
@@ -58636,10 +58699,10 @@
         <v>21</v>
       </c>
       <c r="P876" s="5" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="Q876" s="6">
-        <v>152.80000000000001</v>
+        <v>186</v>
       </c>
       <c r="R876" s="6" t="s">
         <v>23</v>
@@ -58650,16 +58713,16 @@
     </row>
     <row r="877" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="B877" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C877" s="5" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="D877" s="5" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="E877" s="6" t="s">
         <v>23</v>
@@ -58695,10 +58758,10 @@
         <v>21</v>
       </c>
       <c r="P877" s="5" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="Q877" s="6">
-        <v>208.9</v>
+        <v>341.26</v>
       </c>
       <c r="R877" s="6" t="s">
         <v>23</v>
@@ -58709,16 +58772,16 @@
     </row>
     <row r="878" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A878" s="5" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="B878" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C878" s="5" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="D878" s="5" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="E878" s="6" t="s">
         <v>23</v>
@@ -58754,10 +58817,10 @@
         <v>21</v>
       </c>
       <c r="P878" s="5" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="Q878" s="6">
-        <v>189.9</v>
+        <v>110.08</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -58768,16 +58831,16 @@
     </row>
     <row r="879" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="B879" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C879" s="5" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="D879" s="5" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="E879" s="6" t="s">
         <v>23</v>
@@ -58801,7 +58864,7 @@
         <v>23</v>
       </c>
       <c r="L879" s="6">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="M879" s="6">
         <v>0</v>
@@ -58813,10 +58876,10 @@
         <v>21</v>
       </c>
       <c r="P879" s="5" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="Q879" s="6">
-        <v>335.7</v>
+        <v>208.9</v>
       </c>
       <c r="R879" s="6" t="s">
         <v>23</v>
@@ -58827,16 +58890,16 @@
     </row>
     <row r="880" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="B880" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C880" s="5" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="D880" s="5" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="E880" s="6" t="s">
         <v>23</v>
@@ -58860,7 +58923,7 @@
         <v>23</v>
       </c>
       <c r="L880" s="6">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M880" s="6">
         <v>0</v>
@@ -58872,10 +58935,10 @@
         <v>21</v>
       </c>
       <c r="P880" s="5" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="Q880" s="6">
-        <v>496.7</v>
+        <v>147.18</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -58886,16 +58949,16 @@
     </row>
     <row r="881" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B881" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C881" s="5" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="D881" s="5" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="E881" s="6" t="s">
         <v>23</v>
@@ -58919,7 +58982,7 @@
         <v>23</v>
       </c>
       <c r="L881" s="6">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M881" s="6">
         <v>0</v>
@@ -58931,10 +58994,10 @@
         <v>21</v>
       </c>
       <c r="P881" s="5" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="Q881" s="6">
-        <v>36160</v>
+        <v>335.7</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -58945,16 +59008,16 @@
     </row>
     <row r="882" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="B882" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C882" s="5" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="D882" s="5" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="E882" s="6" t="s">
         <v>23</v>
@@ -58990,10 +59053,10 @@
         <v>21</v>
       </c>
       <c r="P882" s="5" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="Q882" s="6">
-        <v>12302.9</v>
+        <v>496.7</v>
       </c>
       <c r="R882" s="6" t="s">
         <v>23</v>
@@ -59004,16 +59067,16 @@
     </row>
     <row r="883" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A883" s="5" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B883" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C883" s="5" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="D883" s="5" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="E883" s="6" t="s">
         <v>23</v>
@@ -59046,13 +59109,13 @@
         <v>0</v>
       </c>
       <c r="O883" s="5" t="s">
-        <v>1930</v>
+        <v>21</v>
       </c>
       <c r="P883" s="5" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="Q883" s="6">
-        <v>604.9</v>
+        <v>36160</v>
       </c>
       <c r="R883" s="6" t="s">
         <v>23</v>
@@ -59063,16 +59126,16 @@
     </row>
     <row r="884" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B884" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C884" s="5" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="D884" s="5" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="E884" s="6" t="s">
         <v>23</v>
@@ -59096,7 +59159,7 @@
         <v>23</v>
       </c>
       <c r="L884" s="6">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="M884" s="6">
         <v>0</v>
@@ -59105,13 +59168,13 @@
         <v>0</v>
       </c>
       <c r="O884" s="5" t="s">
-        <v>1930</v>
+        <v>21</v>
       </c>
       <c r="P884" s="5" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="Q884" s="6">
-        <v>0</v>
+        <v>8397.2000000000007</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59122,16 +59185,16 @@
     </row>
     <row r="885" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="B885" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C885" s="5" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="D885" s="5" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="E885" s="6" t="s">
         <v>23</v>
@@ -59155,7 +59218,7 @@
         <v>23</v>
       </c>
       <c r="L885" s="6">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M885" s="6">
         <v>0</v>
@@ -59164,13 +59227,13 @@
         <v>0</v>
       </c>
       <c r="O885" s="5" t="s">
-        <v>21</v>
+        <v>1930</v>
       </c>
       <c r="P885" s="5" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="Q885" s="6">
-        <v>184.7</v>
+        <v>604.9</v>
       </c>
       <c r="R885" s="6" t="s">
         <v>23</v>
@@ -59181,16 +59244,16 @@
     </row>
     <row r="886" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="B886" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C886" s="5" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="D886" s="5" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="E886" s="6" t="s">
         <v>23</v>
@@ -59214,7 +59277,7 @@
         <v>23</v>
       </c>
       <c r="L886" s="6">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="M886" s="6">
         <v>0</v>
@@ -59223,13 +59286,13 @@
         <v>0</v>
       </c>
       <c r="O886" s="5" t="s">
-        <v>21</v>
+        <v>1930</v>
       </c>
       <c r="P886" s="5" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="Q886" s="6">
-        <v>192.1</v>
+        <v>0</v>
       </c>
       <c r="R886" s="6" t="s">
         <v>23</v>
@@ -59240,16 +59303,16 @@
     </row>
     <row r="887" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A887" s="5" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="B887" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C887" s="5" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="D887" s="5" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="E887" s="6" t="s">
         <v>23</v>
@@ -59282,13 +59345,13 @@
         <v>0</v>
       </c>
       <c r="O887" s="5" t="s">
-        <v>1930</v>
+        <v>21</v>
       </c>
       <c r="P887" s="5" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="Q887" s="6">
-        <v>156.94</v>
+        <v>152.63</v>
       </c>
       <c r="R887" s="6" t="s">
         <v>23</v>
@@ -59299,16 +59362,16 @@
     </row>
     <row r="888" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="B888" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C888" s="5" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="D888" s="5" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="E888" s="6" t="s">
         <v>23</v>
@@ -59332,7 +59395,7 @@
         <v>23</v>
       </c>
       <c r="L888" s="6">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M888" s="6">
         <v>0</v>
@@ -59344,10 +59407,10 @@
         <v>21</v>
       </c>
       <c r="P888" s="5" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="Q888" s="6">
-        <v>346.28</v>
+        <v>192.1</v>
       </c>
       <c r="R888" s="6" t="s">
         <v>23</v>
@@ -59358,16 +59421,16 @@
     </row>
     <row r="889" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="B889" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C889" s="5" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="D889" s="5" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="E889" s="6" t="s">
         <v>23</v>
@@ -59400,13 +59463,13 @@
         <v>0</v>
       </c>
       <c r="O889" s="5" t="s">
-        <v>21</v>
+        <v>1930</v>
       </c>
       <c r="P889" s="5" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="Q889" s="6">
-        <v>260.7</v>
+        <v>124.87</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -59417,16 +59480,16 @@
     </row>
     <row r="890" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="B890" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C890" s="5" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="D890" s="5" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="E890" s="6" t="s">
         <v>23</v>
@@ -59447,10 +59510,10 @@
         <v>21</v>
       </c>
       <c r="K890" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L890" s="6">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="M890" s="6">
         <v>0</v>
@@ -59462,10 +59525,10 @@
         <v>21</v>
       </c>
       <c r="P890" s="5" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>0</v>
+        <v>281.20999999999998</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -59476,16 +59539,16 @@
     </row>
     <row r="891" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="B891" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C891" s="5" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="D891" s="5" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="E891" s="6" t="s">
         <v>23</v>
@@ -59506,10 +59569,10 @@
         <v>21</v>
       </c>
       <c r="K891" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L891" s="6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M891" s="6">
         <v>0</v>
@@ -59521,10 +59584,10 @@
         <v>21</v>
       </c>
       <c r="P891" s="5" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="Q891" s="6">
-        <v>0</v>
+        <v>260.7</v>
       </c>
       <c r="R891" s="6" t="s">
         <v>23</v>
@@ -59535,16 +59598,16 @@
     </row>
     <row r="892" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="B892" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C892" s="5" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="D892" s="5" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="E892" s="6" t="s">
         <v>23</v>
@@ -59580,7 +59643,7 @@
         <v>21</v>
       </c>
       <c r="P892" s="5" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="Q892" s="6">
         <v>0</v>
@@ -59594,16 +59657,16 @@
     </row>
     <row r="893" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="B893" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="D893" s="5" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="E893" s="6" t="s">
         <v>23</v>
@@ -59639,7 +59702,7 @@
         <v>21</v>
       </c>
       <c r="P893" s="5" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="Q893" s="6">
         <v>0</v>
@@ -59653,16 +59716,16 @@
     </row>
     <row r="894" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="B894" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="D894" s="5" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="E894" s="6" t="s">
         <v>23</v>
@@ -59683,10 +59746,10 @@
         <v>21</v>
       </c>
       <c r="K894" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L894" s="6">
-        <v>8.86</v>
+        <v>0</v>
       </c>
       <c r="M894" s="6">
         <v>0</v>
@@ -59695,10 +59758,10 @@
         <v>0</v>
       </c>
       <c r="O894" s="5" t="s">
-        <v>1964</v>
+        <v>21</v>
       </c>
       <c r="P894" s="5" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="Q894" s="6">
         <v>0</v>
@@ -59712,16 +59775,16 @@
     </row>
     <row r="895" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="B895" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="D895" s="5" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="E895" s="6" t="s">
         <v>23</v>
@@ -59742,10 +59805,10 @@
         <v>21</v>
       </c>
       <c r="K895" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L895" s="6">
-        <v>8.86</v>
+        <v>0</v>
       </c>
       <c r="M895" s="6">
         <v>0</v>
@@ -59757,10 +59820,10 @@
         <v>21</v>
       </c>
       <c r="P895" s="5" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="Q895" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R895" s="6" t="s">
         <v>23</v>
@@ -59771,16 +59834,16 @@
     </row>
     <row r="896" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="B896" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="D896" s="5" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="E896" s="6" t="s">
         <v>23</v>
@@ -59801,10 +59864,10 @@
         <v>21</v>
       </c>
       <c r="K896" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L896" s="6">
-        <v>0</v>
+        <v>8.86</v>
       </c>
       <c r="M896" s="6">
         <v>0</v>
@@ -59813,10 +59876,10 @@
         <v>0</v>
       </c>
       <c r="O896" s="5" t="s">
-        <v>21</v>
+        <v>1964</v>
       </c>
       <c r="P896" s="5" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="Q896" s="6">
         <v>0</v>
@@ -59830,16 +59893,16 @@
     </row>
     <row r="897" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="B897" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C897" s="5" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="D897" s="5" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="E897" s="6" t="s">
         <v>23</v>
@@ -59860,10 +59923,10 @@
         <v>21</v>
       </c>
       <c r="K897" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L897" s="6">
-        <v>0</v>
+        <v>8.86</v>
       </c>
       <c r="M897" s="6">
         <v>0</v>
@@ -59875,10 +59938,10 @@
         <v>21</v>
       </c>
       <c r="P897" s="5" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="Q897" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R897" s="6" t="s">
         <v>23</v>
@@ -59889,16 +59952,16 @@
     </row>
     <row r="898" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A898" s="5" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="B898" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="D898" s="5" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="E898" s="6" t="s">
         <v>23</v>
@@ -59919,7 +59982,7 @@
         <v>21</v>
       </c>
       <c r="K898" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L898" s="6">
         <v>0</v>
@@ -59934,7 +59997,7 @@
         <v>21</v>
       </c>
       <c r="P898" s="5" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="Q898" s="6">
         <v>0</v>
@@ -59948,16 +60011,16 @@
     </row>
     <row r="899" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="B899" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="D899" s="5" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="E899" s="6" t="s">
         <v>23</v>
@@ -59993,7 +60056,7 @@
         <v>21</v>
       </c>
       <c r="P899" s="5" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="Q899" s="6">
         <v>0</v>
@@ -60007,16 +60070,16 @@
     </row>
     <row r="900" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="B900" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="D900" s="5" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="E900" s="6" t="s">
         <v>23</v>
@@ -60037,7 +60100,7 @@
         <v>21</v>
       </c>
       <c r="K900" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L900" s="6">
         <v>0</v>
@@ -60052,7 +60115,7 @@
         <v>21</v>
       </c>
       <c r="P900" s="5" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="Q900" s="6">
         <v>0</v>
@@ -60066,16 +60129,16 @@
     </row>
     <row r="901" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="B901" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="D901" s="5" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="E901" s="6" t="s">
         <v>23</v>
@@ -60111,7 +60174,7 @@
         <v>21</v>
       </c>
       <c r="P901" s="5" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="Q901" s="6">
         <v>0</v>
@@ -60125,16 +60188,16 @@
     </row>
     <row r="902" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="B902" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="D902" s="5" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="E902" s="6" t="s">
         <v>23</v>
@@ -60170,7 +60233,7 @@
         <v>21</v>
       </c>
       <c r="P902" s="5" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="Q902" s="6">
         <v>0</v>
@@ -60184,16 +60247,16 @@
     </row>
     <row r="903" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="B903" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="D903" s="5" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E903" s="6" t="s">
         <v>23</v>
@@ -60229,7 +60292,7 @@
         <v>21</v>
       </c>
       <c r="P903" s="5" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="Q903" s="6">
         <v>0</v>
@@ -60243,16 +60306,16 @@
     </row>
     <row r="904" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A904" s="5" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B904" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="D904" s="5" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="E904" s="6" t="s">
         <v>23</v>
@@ -60288,7 +60351,7 @@
         <v>21</v>
       </c>
       <c r="P904" s="5" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="Q904" s="6">
         <v>0</v>
@@ -60302,16 +60365,16 @@
     </row>
     <row r="905" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="B905" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="D905" s="5" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E905" s="6" t="s">
         <v>23</v>
@@ -60347,7 +60410,7 @@
         <v>21</v>
       </c>
       <c r="P905" s="5" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="Q905" s="6">
         <v>0</v>
@@ -60361,16 +60424,16 @@
     </row>
     <row r="906" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="B906" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C906" s="5" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="D906" s="5" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E906" s="6" t="s">
         <v>23</v>
@@ -60406,7 +60469,7 @@
         <v>21</v>
       </c>
       <c r="P906" s="5" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="Q906" s="6">
         <v>0</v>
@@ -60420,16 +60483,16 @@
     </row>
     <row r="907" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="B907" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D907" s="5" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E907" s="6" t="s">
         <v>23</v>
@@ -60465,7 +60528,7 @@
         <v>21</v>
       </c>
       <c r="P907" s="5" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="Q907" s="6">
         <v>0</v>
@@ -60479,16 +60542,16 @@
     </row>
     <row r="908" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B908" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C908" s="5" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="D908" s="5" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E908" s="6" t="s">
         <v>23</v>
@@ -60524,7 +60587,7 @@
         <v>21</v>
       </c>
       <c r="P908" s="5" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="Q908" s="6">
         <v>0</v>
@@ -60538,16 +60601,16 @@
     </row>
     <row r="909" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B909" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D909" s="5" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E909" s="6" t="s">
         <v>23</v>
@@ -60568,7 +60631,7 @@
         <v>21</v>
       </c>
       <c r="K909" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L909" s="6">
         <v>0</v>
@@ -60583,7 +60646,7 @@
         <v>21</v>
       </c>
       <c r="P909" s="5" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="Q909" s="6">
         <v>0</v>
@@ -60597,16 +60660,16 @@
     </row>
     <row r="910" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B910" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C910" s="5" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D910" s="5" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E910" s="6" t="s">
         <v>23</v>
@@ -60642,7 +60705,7 @@
         <v>21</v>
       </c>
       <c r="P910" s="5" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="Q910" s="6">
         <v>0</v>
@@ -60656,16 +60719,16 @@
     </row>
     <row r="911" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B911" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C911" s="5" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D911" s="5" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E911" s="6" t="s">
         <v>23</v>
@@ -60689,7 +60752,7 @@
         <v>23</v>
       </c>
       <c r="L911" s="6">
-        <v>8.86</v>
+        <v>0</v>
       </c>
       <c r="M911" s="6">
         <v>0</v>
@@ -60698,10 +60761,10 @@
         <v>0</v>
       </c>
       <c r="O911" s="5" t="s">
-        <v>1964</v>
+        <v>21</v>
       </c>
       <c r="P911" s="5" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="Q911" s="6">
         <v>0</v>
@@ -60715,16 +60778,16 @@
     </row>
     <row r="912" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B912" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D912" s="5" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E912" s="6" t="s">
         <v>23</v>
@@ -60760,7 +60823,7 @@
         <v>21</v>
       </c>
       <c r="P912" s="5" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="Q912" s="6">
         <v>0</v>
@@ -60774,16 +60837,16 @@
     </row>
     <row r="913" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B913" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D913" s="5" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E913" s="6" t="s">
         <v>23</v>
@@ -60804,10 +60867,10 @@
         <v>21</v>
       </c>
       <c r="K913" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L913" s="6">
-        <v>0</v>
+        <v>8.86</v>
       </c>
       <c r="M913" s="6">
         <v>0</v>
@@ -60816,10 +60879,10 @@
         <v>0</v>
       </c>
       <c r="O913" s="5" t="s">
-        <v>21</v>
+        <v>1964</v>
       </c>
       <c r="P913" s="5" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="Q913" s="6">
         <v>0</v>
@@ -60833,16 +60896,16 @@
     </row>
     <row r="914" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B914" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D914" s="5" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="E914" s="6" t="s">
         <v>23</v>
@@ -60878,7 +60941,7 @@
         <v>21</v>
       </c>
       <c r="P914" s="5" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="Q914" s="6">
         <v>0</v>
@@ -60892,16 +60955,16 @@
     </row>
     <row r="915" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="B915" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C915" s="5" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="D915" s="5" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E915" s="6" t="s">
         <v>23</v>
@@ -60937,7 +61000,7 @@
         <v>21</v>
       </c>
       <c r="P915" s="5" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="Q915" s="6">
         <v>0</v>
@@ -60951,16 +61014,16 @@
     </row>
     <row r="916" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="B916" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D916" s="5" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="E916" s="6" t="s">
         <v>23</v>
@@ -60996,7 +61059,7 @@
         <v>21</v>
       </c>
       <c r="P916" s="5" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="Q916" s="6">
         <v>0</v>
@@ -61010,16 +61073,16 @@
     </row>
     <row r="917" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="B917" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="D917" s="5" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="E917" s="6" t="s">
         <v>23</v>
@@ -61040,10 +61103,10 @@
         <v>21</v>
       </c>
       <c r="K917" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L917" s="6">
-        <v>8.86</v>
+        <v>0</v>
       </c>
       <c r="M917" s="6">
         <v>0</v>
@@ -61052,10 +61115,10 @@
         <v>0</v>
       </c>
       <c r="O917" s="5" t="s">
-        <v>1964</v>
+        <v>21</v>
       </c>
       <c r="P917" s="5" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="Q917" s="6">
         <v>0</v>
@@ -61069,16 +61132,16 @@
     </row>
     <row r="918" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="B918" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C918" s="5" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="D918" s="5" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="E918" s="6" t="s">
         <v>23</v>
@@ -61114,7 +61177,7 @@
         <v>21</v>
       </c>
       <c r="P918" s="5" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="Q918" s="6">
         <v>0</v>
@@ -61128,16 +61191,16 @@
     </row>
     <row r="919" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="B919" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="D919" s="5" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="E919" s="6" t="s">
         <v>23</v>
@@ -61161,7 +61224,7 @@
         <v>23</v>
       </c>
       <c r="L919" s="6">
-        <v>1.8</v>
+        <v>8.86</v>
       </c>
       <c r="M919" s="6">
         <v>0</v>
@@ -61170,13 +61233,13 @@
         <v>0</v>
       </c>
       <c r="O919" s="5" t="s">
-        <v>21</v>
+        <v>1964</v>
       </c>
       <c r="P919" s="5" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="Q919" s="6">
-        <v>815.8</v>
+        <v>0</v>
       </c>
       <c r="R919" s="6" t="s">
         <v>23</v>
@@ -61187,16 +61250,16 @@
     </row>
     <row r="920" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A920" s="5" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="B920" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C920" s="5" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="D920" s="5" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="E920" s="6" t="s">
         <v>23</v>
@@ -61217,10 +61280,10 @@
         <v>21</v>
       </c>
       <c r="K920" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L920" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M920" s="6">
         <v>0</v>
@@ -61232,10 +61295,10 @@
         <v>21</v>
       </c>
       <c r="P920" s="5" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="Q920" s="6">
-        <v>18195.97</v>
+        <v>0</v>
       </c>
       <c r="R920" s="6" t="s">
         <v>23</v>
@@ -61246,16 +61309,16 @@
     </row>
     <row r="921" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="B921" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="D921" s="5" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="E921" s="6" t="s">
         <v>23</v>
@@ -61279,7 +61342,7 @@
         <v>23</v>
       </c>
       <c r="L921" s="6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="M921" s="6">
         <v>0</v>
@@ -61291,10 +61354,10 @@
         <v>21</v>
       </c>
       <c r="P921" s="5" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>1491.7</v>
+        <v>1857.3</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61305,16 +61368,16 @@
     </row>
     <row r="922" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="B922" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="D922" s="5" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="E922" s="6" t="s">
         <v>23</v>
@@ -61338,7 +61401,7 @@
         <v>23</v>
       </c>
       <c r="L922" s="6">
-        <v>3.06</v>
+        <v>1.6</v>
       </c>
       <c r="M922" s="6">
         <v>0</v>
@@ -61350,10 +61413,10 @@
         <v>21</v>
       </c>
       <c r="P922" s="5" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>36911.995000000003</v>
+        <v>18943.11</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61364,16 +61427,16 @@
     </row>
     <row r="923" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="B923" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="D923" s="5" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="E923" s="6" t="s">
         <v>23</v>
@@ -61397,7 +61460,7 @@
         <v>23</v>
       </c>
       <c r="L923" s="6">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="M923" s="6">
         <v>0</v>
@@ -61409,10 +61472,10 @@
         <v>21</v>
       </c>
       <c r="P923" s="5" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="Q923" s="6">
-        <v>489</v>
+        <v>1491.7</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -61423,16 +61486,16 @@
     </row>
     <row r="924" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C924" s="5" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="D924" s="5" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="E924" s="6" t="s">
         <v>23</v>
@@ -61456,7 +61519,7 @@
         <v>23</v>
       </c>
       <c r="L924" s="6">
-        <v>2.48</v>
+        <v>3.06</v>
       </c>
       <c r="M924" s="6">
         <v>0</v>
@@ -61468,10 +61531,10 @@
         <v>21</v>
       </c>
       <c r="P924" s="5" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>2147</v>
+        <v>31624.9558</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -61482,16 +61545,16 @@
     </row>
     <row r="925" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="B925" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C925" s="5" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="D925" s="5" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="E925" s="6" t="s">
         <v>23</v>
@@ -61527,10 +61590,10 @@
         <v>21</v>
       </c>
       <c r="P925" s="5" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="Q925" s="6">
-        <v>2316</v>
+        <v>489</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -61541,16 +61604,16 @@
     </row>
     <row r="926" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="B926" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C926" s="5" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="D926" s="5" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="E926" s="6" t="s">
         <v>23</v>
@@ -61574,7 +61637,7 @@
         <v>23</v>
       </c>
       <c r="L926" s="6">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="M926" s="6">
         <v>0</v>
@@ -61586,10 +61649,10 @@
         <v>21</v>
       </c>
       <c r="P926" s="5" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>318.2</v>
+        <v>1867</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -61600,16 +61663,16 @@
     </row>
     <row r="927" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="B927" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="D927" s="5" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="E927" s="6" t="s">
         <v>23</v>
@@ -61645,10 +61708,10 @@
         <v>21</v>
       </c>
       <c r="P927" s="5" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="Q927" s="6">
-        <v>392.6</v>
+        <v>2316</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -61659,16 +61722,16 @@
     </row>
     <row r="928" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="B928" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C928" s="5" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="D928" s="5" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="E928" s="6" t="s">
         <v>23</v>
@@ -61692,7 +61755,7 @@
         <v>23</v>
       </c>
       <c r="L928" s="6">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="M928" s="6">
         <v>0</v>
@@ -61704,10 +61767,10 @@
         <v>21</v>
       </c>
       <c r="P928" s="5" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="Q928" s="6">
-        <v>505</v>
+        <v>318.2</v>
       </c>
       <c r="R928" s="6" t="s">
         <v>23</v>
@@ -61718,16 +61781,16 @@
     </row>
     <row r="929" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="B929" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="D929" s="5" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="E929" s="6" t="s">
         <v>23</v>
@@ -61751,7 +61814,7 @@
         <v>23</v>
       </c>
       <c r="L929" s="6">
-        <v>2.48</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M929" s="6">
         <v>0</v>
@@ -61763,10 +61826,10 @@
         <v>21</v>
       </c>
       <c r="P929" s="5" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>490</v>
+        <v>373.86</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -61777,16 +61840,16 @@
     </row>
     <row r="930" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="B930" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C930" s="5" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="D930" s="5" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="E930" s="6" t="s">
         <v>23</v>
@@ -61810,7 +61873,7 @@
         <v>23</v>
       </c>
       <c r="L930" s="6">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="M930" s="6">
         <v>0</v>
@@ -61822,10 +61885,10 @@
         <v>21</v>
       </c>
       <c r="P930" s="5" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="Q930" s="6">
-        <v>4847.18</v>
+        <v>491.11</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -61836,16 +61899,16 @@
     </row>
     <row r="931" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="B931" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C931" s="5" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D931" s="5" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="E931" s="6" t="s">
         <v>23</v>
@@ -61869,7 +61932,7 @@
         <v>23</v>
       </c>
       <c r="L931" s="6">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="M931" s="6">
         <v>0</v>
@@ -61881,10 +61944,10 @@
         <v>21</v>
       </c>
       <c r="P931" s="5" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="Q931" s="6">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -61895,16 +61958,16 @@
     </row>
     <row r="932" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="B932" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C932" s="5" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="D932" s="5" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="E932" s="6" t="s">
         <v>23</v>
@@ -61940,10 +62003,10 @@
         <v>21</v>
       </c>
       <c r="P932" s="5" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="Q932" s="6">
-        <v>0</v>
+        <v>4847.18</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -61954,16 +62017,16 @@
     </row>
     <row r="933" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A933" s="5" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="B933" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C933" s="5" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="D933" s="5" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="E933" s="6" t="s">
         <v>23</v>
@@ -61987,7 +62050,7 @@
         <v>23</v>
       </c>
       <c r="L933" s="6">
-        <v>2.79</v>
+        <v>1.95</v>
       </c>
       <c r="M933" s="6">
         <v>0</v>
@@ -61999,10 +62062,10 @@
         <v>21</v>
       </c>
       <c r="P933" s="5" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="Q933" s="6">
-        <v>2658.89</v>
+        <v>0</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -62013,16 +62076,16 @@
     </row>
     <row r="934" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="B934" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C934" s="5" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="D934" s="5" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="E934" s="6" t="s">
         <v>23</v>
@@ -62046,7 +62109,7 @@
         <v>23</v>
       </c>
       <c r="L934" s="6">
-        <v>2.79</v>
+        <v>1.95</v>
       </c>
       <c r="M934" s="6">
         <v>0</v>
@@ -62058,10 +62121,10 @@
         <v>21</v>
       </c>
       <c r="P934" s="5" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="Q934" s="6">
-        <v>4298.12</v>
+        <v>0</v>
       </c>
       <c r="R934" s="6" t="s">
         <v>23</v>
@@ -62072,16 +62135,16 @@
     </row>
     <row r="935" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="B935" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C935" s="5" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="D935" s="5" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="E935" s="6" t="s">
         <v>23</v>
@@ -62105,7 +62168,7 @@
         <v>23</v>
       </c>
       <c r="L935" s="6">
-        <v>1.99</v>
+        <v>2.79</v>
       </c>
       <c r="M935" s="6">
         <v>0</v>
@@ -62117,10 +62180,10 @@
         <v>21</v>
       </c>
       <c r="P935" s="5" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>554.79999999999995</v>
+        <v>2658.89</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -62131,16 +62194,16 @@
     </row>
     <row r="936" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="B936" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C936" s="5" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="D936" s="5" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="E936" s="6" t="s">
         <v>23</v>
@@ -62161,10 +62224,10 @@
         <v>21</v>
       </c>
       <c r="K936" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L936" s="6">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M936" s="6">
         <v>0</v>
@@ -62176,10 +62239,10 @@
         <v>21</v>
       </c>
       <c r="P936" s="5" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="Q936" s="6">
-        <v>0</v>
+        <v>4298.12</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62190,16 +62253,16 @@
     </row>
     <row r="937" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="B937" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C937" s="5" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="D937" s="5" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="E937" s="6" t="s">
         <v>23</v>
@@ -62235,10 +62298,10 @@
         <v>21</v>
       </c>
       <c r="P937" s="5" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="Q937" s="6">
-        <v>5437.66</v>
+        <v>554.79999999999995</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -62249,16 +62312,16 @@
     </row>
     <row r="938" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A938" s="5" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="B938" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C938" s="5" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="D938" s="5" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="E938" s="6" t="s">
         <v>23</v>
@@ -62279,7 +62342,7 @@
         <v>21</v>
       </c>
       <c r="K938" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L938" s="6">
         <v>0</v>
@@ -62294,10 +62357,10 @@
         <v>21</v>
       </c>
       <c r="P938" s="5" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="Q938" s="6">
-        <v>0</v>
+        <v>2092.5</v>
       </c>
       <c r="R938" s="6" t="s">
         <v>23</v>
@@ -62308,16 +62371,16 @@
     </row>
     <row r="939" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="B939" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C939" s="5" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="D939" s="5" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="E939" s="6" t="s">
         <v>23</v>
@@ -62353,10 +62416,10 @@
         <v>21</v>
       </c>
       <c r="P939" s="5" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>189.43</v>
+        <v>4620.66</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62367,16 +62430,16 @@
     </row>
     <row r="940" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A940" s="5" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="B940" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C940" s="5" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="D940" s="5" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="E940" s="6" t="s">
         <v>23</v>
@@ -62397,10 +62460,10 @@
         <v>21</v>
       </c>
       <c r="K940" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L940" s="6">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="M940" s="6">
         <v>0</v>
@@ -62412,10 +62475,10 @@
         <v>21</v>
       </c>
       <c r="P940" s="5" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>156.44</v>
+        <v>0</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62426,16 +62489,16 @@
     </row>
     <row r="941" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="B941" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C941" s="5" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="D941" s="5" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="E941" s="6" t="s">
         <v>23</v>
@@ -62459,7 +62522,7 @@
         <v>23</v>
       </c>
       <c r="L941" s="6">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="M941" s="6">
         <v>0</v>
@@ -62471,10 +62534,10 @@
         <v>21</v>
       </c>
       <c r="P941" s="5" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>2331.94</v>
+        <v>189.43</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62485,16 +62548,16 @@
     </row>
     <row r="942" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="B942" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C942" s="5" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="D942" s="5" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="E942" s="6" t="s">
         <v>23</v>
@@ -62518,7 +62581,7 @@
         <v>23</v>
       </c>
       <c r="L942" s="6">
-        <v>3.47</v>
+        <v>1.99</v>
       </c>
       <c r="M942" s="6">
         <v>0</v>
@@ -62530,10 +62593,10 @@
         <v>21</v>
       </c>
       <c r="P942" s="5" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>2855.1</v>
+        <v>1936.44</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -62544,16 +62607,16 @@
     </row>
     <row r="943" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="B943" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C943" s="5" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="D943" s="5" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="E943" s="6" t="s">
         <v>23</v>
@@ -62577,7 +62640,7 @@
         <v>23</v>
       </c>
       <c r="L943" s="6">
-        <v>3.48</v>
+        <v>2.72</v>
       </c>
       <c r="M943" s="6">
         <v>0</v>
@@ -62589,10 +62652,10 @@
         <v>21</v>
       </c>
       <c r="P943" s="5" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>1962.74</v>
+        <v>2226.83</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -62603,16 +62666,16 @@
     </row>
     <row r="944" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="B944" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C944" s="5" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="D944" s="5" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E944" s="6" t="s">
         <v>23</v>
@@ -62633,10 +62696,10 @@
         <v>21</v>
       </c>
       <c r="K944" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L944" s="6">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="M944" s="6">
         <v>0</v>
@@ -62648,10 +62711,10 @@
         <v>21</v>
       </c>
       <c r="P944" s="5" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>0</v>
+        <v>2855.1</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -62662,16 +62725,16 @@
     </row>
     <row r="945" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="B945" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C945" s="5" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="D945" s="5" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="E945" s="6" t="s">
         <v>23</v>
@@ -62692,10 +62755,10 @@
         <v>21</v>
       </c>
       <c r="K945" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L945" s="6">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M945" s="6">
         <v>0</v>
@@ -62707,10 +62770,10 @@
         <v>21</v>
       </c>
       <c r="P945" s="5" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>0</v>
+        <v>1855.1</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -62721,16 +62784,16 @@
     </row>
     <row r="946" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A946" s="5" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="B946" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="D946" s="5" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="E946" s="6" t="s">
         <v>23</v>
@@ -62766,7 +62829,7 @@
         <v>21</v>
       </c>
       <c r="P946" s="5" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="Q946" s="6">
         <v>0</v>
@@ -62780,16 +62843,16 @@
     </row>
     <row r="947" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="B947" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="D947" s="5" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="E947" s="6" t="s">
         <v>23</v>
@@ -62810,10 +62873,10 @@
         <v>21</v>
       </c>
       <c r="K947" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L947" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="M947" s="6">
         <v>0</v>
@@ -62825,10 +62888,10 @@
         <v>21</v>
       </c>
       <c r="P947" s="5" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="Q947" s="6">
-        <v>379.8</v>
+        <v>0</v>
       </c>
       <c r="R947" s="6" t="s">
         <v>23</v>
@@ -62839,16 +62902,16 @@
     </row>
     <row r="948" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="B948" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="D948" s="5" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="E948" s="6" t="s">
         <v>23</v>
@@ -62869,10 +62932,10 @@
         <v>21</v>
       </c>
       <c r="K948" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L948" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="M948" s="6">
         <v>0</v>
@@ -62884,10 +62947,10 @@
         <v>21</v>
       </c>
       <c r="P948" s="5" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>604.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -62898,16 +62961,16 @@
     </row>
     <row r="949" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="D949" s="5" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="E949" s="6" t="s">
         <v>23</v>
@@ -62943,10 +63006,10 @@
         <v>21</v>
       </c>
       <c r="P949" s="5" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>602.6</v>
+        <v>329.3</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -62957,16 +63020,16 @@
     </row>
     <row r="950" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="D950" s="5" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="E950" s="6" t="s">
         <v>23</v>
@@ -63002,10 +63065,10 @@
         <v>21</v>
       </c>
       <c r="P950" s="5" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>312.10000000000002</v>
+        <v>564.29999999999995</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63016,16 +63079,16 @@
     </row>
     <row r="951" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="D951" s="5" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="E951" s="6" t="s">
         <v>23</v>
@@ -63061,10 +63124,10 @@
         <v>21</v>
       </c>
       <c r="P951" s="5" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="Q951" s="6">
-        <v>280.89999999999998</v>
+        <v>552.1</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63075,16 +63138,16 @@
     </row>
     <row r="952" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="B952" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="D952" s="5" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="E952" s="6" t="s">
         <v>23</v>
@@ -63120,10 +63183,10 @@
         <v>21</v>
       </c>
       <c r="P952" s="5" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="Q952" s="6">
-        <v>251.4</v>
+        <v>312.10000000000002</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63134,16 +63197,16 @@
     </row>
     <row r="953" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="B953" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="D953" s="5" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="E953" s="6" t="s">
         <v>23</v>
@@ -63179,10 +63242,10 @@
         <v>21</v>
       </c>
       <c r="P953" s="5" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>241.7</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63193,16 +63256,16 @@
     </row>
     <row r="954" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="D954" s="5" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="E954" s="6" t="s">
         <v>23</v>
@@ -63223,10 +63286,10 @@
         <v>21</v>
       </c>
       <c r="K954" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L954" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M954" s="6">
         <v>0</v>
@@ -63238,10 +63301,10 @@
         <v>21</v>
       </c>
       <c r="P954" s="5" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="Q954" s="6">
-        <v>0</v>
+        <v>251.4</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63252,16 +63315,16 @@
     </row>
     <row r="955" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A955" s="5" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C955" s="5" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="D955" s="5" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E955" s="6" t="s">
         <v>23</v>
@@ -63285,7 +63348,7 @@
         <v>23</v>
       </c>
       <c r="L955" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M955" s="6">
         <v>0</v>
@@ -63297,10 +63360,10 @@
         <v>21</v>
       </c>
       <c r="P955" s="5" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="Q955" s="6">
-        <v>0</v>
+        <v>241.7</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -63311,16 +63374,16 @@
     </row>
     <row r="956" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="B956" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="D956" s="5" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E956" s="6" t="s">
         <v>23</v>
@@ -63341,10 +63404,10 @@
         <v>21</v>
       </c>
       <c r="K956" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L956" s="6">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="M956" s="6">
         <v>0</v>
@@ -63356,10 +63419,10 @@
         <v>21</v>
       </c>
       <c r="P956" s="5" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="Q956" s="6">
-        <v>418.9</v>
+        <v>0</v>
       </c>
       <c r="R956" s="6" t="s">
         <v>23</v>
@@ -63370,16 +63433,16 @@
     </row>
     <row r="957" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="B957" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="D957" s="5" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="E957" s="6" t="s">
         <v>23</v>
@@ -63403,7 +63466,7 @@
         <v>23</v>
       </c>
       <c r="L957" s="6">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="M957" s="6">
         <v>0</v>
@@ -63415,10 +63478,10 @@
         <v>21</v>
       </c>
       <c r="P957" s="5" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="Q957" s="6">
-        <v>1473.2</v>
+        <v>0</v>
       </c>
       <c r="R957" s="6" t="s">
         <v>23</v>
@@ -63429,16 +63492,16 @@
     </row>
     <row r="958" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="B958" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="D958" s="5" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="E958" s="6" t="s">
         <v>23</v>
@@ -63459,10 +63522,10 @@
         <v>21</v>
       </c>
       <c r="K958" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L958" s="6">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="M958" s="6">
         <v>0</v>
@@ -63474,10 +63537,10 @@
         <v>21</v>
       </c>
       <c r="P958" s="5" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="Q958" s="6">
-        <v>0</v>
+        <v>1352.6904</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -63488,16 +63551,16 @@
     </row>
     <row r="959" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="B959" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C959" s="5" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="D959" s="5" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="E959" s="6" t="s">
         <v>23</v>
@@ -63533,10 +63596,10 @@
         <v>21</v>
       </c>
       <c r="P959" s="5" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="Q959" s="6">
-        <v>1171.4000000000001</v>
+        <v>1473.2</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -63547,16 +63610,16 @@
     </row>
     <row r="960" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A960" s="5" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="B960" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="D960" s="5" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="E960" s="6" t="s">
         <v>23</v>
@@ -63592,7 +63655,7 @@
         <v>21</v>
       </c>
       <c r="P960" s="5" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="Q960" s="6">
         <v>0</v>
@@ -63606,16 +63669,16 @@
     </row>
     <row r="961" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="B961" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="D961" s="5" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="E961" s="6" t="s">
         <v>23</v>
@@ -63636,10 +63699,10 @@
         <v>21</v>
       </c>
       <c r="K961" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L961" s="6">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="M961" s="6">
         <v>0</v>
@@ -63651,10 +63714,10 @@
         <v>21</v>
       </c>
       <c r="P961" s="5" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="Q961" s="6">
-        <v>0</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -63665,16 +63728,16 @@
     </row>
     <row r="962" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="D962" s="5" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="E962" s="6" t="s">
         <v>23</v>
@@ -63695,10 +63758,10 @@
         <v>21</v>
       </c>
       <c r="K962" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L962" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M962" s="6">
         <v>0</v>
@@ -63710,10 +63773,10 @@
         <v>21</v>
       </c>
       <c r="P962" s="5" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="Q962" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -63724,16 +63787,16 @@
     </row>
     <row r="963" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="B963" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C963" s="5" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="D963" s="5" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="E963" s="6" t="s">
         <v>23</v>
@@ -63754,10 +63817,10 @@
         <v>21</v>
       </c>
       <c r="K963" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L963" s="6">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M963" s="6">
         <v>0</v>
@@ -63769,10 +63832,10 @@
         <v>21</v>
       </c>
       <c r="P963" s="5" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="Q963" s="6">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="R963" s="6" t="s">
         <v>23</v>
@@ -63783,60 +63846,473 @@
     </row>
     <row r="964" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C964" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D964" s="5" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E964" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F964" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I964" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K964" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L964" s="6">
+        <v>0</v>
+      </c>
+      <c r="M964" s="6">
+        <v>0</v>
+      </c>
+      <c r="N964" s="6">
+        <v>0</v>
+      </c>
+      <c r="O964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P964" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="Q964" s="6">
+        <v>0</v>
+      </c>
+      <c r="R964" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S964" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="965" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A965" s="5" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C965" s="5" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D965" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E965" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F965" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I965" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K965" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L965" s="6">
+        <v>0</v>
+      </c>
+      <c r="M965" s="6">
+        <v>0</v>
+      </c>
+      <c r="N965" s="6">
+        <v>0</v>
+      </c>
+      <c r="O965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P965" s="5" t="s">
+        <v>2186</v>
+      </c>
+      <c r="Q965" s="6">
+        <v>0</v>
+      </c>
+      <c r="R965" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S965" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="966" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A966" s="5" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D966" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E966" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F966" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I966" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K966" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L966" s="6">
+        <v>0</v>
+      </c>
+      <c r="M966" s="6">
+        <v>0</v>
+      </c>
+      <c r="N966" s="6">
+        <v>0</v>
+      </c>
+      <c r="O966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P966" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="Q966" s="6">
+        <v>0</v>
+      </c>
+      <c r="R966" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S966" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="967" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A967" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D967" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E967" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F967" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I967" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K967" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L967" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M967" s="6">
+        <v>0</v>
+      </c>
+      <c r="N967" s="6">
+        <v>0</v>
+      </c>
+      <c r="O967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P967" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q967" s="6">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="R967" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S967" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="968" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A968" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D968" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E968" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F968" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I968" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K968" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L968" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="M968" s="6">
+        <v>0</v>
+      </c>
+      <c r="N968" s="6">
+        <v>0</v>
+      </c>
+      <c r="O968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P968" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q968" s="6">
+        <v>102.8</v>
+      </c>
+      <c r="R968" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S968" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="969" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A969" s="5" t="s">
         <v>2172</v>
       </c>
-      <c r="B964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C964" s="5" t="s">
+      <c r="B969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C969" s="5" t="s">
         <v>2173</v>
       </c>
-      <c r="D964" s="5" t="s">
+      <c r="D969" s="5" t="s">
         <v>2174</v>
       </c>
-      <c r="E964" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F964" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I964" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K964" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L964" s="6">
+      <c r="E969" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F969" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I969" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K969" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L969" s="6">
         <v>2.65</v>
       </c>
-      <c r="M964" s="6">
-        <v>0</v>
-      </c>
-      <c r="N964" s="6">
-        <v>0</v>
-      </c>
-      <c r="O964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P964" s="5" t="s">
+      <c r="M969" s="6">
+        <v>0</v>
+      </c>
+      <c r="N969" s="6">
+        <v>0</v>
+      </c>
+      <c r="O969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P969" s="5" t="s">
         <v>2173</v>
       </c>
-      <c r="Q964" s="6">
-        <v>1798.65</v>
-      </c>
-      <c r="R964" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S964" s="5" t="s">
+      <c r="Q969" s="6">
+        <v>1757.67</v>
+      </c>
+      <c r="R969" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S969" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="970" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A970" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D970" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E970" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F970" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I970" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K970" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L970" s="6">
+        <v>0</v>
+      </c>
+      <c r="M970" s="6">
+        <v>0</v>
+      </c>
+      <c r="N970" s="6">
+        <v>0</v>
+      </c>
+      <c r="O970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P970" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="Q970" s="6">
+        <v>0</v>
+      </c>
+      <c r="R970" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S970" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="971" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A971" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D971" s="5" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E971" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F971" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I971" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K971" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L971" s="6">
+        <v>0</v>
+      </c>
+      <c r="M971" s="6">
+        <v>0</v>
+      </c>
+      <c r="N971" s="6">
+        <v>0</v>
+      </c>
+      <c r="O971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P971" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="Q971" s="6">
+        <v>0</v>
+      </c>
+      <c r="R971" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S971" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14541" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14706" uniqueCount="2230">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6550,9 +6550,6 @@
     <t>PARIS TERRACOTA</t>
   </si>
   <si>
-    <t>Lista Produto : 09-01-2020 09:46:53</t>
-  </si>
-  <si>
     <t>TC14001</t>
   </si>
   <si>
@@ -6614,6 +6611,108 @@
   </si>
   <si>
     <t>QUARTZ - 603 (AZUL MARINHO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 14-01-2020 11:13:33</t>
+  </si>
+  <si>
+    <t>TC15147</t>
+  </si>
+  <si>
+    <t>G3160</t>
+  </si>
+  <si>
+    <t>MACAU - CUOIO (AMARELO)</t>
+  </si>
+  <si>
+    <t>TC15148</t>
+  </si>
+  <si>
+    <t>G3202</t>
+  </si>
+  <si>
+    <t>PURO LINO  - 01 (BRANCO)</t>
+  </si>
+  <si>
+    <t>TC15149</t>
+  </si>
+  <si>
+    <t>G3260</t>
+  </si>
+  <si>
+    <t>PURO LINO - 04 (BEGE)</t>
+  </si>
+  <si>
+    <t>TC15150</t>
+  </si>
+  <si>
+    <t>G3220</t>
+  </si>
+  <si>
+    <t>PURO LINO - 18 (AZUL ESCURO)</t>
+  </si>
+  <si>
+    <t>TC15151</t>
+  </si>
+  <si>
+    <t>G3221</t>
+  </si>
+  <si>
+    <t>PURO LINO - 24 (AZUL CLARO)</t>
+  </si>
+  <si>
+    <t>TC15152</t>
+  </si>
+  <si>
+    <t>G3280</t>
+  </si>
+  <si>
+    <t>PURO LINO - 48 (ROSA)</t>
+  </si>
+  <si>
+    <t>TC15153</t>
+  </si>
+  <si>
+    <t>G3310</t>
+  </si>
+  <si>
+    <t>DEXTER - 102 (CINZA CLARO)</t>
+  </si>
+  <si>
+    <t>TC15154</t>
+  </si>
+  <si>
+    <t>G3380</t>
+  </si>
+  <si>
+    <t>DEXTER - 95 (ROSA)</t>
+  </si>
+  <si>
+    <t>TC15155</t>
+  </si>
+  <si>
+    <t>G3450</t>
+  </si>
+  <si>
+    <t>GRACE - 55 (VERMELHO)</t>
+  </si>
+  <si>
+    <t>TC15156</t>
+  </si>
+  <si>
+    <t>G3060</t>
+  </si>
+  <si>
+    <t>ASCOT (BOUCLE) - PEARL (BEGE)</t>
+  </si>
+  <si>
+    <t>TC15157</t>
+  </si>
+  <si>
+    <t>G1602</t>
+  </si>
+  <si>
+    <t>BOLSHOI 01 | YANODA 22 (BRANCO)</t>
   </si>
 </sst>
 </file>
@@ -6780,8 +6879,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S971" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S971"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S982" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S982"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7070,7 +7169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S971"/>
+  <dimension ref="A1:S982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F977" sqref="F977"/>
@@ -7081,7 +7180,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -7124,7 +7223,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2175</v>
+        <v>2196</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -17520,7 +17619,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>484.40359999999998</v>
+        <v>452.73860000000002</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17579,7 +17678,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>704.39</v>
+        <v>377.4</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18051,7 +18150,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>6419.89</v>
+        <v>8026.58</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -19113,7 +19212,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>76.209999999999994</v>
+        <v>77.44</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19172,7 +19271,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>3037.49</v>
+        <v>3023.45</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19349,7 +19448,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>3529.63</v>
+        <v>3525.42</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20116,7 +20215,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>4977.6671999999999</v>
+        <v>3911.0472</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20411,7 +20510,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>7963.58</v>
+        <v>7940.38</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20470,7 +20569,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>5225.42</v>
+        <v>5796.52</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21178,7 +21277,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>4964.6000000000004</v>
+        <v>6359.2</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21237,7 +21336,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>2433.54</v>
+        <v>2428</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21591,7 +21690,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>1398.42</v>
+        <v>449.01</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -21650,7 +21749,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>1645.68</v>
+        <v>1223.72</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22712,7 +22811,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>5629.63</v>
+        <v>5339.63</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23479,7 +23578,7 @@
         <v>579</v>
       </c>
       <c r="Q279" s="6">
-        <v>110.98180000000001</v>
+        <v>110.1018</v>
       </c>
       <c r="R279" s="6" t="s">
         <v>23</v>
@@ -23951,7 +24050,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2836.0250000000001</v>
+        <v>2823.3150000000001</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24010,7 +24109,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>3399.14</v>
+        <v>3368.1</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24069,7 +24168,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>1290.69</v>
+        <v>1283.6199999999999</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24128,7 +24227,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3955.32</v>
+        <v>3929.9450000000002</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24187,7 +24286,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>4987.9139999999998</v>
+        <v>4981.7240000000002</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24718,7 +24817,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>2139.94</v>
+        <v>3822.94</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -24895,7 +24994,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>6880.75</v>
+        <v>6846.77</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -24954,7 +25053,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>58849.845999999998</v>
+        <v>73445.891000000003</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25013,7 +25112,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>999.5</v>
+        <v>3136.51</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25072,7 +25171,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>3866.17</v>
+        <v>3855.395</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25426,7 +25525,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>2675.12</v>
+        <v>2667.31</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25721,7 +25820,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8751.69</v>
+        <v>8733.14</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -25957,7 +26056,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5644.64</v>
+        <v>9199.9</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26016,7 +26115,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>3692.7550000000001</v>
+        <v>3685.83</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26075,7 +26174,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1704.76</v>
+        <v>1704.29</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26252,7 +26351,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>548.55999999999995</v>
+        <v>925.16</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26370,7 +26469,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3802.95</v>
+        <v>3794.12</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26547,7 +26646,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2022.07</v>
+        <v>1953.32</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26606,7 +26705,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2376.56</v>
+        <v>2385.4</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -26665,7 +26764,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>2108.1999999999998</v>
+        <v>2107.77</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -26842,7 +26941,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2629.08</v>
+        <v>2630.1</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27078,7 +27177,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>253.22</v>
+        <v>252.215</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27255,7 +27354,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>205.37</v>
+        <v>207.3</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27668,7 +27767,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>5286.63</v>
+        <v>5285.3950000000004</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28258,7 +28357,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1616.56</v>
+        <v>1616.2</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -35043,7 +35142,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>1422.85</v>
+        <v>895.25</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35102,7 +35201,7 @@
         <v>1006</v>
       </c>
       <c r="Q476" s="6">
-        <v>674.77</v>
+        <v>345.02</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35161,7 +35260,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>696.15</v>
+        <v>194.13</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35279,7 +35378,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>1370.2</v>
+        <v>1106.4000000000001</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -50855,7 +50954,7 @@
         <v>1546</v>
       </c>
       <c r="Q743" s="6">
-        <v>447.6</v>
+        <v>445.72</v>
       </c>
       <c r="R743" s="6" t="s">
         <v>23</v>
@@ -53628,7 +53727,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>13987.126</v>
+        <v>13100.130999999999</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -53864,7 +53963,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>5480.85</v>
+        <v>5479.85</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -53923,7 +54022,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>27011.242600000001</v>
+        <v>26480</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54218,7 +54317,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>9067.1239999999998</v>
+        <v>8624.9240000000009</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54395,7 +54494,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>26951.349399999999</v>
+        <v>23151.234400000001</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54454,7 +54553,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>25748.34</v>
+        <v>24734.240000000002</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54513,7 +54612,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>64674.963300000003</v>
+        <v>62476.988299999997</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54572,7 +54671,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>1741.37</v>
+        <v>2792.39</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -54631,7 +54730,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>5326.8</v>
+        <v>5188.3100000000004</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55291,16 +55390,16 @@
     </row>
     <row r="819" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B819" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C819" s="5" t="s">
         <v>2176</v>
       </c>
-      <c r="B819" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C819" s="5" t="s">
+      <c r="D819" s="5" t="s">
         <v>2177</v>
-      </c>
-      <c r="D819" s="5" t="s">
-        <v>2178</v>
       </c>
       <c r="E819" s="6" t="s">
         <v>23</v>
@@ -55336,7 +55435,7 @@
         <v>21</v>
       </c>
       <c r="P819" s="5" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="Q819" s="6">
         <v>0</v>
@@ -55350,16 +55449,16 @@
     </row>
     <row r="820" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B820" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C820" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="B820" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C820" s="5" t="s">
+      <c r="D820" s="5" t="s">
         <v>2180</v>
-      </c>
-      <c r="D820" s="5" t="s">
-        <v>2181</v>
       </c>
       <c r="E820" s="6" t="s">
         <v>23</v>
@@ -55395,7 +55494,7 @@
         <v>21</v>
       </c>
       <c r="P820" s="5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="Q820" s="6">
         <v>0</v>
@@ -55575,7 +55674,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>1270.46</v>
+        <v>3212.8</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56047,7 +56146,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>22609.88</v>
+        <v>20921.96</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56106,7 +56205,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>9322.85</v>
+        <v>12375.45</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56268,7 +56367,7 @@
         <v>23</v>
       </c>
       <c r="L835" s="6">
-        <v>2.3199999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="M835" s="6">
         <v>0</v>
@@ -56283,7 +56382,7 @@
         <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>1033</v>
+        <v>2987.5</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56578,7 +56677,7 @@
         <v>1790</v>
       </c>
       <c r="Q840" s="6">
-        <v>4712.12</v>
+        <v>4711.5649999999996</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -56755,7 +56854,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>391.63</v>
+        <v>391.01</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57050,7 +57149,7 @@
         <v>1817</v>
       </c>
       <c r="Q848" s="6">
-        <v>204.82</v>
+        <v>199.09</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -57168,7 +57267,7 @@
         <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>1261.68</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -58053,7 +58152,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>707.64</v>
+        <v>706.34</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58112,7 +58211,7 @@
         <v>1871</v>
       </c>
       <c r="Q866" s="6">
-        <v>1226.4000000000001</v>
+        <v>2106.0500000000002</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58171,7 +58270,7 @@
         <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>47268.7</v>
+        <v>46437.62</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58466,7 +58565,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>322</v>
+        <v>309.85000000000002</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58525,7 +58624,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>373.34</v>
+        <v>346.82</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59410,7 +59509,7 @@
         <v>1938</v>
       </c>
       <c r="Q888" s="6">
-        <v>192.1</v>
+        <v>160.06</v>
       </c>
       <c r="R888" s="6" t="s">
         <v>23</v>
@@ -59528,7 +59627,7 @@
         <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>281.20999999999998</v>
+        <v>279.88499999999999</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -61357,7 +61456,7 @@
         <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>1857.3</v>
+        <v>3728.2</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61416,7 +61515,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>18943.11</v>
+        <v>22235.64</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61534,7 +61633,7 @@
         <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>31624.9558</v>
+        <v>19364.835800000001</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -61652,7 +61751,7 @@
         <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>1867</v>
+        <v>1864.355</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62006,7 +62105,7 @@
         <v>2071</v>
       </c>
       <c r="Q932" s="6">
-        <v>4847.18</v>
+        <v>3789.86</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62345,7 +62444,7 @@
         <v>23</v>
       </c>
       <c r="L938" s="6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="M938" s="6">
         <v>0</v>
@@ -62360,7 +62459,7 @@
         <v>2089</v>
       </c>
       <c r="Q938" s="6">
-        <v>2092.5</v>
+        <v>2874.4</v>
       </c>
       <c r="R938" s="6" t="s">
         <v>23</v>
@@ -62460,10 +62559,10 @@
         <v>21</v>
       </c>
       <c r="K940" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L940" s="6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="M940" s="6">
         <v>0</v>
@@ -62478,7 +62577,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>0</v>
+        <v>1051.8</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62537,7 +62636,7 @@
         <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>189.43</v>
+        <v>954.23</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62655,7 +62754,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>2226.83</v>
+        <v>2202.91</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -62714,7 +62813,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2855.1</v>
+        <v>2726.3</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -62773,7 +62872,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>1855.1</v>
+        <v>1726.3</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -62932,10 +63031,10 @@
         <v>21</v>
       </c>
       <c r="K948" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L948" s="6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="M948" s="6">
         <v>0</v>
@@ -62950,7 +63049,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>0</v>
+        <v>2183.9</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -63068,7 +63167,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>564.29999999999995</v>
+        <v>502.02499999999998</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63245,7 +63344,7 @@
         <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>280.89999999999998</v>
+        <v>229.9</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63846,16 +63945,16 @@
     </row>
     <row r="964" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C964" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="B964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C964" s="5" t="s">
+      <c r="D964" s="5" t="s">
         <v>2183</v>
-      </c>
-      <c r="D964" s="5" t="s">
-        <v>2184</v>
       </c>
       <c r="E964" s="6" t="s">
         <v>23</v>
@@ -63891,7 +63990,7 @@
         <v>21</v>
       </c>
       <c r="P964" s="5" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="Q964" s="6">
         <v>0</v>
@@ -63905,16 +64004,16 @@
     </row>
     <row r="965" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C965" s="5" t="s">
         <v>2185</v>
       </c>
-      <c r="B965" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C965" s="5" t="s">
+      <c r="D965" s="5" t="s">
         <v>2186</v>
-      </c>
-      <c r="D965" s="5" t="s">
-        <v>2187</v>
       </c>
       <c r="E965" s="6" t="s">
         <v>23</v>
@@ -63950,7 +64049,7 @@
         <v>21</v>
       </c>
       <c r="P965" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="Q965" s="6">
         <v>0</v>
@@ -63964,16 +64063,16 @@
     </row>
     <row r="966" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966" s="5" t="s">
         <v>2188</v>
       </c>
-      <c r="B966" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C966" s="5" t="s">
+      <c r="D966" s="5" t="s">
         <v>2189</v>
-      </c>
-      <c r="D966" s="5" t="s">
-        <v>2190</v>
       </c>
       <c r="E966" s="6" t="s">
         <v>23</v>
@@ -64009,7 +64108,7 @@
         <v>21</v>
       </c>
       <c r="P966" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="Q966" s="6">
         <v>0</v>
@@ -64023,16 +64122,16 @@
     </row>
     <row r="967" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
-        <v>2166</v>
+        <v>2197</v>
       </c>
       <c r="B967" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>2167</v>
+        <v>2198</v>
       </c>
       <c r="D967" s="5" t="s">
-        <v>2168</v>
+        <v>2199</v>
       </c>
       <c r="E967" s="6" t="s">
         <v>23</v>
@@ -64053,10 +64152,10 @@
         <v>21</v>
       </c>
       <c r="K967" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L967" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M967" s="6">
         <v>0</v>
@@ -64068,10 +64167,10 @@
         <v>21</v>
       </c>
       <c r="P967" s="5" t="s">
-        <v>2167</v>
+        <v>2198</v>
       </c>
       <c r="Q967" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R967" s="6" t="s">
         <v>23</v>
@@ -64082,16 +64181,16 @@
     </row>
     <row r="968" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
-        <v>2169</v>
+        <v>2200</v>
       </c>
       <c r="B968" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>2170</v>
+        <v>2201</v>
       </c>
       <c r="D968" s="5" t="s">
-        <v>2171</v>
+        <v>2202</v>
       </c>
       <c r="E968" s="6" t="s">
         <v>23</v>
@@ -64112,10 +64211,10 @@
         <v>21</v>
       </c>
       <c r="K968" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L968" s="6">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M968" s="6">
         <v>0</v>
@@ -64127,10 +64226,10 @@
         <v>21</v>
       </c>
       <c r="P968" s="5" t="s">
-        <v>2170</v>
+        <v>2201</v>
       </c>
       <c r="Q968" s="6">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="R968" s="6" t="s">
         <v>23</v>
@@ -64141,16 +64240,16 @@
     </row>
     <row r="969" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
-        <v>2172</v>
+        <v>2203</v>
       </c>
       <c r="B969" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C969" s="5" t="s">
-        <v>2173</v>
+        <v>2204</v>
       </c>
       <c r="D969" s="5" t="s">
-        <v>2174</v>
+        <v>2205</v>
       </c>
       <c r="E969" s="6" t="s">
         <v>23</v>
@@ -64171,10 +64270,10 @@
         <v>21</v>
       </c>
       <c r="K969" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L969" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M969" s="6">
         <v>0</v>
@@ -64186,10 +64285,10 @@
         <v>21</v>
       </c>
       <c r="P969" s="5" t="s">
-        <v>2173</v>
+        <v>2204</v>
       </c>
       <c r="Q969" s="6">
-        <v>1757.67</v>
+        <v>0</v>
       </c>
       <c r="R969" s="6" t="s">
         <v>23</v>
@@ -64200,16 +64299,16 @@
     </row>
     <row r="970" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
-        <v>2191</v>
+        <v>2206</v>
       </c>
       <c r="B970" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>2192</v>
+        <v>2207</v>
       </c>
       <c r="D970" s="5" t="s">
-        <v>2193</v>
+        <v>2208</v>
       </c>
       <c r="E970" s="6" t="s">
         <v>23</v>
@@ -64245,7 +64344,7 @@
         <v>21</v>
       </c>
       <c r="P970" s="5" t="s">
-        <v>2192</v>
+        <v>2207</v>
       </c>
       <c r="Q970" s="6">
         <v>0</v>
@@ -64259,16 +64358,16 @@
     </row>
     <row r="971" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
-        <v>2194</v>
+        <v>2209</v>
       </c>
       <c r="B971" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>2195</v>
+        <v>2210</v>
       </c>
       <c r="D971" s="5" t="s">
-        <v>2196</v>
+        <v>2211</v>
       </c>
       <c r="E971" s="6" t="s">
         <v>23</v>
@@ -64304,15 +64403,664 @@
         <v>21</v>
       </c>
       <c r="P971" s="5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q971" s="6">
+        <v>0</v>
+      </c>
+      <c r="R971" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S971" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="972" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A972" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C972" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D972" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E972" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F972" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I972" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K972" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L972" s="6">
+        <v>0</v>
+      </c>
+      <c r="M972" s="6">
+        <v>0</v>
+      </c>
+      <c r="N972" s="6">
+        <v>0</v>
+      </c>
+      <c r="O972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P972" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="Q972" s="6">
+        <v>0</v>
+      </c>
+      <c r="R972" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S972" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="973" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A973" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C973" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D973" s="5" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E973" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F973" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I973" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K973" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L973" s="6">
+        <v>0</v>
+      </c>
+      <c r="M973" s="6">
+        <v>0</v>
+      </c>
+      <c r="N973" s="6">
+        <v>0</v>
+      </c>
+      <c r="O973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P973" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="Q973" s="6">
+        <v>0</v>
+      </c>
+      <c r="R973" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S973" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="974" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A974" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C974" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D974" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E974" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F974" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I974" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K974" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L974" s="6">
+        <v>0</v>
+      </c>
+      <c r="M974" s="6">
+        <v>0</v>
+      </c>
+      <c r="N974" s="6">
+        <v>0</v>
+      </c>
+      <c r="O974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P974" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="Q974" s="6">
+        <v>0</v>
+      </c>
+      <c r="R974" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S974" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="975" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A975" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C975" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D975" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E975" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F975" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I975" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K975" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L975" s="6">
+        <v>0</v>
+      </c>
+      <c r="M975" s="6">
+        <v>0</v>
+      </c>
+      <c r="N975" s="6">
+        <v>0</v>
+      </c>
+      <c r="O975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P975" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="Q975" s="6">
+        <v>0</v>
+      </c>
+      <c r="R975" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S975" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="976" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A976" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C976" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D976" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E976" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F976" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I976" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K976" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L976" s="6">
+        <v>0</v>
+      </c>
+      <c r="M976" s="6">
+        <v>0</v>
+      </c>
+      <c r="N976" s="6">
+        <v>0</v>
+      </c>
+      <c r="O976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P976" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q976" s="6">
+        <v>0</v>
+      </c>
+      <c r="R976" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S976" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="977" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A977" s="5" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D977" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E977" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F977" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I977" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K977" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L977" s="6">
+        <v>0</v>
+      </c>
+      <c r="M977" s="6">
+        <v>0</v>
+      </c>
+      <c r="N977" s="6">
+        <v>0</v>
+      </c>
+      <c r="O977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P977" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="Q977" s="6">
+        <v>0</v>
+      </c>
+      <c r="R977" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S977" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="978" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A978" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C978" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E978" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F978" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I978" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K978" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L978" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M978" s="6">
+        <v>0</v>
+      </c>
+      <c r="N978" s="6">
+        <v>0</v>
+      </c>
+      <c r="O978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P978" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q978" s="6">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="R978" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S978" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="979" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A979" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C979" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D979" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E979" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F979" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I979" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K979" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L979" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="M979" s="6">
+        <v>0</v>
+      </c>
+      <c r="N979" s="6">
+        <v>0</v>
+      </c>
+      <c r="O979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P979" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q979" s="6">
+        <v>102.8</v>
+      </c>
+      <c r="R979" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S979" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="980" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A980" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C980" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D980" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E980" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F980" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I980" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K980" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L980" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M980" s="6">
+        <v>0</v>
+      </c>
+      <c r="N980" s="6">
+        <v>0</v>
+      </c>
+      <c r="O980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P980" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q980" s="6">
+        <v>1757.67</v>
+      </c>
+      <c r="R980" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S980" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="981" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A981" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C981" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D981" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E981" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F981" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I981" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K981" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L981" s="6">
+        <v>0</v>
+      </c>
+      <c r="M981" s="6">
+        <v>0</v>
+      </c>
+      <c r="N981" s="6">
+        <v>0</v>
+      </c>
+      <c r="O981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P981" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q981" s="6">
+        <v>0</v>
+      </c>
+      <c r="R981" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S981" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="982" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A982" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C982" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D982" s="5" t="s">
         <v>2195</v>
       </c>
-      <c r="Q971" s="6">
-        <v>0</v>
-      </c>
-      <c r="R971" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S971" s="5" t="s">
+      <c r="E982" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F982" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I982" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K982" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L982" s="6">
+        <v>0</v>
+      </c>
+      <c r="M982" s="6">
+        <v>0</v>
+      </c>
+      <c r="N982" s="6">
+        <v>0</v>
+      </c>
+      <c r="O982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P982" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="Q982" s="6">
+        <v>0</v>
+      </c>
+      <c r="R982" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S982" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14706" uniqueCount="2230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14886" uniqueCount="2266">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6613,18 +6613,12 @@
     <t>QUARTZ - 603 (AZUL MARINHO)</t>
   </si>
   <si>
-    <t>Lista Produto : 14-01-2020 11:13:33</t>
-  </si>
-  <si>
     <t>TC15147</t>
   </si>
   <si>
     <t>G3160</t>
   </si>
   <si>
-    <t>MACAU - CUOIO (AMARELO)</t>
-  </si>
-  <si>
     <t>TC15148</t>
   </si>
   <si>
@@ -6713,6 +6707,120 @@
   </si>
   <si>
     <t>BOLSHOI 01 | YANODA 22 (BRANCO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 04-02-2020 15:43:21</t>
+  </si>
+  <si>
+    <t>MACAU - CUOIO (AMARELO TORRADO)</t>
+  </si>
+  <si>
+    <t>TC15158</t>
+  </si>
+  <si>
+    <t>G2842</t>
+  </si>
+  <si>
+    <t>TEXAS 480 C.95 (TAUPE)</t>
+  </si>
+  <si>
+    <t>TC15159</t>
+  </si>
+  <si>
+    <t>G2112</t>
+  </si>
+  <si>
+    <t>SAWANA 21 LIGHT GREY</t>
+  </si>
+  <si>
+    <t>TC15160</t>
+  </si>
+  <si>
+    <t>G3510</t>
+  </si>
+  <si>
+    <t>PEGASUS STAR - LIGHT GREY</t>
+  </si>
+  <si>
+    <t>TC15161</t>
+  </si>
+  <si>
+    <t>G3511</t>
+  </si>
+  <si>
+    <t>PEGASUS STAR - MEDIUM GREY</t>
+  </si>
+  <si>
+    <t>TC15162</t>
+  </si>
+  <si>
+    <t>G3550</t>
+  </si>
+  <si>
+    <t>PEGASUS STAR - VERMELHO</t>
+  </si>
+  <si>
+    <t>TC15163</t>
+  </si>
+  <si>
+    <t>G3540</t>
+  </si>
+  <si>
+    <t>PEGASUS STAR - EXPRESS (CHOCOLATE)</t>
+  </si>
+  <si>
+    <t>TC15164</t>
+  </si>
+  <si>
+    <t>G3130</t>
+  </si>
+  <si>
+    <t>MACAU - MOSS 10 (VERDE)</t>
+  </si>
+  <si>
+    <t>TC15165</t>
+  </si>
+  <si>
+    <t>G3120</t>
+  </si>
+  <si>
+    <t>MACAU - PETROL 15 (AZUL)</t>
+  </si>
+  <si>
+    <t>TC15166</t>
+  </si>
+  <si>
+    <t>G3110</t>
+  </si>
+  <si>
+    <t>MACAU - CEMENT 09 (CINZENTO)</t>
+  </si>
+  <si>
+    <t>TC15167</t>
+  </si>
+  <si>
+    <t>G2212</t>
+  </si>
+  <si>
+    <t>QUEENS DARK GREY</t>
+  </si>
+  <si>
+    <t>TC15168</t>
+  </si>
+  <si>
+    <t>G3610</t>
+  </si>
+  <si>
+    <t>VISSLE DARK GREY</t>
+  </si>
+  <si>
+    <t>TC15169</t>
+  </si>
+  <si>
+    <t>G3710</t>
+  </si>
+  <si>
+    <t>PERSA ASH 12</t>
   </si>
 </sst>
 </file>
@@ -6879,8 +6987,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S982" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S982"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S994" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S994"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7169,7 +7277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S982"/>
+  <dimension ref="A1:S994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F977" sqref="F977"/>
@@ -7180,7 +7288,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -7223,7 +7331,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2196</v>
+        <v>2228</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -17383,7 +17491,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>3210.95</v>
+        <v>3173.8</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -17619,7 +17727,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>452.73860000000002</v>
+        <v>339.65359999999998</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17678,7 +17786,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>377.4</v>
+        <v>279.19</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18150,7 +18258,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>8026.58</v>
+        <v>6058.41</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18504,7 +18612,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>1934</v>
+        <v>1849.7</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -18799,7 +18907,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>1633.1</v>
+        <v>1327.2</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19212,7 +19320,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>77.44</v>
+        <v>91.66</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19271,7 +19379,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>3023.45</v>
+        <v>2646.35</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19448,7 +19556,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>3525.42</v>
+        <v>3516.86</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20156,7 +20264,7 @@
         <v>462</v>
       </c>
       <c r="Q221" s="6">
-        <v>0</v>
+        <v>-0.59</v>
       </c>
       <c r="R221" s="6" t="s">
         <v>23</v>
@@ -20215,7 +20323,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>3911.0472</v>
+        <v>4153.2572</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20274,7 +20382,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1962.65</v>
+        <v>1963.01</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20510,7 +20618,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>7940.38</v>
+        <v>9288.5300000000007</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20569,7 +20677,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>5796.52</v>
+        <v>7317.78</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21277,7 +21385,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>6359.2</v>
+        <v>4772.0690000000004</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21572,7 +21680,7 @@
         <v>510</v>
       </c>
       <c r="Q245" s="6">
-        <v>696.1</v>
+        <v>784</v>
       </c>
       <c r="R245" s="6" t="s">
         <v>23</v>
@@ -21631,7 +21739,7 @@
         <v>512</v>
       </c>
       <c r="Q246" s="6">
-        <v>1366.5</v>
+        <v>1276</v>
       </c>
       <c r="R246" s="6" t="s">
         <v>23</v>
@@ -21690,7 +21798,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>449.01</v>
+        <v>64</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -21749,7 +21857,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>1223.72</v>
+        <v>3069.59</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -21867,7 +21975,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>1045.8800000000001</v>
+        <v>333.04</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -21926,7 +22034,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>787.59</v>
+        <v>1293.48</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -21985,7 +22093,7 @@
         <v>524</v>
       </c>
       <c r="Q252" s="6">
-        <v>3352.5</v>
+        <v>3182.7</v>
       </c>
       <c r="R252" s="6" t="s">
         <v>23</v>
@@ -22752,7 +22860,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>2431.1999999999998</v>
+        <v>1890.9</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -22811,7 +22919,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>5339.63</v>
+        <v>4161.79</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -22929,7 +23037,7 @@
         <v>556</v>
       </c>
       <c r="Q268" s="6">
-        <v>86.93</v>
+        <v>931.76</v>
       </c>
       <c r="R268" s="6" t="s">
         <v>23</v>
@@ -23165,7 +23273,7 @@
         <v>565</v>
       </c>
       <c r="Q272" s="6">
-        <v>2315.4</v>
+        <v>2207.4</v>
       </c>
       <c r="R272" s="6" t="s">
         <v>23</v>
@@ -23991,7 +24099,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1154.6199999999999</v>
+        <v>1122.78</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -24050,7 +24158,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2823.3150000000001</v>
+        <v>2365.7150000000001</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24109,7 +24217,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>3368.1</v>
+        <v>2699.67</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24168,7 +24276,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>1283.6199999999999</v>
+        <v>1252.1400000000001</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24227,7 +24335,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3929.9450000000002</v>
+        <v>3743.3249999999998</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24286,7 +24394,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>4981.7240000000002</v>
+        <v>4768.4189999999999</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24345,7 +24453,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>1365.33</v>
+        <v>1271.73</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24640,7 +24748,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3604.41</v>
+        <v>3591.31</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -24758,7 +24866,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>1185.23</v>
+        <v>1127.95</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -24817,7 +24925,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>3822.94</v>
+        <v>2887.72</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -24876,7 +24984,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>956.14</v>
+        <v>1483.26</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -24935,7 +25043,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>4335.59</v>
+        <v>3926.13</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -24994,7 +25102,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>6846.77</v>
+        <v>46778.952400000002</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25053,7 +25161,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>73445.891000000003</v>
+        <v>76105.731</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25112,7 +25220,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>3136.51</v>
+        <v>2796.04</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25171,7 +25279,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>3855.395</v>
+        <v>3474.1950000000002</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25230,7 +25338,7 @@
         <v>635</v>
       </c>
       <c r="Q307" s="6">
-        <v>935.2</v>
+        <v>971.2</v>
       </c>
       <c r="R307" s="6" t="s">
         <v>23</v>
@@ -25407,7 +25515,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3871.22</v>
+        <v>3685.07</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25510,7 +25618,7 @@
         <v>23</v>
       </c>
       <c r="L312" s="6">
-        <v>3.75</v>
+        <v>3.02</v>
       </c>
       <c r="M312" s="6">
         <v>0</v>
@@ -25525,7 +25633,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>2667.31</v>
+        <v>1396.76</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25584,7 +25692,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>414.44</v>
+        <v>283.95999999999998</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -25643,7 +25751,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2371.58</v>
+        <v>2321</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -25761,7 +25869,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>344.24</v>
+        <v>305.83999999999997</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -25820,7 +25928,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8733.14</v>
+        <v>8751.7000000000007</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -25879,7 +25987,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>3976.81</v>
+        <v>3795.2</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -25938,7 +26046,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>9277.42</v>
+        <v>8771.09</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -25997,7 +26105,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3288.83</v>
+        <v>3007.34</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26056,7 +26164,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>9199.9</v>
+        <v>6248.95</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26115,7 +26223,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>3685.83</v>
+        <v>3356.5704000000001</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26174,7 +26282,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1704.29</v>
+        <v>1639.43</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26233,7 +26341,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2989.5</v>
+        <v>2991.1</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26292,7 +26400,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>4251.2996999999996</v>
+        <v>4146.0697</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26351,7 +26459,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>925.16</v>
+        <v>794.18</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26410,7 +26518,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>20.55</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26469,7 +26577,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3794.12</v>
+        <v>3423.5909999999999</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26528,7 +26636,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2092.6999999999998</v>
+        <v>2073.1999999999998</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26587,7 +26695,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>431.7</v>
+        <v>606.12</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -26646,7 +26754,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>1953.32</v>
+        <v>1333.65</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26705,7 +26813,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2385.4</v>
+        <v>2716.39</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -26764,7 +26872,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>2107.77</v>
+        <v>2038.32</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -26823,7 +26931,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>179.5</v>
+        <v>141.1</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -26882,7 +26990,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1430.845</v>
+        <v>1412.825</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -26941,7 +27049,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2630.1</v>
+        <v>2375.34</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27177,7 +27285,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>252.215</v>
+        <v>164.20500000000001</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27472,7 +27580,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>7767.56</v>
+        <v>5801.68</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27531,7 +27639,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>1219.19</v>
+        <v>915.69</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27590,7 +27698,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>226.48</v>
+        <v>207.98</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -27649,7 +27757,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>447</v>
+        <v>412.14</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -27708,7 +27816,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1469.88</v>
+        <v>830.23</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -27767,7 +27875,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>5285.3950000000004</v>
+        <v>5063.4449999999997</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -27826,7 +27934,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>29854.52</v>
+        <v>29433.56</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -27885,7 +27993,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3533.8</v>
+        <v>3553.8</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28003,7 +28111,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>286</v>
+        <v>258.7</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28062,7 +28170,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1625.83</v>
+        <v>1533.11</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28298,7 +28406,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>1059.0999999999999</v>
+        <v>988</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28357,7 +28465,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1616.2</v>
+        <v>1579.3</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -28888,7 +28996,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>68.400000000000006</v>
+        <v>60.9</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -28947,7 +29055,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>160.4</v>
+        <v>156.65</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -29006,7 +29114,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3806.4</v>
+        <v>3506.83</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -29124,7 +29232,7 @@
         <v>800</v>
       </c>
       <c r="Q373" s="6">
-        <v>568.28</v>
+        <v>566.76</v>
       </c>
       <c r="R373" s="6" t="s">
         <v>23</v>
@@ -35142,7 +35250,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>895.25</v>
+        <v>1141.47</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35186,7 +35294,7 @@
         <v>23</v>
       </c>
       <c r="L476" s="6">
-        <v>3.25</v>
+        <v>3.99</v>
       </c>
       <c r="M476" s="6">
         <v>0</v>
@@ -35201,7 +35309,7 @@
         <v>1006</v>
       </c>
       <c r="Q476" s="6">
-        <v>345.02</v>
+        <v>460.22</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35245,7 +35353,7 @@
         <v>23</v>
       </c>
       <c r="L477" s="6">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="M477" s="6">
         <v>0</v>
@@ -35260,7 +35368,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>194.13</v>
+        <v>329.85</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35319,7 +35427,7 @@
         <v>1010</v>
       </c>
       <c r="Q478" s="6">
-        <v>1438.48</v>
+        <v>1196.3</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -35378,7 +35486,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>1106.4000000000001</v>
+        <v>412.94</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -51249,7 +51357,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>602.12</v>
+        <v>501.64</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -53550,7 +53658,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>2117.16</v>
+        <v>3440.86</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -53727,7 +53835,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>13100.130999999999</v>
+        <v>10188.260679999999</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -53845,7 +53953,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>3788.95</v>
+        <v>2525.35</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -53963,7 +54071,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>5479.85</v>
+        <v>3746.9549999999999</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54022,7 +54130,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>26480</v>
+        <v>21211.67</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54317,7 +54425,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>8624.9240000000009</v>
+        <v>7942.9</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54435,7 +54543,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>1297.6679999999999</v>
+        <v>1062.6400000000001</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54494,7 +54602,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>23151.234400000001</v>
+        <v>22169.932000000001</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54553,7 +54661,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>24734.240000000002</v>
+        <v>23273.98</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54612,7 +54720,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>62476.988299999997</v>
+        <v>48419.4683</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54671,7 +54779,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>2792.39</v>
+        <v>2247.4899999999998</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -54730,7 +54838,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>5188.3100000000004</v>
+        <v>5187.8100000000004</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55674,7 +55782,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>3212.8</v>
+        <v>3081.14</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56146,7 +56254,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>20921.96</v>
+        <v>14308.84</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56205,7 +56313,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>12375.45</v>
+        <v>10123.129999999999</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56382,7 +56490,7 @@
         <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>2987.5</v>
+        <v>1184.58</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56500,7 +56608,7 @@
         <v>1777</v>
       </c>
       <c r="Q837" s="6">
-        <v>542.84</v>
+        <v>562.20000000000005</v>
       </c>
       <c r="R837" s="6" t="s">
         <v>23</v>
@@ -56559,7 +56667,7 @@
         <v>1782</v>
       </c>
       <c r="Q838" s="6">
-        <v>184.8</v>
+        <v>178.32</v>
       </c>
       <c r="R838" s="6" t="s">
         <v>23</v>
@@ -56677,7 +56785,7 @@
         <v>1790</v>
       </c>
       <c r="Q840" s="6">
-        <v>4711.5649999999996</v>
+        <v>4694.0950000000003</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -56736,7 +56844,7 @@
         <v>747</v>
       </c>
       <c r="Q841" s="6">
-        <v>732.5</v>
+        <v>721.73</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -56795,7 +56903,7 @@
         <v>1797</v>
       </c>
       <c r="Q842" s="6">
-        <v>48.5</v>
+        <v>147.5</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -56854,7 +56962,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>391.01</v>
+        <v>382.66</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -56972,7 +57080,7 @@
         <v>1806</v>
       </c>
       <c r="Q845" s="6">
-        <v>412.8</v>
+        <v>311.12</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -57031,7 +57139,7 @@
         <v>1809</v>
       </c>
       <c r="Q846" s="6">
-        <v>169.3</v>
+        <v>189.3</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -57267,7 +57375,7 @@
         <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>1259.9000000000001</v>
+        <v>-134.6</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -57562,7 +57670,7 @@
         <v>1837</v>
       </c>
       <c r="Q855" s="6">
-        <v>84.5</v>
+        <v>395.27</v>
       </c>
       <c r="R855" s="6" t="s">
         <v>23</v>
@@ -57621,7 +57729,7 @@
         <v>1840</v>
       </c>
       <c r="Q856" s="6">
-        <v>176.9</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -57916,7 +58024,7 @@
         <v>1855</v>
       </c>
       <c r="Q861" s="6">
-        <v>16744.29</v>
+        <v>11819.3</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58034,7 +58142,7 @@
         <v>1861</v>
       </c>
       <c r="Q863" s="6">
-        <v>1617.93</v>
+        <v>1528.57</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58093,7 +58201,7 @@
         <v>1864</v>
       </c>
       <c r="Q864" s="6">
-        <v>1620.78</v>
+        <v>1333.01</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58152,7 +58260,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>706.34</v>
+        <v>547.54999999999995</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58211,7 +58319,7 @@
         <v>1871</v>
       </c>
       <c r="Q866" s="6">
-        <v>2106.0500000000002</v>
+        <v>1839.5</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58270,7 +58378,7 @@
         <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>46437.62</v>
+        <v>15515.98</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58388,7 +58496,7 @@
         <v>1880</v>
       </c>
       <c r="Q869" s="6">
-        <v>134.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58565,7 +58673,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>309.85000000000002</v>
+        <v>268</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58624,7 +58732,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>346.82</v>
+        <v>322.52</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -58683,7 +58791,7 @@
         <v>1895</v>
       </c>
       <c r="Q874" s="6">
-        <v>701.02</v>
+        <v>676.72</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -58742,7 +58850,7 @@
         <v>1898</v>
       </c>
       <c r="Q875" s="6">
-        <v>109</v>
+        <v>101.19</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -58860,7 +58968,7 @@
         <v>1904</v>
       </c>
       <c r="Q877" s="6">
-        <v>341.26</v>
+        <v>378.4</v>
       </c>
       <c r="R877" s="6" t="s">
         <v>23</v>
@@ -58919,7 +59027,7 @@
         <v>1907</v>
       </c>
       <c r="Q878" s="6">
-        <v>110.08</v>
+        <v>88.72</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -59037,7 +59145,7 @@
         <v>1913</v>
       </c>
       <c r="Q880" s="6">
-        <v>147.18</v>
+        <v>125.82</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -59214,7 +59322,7 @@
         <v>1922</v>
       </c>
       <c r="Q883" s="6">
-        <v>36160</v>
+        <v>26305.74</v>
       </c>
       <c r="R883" s="6" t="s">
         <v>23</v>
@@ -59273,7 +59381,7 @@
         <v>1925</v>
       </c>
       <c r="Q884" s="6">
-        <v>8397.2000000000007</v>
+        <v>4999.1000000000004</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59450,7 +59558,7 @@
         <v>1935</v>
       </c>
       <c r="Q887" s="6">
-        <v>152.63</v>
+        <v>120.53</v>
       </c>
       <c r="R887" s="6" t="s">
         <v>23</v>
@@ -59627,7 +59735,7 @@
         <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>279.88499999999999</v>
+        <v>237.13499999999999</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -61456,7 +61564,7 @@
         <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>3728.2</v>
+        <v>1465.78</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61515,7 +61623,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>22235.64</v>
+        <v>10057.42</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61633,7 +61741,7 @@
         <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>19364.835800000001</v>
+        <v>7276.0630000000001</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -61751,7 +61859,7 @@
         <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>1864.355</v>
+        <v>1529.5</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -61928,7 +62036,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>373.86</v>
+        <v>92.63</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62105,7 +62213,7 @@
         <v>2071</v>
       </c>
       <c r="Q932" s="6">
-        <v>3789.86</v>
+        <v>3245.18</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62282,7 +62390,7 @@
         <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>2658.89</v>
+        <v>1635.98</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -62341,7 +62449,7 @@
         <v>2083</v>
       </c>
       <c r="Q936" s="6">
-        <v>4298.12</v>
+        <v>3917.6</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62400,7 +62508,7 @@
         <v>2086</v>
       </c>
       <c r="Q937" s="6">
-        <v>554.79999999999995</v>
+        <v>539.24</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -62518,7 +62626,7 @@
         <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>4620.66</v>
+        <v>4371.99</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62577,7 +62685,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>1051.8</v>
+        <v>780.8</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62636,7 +62744,7 @@
         <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>954.23</v>
+        <v>427.71</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62695,7 +62803,7 @@
         <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>1936.44</v>
+        <v>940.41</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -62754,7 +62862,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>2202.91</v>
+        <v>1960.62</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -62813,7 +62921,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2726.3</v>
+        <v>3132.35</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -62872,7 +62980,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>1726.3</v>
+        <v>1566</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -62972,10 +63080,10 @@
         <v>21</v>
       </c>
       <c r="K947" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L947" s="6">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M947" s="6">
         <v>0</v>
@@ -62990,7 +63098,7 @@
         <v>2116</v>
       </c>
       <c r="Q947" s="6">
-        <v>0</v>
+        <v>922.3</v>
       </c>
       <c r="R947" s="6" t="s">
         <v>23</v>
@@ -63108,7 +63216,7 @@
         <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>329.3</v>
+        <v>208.58</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63167,7 +63275,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>502.02499999999998</v>
+        <v>45.305</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63226,7 +63334,7 @@
         <v>2128</v>
       </c>
       <c r="Q951" s="6">
-        <v>552.1</v>
+        <v>401.2</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63285,7 +63393,7 @@
         <v>2131</v>
       </c>
       <c r="Q952" s="6">
-        <v>312.10000000000002</v>
+        <v>251.74</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63344,7 +63452,7 @@
         <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>229.9</v>
+        <v>292.18</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63403,7 +63511,7 @@
         <v>2137</v>
       </c>
       <c r="Q954" s="6">
-        <v>251.4</v>
+        <v>201.1</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63462,7 +63570,7 @@
         <v>2140</v>
       </c>
       <c r="Q955" s="6">
-        <v>241.7</v>
+        <v>191.4</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -63639,7 +63747,7 @@
         <v>2149</v>
       </c>
       <c r="Q958" s="6">
-        <v>1352.6904</v>
+        <v>5698.4903999999997</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -63739,10 +63847,10 @@
         <v>21</v>
       </c>
       <c r="K960" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L960" s="6">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="M960" s="6">
         <v>0</v>
@@ -63757,7 +63865,7 @@
         <v>2155</v>
       </c>
       <c r="Q960" s="6">
-        <v>0</v>
+        <v>590.20000000000005</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64122,16 +64230,16 @@
     </row>
     <row r="967" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="5" t="s">
         <v>2197</v>
       </c>
-      <c r="B967" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C967" s="5" t="s">
-        <v>2198</v>
-      </c>
       <c r="D967" s="5" t="s">
-        <v>2199</v>
+        <v>2229</v>
       </c>
       <c r="E967" s="6" t="s">
         <v>23</v>
@@ -64167,7 +64275,7 @@
         <v>21</v>
       </c>
       <c r="P967" s="5" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="Q967" s="6">
         <v>0</v>
@@ -64181,16 +64289,16 @@
     </row>
     <row r="968" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D968" s="5" t="s">
         <v>2200</v>
-      </c>
-      <c r="B968" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C968" s="5" t="s">
-        <v>2201</v>
-      </c>
-      <c r="D968" s="5" t="s">
-        <v>2202</v>
       </c>
       <c r="E968" s="6" t="s">
         <v>23</v>
@@ -64226,7 +64334,7 @@
         <v>21</v>
       </c>
       <c r="P968" s="5" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="Q968" s="6">
         <v>0</v>
@@ -64240,16 +64348,16 @@
     </row>
     <row r="969" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C969" s="5" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D969" s="5" t="s">
         <v>2203</v>
-      </c>
-      <c r="B969" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C969" s="5" t="s">
-        <v>2204</v>
-      </c>
-      <c r="D969" s="5" t="s">
-        <v>2205</v>
       </c>
       <c r="E969" s="6" t="s">
         <v>23</v>
@@ -64285,7 +64393,7 @@
         <v>21</v>
       </c>
       <c r="P969" s="5" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="Q969" s="6">
         <v>0</v>
@@ -64299,16 +64407,16 @@
     </row>
     <row r="970" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" s="5" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D970" s="5" t="s">
         <v>2206</v>
-      </c>
-      <c r="B970" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C970" s="5" t="s">
-        <v>2207</v>
-      </c>
-      <c r="D970" s="5" t="s">
-        <v>2208</v>
       </c>
       <c r="E970" s="6" t="s">
         <v>23</v>
@@ -64344,7 +64452,7 @@
         <v>21</v>
       </c>
       <c r="P970" s="5" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="Q970" s="6">
         <v>0</v>
@@ -64358,16 +64466,16 @@
     </row>
     <row r="971" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" s="5" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D971" s="5" t="s">
         <v>2209</v>
-      </c>
-      <c r="B971" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C971" s="5" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D971" s="5" t="s">
-        <v>2211</v>
       </c>
       <c r="E971" s="6" t="s">
         <v>23</v>
@@ -64403,7 +64511,7 @@
         <v>21</v>
       </c>
       <c r="P971" s="5" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="Q971" s="6">
         <v>0</v>
@@ -64417,16 +64525,16 @@
     </row>
     <row r="972" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C972" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D972" s="5" t="s">
         <v>2212</v>
-      </c>
-      <c r="B972" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C972" s="5" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D972" s="5" t="s">
-        <v>2214</v>
       </c>
       <c r="E972" s="6" t="s">
         <v>23</v>
@@ -64462,7 +64570,7 @@
         <v>21</v>
       </c>
       <c r="P972" s="5" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="Q972" s="6">
         <v>0</v>
@@ -64476,16 +64584,16 @@
     </row>
     <row r="973" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C973" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D973" s="5" t="s">
         <v>2215</v>
-      </c>
-      <c r="B973" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C973" s="5" t="s">
-        <v>2216</v>
-      </c>
-      <c r="D973" s="5" t="s">
-        <v>2217</v>
       </c>
       <c r="E973" s="6" t="s">
         <v>23</v>
@@ -64521,7 +64629,7 @@
         <v>21</v>
       </c>
       <c r="P973" s="5" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="Q973" s="6">
         <v>0</v>
@@ -64535,16 +64643,16 @@
     </row>
     <row r="974" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C974" s="5" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D974" s="5" t="s">
         <v>2218</v>
-      </c>
-      <c r="B974" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C974" s="5" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D974" s="5" t="s">
-        <v>2220</v>
       </c>
       <c r="E974" s="6" t="s">
         <v>23</v>
@@ -64580,7 +64688,7 @@
         <v>21</v>
       </c>
       <c r="P974" s="5" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="Q974" s="6">
         <v>0</v>
@@ -64594,16 +64702,16 @@
     </row>
     <row r="975" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C975" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D975" s="5" t="s">
         <v>2221</v>
-      </c>
-      <c r="B975" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C975" s="5" t="s">
-        <v>2222</v>
-      </c>
-      <c r="D975" s="5" t="s">
-        <v>2223</v>
       </c>
       <c r="E975" s="6" t="s">
         <v>23</v>
@@ -64639,7 +64747,7 @@
         <v>21</v>
       </c>
       <c r="P975" s="5" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="Q975" s="6">
         <v>0</v>
@@ -64653,16 +64761,16 @@
     </row>
     <row r="976" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C976" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D976" s="5" t="s">
         <v>2224</v>
-      </c>
-      <c r="B976" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C976" s="5" t="s">
-        <v>2225</v>
-      </c>
-      <c r="D976" s="5" t="s">
-        <v>2226</v>
       </c>
       <c r="E976" s="6" t="s">
         <v>23</v>
@@ -64698,7 +64806,7 @@
         <v>21</v>
       </c>
       <c r="P976" s="5" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="Q976" s="6">
         <v>0</v>
@@ -64712,16 +64820,16 @@
     </row>
     <row r="977" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D977" s="5" t="s">
         <v>2227</v>
-      </c>
-      <c r="B977" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C977" s="5" t="s">
-        <v>2228</v>
-      </c>
-      <c r="D977" s="5" t="s">
-        <v>2229</v>
       </c>
       <c r="E977" s="6" t="s">
         <v>23</v>
@@ -64757,7 +64865,7 @@
         <v>21</v>
       </c>
       <c r="P977" s="5" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="Q977" s="6">
         <v>0</v>
@@ -64771,16 +64879,16 @@
     </row>
     <row r="978" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
-        <v>2166</v>
+        <v>2230</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>2167</v>
+        <v>2231</v>
       </c>
       <c r="D978" s="5" t="s">
-        <v>2168</v>
+        <v>2232</v>
       </c>
       <c r="E978" s="6" t="s">
         <v>23</v>
@@ -64801,10 +64909,10 @@
         <v>21</v>
       </c>
       <c r="K978" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L978" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M978" s="6">
         <v>0</v>
@@ -64816,10 +64924,10 @@
         <v>21</v>
       </c>
       <c r="P978" s="5" t="s">
-        <v>2167</v>
+        <v>2231</v>
       </c>
       <c r="Q978" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -64830,16 +64938,16 @@
     </row>
     <row r="979" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
-        <v>2169</v>
+        <v>2233</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>2170</v>
+        <v>2234</v>
       </c>
       <c r="D979" s="5" t="s">
-        <v>2171</v>
+        <v>2235</v>
       </c>
       <c r="E979" s="6" t="s">
         <v>23</v>
@@ -64860,10 +64968,10 @@
         <v>21</v>
       </c>
       <c r="K979" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L979" s="6">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M979" s="6">
         <v>0</v>
@@ -64875,10 +64983,10 @@
         <v>21</v>
       </c>
       <c r="P979" s="5" t="s">
-        <v>2170</v>
+        <v>2234</v>
       </c>
       <c r="Q979" s="6">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -64889,16 +64997,16 @@
     </row>
     <row r="980" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
-        <v>2172</v>
+        <v>2236</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>2173</v>
+        <v>2237</v>
       </c>
       <c r="D980" s="5" t="s">
-        <v>2174</v>
+        <v>2238</v>
       </c>
       <c r="E980" s="6" t="s">
         <v>23</v>
@@ -64919,10 +65027,10 @@
         <v>21</v>
       </c>
       <c r="K980" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L980" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M980" s="6">
         <v>0</v>
@@ -64934,10 +65042,10 @@
         <v>21</v>
       </c>
       <c r="P980" s="5" t="s">
-        <v>2173</v>
+        <v>2237</v>
       </c>
       <c r="Q980" s="6">
-        <v>1757.67</v>
+        <v>0</v>
       </c>
       <c r="R980" s="6" t="s">
         <v>23</v>
@@ -64948,16 +65056,16 @@
     </row>
     <row r="981" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>2190</v>
+        <v>2239</v>
       </c>
       <c r="B981" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>2191</v>
+        <v>2240</v>
       </c>
       <c r="D981" s="5" t="s">
-        <v>2192</v>
+        <v>2241</v>
       </c>
       <c r="E981" s="6" t="s">
         <v>23</v>
@@ -64993,7 +65101,7 @@
         <v>21</v>
       </c>
       <c r="P981" s="5" t="s">
-        <v>2191</v>
+        <v>2240</v>
       </c>
       <c r="Q981" s="6">
         <v>0</v>
@@ -65007,16 +65115,16 @@
     </row>
     <row r="982" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>2193</v>
+        <v>2242</v>
       </c>
       <c r="B982" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>2194</v>
+        <v>2243</v>
       </c>
       <c r="D982" s="5" t="s">
-        <v>2195</v>
+        <v>2244</v>
       </c>
       <c r="E982" s="6" t="s">
         <v>23</v>
@@ -65052,15 +65160,723 @@
         <v>21</v>
       </c>
       <c r="P982" s="5" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Q982" s="6">
+        <v>0</v>
+      </c>
+      <c r="R982" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S982" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="983" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A983" s="5" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C983" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D983" s="5" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E983" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F983" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I983" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K983" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L983" s="6">
+        <v>0</v>
+      </c>
+      <c r="M983" s="6">
+        <v>0</v>
+      </c>
+      <c r="N983" s="6">
+        <v>0</v>
+      </c>
+      <c r="O983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P983" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="Q983" s="6">
+        <v>0</v>
+      </c>
+      <c r="R983" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S983" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="984" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A984" s="5" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C984" s="5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D984" s="5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E984" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F984" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I984" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K984" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L984" s="6">
+        <v>0</v>
+      </c>
+      <c r="M984" s="6">
+        <v>0</v>
+      </c>
+      <c r="N984" s="6">
+        <v>0</v>
+      </c>
+      <c r="O984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P984" s="5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="Q984" s="6">
+        <v>0</v>
+      </c>
+      <c r="R984" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S984" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="985" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A985" s="5" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C985" s="5" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D985" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E985" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F985" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I985" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K985" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L985" s="6">
+        <v>0</v>
+      </c>
+      <c r="M985" s="6">
+        <v>0</v>
+      </c>
+      <c r="N985" s="6">
+        <v>0</v>
+      </c>
+      <c r="O985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P985" s="5" t="s">
+        <v>2252</v>
+      </c>
+      <c r="Q985" s="6">
+        <v>0</v>
+      </c>
+      <c r="R985" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S985" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="986" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A986" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" s="5" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D986" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E986" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F986" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I986" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K986" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L986" s="6">
+        <v>0</v>
+      </c>
+      <c r="M986" s="6">
+        <v>0</v>
+      </c>
+      <c r="N986" s="6">
+        <v>0</v>
+      </c>
+      <c r="O986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P986" s="5" t="s">
+        <v>2255</v>
+      </c>
+      <c r="Q986" s="6">
+        <v>0</v>
+      </c>
+      <c r="R986" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S986" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="987" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A987" s="5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B987" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C987" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D987" s="5" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E987" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F987" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G987" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H987" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I987" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J987" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K987" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L987" s="6">
+        <v>0</v>
+      </c>
+      <c r="M987" s="6">
+        <v>0</v>
+      </c>
+      <c r="N987" s="6">
+        <v>0</v>
+      </c>
+      <c r="O987" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P987" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="Q987" s="6">
+        <v>0</v>
+      </c>
+      <c r="R987" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S987" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="988" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A988" s="5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B988" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C988" s="5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D988" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E988" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F988" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G988" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H988" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I988" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J988" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K988" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L988" s="6">
+        <v>0</v>
+      </c>
+      <c r="M988" s="6">
+        <v>0</v>
+      </c>
+      <c r="N988" s="6">
+        <v>0</v>
+      </c>
+      <c r="O988" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P988" s="5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="Q988" s="6">
+        <v>0</v>
+      </c>
+      <c r="R988" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S988" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="989" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A989" s="5" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B989" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C989" s="5" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D989" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E989" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F989" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G989" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H989" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I989" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J989" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K989" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L989" s="6">
+        <v>0</v>
+      </c>
+      <c r="M989" s="6">
+        <v>0</v>
+      </c>
+      <c r="N989" s="6">
+        <v>0</v>
+      </c>
+      <c r="O989" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P989" s="5" t="s">
+        <v>2264</v>
+      </c>
+      <c r="Q989" s="6">
+        <v>0</v>
+      </c>
+      <c r="R989" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S989" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="990" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A990" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B990" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C990" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D990" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E990" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F990" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G990" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H990" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I990" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J990" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K990" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L990" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M990" s="6">
+        <v>0</v>
+      </c>
+      <c r="N990" s="6">
+        <v>0</v>
+      </c>
+      <c r="O990" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P990" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q990" s="6">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="R990" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S990" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="991" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A991" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B991" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C991" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D991" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E991" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F991" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G991" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H991" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I991" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J991" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K991" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L991" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="M991" s="6">
+        <v>0</v>
+      </c>
+      <c r="N991" s="6">
+        <v>0</v>
+      </c>
+      <c r="O991" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P991" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q991" s="6">
+        <v>503.7</v>
+      </c>
+      <c r="R991" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S991" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="992" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A992" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B992" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C992" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D992" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E992" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F992" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G992" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H992" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I992" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J992" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K992" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L992" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M992" s="6">
+        <v>0</v>
+      </c>
+      <c r="N992" s="6">
+        <v>0</v>
+      </c>
+      <c r="O992" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P992" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q992" s="6">
+        <v>1479.87</v>
+      </c>
+      <c r="R992" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S992" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="993" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A993" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C993" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D993" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E993" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F993" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I993" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K993" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L993" s="6">
+        <v>0</v>
+      </c>
+      <c r="M993" s="6">
+        <v>0</v>
+      </c>
+      <c r="N993" s="6">
+        <v>0</v>
+      </c>
+      <c r="O993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P993" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q993" s="6">
+        <v>0</v>
+      </c>
+      <c r="R993" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S993" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="994" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A994" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C994" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="Q982" s="6">
-        <v>0</v>
-      </c>
-      <c r="R982" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S982" s="5" t="s">
+      <c r="D994" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I994" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K994" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L994" s="6">
+        <v>0</v>
+      </c>
+      <c r="M994" s="6">
+        <v>0</v>
+      </c>
+      <c r="N994" s="6">
+        <v>0</v>
+      </c>
+      <c r="O994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P994" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="Q994" s="6">
+        <v>0</v>
+      </c>
+      <c r="R994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S994" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14886" uniqueCount="2266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14931" uniqueCount="2275">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6709,9 +6709,6 @@
     <t>BOLSHOI 01 | YANODA 22 (BRANCO)</t>
   </si>
   <si>
-    <t>Lista Produto : 04-02-2020 15:43:21</t>
-  </si>
-  <si>
     <t>MACAU - CUOIO (AMARELO TORRADO)</t>
   </si>
   <si>
@@ -6821,6 +6818,36 @@
   </si>
   <si>
     <t>PERSA ASH 12</t>
+  </si>
+  <si>
+    <t>Lista Produto : 11-02-2020 10:36:43</t>
+  </si>
+  <si>
+    <t>TC15170</t>
+  </si>
+  <si>
+    <t>G3131</t>
+  </si>
+  <si>
+    <t>MACAU - FOREST (VERDE ESCURO)</t>
+  </si>
+  <si>
+    <t>TC15171</t>
+  </si>
+  <si>
+    <t>G3140</t>
+  </si>
+  <si>
+    <t>MACAU - TERRA (CASTANHO)</t>
+  </si>
+  <si>
+    <t>TC15172</t>
+  </si>
+  <si>
+    <t>G3101</t>
+  </si>
+  <si>
+    <t>MACAU - BLACK (PRETO)</t>
   </si>
 </sst>
 </file>
@@ -6987,8 +7014,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S994" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S994"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S997" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S997"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7277,7 +7304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S994"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F977" sqref="F977"/>
@@ -7331,7 +7358,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2228</v>
+        <v>2265</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -17727,7 +17754,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>339.65359999999998</v>
+        <v>835.65359999999998</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17786,7 +17813,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>279.19</v>
+        <v>785.19</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18258,7 +18285,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>6058.41</v>
+        <v>4884.9799999999996</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18907,7 +18934,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>1327.2</v>
+        <v>1180.2</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19320,7 +19347,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>91.66</v>
+        <v>90.86</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19379,7 +19406,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>2646.35</v>
+        <v>2645.54</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19497,7 +19524,7 @@
         <v>436</v>
       </c>
       <c r="Q208" s="6">
-        <v>1044.5</v>
+        <v>1001.24</v>
       </c>
       <c r="R208" s="6" t="s">
         <v>23</v>
@@ -19556,7 +19583,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>3516.86</v>
+        <v>3502.46</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20264,7 +20291,7 @@
         <v>462</v>
       </c>
       <c r="Q221" s="6">
-        <v>-0.59</v>
+        <v>0</v>
       </c>
       <c r="R221" s="6" t="s">
         <v>23</v>
@@ -20323,7 +20350,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>4153.2572</v>
+        <v>3667.4472000000001</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20382,7 +20409,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1963.01</v>
+        <v>1908.11</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20618,7 +20645,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>9288.5300000000007</v>
+        <v>9093.2800000000007</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20677,7 +20704,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>7317.78</v>
+        <v>6891.23</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -20854,7 +20881,7 @@
         <v>482</v>
       </c>
       <c r="Q231" s="6">
-        <v>249.5</v>
+        <v>247.65</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>23</v>
@@ -21385,7 +21412,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>4772.0690000000004</v>
+        <v>3176.4690000000001</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21444,7 +21471,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>2428</v>
+        <v>2385.15</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21798,7 +21825,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>64</v>
+        <v>51.52</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -21857,7 +21884,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>3069.59</v>
+        <v>2465.42</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -21975,7 +22002,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>333.04</v>
+        <v>283.12</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -22034,7 +22061,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>1293.48</v>
+        <v>490.56</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22860,7 +22887,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>1890.9</v>
+        <v>1716.9</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -22919,7 +22946,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>4161.79</v>
+        <v>3675.69</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23037,7 +23064,7 @@
         <v>556</v>
       </c>
       <c r="Q268" s="6">
-        <v>931.76</v>
+        <v>924.33</v>
       </c>
       <c r="R268" s="6" t="s">
         <v>23</v>
@@ -23686,7 +23713,7 @@
         <v>579</v>
       </c>
       <c r="Q279" s="6">
-        <v>110.1018</v>
+        <v>108.23180000000001</v>
       </c>
       <c r="R279" s="6" t="s">
         <v>23</v>
@@ -24099,7 +24126,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1122.78</v>
+        <v>1104.52</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -24158,7 +24185,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2365.7150000000001</v>
+        <v>2554.4949999999999</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24217,7 +24244,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>2699.67</v>
+        <v>1869.01</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24335,7 +24362,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3743.3249999999998</v>
+        <v>3681.8649999999998</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24394,7 +24421,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>4768.4189999999999</v>
+        <v>3905.8890000000001</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24453,7 +24480,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>1271.73</v>
+        <v>1239.31</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24748,7 +24775,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3591.31</v>
+        <v>3513.98</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -24866,7 +24893,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>1127.95</v>
+        <v>1113</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -24925,7 +24952,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>2887.72</v>
+        <v>2321.06</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -24984,7 +25011,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>1483.26</v>
+        <v>1482.5</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25043,7 +25070,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>3926.13</v>
+        <v>3897.36</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -25102,7 +25129,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>46778.952400000002</v>
+        <v>46097.3024</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25161,7 +25188,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>76105.731</v>
+        <v>73689.790999999997</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25220,7 +25247,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>2796.04</v>
+        <v>2604.2399999999998</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25279,7 +25306,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>3474.1950000000002</v>
+        <v>2680.4949999999999</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25456,7 +25483,7 @@
         <v>639</v>
       </c>
       <c r="Q309" s="6">
-        <v>1901.2</v>
+        <v>1897.36</v>
       </c>
       <c r="R309" s="6" t="s">
         <v>23</v>
@@ -25515,7 +25542,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3685.07</v>
+        <v>3672.36</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25633,7 +25660,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>1396.76</v>
+        <v>2947.67</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25692,7 +25719,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>283.95999999999998</v>
+        <v>230.2</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -25751,7 +25778,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2321</v>
+        <v>2272.08</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -25869,7 +25896,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>305.83999999999997</v>
+        <v>254.84</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -25987,7 +26014,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>3795.2</v>
+        <v>3587.9</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26046,7 +26073,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8771.09</v>
+        <v>7311.8</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26105,7 +26132,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3007.34</v>
+        <v>2950.22</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26164,7 +26191,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>6248.95</v>
+        <v>5185.33</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26223,7 +26250,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>3356.5704000000001</v>
+        <v>2426.4603999999999</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26282,7 +26309,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1639.43</v>
+        <v>1247.9749999999999</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26341,7 +26368,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2991.1</v>
+        <v>2787.86</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26400,7 +26427,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>4146.0697</v>
+        <v>3894.5126</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26459,7 +26486,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>794.18</v>
+        <v>773.66</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26577,7 +26604,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3423.5909999999999</v>
+        <v>3382.7809999999999</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26636,7 +26663,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2073.1999999999998</v>
+        <v>2061.86</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26695,7 +26722,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>606.12</v>
+        <v>279.20999999999998</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -26754,7 +26781,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>1333.65</v>
+        <v>1179.03</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26813,7 +26840,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2716.39</v>
+        <v>3484.01</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -26872,7 +26899,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>2038.32</v>
+        <v>1974.93</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -26931,7 +26958,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>141.1</v>
+        <v>125.74</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -26990,7 +27017,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1412.825</v>
+        <v>1363.0350000000001</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27049,7 +27076,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2375.34</v>
+        <v>2352.3000000000002</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27285,7 +27312,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>164.20500000000001</v>
+        <v>162.61500000000001</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27580,7 +27607,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>5801.68</v>
+        <v>4611.96</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27639,7 +27666,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>915.69</v>
+        <v>895.88</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27816,7 +27843,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>830.23</v>
+        <v>777.43</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -27875,7 +27902,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>5063.4449999999997</v>
+        <v>4957.9250000000002</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -27934,7 +27961,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>29433.56</v>
+        <v>29359.31</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -27993,7 +28020,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3553.8</v>
+        <v>3549.65</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28111,7 +28138,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>258.7</v>
+        <v>232.7</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28406,7 +28433,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28583,7 +28610,7 @@
         <v>765</v>
       </c>
       <c r="Q362" s="6">
-        <v>899.82</v>
+        <v>896.6</v>
       </c>
       <c r="R362" s="6" t="s">
         <v>23</v>
@@ -35250,7 +35277,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>1141.47</v>
+        <v>344.21</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35309,7 +35336,7 @@
         <v>1006</v>
       </c>
       <c r="Q476" s="6">
-        <v>460.22</v>
+        <v>130.47</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35368,7 +35395,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>329.85</v>
+        <v>290.27999999999997</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35486,7 +35513,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>412.94</v>
+        <v>149.13999999999999</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -51357,7 +51384,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>501.64</v>
+        <v>500.14</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -53835,7 +53862,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>10188.260679999999</v>
+        <v>9584.8406799999993</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -53953,7 +53980,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>2525.35</v>
+        <v>2056.69</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -54071,7 +54098,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>3746.9549999999999</v>
+        <v>3421.5949999999998</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54130,7 +54157,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>21211.67</v>
+        <v>21018.51</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54425,7 +54452,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>7942.9</v>
+        <v>7845.46</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54543,7 +54570,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>1062.6400000000001</v>
+        <v>970.95</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54602,7 +54629,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>22169.932000000001</v>
+        <v>19500.651999999998</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54661,7 +54688,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>23273.98</v>
+        <v>21706.080000000002</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54720,7 +54747,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>48419.4683</v>
+        <v>41485.018300000003</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54779,7 +54806,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>2247.4899999999998</v>
+        <v>1976.29</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55782,7 +55809,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>3081.14</v>
+        <v>3041.46</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56254,7 +56281,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>14308.84</v>
+        <v>9837.82</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56313,7 +56340,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>10123.129999999999</v>
+        <v>7023.86</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56490,7 +56517,7 @@
         <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>1184.58</v>
+        <v>331.07</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56903,7 +56930,7 @@
         <v>1797</v>
       </c>
       <c r="Q842" s="6">
-        <v>147.5</v>
+        <v>139.44</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -57670,7 +57697,7 @@
         <v>1837</v>
       </c>
       <c r="Q855" s="6">
-        <v>395.27</v>
+        <v>153.18</v>
       </c>
       <c r="R855" s="6" t="s">
         <v>23</v>
@@ -58142,7 +58169,7 @@
         <v>1861</v>
       </c>
       <c r="Q863" s="6">
-        <v>1528.57</v>
+        <v>1515.3</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58260,7 +58287,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>547.54999999999995</v>
+        <v>467.93</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58378,7 +58405,7 @@
         <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>15515.98</v>
+        <v>11598.33</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58673,7 +58700,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>268</v>
+        <v>255.85</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58732,7 +58759,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>322.52</v>
+        <v>298.22000000000003</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59027,7 +59054,7 @@
         <v>1907</v>
       </c>
       <c r="Q878" s="6">
-        <v>88.72</v>
+        <v>152.32</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -59145,7 +59172,7 @@
         <v>1913</v>
       </c>
       <c r="Q880" s="6">
-        <v>125.82</v>
+        <v>227.52</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -59204,7 +59231,7 @@
         <v>1916</v>
       </c>
       <c r="Q881" s="6">
-        <v>335.7</v>
+        <v>326.54000000000002</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59322,7 +59349,7 @@
         <v>1922</v>
       </c>
       <c r="Q883" s="6">
-        <v>26305.74</v>
+        <v>20884.14</v>
       </c>
       <c r="R883" s="6" t="s">
         <v>23</v>
@@ -59381,7 +59408,7 @@
         <v>1925</v>
       </c>
       <c r="Q884" s="6">
-        <v>4999.1000000000004</v>
+        <v>3979</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59735,7 +59762,7 @@
         <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>237.13499999999999</v>
+        <v>444.53500000000003</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -61623,7 +61650,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>10057.42</v>
+        <v>6958.81</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61741,7 +61768,7 @@
         <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>7276.0630000000001</v>
+        <v>6921.4629999999997</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -61859,7 +61886,7 @@
         <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>1529.5</v>
+        <v>1492.02</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62036,7 +62063,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>92.63</v>
+        <v>84.63</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62626,7 +62653,7 @@
         <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>4371.99</v>
+        <v>4091.1</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62685,7 +62712,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>780.8</v>
+        <v>699.59</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62744,7 +62771,7 @@
         <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>427.71</v>
+        <v>343.91</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62803,7 +62830,7 @@
         <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>940.41</v>
+        <v>771.35500000000002</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -62862,7 +62889,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>1960.62</v>
+        <v>1572.17</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -62921,7 +62948,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>3132.35</v>
+        <v>2684.32</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -62980,7 +63007,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>1566</v>
+        <v>1108.2</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63216,7 +63243,7 @@
         <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>208.58</v>
+        <v>207.57</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63260,7 +63287,7 @@
         <v>23</v>
       </c>
       <c r="L950" s="6">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="M950" s="6">
         <v>0</v>
@@ -63275,7 +63302,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>45.305</v>
+        <v>895.505</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63452,7 +63479,7 @@
         <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>292.18</v>
+        <v>292.05</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63865,7 +63892,7 @@
         <v>2155</v>
       </c>
       <c r="Q960" s="6">
-        <v>590.20000000000005</v>
+        <v>458.3</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -63924,7 +63951,7 @@
         <v>2158</v>
       </c>
       <c r="Q961" s="6">
-        <v>1171.4000000000001</v>
+        <v>314.05</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64239,7 +64266,7 @@
         <v>2197</v>
       </c>
       <c r="D967" s="5" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E967" s="6" t="s">
         <v>23</v>
@@ -64879,17 +64906,17 @@
     </row>
     <row r="978" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C978" s="5" t="s">
         <v>2230</v>
       </c>
-      <c r="B978" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C978" s="5" t="s">
+      <c r="D978" s="5" t="s">
         <v>2231</v>
       </c>
-      <c r="D978" s="5" t="s">
-        <v>2232</v>
-      </c>
       <c r="E978" s="6" t="s">
         <v>23</v>
       </c>
@@ -64909,10 +64936,10 @@
         <v>21</v>
       </c>
       <c r="K978" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L978" s="6">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="M978" s="6">
         <v>0</v>
@@ -64924,10 +64951,10 @@
         <v>21</v>
       </c>
       <c r="P978" s="5" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="Q978" s="6">
-        <v>0</v>
+        <v>541.6</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -64938,17 +64965,17 @@
     </row>
     <row r="979" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C979" s="5" t="s">
         <v>2233</v>
       </c>
-      <c r="B979" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C979" s="5" t="s">
+      <c r="D979" s="5" t="s">
         <v>2234</v>
       </c>
-      <c r="D979" s="5" t="s">
-        <v>2235</v>
-      </c>
       <c r="E979" s="6" t="s">
         <v>23</v>
       </c>
@@ -64968,10 +64995,10 @@
         <v>21</v>
       </c>
       <c r="K979" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L979" s="6">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M979" s="6">
         <v>0</v>
@@ -64983,10 +65010,10 @@
         <v>21</v>
       </c>
       <c r="P979" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="Q979" s="6">
-        <v>0</v>
+        <v>2054.8000000000002</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -64997,16 +65024,16 @@
     </row>
     <row r="980" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C980" s="5" t="s">
         <v>2236</v>
       </c>
-      <c r="B980" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C980" s="5" t="s">
+      <c r="D980" s="5" t="s">
         <v>2237</v>
-      </c>
-      <c r="D980" s="5" t="s">
-        <v>2238</v>
       </c>
       <c r="E980" s="6" t="s">
         <v>23</v>
@@ -65042,7 +65069,7 @@
         <v>21</v>
       </c>
       <c r="P980" s="5" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="Q980" s="6">
         <v>0</v>
@@ -65056,16 +65083,16 @@
     </row>
     <row r="981" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C981" s="5" t="s">
         <v>2239</v>
       </c>
-      <c r="B981" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C981" s="5" t="s">
+      <c r="D981" s="5" t="s">
         <v>2240</v>
-      </c>
-      <c r="D981" s="5" t="s">
-        <v>2241</v>
       </c>
       <c r="E981" s="6" t="s">
         <v>23</v>
@@ -65101,7 +65128,7 @@
         <v>21</v>
       </c>
       <c r="P981" s="5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="Q981" s="6">
         <v>0</v>
@@ -65115,16 +65142,16 @@
     </row>
     <row r="982" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C982" s="5" t="s">
         <v>2242</v>
       </c>
-      <c r="B982" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C982" s="5" t="s">
+      <c r="D982" s="5" t="s">
         <v>2243</v>
-      </c>
-      <c r="D982" s="5" t="s">
-        <v>2244</v>
       </c>
       <c r="E982" s="6" t="s">
         <v>23</v>
@@ -65160,7 +65187,7 @@
         <v>21</v>
       </c>
       <c r="P982" s="5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="Q982" s="6">
         <v>0</v>
@@ -65174,16 +65201,16 @@
     </row>
     <row r="983" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C983" s="5" t="s">
         <v>2245</v>
       </c>
-      <c r="B983" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C983" s="5" t="s">
+      <c r="D983" s="5" t="s">
         <v>2246</v>
-      </c>
-      <c r="D983" s="5" t="s">
-        <v>2247</v>
       </c>
       <c r="E983" s="6" t="s">
         <v>23</v>
@@ -65219,7 +65246,7 @@
         <v>21</v>
       </c>
       <c r="P983" s="5" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="Q983" s="6">
         <v>0</v>
@@ -65233,16 +65260,16 @@
     </row>
     <row r="984" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C984" s="5" t="s">
         <v>2248</v>
       </c>
-      <c r="B984" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C984" s="5" t="s">
+      <c r="D984" s="5" t="s">
         <v>2249</v>
-      </c>
-      <c r="D984" s="5" t="s">
-        <v>2250</v>
       </c>
       <c r="E984" s="6" t="s">
         <v>23</v>
@@ -65278,7 +65305,7 @@
         <v>21</v>
       </c>
       <c r="P984" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="Q984" s="6">
         <v>0</v>
@@ -65292,16 +65319,16 @@
     </row>
     <row r="985" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C985" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="B985" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C985" s="5" t="s">
+      <c r="D985" s="5" t="s">
         <v>2252</v>
-      </c>
-      <c r="D985" s="5" t="s">
-        <v>2253</v>
       </c>
       <c r="E985" s="6" t="s">
         <v>23</v>
@@ -65337,7 +65364,7 @@
         <v>21</v>
       </c>
       <c r="P985" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="Q985" s="6">
         <v>0</v>
@@ -65351,16 +65378,16 @@
     </row>
     <row r="986" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" s="5" t="s">
         <v>2254</v>
       </c>
-      <c r="B986" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C986" s="5" t="s">
+      <c r="D986" s="5" t="s">
         <v>2255</v>
-      </c>
-      <c r="D986" s="5" t="s">
-        <v>2256</v>
       </c>
       <c r="E986" s="6" t="s">
         <v>23</v>
@@ -65396,7 +65423,7 @@
         <v>21</v>
       </c>
       <c r="P986" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="Q986" s="6">
         <v>0</v>
@@ -65410,16 +65437,16 @@
     </row>
     <row r="987" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B987" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C987" s="5" t="s">
         <v>2257</v>
       </c>
-      <c r="B987" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C987" s="5" t="s">
+      <c r="D987" s="5" t="s">
         <v>2258</v>
-      </c>
-      <c r="D987" s="5" t="s">
-        <v>2259</v>
       </c>
       <c r="E987" s="6" t="s">
         <v>23</v>
@@ -65455,7 +65482,7 @@
         <v>21</v>
       </c>
       <c r="P987" s="5" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="Q987" s="6">
         <v>0</v>
@@ -65469,16 +65496,16 @@
     </row>
     <row r="988" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B988" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C988" s="5" t="s">
         <v>2260</v>
       </c>
-      <c r="B988" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C988" s="5" t="s">
+      <c r="D988" s="5" t="s">
         <v>2261</v>
-      </c>
-      <c r="D988" s="5" t="s">
-        <v>2262</v>
       </c>
       <c r="E988" s="6" t="s">
         <v>23</v>
@@ -65514,7 +65541,7 @@
         <v>21</v>
       </c>
       <c r="P988" s="5" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="Q988" s="6">
         <v>0</v>
@@ -65528,16 +65555,16 @@
     </row>
     <row r="989" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B989" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C989" s="5" t="s">
         <v>2263</v>
       </c>
-      <c r="B989" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C989" s="5" t="s">
+      <c r="D989" s="5" t="s">
         <v>2264</v>
-      </c>
-      <c r="D989" s="5" t="s">
-        <v>2265</v>
       </c>
       <c r="E989" s="6" t="s">
         <v>23</v>
@@ -65573,7 +65600,7 @@
         <v>21</v>
       </c>
       <c r="P989" s="5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="Q989" s="6">
         <v>0</v>
@@ -65587,16 +65614,16 @@
     </row>
     <row r="990" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
-        <v>2166</v>
+        <v>2266</v>
       </c>
       <c r="B990" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>2167</v>
+        <v>2267</v>
       </c>
       <c r="D990" s="5" t="s">
-        <v>2168</v>
+        <v>2268</v>
       </c>
       <c r="E990" s="6" t="s">
         <v>23</v>
@@ -65617,10 +65644,10 @@
         <v>21</v>
       </c>
       <c r="K990" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L990" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M990" s="6">
         <v>0</v>
@@ -65632,10 +65659,10 @@
         <v>21</v>
       </c>
       <c r="P990" s="5" t="s">
-        <v>2167</v>
+        <v>2267</v>
       </c>
       <c r="Q990" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R990" s="6" t="s">
         <v>23</v>
@@ -65646,16 +65673,16 @@
     </row>
     <row r="991" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
-        <v>2169</v>
+        <v>2269</v>
       </c>
       <c r="B991" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>2170</v>
+        <v>2270</v>
       </c>
       <c r="D991" s="5" t="s">
-        <v>2171</v>
+        <v>2271</v>
       </c>
       <c r="E991" s="6" t="s">
         <v>23</v>
@@ -65676,10 +65703,10 @@
         <v>21</v>
       </c>
       <c r="K991" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L991" s="6">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M991" s="6">
         <v>0</v>
@@ -65691,10 +65718,10 @@
         <v>21</v>
       </c>
       <c r="P991" s="5" t="s">
-        <v>2170</v>
+        <v>2270</v>
       </c>
       <c r="Q991" s="6">
-        <v>503.7</v>
+        <v>0</v>
       </c>
       <c r="R991" s="6" t="s">
         <v>23</v>
@@ -65705,16 +65732,16 @@
     </row>
     <row r="992" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
-        <v>2172</v>
+        <v>2272</v>
       </c>
       <c r="B992" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>2173</v>
+        <v>2273</v>
       </c>
       <c r="D992" s="5" t="s">
-        <v>2174</v>
+        <v>2274</v>
       </c>
       <c r="E992" s="6" t="s">
         <v>23</v>
@@ -65735,10 +65762,10 @@
         <v>21</v>
       </c>
       <c r="K992" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L992" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M992" s="6">
         <v>0</v>
@@ -65750,10 +65777,10 @@
         <v>21</v>
       </c>
       <c r="P992" s="5" t="s">
-        <v>2173</v>
+        <v>2273</v>
       </c>
       <c r="Q992" s="6">
-        <v>1479.87</v>
+        <v>0</v>
       </c>
       <c r="R992" s="6" t="s">
         <v>23</v>
@@ -65764,16 +65791,16 @@
     </row>
     <row r="993" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
-        <v>2190</v>
+        <v>2166</v>
       </c>
       <c r="B993" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>2191</v>
+        <v>2167</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>2192</v>
+        <v>2168</v>
       </c>
       <c r="E993" s="6" t="s">
         <v>23</v>
@@ -65794,10 +65821,10 @@
         <v>21</v>
       </c>
       <c r="K993" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L993" s="6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="M993" s="6">
         <v>0</v>
@@ -65809,10 +65836,10 @@
         <v>21</v>
       </c>
       <c r="P993" s="5" t="s">
-        <v>2191</v>
+        <v>2167</v>
       </c>
       <c r="Q993" s="6">
-        <v>0</v>
+        <v>589.70000000000005</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -65823,60 +65850,237 @@
     </row>
     <row r="994" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C994" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D994" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I994" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L994" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="M994" s="6">
+        <v>0</v>
+      </c>
+      <c r="N994" s="6">
+        <v>0</v>
+      </c>
+      <c r="O994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P994" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q994" s="6">
+        <v>200.73</v>
+      </c>
+      <c r="R994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S994" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="995" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A995" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C995" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D995" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E995" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F995" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I995" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K995" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L995" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M995" s="6">
+        <v>0</v>
+      </c>
+      <c r="N995" s="6">
+        <v>0</v>
+      </c>
+      <c r="O995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P995" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q995" s="6">
+        <v>1479.87</v>
+      </c>
+      <c r="R995" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S995" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="996" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A996" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C996" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D996" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E996" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F996" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I996" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K996" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L996" s="6">
+        <v>0</v>
+      </c>
+      <c r="M996" s="6">
+        <v>0</v>
+      </c>
+      <c r="N996" s="6">
+        <v>0</v>
+      </c>
+      <c r="O996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P996" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q996" s="6">
+        <v>0</v>
+      </c>
+      <c r="R996" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S996" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="997" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A997" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="B994" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C994" s="5" t="s">
+      <c r="B997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C997" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="D994" s="5" t="s">
+      <c r="D997" s="5" t="s">
         <v>2195</v>
       </c>
-      <c r="E994" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F994" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G994" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H994" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I994" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J994" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K994" s="6" t="s">
+      <c r="E997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I997" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K997" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L994" s="6">
-        <v>0</v>
-      </c>
-      <c r="M994" s="6">
-        <v>0</v>
-      </c>
-      <c r="N994" s="6">
-        <v>0</v>
-      </c>
-      <c r="O994" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P994" s="5" t="s">
+      <c r="L997" s="6">
+        <v>0</v>
+      </c>
+      <c r="M997" s="6">
+        <v>0</v>
+      </c>
+      <c r="N997" s="6">
+        <v>0</v>
+      </c>
+      <c r="O997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P997" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="Q994" s="6">
-        <v>0</v>
-      </c>
-      <c r="R994" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S994" s="5" t="s">
+      <c r="Q997" s="6">
+        <v>0</v>
+      </c>
+      <c r="R997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S997" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14931" uniqueCount="2275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15081" uniqueCount="2305">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6475,9 +6475,6 @@
     <t>G2810</t>
   </si>
   <si>
-    <t>TEXAS 480 C.91 (ELEFANT)</t>
-  </si>
-  <si>
     <t>TC15139</t>
   </si>
   <si>
@@ -6709,18 +6706,12 @@
     <t>BOLSHOI 01 | YANODA 22 (BRANCO)</t>
   </si>
   <si>
-    <t>MACAU - CUOIO (AMARELO TORRADO)</t>
-  </si>
-  <si>
     <t>TC15158</t>
   </si>
   <si>
     <t>G2842</t>
   </si>
   <si>
-    <t>TEXAS 480 C.95 (TAUPE)</t>
-  </si>
-  <si>
     <t>TC15159</t>
   </si>
   <si>
@@ -6820,9 +6811,6 @@
     <t>PERSA ASH 12</t>
   </si>
   <si>
-    <t>Lista Produto : 11-02-2020 10:36:43</t>
-  </si>
-  <si>
     <t>TC15170</t>
   </si>
   <si>
@@ -6848,6 +6836,108 @@
   </si>
   <si>
     <t>MACAU - BLACK (PRETO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 21-02-2020 11:18:22</t>
+  </si>
+  <si>
+    <t>TEXAS 480 C.91 (ANTRACITE)</t>
+  </si>
+  <si>
+    <t>MACAU -CUOIO (AMARELO TORRADO)</t>
+  </si>
+  <si>
+    <t>TEXAS 480 C.95 (ELEFANT)</t>
+  </si>
+  <si>
+    <t>TC15173</t>
+  </si>
+  <si>
+    <t>G3840</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - CAMEL</t>
+  </si>
+  <si>
+    <t>TC15174</t>
+  </si>
+  <si>
+    <t>G3820</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - TURQUOISE</t>
+  </si>
+  <si>
+    <t>TC15175</t>
+  </si>
+  <si>
+    <t>G3850</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - BORDEAUX</t>
+  </si>
+  <si>
+    <t>TC15176</t>
+  </si>
+  <si>
+    <t>G3810</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - LIGHT GREY</t>
+  </si>
+  <si>
+    <t>TC15177</t>
+  </si>
+  <si>
+    <t>G3811</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - ASH</t>
+  </si>
+  <si>
+    <t>TC15178</t>
+  </si>
+  <si>
+    <t>G3841</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - BROWN</t>
+  </si>
+  <si>
+    <t>TC15179</t>
+  </si>
+  <si>
+    <t>G3801</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - BLACK</t>
+  </si>
+  <si>
+    <t>TC15180</t>
+  </si>
+  <si>
+    <t>G3860</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - YELLOW</t>
+  </si>
+  <si>
+    <t>TC15181</t>
+  </si>
+  <si>
+    <t>G3910</t>
+  </si>
+  <si>
+    <t>LUX 05 - LIGHT GREY</t>
+  </si>
+  <si>
+    <t>TC15182</t>
+  </si>
+  <si>
+    <t>G3911</t>
+  </si>
+  <si>
+    <t>LUX 06 - DARK GREY</t>
   </si>
 </sst>
 </file>
@@ -7014,8 +7104,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S997" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S997"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1007" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1007"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7304,7 +7394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S997"/>
+  <dimension ref="A1:S1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F977" sqref="F977"/>
@@ -7358,7 +7448,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2265</v>
+        <v>2271</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7473,7 +7563,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="6">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -7488,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="6">
-        <v>0</v>
+        <v>8782</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>23</v>
@@ -7532,7 +7622,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="6">
-        <v>5.1100000000000003</v>
+        <v>3.42</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -7547,7 +7637,7 @@
         <v>26</v>
       </c>
       <c r="Q5" s="6">
-        <v>0</v>
+        <v>8559</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>23</v>
@@ -7591,7 +7681,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="6">
-        <v>5.1100000000000003</v>
+        <v>2.95</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
@@ -7606,7 +7696,7 @@
         <v>28</v>
       </c>
       <c r="Q6" s="6">
-        <v>0</v>
+        <v>6102</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>23</v>
@@ -17105,7 +17195,7 @@
         <v>353</v>
       </c>
       <c r="Q167" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R167" s="6" t="s">
         <v>23</v>
@@ -17754,7 +17844,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>835.65359999999998</v>
+        <v>627.7636</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17813,7 +17903,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>785.19</v>
+        <v>559.69000000000005</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18285,7 +18375,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>4884.9799999999996</v>
+        <v>3099.66</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18639,7 +18729,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>1849.7</v>
+        <v>1470.35</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -18934,7 +19024,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>1180.2</v>
+        <v>680.4</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19583,7 +19673,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>3502.46</v>
+        <v>2459.65</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20350,7 +20440,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>3667.4472000000001</v>
+        <v>2940.9011999999998</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20409,7 +20499,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1908.11</v>
+        <v>1894.99</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20645,7 +20735,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>9093.2800000000007</v>
+        <v>6918.28</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20704,7 +20794,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>6891.23</v>
+        <v>5523.73</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21412,7 +21502,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>3176.4690000000001</v>
+        <v>3151.8389999999999</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21471,7 +21561,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>2385.15</v>
+        <v>2590.5500000000002</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21589,7 +21679,7 @@
         <v>506</v>
       </c>
       <c r="Q243" s="6">
-        <v>617.20000000000005</v>
+        <v>608.91999999999996</v>
       </c>
       <c r="R243" s="6" t="s">
         <v>23</v>
@@ -21825,7 +21915,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>51.52</v>
+        <v>202.59</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -21884,7 +21974,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>2465.42</v>
+        <v>877.86</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22002,7 +22092,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>283.12</v>
+        <v>-2450.36</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -22046,7 +22136,7 @@
         <v>23</v>
       </c>
       <c r="L251" s="6">
-        <v>2.17</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M251" s="6">
         <v>0</v>
@@ -22061,7 +22151,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>490.56</v>
+        <v>587.05999999999995</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22887,7 +22977,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>1716.9</v>
+        <v>1426.9</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -22946,7 +23036,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>3675.69</v>
+        <v>2805.69</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23064,7 +23154,7 @@
         <v>556</v>
       </c>
       <c r="Q268" s="6">
-        <v>924.33</v>
+        <v>1384.43</v>
       </c>
       <c r="R268" s="6" t="s">
         <v>23</v>
@@ -23713,7 +23803,7 @@
         <v>579</v>
       </c>
       <c r="Q279" s="6">
-        <v>108.23180000000001</v>
+        <v>107.4618</v>
       </c>
       <c r="R279" s="6" t="s">
         <v>23</v>
@@ -23772,7 +23862,7 @@
         <v>581</v>
       </c>
       <c r="Q280" s="6">
-        <v>609.6</v>
+        <v>554.98</v>
       </c>
       <c r="R280" s="6" t="s">
         <v>23</v>
@@ -24067,7 +24157,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>344.2</v>
+        <v>843.9</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24126,7 +24216,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1104.52</v>
+        <v>1028.98</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -24185,7 +24275,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2554.4949999999999</v>
+        <v>2385.9650000000001</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24244,7 +24334,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>1869.01</v>
+        <v>1814.77</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24362,7 +24452,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3681.8649999999998</v>
+        <v>3569.3049999999998</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24421,7 +24511,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>3905.8890000000001</v>
+        <v>2595.569</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24480,7 +24570,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>1239.31</v>
+        <v>1151.1199999999999</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24716,7 +24806,7 @@
         <v>613</v>
       </c>
       <c r="Q296" s="6">
-        <v>1255.2</v>
+        <v>1244.93</v>
       </c>
       <c r="R296" s="6" t="s">
         <v>23</v>
@@ -24775,7 +24865,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3513.98</v>
+        <v>3419.41</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -24893,7 +24983,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>1113</v>
+        <v>908.45</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -24952,7 +25042,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>2321.06</v>
+        <v>1753.88</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25011,7 +25101,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>1482.5</v>
+        <v>1171.18</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25070,7 +25160,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>3897.36</v>
+        <v>1418.87</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -25129,7 +25219,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>46097.3024</v>
+        <v>42658.202400000002</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25188,7 +25278,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>73689.790999999997</v>
+        <v>36441.870999999999</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25247,7 +25337,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>2604.2399999999998</v>
+        <v>2408.59</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25306,7 +25396,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>2680.4949999999999</v>
+        <v>24.585000000000001</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25660,7 +25750,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>2947.67</v>
+        <v>2868.68</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25719,7 +25809,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>230.2</v>
+        <v>178.88</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -25778,7 +25868,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2272.08</v>
+        <v>2268.33</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -25896,7 +25986,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>254.84</v>
+        <v>254.19</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -25955,7 +26045,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8751.7000000000007</v>
+        <v>8737.5650000000005</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26014,7 +26104,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>3587.9</v>
+        <v>3547.14</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26073,7 +26163,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>7311.8</v>
+        <v>7132.64</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26132,7 +26222,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>2950.22</v>
+        <v>2879.79</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26191,7 +26281,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5185.33</v>
+        <v>6430.21</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26250,7 +26340,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>2426.4603999999999</v>
+        <v>2011.1004</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26309,7 +26399,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1247.9749999999999</v>
+        <v>1404.345</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26368,7 +26458,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2787.86</v>
+        <v>2708.52</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26427,7 +26517,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3894.5126</v>
+        <v>3878.4025999999999</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26486,7 +26576,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>773.66</v>
+        <v>1880.9</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26545,7 +26635,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>19.670000000000002</v>
+        <v>16.84</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26604,7 +26694,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3382.7809999999999</v>
+        <v>3359.681</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26663,7 +26753,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2061.86</v>
+        <v>2052.11</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26722,7 +26812,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>279.20999999999998</v>
+        <v>716.53</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -26781,7 +26871,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>1179.03</v>
+        <v>1126.93</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26840,7 +26930,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>3484.01</v>
+        <v>2995</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -26899,7 +26989,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1974.93</v>
+        <v>1910.09</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -26958,7 +27048,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>125.74</v>
+        <v>106.54</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -27017,7 +27107,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1363.0350000000001</v>
+        <v>1315.7950000000001</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27076,7 +27166,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2352.3000000000002</v>
+        <v>2300.25</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27607,7 +27697,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>4611.96</v>
+        <v>1951.7</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27666,7 +27756,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>895.88</v>
+        <v>197.22</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27725,7 +27815,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>207.98</v>
+        <v>177.6</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -27784,7 +27874,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>412.14</v>
+        <v>401.49</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -27843,7 +27933,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>777.43</v>
+        <v>1245.28</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -27902,7 +27992,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>4957.9250000000002</v>
+        <v>4857.5550000000003</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -27961,7 +28051,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>29359.31</v>
+        <v>28336.23</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28020,7 +28110,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3549.65</v>
+        <v>3544.45</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28138,7 +28228,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>232.7</v>
+        <v>169.83</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28197,7 +28287,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1533.11</v>
+        <v>1458.98</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28433,7 +28523,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>965</v>
+        <v>921.47</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28492,7 +28582,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1579.3</v>
+        <v>1531.57</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -29023,7 +29113,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>60.9</v>
+        <v>57.15</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -29082,7 +29172,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>156.65</v>
+        <v>155.9</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -29141,7 +29231,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3506.83</v>
+        <v>3525.83</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -35277,7 +35367,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>344.21</v>
+        <v>208.84</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35395,7 +35485,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>290.27999999999997</v>
+        <v>289.45</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35454,7 +35544,7 @@
         <v>1010</v>
       </c>
       <c r="Q478" s="6">
-        <v>1196.3</v>
+        <v>1193.33</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -51384,7 +51474,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>500.14</v>
+        <v>444.22</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -53685,7 +53775,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>3440.86</v>
+        <v>3125.09</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -53862,7 +53952,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>9584.8406799999993</v>
+        <v>7418.4906799999999</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -53980,7 +54070,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>2056.69</v>
+        <v>933.49</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -54098,7 +54188,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>3421.5949999999998</v>
+        <v>2521.585</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54157,7 +54247,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>21018.51</v>
+        <v>18926.71</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54452,7 +54542,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>7845.46</v>
+        <v>6565.2</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54570,7 +54660,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>970.95</v>
+        <v>636.15</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54629,7 +54719,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>19500.651999999998</v>
+        <v>12206.531999999999</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54688,7 +54778,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>21706.080000000002</v>
+        <v>19351.34</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54747,7 +54837,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>41485.018300000003</v>
+        <v>33535.568299999999</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54806,7 +54896,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>1976.29</v>
+        <v>1289.9000000000001</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55525,16 +55615,16 @@
     </row>
     <row r="819" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B819" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C819" s="5" t="s">
         <v>2175</v>
       </c>
-      <c r="B819" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C819" s="5" t="s">
+      <c r="D819" s="5" t="s">
         <v>2176</v>
-      </c>
-      <c r="D819" s="5" t="s">
-        <v>2177</v>
       </c>
       <c r="E819" s="6" t="s">
         <v>23</v>
@@ -55570,7 +55660,7 @@
         <v>21</v>
       </c>
       <c r="P819" s="5" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="Q819" s="6">
         <v>0</v>
@@ -55584,16 +55674,16 @@
     </row>
     <row r="820" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B820" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C820" s="5" t="s">
         <v>2178</v>
       </c>
-      <c r="B820" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C820" s="5" t="s">
+      <c r="D820" s="5" t="s">
         <v>2179</v>
-      </c>
-      <c r="D820" s="5" t="s">
-        <v>2180</v>
       </c>
       <c r="E820" s="6" t="s">
         <v>23</v>
@@ -55629,7 +55719,7 @@
         <v>21</v>
       </c>
       <c r="P820" s="5" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="Q820" s="6">
         <v>0</v>
@@ -55809,7 +55899,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>3041.46</v>
+        <v>3073.08</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56281,7 +56371,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>9837.82</v>
+        <v>14383.02</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56340,7 +56430,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>7023.86</v>
+        <v>9814.9699999999993</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56517,7 +56607,7 @@
         <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>331.07</v>
+        <v>2180.38</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56635,7 +56725,7 @@
         <v>1777</v>
       </c>
       <c r="Q837" s="6">
-        <v>562.20000000000005</v>
+        <v>543.02</v>
       </c>
       <c r="R837" s="6" t="s">
         <v>23</v>
@@ -56812,7 +56902,7 @@
         <v>1790</v>
       </c>
       <c r="Q840" s="6">
-        <v>4694.0950000000003</v>
+        <v>4662.1149999999998</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -56871,7 +56961,7 @@
         <v>747</v>
       </c>
       <c r="Q841" s="6">
-        <v>721.73</v>
+        <v>663.49</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -56930,7 +57020,7 @@
         <v>1797</v>
       </c>
       <c r="Q842" s="6">
-        <v>139.44</v>
+        <v>117.21</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -56989,7 +57079,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>382.66</v>
+        <v>278.67</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57107,7 +57197,7 @@
         <v>1806</v>
       </c>
       <c r="Q845" s="6">
-        <v>311.12</v>
+        <v>308.62</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -57284,7 +57374,7 @@
         <v>1817</v>
       </c>
       <c r="Q848" s="6">
-        <v>199.09</v>
+        <v>161.55000000000001</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -57402,7 +57492,7 @@
         <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>-134.6</v>
+        <v>0</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -57682,7 +57772,7 @@
         <v>23</v>
       </c>
       <c r="L855" s="6">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="M855" s="6">
         <v>0</v>
@@ -57697,7 +57787,7 @@
         <v>1837</v>
       </c>
       <c r="Q855" s="6">
-        <v>153.18</v>
+        <v>148.88999999999999</v>
       </c>
       <c r="R855" s="6" t="s">
         <v>23</v>
@@ -57756,7 +57846,7 @@
         <v>1840</v>
       </c>
       <c r="Q856" s="6">
-        <v>137.69999999999999</v>
+        <v>129.12</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -58051,7 +58141,7 @@
         <v>1855</v>
       </c>
       <c r="Q861" s="6">
-        <v>11819.3</v>
+        <v>11316.8</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58346,7 +58436,7 @@
         <v>1871</v>
       </c>
       <c r="Q866" s="6">
-        <v>1839.5</v>
+        <v>1799.69</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58508,7 +58598,7 @@
         <v>23</v>
       </c>
       <c r="L869" s="6">
-        <v>2.4</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M869" s="6">
         <v>0</v>
@@ -58523,7 +58613,7 @@
         <v>1880</v>
       </c>
       <c r="Q869" s="6">
-        <v>0</v>
+        <v>175.9</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58700,7 +58790,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>255.85</v>
+        <v>185.69</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58759,7 +58849,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>298.22000000000003</v>
+        <v>276.83</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -58818,7 +58908,7 @@
         <v>1895</v>
       </c>
       <c r="Q874" s="6">
-        <v>676.72</v>
+        <v>664.17</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59054,7 +59144,7 @@
         <v>1907</v>
       </c>
       <c r="Q878" s="6">
-        <v>152.32</v>
+        <v>207.82</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -59231,7 +59321,7 @@
         <v>1916</v>
       </c>
       <c r="Q881" s="6">
-        <v>326.54000000000002</v>
+        <v>325.13</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59290,7 +59380,7 @@
         <v>1919</v>
       </c>
       <c r="Q882" s="6">
-        <v>496.7</v>
+        <v>379.61</v>
       </c>
       <c r="R882" s="6" t="s">
         <v>23</v>
@@ -59349,7 +59439,7 @@
         <v>1922</v>
       </c>
       <c r="Q883" s="6">
-        <v>20884.14</v>
+        <v>10940.86</v>
       </c>
       <c r="R883" s="6" t="s">
         <v>23</v>
@@ -59408,7 +59498,7 @@
         <v>1925</v>
       </c>
       <c r="Q884" s="6">
-        <v>3979</v>
+        <v>3848.9</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59585,7 +59675,7 @@
         <v>1935</v>
       </c>
       <c r="Q887" s="6">
-        <v>120.53</v>
+        <v>88.46</v>
       </c>
       <c r="R887" s="6" t="s">
         <v>23</v>
@@ -59644,7 +59734,7 @@
         <v>1938</v>
       </c>
       <c r="Q888" s="6">
-        <v>160.06</v>
+        <v>138.63999999999999</v>
       </c>
       <c r="R888" s="6" t="s">
         <v>23</v>
@@ -59703,7 +59793,7 @@
         <v>1941</v>
       </c>
       <c r="Q889" s="6">
-        <v>124.87</v>
+        <v>114.19</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -59762,7 +59852,7 @@
         <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>444.53500000000003</v>
+        <v>246.05500000000001</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -61576,7 +61666,7 @@
         <v>23</v>
       </c>
       <c r="L921" s="6">
-        <v>1.8</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M921" s="6">
         <v>0</v>
@@ -61591,7 +61681,7 @@
         <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>1465.78</v>
+        <v>2256.6799999999998</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61650,7 +61740,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>6958.81</v>
+        <v>14639.15</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61768,7 +61858,7 @@
         <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>6921.4629999999997</v>
+        <v>6058.6030000000001</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -62063,7 +62153,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>84.63</v>
+        <v>540.07000000000005</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62122,7 +62212,7 @@
         <v>2065</v>
       </c>
       <c r="Q930" s="6">
-        <v>491.11</v>
+        <v>2303.9899999999998</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62240,7 +62330,7 @@
         <v>2071</v>
       </c>
       <c r="Q932" s="6">
-        <v>3245.18</v>
+        <v>2924.78</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62417,7 +62507,7 @@
         <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>1635.98</v>
+        <v>1088.8</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -62653,7 +62743,7 @@
         <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>4091.1</v>
+        <v>3749.72</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62712,7 +62802,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>699.59</v>
+        <v>1734.42</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62771,7 +62861,7 @@
         <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>343.91</v>
+        <v>220.05</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62830,7 +62920,7 @@
         <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>771.35500000000002</v>
+        <v>670.755</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -62889,7 +62979,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>1572.17</v>
+        <v>1507.77</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -62948,7 +63038,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2684.32</v>
+        <v>2491.12</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63007,7 +63097,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>1108.2</v>
+        <v>1043.8</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63184,7 +63274,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>2183.9</v>
+        <v>4137.7</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -63243,7 +63333,7 @@
         <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>207.57</v>
+        <v>106.97</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63302,7 +63392,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>895.505</v>
+        <v>392.505</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63361,7 +63451,7 @@
         <v>2128</v>
       </c>
       <c r="Q951" s="6">
-        <v>401.2</v>
+        <v>98.991299999999995</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63420,7 +63510,7 @@
         <v>2131</v>
       </c>
       <c r="Q952" s="6">
-        <v>251.74</v>
+        <v>201.44</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63538,7 +63628,7 @@
         <v>2137</v>
       </c>
       <c r="Q954" s="6">
-        <v>201.1</v>
+        <v>100.5</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63597,7 +63687,7 @@
         <v>2140</v>
       </c>
       <c r="Q955" s="6">
-        <v>191.4</v>
+        <v>141.1</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -63735,7 +63825,7 @@
         <v>2149</v>
       </c>
       <c r="D958" s="5" t="s">
-        <v>2150</v>
+        <v>2272</v>
       </c>
       <c r="E958" s="6" t="s">
         <v>23</v>
@@ -63774,7 +63864,7 @@
         <v>2149</v>
       </c>
       <c r="Q958" s="6">
-        <v>5698.4903999999997</v>
+        <v>3748.5803999999998</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -63785,16 +63875,16 @@
     </row>
     <row r="959" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B959" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C959" s="5" t="s">
         <v>2151</v>
       </c>
-      <c r="B959" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C959" s="5" t="s">
+      <c r="D959" s="5" t="s">
         <v>2152</v>
-      </c>
-      <c r="D959" s="5" t="s">
-        <v>2153</v>
       </c>
       <c r="E959" s="6" t="s">
         <v>23</v>
@@ -63830,10 +63920,10 @@
         <v>21</v>
       </c>
       <c r="P959" s="5" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="Q959" s="6">
-        <v>1473.2</v>
+        <v>3535.2</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -63844,16 +63934,16 @@
     </row>
     <row r="960" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A960" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B960" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C960" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="B960" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C960" s="5" t="s">
+      <c r="D960" s="5" t="s">
         <v>2155</v>
-      </c>
-      <c r="D960" s="5" t="s">
-        <v>2156</v>
       </c>
       <c r="E960" s="6" t="s">
         <v>23</v>
@@ -63889,10 +63979,10 @@
         <v>21</v>
       </c>
       <c r="P960" s="5" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="Q960" s="6">
-        <v>458.3</v>
+        <v>703.9</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -63903,16 +63993,16 @@
     </row>
     <row r="961" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B961" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C961" s="5" t="s">
         <v>2157</v>
       </c>
-      <c r="B961" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C961" s="5" t="s">
+      <c r="D961" s="5" t="s">
         <v>2158</v>
-      </c>
-      <c r="D961" s="5" t="s">
-        <v>2159</v>
       </c>
       <c r="E961" s="6" t="s">
         <v>23</v>
@@ -63948,10 +64038,10 @@
         <v>21</v>
       </c>
       <c r="P961" s="5" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Q961" s="6">
-        <v>314.05</v>
+        <v>3710.45</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -63962,16 +64052,16 @@
     </row>
     <row r="962" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B962" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C962" s="5" t="s">
         <v>2160</v>
       </c>
-      <c r="B962" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C962" s="5" t="s">
+      <c r="D962" s="5" t="s">
         <v>2161</v>
-      </c>
-      <c r="D962" s="5" t="s">
-        <v>2162</v>
       </c>
       <c r="E962" s="6" t="s">
         <v>23</v>
@@ -64007,7 +64097,7 @@
         <v>21</v>
       </c>
       <c r="P962" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="Q962" s="6">
         <v>0</v>
@@ -64021,16 +64111,16 @@
     </row>
     <row r="963" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B963" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C963" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="B963" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C963" s="5" t="s">
+      <c r="D963" s="5" t="s">
         <v>2164</v>
-      </c>
-      <c r="D963" s="5" t="s">
-        <v>2165</v>
       </c>
       <c r="E963" s="6" t="s">
         <v>23</v>
@@ -64066,7 +64156,7 @@
         <v>21</v>
       </c>
       <c r="P963" s="5" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="Q963" s="6">
         <v>0</v>
@@ -64080,16 +64170,16 @@
     </row>
     <row r="964" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C964" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="B964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C964" s="5" t="s">
+      <c r="D964" s="5" t="s">
         <v>2182</v>
-      </c>
-      <c r="D964" s="5" t="s">
-        <v>2183</v>
       </c>
       <c r="E964" s="6" t="s">
         <v>23</v>
@@ -64125,7 +64215,7 @@
         <v>21</v>
       </c>
       <c r="P964" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="Q964" s="6">
         <v>0</v>
@@ -64139,16 +64229,16 @@
     </row>
     <row r="965" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C965" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="B965" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C965" s="5" t="s">
+      <c r="D965" s="5" t="s">
         <v>2185</v>
-      </c>
-      <c r="D965" s="5" t="s">
-        <v>2186</v>
       </c>
       <c r="E965" s="6" t="s">
         <v>23</v>
@@ -64184,7 +64274,7 @@
         <v>21</v>
       </c>
       <c r="P965" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="Q965" s="6">
         <v>0</v>
@@ -64198,16 +64288,16 @@
     </row>
     <row r="966" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966" s="5" t="s">
         <v>2187</v>
       </c>
-      <c r="B966" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C966" s="5" t="s">
+      <c r="D966" s="5" t="s">
         <v>2188</v>
-      </c>
-      <c r="D966" s="5" t="s">
-        <v>2189</v>
       </c>
       <c r="E966" s="6" t="s">
         <v>23</v>
@@ -64243,7 +64333,7 @@
         <v>21</v>
       </c>
       <c r="P966" s="5" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="Q966" s="6">
         <v>0</v>
@@ -64257,16 +64347,16 @@
     </row>
     <row r="967" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="B967" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C967" s="5" t="s">
-        <v>2197</v>
-      </c>
       <c r="D967" s="5" t="s">
-        <v>2228</v>
+        <v>2273</v>
       </c>
       <c r="E967" s="6" t="s">
         <v>23</v>
@@ -64302,7 +64392,7 @@
         <v>21</v>
       </c>
       <c r="P967" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="Q967" s="6">
         <v>0</v>
@@ -64316,16 +64406,16 @@
     </row>
     <row r="968" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="B968" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C968" s="5" t="s">
+      <c r="D968" s="5" t="s">
         <v>2199</v>
-      </c>
-      <c r="D968" s="5" t="s">
-        <v>2200</v>
       </c>
       <c r="E968" s="6" t="s">
         <v>23</v>
@@ -64361,7 +64451,7 @@
         <v>21</v>
       </c>
       <c r="P968" s="5" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="Q968" s="6">
         <v>0</v>
@@ -64375,16 +64465,16 @@
     </row>
     <row r="969" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C969" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="B969" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C969" s="5" t="s">
+      <c r="D969" s="5" t="s">
         <v>2202</v>
-      </c>
-      <c r="D969" s="5" t="s">
-        <v>2203</v>
       </c>
       <c r="E969" s="6" t="s">
         <v>23</v>
@@ -64420,7 +64510,7 @@
         <v>21</v>
       </c>
       <c r="P969" s="5" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="Q969" s="6">
         <v>0</v>
@@ -64434,16 +64524,16 @@
     </row>
     <row r="970" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="B970" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C970" s="5" t="s">
+      <c r="D970" s="5" t="s">
         <v>2205</v>
-      </c>
-      <c r="D970" s="5" t="s">
-        <v>2206</v>
       </c>
       <c r="E970" s="6" t="s">
         <v>23</v>
@@ -64479,7 +64569,7 @@
         <v>21</v>
       </c>
       <c r="P970" s="5" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="Q970" s="6">
         <v>0</v>
@@ -64493,16 +64583,16 @@
     </row>
     <row r="971" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" s="5" t="s">
         <v>2207</v>
       </c>
-      <c r="B971" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C971" s="5" t="s">
+      <c r="D971" s="5" t="s">
         <v>2208</v>
-      </c>
-      <c r="D971" s="5" t="s">
-        <v>2209</v>
       </c>
       <c r="E971" s="6" t="s">
         <v>23</v>
@@ -64538,7 +64628,7 @@
         <v>21</v>
       </c>
       <c r="P971" s="5" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="Q971" s="6">
         <v>0</v>
@@ -64552,16 +64642,16 @@
     </row>
     <row r="972" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C972" s="5" t="s">
         <v>2210</v>
       </c>
-      <c r="B972" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C972" s="5" t="s">
+      <c r="D972" s="5" t="s">
         <v>2211</v>
-      </c>
-      <c r="D972" s="5" t="s">
-        <v>2212</v>
       </c>
       <c r="E972" s="6" t="s">
         <v>23</v>
@@ -64597,7 +64687,7 @@
         <v>21</v>
       </c>
       <c r="P972" s="5" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q972" s="6">
         <v>0</v>
@@ -64611,16 +64701,16 @@
     </row>
     <row r="973" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C973" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="B973" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C973" s="5" t="s">
+      <c r="D973" s="5" t="s">
         <v>2214</v>
-      </c>
-      <c r="D973" s="5" t="s">
-        <v>2215</v>
       </c>
       <c r="E973" s="6" t="s">
         <v>23</v>
@@ -64656,7 +64746,7 @@
         <v>21</v>
       </c>
       <c r="P973" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="Q973" s="6">
         <v>0</v>
@@ -64670,16 +64760,16 @@
     </row>
     <row r="974" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C974" s="5" t="s">
         <v>2216</v>
       </c>
-      <c r="B974" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C974" s="5" t="s">
+      <c r="D974" s="5" t="s">
         <v>2217</v>
-      </c>
-      <c r="D974" s="5" t="s">
-        <v>2218</v>
       </c>
       <c r="E974" s="6" t="s">
         <v>23</v>
@@ -64715,7 +64805,7 @@
         <v>21</v>
       </c>
       <c r="P974" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="Q974" s="6">
         <v>0</v>
@@ -64729,16 +64819,16 @@
     </row>
     <row r="975" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C975" s="5" t="s">
         <v>2219</v>
       </c>
-      <c r="B975" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C975" s="5" t="s">
+      <c r="D975" s="5" t="s">
         <v>2220</v>
-      </c>
-      <c r="D975" s="5" t="s">
-        <v>2221</v>
       </c>
       <c r="E975" s="6" t="s">
         <v>23</v>
@@ -64774,7 +64864,7 @@
         <v>21</v>
       </c>
       <c r="P975" s="5" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="Q975" s="6">
         <v>0</v>
@@ -64788,16 +64878,16 @@
     </row>
     <row r="976" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C976" s="5" t="s">
         <v>2222</v>
       </c>
-      <c r="B976" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C976" s="5" t="s">
+      <c r="D976" s="5" t="s">
         <v>2223</v>
-      </c>
-      <c r="D976" s="5" t="s">
-        <v>2224</v>
       </c>
       <c r="E976" s="6" t="s">
         <v>23</v>
@@ -64833,7 +64923,7 @@
         <v>21</v>
       </c>
       <c r="P976" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="Q976" s="6">
         <v>0</v>
@@ -64847,16 +64937,16 @@
     </row>
     <row r="977" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" s="5" t="s">
         <v>2225</v>
       </c>
-      <c r="B977" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C977" s="5" t="s">
+      <c r="D977" s="5" t="s">
         <v>2226</v>
-      </c>
-      <c r="D977" s="5" t="s">
-        <v>2227</v>
       </c>
       <c r="E977" s="6" t="s">
         <v>23</v>
@@ -64892,7 +64982,7 @@
         <v>21</v>
       </c>
       <c r="P977" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="Q977" s="6">
         <v>0</v>
@@ -64906,16 +64996,16 @@
     </row>
     <row r="978" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="D978" s="5" t="s">
-        <v>2231</v>
+        <v>2274</v>
       </c>
       <c r="E978" s="6" t="s">
         <v>23</v>
@@ -64951,10 +65041,10 @@
         <v>21</v>
       </c>
       <c r="P978" s="5" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="Q978" s="6">
-        <v>541.6</v>
+        <v>583.1</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -64965,16 +65055,16 @@
     </row>
     <row r="979" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="D979" s="5" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="E979" s="6" t="s">
         <v>23</v>
@@ -65010,7 +65100,7 @@
         <v>21</v>
       </c>
       <c r="P979" s="5" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="Q979" s="6">
         <v>2054.8000000000002</v>
@@ -65024,16 +65114,16 @@
     </row>
     <row r="980" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="D980" s="5" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="E980" s="6" t="s">
         <v>23</v>
@@ -65069,7 +65159,7 @@
         <v>21</v>
       </c>
       <c r="P980" s="5" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="Q980" s="6">
         <v>0</v>
@@ -65083,16 +65173,16 @@
     </row>
     <row r="981" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="B981" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D981" s="5" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="E981" s="6" t="s">
         <v>23</v>
@@ -65128,7 +65218,7 @@
         <v>21</v>
       </c>
       <c r="P981" s="5" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="Q981" s="6">
         <v>0</v>
@@ -65142,16 +65232,16 @@
     </row>
     <row r="982" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="B982" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="D982" s="5" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="E982" s="6" t="s">
         <v>23</v>
@@ -65187,7 +65277,7 @@
         <v>21</v>
       </c>
       <c r="P982" s="5" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="Q982" s="6">
         <v>0</v>
@@ -65201,16 +65291,16 @@
     </row>
     <row r="983" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="B983" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C983" s="5" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="D983" s="5" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="E983" s="6" t="s">
         <v>23</v>
@@ -65246,7 +65336,7 @@
         <v>21</v>
       </c>
       <c r="P983" s="5" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="Q983" s="6">
         <v>0</v>
@@ -65260,16 +65350,16 @@
     </row>
     <row r="984" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="B984" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="D984" s="5" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="E984" s="6" t="s">
         <v>23</v>
@@ -65305,7 +65395,7 @@
         <v>21</v>
       </c>
       <c r="P984" s="5" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="Q984" s="6">
         <v>0</v>
@@ -65319,16 +65409,16 @@
     </row>
     <row r="985" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="B985" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C985" s="5" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="D985" s="5" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="E985" s="6" t="s">
         <v>23</v>
@@ -65364,7 +65454,7 @@
         <v>21</v>
       </c>
       <c r="P985" s="5" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="Q985" s="6">
         <v>0</v>
@@ -65378,16 +65468,16 @@
     </row>
     <row r="986" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="B986" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="D986" s="5" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="E986" s="6" t="s">
         <v>23</v>
@@ -65408,7 +65498,7 @@
         <v>21</v>
       </c>
       <c r="K986" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L986" s="6">
         <v>0</v>
@@ -65423,10 +65513,10 @@
         <v>21</v>
       </c>
       <c r="P986" s="5" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="Q986" s="6">
-        <v>0</v>
+        <v>505.8</v>
       </c>
       <c r="R986" s="6" t="s">
         <v>23</v>
@@ -65437,16 +65527,16 @@
     </row>
     <row r="987" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="B987" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="D987" s="5" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="E987" s="6" t="s">
         <v>23</v>
@@ -65467,10 +65557,10 @@
         <v>21</v>
       </c>
       <c r="K987" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L987" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M987" s="6">
         <v>0</v>
@@ -65482,10 +65572,10 @@
         <v>21</v>
       </c>
       <c r="P987" s="5" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="Q987" s="6">
-        <v>0</v>
+        <v>43.19</v>
       </c>
       <c r="R987" s="6" t="s">
         <v>23</v>
@@ -65496,16 +65586,16 @@
     </row>
     <row r="988" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="B988" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D988" s="5" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E988" s="6" t="s">
         <v>23</v>
@@ -65541,7 +65631,7 @@
         <v>21</v>
       </c>
       <c r="P988" s="5" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="Q988" s="6">
         <v>0</v>
@@ -65555,16 +65645,16 @@
     </row>
     <row r="989" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="B989" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="D989" s="5" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="E989" s="6" t="s">
         <v>23</v>
@@ -65600,7 +65690,7 @@
         <v>21</v>
       </c>
       <c r="P989" s="5" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="Q989" s="6">
         <v>0</v>
@@ -65614,16 +65704,16 @@
     </row>
     <row r="990" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="B990" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="D990" s="5" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="E990" s="6" t="s">
         <v>23</v>
@@ -65659,7 +65749,7 @@
         <v>21</v>
       </c>
       <c r="P990" s="5" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="Q990" s="6">
         <v>0</v>
@@ -65673,16 +65763,16 @@
     </row>
     <row r="991" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="B991" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="D991" s="5" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="E991" s="6" t="s">
         <v>23</v>
@@ -65718,7 +65808,7 @@
         <v>21</v>
       </c>
       <c r="P991" s="5" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="Q991" s="6">
         <v>0</v>
@@ -65732,16 +65822,16 @@
     </row>
     <row r="992" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="B992" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="D992" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="E992" s="6" t="s">
         <v>23</v>
@@ -65762,7 +65852,7 @@
         <v>21</v>
       </c>
       <c r="K992" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L992" s="6">
         <v>0</v>
@@ -65777,10 +65867,10 @@
         <v>21</v>
       </c>
       <c r="P992" s="5" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="Q992" s="6">
-        <v>0</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="R992" s="6" t="s">
         <v>23</v>
@@ -65791,16 +65881,16 @@
     </row>
     <row r="993" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
-        <v>2166</v>
+        <v>2275</v>
       </c>
       <c r="B993" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>2167</v>
+        <v>2276</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>2168</v>
+        <v>2277</v>
       </c>
       <c r="E993" s="6" t="s">
         <v>23</v>
@@ -65821,10 +65911,10 @@
         <v>21</v>
       </c>
       <c r="K993" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L993" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M993" s="6">
         <v>0</v>
@@ -65836,10 +65926,10 @@
         <v>21</v>
       </c>
       <c r="P993" s="5" t="s">
-        <v>2167</v>
+        <v>2276</v>
       </c>
       <c r="Q993" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -65850,16 +65940,16 @@
     </row>
     <row r="994" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
-        <v>2169</v>
+        <v>2278</v>
       </c>
       <c r="B994" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>2170</v>
+        <v>2279</v>
       </c>
       <c r="D994" s="5" t="s">
-        <v>2171</v>
+        <v>2280</v>
       </c>
       <c r="E994" s="6" t="s">
         <v>23</v>
@@ -65880,10 +65970,10 @@
         <v>21</v>
       </c>
       <c r="K994" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L994" s="6">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M994" s="6">
         <v>0</v>
@@ -65895,10 +65985,10 @@
         <v>21</v>
       </c>
       <c r="P994" s="5" t="s">
-        <v>2170</v>
+        <v>2279</v>
       </c>
       <c r="Q994" s="6">
-        <v>200.73</v>
+        <v>0</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -65909,16 +65999,16 @@
     </row>
     <row r="995" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A995" s="5" t="s">
-        <v>2172</v>
+        <v>2281</v>
       </c>
       <c r="B995" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>2173</v>
+        <v>2282</v>
       </c>
       <c r="D995" s="5" t="s">
-        <v>2174</v>
+        <v>2283</v>
       </c>
       <c r="E995" s="6" t="s">
         <v>23</v>
@@ -65942,7 +66032,7 @@
         <v>23</v>
       </c>
       <c r="L995" s="6">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="M995" s="6">
         <v>0</v>
@@ -65954,10 +66044,10 @@
         <v>21</v>
       </c>
       <c r="P995" s="5" t="s">
-        <v>2173</v>
+        <v>2282</v>
       </c>
       <c r="Q995" s="6">
-        <v>1479.87</v>
+        <v>2257</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -65968,16 +66058,16 @@
     </row>
     <row r="996" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
-        <v>2190</v>
+        <v>2284</v>
       </c>
       <c r="B996" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C996" s="5" t="s">
-        <v>2191</v>
+        <v>2285</v>
       </c>
       <c r="D996" s="5" t="s">
-        <v>2192</v>
+        <v>2286</v>
       </c>
       <c r="E996" s="6" t="s">
         <v>23</v>
@@ -65998,10 +66088,10 @@
         <v>21</v>
       </c>
       <c r="K996" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L996" s="6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M996" s="6">
         <v>0</v>
@@ -66013,10 +66103,10 @@
         <v>21</v>
       </c>
       <c r="P996" s="5" t="s">
-        <v>2191</v>
+        <v>2285</v>
       </c>
       <c r="Q996" s="6">
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66027,60 +66117,650 @@
     </row>
     <row r="997" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C997" s="5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D997" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I997" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L997" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="M997" s="6">
+        <v>0</v>
+      </c>
+      <c r="N997" s="6">
+        <v>0</v>
+      </c>
+      <c r="O997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P997" s="5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="Q997" s="6">
+        <v>22355.75</v>
+      </c>
+      <c r="R997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S997" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="998" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A998" s="5" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B998" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C998" s="5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D998" s="5" t="s">
+        <v>2292</v>
+      </c>
+      <c r="E998" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F998" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G998" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H998" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I998" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J998" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K998" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L998" s="6">
+        <v>0</v>
+      </c>
+      <c r="M998" s="6">
+        <v>0</v>
+      </c>
+      <c r="N998" s="6">
+        <v>0</v>
+      </c>
+      <c r="O998" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P998" s="5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="Q998" s="6">
+        <v>0</v>
+      </c>
+      <c r="R998" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S998" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="999" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A999" s="5" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B999" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C999" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D999" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E999" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F999" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G999" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H999" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I999" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J999" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K999" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L999" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="M999" s="6">
+        <v>0</v>
+      </c>
+      <c r="N999" s="6">
+        <v>0</v>
+      </c>
+      <c r="O999" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P999" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="Q999" s="6">
+        <v>1632</v>
+      </c>
+      <c r="R999" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S999" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1000" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1000" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1000" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D1000" s="5" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E1000" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1000" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1000" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1000" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1000" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1000" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1000" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1000" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="M1000" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1000" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1000" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1000" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="Q1000" s="6">
+        <v>646.5</v>
+      </c>
+      <c r="R1000" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1000" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1001" s="5" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1001" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1001" s="5" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E1001" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1001" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1001" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1001" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1001" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1001" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1001" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1001" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="Q1001" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1001" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1001" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1002" s="5" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1002" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1002" s="5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D1002" s="5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E1002" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1002" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1002" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1002" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1002" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1002" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1002" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1002" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1002" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1002" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1002" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1002" s="5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="Q1002" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1002" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1002" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1003" s="5" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1003" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1003" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1003" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E1003" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1003" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1003" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1003" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1003" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1003" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1003" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1003" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M1003" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1003" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1003" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1003" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="Q1003" s="6">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="R1003" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1003" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1004" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1004" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1004" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1004" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1004" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1004" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1004" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1004" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1004" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1004" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1004" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1004" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="M1004" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1004" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1004" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1004" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Q1004" s="6">
+        <v>200.07</v>
+      </c>
+      <c r="R1004" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1004" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1005" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1005" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1005" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D1005" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1005" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1005" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1005" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1005" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1005" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1005" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1005" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1005" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M1005" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1005" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1005" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1005" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q1005" s="6">
+        <v>1479.87</v>
+      </c>
+      <c r="R1005" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1005" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1006" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1006" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1006" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1006" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E1006" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1006" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1006" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1006" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1006" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1006" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1006" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1006" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1006" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1006" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1006" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1006" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q1006" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1006" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1006" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1007" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1007" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="B997" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C997" s="5" t="s">
+      <c r="D1007" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="D997" s="5" t="s">
-        <v>2195</v>
-      </c>
-      <c r="E997" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F997" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G997" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H997" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I997" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J997" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K997" s="6" t="s">
+      <c r="E1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1007" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1007" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L997" s="6">
-        <v>0</v>
-      </c>
-      <c r="M997" s="6">
-        <v>0</v>
-      </c>
-      <c r="N997" s="6">
-        <v>0</v>
-      </c>
-      <c r="O997" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P997" s="5" t="s">
-        <v>2194</v>
-      </c>
-      <c r="Q997" s="6">
-        <v>0</v>
-      </c>
-      <c r="R997" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S997" s="5" t="s">
+      <c r="L1007" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1007" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1007" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1007" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q1007" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1007" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15081" uniqueCount="2305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15111" uniqueCount="2311">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6838,9 +6838,6 @@
     <t>MACAU - BLACK (PRETO)</t>
   </si>
   <si>
-    <t>Lista Produto : 21-02-2020 11:18:22</t>
-  </si>
-  <si>
     <t>TEXAS 480 C.91 (ANTRACITE)</t>
   </si>
   <si>
@@ -6938,6 +6935,27 @@
   </si>
   <si>
     <t>LUX 06 - DARK GREY</t>
+  </si>
+  <si>
+    <t>Lista Produto : 26-02-2020 09:06:11</t>
+  </si>
+  <si>
+    <t>TC15183</t>
+  </si>
+  <si>
+    <t>G2260</t>
+  </si>
+  <si>
+    <t>QUEENS YELLOW</t>
+  </si>
+  <si>
+    <t>TC15184</t>
+  </si>
+  <si>
+    <t>G2250</t>
+  </si>
+  <si>
+    <t>QUEENS BORDEAUX</t>
   </si>
 </sst>
 </file>
@@ -7104,8 +7122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1007" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1007"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1009" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1009"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7394,7 +7412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1007"/>
+  <dimension ref="A1:S1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F977" sqref="F977"/>
@@ -7448,7 +7466,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2271</v>
+        <v>2304</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18375,7 +18393,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>3099.66</v>
+        <v>3098.88</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -19673,7 +19691,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>2459.65</v>
+        <v>2459.04</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20440,7 +20458,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>2940.9011999999998</v>
+        <v>2728.5012000000002</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -22977,7 +22995,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>1426.9</v>
+        <v>1330.63</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23036,7 +23054,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>2805.69</v>
+        <v>2473.9299999999998</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -24275,7 +24293,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2385.9650000000001</v>
+        <v>2381.7049999999999</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24452,7 +24470,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3569.3049999999998</v>
+        <v>3566.68</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24570,7 +24588,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>1151.1199999999999</v>
+        <v>1150.8599999999999</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -25042,7 +25060,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1753.88</v>
+        <v>1752.895</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25219,7 +25237,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>42658.202400000002</v>
+        <v>42264.657399999996</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25278,7 +25296,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>36441.870999999999</v>
+        <v>35271.891000000003</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25750,7 +25768,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>2868.68</v>
+        <v>2241.98</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26871,7 +26889,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>1126.93</v>
+        <v>1125.4749999999999</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27166,7 +27184,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2300.25</v>
+        <v>2289.87</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27402,7 +27420,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>162.61500000000001</v>
+        <v>158.35499999999999</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27933,7 +27951,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1245.28</v>
+        <v>1162.08</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28228,7 +28246,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>169.83</v>
+        <v>166.43</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -35367,7 +35385,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>208.84</v>
+        <v>207.785</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35485,7 +35503,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>289.45</v>
+        <v>288.84500000000003</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -54719,7 +54737,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>12206.531999999999</v>
+        <v>12195.367</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54778,7 +54796,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>19351.34</v>
+        <v>19350.52</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54837,7 +54855,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>33535.568299999999</v>
+        <v>33533.708299999998</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -56371,7 +56389,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>14383.02</v>
+        <v>13903.52</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56430,7 +56448,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>9814.9699999999993</v>
+        <v>9023.4699999999993</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -62153,7 +62171,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>540.07000000000005</v>
+        <v>444.17</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62212,7 +62230,7 @@
         <v>2065</v>
       </c>
       <c r="Q930" s="6">
-        <v>2303.9899999999998</v>
+        <v>2208.09</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62507,7 +62525,7 @@
         <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>1088.8</v>
+        <v>837.88</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -63825,7 +63843,7 @@
         <v>2149</v>
       </c>
       <c r="D958" s="5" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E958" s="6" t="s">
         <v>23</v>
@@ -64356,7 +64374,7 @@
         <v>2196</v>
       </c>
       <c r="D967" s="5" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E967" s="6" t="s">
         <v>23</v>
@@ -65005,7 +65023,7 @@
         <v>2228</v>
       </c>
       <c r="D978" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E978" s="6" t="s">
         <v>23</v>
@@ -65881,16 +65899,16 @@
     </row>
     <row r="993" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C993" s="5" t="s">
         <v>2275</v>
       </c>
-      <c r="B993" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C993" s="5" t="s">
+      <c r="D993" s="5" t="s">
         <v>2276</v>
-      </c>
-      <c r="D993" s="5" t="s">
-        <v>2277</v>
       </c>
       <c r="E993" s="6" t="s">
         <v>23</v>
@@ -65926,7 +65944,7 @@
         <v>21</v>
       </c>
       <c r="P993" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="Q993" s="6">
         <v>0</v>
@@ -65940,16 +65958,16 @@
     </row>
     <row r="994" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C994" s="5" t="s">
         <v>2278</v>
       </c>
-      <c r="B994" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C994" s="5" t="s">
+      <c r="D994" s="5" t="s">
         <v>2279</v>
-      </c>
-      <c r="D994" s="5" t="s">
-        <v>2280</v>
       </c>
       <c r="E994" s="6" t="s">
         <v>23</v>
@@ -65985,7 +66003,7 @@
         <v>21</v>
       </c>
       <c r="P994" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="Q994" s="6">
         <v>0</v>
@@ -65999,16 +66017,16 @@
     </row>
     <row r="995" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A995" s="5" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C995" s="5" t="s">
         <v>2281</v>
       </c>
-      <c r="B995" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C995" s="5" t="s">
+      <c r="D995" s="5" t="s">
         <v>2282</v>
-      </c>
-      <c r="D995" s="5" t="s">
-        <v>2283</v>
       </c>
       <c r="E995" s="6" t="s">
         <v>23</v>
@@ -66044,7 +66062,7 @@
         <v>21</v>
       </c>
       <c r="P995" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="Q995" s="6">
         <v>2257</v>
@@ -66058,16 +66076,16 @@
     </row>
     <row r="996" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C996" s="5" t="s">
         <v>2284</v>
       </c>
-      <c r="B996" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C996" s="5" t="s">
+      <c r="D996" s="5" t="s">
         <v>2285</v>
-      </c>
-      <c r="D996" s="5" t="s">
-        <v>2286</v>
       </c>
       <c r="E996" s="6" t="s">
         <v>23</v>
@@ -66103,7 +66121,7 @@
         <v>21</v>
       </c>
       <c r="P996" s="5" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="Q996" s="6">
         <v>2754</v>
@@ -66117,16 +66135,16 @@
     </row>
     <row r="997" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C997" s="5" t="s">
         <v>2287</v>
       </c>
-      <c r="B997" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C997" s="5" t="s">
+      <c r="D997" s="5" t="s">
         <v>2288</v>
-      </c>
-      <c r="D997" s="5" t="s">
-        <v>2289</v>
       </c>
       <c r="E997" s="6" t="s">
         <v>23</v>
@@ -66162,10 +66180,10 @@
         <v>21</v>
       </c>
       <c r="P997" s="5" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>22355.75</v>
+        <v>19297.64</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66176,16 +66194,16 @@
     </row>
     <row r="998" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B998" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C998" s="5" t="s">
         <v>2290</v>
       </c>
-      <c r="B998" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C998" s="5" t="s">
+      <c r="D998" s="5" t="s">
         <v>2291</v>
-      </c>
-      <c r="D998" s="5" t="s">
-        <v>2292</v>
       </c>
       <c r="E998" s="6" t="s">
         <v>23</v>
@@ -66221,7 +66239,7 @@
         <v>21</v>
       </c>
       <c r="P998" s="5" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="Q998" s="6">
         <v>0</v>
@@ -66235,16 +66253,16 @@
     </row>
     <row r="999" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B999" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C999" s="5" t="s">
         <v>2293</v>
       </c>
-      <c r="B999" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C999" s="5" t="s">
+      <c r="D999" s="5" t="s">
         <v>2294</v>
-      </c>
-      <c r="D999" s="5" t="s">
-        <v>2295</v>
       </c>
       <c r="E999" s="6" t="s">
         <v>23</v>
@@ -66280,10 +66298,10 @@
         <v>21</v>
       </c>
       <c r="P999" s="5" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="Q999" s="6">
-        <v>1632</v>
+        <v>1056.5999999999999</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66294,16 +66312,16 @@
     </row>
     <row r="1000" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1000" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1000" s="5" t="s">
         <v>2296</v>
       </c>
-      <c r="B1000" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1000" s="5" t="s">
+      <c r="D1000" s="5" t="s">
         <v>2297</v>
-      </c>
-      <c r="D1000" s="5" t="s">
-        <v>2298</v>
       </c>
       <c r="E1000" s="6" t="s">
         <v>23</v>
@@ -66339,7 +66357,7 @@
         <v>21</v>
       </c>
       <c r="P1000" s="5" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="Q1000" s="6">
         <v>646.5</v>
@@ -66353,16 +66371,16 @@
     </row>
     <row r="1001" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1001" s="5" t="s">
         <v>2299</v>
       </c>
-      <c r="B1001" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1001" s="5" t="s">
+      <c r="D1001" s="5" t="s">
         <v>2300</v>
-      </c>
-      <c r="D1001" s="5" t="s">
-        <v>2301</v>
       </c>
       <c r="E1001" s="6" t="s">
         <v>23</v>
@@ -66398,7 +66416,7 @@
         <v>21</v>
       </c>
       <c r="P1001" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="Q1001" s="6">
         <v>0</v>
@@ -66412,16 +66430,16 @@
     </row>
     <row r="1002" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1002" s="5" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1002" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1002" s="5" t="s">
         <v>2302</v>
       </c>
-      <c r="B1002" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1002" s="5" t="s">
+      <c r="D1002" s="5" t="s">
         <v>2303</v>
-      </c>
-      <c r="D1002" s="5" t="s">
-        <v>2304</v>
       </c>
       <c r="E1002" s="6" t="s">
         <v>23</v>
@@ -66457,7 +66475,7 @@
         <v>21</v>
       </c>
       <c r="P1002" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="Q1002" s="6">
         <v>0</v>
@@ -66471,16 +66489,16 @@
     </row>
     <row r="1003" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1003" s="5" t="s">
-        <v>2165</v>
+        <v>2305</v>
       </c>
       <c r="B1003" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1003" s="5" t="s">
-        <v>2166</v>
+        <v>2306</v>
       </c>
       <c r="D1003" s="5" t="s">
-        <v>2167</v>
+        <v>2307</v>
       </c>
       <c r="E1003" s="6" t="s">
         <v>23</v>
@@ -66501,10 +66519,10 @@
         <v>21</v>
       </c>
       <c r="K1003" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1003" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1003" s="6">
         <v>0</v>
@@ -66516,10 +66534,10 @@
         <v>21</v>
       </c>
       <c r="P1003" s="5" t="s">
-        <v>2166</v>
+        <v>2306</v>
       </c>
       <c r="Q1003" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66530,16 +66548,16 @@
     </row>
     <row r="1004" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1004" s="5" t="s">
-        <v>2168</v>
+        <v>2308</v>
       </c>
       <c r="B1004" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>2169</v>
+        <v>2309</v>
       </c>
       <c r="D1004" s="5" t="s">
-        <v>2170</v>
+        <v>2310</v>
       </c>
       <c r="E1004" s="6" t="s">
         <v>23</v>
@@ -66560,10 +66578,10 @@
         <v>21</v>
       </c>
       <c r="K1004" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1004" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="M1004" s="6">
         <v>0</v>
@@ -66575,10 +66593,10 @@
         <v>21</v>
       </c>
       <c r="P1004" s="5" t="s">
-        <v>2169</v>
+        <v>2309</v>
       </c>
       <c r="Q1004" s="6">
-        <v>200.07</v>
+        <v>0</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -66589,16 +66607,16 @@
     </row>
     <row r="1005" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1005" s="5" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1005" s="5" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D1005" s="5" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="E1005" s="6" t="s">
         <v>23</v>
@@ -66622,7 +66640,7 @@
         <v>23</v>
       </c>
       <c r="L1005" s="6">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="M1005" s="6">
         <v>0</v>
@@ -66634,10 +66652,10 @@
         <v>21</v>
       </c>
       <c r="P1005" s="5" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="Q1005" s="6">
-        <v>1479.87</v>
+        <v>589.70000000000005</v>
       </c>
       <c r="R1005" s="6" t="s">
         <v>23</v>
@@ -66648,16 +66666,16 @@
     </row>
     <row r="1006" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1006" s="5" t="s">
-        <v>2189</v>
+        <v>2168</v>
       </c>
       <c r="B1006" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>2190</v>
+        <v>2169</v>
       </c>
       <c r="D1006" s="5" t="s">
-        <v>2191</v>
+        <v>2170</v>
       </c>
       <c r="E1006" s="6" t="s">
         <v>23</v>
@@ -66678,10 +66696,10 @@
         <v>21</v>
       </c>
       <c r="K1006" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1006" s="6">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="M1006" s="6">
         <v>0</v>
@@ -66693,10 +66711,10 @@
         <v>21</v>
       </c>
       <c r="P1006" s="5" t="s">
-        <v>2190</v>
+        <v>2169</v>
       </c>
       <c r="Q1006" s="6">
-        <v>0</v>
+        <v>200.07</v>
       </c>
       <c r="R1006" s="6" t="s">
         <v>23</v>
@@ -66707,60 +66725,178 @@
     </row>
     <row r="1007" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1007" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1007" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D1007" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1007" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1007" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M1007" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1007" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1007" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1007" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q1007" s="6">
+        <v>1479.87</v>
+      </c>
+      <c r="R1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1007" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1008" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1008" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1008" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1008" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E1008" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1008" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1008" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1008" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1008" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1008" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1008" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1008" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1008" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1008" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1008" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1008" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q1008" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1008" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1008" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1009" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="B1007" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1007" s="5" t="s">
+      <c r="B1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1009" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="D1007" s="5" t="s">
+      <c r="D1009" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="E1007" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1007" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1007" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1007" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1007" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1007" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1007" s="6" t="s">
+      <c r="E1009" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1009" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1009" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1009" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L1007" s="6">
-        <v>0</v>
-      </c>
-      <c r="M1007" s="6">
-        <v>0</v>
-      </c>
-      <c r="N1007" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1007" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1007" s="5" t="s">
+      <c r="L1009" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1009" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1009" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1009" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="Q1007" s="6">
-        <v>0</v>
-      </c>
-      <c r="R1007" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1007" s="5" t="s">
+      <c r="Q1009" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1009" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1009" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15111" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15231" uniqueCount="2335">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -6937,9 +6937,6 @@
     <t>LUX 06 - DARK GREY</t>
   </si>
   <si>
-    <t>Lista Produto : 26-02-2020 09:06:11</t>
-  </si>
-  <si>
     <t>TC15183</t>
   </si>
   <si>
@@ -6956,6 +6953,81 @@
   </si>
   <si>
     <t>QUEENS BORDEAUX</t>
+  </si>
+  <si>
+    <t>TC15185</t>
+  </si>
+  <si>
+    <t>G4001</t>
+  </si>
+  <si>
+    <t>KANSAS 8801 (PRETO)</t>
+  </si>
+  <si>
+    <t>TC15186</t>
+  </si>
+  <si>
+    <t>G4040</t>
+  </si>
+  <si>
+    <t>KANSAS 8012 (CASTANHO)</t>
+  </si>
+  <si>
+    <t>TC15187</t>
+  </si>
+  <si>
+    <t>G4140</t>
+  </si>
+  <si>
+    <t>ATLANTA 06 (CASTANHO)</t>
+  </si>
+  <si>
+    <t>TC15188</t>
+  </si>
+  <si>
+    <t>G3330</t>
+  </si>
+  <si>
+    <t>DEXTER - 59 VERDE</t>
+  </si>
+  <si>
+    <t>TC16006</t>
+  </si>
+  <si>
+    <t>V0330</t>
+  </si>
+  <si>
+    <t>BLUVEL 78 (VERDE)</t>
+  </si>
+  <si>
+    <t>TC16007</t>
+  </si>
+  <si>
+    <t>V0230</t>
+  </si>
+  <si>
+    <t>QUARTZ - 501 (VERDE)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 05-03-2020 13:50:45</t>
+  </si>
+  <si>
+    <t>TC15189</t>
+  </si>
+  <si>
+    <t>G1914</t>
+  </si>
+  <si>
+    <t>MELVA 4380</t>
+  </si>
+  <si>
+    <t>TC15190</t>
+  </si>
+  <si>
+    <t>G4240</t>
+  </si>
+  <si>
+    <t>MONET 22 (BEGE)</t>
   </si>
 </sst>
 </file>
@@ -7122,8 +7194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1009" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1009"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1017" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1017"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7412,10 +7484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1009"/>
+  <dimension ref="A1:S1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F977" sqref="F977"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7466,7 +7538,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2304</v>
+        <v>2328</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -17862,7 +17934,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>627.7636</v>
+        <v>594.2636</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17921,7 +17993,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>559.69000000000005</v>
+        <v>501.69</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18393,7 +18465,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>3098.88</v>
+        <v>6634.14</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18747,7 +18819,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>1470.35</v>
+        <v>1133.1500000000001</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -19042,7 +19114,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>680.4</v>
+        <v>435.4</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19514,7 +19586,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>2645.54</v>
+        <v>2348.09</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19573,7 +19645,7 @@
         <v>434</v>
       </c>
       <c r="Q207" s="6">
-        <v>3665.61</v>
+        <v>3632.9692</v>
       </c>
       <c r="R207" s="6" t="s">
         <v>23</v>
@@ -19691,7 +19763,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>2459.04</v>
+        <v>2449.04</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20458,7 +20530,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>2728.5012000000002</v>
+        <v>1786.1612</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20517,7 +20589,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1894.99</v>
+        <v>1884</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -21520,7 +21592,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>3151.8389999999999</v>
+        <v>4503.7190000000001</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21697,7 +21769,7 @@
         <v>506</v>
       </c>
       <c r="Q243" s="6">
-        <v>608.91999999999996</v>
+        <v>607.63</v>
       </c>
       <c r="R243" s="6" t="s">
         <v>23</v>
@@ -21992,7 +22064,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>877.86</v>
+        <v>830</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22110,7 +22182,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>-2450.36</v>
+        <v>-205.46</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -22169,7 +22241,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>587.05999999999995</v>
+        <v>1882.5</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22995,7 +23067,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>1330.63</v>
+        <v>886.48</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23054,7 +23126,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>2473.9299999999998</v>
+        <v>1458.93</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23821,7 +23893,7 @@
         <v>579</v>
       </c>
       <c r="Q279" s="6">
-        <v>107.4618</v>
+        <v>106.2118</v>
       </c>
       <c r="R279" s="6" t="s">
         <v>23</v>
@@ -23880,7 +23952,7 @@
         <v>581</v>
       </c>
       <c r="Q280" s="6">
-        <v>554.98</v>
+        <v>611.6</v>
       </c>
       <c r="R280" s="6" t="s">
         <v>23</v>
@@ -24175,7 +24247,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>843.9</v>
+        <v>843.13</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24234,7 +24306,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1028.98</v>
+        <v>1020.88</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -24293,7 +24365,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2381.7049999999999</v>
+        <v>1972.635</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24352,7 +24424,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>1814.77</v>
+        <v>1656.81</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24411,7 +24483,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>1252.1400000000001</v>
+        <v>1239.43</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24470,7 +24542,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3566.68</v>
+        <v>3463.87</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24529,7 +24601,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>2595.569</v>
+        <v>2728.34</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24824,7 +24896,7 @@
         <v>613</v>
       </c>
       <c r="Q296" s="6">
-        <v>1244.93</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="R296" s="6" t="s">
         <v>23</v>
@@ -24883,7 +24955,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3419.41</v>
+        <v>3404.55</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25001,7 +25073,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>908.45</v>
+        <v>183.19</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -25060,7 +25132,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1752.895</v>
+        <v>2381.0549999999998</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25119,7 +25191,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>1171.18</v>
+        <v>1779.36</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25178,7 +25250,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>1418.87</v>
+        <v>985.87</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -25237,7 +25309,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>42264.657399999996</v>
+        <v>24381.207399999999</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25296,7 +25368,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>35271.891000000003</v>
+        <v>36568.580999999998</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25399,7 +25471,7 @@
         <v>23</v>
       </c>
       <c r="L306" s="6">
-        <v>2.29</v>
+        <v>2.75</v>
       </c>
       <c r="M306" s="6">
         <v>0</v>
@@ -25414,7 +25486,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>24.585000000000001</v>
+        <v>506.65499999999997</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25650,7 +25722,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3672.36</v>
+        <v>3610.22</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25768,7 +25840,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>2241.98</v>
+        <v>1654.65</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25827,7 +25899,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>178.88</v>
+        <v>98.38</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -25886,7 +25958,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2268.33</v>
+        <v>2226.64</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26004,7 +26076,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>254.19</v>
+        <v>247.24</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -26063,7 +26135,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8737.5650000000005</v>
+        <v>8724.0550000000003</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26122,7 +26194,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>3547.14</v>
+        <v>3340.16</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26181,7 +26253,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>7132.64</v>
+        <v>8484.6</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26240,7 +26312,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>2879.79</v>
+        <v>2613.27</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26299,7 +26371,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>6430.21</v>
+        <v>5088.82</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26358,7 +26430,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>2011.1004</v>
+        <v>1972.9304</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26417,7 +26489,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1404.345</v>
+        <v>1876.5150000000001</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26476,7 +26548,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2708.52</v>
+        <v>2638.05</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26535,7 +26607,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3878.4025999999999</v>
+        <v>3849.2125999999998</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26594,7 +26666,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1880.9</v>
+        <v>1772.309</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26712,7 +26784,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3359.681</v>
+        <v>3242.0810000000001</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26771,7 +26843,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2052.11</v>
+        <v>2038.53</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26830,7 +26902,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>716.53</v>
+        <v>715.82</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -26889,7 +26961,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>1125.4749999999999</v>
+        <v>2540.0450000000001</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -26948,7 +27020,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2995</v>
+        <v>2990.77</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27007,7 +27079,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1910.09</v>
+        <v>1903.2</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27125,7 +27197,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1315.7950000000001</v>
+        <v>1313.1949999999999</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27184,7 +27256,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2289.87</v>
+        <v>2236.31</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27420,7 +27492,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>158.35499999999999</v>
+        <v>155.84</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27538,7 +27610,7 @@
         <v>718</v>
       </c>
       <c r="Q342" s="6">
-        <v>2669.8</v>
+        <v>2664.93</v>
       </c>
       <c r="R342" s="6" t="s">
         <v>23</v>
@@ -27715,7 +27787,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>1951.7</v>
+        <v>867.82</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27774,7 +27846,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>197.22</v>
+        <v>153.5</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27833,7 +27905,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>177.6</v>
+        <v>164.96</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -27892,7 +27964,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>401.49</v>
+        <v>334.44</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -27936,7 +28008,7 @@
         <v>23</v>
       </c>
       <c r="L349" s="6">
-        <v>3.75</v>
+        <v>3.02</v>
       </c>
       <c r="M349" s="6">
         <v>0</v>
@@ -27951,7 +28023,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1162.08</v>
+        <v>643.53</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28010,7 +28082,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>4857.5550000000003</v>
+        <v>4799.0050000000001</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28069,7 +28141,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>28336.23</v>
+        <v>24788.5</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28128,7 +28200,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3544.45</v>
+        <v>3537.05</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28246,7 +28318,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>166.43</v>
+        <v>165.13</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28305,7 +28377,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1458.98</v>
+        <v>1423.43</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28541,7 +28613,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>921.47</v>
+        <v>909.97</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28600,7 +28672,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1531.57</v>
+        <v>1517.35</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -29190,7 +29262,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>155.9</v>
+        <v>154.4</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -35385,7 +35457,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>207.785</v>
+        <v>181.79499999999999</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35444,7 +35516,7 @@
         <v>1006</v>
       </c>
       <c r="Q476" s="6">
-        <v>130.47</v>
+        <v>-68.290000000000006</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35503,7 +35575,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>288.84500000000003</v>
+        <v>275.42750000000001</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35562,7 +35634,7 @@
         <v>1010</v>
       </c>
       <c r="Q478" s="6">
-        <v>1193.33</v>
+        <v>401.93</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -35606,7 +35678,7 @@
         <v>23</v>
       </c>
       <c r="L479" s="6">
-        <v>4.22</v>
+        <v>3.99</v>
       </c>
       <c r="M479" s="6">
         <v>0</v>
@@ -35621,7 +35693,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>149.13999999999999</v>
+        <v>709.84</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -51197,7 +51269,7 @@
         <v>1546</v>
       </c>
       <c r="Q743" s="6">
-        <v>445.72</v>
+        <v>422.92</v>
       </c>
       <c r="R743" s="6" t="s">
         <v>23</v>
@@ -51492,7 +51564,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>444.22</v>
+        <v>391.61</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -53970,7 +54042,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>7418.4906799999999</v>
+        <v>12082.10204</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54088,7 +54160,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>933.49</v>
+        <v>2217.83</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -54206,7 +54278,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>2521.585</v>
+        <v>1817.7550000000001</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54265,7 +54337,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>18926.71</v>
+        <v>21715.87</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54560,7 +54632,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>6565.2</v>
+        <v>8729.5732800000005</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54678,7 +54750,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>636.15</v>
+        <v>523.49159999999995</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54737,7 +54809,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>12195.367</v>
+        <v>7169.2556000000004</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54796,7 +54868,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>19350.52</v>
+        <v>17726.02</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54855,7 +54927,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>33533.708299999998</v>
+        <v>30800.445</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54914,7 +54986,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>1289.9000000000001</v>
+        <v>442.11919999999998</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -54973,7 +55045,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>5187.8100000000004</v>
+        <v>6185.01</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55917,7 +55989,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>3073.08</v>
+        <v>4427.08</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56389,7 +56461,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>13903.52</v>
+        <v>8321.66</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56448,7 +56520,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>9023.4699999999993</v>
+        <v>4921.47</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56625,7 +56697,7 @@
         <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>2180.38</v>
+        <v>223.92</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56979,7 +57051,7 @@
         <v>747</v>
       </c>
       <c r="Q841" s="6">
-        <v>663.49</v>
+        <v>627.48</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -57097,7 +57169,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>278.67</v>
+        <v>194.01</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57274,7 +57346,7 @@
         <v>1809</v>
       </c>
       <c r="Q846" s="6">
-        <v>189.3</v>
+        <v>179.58</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -57495,7 +57567,7 @@
         <v>23</v>
       </c>
       <c r="L850" s="6">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="M850" s="6">
         <v>0</v>
@@ -57510,7 +57582,7 @@
         <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>0</v>
+        <v>22809.1</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -58513,7 +58585,7 @@
         <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>11598.33</v>
+        <v>11689.17</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58631,7 +58703,7 @@
         <v>1880</v>
       </c>
       <c r="Q869" s="6">
-        <v>175.9</v>
+        <v>166.08</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58808,7 +58880,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>185.69</v>
+        <v>161.38999999999999</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58867,7 +58939,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>276.83</v>
+        <v>228.23</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -58926,7 +58998,7 @@
         <v>1895</v>
       </c>
       <c r="Q874" s="6">
-        <v>664.17</v>
+        <v>627.09</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -58985,7 +59057,7 @@
         <v>1898</v>
       </c>
       <c r="Q875" s="6">
-        <v>101.19</v>
+        <v>79.33</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -59870,7 +59942,7 @@
         <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>246.05500000000001</v>
+        <v>75.084999999999994</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -61684,7 +61756,7 @@
         <v>23</v>
       </c>
       <c r="L921" s="6">
-        <v>1.1599999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="M921" s="6">
         <v>0</v>
@@ -61699,7 +61771,7 @@
         <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>2256.6799999999998</v>
+        <v>2650.92</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61758,7 +61830,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>14639.15</v>
+        <v>12258.17</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61876,7 +61948,7 @@
         <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>6058.6030000000001</v>
+        <v>5990.2730000000001</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -61920,7 +61992,7 @@
         <v>23</v>
       </c>
       <c r="L925" s="6">
-        <v>2.48</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M925" s="6">
         <v>0</v>
@@ -61935,7 +62007,7 @@
         <v>2050</v>
       </c>
       <c r="Q925" s="6">
-        <v>489</v>
+        <v>742</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -61994,7 +62066,7 @@
         <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>1492.02</v>
+        <v>2782.52</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62053,7 +62125,7 @@
         <v>2056</v>
       </c>
       <c r="Q927" s="6">
-        <v>2316</v>
+        <v>3099.21</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62112,7 +62184,7 @@
         <v>2059</v>
       </c>
       <c r="Q928" s="6">
-        <v>318.2</v>
+        <v>308.63</v>
       </c>
       <c r="R928" s="6" t="s">
         <v>23</v>
@@ -62171,7 +62243,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>444.17</v>
+        <v>540.03</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62230,7 +62302,7 @@
         <v>2065</v>
       </c>
       <c r="Q930" s="6">
-        <v>2208.09</v>
+        <v>1798.69</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62289,7 +62361,7 @@
         <v>2068</v>
       </c>
       <c r="Q931" s="6">
-        <v>490</v>
+        <v>758.14</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -62584,7 +62656,7 @@
         <v>2083</v>
       </c>
       <c r="Q936" s="6">
-        <v>3917.6</v>
+        <v>3536.36</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62761,7 +62833,7 @@
         <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>3749.72</v>
+        <v>3554.11</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62820,7 +62892,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>1734.42</v>
+        <v>1613.42</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62879,7 +62951,7 @@
         <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>220.05</v>
+        <v>135.36000000000001</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -62938,7 +63010,7 @@
         <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>670.755</v>
+        <v>474.00236000000001</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -63056,7 +63128,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2491.12</v>
+        <v>2185.92</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63292,7 +63364,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>4137.7</v>
+        <v>2675.9090000000001</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -63351,7 +63423,7 @@
         <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>106.97</v>
+        <v>500.27</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63410,7 +63482,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>392.505</v>
+        <v>88.825000000000003</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63469,7 +63541,7 @@
         <v>2128</v>
       </c>
       <c r="Q951" s="6">
-        <v>98.991299999999995</v>
+        <v>614.59130000000005</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63528,7 +63600,7 @@
         <v>2131</v>
       </c>
       <c r="Q952" s="6">
-        <v>201.44</v>
+        <v>353.64</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63587,7 +63659,7 @@
         <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>292.05</v>
+        <v>191.45</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63646,7 +63718,7 @@
         <v>2137</v>
       </c>
       <c r="Q954" s="6">
-        <v>100.5</v>
+        <v>506.7</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63705,7 +63777,7 @@
         <v>2140</v>
       </c>
       <c r="Q955" s="6">
-        <v>141.1</v>
+        <v>462.3</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -63882,7 +63954,7 @@
         <v>2149</v>
       </c>
       <c r="Q958" s="6">
-        <v>3748.5803999999998</v>
+        <v>5775.0803999999998</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -63941,7 +64013,7 @@
         <v>2151</v>
       </c>
       <c r="Q959" s="6">
-        <v>3535.2</v>
+        <v>2456.44</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -64000,7 +64072,7 @@
         <v>2154</v>
       </c>
       <c r="Q960" s="6">
-        <v>703.9</v>
+        <v>909.28</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64059,7 +64131,7 @@
         <v>2157</v>
       </c>
       <c r="Q961" s="6">
-        <v>3710.45</v>
+        <v>3446.65</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64395,10 +64467,10 @@
         <v>21</v>
       </c>
       <c r="K967" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L967" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M967" s="6">
         <v>0</v>
@@ -64413,7 +64485,7 @@
         <v>2196</v>
       </c>
       <c r="Q967" s="6">
-        <v>0</v>
+        <v>960.1</v>
       </c>
       <c r="R967" s="6" t="s">
         <v>23</v>
@@ -65062,7 +65134,7 @@
         <v>2228</v>
       </c>
       <c r="Q978" s="6">
-        <v>583.1</v>
+        <v>3388.22</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -65162,10 +65234,10 @@
         <v>21</v>
       </c>
       <c r="K980" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L980" s="6">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M980" s="6">
         <v>0</v>
@@ -65180,7 +65252,7 @@
         <v>2233</v>
       </c>
       <c r="Q980" s="6">
-        <v>0</v>
+        <v>7950.7</v>
       </c>
       <c r="R980" s="6" t="s">
         <v>23</v>
@@ -65221,10 +65293,10 @@
         <v>21</v>
       </c>
       <c r="K981" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L981" s="6">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M981" s="6">
         <v>0</v>
@@ -65239,7 +65311,7 @@
         <v>2236</v>
       </c>
       <c r="Q981" s="6">
-        <v>0</v>
+        <v>6942.5</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65280,10 +65352,10 @@
         <v>21</v>
       </c>
       <c r="K982" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L982" s="6">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M982" s="6">
         <v>0</v>
@@ -65298,7 +65370,7 @@
         <v>2239</v>
       </c>
       <c r="Q982" s="6">
-        <v>0</v>
+        <v>717.2</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65339,10 +65411,10 @@
         <v>21</v>
       </c>
       <c r="K983" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L983" s="6">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M983" s="6">
         <v>0</v>
@@ -65357,7 +65429,7 @@
         <v>2242</v>
       </c>
       <c r="Q983" s="6">
-        <v>0</v>
+        <v>1691.2</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65398,10 +65470,10 @@
         <v>21</v>
       </c>
       <c r="K984" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L984" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M984" s="6">
         <v>0</v>
@@ -65416,7 +65488,7 @@
         <v>2245</v>
       </c>
       <c r="Q984" s="6">
-        <v>0</v>
+        <v>254.2</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65457,10 +65529,10 @@
         <v>21</v>
       </c>
       <c r="K985" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L985" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M985" s="6">
         <v>0</v>
@@ -65475,7 +65547,7 @@
         <v>2248</v>
       </c>
       <c r="Q985" s="6">
-        <v>0</v>
+        <v>466.1</v>
       </c>
       <c r="R985" s="6" t="s">
         <v>23</v>
@@ -65519,7 +65591,7 @@
         <v>23</v>
       </c>
       <c r="L986" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M986" s="6">
         <v>0</v>
@@ -65593,7 +65665,7 @@
         <v>2254</v>
       </c>
       <c r="Q987" s="6">
-        <v>43.19</v>
+        <v>343.19</v>
       </c>
       <c r="R987" s="6" t="s">
         <v>23</v>
@@ -65752,10 +65824,10 @@
         <v>21</v>
       </c>
       <c r="K990" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L990" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M990" s="6">
         <v>0</v>
@@ -65770,7 +65842,7 @@
         <v>2263</v>
       </c>
       <c r="Q990" s="6">
-        <v>0</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="R990" s="6" t="s">
         <v>23</v>
@@ -65811,10 +65883,10 @@
         <v>21</v>
       </c>
       <c r="K991" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L991" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M991" s="6">
         <v>0</v>
@@ -65829,7 +65901,7 @@
         <v>2266</v>
       </c>
       <c r="Q991" s="6">
-        <v>0</v>
+        <v>151.4</v>
       </c>
       <c r="R991" s="6" t="s">
         <v>23</v>
@@ -65873,7 +65945,7 @@
         <v>23</v>
       </c>
       <c r="L992" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M992" s="6">
         <v>0</v>
@@ -65888,7 +65960,7 @@
         <v>2269</v>
       </c>
       <c r="Q992" s="6">
-        <v>133.80000000000001</v>
+        <v>138.04</v>
       </c>
       <c r="R992" s="6" t="s">
         <v>23</v>
@@ -65988,10 +66060,10 @@
         <v>21</v>
       </c>
       <c r="K994" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L994" s="6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M994" s="6">
         <v>0</v>
@@ -66006,7 +66078,7 @@
         <v>2278</v>
       </c>
       <c r="Q994" s="6">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66065,7 +66137,7 @@
         <v>2281</v>
       </c>
       <c r="Q995" s="6">
-        <v>2257</v>
+        <v>2238.5</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66124,7 +66196,7 @@
         <v>2284</v>
       </c>
       <c r="Q996" s="6">
-        <v>2754</v>
+        <v>15849.15</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66183,7 +66255,7 @@
         <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>19297.64</v>
+        <v>36056.769999999997</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66224,7 +66296,7 @@
         <v>21</v>
       </c>
       <c r="K998" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L998" s="6">
         <v>0</v>
@@ -66242,7 +66314,7 @@
         <v>2290</v>
       </c>
       <c r="Q998" s="6">
-        <v>0</v>
+        <v>-191.8</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66301,7 +66373,7 @@
         <v>2293</v>
       </c>
       <c r="Q999" s="6">
-        <v>1056.5999999999999</v>
+        <v>548.13</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66360,7 +66432,7 @@
         <v>2296</v>
       </c>
       <c r="Q1000" s="6">
-        <v>646.5</v>
+        <v>528.5</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66460,7 +66532,7 @@
         <v>21</v>
       </c>
       <c r="K1002" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1002" s="6">
         <v>0</v>
@@ -66478,7 +66550,7 @@
         <v>2302</v>
       </c>
       <c r="Q1002" s="6">
-        <v>0</v>
+        <v>315.5</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66489,16 +66561,16 @@
     </row>
     <row r="1003" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1003" s="5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B1003" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1003" s="5" t="s">
         <v>2305</v>
       </c>
-      <c r="B1003" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1003" s="5" t="s">
+      <c r="D1003" s="5" t="s">
         <v>2306</v>
-      </c>
-      <c r="D1003" s="5" t="s">
-        <v>2307</v>
       </c>
       <c r="E1003" s="6" t="s">
         <v>23</v>
@@ -66534,7 +66606,7 @@
         <v>21</v>
       </c>
       <c r="P1003" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="Q1003" s="6">
         <v>0</v>
@@ -66548,16 +66620,16 @@
     </row>
     <row r="1004" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1004" s="5" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B1004" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1004" s="5" t="s">
         <v>2308</v>
       </c>
-      <c r="B1004" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1004" s="5" t="s">
+      <c r="D1004" s="5" t="s">
         <v>2309</v>
-      </c>
-      <c r="D1004" s="5" t="s">
-        <v>2310</v>
       </c>
       <c r="E1004" s="6" t="s">
         <v>23</v>
@@ -66593,7 +66665,7 @@
         <v>21</v>
       </c>
       <c r="P1004" s="5" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="Q1004" s="6">
         <v>0</v>
@@ -66607,16 +66679,16 @@
     </row>
     <row r="1005" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1005" s="5" t="s">
-        <v>2165</v>
+        <v>2310</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1005" s="5" t="s">
-        <v>2166</v>
+        <v>2311</v>
       </c>
       <c r="D1005" s="5" t="s">
-        <v>2167</v>
+        <v>2312</v>
       </c>
       <c r="E1005" s="6" t="s">
         <v>23</v>
@@ -66637,10 +66709,10 @@
         <v>21</v>
       </c>
       <c r="K1005" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1005" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1005" s="6">
         <v>0</v>
@@ -66652,10 +66724,10 @@
         <v>21</v>
       </c>
       <c r="P1005" s="5" t="s">
-        <v>2166</v>
+        <v>2311</v>
       </c>
       <c r="Q1005" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R1005" s="6" t="s">
         <v>23</v>
@@ -66666,16 +66738,16 @@
     </row>
     <row r="1006" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1006" s="5" t="s">
-        <v>2168</v>
+        <v>2313</v>
       </c>
       <c r="B1006" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>2169</v>
+        <v>2314</v>
       </c>
       <c r="D1006" s="5" t="s">
-        <v>2170</v>
+        <v>2315</v>
       </c>
       <c r="E1006" s="6" t="s">
         <v>23</v>
@@ -66696,10 +66768,10 @@
         <v>21</v>
       </c>
       <c r="K1006" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1006" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="M1006" s="6">
         <v>0</v>
@@ -66711,10 +66783,10 @@
         <v>21</v>
       </c>
       <c r="P1006" s="5" t="s">
-        <v>2169</v>
+        <v>2314</v>
       </c>
       <c r="Q1006" s="6">
-        <v>200.07</v>
+        <v>0</v>
       </c>
       <c r="R1006" s="6" t="s">
         <v>23</v>
@@ -66725,16 +66797,16 @@
     </row>
     <row r="1007" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1007" s="5" t="s">
-        <v>2171</v>
+        <v>2316</v>
       </c>
       <c r="B1007" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1007" s="5" t="s">
-        <v>2172</v>
+        <v>2317</v>
       </c>
       <c r="D1007" s="5" t="s">
-        <v>2173</v>
+        <v>2318</v>
       </c>
       <c r="E1007" s="6" t="s">
         <v>23</v>
@@ -66755,10 +66827,10 @@
         <v>21</v>
       </c>
       <c r="K1007" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1007" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M1007" s="6">
         <v>0</v>
@@ -66770,10 +66842,10 @@
         <v>21</v>
       </c>
       <c r="P1007" s="5" t="s">
-        <v>2172</v>
+        <v>2317</v>
       </c>
       <c r="Q1007" s="6">
-        <v>1479.87</v>
+        <v>0</v>
       </c>
       <c r="R1007" s="6" t="s">
         <v>23</v>
@@ -66784,16 +66856,16 @@
     </row>
     <row r="1008" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1008" s="5" t="s">
-        <v>2189</v>
+        <v>2319</v>
       </c>
       <c r="B1008" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>2190</v>
+        <v>2320</v>
       </c>
       <c r="D1008" s="5" t="s">
-        <v>2191</v>
+        <v>2321</v>
       </c>
       <c r="E1008" s="6" t="s">
         <v>23</v>
@@ -66829,7 +66901,7 @@
         <v>21</v>
       </c>
       <c r="P1008" s="5" t="s">
-        <v>2190</v>
+        <v>2320</v>
       </c>
       <c r="Q1008" s="6">
         <v>0</v>
@@ -66843,16 +66915,16 @@
     </row>
     <row r="1009" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1009" s="5" t="s">
-        <v>2192</v>
+        <v>2329</v>
       </c>
       <c r="B1009" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>2193</v>
+        <v>2330</v>
       </c>
       <c r="D1009" s="5" t="s">
-        <v>2194</v>
+        <v>2331</v>
       </c>
       <c r="E1009" s="6" t="s">
         <v>23</v>
@@ -66888,15 +66960,487 @@
         <v>21</v>
       </c>
       <c r="P1009" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="Q1009" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1009" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1009" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1010" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1010" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1010" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D1010" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E1010" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1010" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1010" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1010" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1010" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1010" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1010" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1010" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1010" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1010" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1010" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1010" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="Q1010" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1010" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1010" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1011" s="5" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1011" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1011" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1011" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E1011" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1011" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1011" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1011" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1011" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1011" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1011" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1011" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M1011" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1011" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1011" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1011" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="Q1011" s="6">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="R1011" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1011" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1012" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1012" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1012" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1012" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1012" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1012" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1012" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1012" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="M1012" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1012" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1012" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Q1012" s="6">
+        <v>200.07</v>
+      </c>
+      <c r="R1012" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1012" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1013" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1013" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1013" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D1013" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1013" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1013" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1013" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1013" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1013" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1013" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1013" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1013" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M1013" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1013" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1013" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1013" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q1013" s="6">
+        <v>1106.52</v>
+      </c>
+      <c r="R1013" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1013" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1014" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1014" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1014" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E1014" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1014" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1014" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1014" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1014" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1014" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1014" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1014" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q1014" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1014" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1014" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1015" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1015" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1015" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="Q1009" s="6">
-        <v>0</v>
-      </c>
-      <c r="R1009" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1009" s="5" t="s">
+      <c r="D1015" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E1015" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1015" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1015" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1015" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1015" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1015" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1015" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1015" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1015" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1015" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1015" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1015" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q1015" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1015" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1015" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1016" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1016" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1016" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1016" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E1016" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1016" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1016" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1016" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1016" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1016" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1016" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1016" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1016" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1016" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1016" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1016" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q1016" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R1016" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1016" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1017" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1017" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1017" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1017" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1017" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1017" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1017" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1017" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1017" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1017" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1017" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1017" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1017" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1017" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1017" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1017" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1017" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1017" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1017" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15231" uniqueCount="2335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15336" uniqueCount="2356">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7009,9 +7009,6 @@
     <t>QUARTZ - 501 (VERDE)</t>
   </si>
   <si>
-    <t>Lista Produto : 05-03-2020 13:50:45</t>
-  </si>
-  <si>
     <t>TC15189</t>
   </si>
   <si>
@@ -7028,6 +7025,72 @@
   </si>
   <si>
     <t>MONET 22 (BEGE)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 25-05-2020 09:25:14</t>
+  </si>
+  <si>
+    <t>TC15191</t>
+  </si>
+  <si>
+    <t>G4310</t>
+  </si>
+  <si>
+    <t>SIENA 809 (LIGHT GREY)</t>
+  </si>
+  <si>
+    <t>TC15192</t>
+  </si>
+  <si>
+    <t>G4210</t>
+  </si>
+  <si>
+    <t>MONET 90 (CINZA)</t>
+  </si>
+  <si>
+    <t>TC15193</t>
+  </si>
+  <si>
+    <t>G4410</t>
+  </si>
+  <si>
+    <t>TOPAZ 804 C/TRATAMENTO (CINZENTO)</t>
+  </si>
+  <si>
+    <t>TC15194</t>
+  </si>
+  <si>
+    <t>G3861</t>
+  </si>
+  <si>
+    <t>QUEENS STAR MOSTAZA</t>
+  </si>
+  <si>
+    <t>TC15195</t>
+  </si>
+  <si>
+    <t>G2261</t>
+  </si>
+  <si>
+    <t>QUEENS MOSTAZA</t>
+  </si>
+  <si>
+    <t>TC15196</t>
+  </si>
+  <si>
+    <t>G4211</t>
+  </si>
+  <si>
+    <t>MONET 95</t>
+  </si>
+  <si>
+    <t>TC15197</t>
+  </si>
+  <si>
+    <t>G4230</t>
+  </si>
+  <si>
+    <t>MONET 31 (VERDE)</t>
   </si>
 </sst>
 </file>
@@ -7194,8 +7257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1017" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1017"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1024" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1024"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7484,7 +7547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1017"/>
+  <dimension ref="A1:S1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -7495,7 +7558,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -7538,7 +7601,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7668,7 +7731,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="6">
-        <v>8782</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>23</v>
@@ -7727,7 +7790,7 @@
         <v>26</v>
       </c>
       <c r="Q5" s="6">
-        <v>8559</v>
+        <v>0</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>23</v>
@@ -7786,7 +7849,7 @@
         <v>28</v>
       </c>
       <c r="Q6" s="6">
-        <v>6102</v>
+        <v>0</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>23</v>
@@ -7845,7 +7908,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>23</v>
@@ -10677,7 +10740,7 @@
         <v>128</v>
       </c>
       <c r="Q55" s="6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R55" s="6" t="s">
         <v>23</v>
@@ -10913,7 +10976,7 @@
         <v>136</v>
       </c>
       <c r="Q59" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R59" s="6" t="s">
         <v>23</v>
@@ -14140,7 +14203,7 @@
         <v>21</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L114" s="6">
         <v>5.42</v>
@@ -14158,7 +14221,7 @@
         <v>246</v>
       </c>
       <c r="Q114" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R114" s="6" t="s">
         <v>23</v>
@@ -15515,7 +15578,7 @@
         <v>292</v>
       </c>
       <c r="Q137" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R137" s="6" t="s">
         <v>23</v>
@@ -15633,7 +15696,7 @@
         <v>296</v>
       </c>
       <c r="Q139" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R139" s="6" t="s">
         <v>23</v>
@@ -16282,7 +16345,7 @@
         <v>319</v>
       </c>
       <c r="Q150" s="6">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R150" s="6" t="s">
         <v>23</v>
@@ -17285,7 +17348,7 @@
         <v>353</v>
       </c>
       <c r="Q167" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="R167" s="6" t="s">
         <v>23</v>
@@ -17344,7 +17407,7 @@
         <v>356</v>
       </c>
       <c r="Q168" s="6">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="R168" s="6" t="s">
         <v>23</v>
@@ -17403,7 +17466,7 @@
         <v>358</v>
       </c>
       <c r="Q169" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R169" s="6" t="s">
         <v>23</v>
@@ -17462,7 +17525,7 @@
         <v>360</v>
       </c>
       <c r="Q170" s="6">
-        <v>682</v>
+        <v>642</v>
       </c>
       <c r="R170" s="6" t="s">
         <v>23</v>
@@ -17521,7 +17584,7 @@
         <v>362</v>
       </c>
       <c r="Q171" s="6">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="R171" s="6" t="s">
         <v>23</v>
@@ -17698,7 +17761,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>3173.8</v>
+        <v>2289</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -17757,7 +17820,7 @@
         <v>370</v>
       </c>
       <c r="Q175" s="6">
-        <v>1337</v>
+        <v>1237</v>
       </c>
       <c r="R175" s="6" t="s">
         <v>23</v>
@@ -17934,7 +17997,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>594.2636</v>
+        <v>555</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -17993,7 +18056,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>501.69</v>
+        <v>505</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18465,7 +18528,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>6634.14</v>
+        <v>9134.6</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18819,7 +18882,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>1133.1500000000001</v>
+        <v>995</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -19114,7 +19177,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>435.4</v>
+        <v>65</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19409,7 +19472,7 @@
         <v>426</v>
       </c>
       <c r="Q203" s="6">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="R203" s="6" t="s">
         <v>23</v>
@@ -19527,7 +19590,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>90.86</v>
+        <v>15</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19586,7 +19649,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>2348.09</v>
+        <v>2151.5</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19645,7 +19708,7 @@
         <v>434</v>
       </c>
       <c r="Q207" s="6">
-        <v>3632.9692</v>
+        <v>3597.6</v>
       </c>
       <c r="R207" s="6" t="s">
         <v>23</v>
@@ -19704,7 +19767,7 @@
         <v>436</v>
       </c>
       <c r="Q208" s="6">
-        <v>1001.24</v>
+        <v>944.5</v>
       </c>
       <c r="R208" s="6" t="s">
         <v>23</v>
@@ -19763,7 +19826,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>2449.04</v>
+        <v>2358.36</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -19822,7 +19885,7 @@
         <v>440</v>
       </c>
       <c r="Q210" s="6">
-        <v>1230</v>
+        <v>1092.5</v>
       </c>
       <c r="R210" s="6" t="s">
         <v>23</v>
@@ -19881,7 +19944,7 @@
         <v>442</v>
       </c>
       <c r="Q211" s="6">
-        <v>4205</v>
+        <v>2220</v>
       </c>
       <c r="R211" s="6" t="s">
         <v>23</v>
@@ -20412,7 +20475,7 @@
         <v>460</v>
       </c>
       <c r="Q220" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R220" s="6" t="s">
         <v>23</v>
@@ -20530,7 +20593,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>1786.1612</v>
+        <v>2854</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20589,7 +20652,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1884</v>
+        <v>1419.41</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20825,7 +20888,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>6918.28</v>
+        <v>4315.3999999999996</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20884,7 +20947,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>5523.73</v>
+        <v>4462.5</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21002,7 +21065,7 @@
         <v>480</v>
       </c>
       <c r="Q230" s="6">
-        <v>3542.25</v>
+        <v>3559.5</v>
       </c>
       <c r="R230" s="6" t="s">
         <v>23</v>
@@ -21061,7 +21124,7 @@
         <v>482</v>
       </c>
       <c r="Q231" s="6">
-        <v>247.65</v>
+        <v>261.5</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>23</v>
@@ -21592,7 +21655,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>4503.7190000000001</v>
+        <v>4746.7</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21651,7 +21714,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>2590.5500000000002</v>
+        <v>3217.68</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21769,7 +21832,7 @@
         <v>506</v>
       </c>
       <c r="Q243" s="6">
-        <v>607.63</v>
+        <v>614.20000000000005</v>
       </c>
       <c r="R243" s="6" t="s">
         <v>23</v>
@@ -21946,7 +22009,7 @@
         <v>512</v>
       </c>
       <c r="Q246" s="6">
-        <v>1276</v>
+        <v>1217.4000000000001</v>
       </c>
       <c r="R246" s="6" t="s">
         <v>23</v>
@@ -22005,7 +22068,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>202.59</v>
+        <v>290</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -22064,7 +22127,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22123,7 +22186,7 @@
         <v>518</v>
       </c>
       <c r="Q249" s="6">
-        <v>6062.6</v>
+        <v>6104.7</v>
       </c>
       <c r="R249" s="6" t="s">
         <v>23</v>
@@ -22182,7 +22245,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>-205.46</v>
+        <v>574</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -22241,7 +22304,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>1882.5</v>
+        <v>2286.75</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22300,7 +22363,7 @@
         <v>524</v>
       </c>
       <c r="Q252" s="6">
-        <v>3182.7</v>
+        <v>3087.7</v>
       </c>
       <c r="R252" s="6" t="s">
         <v>23</v>
@@ -22477,7 +22540,7 @@
         <v>530</v>
       </c>
       <c r="Q255" s="6">
-        <v>14443.7</v>
+        <v>13630.6</v>
       </c>
       <c r="R255" s="6" t="s">
         <v>23</v>
@@ -22595,7 +22658,7 @@
         <v>534</v>
       </c>
       <c r="Q257" s="6">
-        <v>2176.4</v>
+        <v>5604.8</v>
       </c>
       <c r="R257" s="6" t="s">
         <v>23</v>
@@ -22713,7 +22776,7 @@
         <v>538</v>
       </c>
       <c r="Q259" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R259" s="6" t="s">
         <v>23</v>
@@ -22831,7 +22894,7 @@
         <v>542</v>
       </c>
       <c r="Q261" s="6">
-        <v>4199</v>
+        <v>4159</v>
       </c>
       <c r="R261" s="6" t="s">
         <v>23</v>
@@ -23008,7 +23071,7 @@
         <v>548</v>
       </c>
       <c r="Q264" s="6">
-        <v>2461</v>
+        <v>2370</v>
       </c>
       <c r="R264" s="6" t="s">
         <v>23</v>
@@ -23067,7 +23130,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>886.48</v>
+        <v>607.1</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23126,7 +23189,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>1458.93</v>
+        <v>1080.0999999999999</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23244,7 +23307,7 @@
         <v>556</v>
       </c>
       <c r="Q268" s="6">
-        <v>1384.43</v>
+        <v>1731.6</v>
       </c>
       <c r="R268" s="6" t="s">
         <v>23</v>
@@ -23362,7 +23425,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>480</v>
+        <v>459.2</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -23539,7 +23602,7 @@
         <v>567</v>
       </c>
       <c r="Q273" s="6">
-        <v>2622.9</v>
+        <v>2584.9</v>
       </c>
       <c r="R273" s="6" t="s">
         <v>23</v>
@@ -23598,7 +23661,7 @@
         <v>569</v>
       </c>
       <c r="Q274" s="6">
-        <v>3969.2</v>
+        <v>3969</v>
       </c>
       <c r="R274" s="6" t="s">
         <v>23</v>
@@ -23775,7 +23838,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1830.38</v>
+        <v>1808.6</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -23893,7 +23956,7 @@
         <v>579</v>
       </c>
       <c r="Q279" s="6">
-        <v>106.2118</v>
+        <v>0</v>
       </c>
       <c r="R279" s="6" t="s">
         <v>23</v>
@@ -23952,7 +24015,7 @@
         <v>581</v>
       </c>
       <c r="Q280" s="6">
-        <v>611.6</v>
+        <v>609.6</v>
       </c>
       <c r="R280" s="6" t="s">
         <v>23</v>
@@ -24011,7 +24074,7 @@
         <v>583</v>
       </c>
       <c r="Q281" s="6">
-        <v>472.1</v>
+        <v>363.5</v>
       </c>
       <c r="R281" s="6" t="s">
         <v>23</v>
@@ -24188,7 +24251,7 @@
         <v>589</v>
       </c>
       <c r="Q284" s="6">
-        <v>433.7</v>
+        <v>445</v>
       </c>
       <c r="R284" s="6" t="s">
         <v>23</v>
@@ -24247,7 +24310,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>843.13</v>
+        <v>964.5</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24306,7 +24369,7 @@
         <v>593</v>
       </c>
       <c r="Q286" s="6">
-        <v>1020.88</v>
+        <v>986.5</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>23</v>
@@ -24365,7 +24428,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1972.635</v>
+        <v>871.76</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24424,7 +24487,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>1656.81</v>
+        <v>1293.1199999999999</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24483,7 +24546,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>1239.43</v>
+        <v>869.4</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24542,7 +24605,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3463.87</v>
+        <v>3027.1</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24601,7 +24664,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>2728.34</v>
+        <v>1485.72</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24660,7 +24723,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>1150.8599999999999</v>
+        <v>1078.9000000000001</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24896,7 +24959,7 @@
         <v>613</v>
       </c>
       <c r="Q296" s="6">
-        <v>1244.6500000000001</v>
+        <v>1235.2</v>
       </c>
       <c r="R296" s="6" t="s">
         <v>23</v>
@@ -24955,7 +25018,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3404.55</v>
+        <v>3354.7</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25073,7 +25136,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>183.19</v>
+        <v>15</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -25132,7 +25195,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>2381.0549999999998</v>
+        <v>1105.2</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25191,7 +25254,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>1779.36</v>
+        <v>368.2</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25250,7 +25313,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>985.87</v>
+        <v>714.8</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -25309,7 +25372,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>24381.207399999999</v>
+        <v>2257.02</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25368,7 +25431,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>36568.580999999998</v>
+        <v>1164.5999999999999</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25427,7 +25490,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>2408.59</v>
+        <v>51.5</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25486,7 +25549,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>506.65499999999997</v>
+        <v>1314.4</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25545,7 +25608,7 @@
         <v>635</v>
       </c>
       <c r="Q307" s="6">
-        <v>971.2</v>
+        <v>969.2</v>
       </c>
       <c r="R307" s="6" t="s">
         <v>23</v>
@@ -25604,7 +25667,7 @@
         <v>637</v>
       </c>
       <c r="Q308" s="6">
-        <v>968.9</v>
+        <v>1087.7</v>
       </c>
       <c r="R308" s="6" t="s">
         <v>23</v>
@@ -25663,7 +25726,7 @@
         <v>639</v>
       </c>
       <c r="Q309" s="6">
-        <v>1897.36</v>
+        <v>1930.3</v>
       </c>
       <c r="R309" s="6" t="s">
         <v>23</v>
@@ -25722,7 +25785,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3610.22</v>
+        <v>3507.93</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25781,7 +25844,7 @@
         <v>643</v>
       </c>
       <c r="Q311" s="6">
-        <v>134.32</v>
+        <v>118.6</v>
       </c>
       <c r="R311" s="6" t="s">
         <v>23</v>
@@ -25840,7 +25903,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>1654.65</v>
+        <v>581.42999999999995</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25899,7 +25962,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>98.38</v>
+        <v>249.2</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -25958,7 +26021,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2226.64</v>
+        <v>2198.8200000000002</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26076,7 +26139,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>247.24</v>
+        <v>256.82</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -26135,7 +26198,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8724.0550000000003</v>
+        <v>8727.5</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26194,7 +26257,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>3340.16</v>
+        <v>2842.58</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26253,7 +26316,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8484.6</v>
+        <v>9142.5</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26312,7 +26375,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>2613.27</v>
+        <v>4512.3999999999996</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26371,7 +26434,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5088.82</v>
+        <v>7669.06</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26430,7 +26493,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1972.9304</v>
+        <v>1767.4</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26489,7 +26552,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>1876.5150000000001</v>
+        <v>3281.7</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26548,7 +26611,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2638.05</v>
+        <v>2569.8000000000002</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26607,7 +26670,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3849.2125999999998</v>
+        <v>3653.2</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26666,7 +26729,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1772.309</v>
+        <v>1702.2</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26725,7 +26788,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>16.84</v>
+        <v>90</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26784,7 +26847,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3242.0810000000001</v>
+        <v>3080.12</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26843,7 +26906,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>2038.53</v>
+        <v>1956.8</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -26902,7 +26965,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>715.82</v>
+        <v>1395.49</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -26961,7 +27024,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2540.0450000000001</v>
+        <v>2055.4299999999998</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27020,7 +27083,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2990.77</v>
+        <v>2942.1</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27079,7 +27142,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1903.2</v>
+        <v>1867.9</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27138,7 +27201,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>106.54</v>
+        <v>74.8</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -27197,7 +27260,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1313.1949999999999</v>
+        <v>1387.2</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27256,7 +27319,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>2236.31</v>
+        <v>1995.8</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27315,7 +27378,7 @@
         <v>708</v>
       </c>
       <c r="Q337" s="6">
-        <v>197.2</v>
+        <v>215.2</v>
       </c>
       <c r="R337" s="6" t="s">
         <v>23</v>
@@ -27433,7 +27496,7 @@
         <v>712</v>
       </c>
       <c r="Q339" s="6">
-        <v>1287.4000000000001</v>
+        <v>732.4</v>
       </c>
       <c r="R339" s="6" t="s">
         <v>23</v>
@@ -27492,7 +27555,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>155.84</v>
+        <v>108.14</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27610,7 +27673,7 @@
         <v>718</v>
       </c>
       <c r="Q342" s="6">
-        <v>2664.93</v>
+        <v>2661.3</v>
       </c>
       <c r="R342" s="6" t="s">
         <v>23</v>
@@ -27787,7 +27850,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>867.82</v>
+        <v>177.2</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27846,7 +27909,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>153.5</v>
+        <v>39.28</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -27905,7 +27968,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>164.96</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -27964,7 +28027,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>334.44</v>
+        <v>284.85000000000002</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28023,7 +28086,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>643.53</v>
+        <v>240.9</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28082,7 +28145,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>4799.0050000000001</v>
+        <v>4488.2</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28141,7 +28204,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>24788.5</v>
+        <v>29206.3</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28200,7 +28263,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3537.05</v>
+        <v>3523.66</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28318,7 +28381,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>165.13</v>
+        <v>410</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28377,7 +28440,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1423.43</v>
+        <v>1387.7</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28613,7 +28676,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>909.97</v>
+        <v>875.2</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28672,7 +28735,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1517.35</v>
+        <v>1505</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -28731,7 +28794,7 @@
         <v>761</v>
       </c>
       <c r="Q361" s="6">
-        <v>994.5</v>
+        <v>942</v>
       </c>
       <c r="R361" s="6" t="s">
         <v>23</v>
@@ -28790,7 +28853,7 @@
         <v>765</v>
       </c>
       <c r="Q362" s="6">
-        <v>896.6</v>
+        <v>1017.6</v>
       </c>
       <c r="R362" s="6" t="s">
         <v>23</v>
@@ -29026,7 +29089,7 @@
         <v>777</v>
       </c>
       <c r="Q366" s="6">
-        <v>426.1</v>
+        <v>390.1</v>
       </c>
       <c r="R366" s="6" t="s">
         <v>23</v>
@@ -29085,7 +29148,7 @@
         <v>779</v>
       </c>
       <c r="Q367" s="6">
-        <v>684</v>
+        <v>629.70000000000005</v>
       </c>
       <c r="R367" s="6" t="s">
         <v>23</v>
@@ -29144,7 +29207,7 @@
         <v>782</v>
       </c>
       <c r="Q368" s="6">
-        <v>210.3</v>
+        <v>56</v>
       </c>
       <c r="R368" s="6" t="s">
         <v>23</v>
@@ -29203,7 +29266,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>57.15</v>
+        <v>48</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -29262,7 +29325,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>154.4</v>
+        <v>151.4</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -29321,7 +29384,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3525.83</v>
+        <v>3488.1</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -29439,7 +29502,7 @@
         <v>800</v>
       </c>
       <c r="Q373" s="6">
-        <v>566.76</v>
+        <v>414.9</v>
       </c>
       <c r="R373" s="6" t="s">
         <v>23</v>
@@ -34159,7 +34222,7 @@
         <v>960</v>
       </c>
       <c r="Q453" s="6">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="R453" s="6" t="s">
         <v>23</v>
@@ -34336,7 +34399,7 @@
         <v>966</v>
       </c>
       <c r="Q456" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R456" s="6" t="s">
         <v>23</v>
@@ -35103,7 +35166,7 @@
         <v>992</v>
       </c>
       <c r="Q469" s="6">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="R469" s="6" t="s">
         <v>23</v>
@@ -35162,7 +35225,7 @@
         <v>994</v>
       </c>
       <c r="Q470" s="6">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="R470" s="6" t="s">
         <v>23</v>
@@ -35398,7 +35461,7 @@
         <v>1002</v>
       </c>
       <c r="Q474" s="6">
-        <v>92.9636</v>
+        <v>79.2</v>
       </c>
       <c r="R474" s="6" t="s">
         <v>23</v>
@@ -35457,7 +35520,7 @@
         <v>1004</v>
       </c>
       <c r="Q475" s="6">
-        <v>181.79499999999999</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35516,7 +35579,7 @@
         <v>1006</v>
       </c>
       <c r="Q476" s="6">
-        <v>-68.290000000000006</v>
+        <v>30</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35575,7 +35638,7 @@
         <v>1008</v>
       </c>
       <c r="Q477" s="6">
-        <v>275.42750000000001</v>
+        <v>18</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35634,7 +35697,7 @@
         <v>1010</v>
       </c>
       <c r="Q478" s="6">
-        <v>401.93</v>
+        <v>0</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -35693,7 +35756,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>709.84</v>
+        <v>138.9</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -51269,7 +51332,7 @@
         <v>1546</v>
       </c>
       <c r="Q743" s="6">
-        <v>422.92</v>
+        <v>346</v>
       </c>
       <c r="R743" s="6" t="s">
         <v>23</v>
@@ -51564,7 +51627,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>391.61</v>
+        <v>277.7</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -52036,7 +52099,7 @@
         <v>1583</v>
       </c>
       <c r="Q756" s="6">
-        <v>7324</v>
+        <v>7287</v>
       </c>
       <c r="R756" s="6" t="s">
         <v>23</v>
@@ -53865,7 +53928,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>3125.09</v>
+        <v>3303.7</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -54042,7 +54105,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>12082.10204</v>
+        <v>7695.4</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54160,7 +54223,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>2217.83</v>
+        <v>1529.3</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -54278,7 +54341,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>1817.7550000000001</v>
+        <v>479.9</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54337,7 +54400,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>21715.87</v>
+        <v>19552.400000000001</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54632,7 +54695,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>8729.5732800000005</v>
+        <v>6951.26</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54750,7 +54813,7 @@
         <v>1679</v>
       </c>
       <c r="Q802" s="6">
-        <v>523.49159999999995</v>
+        <v>91.53</v>
       </c>
       <c r="R802" s="6" t="s">
         <v>23</v>
@@ -54809,7 +54872,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>7169.2556000000004</v>
+        <v>28374.6</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54868,7 +54931,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>17726.02</v>
+        <v>22058.9</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54927,7 +54990,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>30800.445</v>
+        <v>23040.27</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -54971,7 +55034,7 @@
         <v>23</v>
       </c>
       <c r="L806" s="6">
-        <v>3.4</v>
+        <v>1.34</v>
       </c>
       <c r="M806" s="6">
         <v>0</v>
@@ -54986,7 +55049,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>442.11919999999998</v>
+        <v>858.2</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55045,7 +55108,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>6185.01</v>
+        <v>5392.9</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55989,7 +56052,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>4427.08</v>
+        <v>4400.5600000000004</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56166,7 +56229,7 @@
         <v>1744</v>
       </c>
       <c r="Q826" s="6">
-        <v>738.9</v>
+        <v>655.6</v>
       </c>
       <c r="R826" s="6" t="s">
         <v>23</v>
@@ -56225,7 +56288,7 @@
         <v>1747</v>
       </c>
       <c r="Q827" s="6">
-        <v>760.66</v>
+        <v>702.3</v>
       </c>
       <c r="R827" s="6" t="s">
         <v>23</v>
@@ -56284,7 +56347,7 @@
         <v>1750</v>
       </c>
       <c r="Q828" s="6">
-        <v>3147.1</v>
+        <v>3256.6</v>
       </c>
       <c r="R828" s="6" t="s">
         <v>23</v>
@@ -56343,7 +56406,7 @@
         <v>1753</v>
       </c>
       <c r="Q829" s="6">
-        <v>768.3</v>
+        <v>770.3</v>
       </c>
       <c r="R829" s="6" t="s">
         <v>23</v>
@@ -56402,7 +56465,7 @@
         <v>1756</v>
       </c>
       <c r="Q830" s="6">
-        <v>2321.8000000000002</v>
+        <v>2322.1</v>
       </c>
       <c r="R830" s="6" t="s">
         <v>23</v>
@@ -56461,7 +56524,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>8321.66</v>
+        <v>15335.75</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56520,7 +56583,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>4921.47</v>
+        <v>13566.2</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56579,7 +56642,7 @@
         <v>1765</v>
       </c>
       <c r="Q833" s="6">
-        <v>4714.6000000000004</v>
+        <v>4712.8</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -56697,7 +56760,7 @@
         <v>1771</v>
       </c>
       <c r="Q835" s="6">
-        <v>223.92</v>
+        <v>245.2</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56756,7 +56819,7 @@
         <v>1775</v>
       </c>
       <c r="Q836" s="6">
-        <v>247.95</v>
+        <v>599.20000000000005</v>
       </c>
       <c r="R836" s="6" t="s">
         <v>23</v>
@@ -56815,7 +56878,7 @@
         <v>1777</v>
       </c>
       <c r="Q837" s="6">
-        <v>543.02</v>
+        <v>494.5</v>
       </c>
       <c r="R837" s="6" t="s">
         <v>23</v>
@@ -56874,7 +56937,7 @@
         <v>1782</v>
       </c>
       <c r="Q838" s="6">
-        <v>178.32</v>
+        <v>164.8</v>
       </c>
       <c r="R838" s="6" t="s">
         <v>23</v>
@@ -56933,7 +56996,7 @@
         <v>1786</v>
       </c>
       <c r="Q839" s="6">
-        <v>130.80000000000001</v>
+        <v>127.8</v>
       </c>
       <c r="R839" s="6" t="s">
         <v>23</v>
@@ -56992,7 +57055,7 @@
         <v>1790</v>
       </c>
       <c r="Q840" s="6">
-        <v>4662.1149999999998</v>
+        <v>4629.6000000000004</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -57051,7 +57114,7 @@
         <v>747</v>
       </c>
       <c r="Q841" s="6">
-        <v>627.48</v>
+        <v>652.70000000000005</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -57110,7 +57173,7 @@
         <v>1797</v>
       </c>
       <c r="Q842" s="6">
-        <v>117.21</v>
+        <v>121.7</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -57169,7 +57232,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>194.01</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57228,7 +57291,7 @@
         <v>1804</v>
       </c>
       <c r="Q844" s="6">
-        <v>1520.4</v>
+        <v>1511.3</v>
       </c>
       <c r="R844" s="6" t="s">
         <v>23</v>
@@ -57287,7 +57350,7 @@
         <v>1806</v>
       </c>
       <c r="Q845" s="6">
-        <v>308.62</v>
+        <v>305.3</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -57346,7 +57409,7 @@
         <v>1809</v>
       </c>
       <c r="Q846" s="6">
-        <v>179.58</v>
+        <v>169.3</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -57405,7 +57468,7 @@
         <v>1812</v>
       </c>
       <c r="Q847" s="6">
-        <v>401.72</v>
+        <v>402.5</v>
       </c>
       <c r="R847" s="6" t="s">
         <v>23</v>
@@ -57464,7 +57527,7 @@
         <v>1817</v>
       </c>
       <c r="Q848" s="6">
-        <v>161.55000000000001</v>
+        <v>25014.5</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -57582,7 +57645,7 @@
         <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>22809.1</v>
+        <v>38560.39</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -57877,7 +57940,7 @@
         <v>1837</v>
       </c>
       <c r="Q855" s="6">
-        <v>148.88999999999999</v>
+        <v>114.5</v>
       </c>
       <c r="R855" s="6" t="s">
         <v>23</v>
@@ -57936,7 +57999,7 @@
         <v>1840</v>
       </c>
       <c r="Q856" s="6">
-        <v>129.12</v>
+        <v>119.5</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -58113,7 +58176,7 @@
         <v>1849</v>
       </c>
       <c r="Q859" s="6">
-        <v>556.1</v>
+        <v>596.1</v>
       </c>
       <c r="R859" s="6" t="s">
         <v>23</v>
@@ -58172,7 +58235,7 @@
         <v>1852</v>
       </c>
       <c r="Q860" s="6">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="R860" s="6" t="s">
         <v>23</v>
@@ -58231,7 +58294,7 @@
         <v>1855</v>
       </c>
       <c r="Q861" s="6">
-        <v>11316.8</v>
+        <v>6386.6</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58290,7 +58353,7 @@
         <v>1858</v>
       </c>
       <c r="Q862" s="6">
-        <v>45</v>
+        <v>2312.9</v>
       </c>
       <c r="R862" s="6" t="s">
         <v>23</v>
@@ -58349,7 +58412,7 @@
         <v>1861</v>
       </c>
       <c r="Q863" s="6">
-        <v>1515.3</v>
+        <v>1458.2</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58408,7 +58471,7 @@
         <v>1864</v>
       </c>
       <c r="Q864" s="6">
-        <v>1333.01</v>
+        <v>1125.2</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58467,7 +58530,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>467.93</v>
+        <v>752.44</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58526,7 +58589,7 @@
         <v>1871</v>
       </c>
       <c r="Q866" s="6">
-        <v>1799.69</v>
+        <v>1752</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58585,7 +58648,7 @@
         <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>11689.17</v>
+        <v>8899.5</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58644,7 +58707,7 @@
         <v>1877</v>
       </c>
       <c r="Q868" s="6">
-        <v>285.39999999999998</v>
+        <v>265.39999999999998</v>
       </c>
       <c r="R868" s="6" t="s">
         <v>23</v>
@@ -58703,7 +58766,7 @@
         <v>1880</v>
       </c>
       <c r="Q869" s="6">
-        <v>166.08</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58821,7 +58884,7 @@
         <v>1886</v>
       </c>
       <c r="Q871" s="6">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="R871" s="6" t="s">
         <v>23</v>
@@ -58880,7 +58943,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>161.38999999999999</v>
+        <v>6</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -58939,7 +59002,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>228.23</v>
+        <v>120</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -58998,7 +59061,7 @@
         <v>1895</v>
       </c>
       <c r="Q874" s="6">
-        <v>627.09</v>
+        <v>487</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59057,7 +59120,7 @@
         <v>1898</v>
       </c>
       <c r="Q875" s="6">
-        <v>79.33</v>
+        <v>54</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -59116,7 +59179,7 @@
         <v>1901</v>
       </c>
       <c r="Q876" s="6">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="R876" s="6" t="s">
         <v>23</v>
@@ -59175,7 +59238,7 @@
         <v>1904</v>
       </c>
       <c r="Q877" s="6">
-        <v>378.4</v>
+        <v>208.4</v>
       </c>
       <c r="R877" s="6" t="s">
         <v>23</v>
@@ -59234,7 +59297,7 @@
         <v>1907</v>
       </c>
       <c r="Q878" s="6">
-        <v>207.82</v>
+        <v>167.1</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -59352,7 +59415,7 @@
         <v>1913</v>
       </c>
       <c r="Q880" s="6">
-        <v>227.52</v>
+        <v>516.29999999999995</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -59411,7 +59474,7 @@
         <v>1916</v>
       </c>
       <c r="Q881" s="6">
-        <v>325.13</v>
+        <v>305.7</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59470,7 +59533,7 @@
         <v>1919</v>
       </c>
       <c r="Q882" s="6">
-        <v>379.61</v>
+        <v>325.8</v>
       </c>
       <c r="R882" s="6" t="s">
         <v>23</v>
@@ -59529,7 +59592,7 @@
         <v>1922</v>
       </c>
       <c r="Q883" s="6">
-        <v>10940.86</v>
+        <v>10092.9</v>
       </c>
       <c r="R883" s="6" t="s">
         <v>23</v>
@@ -59588,7 +59651,7 @@
         <v>1925</v>
       </c>
       <c r="Q884" s="6">
-        <v>3848.9</v>
+        <v>4070.7</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59647,7 +59710,7 @@
         <v>1928</v>
       </c>
       <c r="Q885" s="6">
-        <v>604.9</v>
+        <v>574.9</v>
       </c>
       <c r="R885" s="6" t="s">
         <v>23</v>
@@ -59706,7 +59769,7 @@
         <v>1932</v>
       </c>
       <c r="Q886" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R886" s="6" t="s">
         <v>23</v>
@@ -59765,7 +59828,7 @@
         <v>1935</v>
       </c>
       <c r="Q887" s="6">
-        <v>88.46</v>
+        <v>40</v>
       </c>
       <c r="R887" s="6" t="s">
         <v>23</v>
@@ -59824,7 +59887,7 @@
         <v>1938</v>
       </c>
       <c r="Q888" s="6">
-        <v>138.63999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="R888" s="6" t="s">
         <v>23</v>
@@ -59883,7 +59946,7 @@
         <v>1941</v>
       </c>
       <c r="Q889" s="6">
-        <v>114.19</v>
+        <v>97.6</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -59942,7 +60005,7 @@
         <v>1944</v>
       </c>
       <c r="Q890" s="6">
-        <v>75.084999999999994</v>
+        <v>0</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -60001,7 +60064,7 @@
         <v>1947</v>
       </c>
       <c r="Q891" s="6">
-        <v>260.7</v>
+        <v>250.7</v>
       </c>
       <c r="R891" s="6" t="s">
         <v>23</v>
@@ -61756,7 +61819,7 @@
         <v>23</v>
       </c>
       <c r="L921" s="6">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M921" s="6">
         <v>0</v>
@@ -61771,7 +61834,7 @@
         <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>2650.92</v>
+        <v>1982.1</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61830,7 +61893,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>12258.17</v>
+        <v>13523.67</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -61889,7 +61952,7 @@
         <v>2044</v>
       </c>
       <c r="Q923" s="6">
-        <v>1491.7</v>
+        <v>615.79999999999995</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -61948,7 +62011,7 @@
         <v>2047</v>
       </c>
       <c r="Q924" s="6">
-        <v>5990.2730000000001</v>
+        <v>3974.1</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -62007,7 +62070,7 @@
         <v>2050</v>
       </c>
       <c r="Q925" s="6">
-        <v>742</v>
+        <v>366.7</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -62066,7 +62129,7 @@
         <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>2782.52</v>
+        <v>1933</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62125,7 +62188,7 @@
         <v>2056</v>
       </c>
       <c r="Q927" s="6">
-        <v>3099.21</v>
+        <v>2538.35</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62184,7 +62247,7 @@
         <v>2059</v>
       </c>
       <c r="Q928" s="6">
-        <v>308.63</v>
+        <v>146.4</v>
       </c>
       <c r="R928" s="6" t="s">
         <v>23</v>
@@ -62243,7 +62306,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>540.03</v>
+        <v>282.66000000000003</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62302,7 +62365,7 @@
         <v>2065</v>
       </c>
       <c r="Q930" s="6">
-        <v>1798.69</v>
+        <v>132</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62361,7 +62424,7 @@
         <v>2068</v>
       </c>
       <c r="Q931" s="6">
-        <v>758.14</v>
+        <v>791</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -62420,7 +62483,7 @@
         <v>2071</v>
       </c>
       <c r="Q932" s="6">
-        <v>2924.78</v>
+        <v>2767</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62597,7 +62660,7 @@
         <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>837.88</v>
+        <v>1317</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -62656,7 +62719,7 @@
         <v>2083</v>
       </c>
       <c r="Q936" s="6">
-        <v>3536.36</v>
+        <v>3115.3</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62715,7 +62778,7 @@
         <v>2086</v>
       </c>
       <c r="Q937" s="6">
-        <v>539.24</v>
+        <v>474.3</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -62833,7 +62896,7 @@
         <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>3554.11</v>
+        <v>708.3</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62892,7 +62955,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>1613.42</v>
+        <v>1459.1</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -62951,7 +63014,7 @@
         <v>2098</v>
       </c>
       <c r="Q941" s="6">
-        <v>135.36000000000001</v>
+        <v>0</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63010,7 +63073,7 @@
         <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>474.00236000000001</v>
+        <v>156.9</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -63069,7 +63132,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>1507.77</v>
+        <v>72.95</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -63128,7 +63191,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2185.92</v>
+        <v>2514.25</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63187,7 +63250,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>1043.8</v>
+        <v>2548.15</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63305,7 +63368,7 @@
         <v>2116</v>
       </c>
       <c r="Q947" s="6">
-        <v>922.3</v>
+        <v>922.8</v>
       </c>
       <c r="R947" s="6" t="s">
         <v>23</v>
@@ -63364,7 +63427,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>2675.9090000000001</v>
+        <v>3543.8</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -63423,7 +63486,7 @@
         <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>500.27</v>
+        <v>463.9</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63482,7 +63545,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>88.825000000000003</v>
+        <v>1111</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63541,7 +63604,7 @@
         <v>2128</v>
       </c>
       <c r="Q951" s="6">
-        <v>614.59130000000005</v>
+        <v>581.79999999999995</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63600,7 +63663,7 @@
         <v>2131</v>
       </c>
       <c r="Q952" s="6">
-        <v>353.64</v>
+        <v>344</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63659,7 +63722,7 @@
         <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>191.45</v>
+        <v>240.8</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63718,7 +63781,7 @@
         <v>2137</v>
       </c>
       <c r="Q954" s="6">
-        <v>506.7</v>
+        <v>444</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63777,7 +63840,7 @@
         <v>2140</v>
       </c>
       <c r="Q955" s="6">
-        <v>462.3</v>
+        <v>415.7</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -63880,7 +63943,7 @@
         <v>23</v>
       </c>
       <c r="L957" s="6">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="M957" s="6">
         <v>0</v>
@@ -63895,7 +63958,7 @@
         <v>2146</v>
       </c>
       <c r="Q957" s="6">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="R957" s="6" t="s">
         <v>23</v>
@@ -63954,7 +64017,7 @@
         <v>2149</v>
       </c>
       <c r="Q958" s="6">
-        <v>5775.0803999999998</v>
+        <v>7955</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -64013,7 +64076,7 @@
         <v>2151</v>
       </c>
       <c r="Q959" s="6">
-        <v>2456.44</v>
+        <v>2201.8000000000002</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -64072,7 +64135,7 @@
         <v>2154</v>
       </c>
       <c r="Q960" s="6">
-        <v>909.28</v>
+        <v>4592.6000000000004</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64131,7 +64194,7 @@
         <v>2157</v>
       </c>
       <c r="Q961" s="6">
-        <v>3446.65</v>
+        <v>4768.8</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64172,7 +64235,7 @@
         <v>21</v>
       </c>
       <c r="K962" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L962" s="6">
         <v>0</v>
@@ -64485,7 +64548,7 @@
         <v>2196</v>
       </c>
       <c r="Q967" s="6">
-        <v>960.1</v>
+        <v>766.8</v>
       </c>
       <c r="R967" s="6" t="s">
         <v>23</v>
@@ -65134,7 +65197,7 @@
         <v>2228</v>
       </c>
       <c r="Q978" s="6">
-        <v>3388.22</v>
+        <v>1588.3</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -65193,7 +65256,7 @@
         <v>2230</v>
       </c>
       <c r="Q979" s="6">
-        <v>2054.8000000000002</v>
+        <v>2004.8</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -65252,7 +65315,7 @@
         <v>2233</v>
       </c>
       <c r="Q980" s="6">
-        <v>7950.7</v>
+        <v>13414.4</v>
       </c>
       <c r="R980" s="6" t="s">
         <v>23</v>
@@ -65311,7 +65374,7 @@
         <v>2236</v>
       </c>
       <c r="Q981" s="6">
-        <v>6942.5</v>
+        <v>9077</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65370,7 +65433,7 @@
         <v>2239</v>
       </c>
       <c r="Q982" s="6">
-        <v>717.2</v>
+        <v>1483.9</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65429,7 +65492,7 @@
         <v>2242</v>
       </c>
       <c r="Q983" s="6">
-        <v>1691.2</v>
+        <v>2155.1</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65547,7 +65610,7 @@
         <v>2248</v>
       </c>
       <c r="Q985" s="6">
-        <v>466.1</v>
+        <v>359.4</v>
       </c>
       <c r="R985" s="6" t="s">
         <v>23</v>
@@ -65665,7 +65728,7 @@
         <v>2254</v>
       </c>
       <c r="Q987" s="6">
-        <v>343.19</v>
+        <v>346</v>
       </c>
       <c r="R987" s="6" t="s">
         <v>23</v>
@@ -65842,7 +65905,7 @@
         <v>2263</v>
       </c>
       <c r="Q990" s="6">
-        <v>156.19999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="R990" s="6" t="s">
         <v>23</v>
@@ -65901,7 +65964,7 @@
         <v>2266</v>
       </c>
       <c r="Q991" s="6">
-        <v>151.4</v>
+        <v>55.5</v>
       </c>
       <c r="R991" s="6" t="s">
         <v>23</v>
@@ -65960,7 +66023,7 @@
         <v>2269</v>
       </c>
       <c r="Q992" s="6">
-        <v>138.04</v>
+        <v>138.9</v>
       </c>
       <c r="R992" s="6" t="s">
         <v>23</v>
@@ -66001,10 +66064,10 @@
         <v>21</v>
       </c>
       <c r="K993" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L993" s="6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M993" s="6">
         <v>0</v>
@@ -66019,7 +66082,7 @@
         <v>2275</v>
       </c>
       <c r="Q993" s="6">
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -66078,7 +66141,7 @@
         <v>2278</v>
       </c>
       <c r="Q994" s="6">
-        <v>1622</v>
+        <v>2742</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66137,7 +66200,7 @@
         <v>2281</v>
       </c>
       <c r="Q995" s="6">
-        <v>2238.5</v>
+        <v>1460</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66196,7 +66259,7 @@
         <v>2284</v>
       </c>
       <c r="Q996" s="6">
-        <v>15849.15</v>
+        <v>30594.799999999999</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66255,7 +66318,7 @@
         <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>36056.769999999997</v>
+        <v>75491</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66299,7 +66362,7 @@
         <v>23</v>
       </c>
       <c r="L998" s="6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M998" s="6">
         <v>0</v>
@@ -66314,7 +66377,7 @@
         <v>2290</v>
       </c>
       <c r="Q998" s="6">
-        <v>-191.8</v>
+        <v>1034</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66373,7 +66436,7 @@
         <v>2293</v>
       </c>
       <c r="Q999" s="6">
-        <v>548.13</v>
+        <v>5134</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66432,7 +66495,7 @@
         <v>2296</v>
       </c>
       <c r="Q1000" s="6">
-        <v>528.5</v>
+        <v>1039.5999999999999</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66473,10 +66536,10 @@
         <v>21</v>
       </c>
       <c r="K1001" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1001" s="6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M1001" s="6">
         <v>0</v>
@@ -66491,7 +66554,7 @@
         <v>2299</v>
       </c>
       <c r="Q1001" s="6">
-        <v>0</v>
+        <v>6552.1</v>
       </c>
       <c r="R1001" s="6" t="s">
         <v>23</v>
@@ -66535,7 +66598,7 @@
         <v>23</v>
       </c>
       <c r="L1002" s="6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M1002" s="6">
         <v>0</v>
@@ -66550,7 +66613,7 @@
         <v>2302</v>
       </c>
       <c r="Q1002" s="6">
-        <v>315.5</v>
+        <v>10081</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66709,10 +66772,10 @@
         <v>21</v>
       </c>
       <c r="K1005" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1005" s="6">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="M1005" s="6">
         <v>0</v>
@@ -66727,7 +66790,7 @@
         <v>2311</v>
       </c>
       <c r="Q1005" s="6">
-        <v>0</v>
+        <v>494.6</v>
       </c>
       <c r="R1005" s="6" t="s">
         <v>23</v>
@@ -66768,10 +66831,10 @@
         <v>21</v>
       </c>
       <c r="K1006" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1006" s="6">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="M1006" s="6">
         <v>0</v>
@@ -66786,7 +66849,7 @@
         <v>2314</v>
       </c>
       <c r="Q1006" s="6">
-        <v>0</v>
+        <v>992.3</v>
       </c>
       <c r="R1006" s="6" t="s">
         <v>23</v>
@@ -66886,10 +66949,10 @@
         <v>21</v>
       </c>
       <c r="K1008" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1008" s="6">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="M1008" s="6">
         <v>0</v>
@@ -66904,7 +66967,7 @@
         <v>2320</v>
       </c>
       <c r="Q1008" s="6">
-        <v>0</v>
+        <v>100.1</v>
       </c>
       <c r="R1008" s="6" t="s">
         <v>23</v>
@@ -66915,16 +66978,16 @@
     </row>
     <row r="1009" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1009" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1009" s="5" t="s">
         <v>2329</v>
       </c>
-      <c r="B1009" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1009" s="5" t="s">
+      <c r="D1009" s="5" t="s">
         <v>2330</v>
-      </c>
-      <c r="D1009" s="5" t="s">
-        <v>2331</v>
       </c>
       <c r="E1009" s="6" t="s">
         <v>23</v>
@@ -66960,7 +67023,7 @@
         <v>21</v>
       </c>
       <c r="P1009" s="5" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="Q1009" s="6">
         <v>0</v>
@@ -66974,17 +67037,17 @@
     </row>
     <row r="1010" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1010" s="5" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1010" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1010" s="5" t="s">
         <v>2332</v>
       </c>
-      <c r="B1010" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1010" s="5" t="s">
+      <c r="D1010" s="5" t="s">
         <v>2333</v>
       </c>
-      <c r="D1010" s="5" t="s">
-        <v>2334</v>
-      </c>
       <c r="E1010" s="6" t="s">
         <v>23</v>
       </c>
@@ -67004,10 +67067,10 @@
         <v>21</v>
       </c>
       <c r="K1010" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1010" s="6">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="M1010" s="6">
         <v>0</v>
@@ -67019,10 +67082,10 @@
         <v>21</v>
       </c>
       <c r="P1010" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="Q1010" s="6">
-        <v>0</v>
+        <v>159.74</v>
       </c>
       <c r="R1010" s="6" t="s">
         <v>23</v>
@@ -67033,16 +67096,16 @@
     </row>
     <row r="1011" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1011" s="5" t="s">
-        <v>2165</v>
+        <v>2335</v>
       </c>
       <c r="B1011" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>2166</v>
+        <v>2336</v>
       </c>
       <c r="D1011" s="5" t="s">
-        <v>2167</v>
+        <v>2337</v>
       </c>
       <c r="E1011" s="6" t="s">
         <v>23</v>
@@ -67063,10 +67126,10 @@
         <v>21</v>
       </c>
       <c r="K1011" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1011" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1011" s="6">
         <v>0</v>
@@ -67078,10 +67141,10 @@
         <v>21</v>
       </c>
       <c r="P1011" s="5" t="s">
-        <v>2166</v>
+        <v>2336</v>
       </c>
       <c r="Q1011" s="6">
-        <v>589.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R1011" s="6" t="s">
         <v>23</v>
@@ -67092,16 +67155,16 @@
     </row>
     <row r="1012" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1012" s="5" t="s">
-        <v>2168</v>
+        <v>2338</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>2169</v>
+        <v>2339</v>
       </c>
       <c r="D1012" s="5" t="s">
-        <v>2170</v>
+        <v>2340</v>
       </c>
       <c r="E1012" s="6" t="s">
         <v>23</v>
@@ -67125,7 +67188,7 @@
         <v>23</v>
       </c>
       <c r="L1012" s="6">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="M1012" s="6">
         <v>0</v>
@@ -67137,10 +67200,10 @@
         <v>21</v>
       </c>
       <c r="P1012" s="5" t="s">
-        <v>2169</v>
+        <v>2339</v>
       </c>
       <c r="Q1012" s="6">
-        <v>200.07</v>
+        <v>181.7</v>
       </c>
       <c r="R1012" s="6" t="s">
         <v>23</v>
@@ -67151,16 +67214,16 @@
     </row>
     <row r="1013" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1013" s="5" t="s">
-        <v>2171</v>
+        <v>2341</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>2172</v>
+        <v>2342</v>
       </c>
       <c r="D1013" s="5" t="s">
-        <v>2173</v>
+        <v>2343</v>
       </c>
       <c r="E1013" s="6" t="s">
         <v>23</v>
@@ -67181,10 +67244,10 @@
         <v>21</v>
       </c>
       <c r="K1013" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1013" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M1013" s="6">
         <v>0</v>
@@ -67196,10 +67259,10 @@
         <v>21</v>
       </c>
       <c r="P1013" s="5" t="s">
-        <v>2172</v>
+        <v>2342</v>
       </c>
       <c r="Q1013" s="6">
-        <v>1106.52</v>
+        <v>0</v>
       </c>
       <c r="R1013" s="6" t="s">
         <v>23</v>
@@ -67210,16 +67273,16 @@
     </row>
     <row r="1014" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1014" s="5" t="s">
-        <v>2189</v>
+        <v>2344</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1014" s="5" t="s">
-        <v>2190</v>
+        <v>2345</v>
       </c>
       <c r="D1014" s="5" t="s">
-        <v>2191</v>
+        <v>2346</v>
       </c>
       <c r="E1014" s="6" t="s">
         <v>23</v>
@@ -67255,7 +67318,7 @@
         <v>21</v>
       </c>
       <c r="P1014" s="5" t="s">
-        <v>2190</v>
+        <v>2345</v>
       </c>
       <c r="Q1014" s="6">
         <v>0</v>
@@ -67269,16 +67332,16 @@
     </row>
     <row r="1015" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1015" s="5" t="s">
-        <v>2192</v>
+        <v>2347</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>2193</v>
+        <v>2348</v>
       </c>
       <c r="D1015" s="5" t="s">
-        <v>2194</v>
+        <v>2349</v>
       </c>
       <c r="E1015" s="6" t="s">
         <v>23</v>
@@ -67314,7 +67377,7 @@
         <v>21</v>
       </c>
       <c r="P1015" s="5" t="s">
-        <v>2193</v>
+        <v>2348</v>
       </c>
       <c r="Q1015" s="6">
         <v>0</v>
@@ -67328,16 +67391,16 @@
     </row>
     <row r="1016" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1016" s="5" t="s">
-        <v>2322</v>
+        <v>2350</v>
       </c>
       <c r="B1016" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1016" s="5" t="s">
-        <v>2323</v>
+        <v>2351</v>
       </c>
       <c r="D1016" s="5" t="s">
-        <v>2324</v>
+        <v>2352</v>
       </c>
       <c r="E1016" s="6" t="s">
         <v>23</v>
@@ -67358,7 +67421,7 @@
         <v>21</v>
       </c>
       <c r="K1016" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1016" s="6">
         <v>0</v>
@@ -67373,10 +67436,10 @@
         <v>21</v>
       </c>
       <c r="P1016" s="5" t="s">
-        <v>2323</v>
+        <v>2351</v>
       </c>
       <c r="Q1016" s="6">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="R1016" s="6" t="s">
         <v>23</v>
@@ -67387,16 +67450,16 @@
     </row>
     <row r="1017" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1017" s="5" t="s">
-        <v>2325</v>
+        <v>2353</v>
       </c>
       <c r="B1017" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1017" s="5" t="s">
-        <v>2326</v>
+        <v>2354</v>
       </c>
       <c r="D1017" s="5" t="s">
-        <v>2327</v>
+        <v>2355</v>
       </c>
       <c r="E1017" s="6" t="s">
         <v>23</v>
@@ -67432,15 +67495,428 @@
         <v>21</v>
       </c>
       <c r="P1017" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q1017" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1017" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1017" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1018" s="5" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1018" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1018" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1018" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E1018" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1018" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1018" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1018" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1018" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1018" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1018" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1018" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M1018" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1018" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1018" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1018" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="Q1018" s="6">
+        <v>560.70000000000005</v>
+      </c>
+      <c r="R1018" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1018" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1019" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1019" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1019" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1019" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1019" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1019" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1019" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1019" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1019" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1019" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1019" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1019" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="M1019" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1019" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1019" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1019" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Q1019" s="6">
+        <v>148.1</v>
+      </c>
+      <c r="R1019" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1019" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1020" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1020" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1020" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D1020" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1020" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1020" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1020" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1020" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1020" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1020" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1020" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1020" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M1020" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1020" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1020" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1020" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q1020" s="6">
+        <v>1022.9</v>
+      </c>
+      <c r="R1020" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1020" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1021" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1021" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1021" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1021" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E1021" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1021" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1021" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1021" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1021" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1021" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1021" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1021" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1021" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1021" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1021" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1021" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q1021" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1021" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1021" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1022" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1022" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1022" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D1022" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E1022" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1022" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1022" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1022" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1022" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1022" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1022" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1022" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1022" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1022" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1022" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1022" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q1022" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1022" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1022" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1023" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1023" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1023" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1023" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E1023" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1023" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1023" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1023" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1023" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1023" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1023" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1023" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M1023" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1023" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1023" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1023" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q1023" s="6">
+        <v>1320.7</v>
+      </c>
+      <c r="R1023" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1023" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1024" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1024" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1024" s="5" t="s">
         <v>2326</v>
       </c>
-      <c r="Q1017" s="6">
-        <v>0</v>
-      </c>
-      <c r="R1017" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1017" s="5" t="s">
+      <c r="D1024" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1024" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1024" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1024" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1024" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1024" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1024" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1024" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1024" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M1024" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1024" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1024" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1024" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1024" s="6">
+        <v>156.21</v>
+      </c>
+      <c r="R1024" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1024" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.2\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.3\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7027,9 +7027,6 @@
     <t>MONET 22 (BEGE)</t>
   </si>
   <si>
-    <t>Lista Produto : 25-05-2020 09:25:14</t>
-  </si>
-  <si>
     <t>TC15191</t>
   </si>
   <si>
@@ -7091,6 +7088,9 @@
   </si>
   <si>
     <t>MONET 31 (VERDE)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 02-06-2020 10:15:04</t>
   </si>
 </sst>
 </file>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2334</v>
+        <v>2355</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18528,7 +18528,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>9134.6</v>
+        <v>7528.82</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -20888,7 +20888,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>4315.3999999999996</v>
+        <v>4132.3999999999996</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20947,7 +20947,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>4462.5</v>
+        <v>4279.5</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21655,7 +21655,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>4746.7</v>
+        <v>3950.2</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -22127,7 +22127,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>860</v>
+        <v>1221.27</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22304,7 +22304,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>2286.75</v>
+        <v>1903.15</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22481,7 +22481,7 @@
         <v>528</v>
       </c>
       <c r="Q254" s="6">
-        <v>8157.4</v>
+        <v>8119.2</v>
       </c>
       <c r="R254" s="6" t="s">
         <v>23</v>
@@ -24487,7 +24487,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>1293.1199999999999</v>
+        <v>1117.2</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24546,7 +24546,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>869.4</v>
+        <v>858.12</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24605,7 +24605,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3027.1</v>
+        <v>3013.7</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24664,7 +24664,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1485.72</v>
+        <v>1471.58</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -25372,7 +25372,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>2257.02</v>
+        <v>2107.4699999999998</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25431,7 +25431,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1164.5999999999999</v>
+        <v>1157.98</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25903,7 +25903,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>581.42999999999995</v>
+        <v>123.83</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26257,7 +26257,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2842.58</v>
+        <v>2747.36</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26316,7 +26316,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>9142.5</v>
+        <v>8751.2000000000007</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26375,7 +26375,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>4512.3999999999996</v>
+        <v>4385.6000000000004</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26434,7 +26434,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>7669.06</v>
+        <v>6653.74</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26670,7 +26670,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3653.2</v>
+        <v>3603.35</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26847,7 +26847,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>3080.12</v>
+        <v>2928.72</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26906,7 +26906,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1956.8</v>
+        <v>1919.6</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27850,7 +27850,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>177.2</v>
+        <v>81.16</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -28027,7 +28027,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>284.85000000000002</v>
+        <v>82.1</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28086,7 +28086,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>240.9</v>
+        <v>199.3</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28204,7 +28204,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>29206.3</v>
+        <v>28886.07</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28381,7 +28381,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>410</v>
+        <v>392.78</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -29384,7 +29384,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3488.1</v>
+        <v>3302.16</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -51627,7 +51627,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>277.7</v>
+        <v>267.2</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -54105,7 +54105,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>7695.4</v>
+        <v>8826.2999999999993</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54400,7 +54400,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>19552.400000000001</v>
+        <v>18104</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54695,7 +54695,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>6951.26</v>
+        <v>6191.06</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54872,7 +54872,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>28374.6</v>
+        <v>19170.97</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54931,7 +54931,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>22058.9</v>
+        <v>20774.05</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54990,7 +54990,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>23040.27</v>
+        <v>19972.86</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -55049,7 +55049,7 @@
         <v>1690</v>
       </c>
       <c r="Q806" s="6">
-        <v>858.2</v>
+        <v>44.6</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55108,7 +55108,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>5392.9</v>
+        <v>5121.7</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56052,7 +56052,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>4400.5600000000004</v>
+        <v>4380.72</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56524,7 +56524,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>15335.75</v>
+        <v>14399.75</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -57350,7 +57350,7 @@
         <v>1806</v>
       </c>
       <c r="Q845" s="6">
-        <v>305.3</v>
+        <v>247.7</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -57645,7 +57645,7 @@
         <v>1822</v>
       </c>
       <c r="Q850" s="6">
-        <v>38560.39</v>
+        <v>38606</v>
       </c>
       <c r="R850" s="6" t="s">
         <v>23</v>
@@ -58471,7 +58471,7 @@
         <v>1864</v>
       </c>
       <c r="Q864" s="6">
-        <v>1125.2</v>
+        <v>946.48</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58648,7 +58648,7 @@
         <v>1874</v>
       </c>
       <c r="Q867" s="6">
-        <v>8899.5</v>
+        <v>8745.32</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -59651,7 +59651,7 @@
         <v>1925</v>
       </c>
       <c r="Q884" s="6">
-        <v>4070.7</v>
+        <v>3875.55</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -61893,7 +61893,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>13523.67</v>
+        <v>10280.700000000001</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62188,7 +62188,7 @@
         <v>2056</v>
       </c>
       <c r="Q927" s="6">
-        <v>2538.35</v>
+        <v>1574.96</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62306,7 +62306,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>282.66000000000003</v>
+        <v>831.1</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62660,7 +62660,7 @@
         <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>1317</v>
+        <v>898.8</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -63132,7 +63132,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>72.95</v>
+        <v>2131.35</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -63191,7 +63191,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2514.25</v>
+        <v>2507.6</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63250,7 +63250,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>2548.15</v>
+        <v>2530</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63545,7 +63545,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>1111</v>
+        <v>584.16999999999996</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -65197,7 +65197,7 @@
         <v>2228</v>
       </c>
       <c r="Q978" s="6">
-        <v>1588.3</v>
+        <v>1106.26</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -65769,10 +65769,10 @@
         <v>21</v>
       </c>
       <c r="K988" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L988" s="6">
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M988" s="6">
         <v>0</v>
@@ -65787,7 +65787,7 @@
         <v>2257</v>
       </c>
       <c r="Q988" s="6">
-        <v>0</v>
+        <v>7032.3</v>
       </c>
       <c r="R988" s="6" t="s">
         <v>23</v>
@@ -66495,7 +66495,7 @@
         <v>2296</v>
       </c>
       <c r="Q1000" s="6">
-        <v>1039.5999999999999</v>
+        <v>737.38</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66554,7 +66554,7 @@
         <v>2299</v>
       </c>
       <c r="Q1001" s="6">
-        <v>6552.1</v>
+        <v>5688.1</v>
       </c>
       <c r="R1001" s="6" t="s">
         <v>23</v>
@@ -67096,16 +67096,16 @@
     </row>
     <row r="1011" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1011" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1011" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1011" s="5" t="s">
         <v>2335</v>
       </c>
-      <c r="B1011" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1011" s="5" t="s">
+      <c r="D1011" s="5" t="s">
         <v>2336</v>
-      </c>
-      <c r="D1011" s="5" t="s">
-        <v>2337</v>
       </c>
       <c r="E1011" s="6" t="s">
         <v>23</v>
@@ -67141,7 +67141,7 @@
         <v>21</v>
       </c>
       <c r="P1011" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="Q1011" s="6">
         <v>0</v>
@@ -67155,16 +67155,16 @@
     </row>
     <row r="1012" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1012" s="5" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1012" s="5" t="s">
         <v>2338</v>
       </c>
-      <c r="B1012" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1012" s="5" t="s">
+      <c r="D1012" s="5" t="s">
         <v>2339</v>
-      </c>
-      <c r="D1012" s="5" t="s">
-        <v>2340</v>
       </c>
       <c r="E1012" s="6" t="s">
         <v>23</v>
@@ -67200,7 +67200,7 @@
         <v>21</v>
       </c>
       <c r="P1012" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="Q1012" s="6">
         <v>181.7</v>
@@ -67214,16 +67214,16 @@
     </row>
     <row r="1013" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1013" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1013" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1013" s="5" t="s">
         <v>2341</v>
       </c>
-      <c r="B1013" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1013" s="5" t="s">
+      <c r="D1013" s="5" t="s">
         <v>2342</v>
-      </c>
-      <c r="D1013" s="5" t="s">
-        <v>2343</v>
       </c>
       <c r="E1013" s="6" t="s">
         <v>23</v>
@@ -67259,7 +67259,7 @@
         <v>21</v>
       </c>
       <c r="P1013" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="Q1013" s="6">
         <v>0</v>
@@ -67273,16 +67273,16 @@
     </row>
     <row r="1014" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1014" s="5" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1014" s="5" t="s">
         <v>2344</v>
       </c>
-      <c r="B1014" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1014" s="5" t="s">
+      <c r="D1014" s="5" t="s">
         <v>2345</v>
-      </c>
-      <c r="D1014" s="5" t="s">
-        <v>2346</v>
       </c>
       <c r="E1014" s="6" t="s">
         <v>23</v>
@@ -67318,7 +67318,7 @@
         <v>21</v>
       </c>
       <c r="P1014" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="Q1014" s="6">
         <v>0</v>
@@ -67332,16 +67332,16 @@
     </row>
     <row r="1015" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1015" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1015" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1015" s="5" t="s">
         <v>2347</v>
       </c>
-      <c r="B1015" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1015" s="5" t="s">
+      <c r="D1015" s="5" t="s">
         <v>2348</v>
-      </c>
-      <c r="D1015" s="5" t="s">
-        <v>2349</v>
       </c>
       <c r="E1015" s="6" t="s">
         <v>23</v>
@@ -67377,7 +67377,7 @@
         <v>21</v>
       </c>
       <c r="P1015" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="Q1015" s="6">
         <v>0</v>
@@ -67391,16 +67391,16 @@
     </row>
     <row r="1016" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1016" s="5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1016" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1016" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="B1016" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1016" s="5" t="s">
+      <c r="D1016" s="5" t="s">
         <v>2351</v>
-      </c>
-      <c r="D1016" s="5" t="s">
-        <v>2352</v>
       </c>
       <c r="E1016" s="6" t="s">
         <v>23</v>
@@ -67436,7 +67436,7 @@
         <v>21</v>
       </c>
       <c r="P1016" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="Q1016" s="6">
         <v>0</v>
@@ -67450,16 +67450,16 @@
     </row>
     <row r="1017" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1017" s="5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1017" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1017" s="5" t="s">
         <v>2353</v>
       </c>
-      <c r="B1017" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1017" s="5" t="s">
+      <c r="D1017" s="5" t="s">
         <v>2354</v>
-      </c>
-      <c r="D1017" s="5" t="s">
-        <v>2355</v>
       </c>
       <c r="E1017" s="6" t="s">
         <v>23</v>
@@ -67495,7 +67495,7 @@
         <v>21</v>
       </c>
       <c r="P1017" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="Q1017" s="6">
         <v>0</v>
@@ -67852,7 +67852,7 @@
         <v>2323</v>
       </c>
       <c r="Q1023" s="6">
-        <v>1320.7</v>
+        <v>1130.05</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15336" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15351" uniqueCount="2359">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7090,7 +7090,16 @@
     <t>MONET 31 (VERDE)</t>
   </si>
   <si>
-    <t>Lista Produto : 02-06-2020 10:15:04</t>
+    <t>Lista Produto : 17-06-2020 09:18:00</t>
+  </si>
+  <si>
+    <t>TC16008</t>
+  </si>
+  <si>
+    <t>G3141</t>
+  </si>
+  <si>
+    <t>MACAU - SAND (BEJE)</t>
   </si>
 </sst>
 </file>
@@ -7257,8 +7266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1024" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1024"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1025" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1025"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7547,7 +7556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1024"/>
+  <dimension ref="A1:S1025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -20593,7 +20602,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>2854</v>
+        <v>1397.64</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20652,7 +20661,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>1419.41</v>
+        <v>601.91</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20888,7 +20897,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>4132.3999999999996</v>
+        <v>2880.9</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20947,7 +20956,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>4279.5</v>
+        <v>2937.9</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21655,7 +21664,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>3950.2</v>
+        <v>3932.5</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -22127,7 +22136,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>1221.27</v>
+        <v>262.27</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22304,7 +22313,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>1903.15</v>
+        <v>1183.9000000000001</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22540,7 +22549,7 @@
         <v>530</v>
       </c>
       <c r="Q255" s="6">
-        <v>13630.6</v>
+        <v>13299</v>
       </c>
       <c r="R255" s="6" t="s">
         <v>23</v>
@@ -24310,7 +24319,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>964.5</v>
+        <v>433.22</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24428,7 +24437,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>871.76</v>
+        <v>2159.42</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24487,7 +24496,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>1117.2</v>
+        <v>1109.44</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24605,7 +24614,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>3013.7</v>
+        <v>2971.38</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -25018,7 +25027,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3354.7</v>
+        <v>3250.15</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25195,7 +25204,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1105.2</v>
+        <v>1099.7</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25431,7 +25440,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1157.98</v>
+        <v>1128.94</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25785,7 +25794,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3507.93</v>
+        <v>3506.2</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -26021,7 +26030,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2198.8200000000002</v>
+        <v>2187.4499999999998</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26257,7 +26266,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2747.36</v>
+        <v>2428.16</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26316,7 +26325,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8751.2000000000007</v>
+        <v>8756.86</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26375,7 +26384,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>4385.6000000000004</v>
+        <v>4304.8999999999996</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26434,7 +26443,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>6653.74</v>
+        <v>6608.48</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26493,7 +26502,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1767.4</v>
+        <v>1641.54</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26552,7 +26561,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>3281.7</v>
+        <v>2903.96</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26611,7 +26620,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2569.8000000000002</v>
+        <v>2258.7399999999998</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26670,7 +26679,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3603.35</v>
+        <v>3517.45</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26729,7 +26738,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1702.2</v>
+        <v>1250.24</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -27142,7 +27151,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1867.9</v>
+        <v>1864.11</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27555,7 +27564,7 @@
         <v>714</v>
       </c>
       <c r="Q340" s="6">
-        <v>108.14</v>
+        <v>57.74</v>
       </c>
       <c r="R340" s="6" t="s">
         <v>23</v>
@@ -27850,7 +27859,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>81.16</v>
+        <v>2554.7600000000002</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -28204,7 +28213,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>28886.07</v>
+        <v>27990.73</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -29384,7 +29393,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3302.16</v>
+        <v>3326.6</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -29502,7 +29511,7 @@
         <v>800</v>
       </c>
       <c r="Q373" s="6">
-        <v>414.9</v>
+        <v>514.9</v>
       </c>
       <c r="R373" s="6" t="s">
         <v>23</v>
@@ -51627,7 +51636,7 @@
         <v>1563</v>
       </c>
       <c r="Q748" s="6">
-        <v>267.2</v>
+        <v>264.8</v>
       </c>
       <c r="R748" s="6" t="s">
         <v>23</v>
@@ -53928,7 +53937,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>3303.7</v>
+        <v>2805.22</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -54105,7 +54114,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>8826.2999999999993</v>
+        <v>6527.88</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54223,7 +54232,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>1529.3</v>
+        <v>874.1</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -54341,7 +54350,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>479.9</v>
+        <v>199.1</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54400,7 +54409,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>18104</v>
+        <v>15922.8</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54695,7 +54704,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>6191.06</v>
+        <v>4614.66</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54857,7 +54866,7 @@
         <v>23</v>
       </c>
       <c r="L803" s="6">
-        <v>4.66</v>
+        <v>4.74</v>
       </c>
       <c r="M803" s="6">
         <v>0</v>
@@ -54872,7 +54881,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>19170.97</v>
+        <v>6290.9</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54931,7 +54940,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>20774.05</v>
+        <v>15157.85</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54990,7 +54999,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>19972.86</v>
+        <v>14448.44</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -55034,7 +55043,7 @@
         <v>23</v>
       </c>
       <c r="L806" s="6">
-        <v>1.34</v>
+        <v>3.43</v>
       </c>
       <c r="M806" s="6">
         <v>0</v>
@@ -55108,7 +55117,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>5121.7</v>
+        <v>4714.8999999999996</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56052,7 +56061,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>4380.72</v>
+        <v>3706.16</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56524,7 +56533,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>14399.75</v>
+        <v>11440.91</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56583,7 +56592,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>13566.2</v>
+        <v>12544.54</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56937,7 +56946,7 @@
         <v>1782</v>
       </c>
       <c r="Q838" s="6">
-        <v>164.8</v>
+        <v>137.22999999999999</v>
       </c>
       <c r="R838" s="6" t="s">
         <v>23</v>
@@ -57232,7 +57241,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>66.599999999999994</v>
+        <v>14.1</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57940,7 +57949,7 @@
         <v>1837</v>
       </c>
       <c r="Q855" s="6">
-        <v>114.5</v>
+        <v>62</v>
       </c>
       <c r="R855" s="6" t="s">
         <v>23</v>
@@ -57999,7 +58008,7 @@
         <v>1840</v>
       </c>
       <c r="Q856" s="6">
-        <v>119.5</v>
+        <v>102.34</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -59474,7 +59483,7 @@
         <v>1916</v>
       </c>
       <c r="Q881" s="6">
-        <v>305.7</v>
+        <v>220.56</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59828,7 +59837,7 @@
         <v>1935</v>
       </c>
       <c r="Q887" s="6">
-        <v>40</v>
+        <v>29.51</v>
       </c>
       <c r="R887" s="6" t="s">
         <v>23</v>
@@ -59946,7 +59955,7 @@
         <v>1941</v>
       </c>
       <c r="Q889" s="6">
-        <v>97.6</v>
+        <v>54.79</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -61893,7 +61902,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>10280.700000000001</v>
+        <v>4563.67</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62070,7 +62079,7 @@
         <v>2050</v>
       </c>
       <c r="Q925" s="6">
-        <v>366.7</v>
+        <v>168.9</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -62188,7 +62197,7 @@
         <v>2056</v>
       </c>
       <c r="Q927" s="6">
-        <v>1574.96</v>
+        <v>1426.84</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62306,7 +62315,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>831.1</v>
+        <v>732.2</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62896,7 +62905,7 @@
         <v>2092</v>
       </c>
       <c r="Q939" s="6">
-        <v>708.3</v>
+        <v>176.34</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -62955,7 +62964,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>1459.1</v>
+        <v>1428.29</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -63191,7 +63200,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>2507.6</v>
+        <v>1719.75</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63250,7 +63259,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>2530</v>
+        <v>2328.75</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63427,7 +63436,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>3543.8</v>
+        <v>3008.29</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -65061,7 +65070,7 @@
         <v>21</v>
       </c>
       <c r="K976" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L976" s="6">
         <v>0</v>
@@ -65079,7 +65088,7 @@
         <v>2222</v>
       </c>
       <c r="Q976" s="6">
-        <v>0</v>
+        <v>96.14</v>
       </c>
       <c r="R976" s="6" t="s">
         <v>23</v>
@@ -65197,7 +65206,7 @@
         <v>2228</v>
       </c>
       <c r="Q978" s="6">
-        <v>1106.26</v>
+        <v>918.8</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -66082,7 +66091,7 @@
         <v>2275</v>
       </c>
       <c r="Q993" s="6">
-        <v>4914</v>
+        <v>4676.25</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -66141,7 +66150,7 @@
         <v>2278</v>
       </c>
       <c r="Q994" s="6">
-        <v>2742</v>
+        <v>2361.6</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66318,7 +66327,7 @@
         <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>75491</v>
+        <v>74521.094200000007</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66436,7 +66445,7 @@
         <v>2293</v>
       </c>
       <c r="Q999" s="6">
-        <v>5134</v>
+        <v>4264.09</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66495,7 +66504,7 @@
         <v>2296</v>
       </c>
       <c r="Q1000" s="6">
-        <v>737.38</v>
+        <v>500.02</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66967,7 +66976,7 @@
         <v>2320</v>
       </c>
       <c r="Q1008" s="6">
-        <v>100.1</v>
+        <v>89.94</v>
       </c>
       <c r="R1008" s="6" t="s">
         <v>23</v>
@@ -67085,7 +67094,7 @@
         <v>2332</v>
       </c>
       <c r="Q1010" s="6">
-        <v>159.74</v>
+        <v>106.28</v>
       </c>
       <c r="R1010" s="6" t="s">
         <v>23</v>
@@ -67852,7 +67861,7 @@
         <v>2323</v>
       </c>
       <c r="Q1023" s="6">
-        <v>1130.05</v>
+        <v>1070.73</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>
@@ -67917,6 +67926,65 @@
         <v>23</v>
       </c>
       <c r="S1024" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1025" s="5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1025" s="5" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D1025" s="5" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E1025" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1025" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1025" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1025" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1025" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="M1025" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1025" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1025" s="5" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Q1025" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="R1025" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1025" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7090,9 +7090,6 @@
     <t>MONET 31 (VERDE)</t>
   </si>
   <si>
-    <t>Lista Produto : 17-06-2020 09:18:00</t>
-  </si>
-  <si>
     <t>TC16008</t>
   </si>
   <si>
@@ -7100,6 +7097,9 @@
   </si>
   <si>
     <t>MACAU - SAND (BEJE)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 18-06-2020 10:15:32</t>
   </si>
 </sst>
 </file>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -28213,7 +28213,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>27990.73</v>
+        <v>26532.03</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -54114,7 +54114,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>6527.88</v>
+        <v>9169.68</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54409,7 +54409,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>15922.8</v>
+        <v>15232.6</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54704,7 +54704,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>4614.66</v>
+        <v>7308.76</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54881,7 +54881,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>6290.9</v>
+        <v>6280.5</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -56238,7 +56238,7 @@
         <v>1744</v>
       </c>
       <c r="Q826" s="6">
-        <v>655.6</v>
+        <v>643.4</v>
       </c>
       <c r="R826" s="6" t="s">
         <v>23</v>
@@ -56592,7 +56592,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>12544.54</v>
+        <v>12534.95</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -58421,7 +58421,7 @@
         <v>1861</v>
       </c>
       <c r="Q863" s="6">
-        <v>1458.2</v>
+        <v>1390.99</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58539,7 +58539,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>752.44</v>
+        <v>501.93</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -63141,7 +63141,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>2131.35</v>
+        <v>3163.55</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -65796,7 +65796,7 @@
         <v>2257</v>
       </c>
       <c r="Q988" s="6">
-        <v>7032.3</v>
+        <v>10074.6</v>
       </c>
       <c r="R988" s="6" t="s">
         <v>23</v>
@@ -66327,7 +66327,7 @@
         <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>74521.094200000007</v>
+        <v>71772.704199999993</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66504,7 +66504,7 @@
         <v>2296</v>
       </c>
       <c r="Q1000" s="6">
-        <v>500.02</v>
+        <v>447.82</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -67625,7 +67625,7 @@
         <v>2169</v>
       </c>
       <c r="Q1019" s="6">
-        <v>148.1</v>
+        <v>399.3</v>
       </c>
       <c r="R1019" s="6" t="s">
         <v>23</v>
@@ -67931,16 +67931,16 @@
     </row>
     <row r="1025" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1025" s="5" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1025" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="B1025" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1025" s="5" t="s">
+      <c r="D1025" s="5" t="s">
         <v>2357</v>
-      </c>
-      <c r="D1025" s="5" t="s">
-        <v>2358</v>
       </c>
       <c r="E1025" s="6" t="s">
         <v>23</v>
@@ -67976,7 +67976,7 @@
         <v>21</v>
       </c>
       <c r="P1025" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="Q1025" s="6">
         <v>36.200000000000003</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7099,7 +7099,7 @@
     <t>MACAU - SAND (BEJE)</t>
   </si>
   <si>
-    <t>Lista Produto : 18-06-2020 10:15:32</t>
+    <t>Lista Produto : 22-06-2020 08:46:41</t>
   </si>
 </sst>
 </file>
@@ -20897,7 +20897,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>2880.9</v>
+        <v>1518.8</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20956,7 +20956,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>2937.9</v>
+        <v>1788.3</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -22313,7 +22313,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>1183.9000000000001</v>
+        <v>708.4</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -23139,7 +23139,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>607.1</v>
+        <v>463.4</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23198,7 +23198,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>1080.0999999999999</v>
+        <v>792.7</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -26561,7 +26561,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2903.96</v>
+        <v>2871.26</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26620,7 +26620,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2258.7399999999998</v>
+        <v>2226.04</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26679,7 +26679,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3517.45</v>
+        <v>3474.86</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26738,7 +26738,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1250.24</v>
+        <v>1171.76</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26974,7 +26974,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>1395.49</v>
+        <v>1057.24</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -28213,7 +28213,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>26532.03</v>
+        <v>26270.47</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -54409,7 +54409,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>15232.6</v>
+        <v>14725.8</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54704,7 +54704,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>7308.76</v>
+        <v>6809.2</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54881,7 +54881,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>6280.5</v>
+        <v>4786.03</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54940,7 +54940,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>15157.85</v>
+        <v>12838.7</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55117,7 +55117,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>4714.8999999999996</v>
+        <v>4036.9</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56238,7 +56238,7 @@
         <v>1744</v>
       </c>
       <c r="Q826" s="6">
-        <v>643.4</v>
+        <v>696.4</v>
       </c>
       <c r="R826" s="6" t="s">
         <v>23</v>
@@ -56533,7 +56533,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>11440.91</v>
+        <v>9776.66</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56592,7 +56592,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>12534.95</v>
+        <v>11831.21</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -58539,7 +58539,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>501.93</v>
+        <v>495.82</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -61902,7 +61902,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>4563.67</v>
+        <v>3484.56</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62315,7 +62315,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>732.2</v>
+        <v>700.88</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62374,7 +62374,7 @@
         <v>2065</v>
       </c>
       <c r="Q930" s="6">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -63200,7 +63200,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>1719.75</v>
+        <v>1399.15</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -65324,7 +65324,7 @@
         <v>2233</v>
       </c>
       <c r="Q980" s="6">
-        <v>13414.4</v>
+        <v>13400.03</v>
       </c>
       <c r="R980" s="6" t="s">
         <v>23</v>
@@ -66268,7 +66268,7 @@
         <v>2284</v>
       </c>
       <c r="Q996" s="6">
-        <v>30594.799999999999</v>
+        <v>30499.7</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66327,7 +66327,7 @@
         <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>71772.704199999993</v>
+        <v>71707.304199999999</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66386,7 +66386,7 @@
         <v>2290</v>
       </c>
       <c r="Q998" s="6">
-        <v>1034</v>
+        <v>796.25</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -67625,7 +67625,7 @@
         <v>2169</v>
       </c>
       <c r="Q1019" s="6">
-        <v>399.3</v>
+        <v>61.05</v>
       </c>
       <c r="R1019" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7099,7 +7099,7 @@
     <t>MACAU - SAND (BEJE)</t>
   </si>
   <si>
-    <t>Lista Produto : 22-06-2020 08:46:41</t>
+    <t>Lista Produto : 24-06-2020 09:36:38</t>
   </si>
 </sst>
 </file>
@@ -17770,7 +17770,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>2289</v>
+        <v>2281.56</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -21664,7 +21664,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>3932.5</v>
+        <v>2339.5</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -22136,7 +22136,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>262.27</v>
+        <v>233.5</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -23139,7 +23139,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>463.4</v>
+        <v>468.9</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23198,7 +23198,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>792.7</v>
+        <v>835.3</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -24437,7 +24437,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2159.42</v>
+        <v>2153.86</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24555,7 +24555,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>858.12</v>
+        <v>852.56</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24614,7 +24614,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>2971.38</v>
+        <v>2965.82</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24673,7 +24673,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1471.58</v>
+        <v>1454.9</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -25027,7 +25027,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3250.15</v>
+        <v>3145.05</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25794,7 +25794,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3506.2</v>
+        <v>3499.21</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -27844,7 +27844,7 @@
         <v>23</v>
       </c>
       <c r="L345" s="6">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="M345" s="6">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>2554.7600000000002</v>
+        <v>1903.84</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -28095,7 +28095,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>199.3</v>
+        <v>623.1</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -53937,7 +53937,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>2805.22</v>
+        <v>2281.17</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -54114,7 +54114,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>9169.68</v>
+        <v>8145.9</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54350,7 +54350,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>199.1</v>
+        <v>30.62</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54409,7 +54409,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>14725.8</v>
+        <v>12617.85</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54704,7 +54704,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>6809.2</v>
+        <v>6673.96</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54881,7 +54881,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>4786.03</v>
+        <v>-1.17</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54999,7 +54999,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>14448.44</v>
+        <v>11669.84</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -56533,7 +56533,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>9776.66</v>
+        <v>6340.7</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56592,7 +56592,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>11831.21</v>
+        <v>11478.28</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -62964,7 +62964,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>1428.29</v>
+        <v>1321.49</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -63436,7 +63436,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>3008.29</v>
+        <v>2377.69</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -65737,7 +65737,7 @@
         <v>2254</v>
       </c>
       <c r="Q987" s="6">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="R987" s="6" t="s">
         <v>23</v>
@@ -66091,7 +66091,7 @@
         <v>2275</v>
       </c>
       <c r="Q993" s="6">
-        <v>4676.25</v>
+        <v>4438.5</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -66150,7 +66150,7 @@
         <v>2278</v>
       </c>
       <c r="Q994" s="6">
-        <v>2361.6</v>
+        <v>2123.85</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66209,7 +66209,7 @@
         <v>2281</v>
       </c>
       <c r="Q995" s="6">
-        <v>1460</v>
+        <v>1269.8</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66268,7 +66268,7 @@
         <v>2284</v>
       </c>
       <c r="Q996" s="6">
-        <v>30499.7</v>
+        <v>30223.91</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66386,7 +66386,7 @@
         <v>2290</v>
       </c>
       <c r="Q998" s="6">
-        <v>796.25</v>
+        <v>536.70000000000005</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66445,7 +66445,7 @@
         <v>2293</v>
       </c>
       <c r="Q999" s="6">
-        <v>4264.09</v>
+        <v>3683.98</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7099,7 +7099,7 @@
     <t>MACAU - SAND (BEJE)</t>
   </si>
   <si>
-    <t>Lista Produto : 24-06-2020 09:36:38</t>
+    <t>Lista Produto : 10-07-2020 10:13:17</t>
   </si>
 </sst>
 </file>
@@ -17770,7 +17770,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>2281.56</v>
+        <v>2289</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -18065,7 +18065,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>505</v>
+        <v>493.78</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18537,7 +18537,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>7528.82</v>
+        <v>6094.72</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18891,7 +18891,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>995</v>
+        <v>709.4</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -19717,7 +19717,7 @@
         <v>434</v>
       </c>
       <c r="Q207" s="6">
-        <v>3597.6</v>
+        <v>3570.88</v>
       </c>
       <c r="R207" s="6" t="s">
         <v>23</v>
@@ -19835,7 +19835,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>2358.36</v>
+        <v>2284.52</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20307,7 +20307,7 @@
         <v>454</v>
       </c>
       <c r="Q217" s="6">
-        <v>853.5</v>
+        <v>0</v>
       </c>
       <c r="R217" s="6" t="s">
         <v>23</v>
@@ -20602,7 +20602,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>1397.64</v>
+        <v>1419.9</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20661,7 +20661,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>601.91</v>
+        <v>156.83000000000001</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20897,7 +20897,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>1518.8</v>
+        <v>771.56</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -20956,7 +20956,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>1788.3</v>
+        <v>245.05</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21664,7 +21664,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>2339.5</v>
+        <v>717.81</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21723,7 +21723,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>3217.68</v>
+        <v>3163.8</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21900,7 +21900,7 @@
         <v>508</v>
       </c>
       <c r="Q244" s="6">
-        <v>1128.5999999999999</v>
+        <v>1119.03</v>
       </c>
       <c r="R244" s="6" t="s">
         <v>23</v>
@@ -22372,7 +22372,7 @@
         <v>524</v>
       </c>
       <c r="Q252" s="6">
-        <v>3087.7</v>
+        <v>2917.9</v>
       </c>
       <c r="R252" s="6" t="s">
         <v>23</v>
@@ -22549,7 +22549,7 @@
         <v>530</v>
       </c>
       <c r="Q255" s="6">
-        <v>13299</v>
+        <v>13128.8</v>
       </c>
       <c r="R255" s="6" t="s">
         <v>23</v>
@@ -22844,7 +22844,7 @@
         <v>540</v>
       </c>
       <c r="Q260" s="6">
-        <v>3221.3</v>
+        <v>3213.02</v>
       </c>
       <c r="R260" s="6" t="s">
         <v>23</v>
@@ -23080,7 +23080,7 @@
         <v>548</v>
       </c>
       <c r="Q264" s="6">
-        <v>2370</v>
+        <v>2470</v>
       </c>
       <c r="R264" s="6" t="s">
         <v>23</v>
@@ -23139,7 +23139,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>468.9</v>
+        <v>325.2</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23198,7 +23198,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>835.3</v>
+        <v>260.5</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23552,7 +23552,7 @@
         <v>565</v>
       </c>
       <c r="Q272" s="6">
-        <v>2207.4</v>
+        <v>2197.83</v>
       </c>
       <c r="R272" s="6" t="s">
         <v>23</v>
@@ -23847,7 +23847,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1808.6</v>
+        <v>1698.98</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -24083,7 +24083,7 @@
         <v>583</v>
       </c>
       <c r="Q281" s="6">
-        <v>363.5</v>
+        <v>347.2</v>
       </c>
       <c r="R281" s="6" t="s">
         <v>23</v>
@@ -24319,7 +24319,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>433.22</v>
+        <v>772.15</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24437,7 +24437,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2153.86</v>
+        <v>2047.3</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24496,7 +24496,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>1109.44</v>
+        <v>1121.24</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24555,7 +24555,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>852.56</v>
+        <v>644.16</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24614,7 +24614,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>2965.82</v>
+        <v>2218.9899999999998</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24673,7 +24673,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1454.9</v>
+        <v>1441.76</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24968,7 +24968,7 @@
         <v>613</v>
       </c>
       <c r="Q296" s="6">
-        <v>1235.2</v>
+        <v>1215.06</v>
       </c>
       <c r="R296" s="6" t="s">
         <v>23</v>
@@ -25027,7 +25027,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3145.05</v>
+        <v>3089.09</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25086,7 +25086,7 @@
         <v>617</v>
       </c>
       <c r="Q298" s="6">
-        <v>155</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="R298" s="6" t="s">
         <v>23</v>
@@ -25204,7 +25204,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1099.7</v>
+        <v>1070.7</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25381,7 +25381,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>2107.4699999999998</v>
+        <v>2067.85</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25440,7 +25440,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1128.94</v>
+        <v>1124.02</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25676,7 +25676,7 @@
         <v>637</v>
       </c>
       <c r="Q308" s="6">
-        <v>1087.7</v>
+        <v>707.9</v>
       </c>
       <c r="R308" s="6" t="s">
         <v>23</v>
@@ -25794,7 +25794,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>3499.21</v>
+        <v>2866.28</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25912,7 +25912,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>123.83</v>
+        <v>159.74</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -25971,7 +25971,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>249.2</v>
+        <v>230.2</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -26030,7 +26030,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2187.4499999999998</v>
+        <v>2168.65</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26148,7 +26148,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>256.82</v>
+        <v>219.55</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -26207,7 +26207,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8727.5</v>
+        <v>8696.4</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26266,7 +26266,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2428.16</v>
+        <v>2382.9299999999998</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26325,7 +26325,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8756.86</v>
+        <v>8602.23</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26384,7 +26384,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>4304.8999999999996</v>
+        <v>4146.07</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26443,7 +26443,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>6608.48</v>
+        <v>6478.75</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26502,7 +26502,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1641.54</v>
+        <v>1606.63</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26561,7 +26561,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2871.26</v>
+        <v>2867.84</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26620,7 +26620,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2226.04</v>
+        <v>2186.8000000000002</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26679,7 +26679,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3474.86</v>
+        <v>3424.79</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26738,7 +26738,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1171.76</v>
+        <v>1134.1199999999999</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26797,7 +26797,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>90</v>
+        <v>263.63</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26856,7 +26856,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>2928.72</v>
+        <v>2687.36</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26915,7 +26915,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1919.6</v>
+        <v>1897.04</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27033,7 +27033,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2055.4299999999998</v>
+        <v>1760.12</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27092,7 +27092,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2942.1</v>
+        <v>2906.74</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27151,7 +27151,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1864.11</v>
+        <v>1816.13</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27210,7 +27210,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>74.8</v>
+        <v>67.22</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -27328,7 +27328,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1995.8</v>
+        <v>1842.7</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27741,7 +27741,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>207.3</v>
+        <v>408.14</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27859,7 +27859,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>1903.84</v>
+        <v>1230.3</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27918,7 +27918,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>39.28</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -28036,7 +28036,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>82.1</v>
+        <v>40.06</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28095,7 +28095,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>623.1</v>
+        <v>263.64999999999998</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28213,7 +28213,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>26270.47</v>
+        <v>25066.87</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28272,7 +28272,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3523.66</v>
+        <v>3516.71</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -35765,7 +35765,7 @@
         <v>1012</v>
       </c>
       <c r="Q479" s="6">
-        <v>138.9</v>
+        <v>175</v>
       </c>
       <c r="R479" s="6" t="s">
         <v>23</v>
@@ -53937,7 +53937,7 @@
         <v>1649</v>
       </c>
       <c r="Q787" s="6">
-        <v>2281.17</v>
+        <v>2152</v>
       </c>
       <c r="R787" s="6" t="s">
         <v>23</v>
@@ -54114,7 +54114,7 @@
         <v>1655</v>
       </c>
       <c r="Q790" s="6">
-        <v>8145.9</v>
+        <v>4186.38</v>
       </c>
       <c r="R790" s="6" t="s">
         <v>23</v>
@@ -54232,7 +54232,7 @@
         <v>1659</v>
       </c>
       <c r="Q792" s="6">
-        <v>874.1</v>
+        <v>0</v>
       </c>
       <c r="R792" s="6" t="s">
         <v>23</v>
@@ -54350,7 +54350,7 @@
         <v>1663</v>
       </c>
       <c r="Q794" s="6">
-        <v>30.62</v>
+        <v>37</v>
       </c>
       <c r="R794" s="6" t="s">
         <v>23</v>
@@ -54409,7 +54409,7 @@
         <v>1665</v>
       </c>
       <c r="Q795" s="6">
-        <v>12617.85</v>
+        <v>9314.6</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54704,7 +54704,7 @@
         <v>1675</v>
       </c>
       <c r="Q800" s="6">
-        <v>6673.96</v>
+        <v>4704.54</v>
       </c>
       <c r="R800" s="6" t="s">
         <v>23</v>
@@ -54881,7 +54881,7 @@
         <v>1681</v>
       </c>
       <c r="Q803" s="6">
-        <v>-1.17</v>
+        <v>402.2</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54940,7 +54940,7 @@
         <v>1684</v>
       </c>
       <c r="Q804" s="6">
-        <v>12838.7</v>
+        <v>7066.5</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -54999,7 +54999,7 @@
         <v>1687</v>
       </c>
       <c r="Q805" s="6">
-        <v>11669.84</v>
+        <v>252.86</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -55117,7 +55117,7 @@
         <v>1693</v>
       </c>
       <c r="Q807" s="6">
-        <v>4036.9</v>
+        <v>3411.92</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56061,7 +56061,7 @@
         <v>1735</v>
       </c>
       <c r="Q823" s="6">
-        <v>3706.16</v>
+        <v>2264.09</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56533,7 +56533,7 @@
         <v>1758</v>
       </c>
       <c r="Q831" s="6">
-        <v>6340.7</v>
+        <v>6309.51</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56592,7 +56592,7 @@
         <v>1762</v>
       </c>
       <c r="Q832" s="6">
-        <v>11478.28</v>
+        <v>11456.6</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56828,7 +56828,7 @@
         <v>1775</v>
       </c>
       <c r="Q836" s="6">
-        <v>599.20000000000005</v>
+        <v>549.20000000000005</v>
       </c>
       <c r="R836" s="6" t="s">
         <v>23</v>
@@ -57064,7 +57064,7 @@
         <v>1790</v>
       </c>
       <c r="Q840" s="6">
-        <v>4629.6000000000004</v>
+        <v>4394.62</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -57226,7 +57226,7 @@
         <v>23</v>
       </c>
       <c r="L843" s="6">
-        <v>4.25</v>
+        <v>3.93</v>
       </c>
       <c r="M843" s="6">
         <v>0</v>
@@ -57241,7 +57241,7 @@
         <v>1800</v>
       </c>
       <c r="Q843" s="6">
-        <v>14.1</v>
+        <v>51.15</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57359,7 +57359,7 @@
         <v>1806</v>
       </c>
       <c r="Q845" s="6">
-        <v>247.7</v>
+        <v>224.66</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -58421,7 +58421,7 @@
         <v>1861</v>
       </c>
       <c r="Q863" s="6">
-        <v>1390.99</v>
+        <v>1274.9000000000001</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58480,7 +58480,7 @@
         <v>1864</v>
       </c>
       <c r="Q864" s="6">
-        <v>946.48</v>
+        <v>915.93</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58539,7 +58539,7 @@
         <v>1868</v>
       </c>
       <c r="Q865" s="6">
-        <v>495.82</v>
+        <v>371.7</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58598,7 +58598,7 @@
         <v>1871</v>
       </c>
       <c r="Q866" s="6">
-        <v>1752</v>
+        <v>1607.14</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58952,7 +58952,7 @@
         <v>1889</v>
       </c>
       <c r="Q872" s="6">
-        <v>6</v>
+        <v>101.65</v>
       </c>
       <c r="R872" s="6" t="s">
         <v>23</v>
@@ -59011,7 +59011,7 @@
         <v>1892</v>
       </c>
       <c r="Q873" s="6">
-        <v>120</v>
+        <v>26.74</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59070,7 +59070,7 @@
         <v>1895</v>
       </c>
       <c r="Q874" s="6">
-        <v>487</v>
+        <v>429.4</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59129,7 +59129,7 @@
         <v>1898</v>
       </c>
       <c r="Q875" s="6">
-        <v>54</v>
+        <v>46.19</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -59188,7 +59188,7 @@
         <v>1901</v>
       </c>
       <c r="Q876" s="6">
-        <v>146</v>
+        <v>126.05</v>
       </c>
       <c r="R876" s="6" t="s">
         <v>23</v>
@@ -59424,7 +59424,7 @@
         <v>1913</v>
       </c>
       <c r="Q880" s="6">
-        <v>516.29999999999995</v>
+        <v>376.9</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -61843,7 +61843,7 @@
         <v>2038</v>
       </c>
       <c r="Q921" s="6">
-        <v>1982.1</v>
+        <v>1824.9</v>
       </c>
       <c r="R921" s="6" t="s">
         <v>23</v>
@@ -61902,7 +61902,7 @@
         <v>2041</v>
       </c>
       <c r="Q922" s="6">
-        <v>3484.56</v>
+        <v>1628.03</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62079,7 +62079,7 @@
         <v>2050</v>
       </c>
       <c r="Q925" s="6">
-        <v>168.9</v>
+        <v>201.72</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -62138,7 +62138,7 @@
         <v>2053</v>
       </c>
       <c r="Q926" s="6">
-        <v>1933</v>
+        <v>2429</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62197,7 +62197,7 @@
         <v>2056</v>
       </c>
       <c r="Q927" s="6">
-        <v>1426.84</v>
+        <v>1412.26</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62256,7 +62256,7 @@
         <v>2059</v>
       </c>
       <c r="Q928" s="6">
-        <v>146.4</v>
+        <v>136.83000000000001</v>
       </c>
       <c r="R928" s="6" t="s">
         <v>23</v>
@@ -62315,7 +62315,7 @@
         <v>2062</v>
       </c>
       <c r="Q929" s="6">
-        <v>700.88</v>
+        <v>521.07000000000005</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62669,7 +62669,7 @@
         <v>2080</v>
       </c>
       <c r="Q935" s="6">
-        <v>898.8</v>
+        <v>1317</v>
       </c>
       <c r="R935" s="6" t="s">
         <v>23</v>
@@ -62728,7 +62728,7 @@
         <v>2083</v>
       </c>
       <c r="Q936" s="6">
-        <v>3115.3</v>
+        <v>1609.06</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62964,7 +62964,7 @@
         <v>2095</v>
       </c>
       <c r="Q940" s="6">
-        <v>1321.49</v>
+        <v>1193.92</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -63082,7 +63082,7 @@
         <v>2101</v>
       </c>
       <c r="Q942" s="6">
-        <v>156.9</v>
+        <v>108.9</v>
       </c>
       <c r="R942" s="6" t="s">
         <v>23</v>
@@ -63141,7 +63141,7 @@
         <v>2104</v>
       </c>
       <c r="Q943" s="6">
-        <v>3163.55</v>
+        <v>2569.25</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -63200,7 +63200,7 @@
         <v>2107</v>
       </c>
       <c r="Q944" s="6">
-        <v>1399.15</v>
+        <v>1029.9000000000001</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63259,7 +63259,7 @@
         <v>2110</v>
       </c>
       <c r="Q945" s="6">
-        <v>2328.75</v>
+        <v>2199.9499999999998</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63436,7 +63436,7 @@
         <v>2119</v>
       </c>
       <c r="Q948" s="6">
-        <v>2377.69</v>
+        <v>2183.96</v>
       </c>
       <c r="R948" s="6" t="s">
         <v>23</v>
@@ -63495,7 +63495,7 @@
         <v>2122</v>
       </c>
       <c r="Q949" s="6">
-        <v>463.9</v>
+        <v>364.1</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63554,7 +63554,7 @@
         <v>2125</v>
       </c>
       <c r="Q950" s="6">
-        <v>584.16999999999996</v>
+        <v>182.57</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63613,7 +63613,7 @@
         <v>2128</v>
       </c>
       <c r="Q951" s="6">
-        <v>581.79999999999995</v>
+        <v>531.9</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63731,7 +63731,7 @@
         <v>2134</v>
       </c>
       <c r="Q953" s="6">
-        <v>240.8</v>
+        <v>307.5</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63790,7 +63790,7 @@
         <v>2137</v>
       </c>
       <c r="Q954" s="6">
-        <v>444</v>
+        <v>394.1</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -64085,7 +64085,7 @@
         <v>2151</v>
       </c>
       <c r="Q959" s="6">
-        <v>2201.8000000000002</v>
+        <v>1870.05</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -64144,7 +64144,7 @@
         <v>2154</v>
       </c>
       <c r="Q960" s="6">
-        <v>4592.6000000000004</v>
+        <v>4193.3999999999996</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64203,7 +64203,7 @@
         <v>2157</v>
       </c>
       <c r="Q961" s="6">
-        <v>4768.8</v>
+        <v>3837.7</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -65073,7 +65073,7 @@
         <v>23</v>
       </c>
       <c r="L976" s="6">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="M976" s="6">
         <v>0</v>
@@ -65206,7 +65206,7 @@
         <v>2228</v>
       </c>
       <c r="Q978" s="6">
-        <v>918.8</v>
+        <v>1478.9</v>
       </c>
       <c r="R978" s="6" t="s">
         <v>23</v>
@@ -65265,7 +65265,7 @@
         <v>2230</v>
       </c>
       <c r="Q979" s="6">
-        <v>2004.8</v>
+        <v>1982.82</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -66091,7 +66091,7 @@
         <v>2275</v>
       </c>
       <c r="Q993" s="6">
-        <v>4438.5</v>
+        <v>3413.52</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -66209,7 +66209,7 @@
         <v>2281</v>
       </c>
       <c r="Q995" s="6">
-        <v>1269.8</v>
+        <v>1203.8599999999999</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66268,7 +66268,7 @@
         <v>2284</v>
       </c>
       <c r="Q996" s="6">
-        <v>30223.91</v>
+        <v>29962.74</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66327,7 +66327,7 @@
         <v>2287</v>
       </c>
       <c r="Q997" s="6">
-        <v>71707.304199999999</v>
+        <v>63649.820370000001</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66445,7 +66445,7 @@
         <v>2293</v>
       </c>
       <c r="Q999" s="6">
-        <v>3683.98</v>
+        <v>2590.69</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66504,7 +66504,7 @@
         <v>2296</v>
       </c>
       <c r="Q1000" s="6">
-        <v>447.82</v>
+        <v>183.62</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66563,7 +66563,7 @@
         <v>2299</v>
       </c>
       <c r="Q1001" s="6">
-        <v>5688.1</v>
+        <v>2375.8200000000002</v>
       </c>
       <c r="R1001" s="6" t="s">
         <v>23</v>
@@ -66622,7 +66622,7 @@
         <v>2302</v>
       </c>
       <c r="Q1002" s="6">
-        <v>10081</v>
+        <v>18919.66</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -67861,7 +67861,7 @@
         <v>2323</v>
       </c>
       <c r="Q1023" s="6">
-        <v>1070.73</v>
+        <v>442.72</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7138,9 +7138,6 @@
     <t>SIENA 900 (BRANCO)</t>
   </si>
   <si>
-    <t>Lista Produto : 17-07-2020 08:43:54</t>
-  </si>
-  <si>
     <t>TC15201</t>
   </si>
   <si>
@@ -7148,6 +7145,9 @@
   </si>
   <si>
     <t>MANILA CUOIO (CASTANHO/BRISTOL)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 22-07-2020 09:23:23</t>
   </si>
 </sst>
 </file>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18054,7 +18054,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>477.29</v>
+        <v>328.49</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18113,7 +18113,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>382.18</v>
+        <v>270.58</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18585,7 +18585,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>4694.7700000000004</v>
+        <v>4685.07</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -20945,7 +20945,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>-61.9</v>
+        <v>-995.95</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -21004,7 +21004,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>245.05</v>
+        <v>90.85</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21712,7 +21712,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>717.81</v>
+        <v>2627.39</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -23482,7 +23482,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>459.2</v>
+        <v>380</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -24367,7 +24367,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>754.05</v>
+        <v>747.34</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24485,7 +24485,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>2047.3</v>
+        <v>1947.96</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -25311,7 +25311,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>368.2</v>
+        <v>561.4</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25370,7 +25370,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>700</v>
+        <v>708.82</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -25429,7 +25429,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>2035.25</v>
+        <v>3272.6</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25842,7 +25842,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>2656.08</v>
+        <v>2075.2800000000002</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25945,7 +25945,7 @@
         <v>23</v>
       </c>
       <c r="L312" s="6">
-        <v>3.02</v>
+        <v>2.68</v>
       </c>
       <c r="M312" s="6">
         <v>0</v>
@@ -25960,7 +25960,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>159.74</v>
+        <v>3524.64</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26019,7 +26019,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>230.2</v>
+        <v>211.4</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -26078,7 +26078,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2164.9</v>
+        <v>2146.1</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26196,7 +26196,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>219.55</v>
+        <v>200.75</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -26491,7 +26491,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>6058.6</v>
+        <v>6041.32</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26550,7 +26550,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1606.63</v>
+        <v>1597.98</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26609,7 +26609,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2863.56</v>
+        <v>2861.85</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26727,7 +26727,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3424.79</v>
+        <v>3421.27</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26786,7 +26786,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1103.02</v>
+        <v>1101.31</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26845,7 +26845,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>206.99</v>
+        <v>200.28</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26904,7 +26904,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>2298.3200000000002</v>
+        <v>2121.6</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -27022,7 +27022,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>855.49</v>
+        <v>811.24</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -27081,7 +27081,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>1760.12</v>
+        <v>2777.72</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27140,7 +27140,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>1006.83</v>
+        <v>592.05999999999995</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27199,7 +27199,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1614.38</v>
+        <v>1566.37</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27317,7 +27317,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1375.65</v>
+        <v>1371.89</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27376,7 +27376,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1872.74</v>
+        <v>1850.94</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27789,7 +27789,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>400.9</v>
+        <v>394.19</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27907,7 +27907,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>460.7</v>
+        <v>1847.3</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -28025,7 +28025,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>60.78</v>
+        <v>42.28</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -28084,7 +28084,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>38.869999999999997</v>
+        <v>1048.23</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28261,7 +28261,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>25066.87</v>
+        <v>24816.12</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28438,7 +28438,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>217.93</v>
+        <v>178.17</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -51743,7 +51743,7 @@
         <v>1563</v>
       </c>
       <c r="Q749" s="6">
-        <v>258.85000000000002</v>
+        <v>257.8</v>
       </c>
       <c r="R749" s="6" t="s">
         <v>23</v>
@@ -54516,7 +54516,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>14791.97</v>
+        <v>12828.19</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54811,7 +54811,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>3684.5</v>
+        <v>3322.5</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54988,7 +54988,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>402.2</v>
+        <v>6276.2</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55106,7 +55106,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>252.86</v>
+        <v>12252.86</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55165,7 +55165,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>44.6</v>
+        <v>2544.6</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56168,7 +56168,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>2264.09</v>
+        <v>1714.73</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -56640,7 +56640,7 @@
         <v>1758</v>
       </c>
       <c r="Q832" s="6">
-        <v>4978.1099999999997</v>
+        <v>2779.38</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -57466,7 +57466,7 @@
         <v>1806</v>
       </c>
       <c r="Q846" s="6">
-        <v>224.66</v>
+        <v>195.86</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -61950,7 +61950,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>1549.8</v>
+        <v>764.51</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62186,7 +62186,7 @@
         <v>2050</v>
       </c>
       <c r="Q926" s="6">
-        <v>201.72</v>
+        <v>1544.22</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62422,7 +62422,7 @@
         <v>2062</v>
       </c>
       <c r="Q930" s="6">
-        <v>521.07000000000005</v>
+        <v>627.15</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62481,7 +62481,7 @@
         <v>2065</v>
       </c>
       <c r="Q931" s="6">
-        <v>47</v>
+        <v>1090</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -62540,7 +62540,7 @@
         <v>2068</v>
       </c>
       <c r="Q932" s="6">
-        <v>791</v>
+        <v>673.9</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -63071,7 +63071,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>1187.21</v>
+        <v>1178.1600000000001</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63248,7 +63248,7 @@
         <v>2104</v>
       </c>
       <c r="Q944" s="6">
-        <v>3065.3</v>
+        <v>2907.29</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63307,7 +63307,7 @@
         <v>2107</v>
       </c>
       <c r="Q945" s="6">
-        <v>1029.9000000000001</v>
+        <v>1523.45</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63366,7 +63366,7 @@
         <v>2110</v>
       </c>
       <c r="Q946" s="6">
-        <v>2187.3200000000002</v>
+        <v>2107.17</v>
       </c>
       <c r="R946" s="6" t="s">
         <v>23</v>
@@ -63543,7 +63543,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>1637.74</v>
+        <v>1513.06</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -65313,7 +65313,7 @@
         <v>2228</v>
       </c>
       <c r="Q979" s="6">
-        <v>882</v>
+        <v>550.25</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -66198,7 +66198,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>3247.91</v>
+        <v>2832.85</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66257,7 +66257,7 @@
         <v>2278</v>
       </c>
       <c r="Q995" s="6">
-        <v>2031.35</v>
+        <v>1890.43</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66316,7 +66316,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>1120.6099999999999</v>
+        <v>1105.81</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66375,7 +66375,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>29935.22</v>
+        <v>31708.94</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66434,7 +66434,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>61527.890939999997</v>
+        <v>57475.350939999997</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66552,7 +66552,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>2590.69</v>
+        <v>10171.23</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66729,7 +66729,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>11393.68</v>
+        <v>7709.45</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66788,7 +66788,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>333.15</v>
+        <v>58.15</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -66965,7 +66965,7 @@
         <v>2314</v>
       </c>
       <c r="Q1007" s="6">
-        <v>935.9</v>
+        <v>909.5</v>
       </c>
       <c r="R1007" s="6" t="s">
         <v>23</v>
@@ -67802,16 +67802,16 @@
     </row>
     <row r="1022" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1022" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B1022" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1022" s="5" t="s">
         <v>2372</v>
       </c>
-      <c r="B1022" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1022" s="5" t="s">
+      <c r="D1022" s="5" t="s">
         <v>2373</v>
-      </c>
-      <c r="D1022" s="5" t="s">
-        <v>2374</v>
       </c>
       <c r="E1022" s="6" t="s">
         <v>23</v>
@@ -67847,7 +67847,7 @@
         <v>21</v>
       </c>
       <c r="P1022" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="Q1022" s="6">
         <v>0</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.3\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7147,7 +7147,7 @@
     <t>MANILA CUOIO (CASTANHO/BRISTOL)</t>
   </si>
   <si>
-    <t>Lista Produto : 22-07-2020 09:23:23</t>
+    <t>Lista Produto : 27-07-2020 09:42:52</t>
   </si>
 </sst>
 </file>
@@ -18054,7 +18054,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>328.49</v>
+        <v>216.89</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -19706,7 +19706,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>2112.1999999999998</v>
+        <v>1719.2</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -20945,7 +20945,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>-995.95</v>
+        <v>-507.37</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -21712,7 +21712,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>2627.39</v>
+        <v>2665.39</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -23482,7 +23482,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>380</v>
+        <v>277.04000000000002</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -24367,7 +24367,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>747.34</v>
+        <v>841.24</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24662,7 +24662,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>2158.27</v>
+        <v>953.91</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24721,7 +24721,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1441.49</v>
+        <v>1694.63</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -25488,7 +25488,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1124.02</v>
+        <v>1122.5</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25842,7 +25842,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>2075.2800000000002</v>
+        <v>2060.1</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25960,7 +25960,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>3524.64</v>
+        <v>3520.88</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26314,7 +26314,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2273.29</v>
+        <v>2043.55</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26373,7 +26373,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8431.67</v>
+        <v>8066.91</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26432,7 +26432,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>4022.57</v>
+        <v>3660.37</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26491,7 +26491,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>6041.32</v>
+        <v>5640.51</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26550,7 +26550,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1597.98</v>
+        <v>1571.82</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26668,7 +26668,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2186.8000000000002</v>
+        <v>2108.3200000000002</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26727,7 +26727,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3421.27</v>
+        <v>3414.73</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26786,7 +26786,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1101.31</v>
+        <v>1035.9100000000001</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26904,7 +26904,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>2121.6</v>
+        <v>1858.4</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26963,7 +26963,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1897.04</v>
+        <v>1893.29</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27081,7 +27081,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2777.72</v>
+        <v>2773.97</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27140,7 +27140,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>592.05999999999995</v>
+        <v>2584.2600000000002</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -28084,7 +28084,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>1048.23</v>
+        <v>1046.73</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28143,7 +28143,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>262.89999999999998</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28202,7 +28202,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>4488.2</v>
+        <v>4453.05</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28320,7 +28320,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3516.06</v>
+        <v>3514.76</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28497,7 +28497,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1380.67</v>
+        <v>1367.7</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -54221,7 +54221,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>14390.21</v>
+        <v>13264.73</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54516,7 +54516,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>12828.19</v>
+        <v>12824.57</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54811,7 +54811,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>3322.5</v>
+        <v>3226.5</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54988,7 +54988,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>6276.2</v>
+        <v>2777.4</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55106,7 +55106,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>12252.86</v>
+        <v>5367.16</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55165,7 +55165,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>2544.6</v>
+        <v>781.8</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56640,7 +56640,7 @@
         <v>1758</v>
       </c>
       <c r="Q832" s="6">
-        <v>2779.38</v>
+        <v>2669.85</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -57761,7 +57761,7 @@
         <v>1822</v>
       </c>
       <c r="Q851" s="6">
-        <v>38606</v>
+        <v>38595.61</v>
       </c>
       <c r="R851" s="6" t="s">
         <v>23</v>
@@ -58056,7 +58056,7 @@
         <v>1837</v>
       </c>
       <c r="Q856" s="6">
-        <v>154.4</v>
+        <v>144.83000000000001</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -58528,7 +58528,7 @@
         <v>1861</v>
       </c>
       <c r="Q864" s="6">
-        <v>1171.03</v>
+        <v>1160.77</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58646,7 +58646,7 @@
         <v>1868</v>
       </c>
       <c r="Q866" s="6">
-        <v>358.43</v>
+        <v>40.03</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -59059,7 +59059,7 @@
         <v>1889</v>
       </c>
       <c r="Q873" s="6">
-        <v>100.75</v>
+        <v>89.5</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59295,7 +59295,7 @@
         <v>1901</v>
       </c>
       <c r="Q877" s="6">
-        <v>125.15</v>
+        <v>126.05</v>
       </c>
       <c r="R877" s="6" t="s">
         <v>23</v>
@@ -59354,7 +59354,7 @@
         <v>1904</v>
       </c>
       <c r="Q878" s="6">
-        <v>207.5</v>
+        <v>208.4</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -59472,7 +59472,7 @@
         <v>1910</v>
       </c>
       <c r="Q880" s="6">
-        <v>208</v>
+        <v>208.9</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -59767,7 +59767,7 @@
         <v>1925</v>
       </c>
       <c r="Q885" s="6">
-        <v>3680.4</v>
+        <v>3459.23</v>
       </c>
       <c r="R885" s="6" t="s">
         <v>23</v>
@@ -59826,7 +59826,7 @@
         <v>1928</v>
       </c>
       <c r="Q886" s="6">
-        <v>574.46</v>
+        <v>574.9</v>
       </c>
       <c r="R886" s="6" t="s">
         <v>23</v>
@@ -60180,7 +60180,7 @@
         <v>1947</v>
       </c>
       <c r="Q892" s="6">
-        <v>250.7</v>
+        <v>244.19</v>
       </c>
       <c r="R892" s="6" t="s">
         <v>23</v>
@@ -61950,7 +61950,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>764.51</v>
+        <v>760.58</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62009,7 +62009,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>1609.82</v>
+        <v>554.58000000000004</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -62599,7 +62599,7 @@
         <v>2071</v>
       </c>
       <c r="Q933" s="6">
-        <v>1489</v>
+        <v>551.79999999999995</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -63248,7 +63248,7 @@
         <v>2104</v>
       </c>
       <c r="Q944" s="6">
-        <v>2907.29</v>
+        <v>2905</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63543,7 +63543,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>1513.06</v>
+        <v>1502.92</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -64310,7 +64310,7 @@
         <v>2157</v>
       </c>
       <c r="Q962" s="6">
-        <v>3837.7</v>
+        <v>3611.4</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -65431,7 +65431,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>13400.03</v>
+        <v>11803.38</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65903,7 +65903,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>12113.1</v>
+        <v>10689.6</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66198,7 +66198,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>2832.85</v>
+        <v>2740.23</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66434,7 +66434,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>57475.350939999997</v>
+        <v>51700.255969999998</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66729,7 +66729,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>7709.45</v>
+        <v>7608.77</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66788,7 +66788,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>58.15</v>
+        <v>48.26</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -67201,7 +67201,7 @@
         <v>2332</v>
       </c>
       <c r="Q1011" s="6">
-        <v>74.180000000000007</v>
+        <v>63.47</v>
       </c>
       <c r="R1011" s="6" t="s">
         <v>23</v>
@@ -67832,7 +67832,7 @@
         <v>21</v>
       </c>
       <c r="K1022" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1022" s="6">
         <v>0</v>
@@ -67850,7 +67850,7 @@
         <v>2372</v>
       </c>
       <c r="Q1022" s="6">
-        <v>0</v>
+        <v>-33.81</v>
       </c>
       <c r="R1022" s="6" t="s">
         <v>23</v>
@@ -68204,7 +68204,7 @@
         <v>2323</v>
       </c>
       <c r="Q1028" s="6">
-        <v>384.28</v>
+        <v>343.28</v>
       </c>
       <c r="R1028" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15426" uniqueCount="2375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15441" uniqueCount="2378">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7147,7 +7147,16 @@
     <t>MANILA CUOIO (CASTANHO/BRISTOL)</t>
   </si>
   <si>
-    <t>Lista Produto : 27-07-2020 09:42:52</t>
+    <t>TC15202</t>
+  </si>
+  <si>
+    <t>G4601</t>
+  </si>
+  <si>
+    <t>GOMERA 16 (BLACK)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 30-07-2020 09:21:11</t>
   </si>
 </sst>
 </file>
@@ -7314,8 +7323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1030" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1030"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1031" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1031"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7604,7 +7613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1030"/>
+  <dimension ref="A1:S1031"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -7658,7 +7667,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18054,7 +18063,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>216.89</v>
+        <v>142.49</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18113,7 +18122,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>270.58</v>
+        <v>84.21</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -19647,7 +19656,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19883,7 +19892,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>2284.52</v>
+        <v>2283.92</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20650,7 +20659,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>1937.9</v>
+        <v>1320.69</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20945,7 +20954,7 @@
         <v>474</v>
       </c>
       <c r="Q227" s="6">
-        <v>-507.37</v>
+        <v>0</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>23</v>
@@ -21122,7 +21131,7 @@
         <v>480</v>
       </c>
       <c r="Q230" s="6">
-        <v>3559.5</v>
+        <v>3559.2</v>
       </c>
       <c r="R230" s="6" t="s">
         <v>23</v>
@@ -21712,7 +21721,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>2665.39</v>
+        <v>2665.02</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21771,7 +21780,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>3136.37</v>
+        <v>3135.77</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21889,7 +21898,7 @@
         <v>506</v>
       </c>
       <c r="Q243" s="6">
-        <v>614.20000000000005</v>
+        <v>613.83000000000004</v>
       </c>
       <c r="R243" s="6" t="s">
         <v>23</v>
@@ -22892,7 +22901,7 @@
         <v>540</v>
       </c>
       <c r="Q260" s="6">
-        <v>3213.02</v>
+        <v>3212.65</v>
       </c>
       <c r="R260" s="6" t="s">
         <v>23</v>
@@ -23600,7 +23609,7 @@
         <v>565</v>
       </c>
       <c r="Q272" s="6">
-        <v>2197.83</v>
+        <v>2197.46</v>
       </c>
       <c r="R272" s="6" t="s">
         <v>23</v>
@@ -24249,7 +24258,7 @@
         <v>587</v>
       </c>
       <c r="Q283" s="6">
-        <v>417.5</v>
+        <v>427.5</v>
       </c>
       <c r="R283" s="6" t="s">
         <v>23</v>
@@ -24485,7 +24494,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1947.96</v>
+        <v>1927.68</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24662,7 +24671,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>953.91</v>
+        <v>610.70000000000005</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24721,7 +24730,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1694.63</v>
+        <v>1675.09</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -25134,7 +25143,7 @@
         <v>617</v>
       </c>
       <c r="Q298" s="6">
-        <v>149.4</v>
+        <v>149.03</v>
       </c>
       <c r="R298" s="6" t="s">
         <v>23</v>
@@ -25252,7 +25261,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1070.7</v>
+        <v>1070.33</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25429,7 +25438,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>3272.6</v>
+        <v>3074.43</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25488,7 +25497,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1122.5</v>
+        <v>1122.1300000000001</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25960,7 +25969,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>3520.88</v>
+        <v>3520.23</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26078,7 +26087,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2146.1</v>
+        <v>2145.4499999999998</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26255,7 +26264,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8680.85</v>
+        <v>8680.48</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26314,7 +26323,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2043.55</v>
+        <v>2042.9</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26373,7 +26382,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8066.91</v>
+        <v>8025.22</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26432,7 +26441,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3660.37</v>
+        <v>3638.7</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26491,7 +26500,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5640.51</v>
+        <v>5639.86</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26550,7 +26559,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1571.82</v>
+        <v>1373.65</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26609,7 +26618,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2861.85</v>
+        <v>2812.4</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26668,7 +26677,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2108.3200000000002</v>
+        <v>2107.9499999999998</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26727,7 +26736,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3414.73</v>
+        <v>3364.91</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26786,7 +26795,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1035.9100000000001</v>
+        <v>1035.54</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -27022,7 +27031,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>811.24</v>
+        <v>711.59</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -27140,7 +27149,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>2584.2600000000002</v>
+        <v>1656.3</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27199,7 +27208,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1566.37</v>
+        <v>1459.85</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -28261,7 +28270,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>24816.12</v>
+        <v>22759.97</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28438,7 +28447,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>178.17</v>
+        <v>92.37</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -29600,10 +29609,10 @@
         <v>21</v>
       </c>
       <c r="K374" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L374" s="6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M374" s="6">
         <v>0</v>
@@ -29618,7 +29627,7 @@
         <v>2360</v>
       </c>
       <c r="Q374" s="6">
-        <v>0</v>
+        <v>4995.8500000000004</v>
       </c>
       <c r="R374" s="6" t="s">
         <v>23</v>
@@ -54044,7 +54053,7 @@
         <v>1649</v>
       </c>
       <c r="Q788" s="6">
-        <v>1860.52</v>
+        <v>1569.04</v>
       </c>
       <c r="R788" s="6" t="s">
         <v>23</v>
@@ -54221,7 +54230,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>13264.73</v>
+        <v>10891.73</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54516,7 +54525,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>12824.57</v>
+        <v>10891.77</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54811,7 +54820,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>3226.5</v>
+        <v>2574.9</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54988,7 +54997,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>2777.4</v>
+        <v>1782.79</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55106,7 +55115,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>5367.16</v>
+        <v>2273.61</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55165,7 +55174,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>781.8</v>
+        <v>171.6</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56699,7 +56708,7 @@
         <v>1762</v>
       </c>
       <c r="Q833" s="6">
-        <v>11456.6</v>
+        <v>10483</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -57053,7 +57062,7 @@
         <v>1782</v>
       </c>
       <c r="Q839" s="6">
-        <v>136.78</v>
+        <v>136.41</v>
       </c>
       <c r="R839" s="6" t="s">
         <v>23</v>
@@ -57112,7 +57121,7 @@
         <v>1786</v>
       </c>
       <c r="Q840" s="6">
-        <v>127.8</v>
+        <v>127.43</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -57171,7 +57180,7 @@
         <v>1790</v>
       </c>
       <c r="Q841" s="6">
-        <v>4394.62</v>
+        <v>4394.25</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -57230,7 +57239,7 @@
         <v>747</v>
       </c>
       <c r="Q842" s="6">
-        <v>638.12</v>
+        <v>637.75</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -57289,7 +57298,7 @@
         <v>1797</v>
       </c>
       <c r="Q843" s="6">
-        <v>121.7</v>
+        <v>121.33</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57348,7 +57357,7 @@
         <v>1800</v>
       </c>
       <c r="Q844" s="6">
-        <v>50.7</v>
+        <v>49.13</v>
       </c>
       <c r="R844" s="6" t="s">
         <v>23</v>
@@ -57584,7 +57593,7 @@
         <v>1812</v>
       </c>
       <c r="Q848" s="6">
-        <v>402.5</v>
+        <v>402.13</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -57761,7 +57770,7 @@
         <v>1822</v>
       </c>
       <c r="Q851" s="6">
-        <v>38595.61</v>
+        <v>38595.01</v>
       </c>
       <c r="R851" s="6" t="s">
         <v>23</v>
@@ -58351,7 +58360,7 @@
         <v>1852</v>
       </c>
       <c r="Q861" s="6">
-        <v>357</v>
+        <v>356.33</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58469,7 +58478,7 @@
         <v>1858</v>
       </c>
       <c r="Q863" s="6">
-        <v>2312.9</v>
+        <v>1160.2</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58587,7 +58596,7 @@
         <v>1864</v>
       </c>
       <c r="Q865" s="6">
-        <v>885.38</v>
+        <v>855.05</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58823,7 +58832,7 @@
         <v>1877</v>
       </c>
       <c r="Q869" s="6">
-        <v>265.39999999999998</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58882,7 +58891,7 @@
         <v>1880</v>
       </c>
       <c r="Q870" s="6">
-        <v>148.19999999999999</v>
+        <v>147.6</v>
       </c>
       <c r="R870" s="6" t="s">
         <v>23</v>
@@ -59059,7 +59068,7 @@
         <v>1889</v>
       </c>
       <c r="Q873" s="6">
-        <v>89.5</v>
+        <v>382.92</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59118,7 +59127,7 @@
         <v>1892</v>
       </c>
       <c r="Q874" s="6">
-        <v>38.74</v>
+        <v>452.87</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59177,7 +59186,7 @@
         <v>1895</v>
       </c>
       <c r="Q875" s="6">
-        <v>415.95</v>
+        <v>415.58</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -59236,7 +59245,7 @@
         <v>1898</v>
       </c>
       <c r="Q876" s="6">
-        <v>45.29</v>
+        <v>44.92</v>
       </c>
       <c r="R876" s="6" t="s">
         <v>23</v>
@@ -59531,7 +59540,7 @@
         <v>1913</v>
       </c>
       <c r="Q881" s="6">
-        <v>376.9</v>
+        <v>1445</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59767,7 +59776,7 @@
         <v>1925</v>
       </c>
       <c r="Q885" s="6">
-        <v>3459.23</v>
+        <v>3442.89</v>
       </c>
       <c r="R885" s="6" t="s">
         <v>23</v>
@@ -61950,7 +61959,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>760.58</v>
+        <v>638.22</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62127,7 +62136,7 @@
         <v>2047</v>
       </c>
       <c r="Q925" s="6">
-        <v>3974.1</v>
+        <v>3973.73</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -62422,7 +62431,7 @@
         <v>2062</v>
       </c>
       <c r="Q930" s="6">
-        <v>627.15</v>
+        <v>419.46</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62599,7 +62608,7 @@
         <v>2071</v>
       </c>
       <c r="Q933" s="6">
-        <v>551.79999999999995</v>
+        <v>530.5</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -62894,7 +62903,7 @@
         <v>2086</v>
       </c>
       <c r="Q938" s="6">
-        <v>474.3</v>
+        <v>473.93</v>
       </c>
       <c r="R938" s="6" t="s">
         <v>23</v>
@@ -63012,7 +63021,7 @@
         <v>2092</v>
       </c>
       <c r="Q940" s="6">
-        <v>176.34</v>
+        <v>175.97</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -63071,7 +63080,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>1178.1600000000001</v>
+        <v>1177.79</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63661,7 +63670,7 @@
         <v>2125</v>
       </c>
       <c r="Q951" s="6">
-        <v>182.57</v>
+        <v>-18.03</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63720,7 +63729,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>531.9</v>
+        <v>391.48</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63838,7 +63847,7 @@
         <v>2134</v>
       </c>
       <c r="Q954" s="6">
-        <v>307.5</v>
+        <v>207.2</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -65431,7 +65440,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>11803.38</v>
+        <v>11084.88</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65490,7 +65499,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>9077</v>
+        <v>8071.1</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65608,7 +65617,7 @@
         <v>2242</v>
       </c>
       <c r="Q984" s="6">
-        <v>2155.1</v>
+        <v>1724</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65903,7 +65912,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>10689.6</v>
+        <v>7605.35</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66198,7 +66207,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>2740.23</v>
+        <v>2580.25</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66316,7 +66325,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>1105.81</v>
+        <v>995.61</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66375,7 +66384,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>31708.94</v>
+        <v>31669.25</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66434,7 +66443,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>51700.255969999998</v>
+        <v>43992.325969999998</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66493,7 +66502,7 @@
         <v>2290</v>
       </c>
       <c r="Q999" s="6">
-        <v>536.70000000000005</v>
+        <v>346.5</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66552,7 +66561,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>10171.23</v>
+        <v>9885.93</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66670,7 +66679,7 @@
         <v>2299</v>
       </c>
       <c r="Q1002" s="6">
-        <v>2375.8200000000002</v>
+        <v>3049.5</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66729,7 +66738,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>7608.77</v>
+        <v>14226.04</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66788,7 +66797,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>48.26</v>
+        <v>-20.97</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -66965,7 +66974,7 @@
         <v>2314</v>
       </c>
       <c r="Q1007" s="6">
-        <v>909.5</v>
+        <v>796.7</v>
       </c>
       <c r="R1007" s="6" t="s">
         <v>23</v>
@@ -67201,7 +67210,7 @@
         <v>2332</v>
       </c>
       <c r="Q1011" s="6">
-        <v>63.47</v>
+        <v>296.07</v>
       </c>
       <c r="R1011" s="6" t="s">
         <v>23</v>
@@ -67850,7 +67859,7 @@
         <v>2372</v>
       </c>
       <c r="Q1022" s="6">
-        <v>-33.81</v>
+        <v>0</v>
       </c>
       <c r="R1022" s="6" t="s">
         <v>23</v>
@@ -67861,16 +67870,16 @@
     </row>
     <row r="1023" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1023" s="5" t="s">
-        <v>2165</v>
+        <v>2374</v>
       </c>
       <c r="B1023" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1023" s="5" t="s">
-        <v>2166</v>
+        <v>2375</v>
       </c>
       <c r="D1023" s="5" t="s">
-        <v>2167</v>
+        <v>2376</v>
       </c>
       <c r="E1023" s="6" t="s">
         <v>23</v>
@@ -67891,10 +67900,10 @@
         <v>21</v>
       </c>
       <c r="K1023" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1023" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1023" s="6">
         <v>0</v>
@@ -67906,10 +67915,10 @@
         <v>21</v>
       </c>
       <c r="P1023" s="5" t="s">
-        <v>2166</v>
+        <v>2375</v>
       </c>
       <c r="Q1023" s="6">
-        <v>560.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>
@@ -67920,16 +67929,16 @@
     </row>
     <row r="1024" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1024" s="5" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="D1024" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="E1024" s="6" t="s">
         <v>23</v>
@@ -67953,7 +67962,7 @@
         <v>23</v>
       </c>
       <c r="L1024" s="6">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="M1024" s="6">
         <v>0</v>
@@ -67965,10 +67974,10 @@
         <v>21</v>
       </c>
       <c r="P1024" s="5" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="Q1024" s="6">
-        <v>61.05</v>
+        <v>560.70000000000005</v>
       </c>
       <c r="R1024" s="6" t="s">
         <v>23</v>
@@ -67979,16 +67988,16 @@
     </row>
     <row r="1025" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1025" s="5" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="D1025" s="5" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="E1025" s="6" t="s">
         <v>23</v>
@@ -68012,7 +68021,7 @@
         <v>23</v>
       </c>
       <c r="L1025" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="M1025" s="6">
         <v>0</v>
@@ -68024,10 +68033,10 @@
         <v>21</v>
       </c>
       <c r="P1025" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="Q1025" s="6">
-        <v>1022.9</v>
+        <v>60.4</v>
       </c>
       <c r="R1025" s="6" t="s">
         <v>23</v>
@@ -68038,16 +68047,16 @@
     </row>
     <row r="1026" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1026" s="5" t="s">
-        <v>2189</v>
+        <v>2171</v>
       </c>
       <c r="B1026" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
       <c r="D1026" s="5" t="s">
-        <v>2191</v>
+        <v>2173</v>
       </c>
       <c r="E1026" s="6" t="s">
         <v>23</v>
@@ -68068,10 +68077,10 @@
         <v>21</v>
       </c>
       <c r="K1026" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1026" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M1026" s="6">
         <v>0</v>
@@ -68083,10 +68092,10 @@
         <v>21</v>
       </c>
       <c r="P1026" s="5" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
       <c r="Q1026" s="6">
-        <v>0</v>
+        <v>1022.9</v>
       </c>
       <c r="R1026" s="6" t="s">
         <v>23</v>
@@ -68097,16 +68106,16 @@
     </row>
     <row r="1027" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1027" s="5" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="D1027" s="5" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="E1027" s="6" t="s">
         <v>23</v>
@@ -68142,7 +68151,7 @@
         <v>21</v>
       </c>
       <c r="P1027" s="5" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="Q1027" s="6">
         <v>0</v>
@@ -68156,16 +68165,16 @@
     </row>
     <row r="1028" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1028" s="5" t="s">
-        <v>2322</v>
+        <v>2192</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>2323</v>
+        <v>2193</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>2324</v>
+        <v>2194</v>
       </c>
       <c r="E1028" s="6" t="s">
         <v>23</v>
@@ -68186,10 +68195,10 @@
         <v>21</v>
       </c>
       <c r="K1028" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1028" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M1028" s="6">
         <v>0</v>
@@ -68201,10 +68210,10 @@
         <v>21</v>
       </c>
       <c r="P1028" s="5" t="s">
-        <v>2323</v>
+        <v>2193</v>
       </c>
       <c r="Q1028" s="6">
-        <v>343.28</v>
+        <v>0</v>
       </c>
       <c r="R1028" s="6" t="s">
         <v>23</v>
@@ -68215,16 +68224,16 @@
     </row>
     <row r="1029" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1029" s="5" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="E1029" s="6" t="s">
         <v>23</v>
@@ -68248,7 +68257,7 @@
         <v>23</v>
       </c>
       <c r="L1029" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="M1029" s="6">
         <v>0</v>
@@ -68260,10 +68269,10 @@
         <v>21</v>
       </c>
       <c r="P1029" s="5" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="Q1029" s="6">
-        <v>156.21</v>
+        <v>343.28</v>
       </c>
       <c r="R1029" s="6" t="s">
         <v>23</v>
@@ -68274,60 +68283,119 @@
     </row>
     <row r="1030" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1030" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1030" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1030" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1030" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1030" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1030" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1030" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1030" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1030" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1030" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1030" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1030" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M1030" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1030" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1030" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1030" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1030" s="6">
+        <v>156.21</v>
+      </c>
+      <c r="R1030" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1030" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1031" s="5" t="s">
         <v>2354</v>
       </c>
-      <c r="B1030" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1030" s="5" t="s">
+      <c r="B1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1031" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="D1030" s="5" t="s">
+      <c r="D1031" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="E1030" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1030" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1030" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1030" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1030" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1030" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1030" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1030" s="6">
+      <c r="E1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1031" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1031" s="6">
         <v>4.2</v>
       </c>
-      <c r="M1030" s="6">
-        <v>0</v>
-      </c>
-      <c r="N1030" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1030" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1030" s="5" t="s">
+      <c r="M1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1031" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="Q1030" s="6">
+      <c r="Q1031" s="6">
         <v>36.200000000000003</v>
       </c>
-      <c r="R1030" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1030" s="5" t="s">
+      <c r="R1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1031" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7156,7 +7156,7 @@
     <t>GOMERA 16 (BLACK)</t>
   </si>
   <si>
-    <t>Lista Produto : 30-07-2020 09:21:11</t>
+    <t>Lista Produto : 03-08-2020 09:32:46</t>
   </si>
 </sst>
 </file>
@@ -17827,7 +17827,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>2289</v>
+        <v>1545</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -19774,7 +19774,7 @@
         <v>434</v>
       </c>
       <c r="Q207" s="6">
-        <v>3589.72</v>
+        <v>3568.4</v>
       </c>
       <c r="R207" s="6" t="s">
         <v>23</v>
@@ -20659,7 +20659,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>1320.69</v>
+        <v>2608.4699999999998</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -21780,7 +21780,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>3135.77</v>
+        <v>3127.22</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21898,7 +21898,7 @@
         <v>506</v>
       </c>
       <c r="Q243" s="6">
-        <v>613.83000000000004</v>
+        <v>597.27</v>
       </c>
       <c r="R243" s="6" t="s">
         <v>23</v>
@@ -24494,7 +24494,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1927.68</v>
+        <v>1884.21</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -25261,7 +25261,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1070.33</v>
+        <v>657.75</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -26323,7 +26323,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2042.9</v>
+        <v>2023.76</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26382,7 +26382,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8025.22</v>
+        <v>8009.2</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26441,7 +26441,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3638.7</v>
+        <v>3629.13</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26500,7 +26500,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5639.86</v>
+        <v>5614.27</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -27090,7 +27090,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2773.97</v>
+        <v>2746.52</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27385,7 +27385,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1850.94</v>
+        <v>1833.74</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -28152,7 +28152,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>258.64999999999998</v>
+        <v>722.35</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28270,7 +28270,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>22759.97</v>
+        <v>21004.720000000001</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -29332,7 +29332,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>68</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -29627,7 +29627,7 @@
         <v>2360</v>
       </c>
       <c r="Q374" s="6">
-        <v>4995.8500000000004</v>
+        <v>4478.3900000000003</v>
       </c>
       <c r="R374" s="6" t="s">
         <v>23</v>
@@ -54525,7 +54525,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>10891.77</v>
+        <v>10763.77</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54820,7 +54820,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>2574.9</v>
+        <v>1940.1</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54997,7 +54997,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>1782.79</v>
+        <v>507.2</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55115,7 +55115,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>2273.61</v>
+        <v>2261.02</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -56413,7 +56413,7 @@
         <v>1747</v>
       </c>
       <c r="Q828" s="6">
-        <v>649.79999999999995</v>
+        <v>529.6</v>
       </c>
       <c r="R828" s="6" t="s">
         <v>23</v>
@@ -56472,7 +56472,7 @@
         <v>1750</v>
       </c>
       <c r="Q829" s="6">
-        <v>3196.5</v>
+        <v>3136.4</v>
       </c>
       <c r="R829" s="6" t="s">
         <v>23</v>
@@ -56708,7 +56708,7 @@
         <v>1762</v>
       </c>
       <c r="Q833" s="6">
-        <v>10483</v>
+        <v>10470.83</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -56767,7 +56767,7 @@
         <v>1765</v>
       </c>
       <c r="Q834" s="6">
-        <v>4592.6000000000004</v>
+        <v>4472.3999999999996</v>
       </c>
       <c r="R834" s="6" t="s">
         <v>23</v>
@@ -56826,7 +56826,7 @@
         <v>1768</v>
       </c>
       <c r="Q835" s="6">
-        <v>5053.3</v>
+        <v>4993.2</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -57003,7 +57003,7 @@
         <v>1777</v>
       </c>
       <c r="Q838" s="6">
-        <v>504.5</v>
+        <v>466.46</v>
       </c>
       <c r="R838" s="6" t="s">
         <v>23</v>
@@ -59068,7 +59068,7 @@
         <v>1889</v>
       </c>
       <c r="Q873" s="6">
-        <v>382.92</v>
+        <v>326.51</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59127,7 +59127,7 @@
         <v>1892</v>
       </c>
       <c r="Q874" s="6">
-        <v>452.87</v>
+        <v>331.21</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59186,7 +59186,7 @@
         <v>1895</v>
       </c>
       <c r="Q875" s="6">
-        <v>415.58</v>
+        <v>403.43</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -61959,7 +61959,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>638.22</v>
+        <v>249.15</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62018,7 +62018,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>554.58000000000004</v>
+        <v>524.87</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -63375,7 +63375,7 @@
         <v>2110</v>
       </c>
       <c r="Q946" s="6">
-        <v>2107.17</v>
+        <v>212.67</v>
       </c>
       <c r="R946" s="6" t="s">
         <v>23</v>
@@ -66207,7 +66207,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>2580.25</v>
+        <v>2231.16</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66384,7 +66384,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>31669.25</v>
+        <v>30582.06</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66443,7 +66443,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>43992.325969999998</v>
+        <v>41981.15597</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66679,7 +66679,7 @@
         <v>2299</v>
       </c>
       <c r="Q1002" s="6">
-        <v>3049.5</v>
+        <v>3032.72</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66738,7 +66738,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>14226.04</v>
+        <v>10974.02</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -67546,7 +67546,7 @@
         <v>21</v>
       </c>
       <c r="K1017" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1017" s="6">
         <v>0</v>
@@ -67564,7 +67564,7 @@
         <v>2350</v>
       </c>
       <c r="Q1017" s="6">
-        <v>0</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="R1017" s="6" t="s">
         <v>23</v>
@@ -67605,7 +67605,7 @@
         <v>21</v>
       </c>
       <c r="K1018" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1018" s="6">
         <v>0</v>
@@ -67623,7 +67623,7 @@
         <v>2352</v>
       </c>
       <c r="Q1018" s="6">
-        <v>0</v>
+        <v>404.4</v>
       </c>
       <c r="R1018" s="6" t="s">
         <v>23</v>
@@ -67664,7 +67664,7 @@
         <v>21</v>
       </c>
       <c r="K1019" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1019" s="6">
         <v>0</v>
@@ -67682,7 +67682,7 @@
         <v>2363</v>
       </c>
       <c r="Q1019" s="6">
-        <v>0</v>
+        <v>42.38</v>
       </c>
       <c r="R1019" s="6" t="s">
         <v>23</v>
@@ -67723,7 +67723,7 @@
         <v>21</v>
       </c>
       <c r="K1020" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1020" s="6">
         <v>0</v>
@@ -67741,7 +67741,7 @@
         <v>2366</v>
       </c>
       <c r="Q1020" s="6">
-        <v>0</v>
+        <v>11.54</v>
       </c>
       <c r="R1020" s="6" t="s">
         <v>23</v>
@@ -67782,7 +67782,7 @@
         <v>21</v>
       </c>
       <c r="K1021" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1021" s="6">
         <v>0</v>
@@ -67800,7 +67800,7 @@
         <v>2369</v>
       </c>
       <c r="Q1021" s="6">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="R1021" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7156,7 +7156,7 @@
     <t>GOMERA 16 (BLACK)</t>
   </si>
   <si>
-    <t>Lista Produto : 03-08-2020 09:32:46</t>
+    <t>Lista Produto : 10-08-2020 17:04:14</t>
   </si>
 </sst>
 </file>
@@ -18063,7 +18063,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>142.49</v>
+        <v>1024.49</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18107,7 +18107,7 @@
         <v>23</v>
       </c>
       <c r="L179" s="6">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="M179" s="6">
         <v>0</v>
@@ -18122,7 +18122,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>84.21</v>
+        <v>1000.86</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18594,7 +18594,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>4685.07</v>
+        <v>3084.57</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18948,7 +18948,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>701</v>
+        <v>449</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -19715,7 +19715,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>1719.2</v>
+        <v>1601.3</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -20659,7 +20659,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>2608.4699999999998</v>
+        <v>2319.13</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20718,7 +20718,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>137.99</v>
+        <v>310.47000000000003</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -20998,7 +20998,7 @@
         <v>23</v>
       </c>
       <c r="L228" s="6">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M228" s="6">
         <v>0</v>
@@ -21013,7 +21013,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>90.85</v>
+        <v>279</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21780,7 +21780,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>3127.22</v>
+        <v>3097.36</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -24376,7 +24376,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>841.24</v>
+        <v>703.57</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24553,7 +24553,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>582.52</v>
+        <v>559.24</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24671,7 +24671,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>610.70000000000005</v>
+        <v>518.27</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24730,7 +24730,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1675.09</v>
+        <v>1664.95</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -25025,7 +25025,7 @@
         <v>613</v>
       </c>
       <c r="Q296" s="6">
-        <v>1214.79</v>
+        <v>1208.22</v>
       </c>
       <c r="R296" s="6" t="s">
         <v>23</v>
@@ -25143,7 +25143,7 @@
         <v>617</v>
       </c>
       <c r="Q298" s="6">
-        <v>149.03</v>
+        <v>147.63</v>
       </c>
       <c r="R298" s="6" t="s">
         <v>23</v>
@@ -25261,7 +25261,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>657.75</v>
+        <v>1049.83</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25438,7 +25438,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>3074.43</v>
+        <v>3052.73</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25497,7 +25497,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1122.1300000000001</v>
+        <v>1091.33</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25851,7 +25851,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>2060.1</v>
+        <v>1612.8</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -26028,7 +26028,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>211.4</v>
+        <v>197.5</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -26264,7 +26264,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8680.48</v>
+        <v>8664.98</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26382,7 +26382,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8009.2</v>
+        <v>8005.9</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26441,7 +26441,7 @@
         <v>666</v>
       </c>
       <c r="Q320" s="6">
-        <v>3629.13</v>
+        <v>3586.21</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26500,7 +26500,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5614.27</v>
+        <v>5952.56</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26559,7 +26559,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1373.65</v>
+        <v>1076.95</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26677,7 +26677,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2107.9499999999998</v>
+        <v>2076.85</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26854,7 +26854,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>200.28</v>
+        <v>93.48</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26913,7 +26913,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>1858.4</v>
+        <v>1847.12</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -27149,7 +27149,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>1656.3</v>
+        <v>1652.4</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27385,7 +27385,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1833.74</v>
+        <v>1830.37</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27798,7 +27798,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>394.19</v>
+        <v>287.39</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27916,7 +27916,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>1847.3</v>
+        <v>577.46</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27975,7 +27975,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>37.880000000000003</v>
+        <v>342.28</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -28093,7 +28093,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>1046.73</v>
+        <v>1036.48</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28270,7 +28270,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>21004.720000000001</v>
+        <v>16762.03</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28447,7 +28447,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>92.37</v>
+        <v>90.07</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28801,7 +28801,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1505</v>
+        <v>1499.33</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -29627,7 +29627,7 @@
         <v>2360</v>
       </c>
       <c r="Q374" s="6">
-        <v>4478.3900000000003</v>
+        <v>2776.7</v>
       </c>
       <c r="R374" s="6" t="s">
         <v>23</v>
@@ -51457,7 +51457,7 @@
         <v>1546</v>
       </c>
       <c r="Q744" s="6">
-        <v>342.2</v>
+        <v>330.32</v>
       </c>
       <c r="R744" s="6" t="s">
         <v>23</v>
@@ -54230,7 +54230,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>10891.73</v>
+        <v>8857.73</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54525,7 +54525,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>10763.77</v>
+        <v>8575.27</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54820,7 +54820,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>1940.1</v>
+        <v>1337.3</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54997,7 +54997,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>507.2</v>
+        <v>5570.63</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55100,7 +55100,7 @@
         <v>23</v>
       </c>
       <c r="L806" s="6">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="M806" s="6">
         <v>0</v>
@@ -55115,7 +55115,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>2261.02</v>
+        <v>353.89</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55159,7 +55159,7 @@
         <v>23</v>
       </c>
       <c r="L807" s="6">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M807" s="6">
         <v>0</v>
@@ -55174,7 +55174,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>171.6</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55233,7 +55233,7 @@
         <v>1693</v>
       </c>
       <c r="Q808" s="6">
-        <v>1716.92</v>
+        <v>1310.1199999999999</v>
       </c>
       <c r="R808" s="6" t="s">
         <v>23</v>
@@ -56177,7 +56177,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>1714.73</v>
+        <v>4516.43</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -56649,7 +56649,7 @@
         <v>1758</v>
       </c>
       <c r="Q832" s="6">
-        <v>2669.85</v>
+        <v>1623.75</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56708,7 +56708,7 @@
         <v>1762</v>
       </c>
       <c r="Q833" s="6">
-        <v>10470.83</v>
+        <v>8568.83</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -57357,7 +57357,7 @@
         <v>1800</v>
       </c>
       <c r="Q844" s="6">
-        <v>49.13</v>
+        <v>2071.5300000000002</v>
       </c>
       <c r="R844" s="6" t="s">
         <v>23</v>
@@ -58360,7 +58360,7 @@
         <v>1852</v>
       </c>
       <c r="Q861" s="6">
-        <v>356.33</v>
+        <v>336.89</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58537,7 +58537,7 @@
         <v>1861</v>
       </c>
       <c r="Q864" s="6">
-        <v>1160.77</v>
+        <v>811.93</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58655,7 +58655,7 @@
         <v>1868</v>
       </c>
       <c r="Q866" s="6">
-        <v>40.03</v>
+        <v>24.64</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -59068,7 +59068,7 @@
         <v>1889</v>
       </c>
       <c r="Q873" s="6">
-        <v>326.51</v>
+        <v>317.67</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59112,7 +59112,7 @@
         <v>23</v>
       </c>
       <c r="L874" s="6">
-        <v>2.4500000000000002</v>
+        <v>2.58</v>
       </c>
       <c r="M874" s="6">
         <v>0</v>
@@ -59127,7 +59127,7 @@
         <v>1892</v>
       </c>
       <c r="Q874" s="6">
-        <v>331.21</v>
+        <v>318.66000000000003</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59540,7 +59540,7 @@
         <v>1913</v>
       </c>
       <c r="Q881" s="6">
-        <v>1445</v>
+        <v>1880.3</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59776,7 +59776,7 @@
         <v>1925</v>
       </c>
       <c r="Q885" s="6">
-        <v>3442.89</v>
+        <v>3037.72</v>
       </c>
       <c r="R885" s="6" t="s">
         <v>23</v>
@@ -60012,7 +60012,7 @@
         <v>1938</v>
       </c>
       <c r="Q889" s="6">
-        <v>52.81</v>
+        <v>42.13</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -60189,7 +60189,7 @@
         <v>1947</v>
       </c>
       <c r="Q892" s="6">
-        <v>244.19</v>
+        <v>231.17</v>
       </c>
       <c r="R892" s="6" t="s">
         <v>23</v>
@@ -61959,7 +61959,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>249.15</v>
+        <v>245.22</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62018,7 +62018,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>524.87</v>
+        <v>401.04</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -62313,7 +62313,7 @@
         <v>2056</v>
       </c>
       <c r="Q928" s="6">
-        <v>1309.74</v>
+        <v>1373.74</v>
       </c>
       <c r="R928" s="6" t="s">
         <v>23</v>
@@ -62372,7 +62372,7 @@
         <v>2059</v>
       </c>
       <c r="Q929" s="6">
-        <v>171.4</v>
+        <v>161.83000000000001</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62608,7 +62608,7 @@
         <v>2071</v>
       </c>
       <c r="Q933" s="6">
-        <v>530.5</v>
+        <v>221.65</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -62844,7 +62844,7 @@
         <v>2083</v>
       </c>
       <c r="Q937" s="6">
-        <v>1609.06</v>
+        <v>1295.26</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -63080,7 +63080,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>1177.79</v>
+        <v>1124.3900000000001</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63301,7 +63301,7 @@
         <v>23</v>
       </c>
       <c r="L945" s="6">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="M945" s="6">
         <v>0</v>
@@ -63552,7 +63552,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>1502.92</v>
+        <v>622.02</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63729,7 +63729,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>391.48</v>
+        <v>381.45</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63788,7 +63788,7 @@
         <v>2131</v>
       </c>
       <c r="Q953" s="6">
-        <v>344</v>
+        <v>293.85000000000002</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63965,7 +63965,7 @@
         <v>2140</v>
       </c>
       <c r="Q956" s="6">
-        <v>415.7</v>
+        <v>365.55</v>
       </c>
       <c r="R956" s="6" t="s">
         <v>23</v>
@@ -64083,7 +64083,7 @@
         <v>2146</v>
       </c>
       <c r="Q958" s="6">
-        <v>632.70000000000005</v>
+        <v>500.1</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -64201,7 +64201,7 @@
         <v>2151</v>
       </c>
       <c r="Q960" s="6">
-        <v>1870.05</v>
+        <v>1273.05</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64319,7 +64319,7 @@
         <v>2157</v>
       </c>
       <c r="Q962" s="6">
-        <v>3611.4</v>
+        <v>3014.35</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -64714,7 +64714,7 @@
         <v>21</v>
       </c>
       <c r="K969" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L969" s="6">
         <v>0</v>
@@ -64732,7 +64732,7 @@
         <v>2198</v>
       </c>
       <c r="Q969" s="6">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="R969" s="6" t="s">
         <v>23</v>
@@ -65440,7 +65440,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>11084.88</v>
+        <v>9799.23</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65499,7 +65499,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>8071.1</v>
+        <v>7219.25</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65558,7 +65558,7 @@
         <v>2239</v>
       </c>
       <c r="Q983" s="6">
-        <v>1483.9</v>
+        <v>2128.3000000000002</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65617,7 +65617,7 @@
         <v>2242</v>
       </c>
       <c r="Q984" s="6">
-        <v>1724</v>
+        <v>1292.9000000000001</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65912,7 +65912,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>7605.35</v>
+        <v>5716.84</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66207,7 +66207,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>2231.16</v>
+        <v>1487.34</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66325,7 +66325,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>995.61</v>
+        <v>786.91</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66384,7 +66384,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>30582.06</v>
+        <v>28038.21</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66443,7 +66443,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>41981.15597</v>
+        <v>48546.22597</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66502,7 +66502,7 @@
         <v>2290</v>
       </c>
       <c r="Q999" s="6">
-        <v>346.5</v>
+        <v>251.4</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66561,7 +66561,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>9885.93</v>
+        <v>9229.74</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66679,7 +66679,7 @@
         <v>2299</v>
       </c>
       <c r="Q1002" s="6">
-        <v>3032.72</v>
+        <v>2576.52</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66738,7 +66738,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>10974.02</v>
+        <v>8968.83</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66797,7 +66797,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>-20.97</v>
+        <v>15.97</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -67487,7 +67487,7 @@
         <v>21</v>
       </c>
       <c r="K1016" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1016" s="6">
         <v>0</v>
@@ -67505,7 +67505,7 @@
         <v>2347</v>
       </c>
       <c r="Q1016" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R1016" s="6" t="s">
         <v>23</v>
@@ -67549,7 +67549,7 @@
         <v>23</v>
       </c>
       <c r="L1017" s="6">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="M1017" s="6">
         <v>0</v>
@@ -67608,7 +67608,7 @@
         <v>23</v>
       </c>
       <c r="L1018" s="6">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="M1018" s="6">
         <v>0</v>
@@ -67623,7 +67623,7 @@
         <v>2352</v>
       </c>
       <c r="Q1018" s="6">
-        <v>404.4</v>
+        <v>393.72</v>
       </c>
       <c r="R1018" s="6" t="s">
         <v>23</v>
@@ -67667,7 +67667,7 @@
         <v>23</v>
       </c>
       <c r="L1019" s="6">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M1019" s="6">
         <v>0</v>
@@ -67726,7 +67726,7 @@
         <v>23</v>
       </c>
       <c r="L1020" s="6">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M1020" s="6">
         <v>0</v>
@@ -67785,7 +67785,7 @@
         <v>23</v>
       </c>
       <c r="L1021" s="6">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M1021" s="6">
         <v>0</v>
@@ -67844,7 +67844,7 @@
         <v>23</v>
       </c>
       <c r="L1022" s="6">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="M1022" s="6">
         <v>0</v>
@@ -67859,7 +67859,7 @@
         <v>2372</v>
       </c>
       <c r="Q1022" s="6">
-        <v>0</v>
+        <v>139.94</v>
       </c>
       <c r="R1022" s="6" t="s">
         <v>23</v>
@@ -67900,10 +67900,10 @@
         <v>21</v>
       </c>
       <c r="K1023" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1023" s="6">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="M1023" s="6">
         <v>0</v>
@@ -67918,7 +67918,7 @@
         <v>2375</v>
       </c>
       <c r="Q1023" s="6">
-        <v>0</v>
+        <v>300.32</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>
@@ -68272,7 +68272,7 @@
         <v>2323</v>
       </c>
       <c r="Q1029" s="6">
-        <v>343.28</v>
+        <v>338.96</v>
       </c>
       <c r="R1029" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7156,7 +7156,7 @@
     <t>GOMERA 16 (BLACK)</t>
   </si>
   <si>
-    <t>Lista Produto : 10-08-2020 17:04:14</t>
+    <t>Lista Produto : 10-08-2020 17:13:02</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7156,7 +7156,7 @@
     <t>GOMERA 16 (BLACK)</t>
   </si>
   <si>
-    <t>Lista Produto : 10-08-2020 17:13:02</t>
+    <t>Lista Produto : 14-08-2020 09:37:29</t>
   </si>
 </sst>
 </file>
@@ -17827,7 +17827,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>1545</v>
+        <v>1329.24</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -18063,7 +18063,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>1024.49</v>
+        <v>1005.89</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18594,7 +18594,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>3084.57</v>
+        <v>3052.67</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -19243,7 +19243,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>65</v>
+        <v>1394.5</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -20659,7 +20659,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>2319.13</v>
+        <v>2808.63</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20718,7 +20718,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>310.47000000000003</v>
+        <v>282.38</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -24376,7 +24376,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>703.57</v>
+        <v>687.81</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24494,7 +24494,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1884.21</v>
+        <v>1847.31</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24553,7 +24553,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>559.24</v>
+        <v>551.48</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24671,7 +24671,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>518.27</v>
+        <v>326.29000000000002</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24730,7 +24730,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1664.95</v>
+        <v>1569.18</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -25084,7 +25084,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3078.26</v>
+        <v>3039.43</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25261,7 +25261,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1049.83</v>
+        <v>1040.58</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25320,7 +25320,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>561.4</v>
+        <v>462.5</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25497,7 +25497,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1091.33</v>
+        <v>1525.83</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25851,7 +25851,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>1612.8</v>
+        <v>1557.3</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -26028,7 +26028,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>197.5</v>
+        <v>159.9</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -26087,7 +26087,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2145.4499999999998</v>
+        <v>2137.9299999999998</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26205,7 +26205,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>200.75</v>
+        <v>196.99</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -26323,7 +26323,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2023.76</v>
+        <v>2015.42</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26559,7 +26559,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1076.95</v>
+        <v>1940.29</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26618,7 +26618,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2812.4</v>
+        <v>2757.82</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26677,7 +26677,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2076.85</v>
+        <v>2058.92</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26795,7 +26795,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>1035.54</v>
+        <v>2247.0300000000002</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26913,7 +26913,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>1847.12</v>
+        <v>1771.92</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -27090,7 +27090,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2746.52</v>
+        <v>2742.2</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27208,7 +27208,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1459.85</v>
+        <v>1418.49</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27267,7 +27267,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>67.22</v>
+        <v>59.7</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -27326,7 +27326,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1371.89</v>
+        <v>1356.85</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27385,7 +27385,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1830.37</v>
+        <v>1813.74</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27798,7 +27798,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>287.39</v>
+        <v>228.72</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27916,7 +27916,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>577.46</v>
+        <v>567.84</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27975,7 +27975,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>342.28</v>
+        <v>323.77999999999997</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -28270,7 +28270,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>16762.03</v>
+        <v>12630.58</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -29627,7 +29627,7 @@
         <v>2360</v>
       </c>
       <c r="Q374" s="6">
-        <v>2776.7</v>
+        <v>1864.45</v>
       </c>
       <c r="R374" s="6" t="s">
         <v>23</v>
@@ -51752,7 +51752,7 @@
         <v>1563</v>
       </c>
       <c r="Q749" s="6">
-        <v>257.8</v>
+        <v>247.3</v>
       </c>
       <c r="R749" s="6" t="s">
         <v>23</v>
@@ -54230,7 +54230,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>8857.73</v>
+        <v>7094.93</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54525,7 +54525,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>8575.27</v>
+        <v>6946.27</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54820,7 +54820,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>1337.3</v>
+        <v>830.5</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54997,7 +54997,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>5570.63</v>
+        <v>7327.16</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -56177,7 +56177,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>4516.43</v>
+        <v>4502.63</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -56708,7 +56708,7 @@
         <v>1762</v>
       </c>
       <c r="Q833" s="6">
-        <v>8568.83</v>
+        <v>6986.73</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -58360,7 +58360,7 @@
         <v>1852</v>
       </c>
       <c r="Q861" s="6">
-        <v>336.89</v>
+        <v>334.25</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58537,7 +58537,7 @@
         <v>1861</v>
       </c>
       <c r="Q864" s="6">
-        <v>811.93</v>
+        <v>855.4</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58714,7 +58714,7 @@
         <v>1871</v>
       </c>
       <c r="Q867" s="6">
-        <v>1607.14</v>
+        <v>1597.7</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -59363,7 +59363,7 @@
         <v>1904</v>
       </c>
       <c r="Q878" s="6">
-        <v>208.4</v>
+        <v>810.9</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -60012,7 +60012,7 @@
         <v>1938</v>
       </c>
       <c r="Q889" s="6">
-        <v>42.13</v>
+        <v>30.57</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -62490,7 +62490,7 @@
         <v>2065</v>
       </c>
       <c r="Q931" s="6">
-        <v>1090</v>
+        <v>1658.5</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -62608,7 +62608,7 @@
         <v>2071</v>
       </c>
       <c r="Q933" s="6">
-        <v>221.65</v>
+        <v>189.7</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -62844,7 +62844,7 @@
         <v>2083</v>
       </c>
       <c r="Q937" s="6">
-        <v>1295.26</v>
+        <v>1002.38</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -63080,7 +63080,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>1124.3900000000001</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63257,7 +63257,7 @@
         <v>2104</v>
       </c>
       <c r="Q944" s="6">
-        <v>2905</v>
+        <v>2649.24</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63552,7 +63552,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>622.02</v>
+        <v>611.88</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63729,7 +63729,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>381.45</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63788,7 +63788,7 @@
         <v>2131</v>
       </c>
       <c r="Q953" s="6">
-        <v>293.85000000000002</v>
+        <v>243.7</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63847,7 +63847,7 @@
         <v>2134</v>
       </c>
       <c r="Q954" s="6">
-        <v>207.2</v>
+        <v>157.05000000000001</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -64083,7 +64083,7 @@
         <v>2146</v>
       </c>
       <c r="Q958" s="6">
-        <v>500.1</v>
+        <v>301.05</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -64201,7 +64201,7 @@
         <v>2151</v>
       </c>
       <c r="Q960" s="6">
-        <v>1273.05</v>
+        <v>609.85</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64260,7 +64260,7 @@
         <v>2154</v>
       </c>
       <c r="Q961" s="6">
-        <v>4193.3999999999996</v>
+        <v>3994.35</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64319,7 +64319,7 @@
         <v>2157</v>
       </c>
       <c r="Q962" s="6">
-        <v>3014.35</v>
+        <v>2483.65</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -64732,7 +64732,7 @@
         <v>2198</v>
       </c>
       <c r="Q969" s="6">
-        <v>-31</v>
+        <v>50.47</v>
       </c>
       <c r="R969" s="6" t="s">
         <v>23</v>
@@ -65322,7 +65322,7 @@
         <v>2228</v>
       </c>
       <c r="Q979" s="6">
-        <v>550.25</v>
+        <v>152.44999999999999</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -65440,7 +65440,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>9799.23</v>
+        <v>13237.03</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65499,7 +65499,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>7219.25</v>
+        <v>10896.35</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65558,7 +65558,7 @@
         <v>2239</v>
       </c>
       <c r="Q983" s="6">
-        <v>2128.3000000000002</v>
+        <v>2815.1</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65617,7 +65617,7 @@
         <v>2242</v>
       </c>
       <c r="Q984" s="6">
-        <v>1292.9000000000001</v>
+        <v>2831.3</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65912,7 +65912,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>5716.84</v>
+        <v>5707.35</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66207,7 +66207,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>1487.34</v>
+        <v>1180.57</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66266,7 +66266,7 @@
         <v>2278</v>
       </c>
       <c r="Q995" s="6">
-        <v>1890.43</v>
+        <v>1862.64</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66325,7 +66325,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>786.91</v>
+        <v>555.01</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66384,7 +66384,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>28038.21</v>
+        <v>24705.55</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66443,7 +66443,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>48546.22597</v>
+        <v>43240.025970000002</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66502,7 +66502,7 @@
         <v>2290</v>
       </c>
       <c r="Q999" s="6">
-        <v>251.4</v>
+        <v>162.68</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66561,7 +66561,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>9229.74</v>
+        <v>13112.83</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66679,7 +66679,7 @@
         <v>2299</v>
       </c>
       <c r="Q1002" s="6">
-        <v>2576.52</v>
+        <v>2559.7399999999998</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66738,7 +66738,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>8968.83</v>
+        <v>7103.55</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -67015,10 +67015,10 @@
         <v>21</v>
       </c>
       <c r="K1008" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1008" s="6">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="M1008" s="6">
         <v>0</v>
@@ -67033,7 +67033,7 @@
         <v>2317</v>
       </c>
       <c r="Q1008" s="6">
-        <v>0</v>
+        <v>1014.84</v>
       </c>
       <c r="R1008" s="6" t="s">
         <v>23</v>
@@ -67210,7 +67210,7 @@
         <v>2332</v>
       </c>
       <c r="Q1011" s="6">
-        <v>296.07</v>
+        <v>264.02999999999997</v>
       </c>
       <c r="R1011" s="6" t="s">
         <v>23</v>
@@ -67682,7 +67682,7 @@
         <v>2363</v>
       </c>
       <c r="Q1019" s="6">
-        <v>42.38</v>
+        <v>27.14</v>
       </c>
       <c r="R1019" s="6" t="s">
         <v>23</v>
@@ -67859,7 +67859,7 @@
         <v>2372</v>
       </c>
       <c r="Q1022" s="6">
-        <v>139.94</v>
+        <v>100.51</v>
       </c>
       <c r="R1022" s="6" t="s">
         <v>23</v>
@@ -67918,7 +67918,7 @@
         <v>2375</v>
       </c>
       <c r="Q1023" s="6">
-        <v>300.32</v>
+        <v>252.77</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>
@@ -68272,7 +68272,7 @@
         <v>2323</v>
       </c>
       <c r="Q1029" s="6">
-        <v>338.96</v>
+        <v>239.08</v>
       </c>
       <c r="R1029" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15441" uniqueCount="2378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15486" uniqueCount="2387">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7156,7 +7156,34 @@
     <t>GOMERA 16 (BLACK)</t>
   </si>
   <si>
-    <t>Lista Produto : 14-08-2020 09:37:29</t>
+    <t>TC15203</t>
+  </si>
+  <si>
+    <t>G4710</t>
+  </si>
+  <si>
+    <t>ZENITH 802 (CINZA ESCURO)</t>
+  </si>
+  <si>
+    <t>TC15204</t>
+  </si>
+  <si>
+    <t>G4760</t>
+  </si>
+  <si>
+    <t>ZENITH 807 (BEGE CLARO)</t>
+  </si>
+  <si>
+    <t>TC15205</t>
+  </si>
+  <si>
+    <t>G2940</t>
+  </si>
+  <si>
+    <t>SORRENTO 801 (CASTANHO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 31-08-2020 09:11:52</t>
   </si>
 </sst>
 </file>
@@ -7323,8 +7350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1031" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1031"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1034" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1034"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7613,7 +7640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1031"/>
+  <dimension ref="A1:S1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -7667,7 +7694,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2377</v>
+        <v>2386</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10983,7 +11010,7 @@
         <v>134</v>
       </c>
       <c r="Q58" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="R58" s="6" t="s">
         <v>23</v>
@@ -12281,7 +12308,7 @@
         <v>178</v>
       </c>
       <c r="Q80" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>23</v>
@@ -15880,7 +15907,7 @@
         <v>300</v>
       </c>
       <c r="Q141" s="6">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="R141" s="6" t="s">
         <v>23</v>
@@ -16352,7 +16379,7 @@
         <v>317</v>
       </c>
       <c r="Q149" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R149" s="6" t="s">
         <v>23</v>
@@ -16411,7 +16438,7 @@
         <v>319</v>
       </c>
       <c r="Q150" s="6">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R150" s="6" t="s">
         <v>23</v>
@@ -16529,7 +16556,7 @@
         <v>323</v>
       </c>
       <c r="Q152" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R152" s="6" t="s">
         <v>23</v>
@@ -16588,7 +16615,7 @@
         <v>325</v>
       </c>
       <c r="Q153" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R153" s="6" t="s">
         <v>23</v>
@@ -17414,7 +17441,7 @@
         <v>353</v>
       </c>
       <c r="Q167" s="6">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="R167" s="6" t="s">
         <v>23</v>
@@ -17532,7 +17559,7 @@
         <v>358</v>
       </c>
       <c r="Q169" s="6">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="R169" s="6" t="s">
         <v>23</v>
@@ -17591,7 +17618,7 @@
         <v>360</v>
       </c>
       <c r="Q170" s="6">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="R170" s="6" t="s">
         <v>23</v>
@@ -17650,7 +17677,7 @@
         <v>362</v>
       </c>
       <c r="Q171" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R171" s="6" t="s">
         <v>23</v>
@@ -17827,7 +17854,7 @@
         <v>368</v>
       </c>
       <c r="Q174" s="6">
-        <v>1329.24</v>
+        <v>2231.8000000000002</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>23</v>
@@ -17886,7 +17913,7 @@
         <v>370</v>
       </c>
       <c r="Q175" s="6">
-        <v>1237</v>
+        <v>1317</v>
       </c>
       <c r="R175" s="6" t="s">
         <v>23</v>
@@ -18063,7 +18090,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>1005.89</v>
+        <v>990</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18122,7 +18149,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>1000.86</v>
+        <v>978</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18358,7 +18385,7 @@
         <v>386</v>
       </c>
       <c r="Q183" s="6">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="R183" s="6" t="s">
         <v>23</v>
@@ -18594,7 +18621,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>3052.67</v>
+        <v>1906</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18948,7 +18975,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -19243,7 +19270,7 @@
         <v>416</v>
       </c>
       <c r="Q198" s="6">
-        <v>1394.5</v>
+        <v>1546.2</v>
       </c>
       <c r="R198" s="6" t="s">
         <v>23</v>
@@ -19302,7 +19329,7 @@
         <v>418</v>
       </c>
       <c r="Q199" s="6">
-        <v>283.39999999999998</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="R199" s="6" t="s">
         <v>23</v>
@@ -19361,7 +19388,7 @@
         <v>420</v>
       </c>
       <c r="Q200" s="6">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="R200" s="6" t="s">
         <v>23</v>
@@ -19479,7 +19506,7 @@
         <v>424</v>
       </c>
       <c r="Q202" s="6">
-        <v>280</v>
+        <v>290.5</v>
       </c>
       <c r="R202" s="6" t="s">
         <v>23</v>
@@ -19538,7 +19565,7 @@
         <v>426</v>
       </c>
       <c r="Q203" s="6">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R203" s="6" t="s">
         <v>23</v>
@@ -19656,7 +19683,7 @@
         <v>430</v>
       </c>
       <c r="Q205" s="6">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="R205" s="6" t="s">
         <v>23</v>
@@ -19715,7 +19742,7 @@
         <v>432</v>
       </c>
       <c r="Q206" s="6">
-        <v>1601.3</v>
+        <v>1457.5</v>
       </c>
       <c r="R206" s="6" t="s">
         <v>23</v>
@@ -19774,7 +19801,7 @@
         <v>434</v>
       </c>
       <c r="Q207" s="6">
-        <v>3568.4</v>
+        <v>3550.9</v>
       </c>
       <c r="R207" s="6" t="s">
         <v>23</v>
@@ -19833,7 +19860,7 @@
         <v>436</v>
       </c>
       <c r="Q208" s="6">
-        <v>944.5</v>
+        <v>1021.5</v>
       </c>
       <c r="R208" s="6" t="s">
         <v>23</v>
@@ -19892,7 +19919,7 @@
         <v>438</v>
       </c>
       <c r="Q209" s="6">
-        <v>2283.92</v>
+        <v>2476.36</v>
       </c>
       <c r="R209" s="6" t="s">
         <v>23</v>
@@ -20128,7 +20155,7 @@
         <v>446</v>
       </c>
       <c r="Q213" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R213" s="6" t="s">
         <v>23</v>
@@ -20246,7 +20273,7 @@
         <v>450</v>
       </c>
       <c r="Q215" s="6">
-        <v>383.5</v>
+        <v>288.5</v>
       </c>
       <c r="R215" s="6" t="s">
         <v>23</v>
@@ -20600,7 +20627,7 @@
         <v>462</v>
       </c>
       <c r="Q221" s="6">
-        <v>0</v>
+        <v>358.2</v>
       </c>
       <c r="R221" s="6" t="s">
         <v>23</v>
@@ -20659,7 +20686,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>2808.63</v>
+        <v>3178.3</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -20718,7 +20745,7 @@
         <v>466</v>
       </c>
       <c r="Q223" s="6">
-        <v>282.38</v>
+        <v>177.5</v>
       </c>
       <c r="R223" s="6" t="s">
         <v>23</v>
@@ -21013,7 +21040,7 @@
         <v>476</v>
       </c>
       <c r="Q228" s="6">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>23</v>
@@ -21131,7 +21158,7 @@
         <v>480</v>
       </c>
       <c r="Q230" s="6">
-        <v>3559.2</v>
+        <v>3559.5</v>
       </c>
       <c r="R230" s="6" t="s">
         <v>23</v>
@@ -21190,7 +21217,7 @@
         <v>482</v>
       </c>
       <c r="Q231" s="6">
-        <v>261.5</v>
+        <v>260.5</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>23</v>
@@ -21721,7 +21748,7 @@
         <v>500</v>
       </c>
       <c r="Q240" s="6">
-        <v>2665.02</v>
+        <v>2486</v>
       </c>
       <c r="R240" s="6" t="s">
         <v>23</v>
@@ -21780,7 +21807,7 @@
         <v>502</v>
       </c>
       <c r="Q241" s="6">
-        <v>3097.36</v>
+        <v>2944.8</v>
       </c>
       <c r="R241" s="6" t="s">
         <v>23</v>
@@ -21898,7 +21925,7 @@
         <v>506</v>
       </c>
       <c r="Q243" s="6">
-        <v>597.27</v>
+        <v>591.70000000000005</v>
       </c>
       <c r="R243" s="6" t="s">
         <v>23</v>
@@ -21957,7 +21984,7 @@
         <v>508</v>
       </c>
       <c r="Q244" s="6">
-        <v>1119.03</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="R244" s="6" t="s">
         <v>23</v>
@@ -22016,7 +22043,7 @@
         <v>510</v>
       </c>
       <c r="Q245" s="6">
-        <v>784</v>
+        <v>276.5</v>
       </c>
       <c r="R245" s="6" t="s">
         <v>23</v>
@@ -22075,7 +22102,7 @@
         <v>512</v>
       </c>
       <c r="Q246" s="6">
-        <v>1217.4000000000001</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="R246" s="6" t="s">
         <v>23</v>
@@ -22134,7 +22161,7 @@
         <v>514</v>
       </c>
       <c r="Q247" s="6">
-        <v>290</v>
+        <v>335.7</v>
       </c>
       <c r="R247" s="6" t="s">
         <v>23</v>
@@ -22193,7 +22220,7 @@
         <v>516</v>
       </c>
       <c r="Q248" s="6">
-        <v>525.20000000000005</v>
+        <v>325.5</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>23</v>
@@ -22252,7 +22279,7 @@
         <v>518</v>
       </c>
       <c r="Q249" s="6">
-        <v>6104.7</v>
+        <v>6119.7</v>
       </c>
       <c r="R249" s="6" t="s">
         <v>23</v>
@@ -22311,7 +22338,7 @@
         <v>520</v>
       </c>
       <c r="Q250" s="6">
-        <v>574</v>
+        <v>656.9</v>
       </c>
       <c r="R250" s="6" t="s">
         <v>23</v>
@@ -22370,7 +22397,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>1001.9</v>
+        <v>795.3</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -22429,7 +22456,7 @@
         <v>524</v>
       </c>
       <c r="Q252" s="6">
-        <v>2917.9</v>
+        <v>3030.7</v>
       </c>
       <c r="R252" s="6" t="s">
         <v>23</v>
@@ -22488,7 +22515,7 @@
         <v>526</v>
       </c>
       <c r="Q253" s="6">
-        <v>2134.3000000000002</v>
+        <v>2034.6</v>
       </c>
       <c r="R253" s="6" t="s">
         <v>23</v>
@@ -22606,7 +22633,7 @@
         <v>530</v>
       </c>
       <c r="Q255" s="6">
-        <v>13128.8</v>
+        <v>13096</v>
       </c>
       <c r="R255" s="6" t="s">
         <v>23</v>
@@ -22724,7 +22751,7 @@
         <v>534</v>
       </c>
       <c r="Q257" s="6">
-        <v>5604.8</v>
+        <v>5579.3</v>
       </c>
       <c r="R257" s="6" t="s">
         <v>23</v>
@@ -22783,7 +22810,7 @@
         <v>536</v>
       </c>
       <c r="Q258" s="6">
-        <v>4434.5</v>
+        <v>4385</v>
       </c>
       <c r="R258" s="6" t="s">
         <v>23</v>
@@ -22842,7 +22869,7 @@
         <v>538</v>
       </c>
       <c r="Q259" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R259" s="6" t="s">
         <v>23</v>
@@ -22901,7 +22928,7 @@
         <v>540</v>
       </c>
       <c r="Q260" s="6">
-        <v>3212.65</v>
+        <v>3204.5</v>
       </c>
       <c r="R260" s="6" t="s">
         <v>23</v>
@@ -23019,7 +23046,7 @@
         <v>544</v>
       </c>
       <c r="Q262" s="6">
-        <v>1856.5</v>
+        <v>1856.7</v>
       </c>
       <c r="R262" s="6" t="s">
         <v>23</v>
@@ -23137,7 +23164,7 @@
         <v>548</v>
       </c>
       <c r="Q264" s="6">
-        <v>2470</v>
+        <v>2411</v>
       </c>
       <c r="R264" s="6" t="s">
         <v>23</v>
@@ -23196,7 +23223,7 @@
         <v>550</v>
       </c>
       <c r="Q265" s="6">
-        <v>325.2</v>
+        <v>280.2</v>
       </c>
       <c r="R265" s="6" t="s">
         <v>23</v>
@@ -23255,7 +23282,7 @@
         <v>552</v>
       </c>
       <c r="Q266" s="6">
-        <v>260.5</v>
+        <v>72.8</v>
       </c>
       <c r="R266" s="6" t="s">
         <v>23</v>
@@ -23314,7 +23341,7 @@
         <v>554</v>
       </c>
       <c r="Q267" s="6">
-        <v>805.6</v>
+        <v>805.4</v>
       </c>
       <c r="R267" s="6" t="s">
         <v>23</v>
@@ -23491,7 +23518,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>277.04000000000002</v>
+        <v>266.2</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -23609,7 +23636,7 @@
         <v>565</v>
       </c>
       <c r="Q272" s="6">
-        <v>2197.46</v>
+        <v>2132.9</v>
       </c>
       <c r="R272" s="6" t="s">
         <v>23</v>
@@ -23727,7 +23754,7 @@
         <v>569</v>
       </c>
       <c r="Q274" s="6">
-        <v>3969</v>
+        <v>3969.3</v>
       </c>
       <c r="R274" s="6" t="s">
         <v>23</v>
@@ -23904,7 +23931,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1698.98</v>
+        <v>1673.9</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -24022,7 +24049,7 @@
         <v>579</v>
       </c>
       <c r="Q279" s="6">
-        <v>0</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="R279" s="6" t="s">
         <v>23</v>
@@ -24140,7 +24167,7 @@
         <v>583</v>
       </c>
       <c r="Q281" s="6">
-        <v>347.2</v>
+        <v>332.9</v>
       </c>
       <c r="R281" s="6" t="s">
         <v>23</v>
@@ -24258,7 +24285,7 @@
         <v>587</v>
       </c>
       <c r="Q283" s="6">
-        <v>427.5</v>
+        <v>434.9</v>
       </c>
       <c r="R283" s="6" t="s">
         <v>23</v>
@@ -24317,7 +24344,7 @@
         <v>589</v>
       </c>
       <c r="Q284" s="6">
-        <v>445</v>
+        <v>462.9</v>
       </c>
       <c r="R284" s="6" t="s">
         <v>23</v>
@@ -24376,7 +24403,7 @@
         <v>591</v>
       </c>
       <c r="Q285" s="6">
-        <v>687.81</v>
+        <v>424.1</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>23</v>
@@ -24494,7 +24521,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1847.31</v>
+        <v>1647.6</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -24553,7 +24580,7 @@
         <v>597</v>
       </c>
       <c r="Q288" s="6">
-        <v>551.48</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="R288" s="6" t="s">
         <v>23</v>
@@ -24612,7 +24639,7 @@
         <v>599</v>
       </c>
       <c r="Q289" s="6">
-        <v>644.16</v>
+        <v>895.9</v>
       </c>
       <c r="R289" s="6" t="s">
         <v>23</v>
@@ -24671,7 +24698,7 @@
         <v>601</v>
       </c>
       <c r="Q290" s="6">
-        <v>326.29000000000002</v>
+        <v>209.2</v>
       </c>
       <c r="R290" s="6" t="s">
         <v>23</v>
@@ -24730,7 +24757,7 @@
         <v>603</v>
       </c>
       <c r="Q291" s="6">
-        <v>1569.18</v>
+        <v>1689.1</v>
       </c>
       <c r="R291" s="6" t="s">
         <v>23</v>
@@ -24789,7 +24816,7 @@
         <v>605</v>
       </c>
       <c r="Q292" s="6">
-        <v>1078.9000000000001</v>
+        <v>1083.9000000000001</v>
       </c>
       <c r="R292" s="6" t="s">
         <v>23</v>
@@ -24966,7 +24993,7 @@
         <v>611</v>
       </c>
       <c r="Q295" s="6">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="R295" s="6" t="s">
         <v>23</v>
@@ -25025,7 +25052,7 @@
         <v>613</v>
       </c>
       <c r="Q296" s="6">
-        <v>1208.22</v>
+        <v>1191.2</v>
       </c>
       <c r="R296" s="6" t="s">
         <v>23</v>
@@ -25084,7 +25111,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>3039.43</v>
+        <v>2976.3</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25143,7 +25170,7 @@
         <v>617</v>
       </c>
       <c r="Q298" s="6">
-        <v>147.63</v>
+        <v>152</v>
       </c>
       <c r="R298" s="6" t="s">
         <v>23</v>
@@ -25202,7 +25229,7 @@
         <v>619</v>
       </c>
       <c r="Q299" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R299" s="6" t="s">
         <v>23</v>
@@ -25261,7 +25288,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1040.58</v>
+        <v>1138.7</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25320,7 +25347,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>462.5</v>
+        <v>417.8</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25379,7 +25406,7 @@
         <v>625</v>
       </c>
       <c r="Q302" s="6">
-        <v>708.82</v>
+        <v>758.9</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>23</v>
@@ -25438,7 +25465,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>3052.73</v>
+        <v>2594.5</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25497,7 +25524,7 @@
         <v>629</v>
       </c>
       <c r="Q304" s="6">
-        <v>1525.83</v>
+        <v>1632.6</v>
       </c>
       <c r="R304" s="6" t="s">
         <v>23</v>
@@ -25556,7 +25583,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>50.6</v>
+        <v>215.2</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25615,7 +25642,7 @@
         <v>633</v>
       </c>
       <c r="Q306" s="6">
-        <v>1314.4</v>
+        <v>1437.5</v>
       </c>
       <c r="R306" s="6" t="s">
         <v>23</v>
@@ -25674,7 +25701,7 @@
         <v>635</v>
       </c>
       <c r="Q307" s="6">
-        <v>969.2</v>
+        <v>971.2</v>
       </c>
       <c r="R307" s="6" t="s">
         <v>23</v>
@@ -25733,7 +25760,7 @@
         <v>637</v>
       </c>
       <c r="Q308" s="6">
-        <v>287.5</v>
+        <v>184.5</v>
       </c>
       <c r="R308" s="6" t="s">
         <v>23</v>
@@ -25792,7 +25819,7 @@
         <v>639</v>
       </c>
       <c r="Q309" s="6">
-        <v>1930.03</v>
+        <v>1882.3</v>
       </c>
       <c r="R309" s="6" t="s">
         <v>23</v>
@@ -25851,7 +25878,7 @@
         <v>641</v>
       </c>
       <c r="Q310" s="6">
-        <v>1557.3</v>
+        <v>991.8</v>
       </c>
       <c r="R310" s="6" t="s">
         <v>23</v>
@@ -25910,7 +25937,7 @@
         <v>643</v>
       </c>
       <c r="Q311" s="6">
-        <v>118.6</v>
+        <v>123.6</v>
       </c>
       <c r="R311" s="6" t="s">
         <v>23</v>
@@ -25969,7 +25996,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>3520.23</v>
+        <v>5827.5</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26028,7 +26055,7 @@
         <v>649</v>
       </c>
       <c r="Q313" s="6">
-        <v>159.9</v>
+        <v>1190.7</v>
       </c>
       <c r="R313" s="6" t="s">
         <v>23</v>
@@ -26087,7 +26114,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2137.9299999999998</v>
+        <v>2080</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26205,7 +26232,7 @@
         <v>658</v>
       </c>
       <c r="Q316" s="6">
-        <v>196.99</v>
+        <v>171</v>
       </c>
       <c r="R316" s="6" t="s">
         <v>23</v>
@@ -26264,7 +26291,7 @@
         <v>660</v>
       </c>
       <c r="Q317" s="6">
-        <v>8664.98</v>
+        <v>8550.2999999999993</v>
       </c>
       <c r="R317" s="6" t="s">
         <v>23</v>
@@ -26323,7 +26350,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>2015.42</v>
+        <v>1565.7</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26382,7 +26409,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8005.9</v>
+        <v>8062.9</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26438,10 +26465,10 @@
         <v>21</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="Q320" s="6">
-        <v>3586.21</v>
+        <v>3132.7</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26500,7 +26527,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5952.56</v>
+        <v>5358.1</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26559,7 +26586,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1940.29</v>
+        <v>1532.4</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26618,7 +26645,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2757.82</v>
+        <v>2524.5</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26677,7 +26704,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>2058.92</v>
+        <v>1970.9</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26736,7 +26763,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3364.91</v>
+        <v>3314.1</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26795,7 +26822,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>2247.0300000000002</v>
+        <v>2110</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26854,7 +26881,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>93.48</v>
+        <v>7</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26913,7 +26940,7 @@
         <v>683</v>
       </c>
       <c r="Q328" s="6">
-        <v>1771.92</v>
+        <v>1721.4</v>
       </c>
       <c r="R328" s="6" t="s">
         <v>23</v>
@@ -26972,7 +26999,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1893.29</v>
+        <v>1871.5</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27031,7 +27058,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>711.59</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -27090,7 +27117,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>2742.2</v>
+        <v>3261.7</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27149,7 +27176,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>1652.4</v>
+        <v>1720.8</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27208,7 +27235,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1418.49</v>
+        <v>1354.8</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27267,7 +27294,7 @@
         <v>700</v>
       </c>
       <c r="Q334" s="6">
-        <v>59.7</v>
+        <v>32</v>
       </c>
       <c r="R334" s="6" t="s">
         <v>23</v>
@@ -27326,7 +27353,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1356.85</v>
+        <v>1280</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27385,7 +27412,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1813.74</v>
+        <v>1640.5</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27444,7 +27471,7 @@
         <v>708</v>
       </c>
       <c r="Q337" s="6">
-        <v>215.2</v>
+        <v>200.8</v>
       </c>
       <c r="R337" s="6" t="s">
         <v>23</v>
@@ -27562,7 +27589,7 @@
         <v>712</v>
       </c>
       <c r="Q339" s="6">
-        <v>732.4</v>
+        <v>732.8</v>
       </c>
       <c r="R339" s="6" t="s">
         <v>23</v>
@@ -27739,7 +27766,7 @@
         <v>718</v>
       </c>
       <c r="Q342" s="6">
-        <v>2661.3</v>
+        <v>2661.8</v>
       </c>
       <c r="R342" s="6" t="s">
         <v>23</v>
@@ -27798,7 +27825,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>228.72</v>
+        <v>216.3</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27916,7 +27943,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>567.84</v>
+        <v>366.9</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -27975,7 +28002,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>323.77999999999997</v>
+        <v>372.3</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -28034,7 +28061,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>42.28</v>
+        <v>160.6</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -28093,7 +28120,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>1036.48</v>
+        <v>1049.9000000000001</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28152,7 +28179,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>722.35</v>
+        <v>1799.1</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28211,7 +28238,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>4453.05</v>
+        <v>3485.3</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28270,7 +28297,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>12630.58</v>
+        <v>3344.6</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28329,7 +28356,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3514.76</v>
+        <v>3502.5</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28388,7 +28415,7 @@
         <v>744</v>
       </c>
       <c r="Q353" s="6">
-        <v>227.46</v>
+        <v>194.9</v>
       </c>
       <c r="R353" s="6" t="s">
         <v>23</v>
@@ -28447,7 +28474,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>90.07</v>
+        <v>29</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28506,7 +28533,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1367.7</v>
+        <v>1388.7</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28742,7 +28769,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>840.05</v>
+        <v>770.5</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28801,7 +28828,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1499.33</v>
+        <v>1491</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -28919,7 +28946,7 @@
         <v>765</v>
       </c>
       <c r="Q362" s="6">
-        <v>1017.6</v>
+        <v>965.4</v>
       </c>
       <c r="R362" s="6" t="s">
         <v>23</v>
@@ -29155,7 +29182,7 @@
         <v>777</v>
       </c>
       <c r="Q366" s="6">
-        <v>390.1</v>
+        <v>401</v>
       </c>
       <c r="R366" s="6" t="s">
         <v>23</v>
@@ -29214,7 +29241,7 @@
         <v>779</v>
       </c>
       <c r="Q367" s="6">
-        <v>629.70000000000005</v>
+        <v>614.70000000000005</v>
       </c>
       <c r="R367" s="6" t="s">
         <v>23</v>
@@ -29332,7 +29359,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>128.30000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -29391,7 +29418,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>151.4</v>
+        <v>133.6</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -29450,7 +29477,7 @@
         <v>794</v>
       </c>
       <c r="Q371" s="6">
-        <v>3307.58</v>
+        <v>3666.9</v>
       </c>
       <c r="R371" s="6" t="s">
         <v>23</v>
@@ -29568,7 +29595,7 @@
         <v>800</v>
       </c>
       <c r="Q373" s="6">
-        <v>514.9</v>
+        <v>512.9</v>
       </c>
       <c r="R373" s="6" t="s">
         <v>23</v>
@@ -29627,7 +29654,7 @@
         <v>2360</v>
       </c>
       <c r="Q374" s="6">
-        <v>1864.45</v>
+        <v>964.6</v>
       </c>
       <c r="R374" s="6" t="s">
         <v>23</v>
@@ -35409,7 +35436,7 @@
         <v>996</v>
       </c>
       <c r="Q472" s="6">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="R472" s="6" t="s">
         <v>23</v>
@@ -35527,7 +35554,7 @@
         <v>1000</v>
       </c>
       <c r="Q474" s="6">
-        <v>240</v>
+        <v>222.1</v>
       </c>
       <c r="R474" s="6" t="s">
         <v>23</v>
@@ -35586,7 +35613,7 @@
         <v>1002</v>
       </c>
       <c r="Q475" s="6">
-        <v>79.2</v>
+        <v>93.2</v>
       </c>
       <c r="R475" s="6" t="s">
         <v>23</v>
@@ -35645,7 +35672,7 @@
         <v>1004</v>
       </c>
       <c r="Q476" s="6">
-        <v>136.80000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="R476" s="6" t="s">
         <v>23</v>
@@ -35704,7 +35731,7 @@
         <v>1006</v>
       </c>
       <c r="Q477" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R477" s="6" t="s">
         <v>23</v>
@@ -35763,7 +35790,7 @@
         <v>1008</v>
       </c>
       <c r="Q478" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="R478" s="6" t="s">
         <v>23</v>
@@ -35881,7 +35908,7 @@
         <v>1012</v>
       </c>
       <c r="Q480" s="6">
-        <v>175.1</v>
+        <v>3</v>
       </c>
       <c r="R480" s="6" t="s">
         <v>23</v>
@@ -51457,7 +51484,7 @@
         <v>1546</v>
       </c>
       <c r="Q744" s="6">
-        <v>330.32</v>
+        <v>306</v>
       </c>
       <c r="R744" s="6" t="s">
         <v>23</v>
@@ -51752,7 +51779,7 @@
         <v>1563</v>
       </c>
       <c r="Q749" s="6">
-        <v>247.3</v>
+        <v>250.5</v>
       </c>
       <c r="R749" s="6" t="s">
         <v>23</v>
@@ -54053,7 +54080,7 @@
         <v>1649</v>
       </c>
       <c r="Q788" s="6">
-        <v>1569.04</v>
+        <v>1131</v>
       </c>
       <c r="R788" s="6" t="s">
         <v>23</v>
@@ -54230,7 +54257,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>7094.93</v>
+        <v>11483.2</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54348,7 +54375,7 @@
         <v>1659</v>
       </c>
       <c r="Q793" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R793" s="6" t="s">
         <v>23</v>
@@ -54466,7 +54493,7 @@
         <v>1663</v>
       </c>
       <c r="Q795" s="6">
-        <v>37</v>
+        <v>141.05404999999999</v>
       </c>
       <c r="R795" s="6" t="s">
         <v>23</v>
@@ -54525,7 +54552,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>6946.27</v>
+        <v>2369.9</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -54820,7 +54847,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>830.5</v>
+        <v>310</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -54938,7 +54965,7 @@
         <v>1679</v>
       </c>
       <c r="Q803" s="6">
-        <v>91.53</v>
+        <v>95</v>
       </c>
       <c r="R803" s="6" t="s">
         <v>23</v>
@@ -54982,7 +55009,7 @@
         <v>23</v>
       </c>
       <c r="L804" s="6">
-        <v>4.74</v>
+        <v>4.58</v>
       </c>
       <c r="M804" s="6">
         <v>0</v>
@@ -54997,7 +55024,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>7327.16</v>
+        <v>88963</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55041,7 +55068,7 @@
         <v>23</v>
       </c>
       <c r="L805" s="6">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="M805" s="6">
         <v>0</v>
@@ -55056,7 +55083,7 @@
         <v>1684</v>
       </c>
       <c r="Q805" s="6">
-        <v>317.31</v>
+        <v>25005</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -55115,7 +55142,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>353.89</v>
+        <v>54241.5</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55159,7 +55186,7 @@
         <v>23</v>
       </c>
       <c r="L807" s="6">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="M807" s="6">
         <v>0</v>
@@ -55174,7 +55201,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>1171.5999999999999</v>
+        <v>11007</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55233,7 +55260,7 @@
         <v>1693</v>
       </c>
       <c r="Q808" s="6">
-        <v>1310.1199999999999</v>
+        <v>40</v>
       </c>
       <c r="R808" s="6" t="s">
         <v>23</v>
@@ -56118,7 +56145,7 @@
         <v>1732</v>
       </c>
       <c r="Q823" s="6">
-        <v>911.8</v>
+        <v>912.6</v>
       </c>
       <c r="R823" s="6" t="s">
         <v>23</v>
@@ -56177,7 +56204,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>4502.63</v>
+        <v>3436.1</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -56236,7 +56263,7 @@
         <v>1738</v>
       </c>
       <c r="Q825" s="6">
-        <v>796.4</v>
+        <v>796.2</v>
       </c>
       <c r="R825" s="6" t="s">
         <v>23</v>
@@ -56354,7 +56381,7 @@
         <v>1744</v>
       </c>
       <c r="Q827" s="6">
-        <v>576.20000000000005</v>
+        <v>555.5</v>
       </c>
       <c r="R827" s="6" t="s">
         <v>23</v>
@@ -56413,7 +56440,7 @@
         <v>1747</v>
       </c>
       <c r="Q828" s="6">
-        <v>529.6</v>
+        <v>598.6</v>
       </c>
       <c r="R828" s="6" t="s">
         <v>23</v>
@@ -56472,7 +56499,7 @@
         <v>1750</v>
       </c>
       <c r="Q829" s="6">
-        <v>3136.4</v>
+        <v>2449</v>
       </c>
       <c r="R829" s="6" t="s">
         <v>23</v>
@@ -56531,7 +56558,7 @@
         <v>1753</v>
       </c>
       <c r="Q830" s="6">
-        <v>770.3</v>
+        <v>707.8</v>
       </c>
       <c r="R830" s="6" t="s">
         <v>23</v>
@@ -56590,7 +56617,7 @@
         <v>1756</v>
       </c>
       <c r="Q831" s="6">
-        <v>2322.1</v>
+        <v>2388.1</v>
       </c>
       <c r="R831" s="6" t="s">
         <v>23</v>
@@ -56649,7 +56676,7 @@
         <v>1758</v>
       </c>
       <c r="Q832" s="6">
-        <v>1623.75</v>
+        <v>1228.0999999999999</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -56708,7 +56735,7 @@
         <v>1762</v>
       </c>
       <c r="Q833" s="6">
-        <v>6986.73</v>
+        <v>6662.7</v>
       </c>
       <c r="R833" s="6" t="s">
         <v>23</v>
@@ -56767,7 +56794,7 @@
         <v>1765</v>
       </c>
       <c r="Q834" s="6">
-        <v>4472.3999999999996</v>
+        <v>4390.6000000000004</v>
       </c>
       <c r="R834" s="6" t="s">
         <v>23</v>
@@ -56826,7 +56853,7 @@
         <v>1768</v>
       </c>
       <c r="Q835" s="6">
-        <v>4993.2</v>
+        <v>4903.5</v>
       </c>
       <c r="R835" s="6" t="s">
         <v>23</v>
@@ -56885,7 +56912,7 @@
         <v>1771</v>
       </c>
       <c r="Q836" s="6">
-        <v>245.2</v>
+        <v>259.7</v>
       </c>
       <c r="R836" s="6" t="s">
         <v>23</v>
@@ -57003,7 +57030,7 @@
         <v>1777</v>
       </c>
       <c r="Q838" s="6">
-        <v>466.46</v>
+        <v>404.3</v>
       </c>
       <c r="R838" s="6" t="s">
         <v>23</v>
@@ -57062,7 +57089,7 @@
         <v>1782</v>
       </c>
       <c r="Q839" s="6">
-        <v>136.41</v>
+        <v>123.8</v>
       </c>
       <c r="R839" s="6" t="s">
         <v>23</v>
@@ -57121,7 +57148,7 @@
         <v>1786</v>
       </c>
       <c r="Q840" s="6">
-        <v>127.43</v>
+        <v>74.8</v>
       </c>
       <c r="R840" s="6" t="s">
         <v>23</v>
@@ -57180,7 +57207,7 @@
         <v>1790</v>
       </c>
       <c r="Q841" s="6">
-        <v>4394.25</v>
+        <v>4356.5</v>
       </c>
       <c r="R841" s="6" t="s">
         <v>23</v>
@@ -57239,7 +57266,7 @@
         <v>747</v>
       </c>
       <c r="Q842" s="6">
-        <v>637.75</v>
+        <v>590.6</v>
       </c>
       <c r="R842" s="6" t="s">
         <v>23</v>
@@ -57298,7 +57325,7 @@
         <v>1797</v>
       </c>
       <c r="Q843" s="6">
-        <v>121.33</v>
+        <v>125.7</v>
       </c>
       <c r="R843" s="6" t="s">
         <v>23</v>
@@ -57357,7 +57384,7 @@
         <v>1800</v>
       </c>
       <c r="Q844" s="6">
-        <v>2071.5300000000002</v>
+        <v>2054.4</v>
       </c>
       <c r="R844" s="6" t="s">
         <v>23</v>
@@ -57416,7 +57443,7 @@
         <v>1804</v>
       </c>
       <c r="Q845" s="6">
-        <v>1511.3</v>
+        <v>1500.3</v>
       </c>
       <c r="R845" s="6" t="s">
         <v>23</v>
@@ -57475,7 +57502,7 @@
         <v>1806</v>
       </c>
       <c r="Q846" s="6">
-        <v>195.86</v>
+        <v>203.1</v>
       </c>
       <c r="R846" s="6" t="s">
         <v>23</v>
@@ -57534,7 +57561,7 @@
         <v>1809</v>
       </c>
       <c r="Q847" s="6">
-        <v>169.3</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="R847" s="6" t="s">
         <v>23</v>
@@ -57593,7 +57620,7 @@
         <v>1812</v>
       </c>
       <c r="Q848" s="6">
-        <v>402.13</v>
+        <v>397.5</v>
       </c>
       <c r="R848" s="6" t="s">
         <v>23</v>
@@ -57652,7 +57679,7 @@
         <v>1817</v>
       </c>
       <c r="Q849" s="6">
-        <v>25014.5</v>
+        <v>25009.1</v>
       </c>
       <c r="R849" s="6" t="s">
         <v>23</v>
@@ -57770,7 +57797,7 @@
         <v>1822</v>
       </c>
       <c r="Q851" s="6">
-        <v>38595.01</v>
+        <v>38549.5</v>
       </c>
       <c r="R851" s="6" t="s">
         <v>23</v>
@@ -57829,7 +57856,7 @@
         <v>1825</v>
       </c>
       <c r="Q852" s="6">
-        <v>897.6</v>
+        <v>1046.5999999999999</v>
       </c>
       <c r="R852" s="6" t="s">
         <v>23</v>
@@ -58065,7 +58092,7 @@
         <v>1837</v>
       </c>
       <c r="Q856" s="6">
-        <v>144.83000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="R856" s="6" t="s">
         <v>23</v>
@@ -58124,7 +58151,7 @@
         <v>1840</v>
       </c>
       <c r="Q857" s="6">
-        <v>102.34</v>
+        <v>88.7</v>
       </c>
       <c r="R857" s="6" t="s">
         <v>23</v>
@@ -58360,7 +58387,7 @@
         <v>1852</v>
       </c>
       <c r="Q861" s="6">
-        <v>334.25</v>
+        <v>285.8</v>
       </c>
       <c r="R861" s="6" t="s">
         <v>23</v>
@@ -58419,7 +58446,7 @@
         <v>1855</v>
       </c>
       <c r="Q862" s="6">
-        <v>6386.6</v>
+        <v>5950.9</v>
       </c>
       <c r="R862" s="6" t="s">
         <v>23</v>
@@ -58478,7 +58505,7 @@
         <v>1858</v>
       </c>
       <c r="Q863" s="6">
-        <v>1160.2</v>
+        <v>198</v>
       </c>
       <c r="R863" s="6" t="s">
         <v>23</v>
@@ -58537,7 +58564,7 @@
         <v>1861</v>
       </c>
       <c r="Q864" s="6">
-        <v>855.4</v>
+        <v>825.3</v>
       </c>
       <c r="R864" s="6" t="s">
         <v>23</v>
@@ -58596,7 +58623,7 @@
         <v>1864</v>
       </c>
       <c r="Q865" s="6">
-        <v>855.05</v>
+        <v>876.7</v>
       </c>
       <c r="R865" s="6" t="s">
         <v>23</v>
@@ -58655,7 +58682,7 @@
         <v>1868</v>
       </c>
       <c r="Q866" s="6">
-        <v>24.64</v>
+        <v>605.4</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -58714,7 +58741,7 @@
         <v>1871</v>
       </c>
       <c r="Q867" s="6">
-        <v>1597.7</v>
+        <v>1479.5</v>
       </c>
       <c r="R867" s="6" t="s">
         <v>23</v>
@@ -58773,7 +58800,7 @@
         <v>1874</v>
       </c>
       <c r="Q868" s="6">
-        <v>8745.32</v>
+        <v>8770.5</v>
       </c>
       <c r="R868" s="6" t="s">
         <v>23</v>
@@ -58832,7 +58859,7 @@
         <v>1877</v>
       </c>
       <c r="Q869" s="6">
-        <v>265.10000000000002</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="R869" s="6" t="s">
         <v>23</v>
@@ -58891,7 +58918,7 @@
         <v>1880</v>
       </c>
       <c r="Q870" s="6">
-        <v>147.6</v>
+        <v>333.9</v>
       </c>
       <c r="R870" s="6" t="s">
         <v>23</v>
@@ -59068,7 +59095,7 @@
         <v>1889</v>
       </c>
       <c r="Q873" s="6">
-        <v>317.67</v>
+        <v>107</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59127,7 +59154,7 @@
         <v>1892</v>
       </c>
       <c r="Q874" s="6">
-        <v>318.66000000000003</v>
+        <v>221.4</v>
       </c>
       <c r="R874" s="6" t="s">
         <v>23</v>
@@ -59186,7 +59213,7 @@
         <v>1895</v>
       </c>
       <c r="Q875" s="6">
-        <v>403.43</v>
+        <v>342.5</v>
       </c>
       <c r="R875" s="6" t="s">
         <v>23</v>
@@ -59245,7 +59272,7 @@
         <v>1898</v>
       </c>
       <c r="Q876" s="6">
-        <v>44.92</v>
+        <v>53</v>
       </c>
       <c r="R876" s="6" t="s">
         <v>23</v>
@@ -59304,7 +59331,7 @@
         <v>1901</v>
       </c>
       <c r="Q877" s="6">
-        <v>126.05</v>
+        <v>61</v>
       </c>
       <c r="R877" s="6" t="s">
         <v>23</v>
@@ -59363,7 +59390,7 @@
         <v>1904</v>
       </c>
       <c r="Q878" s="6">
-        <v>810.9</v>
+        <v>602.5</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -59422,7 +59449,7 @@
         <v>1907</v>
       </c>
       <c r="Q879" s="6">
-        <v>167.1</v>
+        <v>302.7</v>
       </c>
       <c r="R879" s="6" t="s">
         <v>23</v>
@@ -59481,7 +59508,7 @@
         <v>1910</v>
       </c>
       <c r="Q880" s="6">
-        <v>208.9</v>
+        <v>184.3</v>
       </c>
       <c r="R880" s="6" t="s">
         <v>23</v>
@@ -59540,7 +59567,7 @@
         <v>1913</v>
       </c>
       <c r="Q881" s="6">
-        <v>1880.3</v>
+        <v>1483.8</v>
       </c>
       <c r="R881" s="6" t="s">
         <v>23</v>
@@ -59599,7 +59626,7 @@
         <v>1916</v>
       </c>
       <c r="Q882" s="6">
-        <v>219.66</v>
+        <v>215.1</v>
       </c>
       <c r="R882" s="6" t="s">
         <v>23</v>
@@ -59658,7 +59685,7 @@
         <v>1919</v>
       </c>
       <c r="Q883" s="6">
-        <v>325.36</v>
+        <v>325.8</v>
       </c>
       <c r="R883" s="6" t="s">
         <v>23</v>
@@ -59717,7 +59744,7 @@
         <v>1922</v>
       </c>
       <c r="Q884" s="6">
-        <v>10052.56</v>
+        <v>9895.2999999999993</v>
       </c>
       <c r="R884" s="6" t="s">
         <v>23</v>
@@ -59776,7 +59803,7 @@
         <v>1925</v>
       </c>
       <c r="Q885" s="6">
-        <v>3037.72</v>
+        <v>3003.7</v>
       </c>
       <c r="R885" s="6" t="s">
         <v>23</v>
@@ -59894,7 +59921,7 @@
         <v>1932</v>
       </c>
       <c r="Q887" s="6">
-        <v>39.56</v>
+        <v>20</v>
       </c>
       <c r="R887" s="6" t="s">
         <v>23</v>
@@ -59953,7 +59980,7 @@
         <v>1935</v>
       </c>
       <c r="Q888" s="6">
-        <v>8.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="R888" s="6" t="s">
         <v>23</v>
@@ -60012,7 +60039,7 @@
         <v>1938</v>
       </c>
       <c r="Q889" s="6">
-        <v>30.57</v>
+        <v>252.7</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -60071,7 +60098,7 @@
         <v>1941</v>
       </c>
       <c r="Q890" s="6">
-        <v>22.72</v>
+        <v>0</v>
       </c>
       <c r="R890" s="6" t="s">
         <v>23</v>
@@ -60189,7 +60216,7 @@
         <v>1947</v>
       </c>
       <c r="Q892" s="6">
-        <v>231.17</v>
+        <v>230.9</v>
       </c>
       <c r="R892" s="6" t="s">
         <v>23</v>
@@ -60484,7 +60511,7 @@
         <v>1962</v>
       </c>
       <c r="Q897" s="6">
-        <v>0</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="R897" s="6" t="s">
         <v>23</v>
@@ -61959,7 +61986,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>245.22</v>
+        <v>401.9</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62003,7 +62030,7 @@
         <v>23</v>
       </c>
       <c r="L923" s="6">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M923" s="6">
         <v>0</v>
@@ -62018,7 +62045,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>401.04</v>
+        <v>16635.099999999999</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -62077,7 +62104,7 @@
         <v>2044</v>
       </c>
       <c r="Q924" s="6">
-        <v>615.79999999999995</v>
+        <v>616.4</v>
       </c>
       <c r="R924" s="6" t="s">
         <v>23</v>
@@ -62136,7 +62163,7 @@
         <v>2047</v>
       </c>
       <c r="Q925" s="6">
-        <v>3973.73</v>
+        <v>3842.2</v>
       </c>
       <c r="R925" s="6" t="s">
         <v>23</v>
@@ -62195,7 +62222,7 @@
         <v>2050</v>
       </c>
       <c r="Q926" s="6">
-        <v>1544.22</v>
+        <v>1386.5</v>
       </c>
       <c r="R926" s="6" t="s">
         <v>23</v>
@@ -62254,7 +62281,7 @@
         <v>2053</v>
       </c>
       <c r="Q927" s="6">
-        <v>2429</v>
+        <v>2517</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62313,7 +62340,7 @@
         <v>2056</v>
       </c>
       <c r="Q928" s="6">
-        <v>1373.74</v>
+        <v>662.5</v>
       </c>
       <c r="R928" s="6" t="s">
         <v>23</v>
@@ -62372,7 +62399,7 @@
         <v>2059</v>
       </c>
       <c r="Q929" s="6">
-        <v>161.83000000000001</v>
+        <v>136.4</v>
       </c>
       <c r="R929" s="6" t="s">
         <v>23</v>
@@ -62431,7 +62458,7 @@
         <v>2062</v>
       </c>
       <c r="Q930" s="6">
-        <v>419.46</v>
+        <v>239.5</v>
       </c>
       <c r="R930" s="6" t="s">
         <v>23</v>
@@ -62490,7 +62517,7 @@
         <v>2065</v>
       </c>
       <c r="Q931" s="6">
-        <v>1658.5</v>
+        <v>1127</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -62549,7 +62576,7 @@
         <v>2068</v>
       </c>
       <c r="Q932" s="6">
-        <v>673.9</v>
+        <v>683</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62608,7 +62635,7 @@
         <v>2071</v>
       </c>
       <c r="Q933" s="6">
-        <v>189.7</v>
+        <v>6.35</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -62785,7 +62812,7 @@
         <v>2080</v>
       </c>
       <c r="Q936" s="6">
-        <v>1317</v>
+        <v>920.5</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62844,7 +62871,7 @@
         <v>2083</v>
       </c>
       <c r="Q937" s="6">
-        <v>1002.38</v>
+        <v>3</v>
       </c>
       <c r="R937" s="6" t="s">
         <v>23</v>
@@ -62903,7 +62930,7 @@
         <v>2086</v>
       </c>
       <c r="Q938" s="6">
-        <v>473.93</v>
+        <v>474.3</v>
       </c>
       <c r="R938" s="6" t="s">
         <v>23</v>
@@ -63021,7 +63048,7 @@
         <v>2092</v>
       </c>
       <c r="Q940" s="6">
-        <v>175.97</v>
+        <v>190.7</v>
       </c>
       <c r="R940" s="6" t="s">
         <v>23</v>
@@ -63080,7 +63107,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>1108.6300000000001</v>
+        <v>1092.8</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63198,7 +63225,7 @@
         <v>2101</v>
       </c>
       <c r="Q943" s="6">
-        <v>108.9</v>
+        <v>176.4</v>
       </c>
       <c r="R943" s="6" t="s">
         <v>23</v>
@@ -63257,7 +63284,7 @@
         <v>2104</v>
       </c>
       <c r="Q944" s="6">
-        <v>2649.24</v>
+        <v>2630</v>
       </c>
       <c r="R944" s="6" t="s">
         <v>23</v>
@@ -63316,7 +63343,7 @@
         <v>2107</v>
       </c>
       <c r="Q945" s="6">
-        <v>1523.45</v>
+        <v>5468.3</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63360,7 +63387,7 @@
         <v>23</v>
       </c>
       <c r="L946" s="6">
-        <v>3.48</v>
+        <v>3.13</v>
       </c>
       <c r="M946" s="6">
         <v>0</v>
@@ -63375,7 +63402,7 @@
         <v>2110</v>
       </c>
       <c r="Q946" s="6">
-        <v>212.67</v>
+        <v>10144.5</v>
       </c>
       <c r="R946" s="6" t="s">
         <v>23</v>
@@ -63552,7 +63579,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>611.88</v>
+        <v>2162.6</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63611,7 +63638,7 @@
         <v>2122</v>
       </c>
       <c r="Q950" s="6">
-        <v>364.1</v>
+        <v>368.2</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63670,7 +63697,7 @@
         <v>2125</v>
       </c>
       <c r="Q951" s="6">
-        <v>-18.03</v>
+        <v>0</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63729,7 +63756,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>281.14999999999998</v>
+        <v>299.5</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63788,7 +63815,7 @@
         <v>2131</v>
       </c>
       <c r="Q953" s="6">
-        <v>243.7</v>
+        <v>247.8</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63847,7 +63874,7 @@
         <v>2134</v>
       </c>
       <c r="Q954" s="6">
-        <v>157.05000000000001</v>
+        <v>127.2</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63906,7 +63933,7 @@
         <v>2137</v>
       </c>
       <c r="Q955" s="6">
-        <v>394.1</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -63965,7 +63992,7 @@
         <v>2140</v>
       </c>
       <c r="Q956" s="6">
-        <v>365.55</v>
+        <v>357.9</v>
       </c>
       <c r="R956" s="6" t="s">
         <v>23</v>
@@ -64006,7 +64033,7 @@
         <v>21</v>
       </c>
       <c r="K957" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L957" s="6">
         <v>0</v>
@@ -64024,7 +64051,7 @@
         <v>2143</v>
       </c>
       <c r="Q957" s="6">
-        <v>0</v>
+        <v>2413.5</v>
       </c>
       <c r="R957" s="6" t="s">
         <v>23</v>
@@ -64083,7 +64110,7 @@
         <v>2146</v>
       </c>
       <c r="Q958" s="6">
-        <v>301.05</v>
+        <v>1098.3</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -64142,7 +64169,7 @@
         <v>2149</v>
       </c>
       <c r="Q959" s="6">
-        <v>7955</v>
+        <v>5796.5</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -64201,7 +64228,7 @@
         <v>2151</v>
       </c>
       <c r="Q960" s="6">
-        <v>609.85</v>
+        <v>1723.4</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64260,7 +64287,7 @@
         <v>2154</v>
       </c>
       <c r="Q961" s="6">
-        <v>3994.35</v>
+        <v>3957.92</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64319,7 +64346,7 @@
         <v>2157</v>
       </c>
       <c r="Q962" s="6">
-        <v>2483.65</v>
+        <v>2283.6999999999998</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -64717,7 +64744,7 @@
         <v>23</v>
       </c>
       <c r="L969" s="6">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="M969" s="6">
         <v>0</v>
@@ -64732,7 +64759,7 @@
         <v>2198</v>
       </c>
       <c r="Q969" s="6">
-        <v>50.47</v>
+        <v>37.5</v>
       </c>
       <c r="R969" s="6" t="s">
         <v>23</v>
@@ -65204,7 +65231,7 @@
         <v>2222</v>
       </c>
       <c r="Q977" s="6">
-        <v>28.26</v>
+        <v>0</v>
       </c>
       <c r="R977" s="6" t="s">
         <v>23</v>
@@ -65322,7 +65349,7 @@
         <v>2228</v>
       </c>
       <c r="Q979" s="6">
-        <v>152.44999999999999</v>
+        <v>1043.8</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -65381,7 +65408,7 @@
         <v>2230</v>
       </c>
       <c r="Q980" s="6">
-        <v>1974.27</v>
+        <v>1912.4</v>
       </c>
       <c r="R980" s="6" t="s">
         <v>23</v>
@@ -65440,7 +65467,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>13237.03</v>
+        <v>9699.9</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65499,7 +65526,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>10896.35</v>
+        <v>8662.2999999999993</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65558,7 +65585,7 @@
         <v>2239</v>
       </c>
       <c r="Q983" s="6">
-        <v>2815.1</v>
+        <v>2782.8</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65617,7 +65644,7 @@
         <v>2242</v>
       </c>
       <c r="Q984" s="6">
-        <v>2831.3</v>
+        <v>2374.6999999999998</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65735,7 +65762,7 @@
         <v>2248</v>
       </c>
       <c r="Q986" s="6">
-        <v>359.4</v>
+        <v>315.2</v>
       </c>
       <c r="R986" s="6" t="s">
         <v>23</v>
@@ -65794,7 +65821,7 @@
         <v>2251</v>
       </c>
       <c r="Q987" s="6">
-        <v>505.8</v>
+        <v>463.6</v>
       </c>
       <c r="R987" s="6" t="s">
         <v>23</v>
@@ -65853,7 +65880,7 @@
         <v>2254</v>
       </c>
       <c r="Q988" s="6">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="R988" s="6" t="s">
         <v>23</v>
@@ -65912,7 +65939,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>5707.35</v>
+        <v>5633.5</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66089,7 +66116,7 @@
         <v>2266</v>
       </c>
       <c r="Q992" s="6">
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
       <c r="R992" s="6" t="s">
         <v>23</v>
@@ -66148,7 +66175,7 @@
         <v>2269</v>
       </c>
       <c r="Q993" s="6">
-        <v>138.9</v>
+        <v>132.9</v>
       </c>
       <c r="R993" s="6" t="s">
         <v>23</v>
@@ -66207,7 +66234,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>1180.57</v>
+        <v>235.2</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66266,7 +66293,7 @@
         <v>2278</v>
       </c>
       <c r="Q995" s="6">
-        <v>1862.64</v>
+        <v>1539</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66325,7 +66352,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>555.01</v>
+        <v>385.4</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66384,7 +66411,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>24705.55</v>
+        <v>12593.3</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66443,7 +66470,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>43240.025970000002</v>
+        <v>48779.6</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66502,7 +66529,7 @@
         <v>2290</v>
       </c>
       <c r="Q999" s="6">
-        <v>162.68</v>
+        <v>194.4</v>
       </c>
       <c r="R999" s="6" t="s">
         <v>23</v>
@@ -66561,7 +66588,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>13112.83</v>
+        <v>8026</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66620,7 +66647,7 @@
         <v>2296</v>
       </c>
       <c r="Q1001" s="6">
-        <v>113.09</v>
+        <v>9</v>
       </c>
       <c r="R1001" s="6" t="s">
         <v>23</v>
@@ -66679,7 +66706,7 @@
         <v>2299</v>
       </c>
       <c r="Q1002" s="6">
-        <v>2559.7399999999998</v>
+        <v>197</v>
       </c>
       <c r="R1002" s="6" t="s">
         <v>23</v>
@@ -66738,7 +66765,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>7103.55</v>
+        <v>3451</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66797,7 +66824,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>15.97</v>
+        <v>487.5</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -66974,7 +67001,7 @@
         <v>2314</v>
       </c>
       <c r="Q1007" s="6">
-        <v>796.7</v>
+        <v>770.1</v>
       </c>
       <c r="R1007" s="6" t="s">
         <v>23</v>
@@ -67033,7 +67060,7 @@
         <v>2317</v>
       </c>
       <c r="Q1008" s="6">
-        <v>1014.84</v>
+        <v>88.2</v>
       </c>
       <c r="R1008" s="6" t="s">
         <v>23</v>
@@ -67092,7 +67119,7 @@
         <v>2320</v>
       </c>
       <c r="Q1009" s="6">
-        <v>22.06</v>
+        <v>24</v>
       </c>
       <c r="R1009" s="6" t="s">
         <v>23</v>
@@ -67210,7 +67237,7 @@
         <v>2332</v>
       </c>
       <c r="Q1011" s="6">
-        <v>264.02999999999997</v>
+        <v>232.6</v>
       </c>
       <c r="R1011" s="6" t="s">
         <v>23</v>
@@ -67251,7 +67278,7 @@
         <v>21</v>
       </c>
       <c r="K1012" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1012" s="6">
         <v>0</v>
@@ -67269,7 +67296,7 @@
         <v>2335</v>
       </c>
       <c r="Q1012" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R1012" s="6" t="s">
         <v>23</v>
@@ -67328,7 +67355,7 @@
         <v>2338</v>
       </c>
       <c r="Q1013" s="6">
-        <v>63.92</v>
+        <v>792.4</v>
       </c>
       <c r="R1013" s="6" t="s">
         <v>23</v>
@@ -67428,10 +67455,10 @@
         <v>21</v>
       </c>
       <c r="K1015" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1015" s="6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M1015" s="6">
         <v>0</v>
@@ -67446,7 +67473,7 @@
         <v>2344</v>
       </c>
       <c r="Q1015" s="6">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="R1015" s="6" t="s">
         <v>23</v>
@@ -67490,7 +67517,7 @@
         <v>23</v>
       </c>
       <c r="L1016" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M1016" s="6">
         <v>0</v>
@@ -67505,7 +67532,7 @@
         <v>2347</v>
       </c>
       <c r="Q1016" s="6">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R1016" s="6" t="s">
         <v>23</v>
@@ -67623,7 +67650,7 @@
         <v>2352</v>
       </c>
       <c r="Q1018" s="6">
-        <v>393.72</v>
+        <v>385.2</v>
       </c>
       <c r="R1018" s="6" t="s">
         <v>23</v>
@@ -67682,7 +67709,7 @@
         <v>2363</v>
       </c>
       <c r="Q1019" s="6">
-        <v>27.14</v>
+        <v>27</v>
       </c>
       <c r="R1019" s="6" t="s">
         <v>23</v>
@@ -67741,7 +67768,7 @@
         <v>2366</v>
       </c>
       <c r="Q1020" s="6">
-        <v>11.54</v>
+        <v>4</v>
       </c>
       <c r="R1020" s="6" t="s">
         <v>23</v>
@@ -67800,7 +67827,7 @@
         <v>2369</v>
       </c>
       <c r="Q1021" s="6">
-        <v>44.1</v>
+        <v>40</v>
       </c>
       <c r="R1021" s="6" t="s">
         <v>23</v>
@@ -67859,7 +67886,7 @@
         <v>2372</v>
       </c>
       <c r="Q1022" s="6">
-        <v>100.51</v>
+        <v>0</v>
       </c>
       <c r="R1022" s="6" t="s">
         <v>23</v>
@@ -67918,7 +67945,7 @@
         <v>2375</v>
       </c>
       <c r="Q1023" s="6">
-        <v>252.77</v>
+        <v>1149.4000000000001</v>
       </c>
       <c r="R1023" s="6" t="s">
         <v>23</v>
@@ -67929,16 +67956,16 @@
     </row>
     <row r="1024" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1024" s="5" t="s">
-        <v>2165</v>
+        <v>2377</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>2166</v>
+        <v>2378</v>
       </c>
       <c r="D1024" s="5" t="s">
-        <v>2167</v>
+        <v>2379</v>
       </c>
       <c r="E1024" s="6" t="s">
         <v>23</v>
@@ -67959,10 +67986,10 @@
         <v>21</v>
       </c>
       <c r="K1024" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1024" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1024" s="6">
         <v>0</v>
@@ -67974,10 +68001,10 @@
         <v>21</v>
       </c>
       <c r="P1024" s="5" t="s">
-        <v>2166</v>
+        <v>2378</v>
       </c>
       <c r="Q1024" s="6">
-        <v>560.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="R1024" s="6" t="s">
         <v>23</v>
@@ -67988,16 +68015,16 @@
     </row>
     <row r="1025" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1025" s="5" t="s">
-        <v>2168</v>
+        <v>2380</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>2169</v>
+        <v>2381</v>
       </c>
       <c r="D1025" s="5" t="s">
-        <v>2170</v>
+        <v>2382</v>
       </c>
       <c r="E1025" s="6" t="s">
         <v>23</v>
@@ -68018,10 +68045,10 @@
         <v>21</v>
       </c>
       <c r="K1025" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1025" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="M1025" s="6">
         <v>0</v>
@@ -68033,10 +68060,10 @@
         <v>21</v>
       </c>
       <c r="P1025" s="5" t="s">
-        <v>2169</v>
+        <v>2381</v>
       </c>
       <c r="Q1025" s="6">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="R1025" s="6" t="s">
         <v>23</v>
@@ -68047,16 +68074,16 @@
     </row>
     <row r="1026" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1026" s="5" t="s">
-        <v>2171</v>
+        <v>2383</v>
       </c>
       <c r="B1026" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>2172</v>
+        <v>2384</v>
       </c>
       <c r="D1026" s="5" t="s">
-        <v>2173</v>
+        <v>2385</v>
       </c>
       <c r="E1026" s="6" t="s">
         <v>23</v>
@@ -68077,10 +68104,10 @@
         <v>21</v>
       </c>
       <c r="K1026" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1026" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M1026" s="6">
         <v>0</v>
@@ -68092,10 +68119,10 @@
         <v>21</v>
       </c>
       <c r="P1026" s="5" t="s">
-        <v>2172</v>
+        <v>2384</v>
       </c>
       <c r="Q1026" s="6">
-        <v>1022.9</v>
+        <v>0</v>
       </c>
       <c r="R1026" s="6" t="s">
         <v>23</v>
@@ -68106,16 +68133,16 @@
     </row>
     <row r="1027" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1027" s="5" t="s">
-        <v>2189</v>
+        <v>2165</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>2190</v>
+        <v>2166</v>
       </c>
       <c r="D1027" s="5" t="s">
-        <v>2191</v>
+        <v>2167</v>
       </c>
       <c r="E1027" s="6" t="s">
         <v>23</v>
@@ -68136,10 +68163,10 @@
         <v>21</v>
       </c>
       <c r="K1027" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1027" s="6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="M1027" s="6">
         <v>0</v>
@@ -68151,10 +68178,10 @@
         <v>21</v>
       </c>
       <c r="P1027" s="5" t="s">
-        <v>2190</v>
+        <v>2166</v>
       </c>
       <c r="Q1027" s="6">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="R1027" s="6" t="s">
         <v>23</v>
@@ -68165,16 +68192,16 @@
     </row>
     <row r="1028" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1028" s="5" t="s">
-        <v>2192</v>
+        <v>2168</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>2193</v>
+        <v>2169</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>2194</v>
+        <v>2170</v>
       </c>
       <c r="E1028" s="6" t="s">
         <v>23</v>
@@ -68195,10 +68222,10 @@
         <v>21</v>
       </c>
       <c r="K1028" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1028" s="6">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="M1028" s="6">
         <v>0</v>
@@ -68210,10 +68237,10 @@
         <v>21</v>
       </c>
       <c r="P1028" s="5" t="s">
-        <v>2193</v>
+        <v>2169</v>
       </c>
       <c r="Q1028" s="6">
-        <v>0</v>
+        <v>49.4</v>
       </c>
       <c r="R1028" s="6" t="s">
         <v>23</v>
@@ -68224,16 +68251,16 @@
     </row>
     <row r="1029" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1029" s="5" t="s">
-        <v>2322</v>
+        <v>2171</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>2323</v>
+        <v>2172</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>2324</v>
+        <v>2173</v>
       </c>
       <c r="E1029" s="6" t="s">
         <v>23</v>
@@ -68269,10 +68296,10 @@
         <v>21</v>
       </c>
       <c r="P1029" s="5" t="s">
-        <v>2323</v>
+        <v>2172</v>
       </c>
       <c r="Q1029" s="6">
-        <v>239.08</v>
+        <v>1024.9000000000001</v>
       </c>
       <c r="R1029" s="6" t="s">
         <v>23</v>
@@ -68283,16 +68310,16 @@
     </row>
     <row r="1030" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1030" s="5" t="s">
-        <v>2325</v>
+        <v>2189</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>2326</v>
+        <v>2190</v>
       </c>
       <c r="D1030" s="5" t="s">
-        <v>2327</v>
+        <v>2191</v>
       </c>
       <c r="E1030" s="6" t="s">
         <v>23</v>
@@ -68313,10 +68340,10 @@
         <v>21</v>
       </c>
       <c r="K1030" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1030" s="6">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="M1030" s="6">
         <v>0</v>
@@ -68328,10 +68355,10 @@
         <v>21</v>
       </c>
       <c r="P1030" s="5" t="s">
-        <v>2326</v>
+        <v>2190</v>
       </c>
       <c r="Q1030" s="6">
-        <v>156.21</v>
+        <v>0</v>
       </c>
       <c r="R1030" s="6" t="s">
         <v>23</v>
@@ -68342,60 +68369,237 @@
     </row>
     <row r="1031" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1031" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1031" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D1031" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1031" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1031" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1031" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1031" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1031" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1032" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1032" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1032" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1032" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E1032" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1032" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1032" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1032" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1032" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1032" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1032" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1032" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="M1032" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1032" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1032" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1032" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q1032" s="6">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="R1032" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1032" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1033" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1033" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1033" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1033" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1033" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1033" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1033" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1033" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1033" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1033" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1033" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1033" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M1033" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1033" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1033" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1033" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1033" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="R1033" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1033" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1034" s="5" t="s">
         <v>2354</v>
       </c>
-      <c r="B1031" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1031" s="5" t="s">
+      <c r="B1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1034" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="D1031" s="5" t="s">
+      <c r="D1034" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="E1031" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1031" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1031" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1031" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1031" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1031" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1031" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1031" s="6">
+      <c r="E1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1034" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1034" s="6">
         <v>4.2</v>
       </c>
-      <c r="M1031" s="6">
-        <v>0</v>
-      </c>
-      <c r="N1031" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1031" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1031" s="5" t="s">
+      <c r="M1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1034" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="Q1031" s="6">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="R1031" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1031" s="5" t="s">
+      <c r="Q1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1034" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7183,7 +7183,7 @@
     <t>SORRENTO 801 (CASTANHO)</t>
   </si>
   <si>
-    <t>Lista Produto : 31-08-2020 09:11:52</t>
+    <t>Lista Produto : 04-09-2020 11:35:16</t>
   </si>
 </sst>
 </file>
@@ -18090,7 +18090,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>990</v>
+        <v>943.5</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18149,7 +18149,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>978</v>
+        <v>959.4</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18621,7 +18621,7 @@
         <v>394</v>
       </c>
       <c r="Q187" s="6">
-        <v>1906</v>
+        <v>1343.4</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>23</v>
@@ -18975,7 +18975,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -20686,7 +20686,7 @@
         <v>464</v>
       </c>
       <c r="Q222" s="6">
-        <v>3178.3</v>
+        <v>2966.7</v>
       </c>
       <c r="R222" s="6" t="s">
         <v>23</v>
@@ -23931,7 +23931,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1673.9</v>
+        <v>1661.73</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -24521,7 +24521,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1647.6</v>
+        <v>1589.86</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -25111,7 +25111,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>2976.3</v>
+        <v>2818.65</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25760,7 +25760,7 @@
         <v>637</v>
       </c>
       <c r="Q308" s="6">
-        <v>184.5</v>
+        <v>408.6</v>
       </c>
       <c r="R308" s="6" t="s">
         <v>23</v>
@@ -25996,7 +25996,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>5827.5</v>
+        <v>5776.15</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26468,7 +26468,7 @@
         <v>668</v>
       </c>
       <c r="Q320" s="6">
-        <v>3132.7</v>
+        <v>3140.3</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26704,7 +26704,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>1970.9</v>
+        <v>1840.1</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26763,7 +26763,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3314.1</v>
+        <v>3281.4</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26822,7 +26822,7 @@
         <v>678</v>
       </c>
       <c r="Q326" s="6">
-        <v>2110</v>
+        <v>2011.1</v>
       </c>
       <c r="R326" s="6" t="s">
         <v>23</v>
@@ -26881,7 +26881,7 @@
         <v>680</v>
       </c>
       <c r="Q327" s="6">
-        <v>7</v>
+        <v>101.52</v>
       </c>
       <c r="R327" s="6" t="s">
         <v>23</v>
@@ -26999,7 +26999,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1871.5</v>
+        <v>1864</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27058,7 +27058,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>649.70000000000005</v>
+        <v>623.45000000000005</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -27117,7 +27117,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>3261.7</v>
+        <v>3254.2</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27176,7 +27176,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>1720.8</v>
+        <v>1908.35</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27235,7 +27235,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1354.8</v>
+        <v>1328.55</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27766,7 +27766,7 @@
         <v>718</v>
       </c>
       <c r="Q342" s="6">
-        <v>2661.8</v>
+        <v>2656.96</v>
       </c>
       <c r="R342" s="6" t="s">
         <v>23</v>
@@ -27825,7 +27825,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>216.3</v>
+        <v>342.82</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -28002,7 +28002,7 @@
         <v>726</v>
       </c>
       <c r="Q346" s="6">
-        <v>372.3</v>
+        <v>263.51</v>
       </c>
       <c r="R346" s="6" t="s">
         <v>23</v>
@@ -28120,7 +28120,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>1049.9000000000001</v>
+        <v>1043.9000000000001</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28179,7 +28179,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1799.1</v>
+        <v>1759.54</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28238,7 +28238,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>3485.3</v>
+        <v>3415</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28297,7 +28297,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>3344.6</v>
+        <v>14197.89</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28356,7 +28356,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3502.5</v>
+        <v>3500.55</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28474,7 +28474,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28533,7 +28533,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1388.7</v>
+        <v>1367.61</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28828,7 +28828,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1491</v>
+        <v>1455.85</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -29418,7 +29418,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>133.6</v>
+        <v>129.85</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -54257,7 +54257,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>11483.2</v>
+        <v>10411.959999999999</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54552,7 +54552,7 @@
         <v>1665</v>
       </c>
       <c r="Q796" s="6">
-        <v>2369.9</v>
+        <v>2366.2800000000002</v>
       </c>
       <c r="R796" s="6" t="s">
         <v>23</v>
@@ -55024,7 +55024,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>88963</v>
+        <v>83314.2</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55201,7 +55201,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>11007</v>
+        <v>9752.7000000000007</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -56204,7 +56204,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>3436.1</v>
+        <v>3549.69</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -56676,7 +56676,7 @@
         <v>1758</v>
       </c>
       <c r="Q832" s="6">
-        <v>1228.0999999999999</v>
+        <v>2285.54</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -58682,7 +58682,7 @@
         <v>1868</v>
       </c>
       <c r="Q866" s="6">
-        <v>605.4</v>
+        <v>600.69000000000005</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -61986,7 +61986,7 @@
         <v>2038</v>
       </c>
       <c r="Q922" s="6">
-        <v>401.9</v>
+        <v>2432.6999999999998</v>
       </c>
       <c r="R922" s="6" t="s">
         <v>23</v>
@@ -62045,7 +62045,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>16635.099999999999</v>
+        <v>17924</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -62517,7 +62517,7 @@
         <v>2065</v>
       </c>
       <c r="Q931" s="6">
-        <v>1127</v>
+        <v>1114.83</v>
       </c>
       <c r="R931" s="6" t="s">
         <v>23</v>
@@ -62635,7 +62635,7 @@
         <v>2071</v>
       </c>
       <c r="Q933" s="6">
-        <v>6.35</v>
+        <v>9</v>
       </c>
       <c r="R933" s="6" t="s">
         <v>23</v>
@@ -62812,7 +62812,7 @@
         <v>2080</v>
       </c>
       <c r="Q936" s="6">
-        <v>920.5</v>
+        <v>111.98</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -62989,7 +62989,7 @@
         <v>2089</v>
       </c>
       <c r="Q939" s="6">
-        <v>2874.4</v>
+        <v>5158</v>
       </c>
       <c r="R939" s="6" t="s">
         <v>23</v>
@@ -63107,7 +63107,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>1092.8</v>
+        <v>986</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63579,7 +63579,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>2162.6</v>
+        <v>974.7</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63756,7 +63756,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>299.5</v>
+        <v>149.05000000000001</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63933,7 +63933,7 @@
         <v>2137</v>
       </c>
       <c r="Q955" s="6">
-        <v>300.60000000000002</v>
+        <v>250.45</v>
       </c>
       <c r="R955" s="6" t="s">
         <v>23</v>
@@ -64051,7 +64051,7 @@
         <v>2143</v>
       </c>
       <c r="Q957" s="6">
-        <v>2413.5</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="R957" s="6" t="s">
         <v>23</v>
@@ -64169,7 +64169,7 @@
         <v>2149</v>
       </c>
       <c r="Q959" s="6">
-        <v>5796.5</v>
+        <v>4514.8999999999996</v>
       </c>
       <c r="R959" s="6" t="s">
         <v>23</v>
@@ -65526,7 +65526,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>8662.2999999999993</v>
+        <v>7512.7</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -66234,7 +66234,7 @@
         <v>2275</v>
       </c>
       <c r="Q994" s="6">
-        <v>235.2</v>
+        <v>216.7</v>
       </c>
       <c r="R994" s="6" t="s">
         <v>23</v>
@@ -66411,7 +66411,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>12593.3</v>
+        <v>9841.2999999999993</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66470,7 +66470,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>48779.6</v>
+        <v>45564.98</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -67001,7 +67001,7 @@
         <v>2314</v>
       </c>
       <c r="Q1007" s="6">
-        <v>770.1</v>
+        <v>741.9</v>
       </c>
       <c r="R1007" s="6" t="s">
         <v>23</v>
@@ -67768,7 +67768,7 @@
         <v>2366</v>
       </c>
       <c r="Q1020" s="6">
-        <v>4</v>
+        <v>92.5</v>
       </c>
       <c r="R1020" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15486" uniqueCount="2387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15501" uniqueCount="2390">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7183,7 +7183,16 @@
     <t>SORRENTO 801 (CASTANHO)</t>
   </si>
   <si>
-    <t>Lista Produto : 04-09-2020 11:35:16</t>
+    <t>Lista Produto : 11-09-2020 09:22:41</t>
+  </si>
+  <si>
+    <t>TC15206</t>
+  </si>
+  <si>
+    <t>G3711</t>
+  </si>
+  <si>
+    <t>PERSA 10 (CINZA CLARO)</t>
   </si>
 </sst>
 </file>
@@ -7350,8 +7359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1034" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1034"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1035" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1035"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7640,10 +7649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1034"/>
+  <dimension ref="A1:S1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18090,7 +18099,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>943.5</v>
+        <v>748.2</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18149,7 +18158,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>959.4</v>
+        <v>866.4</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18960,7 +18969,7 @@
         <v>23</v>
       </c>
       <c r="L193" s="6">
-        <v>2.31</v>
+        <v>1.72</v>
       </c>
       <c r="M193" s="6">
         <v>0</v>
@@ -18975,7 +18984,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>153</v>
+        <v>1667</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -22397,7 +22406,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>795.3</v>
+        <v>742.3</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -23931,7 +23940,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1661.73</v>
+        <v>323.02999999999997</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -24521,7 +24530,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1589.86</v>
+        <v>1586.28</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -25111,7 +25120,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>2818.65</v>
+        <v>2774.05</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25288,7 +25297,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1138.7</v>
+        <v>1120.1199999999999</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25347,7 +25356,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>417.8</v>
+        <v>309.01</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25465,7 +25474,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>2594.5</v>
+        <v>2475.8200000000002</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25583,7 +25592,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>215.2</v>
+        <v>204.69</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25996,7 +26005,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>5776.15</v>
+        <v>5681.55</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26114,7 +26123,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2080</v>
+        <v>2076.25</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26350,7 +26359,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>1565.7</v>
+        <v>1418.61</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26409,7 +26418,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8062.9</v>
+        <v>7093.9</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26468,7 +26477,7 @@
         <v>668</v>
       </c>
       <c r="Q320" s="6">
-        <v>3140.3</v>
+        <v>2420.0100000000002</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26527,7 +26536,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5358.1</v>
+        <v>4658.71</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26999,7 +27008,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1864</v>
+        <v>1807.75</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27058,7 +27067,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>623.45000000000005</v>
+        <v>615.95000000000005</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -27117,7 +27126,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>3254.2</v>
+        <v>3197.95</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27176,7 +27185,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>1908.35</v>
+        <v>1858.14</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27235,7 +27244,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1328.55</v>
+        <v>1321.05</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27353,7 +27362,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1280</v>
+        <v>1276.75</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27412,7 +27421,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1640.5</v>
+        <v>1591.85</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27825,7 +27834,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>342.82</v>
+        <v>223.92</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27943,7 +27952,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>366.9</v>
+        <v>203.36</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -28061,7 +28070,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>160.6</v>
+        <v>151.35</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -28120,7 +28129,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>1043.9000000000001</v>
+        <v>1040.9000000000001</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28179,7 +28188,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1759.54</v>
+        <v>1739.1</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28238,7 +28247,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>3415</v>
+        <v>2878.25</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28282,7 +28291,7 @@
         <v>23</v>
       </c>
       <c r="L351" s="6">
-        <v>2.27</v>
+        <v>1.93</v>
       </c>
       <c r="M351" s="6">
         <v>0</v>
@@ -28297,7 +28306,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>14197.89</v>
+        <v>15141.79</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28356,7 +28365,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3500.55</v>
+        <v>3499.25</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28474,7 +28483,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>3</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28533,7 +28542,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1367.61</v>
+        <v>1353.55</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28769,7 +28778,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>770.5</v>
+        <v>735.35</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28828,7 +28837,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1455.85</v>
+        <v>1441.79</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -29359,7 +29368,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>85.3</v>
+        <v>81.55</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -29418,7 +29427,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>129.85</v>
+        <v>128.35</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -54257,7 +54266,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>10411.959999999999</v>
+        <v>10398.4</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54847,7 +54856,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>310</v>
+        <v>-124.4</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -55024,7 +55033,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>83314.2</v>
+        <v>97670.67</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55083,7 +55092,7 @@
         <v>1684</v>
       </c>
       <c r="Q805" s="6">
-        <v>25005</v>
+        <v>34005</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -55142,7 +55151,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>54241.5</v>
+        <v>68978.7</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55201,7 +55210,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>9752.7000000000007</v>
+        <v>11837.4</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55260,7 +55269,7 @@
         <v>1693</v>
       </c>
       <c r="Q808" s="6">
-        <v>40</v>
+        <v>5190.5</v>
       </c>
       <c r="R808" s="6" t="s">
         <v>23</v>
@@ -56204,7 +56213,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>3549.69</v>
+        <v>4475.46</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -57797,7 +57806,7 @@
         <v>1822</v>
       </c>
       <c r="Q851" s="6">
-        <v>38549.5</v>
+        <v>30002.7</v>
       </c>
       <c r="R851" s="6" t="s">
         <v>23</v>
@@ -58667,7 +58676,7 @@
         <v>23</v>
       </c>
       <c r="L866" s="6">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="M866" s="6">
         <v>0</v>
@@ -58682,7 +58691,7 @@
         <v>1868</v>
       </c>
       <c r="Q866" s="6">
-        <v>600.69000000000005</v>
+        <v>340.63</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -59390,7 +59399,7 @@
         <v>1904</v>
       </c>
       <c r="Q878" s="6">
-        <v>602.5</v>
+        <v>560.70000000000005</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -60039,7 +60048,7 @@
         <v>1938</v>
       </c>
       <c r="Q889" s="6">
-        <v>252.7</v>
+        <v>76.3</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -62045,7 +62054,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>17924</v>
+        <v>27284.76</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -62281,7 +62290,7 @@
         <v>2053</v>
       </c>
       <c r="Q927" s="6">
-        <v>2517</v>
+        <v>1056.5999999999999</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62576,7 +62585,7 @@
         <v>2068</v>
       </c>
       <c r="Q932" s="6">
-        <v>683</v>
+        <v>664.42</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62812,7 +62821,7 @@
         <v>2080</v>
       </c>
       <c r="Q936" s="6">
-        <v>111.98</v>
+        <v>98.04</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -63107,7 +63116,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>986</v>
+        <v>902.52</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63343,7 +63352,7 @@
         <v>2107</v>
       </c>
       <c r="Q945" s="6">
-        <v>5468.3</v>
+        <v>6468.3</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63402,7 +63411,7 @@
         <v>2110</v>
       </c>
       <c r="Q946" s="6">
-        <v>10144.5</v>
+        <v>12144.5</v>
       </c>
       <c r="R946" s="6" t="s">
         <v>23</v>
@@ -63579,7 +63588,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>974.7</v>
+        <v>795.92</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63638,7 +63647,7 @@
         <v>2122</v>
       </c>
       <c r="Q950" s="6">
-        <v>368.2</v>
+        <v>318.05</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63697,7 +63706,7 @@
         <v>2125</v>
       </c>
       <c r="Q951" s="6">
-        <v>0</v>
+        <v>196.2</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63756,7 +63765,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>149.05000000000001</v>
+        <v>451.35</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63815,7 +63824,7 @@
         <v>2131</v>
       </c>
       <c r="Q953" s="6">
-        <v>247.8</v>
+        <v>147.5</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63859,7 +63868,7 @@
         <v>23</v>
       </c>
       <c r="L954" s="6">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M954" s="6">
         <v>0</v>
@@ -63874,7 +63883,7 @@
         <v>2134</v>
       </c>
       <c r="Q954" s="6">
-        <v>127.2</v>
+        <v>225.5</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63992,7 +64001,7 @@
         <v>2140</v>
       </c>
       <c r="Q956" s="6">
-        <v>357.9</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="R956" s="6" t="s">
         <v>23</v>
@@ -64036,7 +64045,7 @@
         <v>23</v>
       </c>
       <c r="L957" s="6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M957" s="6">
         <v>0</v>
@@ -64110,7 +64119,7 @@
         <v>2146</v>
       </c>
       <c r="Q958" s="6">
-        <v>1098.3</v>
+        <v>726.92</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -64228,7 +64237,7 @@
         <v>2151</v>
       </c>
       <c r="Q960" s="6">
-        <v>1723.4</v>
+        <v>1391.75</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64287,7 +64296,7 @@
         <v>2154</v>
       </c>
       <c r="Q961" s="6">
-        <v>3957.92</v>
+        <v>3891.62</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64346,7 +64355,7 @@
         <v>2157</v>
       </c>
       <c r="Q962" s="6">
-        <v>2283.6999999999998</v>
+        <v>2084.6999999999998</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -65349,7 +65358,7 @@
         <v>2228</v>
       </c>
       <c r="Q979" s="6">
-        <v>1043.8</v>
+        <v>1646</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -65467,7 +65476,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>9699.9</v>
+        <v>8390.7999999999993</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65526,7 +65535,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>7512.7</v>
+        <v>7432.95</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65585,7 +65594,7 @@
         <v>2239</v>
       </c>
       <c r="Q983" s="6">
-        <v>2782.8</v>
+        <v>2737.45</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65644,7 +65653,7 @@
         <v>2242</v>
       </c>
       <c r="Q984" s="6">
-        <v>2374.6999999999998</v>
+        <v>4649.3999999999996</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65939,7 +65948,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>5633.5</v>
+        <v>9785.7999999999993</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66293,7 +66302,7 @@
         <v>2278</v>
       </c>
       <c r="Q995" s="6">
-        <v>1539</v>
+        <v>1216.7</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66352,7 +66361,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>385.4</v>
+        <v>224.17</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66411,7 +66420,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>9841.2999999999993</v>
+        <v>9604.7000000000007</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66470,7 +66479,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>45564.98</v>
+        <v>41027.82</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66588,7 +66597,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>8026</v>
+        <v>7828.92</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66765,7 +66774,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>3451</v>
+        <v>3431.52</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66824,7 +66833,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>487.5</v>
+        <v>450.5</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -67281,7 +67290,7 @@
         <v>23</v>
       </c>
       <c r="L1012" s="6">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M1012" s="6">
         <v>0</v>
@@ -68133,16 +68142,16 @@
     </row>
     <row r="1027" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1027" s="5" t="s">
-        <v>2165</v>
+        <v>2387</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>2166</v>
+        <v>2388</v>
       </c>
       <c r="D1027" s="5" t="s">
-        <v>2167</v>
+        <v>2389</v>
       </c>
       <c r="E1027" s="6" t="s">
         <v>23</v>
@@ -68163,10 +68172,10 @@
         <v>21</v>
       </c>
       <c r="K1027" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1027" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1027" s="6">
         <v>0</v>
@@ -68178,10 +68187,10 @@
         <v>21</v>
       </c>
       <c r="P1027" s="5" t="s">
-        <v>2166</v>
+        <v>2388</v>
       </c>
       <c r="Q1027" s="6">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="R1027" s="6" t="s">
         <v>23</v>
@@ -68192,16 +68201,16 @@
     </row>
     <row r="1028" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1028" s="5" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="E1028" s="6" t="s">
         <v>23</v>
@@ -68225,7 +68234,7 @@
         <v>23</v>
       </c>
       <c r="L1028" s="6">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="M1028" s="6">
         <v>0</v>
@@ -68237,10 +68246,10 @@
         <v>21</v>
       </c>
       <c r="P1028" s="5" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="Q1028" s="6">
-        <v>49.4</v>
+        <v>512</v>
       </c>
       <c r="R1028" s="6" t="s">
         <v>23</v>
@@ -68251,16 +68260,16 @@
     </row>
     <row r="1029" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1029" s="5" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="E1029" s="6" t="s">
         <v>23</v>
@@ -68284,7 +68293,7 @@
         <v>23</v>
       </c>
       <c r="L1029" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="M1029" s="6">
         <v>0</v>
@@ -68296,10 +68305,10 @@
         <v>21</v>
       </c>
       <c r="P1029" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="Q1029" s="6">
-        <v>1024.9000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="R1029" s="6" t="s">
         <v>23</v>
@@ -68310,16 +68319,16 @@
     </row>
     <row r="1030" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1030" s="5" t="s">
-        <v>2189</v>
+        <v>2171</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
       <c r="D1030" s="5" t="s">
-        <v>2191</v>
+        <v>2173</v>
       </c>
       <c r="E1030" s="6" t="s">
         <v>23</v>
@@ -68340,10 +68349,10 @@
         <v>21</v>
       </c>
       <c r="K1030" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1030" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M1030" s="6">
         <v>0</v>
@@ -68355,10 +68364,10 @@
         <v>21</v>
       </c>
       <c r="P1030" s="5" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
       <c r="Q1030" s="6">
-        <v>0</v>
+        <v>1024.9000000000001</v>
       </c>
       <c r="R1030" s="6" t="s">
         <v>23</v>
@@ -68369,16 +68378,16 @@
     </row>
     <row r="1031" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1031" s="5" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="B1031" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="D1031" s="5" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="E1031" s="6" t="s">
         <v>23</v>
@@ -68414,7 +68423,7 @@
         <v>21</v>
       </c>
       <c r="P1031" s="5" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="Q1031" s="6">
         <v>0</v>
@@ -68428,16 +68437,16 @@
     </row>
     <row r="1032" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1032" s="5" t="s">
-        <v>2322</v>
+        <v>2192</v>
       </c>
       <c r="B1032" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>2323</v>
+        <v>2193</v>
       </c>
       <c r="D1032" s="5" t="s">
-        <v>2324</v>
+        <v>2194</v>
       </c>
       <c r="E1032" s="6" t="s">
         <v>23</v>
@@ -68458,10 +68467,10 @@
         <v>21</v>
       </c>
       <c r="K1032" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1032" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M1032" s="6">
         <v>0</v>
@@ -68473,10 +68482,10 @@
         <v>21</v>
       </c>
       <c r="P1032" s="5" t="s">
-        <v>2323</v>
+        <v>2193</v>
       </c>
       <c r="Q1032" s="6">
-        <v>76.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="R1032" s="6" t="s">
         <v>23</v>
@@ -68487,16 +68496,16 @@
     </row>
     <row r="1033" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1033" s="5" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B1033" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="D1033" s="5" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="E1033" s="6" t="s">
         <v>23</v>
@@ -68520,7 +68529,7 @@
         <v>23</v>
       </c>
       <c r="L1033" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="M1033" s="6">
         <v>0</v>
@@ -68532,10 +68541,10 @@
         <v>21</v>
       </c>
       <c r="P1033" s="5" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="Q1033" s="6">
-        <v>153.30000000000001</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="R1033" s="6" t="s">
         <v>23</v>
@@ -68546,60 +68555,119 @@
     </row>
     <row r="1034" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1034" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1034" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1034" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1034" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1034" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1034" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1034" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="R1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1034" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1035" s="5" t="s">
         <v>2354</v>
       </c>
-      <c r="B1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1034" s="5" t="s">
+      <c r="B1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1035" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="D1034" s="5" t="s">
+      <c r="D1035" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="E1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1034" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1034" s="6">
+      <c r="E1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1035" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1035" s="6">
         <v>4.2</v>
       </c>
-      <c r="M1034" s="6">
-        <v>0</v>
-      </c>
-      <c r="N1034" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1034" s="5" t="s">
+      <c r="M1035" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1035" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1035" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="Q1034" s="6">
-        <v>0</v>
-      </c>
-      <c r="R1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1034" s="5" t="s">
+      <c r="Q1035" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1035" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15486" uniqueCount="2387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15501" uniqueCount="2390">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7183,7 +7183,16 @@
     <t>SORRENTO 801 (CASTANHO)</t>
   </si>
   <si>
-    <t>Lista Produto : 04-09-2020 11:35:16</t>
+    <t>TC15206</t>
+  </si>
+  <si>
+    <t>G3711</t>
+  </si>
+  <si>
+    <t>PERSA 10 (CINZA CLARO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 14-09-2020 09:54:14</t>
   </si>
 </sst>
 </file>
@@ -7350,8 +7359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1034" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:S1034"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1035" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:S1035"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="16"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="15"/>
@@ -7640,7 +7649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1034"/>
+  <dimension ref="A1:S1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -7694,7 +7703,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18090,7 +18099,7 @@
         <v>376</v>
       </c>
       <c r="Q178" s="6">
-        <v>943.5</v>
+        <v>748.2</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>23</v>
@@ -18149,7 +18158,7 @@
         <v>378</v>
       </c>
       <c r="Q179" s="6">
-        <v>959.4</v>
+        <v>866.4</v>
       </c>
       <c r="R179" s="6" t="s">
         <v>23</v>
@@ -18960,7 +18969,7 @@
         <v>23</v>
       </c>
       <c r="L193" s="6">
-        <v>2.31</v>
+        <v>1.72</v>
       </c>
       <c r="M193" s="6">
         <v>0</v>
@@ -18975,7 +18984,7 @@
         <v>406</v>
       </c>
       <c r="Q193" s="6">
-        <v>153</v>
+        <v>1667</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>23</v>
@@ -22397,7 +22406,7 @@
         <v>522</v>
       </c>
       <c r="Q251" s="6">
-        <v>795.3</v>
+        <v>742.3</v>
       </c>
       <c r="R251" s="6" t="s">
         <v>23</v>
@@ -23518,7 +23527,7 @@
         <v>561</v>
       </c>
       <c r="Q270" s="6">
-        <v>266.2</v>
+        <v>171.16</v>
       </c>
       <c r="R270" s="6" t="s">
         <v>23</v>
@@ -23931,7 +23940,7 @@
         <v>575</v>
       </c>
       <c r="Q277" s="6">
-        <v>1661.73</v>
+        <v>323.02999999999997</v>
       </c>
       <c r="R277" s="6" t="s">
         <v>23</v>
@@ -24521,7 +24530,7 @@
         <v>595</v>
       </c>
       <c r="Q287" s="6">
-        <v>1589.86</v>
+        <v>1586.28</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>23</v>
@@ -25111,7 +25120,7 @@
         <v>615</v>
       </c>
       <c r="Q297" s="6">
-        <v>2818.65</v>
+        <v>2774.05</v>
       </c>
       <c r="R297" s="6" t="s">
         <v>23</v>
@@ -25288,7 +25297,7 @@
         <v>621</v>
       </c>
       <c r="Q300" s="6">
-        <v>1138.7</v>
+        <v>1120.1199999999999</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>23</v>
@@ -25347,7 +25356,7 @@
         <v>623</v>
       </c>
       <c r="Q301" s="6">
-        <v>417.8</v>
+        <v>309.01</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>23</v>
@@ -25465,7 +25474,7 @@
         <v>627</v>
       </c>
       <c r="Q303" s="6">
-        <v>2594.5</v>
+        <v>2475.8200000000002</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>23</v>
@@ -25583,7 +25592,7 @@
         <v>631</v>
       </c>
       <c r="Q305" s="6">
-        <v>215.2</v>
+        <v>62.04</v>
       </c>
       <c r="R305" s="6" t="s">
         <v>23</v>
@@ -25996,7 +26005,7 @@
         <v>646</v>
       </c>
       <c r="Q312" s="6">
-        <v>5776.15</v>
+        <v>5681.55</v>
       </c>
       <c r="R312" s="6" t="s">
         <v>23</v>
@@ -26114,7 +26123,7 @@
         <v>652</v>
       </c>
       <c r="Q314" s="6">
-        <v>2080</v>
+        <v>2076.25</v>
       </c>
       <c r="R314" s="6" t="s">
         <v>23</v>
@@ -26350,7 +26359,7 @@
         <v>662</v>
       </c>
       <c r="Q318" s="6">
-        <v>1565.7</v>
+        <v>1418.61</v>
       </c>
       <c r="R318" s="6" t="s">
         <v>23</v>
@@ -26409,7 +26418,7 @@
         <v>664</v>
       </c>
       <c r="Q319" s="6">
-        <v>8062.9</v>
+        <v>6438.4</v>
       </c>
       <c r="R319" s="6" t="s">
         <v>23</v>
@@ -26468,7 +26477,7 @@
         <v>668</v>
       </c>
       <c r="Q320" s="6">
-        <v>3140.3</v>
+        <v>2420.0100000000002</v>
       </c>
       <c r="R320" s="6" t="s">
         <v>23</v>
@@ -26527,7 +26536,7 @@
         <v>668</v>
       </c>
       <c r="Q321" s="6">
-        <v>5358.1</v>
+        <v>4658.71</v>
       </c>
       <c r="R321" s="6" t="s">
         <v>23</v>
@@ -26586,7 +26595,7 @@
         <v>670</v>
       </c>
       <c r="Q322" s="6">
-        <v>1532.4</v>
+        <v>1380.63</v>
       </c>
       <c r="R322" s="6" t="s">
         <v>23</v>
@@ -26645,7 +26654,7 @@
         <v>672</v>
       </c>
       <c r="Q323" s="6">
-        <v>2524.5</v>
+        <v>2500.16</v>
       </c>
       <c r="R323" s="6" t="s">
         <v>23</v>
@@ -26704,7 +26713,7 @@
         <v>674</v>
       </c>
       <c r="Q324" s="6">
-        <v>1840.1</v>
+        <v>1787.23</v>
       </c>
       <c r="R324" s="6" t="s">
         <v>23</v>
@@ -26763,7 +26772,7 @@
         <v>676</v>
       </c>
       <c r="Q325" s="6">
-        <v>3281.4</v>
+        <v>3225.01</v>
       </c>
       <c r="R325" s="6" t="s">
         <v>23</v>
@@ -26999,7 +27008,7 @@
         <v>686</v>
       </c>
       <c r="Q329" s="6">
-        <v>1864</v>
+        <v>1807.75</v>
       </c>
       <c r="R329" s="6" t="s">
         <v>23</v>
@@ -27058,7 +27067,7 @@
         <v>689</v>
       </c>
       <c r="Q330" s="6">
-        <v>623.45000000000005</v>
+        <v>615.95000000000005</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>23</v>
@@ -27117,7 +27126,7 @@
         <v>692</v>
       </c>
       <c r="Q331" s="6">
-        <v>3254.2</v>
+        <v>3197.95</v>
       </c>
       <c r="R331" s="6" t="s">
         <v>23</v>
@@ -27176,7 +27185,7 @@
         <v>694</v>
       </c>
       <c r="Q332" s="6">
-        <v>1908.35</v>
+        <v>1858.14</v>
       </c>
       <c r="R332" s="6" t="s">
         <v>23</v>
@@ -27235,7 +27244,7 @@
         <v>697</v>
       </c>
       <c r="Q333" s="6">
-        <v>1328.55</v>
+        <v>1321.05</v>
       </c>
       <c r="R333" s="6" t="s">
         <v>23</v>
@@ -27353,7 +27362,7 @@
         <v>703</v>
       </c>
       <c r="Q335" s="6">
-        <v>1280</v>
+        <v>1276.75</v>
       </c>
       <c r="R335" s="6" t="s">
         <v>23</v>
@@ -27412,7 +27421,7 @@
         <v>706</v>
       </c>
       <c r="Q336" s="6">
-        <v>1640.5</v>
+        <v>1591.85</v>
       </c>
       <c r="R336" s="6" t="s">
         <v>23</v>
@@ -27825,7 +27834,7 @@
         <v>720</v>
       </c>
       <c r="Q343" s="6">
-        <v>342.82</v>
+        <v>223.92</v>
       </c>
       <c r="R343" s="6" t="s">
         <v>23</v>
@@ -27943,7 +27952,7 @@
         <v>724</v>
       </c>
       <c r="Q345" s="6">
-        <v>366.9</v>
+        <v>203.36</v>
       </c>
       <c r="R345" s="6" t="s">
         <v>23</v>
@@ -28061,7 +28070,7 @@
         <v>728</v>
       </c>
       <c r="Q347" s="6">
-        <v>160.6</v>
+        <v>151.35</v>
       </c>
       <c r="R347" s="6" t="s">
         <v>23</v>
@@ -28120,7 +28129,7 @@
         <v>731</v>
       </c>
       <c r="Q348" s="6">
-        <v>1043.9000000000001</v>
+        <v>1040.9000000000001</v>
       </c>
       <c r="R348" s="6" t="s">
         <v>23</v>
@@ -28179,7 +28188,7 @@
         <v>734</v>
       </c>
       <c r="Q349" s="6">
-        <v>1759.54</v>
+        <v>1739.1</v>
       </c>
       <c r="R349" s="6" t="s">
         <v>23</v>
@@ -28238,7 +28247,7 @@
         <v>736</v>
       </c>
       <c r="Q350" s="6">
-        <v>3415</v>
+        <v>2878.25</v>
       </c>
       <c r="R350" s="6" t="s">
         <v>23</v>
@@ -28282,7 +28291,7 @@
         <v>23</v>
       </c>
       <c r="L351" s="6">
-        <v>2.27</v>
+        <v>1.93</v>
       </c>
       <c r="M351" s="6">
         <v>0</v>
@@ -28297,7 +28306,7 @@
         <v>738</v>
       </c>
       <c r="Q351" s="6">
-        <v>14197.89</v>
+        <v>15141.79</v>
       </c>
       <c r="R351" s="6" t="s">
         <v>23</v>
@@ -28356,7 +28365,7 @@
         <v>741</v>
       </c>
       <c r="Q352" s="6">
-        <v>3500.55</v>
+        <v>3499.25</v>
       </c>
       <c r="R352" s="6" t="s">
         <v>23</v>
@@ -28474,7 +28483,7 @@
         <v>747</v>
       </c>
       <c r="Q354" s="6">
-        <v>3</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="R354" s="6" t="s">
         <v>23</v>
@@ -28533,7 +28542,7 @@
         <v>749</v>
       </c>
       <c r="Q355" s="6">
-        <v>1367.61</v>
+        <v>1353.55</v>
       </c>
       <c r="R355" s="6" t="s">
         <v>23</v>
@@ -28769,7 +28778,7 @@
         <v>757</v>
       </c>
       <c r="Q359" s="6">
-        <v>770.5</v>
+        <v>735.35</v>
       </c>
       <c r="R359" s="6" t="s">
         <v>23</v>
@@ -28828,7 +28837,7 @@
         <v>759</v>
       </c>
       <c r="Q360" s="6">
-        <v>1455.85</v>
+        <v>1441.79</v>
       </c>
       <c r="R360" s="6" t="s">
         <v>23</v>
@@ -29359,7 +29368,7 @@
         <v>787</v>
       </c>
       <c r="Q369" s="6">
-        <v>85.3</v>
+        <v>81.55</v>
       </c>
       <c r="R369" s="6" t="s">
         <v>23</v>
@@ -29418,7 +29427,7 @@
         <v>791</v>
       </c>
       <c r="Q370" s="6">
-        <v>129.85</v>
+        <v>128.35</v>
       </c>
       <c r="R370" s="6" t="s">
         <v>23</v>
@@ -54257,7 +54266,7 @@
         <v>1655</v>
       </c>
       <c r="Q791" s="6">
-        <v>10411.959999999999</v>
+        <v>10398.4</v>
       </c>
       <c r="R791" s="6" t="s">
         <v>23</v>
@@ -54847,7 +54856,7 @@
         <v>1675</v>
       </c>
       <c r="Q801" s="6">
-        <v>310</v>
+        <v>-124.4</v>
       </c>
       <c r="R801" s="6" t="s">
         <v>23</v>
@@ -55024,7 +55033,7 @@
         <v>1681</v>
       </c>
       <c r="Q804" s="6">
-        <v>83314.2</v>
+        <v>97670.67</v>
       </c>
       <c r="R804" s="6" t="s">
         <v>23</v>
@@ -55083,7 +55092,7 @@
         <v>1684</v>
       </c>
       <c r="Q805" s="6">
-        <v>25005</v>
+        <v>34005</v>
       </c>
       <c r="R805" s="6" t="s">
         <v>23</v>
@@ -55142,7 +55151,7 @@
         <v>1687</v>
       </c>
       <c r="Q806" s="6">
-        <v>54241.5</v>
+        <v>67721.7</v>
       </c>
       <c r="R806" s="6" t="s">
         <v>23</v>
@@ -55201,7 +55210,7 @@
         <v>1690</v>
       </c>
       <c r="Q807" s="6">
-        <v>9752.7000000000007</v>
+        <v>11837.4</v>
       </c>
       <c r="R807" s="6" t="s">
         <v>23</v>
@@ -55260,7 +55269,7 @@
         <v>1693</v>
       </c>
       <c r="Q808" s="6">
-        <v>40</v>
+        <v>5190.5</v>
       </c>
       <c r="R808" s="6" t="s">
         <v>23</v>
@@ -56204,7 +56213,7 @@
         <v>1735</v>
       </c>
       <c r="Q824" s="6">
-        <v>3549.69</v>
+        <v>4475.46</v>
       </c>
       <c r="R824" s="6" t="s">
         <v>23</v>
@@ -56676,7 +56685,7 @@
         <v>1758</v>
       </c>
       <c r="Q832" s="6">
-        <v>2285.54</v>
+        <v>6304.84</v>
       </c>
       <c r="R832" s="6" t="s">
         <v>23</v>
@@ -57797,7 +57806,7 @@
         <v>1822</v>
       </c>
       <c r="Q851" s="6">
-        <v>38549.5</v>
+        <v>29691</v>
       </c>
       <c r="R851" s="6" t="s">
         <v>23</v>
@@ -58667,7 +58676,7 @@
         <v>23</v>
       </c>
       <c r="L866" s="6">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="M866" s="6">
         <v>0</v>
@@ -58682,7 +58691,7 @@
         <v>1868</v>
       </c>
       <c r="Q866" s="6">
-        <v>600.69000000000005</v>
+        <v>340.63</v>
       </c>
       <c r="R866" s="6" t="s">
         <v>23</v>
@@ -59095,7 +59104,7 @@
         <v>1889</v>
       </c>
       <c r="Q873" s="6">
-        <v>107</v>
+        <v>89.86</v>
       </c>
       <c r="R873" s="6" t="s">
         <v>23</v>
@@ -59390,7 +59399,7 @@
         <v>1904</v>
       </c>
       <c r="Q878" s="6">
-        <v>602.5</v>
+        <v>560.70000000000005</v>
       </c>
       <c r="R878" s="6" t="s">
         <v>23</v>
@@ -60039,7 +60048,7 @@
         <v>1938</v>
       </c>
       <c r="Q889" s="6">
-        <v>252.7</v>
+        <v>76.3</v>
       </c>
       <c r="R889" s="6" t="s">
         <v>23</v>
@@ -62045,7 +62054,7 @@
         <v>2041</v>
       </c>
       <c r="Q923" s="6">
-        <v>17924</v>
+        <v>27236.06</v>
       </c>
       <c r="R923" s="6" t="s">
         <v>23</v>
@@ -62281,7 +62290,7 @@
         <v>2053</v>
       </c>
       <c r="Q927" s="6">
-        <v>2517</v>
+        <v>1056.5999999999999</v>
       </c>
       <c r="R927" s="6" t="s">
         <v>23</v>
@@ -62576,7 +62585,7 @@
         <v>2068</v>
       </c>
       <c r="Q932" s="6">
-        <v>683</v>
+        <v>635.44000000000005</v>
       </c>
       <c r="R932" s="6" t="s">
         <v>23</v>
@@ -62812,7 +62821,7 @@
         <v>2080</v>
       </c>
       <c r="Q936" s="6">
-        <v>111.98</v>
+        <v>98.04</v>
       </c>
       <c r="R936" s="6" t="s">
         <v>23</v>
@@ -63107,7 +63116,7 @@
         <v>2095</v>
       </c>
       <c r="Q941" s="6">
-        <v>986</v>
+        <v>902.52</v>
       </c>
       <c r="R941" s="6" t="s">
         <v>23</v>
@@ -63343,7 +63352,7 @@
         <v>2107</v>
       </c>
       <c r="Q945" s="6">
-        <v>5468.3</v>
+        <v>6468.3</v>
       </c>
       <c r="R945" s="6" t="s">
         <v>23</v>
@@ -63402,7 +63411,7 @@
         <v>2110</v>
       </c>
       <c r="Q946" s="6">
-        <v>10144.5</v>
+        <v>12144.5</v>
       </c>
       <c r="R946" s="6" t="s">
         <v>23</v>
@@ -63579,7 +63588,7 @@
         <v>2119</v>
       </c>
       <c r="Q949" s="6">
-        <v>974.7</v>
+        <v>795.92</v>
       </c>
       <c r="R949" s="6" t="s">
         <v>23</v>
@@ -63638,7 +63647,7 @@
         <v>2122</v>
       </c>
       <c r="Q950" s="6">
-        <v>368.2</v>
+        <v>318.05</v>
       </c>
       <c r="R950" s="6" t="s">
         <v>23</v>
@@ -63697,7 +63706,7 @@
         <v>2125</v>
       </c>
       <c r="Q951" s="6">
-        <v>0</v>
+        <v>196.2</v>
       </c>
       <c r="R951" s="6" t="s">
         <v>23</v>
@@ -63756,7 +63765,7 @@
         <v>2128</v>
       </c>
       <c r="Q952" s="6">
-        <v>149.05000000000001</v>
+        <v>451.35</v>
       </c>
       <c r="R952" s="6" t="s">
         <v>23</v>
@@ -63815,7 +63824,7 @@
         <v>2131</v>
       </c>
       <c r="Q953" s="6">
-        <v>247.8</v>
+        <v>147.5</v>
       </c>
       <c r="R953" s="6" t="s">
         <v>23</v>
@@ -63859,7 +63868,7 @@
         <v>23</v>
       </c>
       <c r="L954" s="6">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M954" s="6">
         <v>0</v>
@@ -63874,7 +63883,7 @@
         <v>2134</v>
       </c>
       <c r="Q954" s="6">
-        <v>127.2</v>
+        <v>380.8</v>
       </c>
       <c r="R954" s="6" t="s">
         <v>23</v>
@@ -63992,7 +64001,7 @@
         <v>2140</v>
       </c>
       <c r="Q956" s="6">
-        <v>357.9</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="R956" s="6" t="s">
         <v>23</v>
@@ -64036,7 +64045,7 @@
         <v>23</v>
       </c>
       <c r="L957" s="6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M957" s="6">
         <v>0</v>
@@ -64110,7 +64119,7 @@
         <v>2146</v>
       </c>
       <c r="Q958" s="6">
-        <v>1098.3</v>
+        <v>726.92</v>
       </c>
       <c r="R958" s="6" t="s">
         <v>23</v>
@@ -64228,7 +64237,7 @@
         <v>2151</v>
       </c>
       <c r="Q960" s="6">
-        <v>1723.4</v>
+        <v>1391.75</v>
       </c>
       <c r="R960" s="6" t="s">
         <v>23</v>
@@ -64287,7 +64296,7 @@
         <v>2154</v>
       </c>
       <c r="Q961" s="6">
-        <v>3957.92</v>
+        <v>3891.62</v>
       </c>
       <c r="R961" s="6" t="s">
         <v>23</v>
@@ -64346,7 +64355,7 @@
         <v>2157</v>
       </c>
       <c r="Q962" s="6">
-        <v>2283.6999999999998</v>
+        <v>2084.6999999999998</v>
       </c>
       <c r="R962" s="6" t="s">
         <v>23</v>
@@ -65349,7 +65358,7 @@
         <v>2228</v>
       </c>
       <c r="Q979" s="6">
-        <v>1043.8</v>
+        <v>1646</v>
       </c>
       <c r="R979" s="6" t="s">
         <v>23</v>
@@ -65467,7 +65476,7 @@
         <v>2233</v>
       </c>
       <c r="Q981" s="6">
-        <v>9699.9</v>
+        <v>8390.7999999999993</v>
       </c>
       <c r="R981" s="6" t="s">
         <v>23</v>
@@ -65526,7 +65535,7 @@
         <v>2236</v>
       </c>
       <c r="Q982" s="6">
-        <v>7512.7</v>
+        <v>7432.95</v>
       </c>
       <c r="R982" s="6" t="s">
         <v>23</v>
@@ -65585,7 +65594,7 @@
         <v>2239</v>
       </c>
       <c r="Q983" s="6">
-        <v>2782.8</v>
+        <v>2737.45</v>
       </c>
       <c r="R983" s="6" t="s">
         <v>23</v>
@@ -65644,7 +65653,7 @@
         <v>2242</v>
       </c>
       <c r="Q984" s="6">
-        <v>2374.6999999999998</v>
+        <v>4649.3999999999996</v>
       </c>
       <c r="R984" s="6" t="s">
         <v>23</v>
@@ -65939,7 +65948,7 @@
         <v>2257</v>
       </c>
       <c r="Q989" s="6">
-        <v>5633.5</v>
+        <v>9785.7999999999993</v>
       </c>
       <c r="R989" s="6" t="s">
         <v>23</v>
@@ -66293,7 +66302,7 @@
         <v>2278</v>
       </c>
       <c r="Q995" s="6">
-        <v>1539</v>
+        <v>1216.7</v>
       </c>
       <c r="R995" s="6" t="s">
         <v>23</v>
@@ -66352,7 +66361,7 @@
         <v>2281</v>
       </c>
       <c r="Q996" s="6">
-        <v>385.4</v>
+        <v>224.17</v>
       </c>
       <c r="R996" s="6" t="s">
         <v>23</v>
@@ -66411,7 +66420,7 @@
         <v>2284</v>
       </c>
       <c r="Q997" s="6">
-        <v>9841.2999999999993</v>
+        <v>9014.1</v>
       </c>
       <c r="R997" s="6" t="s">
         <v>23</v>
@@ -66470,7 +66479,7 @@
         <v>2287</v>
       </c>
       <c r="Q998" s="6">
-        <v>45564.98</v>
+        <v>39887.64</v>
       </c>
       <c r="R998" s="6" t="s">
         <v>23</v>
@@ -66588,7 +66597,7 @@
         <v>2293</v>
       </c>
       <c r="Q1000" s="6">
-        <v>8026</v>
+        <v>6893.82</v>
       </c>
       <c r="R1000" s="6" t="s">
         <v>23</v>
@@ -66765,7 +66774,7 @@
         <v>2302</v>
       </c>
       <c r="Q1003" s="6">
-        <v>3451</v>
+        <v>3431.52</v>
       </c>
       <c r="R1003" s="6" t="s">
         <v>23</v>
@@ -66824,7 +66833,7 @@
         <v>2305</v>
       </c>
       <c r="Q1004" s="6">
-        <v>487.5</v>
+        <v>450.5</v>
       </c>
       <c r="R1004" s="6" t="s">
         <v>23</v>
@@ -67281,7 +67290,7 @@
         <v>23</v>
       </c>
       <c r="L1012" s="6">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M1012" s="6">
         <v>0</v>
@@ -68133,16 +68142,16 @@
     </row>
     <row r="1027" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1027" s="5" t="s">
-        <v>2165</v>
+        <v>2386</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>2166</v>
+        <v>2387</v>
       </c>
       <c r="D1027" s="5" t="s">
-        <v>2167</v>
+        <v>2388</v>
       </c>
       <c r="E1027" s="6" t="s">
         <v>23</v>
@@ -68163,10 +68172,10 @@
         <v>21</v>
       </c>
       <c r="K1027" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1027" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M1027" s="6">
         <v>0</v>
@@ -68178,10 +68187,10 @@
         <v>21</v>
       </c>
       <c r="P1027" s="5" t="s">
-        <v>2166</v>
+        <v>2387</v>
       </c>
       <c r="Q1027" s="6">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="R1027" s="6" t="s">
         <v>23</v>
@@ -68192,16 +68201,16 @@
     </row>
     <row r="1028" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1028" s="5" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="E1028" s="6" t="s">
         <v>23</v>
@@ -68225,7 +68234,7 @@
         <v>23</v>
       </c>
       <c r="L1028" s="6">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="M1028" s="6">
         <v>0</v>
@@ -68237,10 +68246,10 @@
         <v>21</v>
       </c>
       <c r="P1028" s="5" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="Q1028" s="6">
-        <v>49.4</v>
+        <v>512</v>
       </c>
       <c r="R1028" s="6" t="s">
         <v>23</v>
@@ -68251,16 +68260,16 @@
     </row>
     <row r="1029" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1029" s="5" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="E1029" s="6" t="s">
         <v>23</v>
@@ -68284,7 +68293,7 @@
         <v>23</v>
       </c>
       <c r="L1029" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="M1029" s="6">
         <v>0</v>
@@ -68296,10 +68305,10 @@
         <v>21</v>
       </c>
       <c r="P1029" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="Q1029" s="6">
-        <v>1024.9000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="R1029" s="6" t="s">
         <v>23</v>
@@ -68310,16 +68319,16 @@
     </row>
     <row r="1030" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1030" s="5" t="s">
-        <v>2189</v>
+        <v>2171</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
       <c r="D1030" s="5" t="s">
-        <v>2191</v>
+        <v>2173</v>
       </c>
       <c r="E1030" s="6" t="s">
         <v>23</v>
@@ -68340,10 +68349,10 @@
         <v>21</v>
       </c>
       <c r="K1030" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L1030" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M1030" s="6">
         <v>0</v>
@@ -68355,10 +68364,10 @@
         <v>21</v>
       </c>
       <c r="P1030" s="5" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
       <c r="Q1030" s="6">
-        <v>0</v>
+        <v>1024.9000000000001</v>
       </c>
       <c r="R1030" s="6" t="s">
         <v>23</v>
@@ -68369,16 +68378,16 @@
     </row>
     <row r="1031" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1031" s="5" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="B1031" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="D1031" s="5" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="E1031" s="6" t="s">
         <v>23</v>
@@ -68414,7 +68423,7 @@
         <v>21</v>
       </c>
       <c r="P1031" s="5" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="Q1031" s="6">
         <v>0</v>
@@ -68428,16 +68437,16 @@
     </row>
     <row r="1032" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1032" s="5" t="s">
-        <v>2322</v>
+        <v>2192</v>
       </c>
       <c r="B1032" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>2323</v>
+        <v>2193</v>
       </c>
       <c r="D1032" s="5" t="s">
-        <v>2324</v>
+        <v>2194</v>
       </c>
       <c r="E1032" s="6" t="s">
         <v>23</v>
@@ -68458,10 +68467,10 @@
         <v>21</v>
       </c>
       <c r="K1032" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L1032" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M1032" s="6">
         <v>0</v>
@@ -68473,10 +68482,10 @@
         <v>21</v>
       </c>
       <c r="P1032" s="5" t="s">
-        <v>2323</v>
+        <v>2193</v>
       </c>
       <c r="Q1032" s="6">
-        <v>76.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="R1032" s="6" t="s">
         <v>23</v>
@@ -68487,16 +68496,16 @@
     </row>
     <row r="1033" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1033" s="5" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B1033" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="D1033" s="5" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="E1033" s="6" t="s">
         <v>23</v>
@@ -68520,7 +68529,7 @@
         <v>23</v>
       </c>
       <c r="L1033" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="M1033" s="6">
         <v>0</v>
@@ -68532,10 +68541,10 @@
         <v>21</v>
       </c>
       <c r="P1033" s="5" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="Q1033" s="6">
-        <v>153.30000000000001</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="R1033" s="6" t="s">
         <v>23</v>
@@ -68546,60 +68555,119 @@
     </row>
     <row r="1034" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1034" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1034" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1034" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1034" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1034" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1034" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1034" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1034" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="R1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1034" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1035" s="5" t="s">
         <v>2354</v>
       </c>
-      <c r="B1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1034" s="5" t="s">
+      <c r="B1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1035" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="D1034" s="5" t="s">
+      <c r="D1035" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="E1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1034" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1034" s="6">
+      <c r="E1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1035" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1035" s="6">
         <v>4.2</v>
       </c>
-      <c r="M1034" s="6">
-        <v>0</v>
-      </c>
-      <c r="N1034" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1034" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1034" s="5" t="s">
+      <c r="M1035" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1035" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1035" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1035" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="Q1034" s="6">
-        <v>0</v>
-      </c>
-      <c r="R1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1034" s="5" t="s">
+      <c r="Q1035" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1035" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16656" uniqueCount="2601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16671" uniqueCount="2604">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7810,9 +7810,6 @@
     <t>TC16009</t>
   </si>
   <si>
-    <t>V0550</t>
-  </si>
-  <si>
     <t>RIVIERA 41 (AMARELO OCRE)</t>
   </si>
   <si>
@@ -7825,7 +7822,19 @@
     <t>SIERRA 9022 (ANTRACITE)</t>
   </si>
   <si>
-    <t>Lista Produto : 18-09-2020 17:46:03</t>
+    <t>Lista Produto : 15-10-2020 09:40:10</t>
+  </si>
+  <si>
+    <t>TC15207</t>
+  </si>
+  <si>
+    <t>G4820</t>
+  </si>
+  <si>
+    <t>RITA 80 (OCEAN)</t>
+  </si>
+  <si>
+    <t>V0560</t>
   </si>
 </sst>
 </file>
@@ -7992,8 +8001,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1112" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1113" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1113"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8282,7 +8291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1112"/>
+  <dimension ref="A1:S1113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -8336,7 +8345,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9967,7 +9976,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>21795.8</v>
+        <v>33905.94</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10026,7 +10035,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>7946.85</v>
+        <v>6645.62</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10085,7 +10094,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="6">
-        <v>146</v>
+        <v>446</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>23</v>
@@ -10439,7 +10448,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>6478.5</v>
+        <v>8677.1299999999992</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10498,7 +10507,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>6444.93</v>
+        <v>5667.93</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -10793,7 +10802,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>4262.34</v>
+        <v>4093.74</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11147,7 +11156,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>27609</v>
+        <v>33705</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11265,7 +11274,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>28194</v>
+        <v>29434</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11324,7 +11333,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>48838.23</v>
+        <v>42921.23</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11383,7 +11392,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>4398.8999999999996</v>
+        <v>3343.76</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11442,7 +11451,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>3548.36</v>
+        <v>2632.88</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -11914,7 +11923,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>182</v>
+        <v>110.8</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -11973,7 +11982,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>2437.08</v>
+        <v>3186.96</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12032,7 +12041,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>183</v>
+        <v>48.12</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12091,7 +12100,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>240</v>
+        <v>78.88</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12150,7 +12159,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>283.8</v>
+        <v>122.68</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12209,7 +12218,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>2816.28</v>
+        <v>841</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12268,7 +12277,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>12014.5</v>
+        <v>10627.86</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12445,7 +12454,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>35084.5</v>
+        <v>28454.7</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12504,7 +12513,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>130</v>
+        <v>8154</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -12799,7 +12808,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>0</v>
+        <v>2209.6</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -12817,10 +12826,10 @@
         <v>21</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M78" s="6">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="N78" s="6">
         <v>0</v>
@@ -23124,7 +23133,7 @@
         <v>23</v>
       </c>
       <c r="F253" s="6">
-        <v>748.2</v>
+        <v>749</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>23</v>
@@ -23183,7 +23192,7 @@
         <v>23</v>
       </c>
       <c r="F254" s="6">
-        <v>736.2</v>
+        <v>723.18</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>23</v>
@@ -24009,7 +24018,7 @@
         <v>23</v>
       </c>
       <c r="F268" s="6">
-        <v>1667</v>
+        <v>2754</v>
       </c>
       <c r="G268" s="6" t="s">
         <v>23</v>
@@ -24304,7 +24313,7 @@
         <v>23</v>
       </c>
       <c r="F273" s="6">
-        <v>1546.2</v>
+        <v>585.9</v>
       </c>
       <c r="G273" s="6" t="s">
         <v>23</v>
@@ -24835,7 +24844,7 @@
         <v>23</v>
       </c>
       <c r="F282" s="6">
-        <v>3550.9</v>
+        <v>3519.46</v>
       </c>
       <c r="G282" s="6" t="s">
         <v>23</v>
@@ -25720,7 +25729,7 @@
         <v>23</v>
       </c>
       <c r="F297" s="6">
-        <v>9619.2000000000007</v>
+        <v>8192.42</v>
       </c>
       <c r="G297" s="6" t="s">
         <v>23</v>
@@ -25779,7 +25788,7 @@
         <v>23</v>
       </c>
       <c r="F298" s="6">
-        <v>177.5</v>
+        <v>116.74</v>
       </c>
       <c r="G298" s="6" t="s">
         <v>23</v>
@@ -26192,7 +26201,7 @@
         <v>23</v>
       </c>
       <c r="F305" s="6">
-        <v>3559.5</v>
+        <v>3549.17</v>
       </c>
       <c r="G305" s="6" t="s">
         <v>23</v>
@@ -26782,7 +26791,7 @@
         <v>23</v>
       </c>
       <c r="F315" s="6">
-        <v>4626.8999999999996</v>
+        <v>3153.16</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>23</v>
@@ -26841,7 +26850,7 @@
         <v>23</v>
       </c>
       <c r="F316" s="6">
-        <v>2944.8</v>
+        <v>2882.36</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>23</v>
@@ -28552,7 +28561,7 @@
         <v>23</v>
       </c>
       <c r="F345" s="6">
-        <v>171.16</v>
+        <v>60.28</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>23</v>
@@ -28847,7 +28856,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>0</v>
+        <v>914.58</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -28868,7 +28877,7 @@
         <v>23</v>
       </c>
       <c r="M350" s="6">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="N350" s="6">
         <v>0</v>
@@ -29437,7 +29446,7 @@
         <v>23</v>
       </c>
       <c r="F360" s="6">
-        <v>465.9</v>
+        <v>542.4</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>23</v>
@@ -29555,7 +29564,7 @@
         <v>23</v>
       </c>
       <c r="F362" s="6">
-        <v>2211.02</v>
+        <v>2391.64</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>23</v>
@@ -29614,7 +29623,7 @@
         <v>23</v>
       </c>
       <c r="F363" s="6">
-        <v>1236.4000000000001</v>
+        <v>989.6</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>23</v>
@@ -29673,7 +29682,7 @@
         <v>23</v>
       </c>
       <c r="F364" s="6">
-        <v>895.9</v>
+        <v>857.7</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>23</v>
@@ -29732,7 +29741,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>209.2</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -29791,7 +29800,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>1461.88</v>
+        <v>1441.6</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30145,7 +30154,7 @@
         <v>23</v>
       </c>
       <c r="F372" s="6">
-        <v>2753.77</v>
+        <v>2654.34</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>23</v>
@@ -30204,7 +30213,7 @@
         <v>23</v>
       </c>
       <c r="F373" s="6">
-        <v>152</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="G373" s="6" t="s">
         <v>23</v>
@@ -30322,7 +30331,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>733.39</v>
+        <v>426.03</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30343,7 +30352,7 @@
         <v>23</v>
       </c>
       <c r="M375" s="6">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N375" s="6">
         <v>0</v>
@@ -30381,7 +30390,7 @@
         <v>23</v>
       </c>
       <c r="F376" s="6">
-        <v>309.01</v>
+        <v>485.21</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>23</v>
@@ -30440,7 +30449,7 @@
         <v>23</v>
       </c>
       <c r="F377" s="6">
-        <v>746.73</v>
+        <v>127.39</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>23</v>
@@ -30461,7 +30470,7 @@
         <v>23</v>
       </c>
       <c r="M377" s="6">
-        <v>2.5299999999999998</v>
+        <v>2.75</v>
       </c>
       <c r="N377" s="6">
         <v>0</v>
@@ -30499,7 +30508,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="6">
-        <v>2347.25</v>
+        <v>1330.98</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>23</v>
@@ -30558,7 +30567,7 @@
         <v>23</v>
       </c>
       <c r="F379" s="6">
-        <v>1632.6</v>
+        <v>1602.7</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>23</v>
@@ -30617,7 +30626,7 @@
         <v>23</v>
       </c>
       <c r="F380" s="6">
-        <v>62.04</v>
+        <v>220</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>23</v>
@@ -30676,7 +30685,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>1437.5</v>
+        <v>1093.3399999999999</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -30794,7 +30803,7 @@
         <v>23</v>
       </c>
       <c r="F383" s="6">
-        <v>408.6</v>
+        <v>715.1</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>23</v>
@@ -30912,7 +30921,7 @@
         <v>23</v>
       </c>
       <c r="F385" s="6">
-        <v>991.8</v>
+        <v>287.04000000000002</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>23</v>
@@ -31030,7 +31039,7 @@
         <v>23</v>
       </c>
       <c r="F387" s="6">
-        <v>8098.52</v>
+        <v>10298.68</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>23</v>
@@ -31089,7 +31098,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>1156.8599999999999</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31148,7 +31157,7 @@
         <v>23</v>
       </c>
       <c r="F389" s="6">
-        <v>2068.73</v>
+        <v>2055.9499999999998</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>23</v>
@@ -31266,7 +31275,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>155.96</v>
+        <v>297.5</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31325,7 +31334,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>8550.2999999999993</v>
+        <v>8519.2999999999993</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31384,7 +31393,7 @@
         <v>23</v>
       </c>
       <c r="F393" s="6">
-        <v>1260.21</v>
+        <v>930.88</v>
       </c>
       <c r="G393" s="6" t="s">
         <v>23</v>
@@ -31443,7 +31452,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>6308.48</v>
+        <v>6001.96</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31502,7 +31511,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>2350.64</v>
+        <v>2017.39</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -31561,7 +31570,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>4554.04</v>
+        <v>3662.57</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31620,7 +31629,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>1133.3800000000001</v>
+        <v>457.66</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31679,7 +31688,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>2934.51</v>
+        <v>2705.65</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -31738,7 +31747,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>1787.23</v>
+        <v>1640.43</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -31797,7 +31806,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>3225.01</v>
+        <v>3071.05</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -31856,7 +31865,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1957.96</v>
+        <v>1280</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -31915,7 +31924,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>48.12</v>
+        <v>213.41</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -31974,7 +31983,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>1496.44</v>
+        <v>3321.46</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32033,7 +32042,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1788.95</v>
+        <v>1592.44</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32092,7 +32101,7 @@
         <v>23</v>
       </c>
       <c r="F405" s="6">
-        <v>615.95000000000005</v>
+        <v>610.39</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>23</v>
@@ -32151,7 +32160,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>4170.8500000000004</v>
+        <v>3370.99</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32210,7 +32219,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1858.14</v>
+        <v>2359.36</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32269,7 +32278,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>1533.15</v>
+        <v>2445.5300000000002</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32328,7 +32337,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>28.24</v>
+        <v>20.72</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32387,7 +32396,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1265.47</v>
+        <v>1176.95</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32446,7 +32455,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>1591.85</v>
+        <v>1363.58</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32623,7 +32632,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>732.8</v>
+        <v>1190.8</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -32800,7 +32809,7 @@
         <v>23</v>
       </c>
       <c r="F417" s="6">
-        <v>2656.96</v>
+        <v>2647.28</v>
       </c>
       <c r="G417" s="6" t="s">
         <v>23</v>
@@ -32859,7 +32868,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>223.92</v>
+        <v>777.52</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -32880,7 +32889,7 @@
         <v>23</v>
       </c>
       <c r="M418" s="6">
-        <v>2.83</v>
+        <v>3.35</v>
       </c>
       <c r="N418" s="6">
         <v>0</v>
@@ -32977,7 +32986,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="6">
-        <v>203.36</v>
+        <v>158.62</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>23</v>
@@ -33036,7 +33045,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>195.33</v>
+        <v>177.55</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33095,7 +33104,7 @@
         <v>23</v>
       </c>
       <c r="F422" s="6">
-        <v>151.35</v>
+        <v>152.6</v>
       </c>
       <c r="G422" s="6" t="s">
         <v>23</v>
@@ -33154,7 +33163,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>1040.9000000000001</v>
+        <v>890.29</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33213,7 +33222,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>5222</v>
+        <v>3257.44</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33272,7 +33281,7 @@
         <v>23</v>
       </c>
       <c r="F425" s="6">
-        <v>2878.25</v>
+        <v>1576.7</v>
       </c>
       <c r="G425" s="6" t="s">
         <v>23</v>
@@ -33331,7 +33340,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>25137.24</v>
+        <v>38851.300000000003</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33390,7 +33399,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>3499.25</v>
+        <v>3492.75</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33508,7 +33517,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>-9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33567,7 +33576,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>1353.55</v>
+        <v>1283.25</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -33803,7 +33812,7 @@
         <v>23</v>
       </c>
       <c r="F434" s="6">
-        <v>735.35</v>
+        <v>695</v>
       </c>
       <c r="G434" s="6" t="s">
         <v>23</v>
@@ -34216,7 +34225,7 @@
         <v>23</v>
       </c>
       <c r="F441" s="6">
-        <v>401</v>
+        <v>394.5</v>
       </c>
       <c r="G441" s="6" t="s">
         <v>23</v>
@@ -34334,7 +34343,7 @@
         <v>23</v>
       </c>
       <c r="F443" s="6">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G443" s="6" t="s">
         <v>23</v>
@@ -34393,7 +34402,7 @@
         <v>23</v>
       </c>
       <c r="F444" s="6">
-        <v>81.55</v>
+        <v>80.05</v>
       </c>
       <c r="G444" s="6" t="s">
         <v>23</v>
@@ -34629,7 +34638,7 @@
         <v>23</v>
       </c>
       <c r="F448" s="6">
-        <v>512.9</v>
+        <v>447.2</v>
       </c>
       <c r="G448" s="6" t="s">
         <v>23</v>
@@ -34688,7 +34697,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>964.6</v>
+        <v>77</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -56813,7 +56822,7 @@
         <v>23</v>
       </c>
       <c r="F824" s="6">
-        <v>250.2</v>
+        <v>249.5</v>
       </c>
       <c r="G824" s="6" t="s">
         <v>23</v>
@@ -59114,7 +59123,7 @@
         <v>23</v>
       </c>
       <c r="F863" s="6">
-        <v>1131</v>
+        <v>734</v>
       </c>
       <c r="G863" s="6" t="s">
         <v>23</v>
@@ -59291,7 +59300,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>27091.83</v>
+        <v>35220.879999999997</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59586,7 +59595,7 @@
         <v>23</v>
       </c>
       <c r="F871" s="6">
-        <v>1217.28</v>
+        <v>-600.58000000000004</v>
       </c>
       <c r="G871" s="6" t="s">
         <v>23</v>
@@ -59881,7 +59890,7 @@
         <v>23</v>
       </c>
       <c r="F876" s="6">
-        <v>-124.4</v>
+        <v>0</v>
       </c>
       <c r="G876" s="6" t="s">
         <v>23</v>
@@ -60058,7 +60067,7 @@
         <v>23</v>
       </c>
       <c r="F879" s="6">
-        <v>130012.2</v>
+        <v>114337.7</v>
       </c>
       <c r="G879" s="6" t="s">
         <v>23</v>
@@ -60117,7 +60126,7 @@
         <v>23</v>
       </c>
       <c r="F880" s="6">
-        <v>40916.589999999997</v>
+        <v>38893.589999999997</v>
       </c>
       <c r="G880" s="6" t="s">
         <v>23</v>
@@ -60176,7 +60185,7 @@
         <v>23</v>
       </c>
       <c r="F881" s="6">
-        <v>139781.69</v>
+        <v>120731.73</v>
       </c>
       <c r="G881" s="6" t="s">
         <v>23</v>
@@ -60235,7 +60244,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>12837.4</v>
+        <v>13180.52</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -61238,7 +61247,7 @@
         <v>23</v>
       </c>
       <c r="F899" s="6">
-        <v>4475.46</v>
+        <v>3651.42</v>
       </c>
       <c r="G899" s="6" t="s">
         <v>23</v>
@@ -61415,7 +61424,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>555.5</v>
+        <v>381.3</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61828,7 +61837,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>4390.6000000000004</v>
+        <v>4330.6000000000004</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62123,7 +62132,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>123.8</v>
+        <v>121.02</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62241,7 +62250,7 @@
         <v>23</v>
       </c>
       <c r="F916" s="6">
-        <v>4324.5200000000004</v>
+        <v>4317.7</v>
       </c>
       <c r="G916" s="6" t="s">
         <v>23</v>
@@ -62418,7 +62427,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>1958.3</v>
+        <v>1952.3</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62831,7 +62840,7 @@
         <v>23</v>
       </c>
       <c r="F926" s="6">
-        <v>26896.09</v>
+        <v>24244.84</v>
       </c>
       <c r="G926" s="6" t="s">
         <v>23</v>
@@ -63421,7 +63430,7 @@
         <v>23</v>
       </c>
       <c r="F936" s="6">
-        <v>253.82</v>
+        <v>239.94</v>
       </c>
       <c r="G936" s="6" t="s">
         <v>23</v>
@@ -63657,7 +63666,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>876.7</v>
+        <v>725.76</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -63716,7 +63725,7 @@
         <v>23</v>
       </c>
       <c r="F941" s="6">
-        <v>340.63</v>
+        <v>216.04</v>
       </c>
       <c r="G941" s="6" t="s">
         <v>23</v>
@@ -63775,7 +63784,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>1479.5</v>
+        <v>1428.71</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -63952,7 +63961,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>22.2</v>
+        <v>310.51</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64129,7 +64138,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>89.86</v>
+        <v>642.85</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64188,7 +64197,7 @@
         <v>23</v>
       </c>
       <c r="F949" s="6">
-        <v>221.4</v>
+        <v>94.56</v>
       </c>
       <c r="G949" s="6" t="s">
         <v>23</v>
@@ -64247,7 +64256,7 @@
         <v>23</v>
       </c>
       <c r="F950" s="6">
-        <v>342.5</v>
+        <v>261.99</v>
       </c>
       <c r="G950" s="6" t="s">
         <v>23</v>
@@ -64306,7 +64315,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>53</v>
+        <v>29.57</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64483,7 +64492,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>291.88</v>
+        <v>281.27999999999997</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -64601,7 +64610,7 @@
         <v>23</v>
       </c>
       <c r="F956" s="6">
-        <v>1483.8</v>
+        <v>1181.1400000000001</v>
       </c>
       <c r="G956" s="6" t="s">
         <v>23</v>
@@ -64660,7 +64669,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>215.1</v>
+        <v>204.31</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -64778,7 +64787,7 @@
         <v>23</v>
       </c>
       <c r="F959" s="6">
-        <v>9895.2999999999993</v>
+        <v>8863.7000000000007</v>
       </c>
       <c r="G959" s="6" t="s">
         <v>23</v>
@@ -64837,7 +64846,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>2807.05</v>
+        <v>2641.56</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -64955,7 +64964,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>20</v>
+        <v>101.89</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -64976,7 +64985,7 @@
         <v>23</v>
       </c>
       <c r="M962" s="6">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="N962" s="6">
         <v>0</v>
@@ -65014,7 +65023,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65073,7 +65082,7 @@
         <v>23</v>
       </c>
       <c r="F964" s="6">
-        <v>76.3</v>
+        <v>161.5</v>
       </c>
       <c r="G964" s="6" t="s">
         <v>23</v>
@@ -67020,7 +67029,7 @@
         <v>23</v>
       </c>
       <c r="F997" s="6">
-        <v>2258.8200000000002</v>
+        <v>4091.82</v>
       </c>
       <c r="G997" s="6" t="s">
         <v>23</v>
@@ -67079,7 +67088,7 @@
         <v>23</v>
       </c>
       <c r="F998" s="6">
-        <v>28407.7</v>
+        <v>23766.26</v>
       </c>
       <c r="G998" s="6" t="s">
         <v>23</v>
@@ -67197,7 +67206,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>3842.2</v>
+        <v>3819.11</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -67256,7 +67265,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>1386.5</v>
+        <v>6647.5</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67315,7 +67324,7 @@
         <v>23</v>
       </c>
       <c r="F1002" s="6">
-        <v>1056.5999999999999</v>
+        <v>1117</v>
       </c>
       <c r="G1002" s="6" t="s">
         <v>23</v>
@@ -67433,7 +67442,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>136.4</v>
+        <v>146.4</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67492,7 +67501,7 @@
         <v>23</v>
       </c>
       <c r="F1005" s="6">
-        <v>239.5</v>
+        <v>1066.3800000000001</v>
       </c>
       <c r="G1005" s="6" t="s">
         <v>23</v>
@@ -67551,7 +67560,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>688.88</v>
+        <v>154.54</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67610,7 +67619,7 @@
         <v>23</v>
       </c>
       <c r="F1007" s="6">
-        <v>635.44000000000005</v>
+        <v>87.79</v>
       </c>
       <c r="G1007" s="6" t="s">
         <v>23</v>
@@ -67846,7 +67855,7 @@
         <v>23</v>
       </c>
       <c r="F1011" s="6">
-        <v>98.04</v>
+        <v>141.56</v>
       </c>
       <c r="G1011" s="6" t="s">
         <v>23</v>
@@ -67905,7 +67914,7 @@
         <v>23</v>
       </c>
       <c r="F1012" s="6">
-        <v>3</v>
+        <v>-23.78</v>
       </c>
       <c r="G1012" s="6" t="s">
         <v>23</v>
@@ -68082,7 +68091,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>190.7</v>
+        <v>752.24</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68141,7 +68150,7 @@
         <v>23</v>
       </c>
       <c r="F1016" s="6">
-        <v>902.52</v>
+        <v>609.80999999999995</v>
       </c>
       <c r="G1016" s="6" t="s">
         <v>23</v>
@@ -68200,7 +68209,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>0</v>
+        <v>595.25</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68259,7 +68268,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>124.95</v>
+        <v>337.81</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68318,7 +68327,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>2630</v>
+        <v>2477.61</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68436,7 +68445,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>15144.5</v>
+        <v>13215.5</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68613,7 +68622,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>572.84</v>
+        <v>781.75</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -68731,7 +68740,7 @@
         <v>23</v>
       </c>
       <c r="F1026" s="6">
-        <v>721.9</v>
+        <v>750</v>
       </c>
       <c r="G1026" s="6" t="s">
         <v>23</v>
@@ -68790,7 +68799,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>451.35</v>
+        <v>637.1</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -68967,7 +68976,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>250.45</v>
+        <v>200.3</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69085,7 +69094,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>1129.6500000000001</v>
+        <v>3577.65</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69144,7 +69153,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>726.92</v>
+        <v>355.54</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69203,7 +69212,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>4514.8999999999996</v>
+        <v>4295.6550800000005</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69262,7 +69271,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>1391.75</v>
+        <v>647.33000000000004</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69321,7 +69330,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>3825.27</v>
+        <v>3360.97</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69380,7 +69389,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>2084.6999999999998</v>
+        <v>957.15</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69557,7 +69566,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -69575,10 +69584,10 @@
         <v>21</v>
       </c>
       <c r="L1040" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1040" s="6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N1040" s="6">
         <v>0</v>
@@ -69616,7 +69625,7 @@
         <v>23</v>
       </c>
       <c r="F1041" s="6">
-        <v>164.34</v>
+        <v>47.9</v>
       </c>
       <c r="G1041" s="6" t="s">
         <v>23</v>
@@ -69637,7 +69646,7 @@
         <v>23</v>
       </c>
       <c r="M1041" s="6">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N1041" s="6">
         <v>0</v>
@@ -69873,7 +69882,7 @@
         <v>23</v>
       </c>
       <c r="M1045" s="6">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="N1045" s="6">
         <v>0</v>
@@ -70147,7 +70156,7 @@
         <v>23</v>
       </c>
       <c r="F1050" s="6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G1050" s="6" t="s">
         <v>23</v>
@@ -70165,10 +70174,10 @@
         <v>21</v>
       </c>
       <c r="L1050" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1050" s="6">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="N1050" s="6">
         <v>0</v>
@@ -70383,7 +70392,7 @@
         <v>23</v>
       </c>
       <c r="F1054" s="6">
-        <v>1646</v>
+        <v>1474.2</v>
       </c>
       <c r="G1054" s="6" t="s">
         <v>23</v>
@@ -70501,7 +70510,7 @@
         <v>23</v>
       </c>
       <c r="F1056" s="6">
-        <v>10238.74</v>
+        <v>8742.6</v>
       </c>
       <c r="G1056" s="6" t="s">
         <v>23</v>
@@ -70560,7 +70569,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>9353.9500000000007</v>
+        <v>9282.0499999999993</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70678,7 +70687,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>4649.3999999999996</v>
+        <v>4362</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -70796,7 +70805,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>315.2</v>
+        <v>303.67</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71268,7 +71277,7 @@
         <v>23</v>
       </c>
       <c r="F1069" s="6">
-        <v>7268.7</v>
+        <v>7259.4277499999998</v>
       </c>
       <c r="G1069" s="6" t="s">
         <v>23</v>
@@ -71327,7 +71336,7 @@
         <v>23</v>
       </c>
       <c r="F1070" s="6">
-        <v>2009.3</v>
+        <v>1843.2</v>
       </c>
       <c r="G1070" s="6" t="s">
         <v>23</v>
@@ -71445,7 +71454,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>7439.34</v>
+        <v>4485.75</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71504,7 +71513,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>63416.08</v>
+        <v>43163.54</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71563,7 +71572,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>1170.4000000000001</v>
+        <v>1032.97</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71622,7 +71631,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>6171.06</v>
+        <v>2710.62</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71740,7 +71749,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>197</v>
+        <v>700.5</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -71799,7 +71808,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>3431.52</v>
+        <v>2177.3200000000002</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -71858,7 +71867,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>450.5</v>
+        <v>1057.1099999999999</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -71917,7 +71926,7 @@
         <v>23</v>
       </c>
       <c r="F1080" s="6">
-        <v>0</v>
+        <v>847.58</v>
       </c>
       <c r="G1080" s="6" t="s">
         <v>23</v>
@@ -71935,10 +71944,10 @@
         <v>21</v>
       </c>
       <c r="L1080" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1080" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N1080" s="6">
         <v>0</v>
@@ -72153,7 +72162,7 @@
         <v>23</v>
       </c>
       <c r="F1084" s="6">
-        <v>24</v>
+        <v>15.7</v>
       </c>
       <c r="G1084" s="6" t="s">
         <v>23</v>
@@ -72212,7 +72221,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>0</v>
+        <v>2225.38</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72230,10 +72239,10 @@
         <v>21</v>
       </c>
       <c r="L1085" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1085" s="6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="N1085" s="6">
         <v>0</v>
@@ -72271,7 +72280,7 @@
         <v>23</v>
       </c>
       <c r="F1086" s="6">
-        <v>179.05</v>
+        <v>168.34</v>
       </c>
       <c r="G1086" s="6" t="s">
         <v>23</v>
@@ -72389,7 +72398,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>792.4</v>
+        <v>156.4</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72802,7 +72811,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>65.739999999999995</v>
+        <v>9.98</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -72920,7 +72929,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>0</v>
+        <v>288.06</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73038,7 +73047,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>0</v>
+        <v>186.3</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73056,10 +73065,10 @@
         <v>21</v>
       </c>
       <c r="L1099" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1099" s="6">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="N1099" s="6">
         <v>0</v>
@@ -73097,7 +73106,7 @@
         <v>23</v>
       </c>
       <c r="F1100" s="6">
-        <v>0</v>
+        <v>445.6</v>
       </c>
       <c r="G1100" s="6" t="s">
         <v>23</v>
@@ -73115,10 +73124,10 @@
         <v>21</v>
       </c>
       <c r="L1100" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1100" s="6">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="N1100" s="6">
         <v>0</v>
@@ -73259,22 +73268,22 @@
     </row>
     <row r="1103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
-        <v>2570</v>
+        <v>2600</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>2571</v>
+        <v>2601</v>
       </c>
       <c r="D1103" s="5" t="s">
-        <v>2572</v>
+        <v>2602</v>
       </c>
       <c r="E1103" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1103" s="6">
-        <v>512</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="G1103" s="6" t="s">
         <v>23</v>
@@ -73295,7 +73304,7 @@
         <v>23</v>
       </c>
       <c r="M1103" s="6">
-        <v>1.98</v>
+        <v>2.89</v>
       </c>
       <c r="N1103" s="6">
         <v>0</v>
@@ -73307,7 +73316,7 @@
         <v>21</v>
       </c>
       <c r="Q1103" s="5" t="s">
-        <v>2571</v>
+        <v>2601</v>
       </c>
       <c r="R1103" s="6" t="s">
         <v>23</v>
@@ -73318,22 +73327,22 @@
     </row>
     <row r="1104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1104" s="5" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="D1104" s="5" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E1104" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>49.4</v>
+        <v>512</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73354,7 +73363,7 @@
         <v>23</v>
       </c>
       <c r="M1104" s="6">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="N1104" s="6">
         <v>0</v>
@@ -73366,7 +73375,7 @@
         <v>21</v>
       </c>
       <c r="Q1104" s="5" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="R1104" s="6" t="s">
         <v>23</v>
@@ -73377,22 +73386,22 @@
     </row>
     <row r="1105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1105" s="5" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E1105" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>1024.9000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -73413,7 +73422,7 @@
         <v>23</v>
       </c>
       <c r="M1105" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="N1105" s="6">
         <v>0</v>
@@ -73425,7 +73434,7 @@
         <v>21</v>
       </c>
       <c r="Q1105" s="5" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="R1105" s="6" t="s">
         <v>23</v>
@@ -73436,22 +73445,22 @@
     </row>
     <row r="1106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1106" s="5" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="D1106" s="5" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E1106" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1106" s="6">
-        <v>0</v>
+        <v>981.58</v>
       </c>
       <c r="G1106" s="6" t="s">
         <v>23</v>
@@ -73469,10 +73478,10 @@
         <v>21</v>
       </c>
       <c r="L1106" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1106" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N1106" s="6">
         <v>0</v>
@@ -73484,7 +73493,7 @@
         <v>21</v>
       </c>
       <c r="Q1106" s="5" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="R1106" s="6" t="s">
         <v>23</v>
@@ -73495,16 +73504,16 @@
     </row>
     <row r="1107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1107" s="5" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="D1107" s="5" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="E1107" s="6" t="s">
         <v>23</v>
@@ -73543,7 +73552,7 @@
         <v>21</v>
       </c>
       <c r="Q1107" s="5" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="R1107" s="6" t="s">
         <v>23</v>
@@ -73554,22 +73563,22 @@
     </row>
     <row r="1108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1108" s="5" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="D1108" s="5" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="E1108" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1108" s="6">
-        <v>76.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="G1108" s="6" t="s">
         <v>23</v>
@@ -73587,10 +73596,10 @@
         <v>21</v>
       </c>
       <c r="L1108" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1108" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1108" s="6">
         <v>0</v>
@@ -73602,7 +73611,7 @@
         <v>21</v>
       </c>
       <c r="Q1108" s="5" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="R1108" s="6" t="s">
         <v>23</v>
@@ -73613,22 +73622,22 @@
     </row>
     <row r="1109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="D1109" s="5" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="E1109" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1109" s="6">
-        <v>153.30000000000001</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="G1109" s="6" t="s">
         <v>23</v>
@@ -73649,7 +73658,7 @@
         <v>23</v>
       </c>
       <c r="M1109" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="N1109" s="6">
         <v>0</v>
@@ -73661,7 +73670,7 @@
         <v>21</v>
       </c>
       <c r="Q1109" s="5" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="R1109" s="6" t="s">
         <v>23</v>
@@ -73672,22 +73681,22 @@
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="D1110" s="5" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="E1110" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1110" s="6">
-        <v>0</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="G1110" s="6" t="s">
         <v>23</v>
@@ -73708,7 +73717,7 @@
         <v>23</v>
       </c>
       <c r="M1110" s="6">
-        <v>4.2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N1110" s="6">
         <v>0</v>
@@ -73720,7 +73729,7 @@
         <v>21</v>
       </c>
       <c r="Q1110" s="5" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="R1110" s="6" t="s">
         <v>23</v>
@@ -73731,16 +73740,16 @@
     </row>
     <row r="1111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="D1111" s="5" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="E1111" s="6" t="s">
         <v>23</v>
@@ -73764,10 +73773,10 @@
         <v>21</v>
       </c>
       <c r="L1111" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1111" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N1111" s="6">
         <v>0</v>
@@ -73779,7 +73788,7 @@
         <v>21</v>
       </c>
       <c r="Q1111" s="5" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="R1111" s="6" t="s">
         <v>23</v>
@@ -73790,16 +73799,16 @@
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>2598</v>
+        <v>2603</v>
       </c>
       <c r="D1112" s="5" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>23</v>
@@ -73838,35 +73847,95 @@
         <v>21</v>
       </c>
       <c r="Q1112" s="5" t="s">
+        <v>2603</v>
+      </c>
+      <c r="R1112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1112" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1113" s="5" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1113" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D1113" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="R1112" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1112" s="5" t="s">
+      <c r="E1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1113" s="6">
+        <v>245</v>
+      </c>
+      <c r="G1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1113" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1113" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1113" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="R1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1113" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="ClientSettings" r:id="rId1"/>
-    <customPr name="CompanyName" r:id="rId2"/>
-    <customPr name="ConnectionString" r:id="rId3"/>
-    <customPr name="Culture" r:id="rId4"/>
-    <customPr name="CurrentColumns" r:id="rId5"/>
-    <customPr name="CurrentFilters" r:id="rId6"/>
-    <customPr name="CurrentSortingAscendingDirection" r:id="rId7"/>
-    <customPr name="CurrentSortingFields" r:id="rId8"/>
-    <customPr name="LanguageId" r:id="rId9"/>
-    <customPr name="LastUpdated" r:id="rId10"/>
-    <customPr name="ObjectID" r:id="rId11"/>
-    <customPr name="ObjectName" r:id="rId12"/>
-    <customPr name="ObjectType" r:id="rId13"/>
-    <customPr name="RefreshAtStartup" r:id="rId14"/>
+    <customPr name="ClientSettings" r:id="rId2"/>
+    <customPr name="CompanyName" r:id="rId3"/>
+    <customPr name="ConnectionString" r:id="rId4"/>
+    <customPr name="Culture" r:id="rId5"/>
+    <customPr name="CurrentColumns" r:id="rId6"/>
+    <customPr name="CurrentFilters" r:id="rId7"/>
+    <customPr name="CurrentSortingAscendingDirection" r:id="rId8"/>
+    <customPr name="CurrentSortingFields" r:id="rId9"/>
+    <customPr name="LanguageId" r:id="rId10"/>
+    <customPr name="LastUpdated" r:id="rId11"/>
+    <customPr name="ObjectID" r:id="rId12"/>
+    <customPr name="ObjectName" r:id="rId13"/>
+    <customPr name="ObjectType" r:id="rId14"/>
+    <customPr name="RefreshAtStartup" r:id="rId15"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16671" uniqueCount="2604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16701" uniqueCount="2610">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7822,9 +7822,6 @@
     <t>SIERRA 9022 (ANTRACITE)</t>
   </si>
   <si>
-    <t>Lista Produto : 15-10-2020 09:40:10</t>
-  </si>
-  <si>
     <t>TC15207</t>
   </si>
   <si>
@@ -7835,6 +7832,27 @@
   </si>
   <si>
     <t>V0560</t>
+  </si>
+  <si>
+    <t>Lista Produto : 26-10-2020 09:50:35</t>
+  </si>
+  <si>
+    <t>TC15208</t>
+  </si>
+  <si>
+    <t>G4901</t>
+  </si>
+  <si>
+    <t>RICO 13 (BLACK)</t>
+  </si>
+  <si>
+    <t>TC15209</t>
+  </si>
+  <si>
+    <t>G2120</t>
+  </si>
+  <si>
+    <t>SAWANA 80 (BLUE)</t>
   </si>
 </sst>
 </file>
@@ -8001,8 +8019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1113" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1115" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1115"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8291,7 +8309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1113"/>
+  <dimension ref="A1:S1115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -8345,7 +8363,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9976,7 +9994,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>33905.94</v>
+        <v>32770.410000000003</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10035,7 +10053,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>6645.62</v>
+        <v>6036.37</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10448,7 +10466,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>8677.1299999999992</v>
+        <v>8433.5300000000007</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10507,7 +10525,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>5667.93</v>
+        <v>5046.33</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -10802,7 +10820,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>4093.74</v>
+        <v>3871.76</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11156,7 +11174,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>33705</v>
+        <v>32691.4</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11274,7 +11292,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>29434</v>
+        <v>29266</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11333,7 +11351,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>42921.23</v>
+        <v>40643.43</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11392,7 +11410,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>3343.76</v>
+        <v>3138.06</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11451,7 +11469,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>2632.88</v>
+        <v>2190.5300000000002</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -11923,7 +11941,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>110.8</v>
+        <v>45.73</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -11982,7 +12000,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>3186.96</v>
+        <v>2221.88</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12041,7 +12059,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>48.12</v>
+        <v>11.97</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12100,7 +12118,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>78.88</v>
+        <v>-53.22</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12159,7 +12177,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>122.68</v>
+        <v>-45.57</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12277,7 +12295,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>10627.86</v>
+        <v>10218.040000000001</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12454,7 +12472,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>28454.7</v>
+        <v>33483.160000000003</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12513,7 +12531,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>8154</v>
+        <v>6833.34</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -12808,7 +12826,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>2209.6</v>
+        <v>552</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -22484,7 +22502,7 @@
         <v>23</v>
       </c>
       <c r="F242" s="6">
-        <v>58</v>
+        <v>56.4</v>
       </c>
       <c r="G242" s="6" t="s">
         <v>23</v>
@@ -23133,7 +23151,7 @@
         <v>23</v>
       </c>
       <c r="F253" s="6">
-        <v>749</v>
+        <v>1762.5</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>23</v>
@@ -23192,7 +23210,7 @@
         <v>23</v>
       </c>
       <c r="F254" s="6">
-        <v>723.18</v>
+        <v>1833.68</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>23</v>
@@ -23664,7 +23682,7 @@
         <v>23</v>
       </c>
       <c r="F262" s="6">
-        <v>9020.9</v>
+        <v>8293.4</v>
       </c>
       <c r="G262" s="6" t="s">
         <v>23</v>
@@ -24018,7 +24036,7 @@
         <v>23</v>
       </c>
       <c r="F268" s="6">
-        <v>2754</v>
+        <v>2586</v>
       </c>
       <c r="G268" s="6" t="s">
         <v>23</v>
@@ -24785,7 +24803,7 @@
         <v>23</v>
       </c>
       <c r="F281" s="6">
-        <v>1457.5</v>
+        <v>1241.3499999999999</v>
       </c>
       <c r="G281" s="6" t="s">
         <v>23</v>
@@ -25729,7 +25747,7 @@
         <v>23</v>
       </c>
       <c r="F297" s="6">
-        <v>8192.42</v>
+        <v>8131.1</v>
       </c>
       <c r="G297" s="6" t="s">
         <v>23</v>
@@ -25788,7 +25806,7 @@
         <v>23</v>
       </c>
       <c r="F298" s="6">
-        <v>116.74</v>
+        <v>82.97</v>
       </c>
       <c r="G298" s="6" t="s">
         <v>23</v>
@@ -26791,7 +26809,7 @@
         <v>23</v>
       </c>
       <c r="F315" s="6">
-        <v>3153.16</v>
+        <v>1538.57</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>23</v>
@@ -26850,7 +26868,7 @@
         <v>23</v>
       </c>
       <c r="F316" s="6">
-        <v>2882.36</v>
+        <v>2864.27</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>23</v>
@@ -27263,7 +27281,7 @@
         <v>23</v>
       </c>
       <c r="F323" s="6">
-        <v>325.5</v>
+        <v>190.1</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>23</v>
@@ -28679,7 +28697,7 @@
         <v>23</v>
       </c>
       <c r="F347" s="6">
-        <v>2132.9</v>
+        <v>2123.75</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>23</v>
@@ -28856,7 +28874,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>914.58</v>
+        <v>240.98</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -29210,7 +29228,7 @@
         <v>23</v>
       </c>
       <c r="F356" s="6">
-        <v>332.9</v>
+        <v>317.13</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>23</v>
@@ -29328,7 +29346,7 @@
         <v>23</v>
       </c>
       <c r="F358" s="6">
-        <v>434.9</v>
+        <v>433.64</v>
       </c>
       <c r="G358" s="6" t="s">
         <v>23</v>
@@ -29446,7 +29464,7 @@
         <v>23</v>
       </c>
       <c r="F360" s="6">
-        <v>542.4</v>
+        <v>443.95</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>23</v>
@@ -29564,7 +29582,7 @@
         <v>23</v>
       </c>
       <c r="F362" s="6">
-        <v>2391.64</v>
+        <v>1996.9</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>23</v>
@@ -29623,7 +29641,7 @@
         <v>23</v>
       </c>
       <c r="F363" s="6">
-        <v>989.6</v>
+        <v>1604.6</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>23</v>
@@ -29800,7 +29818,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>1441.6</v>
+        <v>1380.76</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30095,7 +30113,7 @@
         <v>23</v>
       </c>
       <c r="F371" s="6">
-        <v>1181.06</v>
+        <v>1178.28</v>
       </c>
       <c r="G371" s="6" t="s">
         <v>23</v>
@@ -30154,7 +30172,7 @@
         <v>23</v>
       </c>
       <c r="F372" s="6">
-        <v>2654.34</v>
+        <v>2603.17</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>23</v>
@@ -30508,7 +30526,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="6">
-        <v>1330.98</v>
+        <v>1317.38</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>23</v>
@@ -30567,7 +30585,7 @@
         <v>23</v>
       </c>
       <c r="F379" s="6">
-        <v>1602.7</v>
+        <v>1576.48</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>23</v>
@@ -30626,7 +30644,7 @@
         <v>23</v>
       </c>
       <c r="F380" s="6">
-        <v>220</v>
+        <v>213.43</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>23</v>
@@ -30685,7 +30703,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>1093.3399999999999</v>
+        <v>1071.3</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -30921,7 +30939,7 @@
         <v>23</v>
       </c>
       <c r="F385" s="6">
-        <v>287.04000000000002</v>
+        <v>76.84</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>23</v>
@@ -31039,7 +31057,7 @@
         <v>23</v>
       </c>
       <c r="F387" s="6">
-        <v>10298.68</v>
+        <v>8501.43</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>23</v>
@@ -31157,7 +31175,7 @@
         <v>23</v>
       </c>
       <c r="F389" s="6">
-        <v>2055.9499999999998</v>
+        <v>2048.4299999999998</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>23</v>
@@ -31334,7 +31352,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>8519.2999999999993</v>
+        <v>8409.93</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31452,7 +31470,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>6001.96</v>
+        <v>5982.04</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31570,7 +31588,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>3662.57</v>
+        <v>3636.01</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31629,7 +31647,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>457.66</v>
+        <v>824.68</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31688,7 +31706,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>2705.65</v>
+        <v>2482.75</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -31747,7 +31765,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>1640.43</v>
+        <v>1564.95</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -31806,7 +31824,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>3071.05</v>
+        <v>3062.8</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -31865,7 +31883,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1280</v>
+        <v>988.33</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -31924,7 +31942,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>213.41</v>
+        <v>49.23</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32042,7 +32060,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1592.44</v>
+        <v>1524.94</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32101,7 +32119,7 @@
         <v>23</v>
       </c>
       <c r="F405" s="6">
-        <v>610.39</v>
+        <v>517.39</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>23</v>
@@ -32160,7 +32178,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>3370.99</v>
+        <v>3297.07</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32219,7 +32237,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>2359.36</v>
+        <v>1487.64</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32278,7 +32296,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>2445.5300000000002</v>
+        <v>2337.4899999999998</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32337,7 +32355,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>20.72</v>
+        <v>915.86</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32396,7 +32414,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1176.95</v>
+        <v>1173.19</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32455,7 +32473,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>1363.58</v>
+        <v>1356.06</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32868,7 +32886,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>777.52</v>
+        <v>254.15</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33045,7 +33063,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>177.55</v>
+        <v>176.29</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33222,7 +33240,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>3257.44</v>
+        <v>2141.13</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33281,7 +33299,7 @@
         <v>23</v>
       </c>
       <c r="F425" s="6">
-        <v>1576.7</v>
+        <v>936.8</v>
       </c>
       <c r="G425" s="6" t="s">
         <v>23</v>
@@ -33340,7 +33358,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>38851.300000000003</v>
+        <v>36825.24</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33399,7 +33417,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>3492.75</v>
+        <v>3475.88</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33517,7 +33535,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33538,7 +33556,7 @@
         <v>23</v>
       </c>
       <c r="M429" s="6">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N429" s="6">
         <v>0</v>
@@ -34225,7 +34243,7 @@
         <v>23</v>
       </c>
       <c r="F441" s="6">
-        <v>394.5</v>
+        <v>372.45</v>
       </c>
       <c r="G441" s="6" t="s">
         <v>23</v>
@@ -56822,7 +56840,7 @@
         <v>23</v>
       </c>
       <c r="F824" s="6">
-        <v>249.5</v>
+        <v>243.59</v>
       </c>
       <c r="G824" s="6" t="s">
         <v>23</v>
@@ -59123,7 +59141,7 @@
         <v>23</v>
       </c>
       <c r="F863" s="6">
-        <v>734</v>
+        <v>2069.5300000000002</v>
       </c>
       <c r="G863" s="6" t="s">
         <v>23</v>
@@ -59300,7 +59318,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>35220.879999999997</v>
+        <v>32373.279999999999</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -60126,7 +60144,7 @@
         <v>23</v>
       </c>
       <c r="F880" s="6">
-        <v>38893.589999999997</v>
+        <v>35207.699999999997</v>
       </c>
       <c r="G880" s="6" t="s">
         <v>23</v>
@@ -60185,7 +60203,7 @@
         <v>23</v>
       </c>
       <c r="F881" s="6">
-        <v>120731.73</v>
+        <v>114078.37</v>
       </c>
       <c r="G881" s="6" t="s">
         <v>23</v>
@@ -60244,7 +60262,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>13180.52</v>
+        <v>11146.52</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60303,7 +60321,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>5190.5</v>
+        <v>4648.1000000000004</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -61719,7 +61737,7 @@
         <v>23</v>
       </c>
       <c r="F907" s="6">
-        <v>6304.84</v>
+        <v>5923.38</v>
       </c>
       <c r="G907" s="6" t="s">
         <v>23</v>
@@ -61955,7 +61973,7 @@
         <v>23</v>
       </c>
       <c r="F911" s="6">
-        <v>259.7</v>
+        <v>231.17</v>
       </c>
       <c r="G911" s="6" t="s">
         <v>23</v>
@@ -62132,7 +62150,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>121.02</v>
+        <v>116.12</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62427,7 +62445,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>1952.3</v>
+        <v>1941.79</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62840,7 +62858,7 @@
         <v>23</v>
       </c>
       <c r="F926" s="6">
-        <v>24244.84</v>
+        <v>21886.31</v>
       </c>
       <c r="G926" s="6" t="s">
         <v>23</v>
@@ -63430,7 +63448,7 @@
         <v>23</v>
       </c>
       <c r="F936" s="6">
-        <v>239.94</v>
+        <v>236.18</v>
       </c>
       <c r="G936" s="6" t="s">
         <v>23</v>
@@ -63489,7 +63507,7 @@
         <v>23</v>
       </c>
       <c r="F937" s="6">
-        <v>5530.5</v>
+        <v>5005</v>
       </c>
       <c r="G937" s="6" t="s">
         <v>23</v>
@@ -63843,7 +63861,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>8770.5</v>
+        <v>8761.58</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64138,7 +64156,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>642.85</v>
+        <v>598.22</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64197,7 +64215,7 @@
         <v>23</v>
       </c>
       <c r="F949" s="6">
-        <v>94.56</v>
+        <v>674.39</v>
       </c>
       <c r="G949" s="6" t="s">
         <v>23</v>
@@ -64374,7 +64392,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>61</v>
+        <v>272.5</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64433,7 +64451,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>295.5</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64492,7 +64510,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>281.27999999999997</v>
+        <v>260.08</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -65023,7 +65041,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>40</v>
+        <v>29.4</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65082,7 +65100,7 @@
         <v>23</v>
       </c>
       <c r="F964" s="6">
-        <v>161.5</v>
+        <v>55.1</v>
       </c>
       <c r="G964" s="6" t="s">
         <v>23</v>
@@ -65200,7 +65218,7 @@
         <v>23</v>
       </c>
       <c r="F966" s="6">
-        <v>0</v>
+        <v>-21.2</v>
       </c>
       <c r="G966" s="6" t="s">
         <v>23</v>
@@ -67029,7 +67047,7 @@
         <v>23</v>
       </c>
       <c r="F997" s="6">
-        <v>4091.82</v>
+        <v>3694.6</v>
       </c>
       <c r="G997" s="6" t="s">
         <v>23</v>
@@ -67088,7 +67106,7 @@
         <v>23</v>
       </c>
       <c r="F998" s="6">
-        <v>23766.26</v>
+        <v>21017.22</v>
       </c>
       <c r="G998" s="6" t="s">
         <v>23</v>
@@ -67265,7 +67283,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>6647.5</v>
+        <v>6420.03</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67442,7 +67460,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>146.4</v>
+        <v>137.25</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67619,7 +67637,7 @@
         <v>23</v>
       </c>
       <c r="F1007" s="6">
-        <v>87.79</v>
+        <v>974.79</v>
       </c>
       <c r="G1007" s="6" t="s">
         <v>23</v>
@@ -67914,7 +67932,7 @@
         <v>23</v>
       </c>
       <c r="F1012" s="6">
-        <v>-23.78</v>
+        <v>348.9</v>
       </c>
       <c r="G1012" s="6" t="s">
         <v>23</v>
@@ -68091,7 +68109,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>752.24</v>
+        <v>344.99</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68150,7 +68168,7 @@
         <v>23</v>
       </c>
       <c r="F1016" s="6">
-        <v>609.80999999999995</v>
+        <v>411.78</v>
       </c>
       <c r="G1016" s="6" t="s">
         <v>23</v>
@@ -68209,7 +68227,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>595.25</v>
+        <v>426.71</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68268,7 +68286,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>337.81</v>
+        <v>153.19</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68622,7 +68640,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>781.75</v>
+        <v>294.35000000000002</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -68681,7 +68699,7 @@
         <v>23</v>
       </c>
       <c r="F1025" s="6">
-        <v>318.05</v>
+        <v>167.6</v>
       </c>
       <c r="G1025" s="6" t="s">
         <v>23</v>
@@ -68740,7 +68758,7 @@
         <v>23</v>
       </c>
       <c r="F1026" s="6">
-        <v>750</v>
+        <v>248.5</v>
       </c>
       <c r="G1026" s="6" t="s">
         <v>23</v>
@@ -68799,7 +68817,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>637.1</v>
+        <v>286.05</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -68858,7 +68876,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>147.5</v>
+        <v>97.35</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -68917,7 +68935,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>280.5</v>
+        <v>662.95</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -68976,7 +68994,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>200.3</v>
+        <v>100</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69035,7 +69053,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>257.60000000000002</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69094,7 +69112,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>3577.65</v>
+        <v>4747.3500000000004</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69153,7 +69171,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>355.54</v>
+        <v>156.54</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69212,7 +69230,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>4295.6550800000005</v>
+        <v>4149.4561599999997</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69271,7 +69289,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>647.33000000000004</v>
+        <v>2003.7</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69330,7 +69348,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>3360.97</v>
+        <v>2814.76</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69389,7 +69407,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>957.15</v>
+        <v>2497.35</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69625,7 +69643,7 @@
         <v>23</v>
       </c>
       <c r="F1041" s="6">
-        <v>47.9</v>
+        <v>39.06</v>
       </c>
       <c r="G1041" s="6" t="s">
         <v>23</v>
@@ -70392,7 +70410,7 @@
         <v>23</v>
       </c>
       <c r="F1054" s="6">
-        <v>1474.2</v>
+        <v>1906.21</v>
       </c>
       <c r="G1054" s="6" t="s">
         <v>23</v>
@@ -70510,7 +70528,7 @@
         <v>23</v>
       </c>
       <c r="F1056" s="6">
-        <v>8742.6</v>
+        <v>8528.3700000000008</v>
       </c>
       <c r="G1056" s="6" t="s">
         <v>23</v>
@@ -70569,7 +70587,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>9282.0499999999993</v>
+        <v>9172.9</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70628,7 +70646,7 @@
         <v>23</v>
       </c>
       <c r="F1058" s="6">
-        <v>2737.45</v>
+        <v>2496.88</v>
       </c>
       <c r="G1058" s="6" t="s">
         <v>23</v>
@@ -70687,7 +70705,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>4362</v>
+        <v>3901.45</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -70805,7 +70823,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>303.67</v>
+        <v>315.2</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71277,7 +71295,7 @@
         <v>23</v>
       </c>
       <c r="F1069" s="6">
-        <v>7259.4277499999998</v>
+        <v>9093.2877499999995</v>
       </c>
       <c r="G1069" s="6" t="s">
         <v>23</v>
@@ -71454,7 +71472,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>4485.75</v>
+        <v>5553.22</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71513,7 +71531,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>43163.54</v>
+        <v>60130.14</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71572,7 +71590,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>1032.97</v>
+        <v>890.32</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71631,7 +71649,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>2710.62</v>
+        <v>14925.62</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71749,7 +71767,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>700.5</v>
+        <v>281</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -71808,7 +71826,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>2177.3200000000002</v>
+        <v>1103.4000000000001</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -71867,7 +71885,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>1057.1099999999999</v>
+        <v>1896.49</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72221,7 +72239,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>2225.38</v>
+        <v>1187.48</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72398,7 +72416,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>156.4</v>
+        <v>148.25</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72929,7 +72947,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>288.06</v>
+        <v>232.57</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73268,22 +73286,22 @@
     </row>
     <row r="1103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1103" s="5" t="s">
         <v>2600</v>
       </c>
-      <c r="B1103" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1103" s="5" t="s">
+      <c r="D1103" s="5" t="s">
         <v>2601</v>
       </c>
-      <c r="D1103" s="5" t="s">
-        <v>2602</v>
-      </c>
       <c r="E1103" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1103" s="6">
-        <v>34.450000000000003</v>
+        <v>418.09</v>
       </c>
       <c r="G1103" s="6" t="s">
         <v>23</v>
@@ -73316,7 +73334,7 @@
         <v>21</v>
       </c>
       <c r="Q1103" s="5" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="R1103" s="6" t="s">
         <v>23</v>
@@ -73327,22 +73345,22 @@
     </row>
     <row r="1104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1104" s="5" t="s">
-        <v>2570</v>
+        <v>2604</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>2571</v>
+        <v>2605</v>
       </c>
       <c r="D1104" s="5" t="s">
-        <v>2572</v>
+        <v>2606</v>
       </c>
       <c r="E1104" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73360,10 +73378,10 @@
         <v>21</v>
       </c>
       <c r="L1104" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1104" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1104" s="6">
         <v>0</v>
@@ -73375,7 +73393,7 @@
         <v>21</v>
       </c>
       <c r="Q1104" s="5" t="s">
-        <v>2571</v>
+        <v>2605</v>
       </c>
       <c r="R1104" s="6" t="s">
         <v>23</v>
@@ -73386,22 +73404,22 @@
     </row>
     <row r="1105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1105" s="5" t="s">
-        <v>2573</v>
+        <v>2607</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2574</v>
+        <v>2608</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>2575</v>
+        <v>2609</v>
       </c>
       <c r="E1105" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>49.4</v>
+        <v>0</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -73419,10 +73437,10 @@
         <v>21</v>
       </c>
       <c r="L1105" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1105" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1105" s="6">
         <v>0</v>
@@ -73434,7 +73452,7 @@
         <v>21</v>
       </c>
       <c r="Q1105" s="5" t="s">
-        <v>2574</v>
+        <v>2608</v>
       </c>
       <c r="R1105" s="6" t="s">
         <v>23</v>
@@ -73445,22 +73463,22 @@
     </row>
     <row r="1106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1106" s="5" t="s">
-        <v>2576</v>
+        <v>2570</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="D1106" s="5" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="E1106" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1106" s="6">
-        <v>981.58</v>
+        <v>512</v>
       </c>
       <c r="G1106" s="6" t="s">
         <v>23</v>
@@ -73481,7 +73499,7 @@
         <v>23</v>
       </c>
       <c r="M1106" s="6">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="N1106" s="6">
         <v>0</v>
@@ -73493,7 +73511,7 @@
         <v>21</v>
       </c>
       <c r="Q1106" s="5" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="R1106" s="6" t="s">
         <v>23</v>
@@ -73504,22 +73522,22 @@
     </row>
     <row r="1107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1107" s="5" t="s">
-        <v>2579</v>
+        <v>2573</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="D1107" s="5" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="E1107" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1107" s="6">
-        <v>0</v>
+        <v>49.4</v>
       </c>
       <c r="G1107" s="6" t="s">
         <v>23</v>
@@ -73537,10 +73555,10 @@
         <v>21</v>
       </c>
       <c r="L1107" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1107" s="6">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="N1107" s="6">
         <v>0</v>
@@ -73552,7 +73570,7 @@
         <v>21</v>
       </c>
       <c r="Q1107" s="5" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="R1107" s="6" t="s">
         <v>23</v>
@@ -73563,22 +73581,22 @@
     </row>
     <row r="1108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1108" s="5" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="D1108" s="5" t="s">
-        <v>2584</v>
+        <v>2578</v>
       </c>
       <c r="E1108" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1108" s="6">
-        <v>0</v>
+        <v>981.58</v>
       </c>
       <c r="G1108" s="6" t="s">
         <v>23</v>
@@ -73596,10 +73614,10 @@
         <v>21</v>
       </c>
       <c r="L1108" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1108" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N1108" s="6">
         <v>0</v>
@@ -73611,7 +73629,7 @@
         <v>21</v>
       </c>
       <c r="Q1108" s="5" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="R1108" s="6" t="s">
         <v>23</v>
@@ -73622,22 +73640,22 @@
     </row>
     <row r="1109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="D1109" s="5" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
       <c r="E1109" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1109" s="6">
-        <v>64.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="G1109" s="6" t="s">
         <v>23</v>
@@ -73655,10 +73673,10 @@
         <v>21</v>
       </c>
       <c r="L1109" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1109" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1109" s="6">
         <v>0</v>
@@ -73670,7 +73688,7 @@
         <v>21</v>
       </c>
       <c r="Q1109" s="5" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="R1109" s="6" t="s">
         <v>23</v>
@@ -73681,22 +73699,22 @@
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="D1110" s="5" t="s">
-        <v>2590</v>
+        <v>2584</v>
       </c>
       <c r="E1110" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1110" s="6">
-        <v>153.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1110" s="6" t="s">
         <v>23</v>
@@ -73714,10 +73732,10 @@
         <v>21</v>
       </c>
       <c r="L1110" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1110" s="6">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N1110" s="6">
         <v>0</v>
@@ -73729,7 +73747,7 @@
         <v>21</v>
       </c>
       <c r="Q1110" s="5" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="R1110" s="6" t="s">
         <v>23</v>
@@ -73740,22 +73758,22 @@
     </row>
     <row r="1111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>2591</v>
+        <v>2585</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
       <c r="D1111" s="5" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="E1111" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1111" s="6">
-        <v>0</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="G1111" s="6" t="s">
         <v>23</v>
@@ -73776,7 +73794,7 @@
         <v>23</v>
       </c>
       <c r="M1111" s="6">
-        <v>4.2</v>
+        <v>2.65</v>
       </c>
       <c r="N1111" s="6">
         <v>0</v>
@@ -73788,7 +73806,7 @@
         <v>21</v>
       </c>
       <c r="Q1111" s="5" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
       <c r="R1111" s="6" t="s">
         <v>23</v>
@@ -73799,22 +73817,22 @@
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
-        <v>2594</v>
+        <v>2588</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>2603</v>
+        <v>2589</v>
       </c>
       <c r="D1112" s="5" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1112" s="6">
-        <v>0</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="G1112" s="6" t="s">
         <v>23</v>
@@ -73832,10 +73850,10 @@
         <v>21</v>
       </c>
       <c r="L1112" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1112" s="6">
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N1112" s="6">
         <v>0</v>
@@ -73847,7 +73865,7 @@
         <v>21</v>
       </c>
       <c r="Q1112" s="5" t="s">
-        <v>2603</v>
+        <v>2589</v>
       </c>
       <c r="R1112" s="6" t="s">
         <v>23</v>
@@ -73858,60 +73876,178 @@
     </row>
     <row r="1113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1113" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1113" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1113" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1113" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1113" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1113" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1113" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R1113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1113" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1114" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1114" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1114" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1114" s="6">
+        <v>611.6</v>
+      </c>
+      <c r="G1114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1114" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1114" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1114" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="R1114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1114" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1115" s="5" t="s">
         <v>2596</v>
       </c>
-      <c r="B1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1113" s="5" t="s">
+      <c r="B1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1115" s="5" t="s">
         <v>2597</v>
       </c>
-      <c r="D1113" s="5" t="s">
+      <c r="D1115" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="E1113" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1113" s="6">
+      <c r="E1115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1115" s="6">
         <v>245</v>
       </c>
-      <c r="G1113" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1113" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1113" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1113" s="6">
-        <v>0</v>
-      </c>
-      <c r="N1113" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1113" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1113" s="5" t="s">
+      <c r="G1115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1115" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1115" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1115" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1115" s="5" t="s">
         <v>2597</v>
       </c>
-      <c r="R1113" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1113" s="5" t="s">
+      <c r="R1115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1115" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16746" uniqueCount="2619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16926" uniqueCount="2655">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7852,9 +7852,6 @@
     <t>SAWANA 80 (BLUE)</t>
   </si>
   <si>
-    <t>Lista Produto : 02-11-2020 12:06:11</t>
-  </si>
-  <si>
     <t>IP04017</t>
   </si>
   <si>
@@ -7880,12 +7877,123 @@
   </si>
   <si>
     <t>PU MADRYT 915 (CINZENTO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 06/01/2021 14:18:37</t>
+  </si>
+  <si>
+    <t>TC15210</t>
+  </si>
+  <si>
+    <t>G1943</t>
+  </si>
+  <si>
+    <t>MELVA 06 (BEGE)</t>
+  </si>
+  <si>
+    <t>TC15211</t>
+  </si>
+  <si>
+    <t>G5001</t>
+  </si>
+  <si>
+    <t>LIRA 19 (PRETO)</t>
+  </si>
+  <si>
+    <t>TC15212</t>
+  </si>
+  <si>
+    <t>G5110</t>
+  </si>
+  <si>
+    <t>LARS 90 (CINZA CLARO)</t>
+  </si>
+  <si>
+    <t>TC15213</t>
+  </si>
+  <si>
+    <t>G4720</t>
+  </si>
+  <si>
+    <t>ZENITH 605 (AZUL CLARO)</t>
+  </si>
+  <si>
+    <t>TC15214</t>
+  </si>
+  <si>
+    <t>G4750</t>
+  </si>
+  <si>
+    <t>ZENITH 201 (BORDEAUX)</t>
+  </si>
+  <si>
+    <t>TC15215</t>
+  </si>
+  <si>
+    <t>G4361</t>
+  </si>
+  <si>
+    <t>SIENA 906 (BEGE)</t>
+  </si>
+  <si>
+    <t>TC15216</t>
+  </si>
+  <si>
+    <t>G0641</t>
+  </si>
+  <si>
+    <t>BOSTON TOFFEE</t>
+  </si>
+  <si>
+    <t>TC15217</t>
+  </si>
+  <si>
+    <t>G5210</t>
+  </si>
+  <si>
+    <t>BALI ELEPHANT</t>
+  </si>
+  <si>
+    <t>TC15218</t>
+  </si>
+  <si>
+    <t>G5240</t>
+  </si>
+  <si>
+    <t>BALI TOFFEE</t>
+  </si>
+  <si>
+    <t>TC15219</t>
+  </si>
+  <si>
+    <t>G5230</t>
+  </si>
+  <si>
+    <t>BALI FOREST</t>
+  </si>
+  <si>
+    <t>TC15220</t>
+  </si>
+  <si>
+    <t>G5270</t>
+  </si>
+  <si>
+    <t>BALI TEJA (LARANJA)</t>
+  </si>
+  <si>
+    <t>TC15221</t>
+  </si>
+  <si>
+    <t>G2931</t>
+  </si>
+  <si>
+    <t>SORRENTO - 503 (VERDE ESCURO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8046,8 +8154,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1118" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1130" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1130"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8336,7 +8444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1118"/>
+  <dimension ref="A1:S1130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -8390,7 +8498,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2609</v>
+        <v>2618</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8487,7 +8595,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6">
-        <v>968.2</v>
+        <v>964.5</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>23</v>
@@ -8546,7 +8654,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>23</v>
@@ -8664,7 +8772,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>23</v>
@@ -9077,7 +9185,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="6">
-        <v>205.74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>23</v>
@@ -9195,7 +9303,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="6">
-        <v>525.4</v>
+        <v>533.5</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>23</v>
@@ -9372,7 +9480,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>23</v>
@@ -9390,7 +9498,7 @@
         <v>21</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M19" s="6">
         <v>1.5</v>
@@ -9608,7 +9716,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="6">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>23</v>
@@ -10021,7 +10129,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>44218.16</v>
+        <v>42920.84</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10080,7 +10188,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>6660.37</v>
+        <v>5644.9</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10139,7 +10247,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="6">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>23</v>
@@ -10434,7 +10542,7 @@
         <v>23</v>
       </c>
       <c r="F37" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>23</v>
@@ -10493,7 +10601,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>9580.83</v>
+        <v>8692.85</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10552,7 +10660,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>4269.33</v>
+        <v>4451.2</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -10611,7 +10719,7 @@
         <v>23</v>
       </c>
       <c r="F40" s="6">
-        <v>1211</v>
+        <v>1147</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>23</v>
@@ -10847,7 +10955,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>3869.5</v>
+        <v>2783.5</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11201,7 +11309,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>30012.26</v>
+        <v>19807</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11260,7 +11368,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>23</v>
@@ -11278,10 +11386,10 @@
         <v>21</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M51" s="6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N51" s="6">
         <v>0</v>
@@ -11319,7 +11427,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>29014</v>
+        <v>4468</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11378,7 +11486,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>38559.78</v>
+        <v>34968.06</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11437,7 +11545,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>2723.7</v>
+        <v>2481.9</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11496,7 +11604,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>2190.5300000000002</v>
+        <v>2318.9499999999998</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -11555,7 +11663,7 @@
         <v>23</v>
       </c>
       <c r="F56" s="6">
-        <v>59.6</v>
+        <v>89.6</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>23</v>
@@ -11968,7 +12076,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>45.73</v>
+        <v>198.6</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -11989,7 +12097,7 @@
         <v>23</v>
       </c>
       <c r="M63" s="6">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="N63" s="6">
         <v>0</v>
@@ -12027,7 +12135,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>1462.84</v>
+        <v>10121.450000000001</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12086,7 +12194,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>11.97</v>
+        <v>1270.3</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12145,7 +12253,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>-53.22</v>
+        <v>2850.2</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12204,7 +12312,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>-45.57</v>
+        <v>976</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12263,7 +12371,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12322,7 +12430,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>9238.0400000000009</v>
+        <v>5515.7</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12499,7 +12607,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>39876.5</v>
+        <v>16422.240000000002</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12558,7 +12666,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>5924.19</v>
+        <v>4129</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -12617,7 +12725,7 @@
         <v>23</v>
       </c>
       <c r="F74" s="6">
-        <v>425.2</v>
+        <v>0</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>23</v>
@@ -12853,7 +12961,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>552</v>
+        <v>40</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -12897,16 +13005,16 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>2610</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>2611</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>2612</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>23</v>
@@ -12945,7 +13053,7 @@
         <v>21</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="R79" s="6" t="s">
         <v>23</v>
@@ -12956,16 +13064,16 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>2613</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>2614</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>2615</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>23</v>
@@ -13004,7 +13112,7 @@
         <v>21</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>23</v>
@@ -13015,16 +13123,16 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>2616</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>2617</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>2618</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>23</v>
@@ -13063,7 +13171,7 @@
         <v>21</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="R81" s="6" t="s">
         <v>23</v>
@@ -21703,7 +21811,7 @@
         <v>23</v>
       </c>
       <c r="F228" s="6">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>23</v>
@@ -22706,7 +22814,7 @@
         <v>23</v>
       </c>
       <c r="F245" s="6">
-        <v>56.4</v>
+        <v>11</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>23</v>
@@ -22824,7 +22932,7 @@
         <v>23</v>
       </c>
       <c r="F247" s="6">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G247" s="6" t="s">
         <v>23</v>
@@ -22883,7 +22991,7 @@
         <v>23</v>
       </c>
       <c r="F248" s="6">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>23</v>
@@ -23119,7 +23227,7 @@
         <v>23</v>
       </c>
       <c r="F252" s="6">
-        <v>2231.8000000000002</v>
+        <v>2222.1999999999998</v>
       </c>
       <c r="G252" s="6" t="s">
         <v>23</v>
@@ -23355,7 +23463,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>1762.5</v>
+        <v>1535.5</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -23414,7 +23522,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1833.68</v>
+        <v>1665.5</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -23886,7 +23994,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>7478.6</v>
+        <v>6884.3</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24240,7 +24348,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="6">
-        <v>2529</v>
+        <v>1091.28</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>23</v>
@@ -24535,7 +24643,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>1468.5</v>
+        <v>5943.4</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -24594,7 +24702,7 @@
         <v>23</v>
       </c>
       <c r="F277" s="6">
-        <v>293.39999999999998</v>
+        <v>290</v>
       </c>
       <c r="G277" s="6" t="s">
         <v>23</v>
@@ -24830,7 +24938,7 @@
         <v>23</v>
       </c>
       <c r="F281" s="6">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G281" s="6" t="s">
         <v>23</v>
@@ -24948,7 +25056,7 @@
         <v>23</v>
       </c>
       <c r="F283" s="6">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G283" s="6" t="s">
         <v>23</v>
@@ -25007,7 +25115,7 @@
         <v>23</v>
       </c>
       <c r="F284" s="6">
-        <v>2322.85</v>
+        <v>2026</v>
       </c>
       <c r="G284" s="6" t="s">
         <v>23</v>
@@ -25066,7 +25174,7 @@
         <v>23</v>
       </c>
       <c r="F285" s="6">
-        <v>3508.6</v>
+        <v>3414.2</v>
       </c>
       <c r="G285" s="6" t="s">
         <v>23</v>
@@ -25125,7 +25233,7 @@
         <v>23</v>
       </c>
       <c r="F286" s="6">
-        <v>1021.5</v>
+        <v>1001.1</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>23</v>
@@ -25184,7 +25292,7 @@
         <v>23</v>
       </c>
       <c r="F287" s="6">
-        <v>2476.36</v>
+        <v>2416.16</v>
       </c>
       <c r="G287" s="6" t="s">
         <v>23</v>
@@ -25538,7 +25646,7 @@
         <v>23</v>
       </c>
       <c r="F293" s="6">
-        <v>288.5</v>
+        <v>4</v>
       </c>
       <c r="G293" s="6" t="s">
         <v>23</v>
@@ -25833,7 +25941,7 @@
         <v>23</v>
       </c>
       <c r="F298" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G298" s="6" t="s">
         <v>23</v>
@@ -25892,7 +26000,7 @@
         <v>23</v>
       </c>
       <c r="F299" s="6">
-        <v>358.2</v>
+        <v>343.2</v>
       </c>
       <c r="G299" s="6" t="s">
         <v>23</v>
@@ -25951,7 +26059,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>9193.6</v>
+        <v>5223.8900000000003</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26010,7 +26118,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>82.97</v>
+        <v>109</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -26305,7 +26413,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="6">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>23</v>
@@ -26423,7 +26531,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="6">
-        <v>3538.84</v>
+        <v>3533.5</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>23</v>
@@ -26482,7 +26590,7 @@
         <v>23</v>
       </c>
       <c r="F309" s="6">
-        <v>260.5</v>
+        <v>252.5</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>23</v>
@@ -26895,7 +27003,7 @@
         <v>23</v>
       </c>
       <c r="F316" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>23</v>
@@ -26913,7 +27021,7 @@
         <v>21</v>
       </c>
       <c r="L316" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M316" s="6">
         <v>0</v>
@@ -27013,7 +27121,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>5007.97</v>
+        <v>7662.76</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27072,7 +27180,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>2788.25</v>
+        <v>1971.8</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -27190,7 +27298,7 @@
         <v>23</v>
       </c>
       <c r="F321" s="6">
-        <v>591.70000000000005</v>
+        <v>581.70000000000005</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>23</v>
@@ -27249,7 +27357,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="6">
-        <v>1093.3499999999999</v>
+        <v>1117.5999999999999</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>23</v>
@@ -27308,7 +27416,7 @@
         <v>23</v>
       </c>
       <c r="F323" s="6">
-        <v>276.5</v>
+        <v>0</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>23</v>
@@ -27367,7 +27475,7 @@
         <v>23</v>
       </c>
       <c r="F324" s="6">
-        <v>1216.4000000000001</v>
+        <v>938.9</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>23</v>
@@ -27426,7 +27534,7 @@
         <v>23</v>
       </c>
       <c r="F325" s="6">
-        <v>335.7</v>
+        <v>342.4</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>23</v>
@@ -27485,7 +27593,7 @@
         <v>23</v>
       </c>
       <c r="F326" s="6">
-        <v>190.1</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>23</v>
@@ -27544,7 +27652,7 @@
         <v>23</v>
       </c>
       <c r="F327" s="6">
-        <v>6119.7</v>
+        <v>6080.6</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>23</v>
@@ -27603,7 +27711,7 @@
         <v>23</v>
       </c>
       <c r="F328" s="6">
-        <v>656.9</v>
+        <v>670.4</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>23</v>
@@ -27662,7 +27770,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="6">
-        <v>318.5</v>
+        <v>273.5</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>23</v>
@@ -27721,7 +27829,7 @@
         <v>23</v>
       </c>
       <c r="F330" s="6">
-        <v>3030.7</v>
+        <v>2920.2</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>23</v>
@@ -27780,7 +27888,7 @@
         <v>23</v>
       </c>
       <c r="F331" s="6">
-        <v>2034.6</v>
+        <v>1618.3</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>23</v>
@@ -27839,7 +27947,7 @@
         <v>23</v>
       </c>
       <c r="F332" s="6">
-        <v>8119.2</v>
+        <v>8118.3</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>23</v>
@@ -28016,7 +28124,7 @@
         <v>23</v>
       </c>
       <c r="F335" s="6">
-        <v>5579.3</v>
+        <v>5613.3</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>23</v>
@@ -28134,7 +28242,7 @@
         <v>23</v>
       </c>
       <c r="F337" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>23</v>
@@ -28193,7 +28301,7 @@
         <v>23</v>
       </c>
       <c r="F338" s="6">
-        <v>3204.5</v>
+        <v>3185.5</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>23</v>
@@ -28429,7 +28537,7 @@
         <v>23</v>
       </c>
       <c r="F342" s="6">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>23</v>
@@ -28488,7 +28596,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="6">
-        <v>280.2</v>
+        <v>0</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>23</v>
@@ -28547,7 +28655,7 @@
         <v>23</v>
       </c>
       <c r="F344" s="6">
-        <v>72.8</v>
+        <v>353</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>23</v>
@@ -28665,7 +28773,7 @@
         <v>23</v>
       </c>
       <c r="F346" s="6">
-        <v>2839.6</v>
+        <v>2869.6</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>23</v>
@@ -28742,10 +28850,10 @@
         <v>21</v>
       </c>
       <c r="L347" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M347" s="6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N347" s="6">
         <v>0</v>
@@ -28783,7 +28891,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>60.28</v>
+        <v>7</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -28901,7 +29009,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>2115.5</v>
+        <v>2328.4</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -29078,7 +29186,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>240.98</v>
+        <v>152</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -29137,7 +29245,7 @@
         <v>23</v>
       </c>
       <c r="F354" s="6">
-        <v>44</v>
+        <v>42.5</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>23</v>
@@ -29196,7 +29304,7 @@
         <v>23</v>
       </c>
       <c r="F355" s="6">
-        <v>323.02999999999997</v>
+        <v>188.5</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>23</v>
@@ -29314,7 +29422,7 @@
         <v>23</v>
       </c>
       <c r="F357" s="6">
-        <v>70.099999999999994</v>
+        <v>21.9</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>23</v>
@@ -29432,7 +29540,7 @@
         <v>23</v>
       </c>
       <c r="F359" s="6">
-        <v>317.13</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>23</v>
@@ -29550,7 +29658,7 @@
         <v>23</v>
       </c>
       <c r="F361" s="6">
-        <v>433.64</v>
+        <v>394.9</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>23</v>
@@ -29609,7 +29717,7 @@
         <v>23</v>
       </c>
       <c r="F362" s="6">
-        <v>462.9</v>
+        <v>381.3</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>23</v>
@@ -29668,7 +29776,7 @@
         <v>23</v>
       </c>
       <c r="F363" s="6">
-        <v>532.4</v>
+        <v>198.8</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>23</v>
@@ -29689,7 +29797,7 @@
         <v>23</v>
       </c>
       <c r="M363" s="6">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="N363" s="6">
         <v>0</v>
@@ -29727,7 +29835,7 @@
         <v>23</v>
       </c>
       <c r="F364" s="6">
-        <v>986.22</v>
+        <v>50.3</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>23</v>
@@ -29786,7 +29894,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>1986.02</v>
+        <v>184.16</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -29845,7 +29953,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>1604.6</v>
+        <v>704.64</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -29904,7 +30012,7 @@
         <v>23</v>
       </c>
       <c r="F367" s="6">
-        <v>857.7</v>
+        <v>664.8</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>23</v>
@@ -29963,7 +30071,7 @@
         <v>23</v>
       </c>
       <c r="F368" s="6">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>23</v>
@@ -30022,7 +30130,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="6">
-        <v>2492.6</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>23</v>
@@ -30317,7 +30425,7 @@
         <v>23</v>
       </c>
       <c r="F374" s="6">
-        <v>1166.43</v>
+        <v>1131.2</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>23</v>
@@ -30376,7 +30484,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>2592.5700000000002</v>
+        <v>1869.76</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30435,7 +30543,7 @@
         <v>23</v>
       </c>
       <c r="F376" s="6">
-        <v>149.19999999999999</v>
+        <v>115</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>23</v>
@@ -30494,7 +30602,7 @@
         <v>23</v>
       </c>
       <c r="F377" s="6">
-        <v>0</v>
+        <v>87.55</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>23</v>
@@ -30515,7 +30623,7 @@
         <v>23</v>
       </c>
       <c r="M377" s="6">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="N377" s="6">
         <v>0</v>
@@ -30553,7 +30661,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="6">
-        <v>426.03</v>
+        <v>409.3</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>23</v>
@@ -30612,7 +30720,7 @@
         <v>23</v>
       </c>
       <c r="F379" s="6">
-        <v>396.2</v>
+        <v>5.54</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>23</v>
@@ -30671,7 +30779,7 @@
         <v>23</v>
       </c>
       <c r="F380" s="6">
-        <v>127.39</v>
+        <v>128.9</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>23</v>
@@ -30730,7 +30838,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>1317.38</v>
+        <v>56</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -30789,7 +30897,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>1576.48</v>
+        <v>492.39</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -30848,7 +30956,7 @@
         <v>23</v>
       </c>
       <c r="F383" s="6">
-        <v>71.84</v>
+        <v>53</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>23</v>
@@ -30907,7 +31015,7 @@
         <v>23</v>
       </c>
       <c r="F384" s="6">
-        <v>691.5</v>
+        <v>8.1</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>23</v>
@@ -31025,7 +31133,7 @@
         <v>23</v>
       </c>
       <c r="F386" s="6">
-        <v>715.1</v>
+        <v>959.3</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>23</v>
@@ -31084,7 +31192,7 @@
         <v>23</v>
       </c>
       <c r="F387" s="6">
-        <v>1882.3</v>
+        <v>1869.3</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>23</v>
@@ -31143,7 +31251,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>76.56</v>
+        <v>124.5</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31202,7 +31310,7 @@
         <v>23</v>
       </c>
       <c r="F389" s="6">
-        <v>123.6</v>
+        <v>98.6</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>23</v>
@@ -31261,7 +31369,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>8376.92</v>
+        <v>4285.05</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31320,7 +31428,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>1069.8599999999999</v>
+        <v>842.7</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31379,7 +31487,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>2048.4299999999998</v>
+        <v>2005.75</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31497,7 +31605,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>297.5</v>
+        <v>178.1</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31556,7 +31664,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>8356.35</v>
+        <v>8091.36</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -31615,7 +31723,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>930.88</v>
+        <v>2047.01</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31674,7 +31782,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>5137.24</v>
+        <v>4592.24</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31733,7 +31841,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>1459.56</v>
+        <v>56.83</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -31792,7 +31900,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>3133.52</v>
+        <v>2043.76</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -31851,7 +31959,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>824.68</v>
+        <v>13.3</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -31910,7 +32018,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>2482.75</v>
+        <v>1422.3</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -31969,7 +32077,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>1499.55</v>
+        <v>875.3</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32028,7 +32136,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>3062.8</v>
+        <v>2685.65</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32087,7 +32195,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>934.75</v>
+        <v>144.86000000000001</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32108,7 +32216,7 @@
         <v>23</v>
       </c>
       <c r="M404" s="6">
-        <v>4.55</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="N404" s="6">
         <v>0</v>
@@ -32146,7 +32254,7 @@
         <v>23</v>
       </c>
       <c r="F405" s="6">
-        <v>339.63</v>
+        <v>230.9</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>23</v>
@@ -32205,7 +32313,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>3321.46</v>
+        <v>2219.8000000000002</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32264,7 +32372,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1520.44</v>
+        <v>1393.7</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32323,7 +32431,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>517.39</v>
+        <v>1269.4000000000001</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32382,7 +32490,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>3264.04</v>
+        <v>3025.8</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32441,7 +32549,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1428.07</v>
+        <v>3331.53</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32500,7 +32608,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>2337.4899999999998</v>
+        <v>697.84</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32559,7 +32667,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>915.86</v>
+        <v>840</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32618,7 +32726,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>1173.19</v>
+        <v>827.35</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32677,7 +32785,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1168.0999999999999</v>
+        <v>566.29999999999995</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -32913,7 +33021,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>539.34</v>
+        <v>345.02</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33031,7 +33139,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="6">
-        <v>2647.28</v>
+        <v>2574.1</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>23</v>
@@ -33090,7 +33198,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>543.75</v>
+        <v>73.2</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33208,7 +33316,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>572.12</v>
+        <v>459.1</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33267,7 +33375,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>176.29</v>
+        <v>37.6</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33326,7 +33434,7 @@
         <v>23</v>
       </c>
       <c r="F425" s="6">
-        <v>152.6</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="G425" s="6" t="s">
         <v>23</v>
@@ -33385,7 +33493,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>860.78</v>
+        <v>1598.7</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33444,7 +33552,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>628.69000000000005</v>
+        <v>922.2</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33503,7 +33611,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>877.61</v>
+        <v>624.05999999999995</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33562,7 +33670,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>36364.379999999997</v>
+        <v>39718.269999999997</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33621,7 +33729,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3468.45</v>
+        <v>3330</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -33739,7 +33847,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>1120.3499999999999</v>
+        <v>941.55</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -33798,7 +33906,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>1246.92</v>
+        <v>1139.6400000000001</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -33975,7 +34083,7 @@
         <v>23</v>
       </c>
       <c r="F436" s="6">
-        <v>61.5</v>
+        <v>99.1</v>
       </c>
       <c r="G436" s="6" t="s">
         <v>23</v>
@@ -34034,7 +34142,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>695</v>
+        <v>539.95000000000005</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -34093,7 +34201,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1420.7</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -34329,7 +34437,7 @@
         <v>23</v>
       </c>
       <c r="F442" s="6">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="G442" s="6" t="s">
         <v>23</v>
@@ -34388,7 +34496,7 @@
         <v>23</v>
       </c>
       <c r="F443" s="6">
-        <v>249.8</v>
+        <v>0</v>
       </c>
       <c r="G443" s="6" t="s">
         <v>23</v>
@@ -34447,7 +34555,7 @@
         <v>23</v>
       </c>
       <c r="F444" s="6">
-        <v>372.45</v>
+        <v>261.5</v>
       </c>
       <c r="G444" s="6" t="s">
         <v>23</v>
@@ -34506,7 +34614,7 @@
         <v>23</v>
       </c>
       <c r="F445" s="6">
-        <v>614.70000000000005</v>
+        <v>15</v>
       </c>
       <c r="G445" s="6" t="s">
         <v>23</v>
@@ -34624,7 +34732,7 @@
         <v>23</v>
       </c>
       <c r="F447" s="6">
-        <v>80.05</v>
+        <v>18.25</v>
       </c>
       <c r="G447" s="6" t="s">
         <v>23</v>
@@ -34683,7 +34791,7 @@
         <v>23</v>
       </c>
       <c r="F448" s="6">
-        <v>126.1</v>
+        <v>94.85</v>
       </c>
       <c r="G448" s="6" t="s">
         <v>23</v>
@@ -34742,7 +34850,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>3666.9</v>
+        <v>1292</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -34860,7 +34968,7 @@
         <v>23</v>
       </c>
       <c r="F451" s="6">
-        <v>447.2</v>
+        <v>447.1</v>
       </c>
       <c r="G451" s="6" t="s">
         <v>23</v>
@@ -34919,7 +35027,7 @@
         <v>23</v>
       </c>
       <c r="F452" s="6">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G452" s="6" t="s">
         <v>23</v>
@@ -40878,7 +40986,7 @@
         <v>23</v>
       </c>
       <c r="F553" s="6">
-        <v>93.2</v>
+        <v>72.2</v>
       </c>
       <c r="G553" s="6" t="s">
         <v>23</v>
@@ -40937,7 +41045,7 @@
         <v>23</v>
       </c>
       <c r="F554" s="6">
-        <v>126.8</v>
+        <v>81.8</v>
       </c>
       <c r="G554" s="6" t="s">
         <v>23</v>
@@ -41055,7 +41163,7 @@
         <v>23</v>
       </c>
       <c r="F556" s="6">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G556" s="6" t="s">
         <v>23</v>
@@ -41114,7 +41222,7 @@
         <v>23</v>
       </c>
       <c r="F557" s="6">
-        <v>0</v>
+        <v>137.1</v>
       </c>
       <c r="G557" s="6" t="s">
         <v>23</v>
@@ -41135,7 +41243,7 @@
         <v>23</v>
       </c>
       <c r="M557" s="6">
-        <v>4.6900000000000004</v>
+        <v>3.99</v>
       </c>
       <c r="N557" s="6">
         <v>0</v>
@@ -41173,7 +41281,7 @@
         <v>23</v>
       </c>
       <c r="F558" s="6">
-        <v>521.9</v>
+        <v>3</v>
       </c>
       <c r="G558" s="6" t="s">
         <v>23</v>
@@ -56749,7 +56857,7 @@
         <v>23</v>
       </c>
       <c r="F822" s="6">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="G822" s="6" t="s">
         <v>23</v>
@@ -57044,7 +57152,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="6">
-        <v>243.29</v>
+        <v>184.95</v>
       </c>
       <c r="G827" s="6" t="s">
         <v>23</v>
@@ -59345,7 +59453,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1948.04</v>
+        <v>1478.54</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59522,7 +59630,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>27634.06</v>
+        <v>20383.03</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -59640,7 +59748,7 @@
         <v>23</v>
       </c>
       <c r="F871" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G871" s="6" t="s">
         <v>23</v>
@@ -59758,7 +59866,7 @@
         <v>23</v>
       </c>
       <c r="F873" s="6">
-        <v>141.05404999999999</v>
+        <v>135.77000000000001</v>
       </c>
       <c r="G873" s="6" t="s">
         <v>23</v>
@@ -59817,7 +59925,7 @@
         <v>23</v>
       </c>
       <c r="F874" s="6">
-        <v>-600.58000000000004</v>
+        <v>39.33</v>
       </c>
       <c r="G874" s="6" t="s">
         <v>23</v>
@@ -60112,7 +60220,7 @@
         <v>23</v>
       </c>
       <c r="F879" s="6">
-        <v>0</v>
+        <v>127.8</v>
       </c>
       <c r="G879" s="6" t="s">
         <v>23</v>
@@ -60230,7 +60338,7 @@
         <v>23</v>
       </c>
       <c r="F881" s="6">
-        <v>95</v>
+        <v>91.03</v>
       </c>
       <c r="G881" s="6" t="s">
         <v>23</v>
@@ -60289,7 +60397,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>114337.7</v>
+        <v>92441.25</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60348,7 +60456,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>27566.25</v>
+        <v>32179.3</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60407,7 +60515,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>113314</v>
+        <v>62778.9</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60466,7 +60574,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>11146.52</v>
+        <v>17005.099999999999</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60525,7 +60633,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>5975.8</v>
+        <v>7725.3</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61469,7 +61577,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>3651.42</v>
+        <v>2345.12</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61490,7 +61598,7 @@
         <v>23</v>
       </c>
       <c r="M902" s="6">
-        <v>3.42</v>
+        <v>2.52</v>
       </c>
       <c r="N902" s="6">
         <v>0</v>
@@ -61587,7 +61695,7 @@
         <v>23</v>
       </c>
       <c r="F904" s="6">
-        <v>3163.7</v>
+        <v>0</v>
       </c>
       <c r="G904" s="6" t="s">
         <v>23</v>
@@ -61705,7 +61813,7 @@
         <v>23</v>
       </c>
       <c r="F906" s="6">
-        <v>598.6</v>
+        <v>524.1</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>23</v>
@@ -61764,7 +61872,7 @@
         <v>23</v>
       </c>
       <c r="F907" s="6">
-        <v>2449</v>
+        <v>3031.35</v>
       </c>
       <c r="G907" s="6" t="s">
         <v>23</v>
@@ -61882,7 +61990,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>2388.1</v>
+        <v>1779</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -61941,7 +62049,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>5923.38</v>
+        <v>3879.7</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62000,7 +62108,7 @@
         <v>23</v>
       </c>
       <c r="F911" s="6">
-        <v>6662.7</v>
+        <v>6618</v>
       </c>
       <c r="G911" s="6" t="s">
         <v>23</v>
@@ -62059,7 +62167,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>4330.6000000000004</v>
+        <v>3899.51</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62118,7 +62226,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>4903.5</v>
+        <v>4362.25</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62177,7 +62285,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>231.17</v>
+        <v>197.4</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62295,7 +62403,7 @@
         <v>23</v>
       </c>
       <c r="F916" s="6">
-        <v>404.3</v>
+        <v>366.8</v>
       </c>
       <c r="G916" s="6" t="s">
         <v>23</v>
@@ -62354,7 +62462,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>116.12</v>
+        <v>6.98</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -62413,7 +62521,7 @@
         <v>23</v>
       </c>
       <c r="F918" s="6">
-        <v>74.8</v>
+        <v>44.8</v>
       </c>
       <c r="G918" s="6" t="s">
         <v>23</v>
@@ -62472,7 +62580,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>4285.9399999999996</v>
+        <v>4013.67</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62531,7 +62639,7 @@
         <v>23</v>
       </c>
       <c r="F920" s="6">
-        <v>590.6</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="G920" s="6" t="s">
         <v>23</v>
@@ -62590,7 +62698,7 @@
         <v>23</v>
       </c>
       <c r="F921" s="6">
-        <v>125.7</v>
+        <v>156.5</v>
       </c>
       <c r="G921" s="6" t="s">
         <v>23</v>
@@ -62649,7 +62757,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1767.13</v>
+        <v>1320.54</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -62767,7 +62875,7 @@
         <v>23</v>
       </c>
       <c r="F924" s="6">
-        <v>197.34</v>
+        <v>139.6</v>
       </c>
       <c r="G924" s="6" t="s">
         <v>23</v>
@@ -62826,7 +62934,7 @@
         <v>23</v>
       </c>
       <c r="F925" s="6">
-        <v>147.19999999999999</v>
+        <v>122</v>
       </c>
       <c r="G925" s="6" t="s">
         <v>23</v>
@@ -62944,7 +63052,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>24918.73</v>
+        <v>16640.580000000002</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63062,7 +63170,7 @@
         <v>23</v>
       </c>
       <c r="F929" s="6">
-        <v>19590.12</v>
+        <v>13283.96</v>
       </c>
       <c r="G929" s="6" t="s">
         <v>23</v>
@@ -63121,7 +63229,7 @@
         <v>23</v>
       </c>
       <c r="F930" s="6">
-        <v>1046.5999999999999</v>
+        <v>925.6</v>
       </c>
       <c r="G930" s="6" t="s">
         <v>23</v>
@@ -63180,7 +63288,7 @@
         <v>23</v>
       </c>
       <c r="F931" s="6">
-        <v>1004.4</v>
+        <v>693.3</v>
       </c>
       <c r="G931" s="6" t="s">
         <v>23</v>
@@ -63260,7 +63368,7 @@
         <v>23</v>
       </c>
       <c r="M932" s="6">
-        <v>4.25</v>
+        <v>3.93</v>
       </c>
       <c r="N932" s="6">
         <v>0</v>
@@ -63357,7 +63465,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>125.47</v>
+        <v>1003.1</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -63416,7 +63524,7 @@
         <v>23</v>
       </c>
       <c r="F935" s="6">
-        <v>88.7</v>
+        <v>45</v>
       </c>
       <c r="G935" s="6" t="s">
         <v>23</v>
@@ -63475,7 +63583,7 @@
         <v>23</v>
       </c>
       <c r="F936" s="6">
-        <v>4496.5</v>
+        <v>0</v>
       </c>
       <c r="G936" s="6" t="s">
         <v>23</v>
@@ -63652,7 +63760,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>156.84</v>
+        <v>4.49</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -63711,7 +63819,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>5005</v>
+        <v>4040.9</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -63770,7 +63878,7 @@
         <v>23</v>
       </c>
       <c r="F941" s="6">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="G941" s="6" t="s">
         <v>23</v>
@@ -63829,7 +63937,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>825.3</v>
+        <v>782.8</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -63888,7 +63996,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>725.76</v>
+        <v>507.51</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -63947,7 +64055,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>216.04</v>
+        <v>547.61</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64006,7 +64114,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1428.71</v>
+        <v>2827.36</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64065,7 +64173,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>8739</v>
+        <v>8727.4</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64124,7 +64232,7 @@
         <v>23</v>
       </c>
       <c r="F947" s="6">
-        <v>245.11</v>
+        <v>201.4</v>
       </c>
       <c r="G947" s="6" t="s">
         <v>23</v>
@@ -64183,7 +64291,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>299.22000000000003</v>
+        <v>10</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64242,7 +64350,7 @@
         <v>23</v>
       </c>
       <c r="F949" s="6">
-        <v>59.1</v>
+        <v>0</v>
       </c>
       <c r="G949" s="6" t="s">
         <v>23</v>
@@ -64301,7 +64409,7 @@
         <v>23</v>
       </c>
       <c r="F950" s="6">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G950" s="6" t="s">
         <v>23</v>
@@ -64360,7 +64468,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>565.64</v>
+        <v>3382.53</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64419,7 +64527,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>614.20000000000005</v>
+        <v>1722.2</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64478,7 +64586,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>249.76</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64537,7 +64645,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>14.07</v>
+        <v>367.5</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -64655,7 +64763,7 @@
         <v>23</v>
       </c>
       <c r="F956" s="6">
-        <v>702.7</v>
+        <v>1024.5</v>
       </c>
       <c r="G956" s="6" t="s">
         <v>23</v>
@@ -64714,7 +64822,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>260.08</v>
+        <v>209.5</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -64773,7 +64881,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>184.3</v>
+        <v>627.70000000000005</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -64832,7 +64940,7 @@
         <v>23</v>
       </c>
       <c r="F959" s="6">
-        <v>1181.1400000000001</v>
+        <v>1055.3</v>
       </c>
       <c r="G959" s="6" t="s">
         <v>23</v>
@@ -64891,7 +64999,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>204.31</v>
+        <v>96</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -64950,7 +65058,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>168.48</v>
+        <v>0</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65009,7 +65117,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>8863.7000000000007</v>
+        <v>9205.1</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65068,7 +65176,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>2379.36</v>
+        <v>1627.6</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65186,7 +65294,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>101.89</v>
+        <v>45</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65245,7 +65353,7 @@
         <v>23</v>
       </c>
       <c r="F966" s="6">
-        <v>29.4</v>
+        <v>0</v>
       </c>
       <c r="G966" s="6" t="s">
         <v>23</v>
@@ -65304,7 +65412,7 @@
         <v>23</v>
       </c>
       <c r="F967" s="6">
-        <v>55.1</v>
+        <v>27.5</v>
       </c>
       <c r="G967" s="6" t="s">
         <v>23</v>
@@ -65422,7 +65530,7 @@
         <v>23</v>
       </c>
       <c r="F969" s="6">
-        <v>-21.2</v>
+        <v>0</v>
       </c>
       <c r="G969" s="6" t="s">
         <v>23</v>
@@ -65481,7 +65589,7 @@
         <v>23</v>
       </c>
       <c r="F970" s="6">
-        <v>230.9</v>
+        <v>195.9</v>
       </c>
       <c r="G970" s="6" t="s">
         <v>23</v>
@@ -67251,7 +67359,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>3694.6</v>
+        <v>3519.3</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -67310,7 +67418,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>14881.63</v>
+        <v>10371.57</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67331,7 +67439,7 @@
         <v>23</v>
       </c>
       <c r="M1001" s="6">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="N1001" s="6">
         <v>0</v>
@@ -67369,7 +67477,7 @@
         <v>23</v>
       </c>
       <c r="F1002" s="6">
-        <v>616.4</v>
+        <v>801.4</v>
       </c>
       <c r="G1002" s="6" t="s">
         <v>23</v>
@@ -67428,7 +67536,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3819.11</v>
+        <v>3626.5</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67487,7 +67595,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>6420.03</v>
+        <v>737.1</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67546,7 +67654,7 @@
         <v>23</v>
       </c>
       <c r="F1005" s="6">
-        <v>2550</v>
+        <v>114</v>
       </c>
       <c r="G1005" s="6" t="s">
         <v>23</v>
@@ -67605,7 +67713,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>6068</v>
+        <v>4795</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67664,7 +67772,7 @@
         <v>23</v>
       </c>
       <c r="F1007" s="6">
-        <v>112.5</v>
+        <v>44</v>
       </c>
       <c r="G1007" s="6" t="s">
         <v>23</v>
@@ -67723,7 +67831,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>1066.3800000000001</v>
+        <v>775.77</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -67782,7 +67890,7 @@
         <v>23</v>
       </c>
       <c r="F1009" s="6">
-        <v>154.54</v>
+        <v>1051</v>
       </c>
       <c r="G1009" s="6" t="s">
         <v>23</v>
@@ -67841,7 +67949,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>974.79</v>
+        <v>184</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -67862,7 +67970,7 @@
         <v>23</v>
       </c>
       <c r="M1010" s="6">
-        <v>2.48</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N1010" s="6">
         <v>0</v>
@@ -67900,7 +68008,7 @@
         <v>23</v>
       </c>
       <c r="F1011" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1011" s="6" t="s">
         <v>23</v>
@@ -68077,7 +68185,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>141.56</v>
+        <v>4409.76</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68098,7 +68206,7 @@
         <v>23</v>
       </c>
       <c r="M1014" s="6">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="N1014" s="6">
         <v>0</v>
@@ -68136,7 +68244,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>464.5</v>
+        <v>514.98</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68157,7 +68265,7 @@
         <v>23</v>
       </c>
       <c r="M1015" s="6">
-        <v>2.79</v>
+        <v>1.99</v>
       </c>
       <c r="N1015" s="6">
         <v>0</v>
@@ -68195,7 +68303,7 @@
         <v>23</v>
       </c>
       <c r="F1016" s="6">
-        <v>474.3</v>
+        <v>466.3</v>
       </c>
       <c r="G1016" s="6" t="s">
         <v>23</v>
@@ -68254,7 +68362,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>5025.5</v>
+        <v>2885.2</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68313,7 +68421,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>344.99</v>
+        <v>305.19</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68372,7 +68480,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>411.78</v>
+        <v>73</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68431,7 +68539,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>408.16</v>
+        <v>1350.82</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68490,7 +68598,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>153.19</v>
+        <v>421.88</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68549,7 +68657,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>2477.61</v>
+        <v>2775.94</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68608,7 +68716,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>6468.3</v>
+        <v>5853.32</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68667,7 +68775,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>10000.5</v>
+        <v>18712.900000000001</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -68844,7 +68952,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>235.22</v>
+        <v>484.97</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -68903,7 +69011,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>167.6</v>
+        <v>541.70000000000005</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -68962,7 +69070,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>579.5</v>
+        <v>335.25</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69021,7 +69129,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>286.05</v>
+        <v>53.65</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69080,7 +69188,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>321.45</v>
+        <v>165.24</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69139,7 +69247,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>1077.0999999999999</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69198,7 +69306,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>100</v>
+        <v>784.74</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69257,7 +69365,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>157.30000000000001</v>
+        <v>17</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69316,7 +69424,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>4747.3500000000004</v>
+        <v>9157.7000000000007</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69375,7 +69483,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>90.19</v>
+        <v>3193.9</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69396,7 +69504,7 @@
         <v>23</v>
       </c>
       <c r="M1036" s="6">
-        <v>3.38</v>
+        <v>2.72</v>
       </c>
       <c r="N1036" s="6">
         <v>0</v>
@@ -69434,7 +69542,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>2710.6861600000002</v>
+        <v>5890.4</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69493,7 +69601,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>1990.43</v>
+        <v>2674.6</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69514,7 +69622,7 @@
         <v>23</v>
       </c>
       <c r="M1038" s="6">
-        <v>2.72</v>
+        <v>3.38</v>
       </c>
       <c r="N1038" s="6">
         <v>0</v>
@@ -69552,7 +69660,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2814.76</v>
+        <v>718.4</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69611,7 +69719,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>2086.08</v>
+        <v>1105</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -69632,7 +69740,7 @@
         <v>23</v>
       </c>
       <c r="M1040" s="6">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
       <c r="N1040" s="6">
         <v>0</v>
@@ -69729,7 +69837,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>0</v>
+        <v>1508.13</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -69747,7 +69855,7 @@
         <v>21</v>
       </c>
       <c r="L1042" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1042" s="6">
         <v>0</v>
@@ -69788,7 +69896,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>43.5</v>
+        <v>686.7</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -69847,7 +69955,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>39.06</v>
+        <v>464.3</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -69868,7 +69976,7 @@
         <v>23</v>
       </c>
       <c r="M1044" s="6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N1044" s="6">
         <v>0</v>
@@ -69965,7 +70073,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>605.16999999999996</v>
+        <v>801.01</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70024,7 +70132,7 @@
         <v>23</v>
       </c>
       <c r="F1047" s="6">
-        <v>37.5</v>
+        <v>6</v>
       </c>
       <c r="G1047" s="6" t="s">
         <v>23</v>
@@ -70083,7 +70191,7 @@
         <v>23</v>
       </c>
       <c r="F1048" s="6">
-        <v>46.49</v>
+        <v>22.45</v>
       </c>
       <c r="G1048" s="6" t="s">
         <v>23</v>
@@ -70160,7 +70268,7 @@
         <v>21</v>
       </c>
       <c r="L1049" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1049" s="6">
         <v>0</v>
@@ -70496,7 +70604,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>59.4</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -70614,7 +70722,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>1494.95</v>
+        <v>3139.86</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70673,7 +70781,7 @@
         <v>23</v>
       </c>
       <c r="F1058" s="6">
-        <v>1912.4</v>
+        <v>1853.6</v>
       </c>
       <c r="G1058" s="6" t="s">
         <v>23</v>
@@ -70732,7 +70840,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>8601.9699999999993</v>
+        <v>6335.2</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -70791,7 +70899,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>10202.200000000001</v>
+        <v>1045.67</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -70850,7 +70958,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>2496.88</v>
+        <v>491.1</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -70909,7 +71017,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>3901.45</v>
+        <v>324.83</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -70968,7 +71076,7 @@
         <v>23</v>
       </c>
       <c r="F1063" s="6">
-        <v>392.65</v>
+        <v>928</v>
       </c>
       <c r="G1063" s="6" t="s">
         <v>23</v>
@@ -71027,7 +71135,7 @@
         <v>23</v>
       </c>
       <c r="F1064" s="6">
-        <v>315.2</v>
+        <v>315.3</v>
       </c>
       <c r="G1064" s="6" t="s">
         <v>23</v>
@@ -71086,7 +71194,7 @@
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>244.26</v>
+        <v>665.5</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71145,7 +71253,7 @@
         <v>23</v>
       </c>
       <c r="F1066" s="6">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="G1066" s="6" t="s">
         <v>23</v>
@@ -71204,7 +71312,7 @@
         <v>23</v>
       </c>
       <c r="F1067" s="6">
-        <v>13732.9</v>
+        <v>19855.5</v>
       </c>
       <c r="G1067" s="6" t="s">
         <v>23</v>
@@ -71263,7 +71371,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>11740.7</v>
+        <v>28512.23</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71381,7 +71489,7 @@
         <v>23</v>
       </c>
       <c r="F1070" s="6">
-        <v>50.5</v>
+        <v>55.7</v>
       </c>
       <c r="G1070" s="6" t="s">
         <v>23</v>
@@ -71440,7 +71548,7 @@
         <v>23</v>
       </c>
       <c r="F1071" s="6">
-        <v>132.9</v>
+        <v>138.9</v>
       </c>
       <c r="G1071" s="6" t="s">
         <v>23</v>
@@ -71499,7 +71607,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>12384.23775</v>
+        <v>5515.84</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71558,7 +71666,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>2292.0100000000002</v>
+        <v>1300.48</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71617,7 +71725,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>7140.42</v>
+        <v>12180.16</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71676,7 +71784,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>4863.8</v>
+        <v>20271.349999999999</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71735,7 +71843,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>77933.52</v>
+        <v>152030.76</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -71794,7 +71902,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>7332.16</v>
+        <v>5772.49</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -71853,7 +71961,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>14102.97</v>
+        <v>41902.47</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -71912,7 +72020,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>1031</v>
+        <v>1950.25</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -71971,7 +72079,7 @@
         <v>23</v>
       </c>
       <c r="F1080" s="6">
-        <v>281</v>
+        <v>253.78</v>
       </c>
       <c r="G1080" s="6" t="s">
         <v>23</v>
@@ -72030,7 +72138,7 @@
         <v>23</v>
       </c>
       <c r="F1081" s="6">
-        <v>1103.4000000000001</v>
+        <v>6</v>
       </c>
       <c r="G1081" s="6" t="s">
         <v>23</v>
@@ -72089,7 +72197,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>2150.4899999999998</v>
+        <v>1263</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72148,7 +72256,7 @@
         <v>23</v>
       </c>
       <c r="F1083" s="6">
-        <v>671.5</v>
+        <v>443</v>
       </c>
       <c r="G1083" s="6" t="s">
         <v>23</v>
@@ -72207,7 +72315,7 @@
         <v>23</v>
       </c>
       <c r="F1084" s="6">
-        <v>494.6</v>
+        <v>494.4</v>
       </c>
       <c r="G1084" s="6" t="s">
         <v>23</v>
@@ -72266,7 +72374,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>629.1</v>
+        <v>493.3</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72384,7 +72492,7 @@
         <v>23</v>
       </c>
       <c r="F1087" s="6">
-        <v>15.7</v>
+        <v>3</v>
       </c>
       <c r="G1087" s="6" t="s">
         <v>23</v>
@@ -72443,7 +72551,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>1187.48</v>
+        <v>2211</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72502,7 +72610,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>690.64</v>
+        <v>254.3</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72561,7 +72669,7 @@
         <v>23</v>
       </c>
       <c r="F1090" s="6">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G1090" s="6" t="s">
         <v>23</v>
@@ -72620,7 +72728,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>749.55</v>
+        <v>2604.66</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -72797,7 +72905,7 @@
         <v>23</v>
       </c>
       <c r="F1094" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G1094" s="6" t="s">
         <v>23</v>
@@ -72856,7 +72964,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>0</v>
+        <v>299.8</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -72877,7 +72985,7 @@
         <v>23</v>
       </c>
       <c r="M1095" s="6">
-        <v>3.46</v>
+        <v>2.77</v>
       </c>
       <c r="N1095" s="6">
         <v>0</v>
@@ -72974,7 +73082,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>26.72</v>
+        <v>3.5</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73033,7 +73141,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>514.5</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73092,7 +73200,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>39.72</v>
+        <v>182.3</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73151,7 +73259,7 @@
         <v>23</v>
       </c>
       <c r="F1100" s="6">
-        <v>180.27</v>
+        <v>163</v>
       </c>
       <c r="G1100" s="6" t="s">
         <v>23</v>
@@ -73210,7 +73318,7 @@
         <v>23</v>
       </c>
       <c r="F1101" s="6">
-        <v>1149.4000000000001</v>
+        <v>221.4</v>
       </c>
       <c r="G1101" s="6" t="s">
         <v>23</v>
@@ -73269,7 +73377,7 @@
         <v>23</v>
       </c>
       <c r="F1102" s="6">
-        <v>186.3</v>
+        <v>378.6</v>
       </c>
       <c r="G1102" s="6" t="s">
         <v>23</v>
@@ -73328,7 +73436,7 @@
         <v>23</v>
       </c>
       <c r="F1103" s="6">
-        <v>445.6</v>
+        <v>966.7</v>
       </c>
       <c r="G1103" s="6" t="s">
         <v>23</v>
@@ -73387,7 +73495,7 @@
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>0</v>
+        <v>1207.5999999999999</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73405,10 +73513,10 @@
         <v>21</v>
       </c>
       <c r="L1104" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1104" s="6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N1104" s="6">
         <v>0</v>
@@ -73505,7 +73613,7 @@
         <v>23</v>
       </c>
       <c r="F1106" s="6">
-        <v>375.7</v>
+        <v>215</v>
       </c>
       <c r="G1106" s="6" t="s">
         <v>23</v>
@@ -73564,7 +73672,7 @@
         <v>23</v>
       </c>
       <c r="F1107" s="6">
-        <v>40.49</v>
+        <v>4618.5</v>
       </c>
       <c r="G1107" s="6" t="s">
         <v>23</v>
@@ -73623,7 +73731,7 @@
         <v>23</v>
       </c>
       <c r="F1108" s="6">
-        <v>78.64</v>
+        <v>1024.72</v>
       </c>
       <c r="G1108" s="6" t="s">
         <v>23</v>
@@ -73667,22 +73775,22 @@
     </row>
     <row r="1109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
-        <v>2570</v>
+        <v>2619</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>2571</v>
+        <v>2620</v>
       </c>
       <c r="D1109" s="5" t="s">
-        <v>2572</v>
+        <v>2621</v>
       </c>
       <c r="E1109" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1109" s="6">
-        <v>512</v>
+        <v>90.4</v>
       </c>
       <c r="G1109" s="6" t="s">
         <v>23</v>
@@ -73703,7 +73811,7 @@
         <v>23</v>
       </c>
       <c r="M1109" s="6">
-        <v>1.98</v>
+        <v>2.71</v>
       </c>
       <c r="N1109" s="6">
         <v>0</v>
@@ -73715,7 +73823,7 @@
         <v>21</v>
       </c>
       <c r="Q1109" s="5" t="s">
-        <v>2571</v>
+        <v>2620</v>
       </c>
       <c r="R1109" s="6" t="s">
         <v>23</v>
@@ -73726,22 +73834,22 @@
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
-        <v>2573</v>
+        <v>2622</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>2574</v>
+        <v>2623</v>
       </c>
       <c r="D1110" s="5" t="s">
-        <v>2575</v>
+        <v>2624</v>
       </c>
       <c r="E1110" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1110" s="6">
-        <v>49.4</v>
+        <v>40.6</v>
       </c>
       <c r="G1110" s="6" t="s">
         <v>23</v>
@@ -73762,7 +73870,7 @@
         <v>23</v>
       </c>
       <c r="M1110" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1110" s="6">
         <v>0</v>
@@ -73774,7 +73882,7 @@
         <v>21</v>
       </c>
       <c r="Q1110" s="5" t="s">
-        <v>2574</v>
+        <v>2623</v>
       </c>
       <c r="R1110" s="6" t="s">
         <v>23</v>
@@ -73785,22 +73893,22 @@
     </row>
     <row r="1111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>2576</v>
+        <v>2625</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2577</v>
+        <v>2626</v>
       </c>
       <c r="D1111" s="5" t="s">
-        <v>2578</v>
+        <v>2627</v>
       </c>
       <c r="E1111" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1111" s="6">
-        <v>981.58</v>
+        <v>50</v>
       </c>
       <c r="G1111" s="6" t="s">
         <v>23</v>
@@ -73821,7 +73929,7 @@
         <v>23</v>
       </c>
       <c r="M1111" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1111" s="6">
         <v>0</v>
@@ -73833,7 +73941,7 @@
         <v>21</v>
       </c>
       <c r="Q1111" s="5" t="s">
-        <v>2577</v>
+        <v>2626</v>
       </c>
       <c r="R1111" s="6" t="s">
         <v>23</v>
@@ -73844,22 +73952,22 @@
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
-        <v>2579</v>
+        <v>2628</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>2580</v>
+        <v>2629</v>
       </c>
       <c r="D1112" s="5" t="s">
-        <v>2581</v>
+        <v>2630</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1112" s="6">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="G1112" s="6" t="s">
         <v>23</v>
@@ -73877,7 +73985,7 @@
         <v>21</v>
       </c>
       <c r="L1112" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1112" s="6">
         <v>0</v>
@@ -73892,7 +74000,7 @@
         <v>21</v>
       </c>
       <c r="Q1112" s="5" t="s">
-        <v>2580</v>
+        <v>2629</v>
       </c>
       <c r="R1112" s="6" t="s">
         <v>23</v>
@@ -73903,22 +74011,22 @@
     </row>
     <row r="1113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1113" s="5" t="s">
-        <v>2582</v>
+        <v>2631</v>
       </c>
       <c r="B1113" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>2583</v>
+        <v>2632</v>
       </c>
       <c r="D1113" s="5" t="s">
-        <v>2584</v>
+        <v>2633</v>
       </c>
       <c r="E1113" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1113" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G1113" s="6" t="s">
         <v>23</v>
@@ -73936,7 +74044,7 @@
         <v>21</v>
       </c>
       <c r="L1113" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1113" s="6">
         <v>0</v>
@@ -73951,7 +74059,7 @@
         <v>21</v>
       </c>
       <c r="Q1113" s="5" t="s">
-        <v>2583</v>
+        <v>2632</v>
       </c>
       <c r="R1113" s="6" t="s">
         <v>23</v>
@@ -73962,22 +74070,22 @@
     </row>
     <row r="1114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1114" s="5" t="s">
-        <v>2585</v>
+        <v>2634</v>
       </c>
       <c r="B1114" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>2586</v>
+        <v>2635</v>
       </c>
       <c r="D1114" s="5" t="s">
-        <v>2587</v>
+        <v>2636</v>
       </c>
       <c r="E1114" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1114" s="6">
-        <v>64.819999999999993</v>
+        <v>46.1</v>
       </c>
       <c r="G1114" s="6" t="s">
         <v>23</v>
@@ -73998,7 +74106,7 @@
         <v>23</v>
       </c>
       <c r="M1114" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1114" s="6">
         <v>0</v>
@@ -74010,7 +74118,7 @@
         <v>21</v>
       </c>
       <c r="Q1114" s="5" t="s">
-        <v>2586</v>
+        <v>2635</v>
       </c>
       <c r="R1114" s="6" t="s">
         <v>23</v>
@@ -74021,22 +74129,22 @@
     </row>
     <row r="1115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1115" s="5" t="s">
-        <v>2588</v>
+        <v>2637</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>2589</v>
+        <v>2638</v>
       </c>
       <c r="D1115" s="5" t="s">
-        <v>2590</v>
+        <v>2639</v>
       </c>
       <c r="E1115" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>153.30000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74057,7 +74165,7 @@
         <v>23</v>
       </c>
       <c r="M1115" s="6">
-        <v>4.1500000000000004</v>
+        <v>3.93</v>
       </c>
       <c r="N1115" s="6">
         <v>0</v>
@@ -74069,7 +74177,7 @@
         <v>21</v>
       </c>
       <c r="Q1115" s="5" t="s">
-        <v>2589</v>
+        <v>2638</v>
       </c>
       <c r="R1115" s="6" t="s">
         <v>23</v>
@@ -74080,22 +74188,22 @@
     </row>
     <row r="1116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1116" s="5" t="s">
-        <v>2591</v>
+        <v>2640</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>2592</v>
+        <v>2641</v>
       </c>
       <c r="D1116" s="5" t="s">
-        <v>2593</v>
+        <v>2642</v>
       </c>
       <c r="E1116" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1116" s="6">
-        <v>0</v>
+        <v>451.3</v>
       </c>
       <c r="G1116" s="6" t="s">
         <v>23</v>
@@ -74116,7 +74224,7 @@
         <v>23</v>
       </c>
       <c r="M1116" s="6">
-        <v>4.2</v>
+        <v>3.84</v>
       </c>
       <c r="N1116" s="6">
         <v>0</v>
@@ -74128,7 +74236,7 @@
         <v>21</v>
       </c>
       <c r="Q1116" s="5" t="s">
-        <v>2592</v>
+        <v>2641</v>
       </c>
       <c r="R1116" s="6" t="s">
         <v>23</v>
@@ -74139,22 +74247,22 @@
     </row>
     <row r="1117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1117" s="5" t="s">
-        <v>2594</v>
+        <v>2643</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>2602</v>
+        <v>2644</v>
       </c>
       <c r="D1117" s="5" t="s">
-        <v>2595</v>
+        <v>2645</v>
       </c>
       <c r="E1117" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>611.6</v>
+        <v>162.1</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74175,7 +74283,7 @@
         <v>23</v>
       </c>
       <c r="M1117" s="6">
-        <v>3</v>
+        <v>3.84</v>
       </c>
       <c r="N1117" s="6">
         <v>0</v>
@@ -74187,7 +74295,7 @@
         <v>21</v>
       </c>
       <c r="Q1117" s="5" t="s">
-        <v>2602</v>
+        <v>2644</v>
       </c>
       <c r="R1117" s="6" t="s">
         <v>23</v>
@@ -74198,60 +74306,768 @@
     </row>
     <row r="1118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1118" s="5" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1118" s="5" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D1118" s="5" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E1118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1118" s="6">
+        <v>182.4</v>
+      </c>
+      <c r="G1118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1118" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="N1118" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1118" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1118" s="5" t="s">
+        <v>2647</v>
+      </c>
+      <c r="R1118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1118" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1119" s="5" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1119" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D1119" s="5" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E1119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1119" s="6">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="G1119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1119" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="N1119" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1119" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1119" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="R1119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1119" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1120" s="5" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1120" s="5" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D1120" s="5" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E1120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1120" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1120" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1120" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1120" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1120" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1120" s="5" t="s">
+        <v>2653</v>
+      </c>
+      <c r="R1120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1120" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1121" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1121" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D1121" s="5" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E1121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1121" s="6">
+        <v>504</v>
+      </c>
+      <c r="G1121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1121" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="N1121" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1121" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1121" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="R1121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1121" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1122" s="5" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1122" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1122" s="5" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E1122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1122" s="6">
+        <v>1784.9</v>
+      </c>
+      <c r="G1122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1122" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="N1122" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1122" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1122" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="R1122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1122" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1123" s="5" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1123" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1123" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E1123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1123" s="6">
+        <v>114.8</v>
+      </c>
+      <c r="G1123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1123" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1123" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1123" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1123" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="R1123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1123" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1124" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1124" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1124" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E1124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1124" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1124" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1124" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1124" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1124" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1124" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="R1124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1124" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1125" s="5" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1125" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1125" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1125" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1125" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1125" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1125" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1125" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1125" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="R1125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1125" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1126" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1126" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1126" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E1126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1126" s="6">
+        <v>56.1</v>
+      </c>
+      <c r="G1126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1126" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1126" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1126" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1126" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R1126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1126" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1127" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1127" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1127" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1127" s="6">
+        <v>153</v>
+      </c>
+      <c r="G1127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1127" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1127" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1127" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1127" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R1127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1127" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1128" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1128" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1128" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E1128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1128" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1128" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1128" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1128" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1128" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R1128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1128" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1129" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1129" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1129" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1129" s="6">
+        <v>497.37</v>
+      </c>
+      <c r="G1129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1129" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1129" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1129" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1129" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="R1129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1129" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1130" s="5" t="s">
         <v>2596</v>
       </c>
-      <c r="B1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1118" s="5" t="s">
+      <c r="B1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1130" s="5" t="s">
         <v>2597</v>
       </c>
-      <c r="D1118" s="5" t="s">
+      <c r="D1130" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="E1118" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1118" s="6">
-        <v>245</v>
-      </c>
-      <c r="G1118" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1118" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1118" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1118" s="6">
+      <c r="E1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1130" s="6">
+        <v>279.67</v>
+      </c>
+      <c r="G1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1130" s="6">
         <v>3.95</v>
       </c>
-      <c r="N1118" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1118" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1118" s="5" t="s">
+      <c r="N1130" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1130" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1130" s="5" t="s">
         <v>2597</v>
       </c>
-      <c r="R1118" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1118" s="5" t="s">
+      <c r="R1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1130" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7879,9 +7879,6 @@
     <t>PU MADRYT 915 (CINZENTO)</t>
   </si>
   <si>
-    <t>Lista Produto : 06/01/2021 14:18:37</t>
-  </si>
-  <si>
     <t>TC15210</t>
   </si>
   <si>
@@ -7988,6 +7985,9 @@
   </si>
   <si>
     <t>SORRENTO - 503 (VERDE ESCURO)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 06/01/2021 14:20:53</t>
   </si>
 </sst>
 </file>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2618</v>
+        <v>2654</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -73775,16 +73775,16 @@
     </row>
     <row r="1109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1109" s="5" t="s">
         <v>2619</v>
       </c>
-      <c r="B1109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1109" s="5" t="s">
+      <c r="D1109" s="5" t="s">
         <v>2620</v>
-      </c>
-      <c r="D1109" s="5" t="s">
-        <v>2621</v>
       </c>
       <c r="E1109" s="6" t="s">
         <v>23</v>
@@ -73823,7 +73823,7 @@
         <v>21</v>
       </c>
       <c r="Q1109" s="5" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="R1109" s="6" t="s">
         <v>23</v>
@@ -73834,16 +73834,16 @@
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B1110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1110" s="5" t="s">
         <v>2622</v>
       </c>
-      <c r="B1110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1110" s="5" t="s">
+      <c r="D1110" s="5" t="s">
         <v>2623</v>
-      </c>
-      <c r="D1110" s="5" t="s">
-        <v>2624</v>
       </c>
       <c r="E1110" s="6" t="s">
         <v>23</v>
@@ -73882,7 +73882,7 @@
         <v>21</v>
       </c>
       <c r="Q1110" s="5" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="R1110" s="6" t="s">
         <v>23</v>
@@ -73893,16 +73893,16 @@
     </row>
     <row r="1111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B1111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1111" s="5" t="s">
         <v>2625</v>
       </c>
-      <c r="B1111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1111" s="5" t="s">
+      <c r="D1111" s="5" t="s">
         <v>2626</v>
-      </c>
-      <c r="D1111" s="5" t="s">
-        <v>2627</v>
       </c>
       <c r="E1111" s="6" t="s">
         <v>23</v>
@@ -73941,7 +73941,7 @@
         <v>21</v>
       </c>
       <c r="Q1111" s="5" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="R1111" s="6" t="s">
         <v>23</v>
@@ -73952,16 +73952,16 @@
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1112" s="5" t="s">
         <v>2628</v>
       </c>
-      <c r="B1112" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1112" s="5" t="s">
+      <c r="D1112" s="5" t="s">
         <v>2629</v>
-      </c>
-      <c r="D1112" s="5" t="s">
-        <v>2630</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>23</v>
@@ -74000,7 +74000,7 @@
         <v>21</v>
       </c>
       <c r="Q1112" s="5" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="R1112" s="6" t="s">
         <v>23</v>
@@ -74011,16 +74011,16 @@
     </row>
     <row r="1113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1113" s="5" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1113" s="5" t="s">
         <v>2631</v>
       </c>
-      <c r="B1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1113" s="5" t="s">
+      <c r="D1113" s="5" t="s">
         <v>2632</v>
-      </c>
-      <c r="D1113" s="5" t="s">
-        <v>2633</v>
       </c>
       <c r="E1113" s="6" t="s">
         <v>23</v>
@@ -74059,7 +74059,7 @@
         <v>21</v>
       </c>
       <c r="Q1113" s="5" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="R1113" s="6" t="s">
         <v>23</v>
@@ -74070,16 +74070,16 @@
     </row>
     <row r="1114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1114" s="5" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1114" s="5" t="s">
         <v>2634</v>
       </c>
-      <c r="B1114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1114" s="5" t="s">
+      <c r="D1114" s="5" t="s">
         <v>2635</v>
-      </c>
-      <c r="D1114" s="5" t="s">
-        <v>2636</v>
       </c>
       <c r="E1114" s="6" t="s">
         <v>23</v>
@@ -74118,7 +74118,7 @@
         <v>21</v>
       </c>
       <c r="Q1114" s="5" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="R1114" s="6" t="s">
         <v>23</v>
@@ -74129,16 +74129,16 @@
     </row>
     <row r="1115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1115" s="5" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1115" s="5" t="s">
         <v>2637</v>
       </c>
-      <c r="B1115" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1115" s="5" t="s">
+      <c r="D1115" s="5" t="s">
         <v>2638</v>
-      </c>
-      <c r="D1115" s="5" t="s">
-        <v>2639</v>
       </c>
       <c r="E1115" s="6" t="s">
         <v>23</v>
@@ -74177,7 +74177,7 @@
         <v>21</v>
       </c>
       <c r="Q1115" s="5" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="R1115" s="6" t="s">
         <v>23</v>
@@ -74188,16 +74188,16 @@
     </row>
     <row r="1116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1116" s="5" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1116" s="5" t="s">
         <v>2640</v>
       </c>
-      <c r="B1116" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1116" s="5" t="s">
+      <c r="D1116" s="5" t="s">
         <v>2641</v>
-      </c>
-      <c r="D1116" s="5" t="s">
-        <v>2642</v>
       </c>
       <c r="E1116" s="6" t="s">
         <v>23</v>
@@ -74236,7 +74236,7 @@
         <v>21</v>
       </c>
       <c r="Q1116" s="5" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="R1116" s="6" t="s">
         <v>23</v>
@@ -74247,16 +74247,16 @@
     </row>
     <row r="1117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1117" s="5" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1117" s="5" t="s">
         <v>2643</v>
       </c>
-      <c r="B1117" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1117" s="5" t="s">
+      <c r="D1117" s="5" t="s">
         <v>2644</v>
-      </c>
-      <c r="D1117" s="5" t="s">
-        <v>2645</v>
       </c>
       <c r="E1117" s="6" t="s">
         <v>23</v>
@@ -74295,7 +74295,7 @@
         <v>21</v>
       </c>
       <c r="Q1117" s="5" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="R1117" s="6" t="s">
         <v>23</v>
@@ -74306,16 +74306,16 @@
     </row>
     <row r="1118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1118" s="5" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1118" s="5" t="s">
         <v>2646</v>
       </c>
-      <c r="B1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1118" s="5" t="s">
+      <c r="D1118" s="5" t="s">
         <v>2647</v>
-      </c>
-      <c r="D1118" s="5" t="s">
-        <v>2648</v>
       </c>
       <c r="E1118" s="6" t="s">
         <v>23</v>
@@ -74354,7 +74354,7 @@
         <v>21</v>
       </c>
       <c r="Q1118" s="5" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R1118" s="6" t="s">
         <v>23</v>
@@ -74365,16 +74365,16 @@
     </row>
     <row r="1119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1119" s="5" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1119" s="5" t="s">
         <v>2649</v>
       </c>
-      <c r="B1119" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1119" s="5" t="s">
+      <c r="D1119" s="5" t="s">
         <v>2650</v>
-      </c>
-      <c r="D1119" s="5" t="s">
-        <v>2651</v>
       </c>
       <c r="E1119" s="6" t="s">
         <v>23</v>
@@ -74413,7 +74413,7 @@
         <v>21</v>
       </c>
       <c r="Q1119" s="5" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="R1119" s="6" t="s">
         <v>23</v>
@@ -74424,16 +74424,16 @@
     </row>
     <row r="1120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1120" s="5" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1120" s="5" t="s">
         <v>2652</v>
       </c>
-      <c r="B1120" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1120" s="5" t="s">
+      <c r="D1120" s="5" t="s">
         <v>2653</v>
-      </c>
-      <c r="D1120" s="5" t="s">
-        <v>2654</v>
       </c>
       <c r="E1120" s="6" t="s">
         <v>23</v>
@@ -74472,7 +74472,7 @@
         <v>21</v>
       </c>
       <c r="Q1120" s="5" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="R1120" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16926" uniqueCount="2655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16941" uniqueCount="2658">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7987,7 +7987,16 @@
     <t>SORRENTO - 503 (VERDE ESCURO)</t>
   </si>
   <si>
-    <t>Lista Produto : 06/01/2021 14:20:53</t>
+    <t>Lista Produto : 13/01/2021 09:15:17</t>
+  </si>
+  <si>
+    <t>TC15222</t>
+  </si>
+  <si>
+    <t>G2812</t>
+  </si>
+  <si>
+    <t>TEXAS 480 C.92 (Cinza)</t>
   </si>
 </sst>
 </file>
@@ -8154,8 +8163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1130" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1131" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1131"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8444,7 +8453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1130"/>
+  <dimension ref="A1:S1131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -10129,7 +10138,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>42920.84</v>
+        <v>38125.800000000003</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10188,7 +10197,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>5644.9</v>
+        <v>5317.5</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10601,7 +10610,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>8692.85</v>
+        <v>6667.45</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10955,7 +10964,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>2783.5</v>
+        <v>2695.82</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11309,7 +11318,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>19807</v>
+        <v>18520.03</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11427,7 +11436,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>4468</v>
+        <v>4048</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11486,7 +11495,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>34968.06</v>
+        <v>33964.76</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11545,7 +11554,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>2481.9</v>
+        <v>2210.5500000000002</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11604,7 +11613,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>2318.9499999999998</v>
+        <v>1884.79</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -12076,7 +12085,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>198.6</v>
+        <v>114.65</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12135,7 +12144,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>10121.450000000001</v>
+        <v>6944.06</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12194,7 +12203,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>1270.3</v>
+        <v>1137.7</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12253,7 +12262,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>2850.2</v>
+        <v>2548.75</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12312,7 +12321,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>976</v>
+        <v>747.05</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12607,7 +12616,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>16422.240000000002</v>
+        <v>14646.31</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -23522,7 +23531,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1665.5</v>
+        <v>1550.18</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -23994,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>6884.3</v>
+        <v>6670.9</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24348,7 +24357,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="6">
-        <v>1091.28</v>
+        <v>185.8</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>23</v>
@@ -24643,7 +24652,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>5943.4</v>
+        <v>5409.9</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -26059,7 +26068,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>5223.8900000000003</v>
+        <v>5213.03</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -27121,7 +27130,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>7662.76</v>
+        <v>7631.06</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27180,7 +27189,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1971.8</v>
+        <v>1960.94</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -27298,7 +27307,7 @@
         <v>23</v>
       </c>
       <c r="F321" s="6">
-        <v>581.70000000000005</v>
+        <v>573.45000000000005</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>23</v>
@@ -27357,7 +27366,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="6">
-        <v>1117.5999999999999</v>
+        <v>1109.3499999999999</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>23</v>
@@ -29540,7 +29549,7 @@
         <v>23</v>
       </c>
       <c r="F359" s="6">
-        <v>284.89999999999998</v>
+        <v>253.9</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>23</v>
@@ -29658,7 +29667,7 @@
         <v>23</v>
       </c>
       <c r="F361" s="6">
-        <v>394.9</v>
+        <v>392.38</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>23</v>
@@ -30484,7 +30493,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1869.76</v>
+        <v>1859.25</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30897,7 +30906,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>492.39</v>
+        <v>502.52</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -31369,7 +31378,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>4285.05</v>
+        <v>3827.79</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31782,7 +31791,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>4592.24</v>
+        <v>4583.7</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31841,7 +31850,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>56.83</v>
+        <v>458.53</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -31900,7 +31909,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>2043.76</v>
+        <v>1985.62</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32018,7 +32027,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1422.3</v>
+        <v>1420.59</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32077,7 +32086,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>875.3</v>
+        <v>870.07</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32136,7 +32145,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>2685.65</v>
+        <v>2479.1</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32313,7 +32322,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2219.8000000000002</v>
+        <v>2168.5100000000002</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32431,7 +32440,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>1269.4000000000001</v>
+        <v>1268.6500000000001</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32549,7 +32558,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>3331.53</v>
+        <v>3312.8</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32608,7 +32617,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>697.84</v>
+        <v>697.09</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32726,7 +32735,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>827.35</v>
+        <v>776.06</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32785,7 +32794,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>566.29999999999995</v>
+        <v>523.63</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33493,7 +33502,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1598.7</v>
+        <v>1556</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33552,7 +33561,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>922.2</v>
+        <v>918.3</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33611,7 +33620,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>624.05999999999995</v>
+        <v>607.04999999999995</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33670,7 +33679,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>39718.269999999997</v>
+        <v>37895.47</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33847,7 +33856,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>941.55</v>
+        <v>937.9</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34142,7 +34151,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>539.95000000000005</v>
+        <v>512.77</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -34850,7 +34859,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>1292</v>
+        <v>1282.49</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -34968,7 +34977,7 @@
         <v>23</v>
       </c>
       <c r="F451" s="6">
-        <v>447.1</v>
+        <v>430.25</v>
       </c>
       <c r="G451" s="6" t="s">
         <v>23</v>
@@ -59630,7 +59639,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>20383.03</v>
+        <v>30592.94</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60397,7 +60406,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>92441.25</v>
+        <v>103468.75</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60456,7 +60465,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>32179.3</v>
+        <v>36179.300000000003</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60515,7 +60524,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>62778.9</v>
+        <v>59383.97</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60574,7 +60583,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>17005.099999999999</v>
+        <v>15649.1</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -61577,7 +61586,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>2345.12</v>
+        <v>6226.08</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61754,7 +61763,7 @@
         <v>23</v>
       </c>
       <c r="F905" s="6">
-        <v>381.3</v>
+        <v>292.5</v>
       </c>
       <c r="G905" s="6" t="s">
         <v>23</v>
@@ -62049,7 +62058,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>3879.7</v>
+        <v>6350.76</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62226,7 +62235,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>4362.25</v>
+        <v>4302.05</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62580,7 +62589,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>4013.67</v>
+        <v>3971.44</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62757,7 +62766,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1320.54</v>
+        <v>1261.94</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63052,7 +63061,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>16640.580000000002</v>
+        <v>12920.16</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -64055,7 +64064,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>547.61</v>
+        <v>534.47</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64173,7 +64182,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>8727.4</v>
+        <v>23201.279999999999</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64468,7 +64477,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>3382.53</v>
+        <v>3373.99</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64999,7 +65008,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>96</v>
+        <v>85.4</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -67418,7 +67427,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>10371.57</v>
+        <v>18362.849999999999</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67713,7 +67722,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>4795</v>
+        <v>4479.62</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67772,7 +67781,7 @@
         <v>23</v>
       </c>
       <c r="F1007" s="6">
-        <v>44</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G1007" s="6" t="s">
         <v>23</v>
@@ -67949,7 +67958,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>184</v>
+        <v>132.71</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68185,7 +68194,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4409.76</v>
+        <v>4290.51</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68421,7 +68430,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>305.19</v>
+        <v>278.04000000000002</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68539,7 +68548,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1350.82</v>
+        <v>1337.57</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68598,7 +68607,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>421.88</v>
+        <v>436.53</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68952,7 +68961,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>484.97</v>
+        <v>5723.03</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69070,7 +69079,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>335.25</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69247,7 +69256,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>593.20000000000005</v>
+        <v>492.9</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69306,7 +69315,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>784.74</v>
+        <v>764.68</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69483,7 +69492,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>3193.9</v>
+        <v>2880.4</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69601,7 +69610,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>2674.6</v>
+        <v>2276.6</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69660,7 +69669,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>718.4</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69719,7 +69728,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>1105</v>
+        <v>1598.5</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -69837,7 +69846,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>1508.13</v>
+        <v>988.65</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -70073,7 +70082,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>801.01</v>
+        <v>570.11</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70604,7 +70613,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>145.19999999999999</v>
+        <v>122.31</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -70722,7 +70731,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>3139.86</v>
+        <v>963.5</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70840,7 +70849,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>6335.2</v>
+        <v>13249.7</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -70899,7 +70908,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>1045.67</v>
+        <v>8644.0499999999993</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71017,7 +71026,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>324.83</v>
+        <v>2357.13</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71076,7 +71085,7 @@
         <v>23</v>
       </c>
       <c r="F1063" s="6">
-        <v>928</v>
+        <v>812.55</v>
       </c>
       <c r="G1063" s="6" t="s">
         <v>23</v>
@@ -71194,7 +71203,7 @@
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>665.5</v>
+        <v>319.14999999999998</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71371,7 +71380,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>28512.23</v>
+        <v>27226.99</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71607,7 +71616,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>5515.84</v>
+        <v>9662.5300000000007</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71666,7 +71675,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>1300.48</v>
+        <v>1247.74</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71725,7 +71734,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>12180.16</v>
+        <v>13769.9</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71784,7 +71793,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>20271.349999999999</v>
+        <v>17145.04</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71843,7 +71852,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>152030.76</v>
+        <v>174338.26</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -71902,7 +71911,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>5772.49</v>
+        <v>5324.27</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -71961,7 +71970,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>41902.47</v>
+        <v>39640.1</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72020,7 +72029,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>1950.25</v>
+        <v>1917.49</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72197,7 +72206,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>1263</v>
+        <v>1184.52</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72374,7 +72383,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>493.3</v>
+        <v>436.9</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72551,7 +72560,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>2211</v>
+        <v>546.74</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72610,7 +72619,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>254.3</v>
+        <v>10.5</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72728,7 +72737,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>2604.66</v>
+        <v>2562.2600000000002</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73023,7 +73032,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>385.2</v>
+        <v>374.6</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73141,7 +73150,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>294.60000000000002</v>
+        <v>240.92</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73495,7 +73504,7 @@
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>1207.5999999999999</v>
+        <v>986.6</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73731,7 +73740,7 @@
         <v>23</v>
       </c>
       <c r="F1108" s="6">
-        <v>1024.72</v>
+        <v>486.4</v>
       </c>
       <c r="G1108" s="6" t="s">
         <v>23</v>
@@ -74483,22 +74492,22 @@
     </row>
     <row r="1121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1121" s="5" t="s">
-        <v>2570</v>
+        <v>2655</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>2571</v>
+        <v>2656</v>
       </c>
       <c r="D1121" s="5" t="s">
-        <v>2572</v>
+        <v>2657</v>
       </c>
       <c r="E1121" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -74516,10 +74525,10 @@
         <v>21</v>
       </c>
       <c r="L1121" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1121" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1121" s="6">
         <v>0</v>
@@ -74531,7 +74540,7 @@
         <v>21</v>
       </c>
       <c r="Q1121" s="5" t="s">
-        <v>2571</v>
+        <v>2656</v>
       </c>
       <c r="R1121" s="6" t="s">
         <v>23</v>
@@ -74542,22 +74551,22 @@
     </row>
     <row r="1122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1122" s="5" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="D1122" s="5" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E1122" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1122" s="6">
-        <v>1784.9</v>
+        <v>504</v>
       </c>
       <c r="G1122" s="6" t="s">
         <v>23</v>
@@ -74578,7 +74587,7 @@
         <v>23</v>
       </c>
       <c r="M1122" s="6">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="N1122" s="6">
         <v>0</v>
@@ -74590,7 +74599,7 @@
         <v>21</v>
       </c>
       <c r="Q1122" s="5" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="R1122" s="6" t="s">
         <v>23</v>
@@ -74601,22 +74610,22 @@
     </row>
     <row r="1123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1123" s="5" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="D1123" s="5" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E1123" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1123" s="6">
-        <v>114.8</v>
+        <v>1784.9</v>
       </c>
       <c r="G1123" s="6" t="s">
         <v>23</v>
@@ -74637,7 +74646,7 @@
         <v>23</v>
       </c>
       <c r="M1123" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="N1123" s="6">
         <v>0</v>
@@ -74649,7 +74658,7 @@
         <v>21</v>
       </c>
       <c r="Q1123" s="5" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="R1123" s="6" t="s">
         <v>23</v>
@@ -74660,22 +74669,22 @@
     </row>
     <row r="1124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1124" s="5" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="D1124" s="5" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E1124" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1124" s="6">
-        <v>0</v>
+        <v>114.8</v>
       </c>
       <c r="G1124" s="6" t="s">
         <v>23</v>
@@ -74693,10 +74702,10 @@
         <v>21</v>
       </c>
       <c r="L1124" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1124" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N1124" s="6">
         <v>0</v>
@@ -74708,7 +74717,7 @@
         <v>21</v>
       </c>
       <c r="Q1124" s="5" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="R1124" s="6" t="s">
         <v>23</v>
@@ -74719,16 +74728,16 @@
     </row>
     <row r="1125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1125" s="5" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="D1125" s="5" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="E1125" s="6" t="s">
         <v>23</v>
@@ -74767,7 +74776,7 @@
         <v>21</v>
       </c>
       <c r="Q1125" s="5" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="R1125" s="6" t="s">
         <v>23</v>
@@ -74778,22 +74787,22 @@
     </row>
     <row r="1126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="D1126" s="5" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="E1126" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1126" s="6">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="G1126" s="6" t="s">
         <v>23</v>
@@ -74811,10 +74820,10 @@
         <v>21</v>
       </c>
       <c r="L1126" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1126" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1126" s="6">
         <v>0</v>
@@ -74826,7 +74835,7 @@
         <v>21</v>
       </c>
       <c r="Q1126" s="5" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="R1126" s="6" t="s">
         <v>23</v>
@@ -74837,22 +74846,22 @@
     </row>
     <row r="1127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1127" s="5" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="D1127" s="5" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="E1127" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>153</v>
+        <v>56.1</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -74873,7 +74882,7 @@
         <v>23</v>
       </c>
       <c r="M1127" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="N1127" s="6">
         <v>0</v>
@@ -74885,7 +74894,7 @@
         <v>21</v>
       </c>
       <c r="Q1127" s="5" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="R1127" s="6" t="s">
         <v>23</v>
@@ -74896,22 +74905,22 @@
     </row>
     <row r="1128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1128" s="5" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="D1128" s="5" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="E1128" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1128" s="6">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G1128" s="6" t="s">
         <v>23</v>
@@ -74932,7 +74941,7 @@
         <v>23</v>
       </c>
       <c r="M1128" s="6">
-        <v>4.2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N1128" s="6">
         <v>0</v>
@@ -74944,7 +74953,7 @@
         <v>21</v>
       </c>
       <c r="Q1128" s="5" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="R1128" s="6" t="s">
         <v>23</v>
@@ -74955,22 +74964,22 @@
     </row>
     <row r="1129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1129" s="5" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="D1129" s="5" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="E1129" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1129" s="6">
-        <v>497.37</v>
+        <v>0</v>
       </c>
       <c r="G1129" s="6" t="s">
         <v>23</v>
@@ -74991,7 +75000,7 @@
         <v>23</v>
       </c>
       <c r="M1129" s="6">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N1129" s="6">
         <v>0</v>
@@ -75003,7 +75012,7 @@
         <v>21</v>
       </c>
       <c r="Q1129" s="5" t="s">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="R1129" s="6" t="s">
         <v>23</v>
@@ -75014,60 +75023,119 @@
     </row>
     <row r="1130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1130" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1130" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1130" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1130" s="6">
+        <v>404.09</v>
+      </c>
+      <c r="G1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1130" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1130" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1130" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1130" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="R1130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1130" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1131" s="5" t="s">
         <v>2596</v>
       </c>
-      <c r="B1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1130" s="5" t="s">
+      <c r="B1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1131" s="5" t="s">
         <v>2597</v>
       </c>
-      <c r="D1130" s="5" t="s">
+      <c r="D1131" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="E1130" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1130" s="6">
+      <c r="E1131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1131" s="6">
         <v>279.67</v>
       </c>
-      <c r="G1130" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1130" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1130" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1130" s="6">
+      <c r="G1131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1131" s="6">
         <v>3.95</v>
       </c>
-      <c r="N1130" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1130" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1130" s="5" t="s">
+      <c r="N1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1131" s="5" t="s">
         <v>2597</v>
       </c>
-      <c r="R1130" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1130" s="5" t="s">
+      <c r="R1131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1131" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7987,9 +7987,6 @@
     <t>SORRENTO - 503 (VERDE ESCURO)</t>
   </si>
   <si>
-    <t>Lista Produto : 13/01/2021 09:15:17</t>
-  </si>
-  <si>
     <t>TC15222</t>
   </si>
   <si>
@@ -7997,6 +7994,9 @@
   </si>
   <si>
     <t>TEXAS 480 C.92 (Cinza)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 20/01/2021 09:50:44</t>
   </si>
 </sst>
 </file>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10138,7 +10138,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>38125.800000000003</v>
+        <v>33954</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10197,7 +10197,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>5317.5</v>
+        <v>4825.45</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10610,7 +10610,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>6667.45</v>
+        <v>6162.25</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10964,7 +10964,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>2695.82</v>
+        <v>2565.42</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11318,7 +11318,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>18520.03</v>
+        <v>17749.900000000001</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11495,7 +11495,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>33964.76</v>
+        <v>31689.17</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11554,7 +11554,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>2210.5500000000002</v>
+        <v>1888.35</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11613,7 +11613,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>1884.79</v>
+        <v>1804.24</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -12283,7 +12283,7 @@
         <v>23</v>
       </c>
       <c r="M66" s="6">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="N66" s="6">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>23</v>
       </c>
       <c r="M67" s="6">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="N67" s="6">
         <v>0</v>
@@ -12439,7 +12439,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>5515.7</v>
+        <v>5237.6899999999996</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12616,7 +12616,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>14646.31</v>
+        <v>13608.24</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12675,7 +12675,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>4129</v>
+        <v>3778.1</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13147,7 +13147,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>0</v>
+        <v>1007.02</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -13165,7 +13165,7 @@
         <v>21</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M81" s="6">
         <v>0</v>
@@ -23531,7 +23531,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1550.18</v>
+        <v>1544.6</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24357,7 +24357,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="6">
-        <v>185.8</v>
+        <v>26.2</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>23</v>
@@ -25124,7 +25124,7 @@
         <v>23</v>
       </c>
       <c r="F284" s="6">
-        <v>2026</v>
+        <v>1943.47</v>
       </c>
       <c r="G284" s="6" t="s">
         <v>23</v>
@@ -26068,7 +26068,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>5213.03</v>
+        <v>6934.99</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26127,7 +26127,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>109</v>
+        <v>262.58</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -27130,7 +27130,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>7631.06</v>
+        <v>7523.16</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -29018,7 +29018,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>2328.4</v>
+        <v>2319.25</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -29313,7 +29313,7 @@
         <v>23</v>
       </c>
       <c r="F355" s="6">
-        <v>188.5</v>
+        <v>51.76</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>23</v>
@@ -29903,7 +29903,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>184.16</v>
+        <v>116.28</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="6">
-        <v>321.10000000000002</v>
+        <v>231.52</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>23</v>
@@ -30434,7 +30434,7 @@
         <v>23</v>
       </c>
       <c r="F374" s="6">
-        <v>1131.2</v>
+        <v>1118.06</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>23</v>
@@ -30493,7 +30493,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1859.25</v>
+        <v>1852.68</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -31378,7 +31378,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>3827.79</v>
+        <v>3754.65</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31437,7 +31437,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>842.7</v>
+        <v>722.38</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31496,7 +31496,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>2005.75</v>
+        <v>1986.2</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31614,7 +31614,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>178.1</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31732,7 +31732,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>2047.01</v>
+        <v>2472.2800000000002</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31791,7 +31791,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>4583.7</v>
+        <v>3394.16</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31968,7 +31968,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>13.3</v>
+        <v>1080.0999999999999</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32145,7 +32145,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>2479.1</v>
+        <v>2463.6799999999998</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32204,7 +32204,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>144.86000000000001</v>
+        <v>129.44</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32322,7 +32322,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2168.5100000000002</v>
+        <v>1976.75</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32381,7 +32381,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1393.7</v>
+        <v>1389.95</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32440,7 +32440,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>1268.6500000000001</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32499,7 +32499,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>3025.8</v>
+        <v>4451.55</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32558,7 +32558,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>3312.8</v>
+        <v>3247.94</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32617,7 +32617,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>697.09</v>
+        <v>681.31</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32676,7 +32676,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>840</v>
+        <v>806.16</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32735,7 +32735,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>776.06</v>
+        <v>745.33</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32794,7 +32794,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>523.63</v>
+        <v>489.79</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33030,7 +33030,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>345.02</v>
+        <v>445.2</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33502,7 +33502,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1556</v>
+        <v>1549.65</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33561,7 +33561,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>918.3</v>
+        <v>2455.14</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33620,7 +33620,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>607.04999999999995</v>
+        <v>571.9</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33679,7 +33679,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>37895.47</v>
+        <v>37811.47</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33738,7 +33738,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3330</v>
+        <v>3328.05</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -33856,7 +33856,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>937.9</v>
+        <v>926.2</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -33915,7 +33915,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>1139.6400000000001</v>
+        <v>1107.21</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -34151,7 +34151,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>512.77</v>
+        <v>505.74</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -34210,7 +34210,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1266.3699999999999</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -34741,7 +34741,7 @@
         <v>23</v>
       </c>
       <c r="F447" s="6">
-        <v>18.25</v>
+        <v>17.5</v>
       </c>
       <c r="G447" s="6" t="s">
         <v>23</v>
@@ -34800,7 +34800,7 @@
         <v>23</v>
       </c>
       <c r="F448" s="6">
-        <v>94.85</v>
+        <v>93.35</v>
       </c>
       <c r="G448" s="6" t="s">
         <v>23</v>
@@ -59639,7 +59639,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>30592.94</v>
+        <v>30018.14</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60406,7 +60406,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>103468.75</v>
+        <v>99908.65</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60465,7 +60465,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>36179.300000000003</v>
+        <v>31501.83</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60524,7 +60524,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>59383.97</v>
+        <v>56859.4</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60583,7 +60583,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>15649.1</v>
+        <v>14971.1</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -62079,7 +62079,7 @@
         <v>23</v>
       </c>
       <c r="M910" s="6">
-        <v>1.92</v>
+        <v>1.44</v>
       </c>
       <c r="N910" s="6">
         <v>0</v>
@@ -62471,7 +62471,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>6.98</v>
+        <v>264.98</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -63061,7 +63061,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>12920.16</v>
+        <v>20929.060000000001</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63179,7 +63179,7 @@
         <v>23</v>
       </c>
       <c r="F929" s="6">
-        <v>13283.96</v>
+        <v>13275.04</v>
       </c>
       <c r="G929" s="6" t="s">
         <v>23</v>
@@ -63356,7 +63356,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63769,7 +63769,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>4.49</v>
+        <v>380.09</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64182,7 +64182,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>23201.279999999999</v>
+        <v>22362.63</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64536,7 +64536,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>1722.2</v>
+        <v>1710.18</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64595,7 +64595,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>76.260000000000005</v>
+        <v>485.76</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -65480,7 +65480,7 @@
         <v>23</v>
       </c>
       <c r="F968" s="6">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="G968" s="6" t="s">
         <v>23</v>
@@ -65598,7 +65598,7 @@
         <v>23</v>
       </c>
       <c r="F970" s="6">
-        <v>195.9</v>
+        <v>189.39</v>
       </c>
       <c r="G970" s="6" t="s">
         <v>23</v>
@@ -67368,7 +67368,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>3519.3</v>
+        <v>3303.15</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -67427,7 +67427,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>18362.849999999999</v>
+        <v>16345.83</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67722,7 +67722,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>4479.62</v>
+        <v>4464.72</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67781,7 +67781,7 @@
         <v>23</v>
       </c>
       <c r="F1007" s="6">
-        <v>18.350000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="G1007" s="6" t="s">
         <v>23</v>
@@ -67840,7 +67840,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>775.77</v>
+        <v>711.27</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68194,7 +68194,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4290.51</v>
+        <v>4009.32</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68253,7 +68253,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>514.98</v>
+        <v>1041.18</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68371,7 +68371,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>2885.2</v>
+        <v>2837.06</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68489,7 +68489,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>73</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68607,7 +68607,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>436.53</v>
+        <v>369.46</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68784,7 +68784,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>18712.900000000001</v>
+        <v>16796.759999999998</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69020,7 +69020,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>541.70000000000005</v>
+        <v>491.55</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69079,7 +69079,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>285.10000000000002</v>
+        <v>782.25</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69138,7 +69138,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>53.65</v>
+        <v>754.85</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69197,7 +69197,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>165.24</v>
+        <v>330.59</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69256,7 +69256,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>492.9</v>
+        <v>442.75</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69374,7 +69374,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>17</v>
+        <v>523.5</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69610,7 +69610,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>2276.6</v>
+        <v>1665.74</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69728,7 +69728,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>1598.5</v>
+        <v>1261.9000000000001</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -69867,7 +69867,7 @@
         <v>23</v>
       </c>
       <c r="M1042" s="6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="N1042" s="6">
         <v>0</v>
@@ -69964,7 +69964,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>464.3</v>
+        <v>1469.6</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -70495,7 +70495,7 @@
         <v>23</v>
       </c>
       <c r="F1053" s="6">
-        <v>124</v>
+        <v>118.87</v>
       </c>
       <c r="G1053" s="6" t="s">
         <v>23</v>
@@ -70613,7 +70613,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>122.31</v>
+        <v>179.19</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -70731,7 +70731,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>963.5</v>
+        <v>1925.6</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70849,7 +70849,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>13249.7</v>
+        <v>14575.75</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -70908,7 +70908,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>8644.0499999999993</v>
+        <v>12226.65</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -70967,7 +70967,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>491.1</v>
+        <v>299.75</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71026,7 +71026,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>2357.13</v>
+        <v>3042.43</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71616,7 +71616,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>9662.5300000000007</v>
+        <v>10866.53</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71675,7 +71675,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>1247.74</v>
+        <v>1167.1500000000001</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71734,7 +71734,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>13769.9</v>
+        <v>18315.580000000002</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71793,7 +71793,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>17145.04</v>
+        <v>21711.22</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71852,7 +71852,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>174338.26</v>
+        <v>195914.12</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -71911,7 +71911,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>5324.27</v>
+        <v>5254.89</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -71970,7 +71970,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>39640.1</v>
+        <v>59084.73</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72206,7 +72206,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>1184.52</v>
+        <v>991.02</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72560,7 +72560,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>546.74</v>
+        <v>238.9</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -73150,7 +73150,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>240.92</v>
+        <v>228.53</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73799,7 +73799,7 @@
         <v>23</v>
       </c>
       <c r="F1109" s="6">
-        <v>90.4</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="G1109" s="6" t="s">
         <v>23</v>
@@ -74212,7 +74212,7 @@
         <v>23</v>
       </c>
       <c r="F1116" s="6">
-        <v>451.3</v>
+        <v>436.56</v>
       </c>
       <c r="G1116" s="6" t="s">
         <v>23</v>
@@ -74448,7 +74448,7 @@
         <v>23</v>
       </c>
       <c r="F1120" s="6">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G1120" s="6" t="s">
         <v>23</v>
@@ -74466,7 +74466,7 @@
         <v>21</v>
       </c>
       <c r="L1120" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1120" s="6">
         <v>0</v>
@@ -74492,16 +74492,16 @@
     </row>
     <row r="1121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1121" s="5" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1121" s="5" t="s">
         <v>2655</v>
       </c>
-      <c r="B1121" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1121" s="5" t="s">
+      <c r="D1121" s="5" t="s">
         <v>2656</v>
-      </c>
-      <c r="D1121" s="5" t="s">
-        <v>2657</v>
       </c>
       <c r="E1121" s="6" t="s">
         <v>23</v>
@@ -74540,7 +74540,7 @@
         <v>21</v>
       </c>
       <c r="Q1121" s="5" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="R1121" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7996,7 +7996,7 @@
     <t>TEXAS 480 C.92 (Cinza)</t>
   </si>
   <si>
-    <t>Lista Produto : 20/01/2021 09:50:44</t>
+    <t>Lista Produto : 25/01/2021 09:08:04</t>
   </si>
 </sst>
 </file>
@@ -10138,7 +10138,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>33954</v>
+        <v>33670.800000000003</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10610,7 +10610,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>6162.25</v>
+        <v>5873.55</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -11495,7 +11495,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>31689.17</v>
+        <v>31146.47</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12085,7 +12085,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>114.65</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12144,7 +12144,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>6944.06</v>
+        <v>12315.56</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12203,7 +12203,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>1137.7</v>
+        <v>1055.6600000000001</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12262,7 +12262,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>2548.75</v>
+        <v>2162.4</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12321,7 +12321,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>747.05</v>
+        <v>481.85</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -13168,7 +13168,7 @@
         <v>23</v>
       </c>
       <c r="M81" s="6">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="N81" s="6">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>1535.5</v>
+        <v>1405.3</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -23531,7 +23531,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1544.6</v>
+        <v>1321.4</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24003,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>6670.9</v>
+        <v>5797.9</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26068,7 +26068,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>6934.99</v>
+        <v>6918.47</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26127,7 +26127,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>262.58</v>
+        <v>252.25</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -26540,7 +26540,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="6">
-        <v>3533.5</v>
+        <v>3523.17</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>23</v>
@@ -27130,7 +27130,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>7523.16</v>
+        <v>7517.45</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27189,7 +27189,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1960.94</v>
+        <v>1939.75</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -29549,7 +29549,7 @@
         <v>23</v>
       </c>
       <c r="F359" s="6">
-        <v>253.9</v>
+        <v>238.13</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>23</v>
@@ -29667,7 +29667,7 @@
         <v>23</v>
       </c>
       <c r="F361" s="6">
-        <v>392.38</v>
+        <v>391.12</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>23</v>
@@ -31378,7 +31378,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>3754.65</v>
+        <v>3553.53</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31496,7 +31496,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1986.2</v>
+        <v>1974.92</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31614,7 +31614,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>159.30000000000001</v>
+        <v>153.1</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31673,7 +31673,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>8091.36</v>
+        <v>7987.54</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -31732,7 +31732,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>2472.2800000000002</v>
+        <v>2427.79</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31791,7 +31791,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>3394.16</v>
+        <v>3370.24</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31850,7 +31850,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>458.53</v>
+        <v>452.16</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32027,7 +32027,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1420.59</v>
+        <v>1394.43</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32086,7 +32086,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>870.07</v>
+        <v>850.45</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32145,7 +32145,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>2463.6799999999998</v>
+        <v>2402.61</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32204,7 +32204,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>129.44</v>
+        <v>100.72</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32499,7 +32499,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>4451.55</v>
+        <v>4571.16</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32676,7 +32676,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>806.16</v>
+        <v>802.4</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32794,7 +32794,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>489.79</v>
+        <v>414.48</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33207,7 +33207,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>73.2</v>
+        <v>752.7</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33384,7 +33384,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>37.6</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33502,7 +33502,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1549.65</v>
+        <v>1543.94</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33561,7 +33561,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>2455.14</v>
+        <v>2414.36</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33620,7 +33620,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>571.9</v>
+        <v>566.23</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33679,7 +33679,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>37811.47</v>
+        <v>35996.04</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -59639,7 +59639,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>30018.14</v>
+        <v>29068.94</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60406,7 +60406,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>99908.65</v>
+        <v>96203.25</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60465,7 +60465,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>31501.83</v>
+        <v>30244.87</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60524,7 +60524,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>56859.4</v>
+        <v>51215.47</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60583,7 +60583,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>14971.1</v>
+        <v>13954.1</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -61586,7 +61586,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>6226.08</v>
+        <v>5559</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62294,7 +62294,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>197.4</v>
+        <v>2094.1999999999998</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62471,7 +62471,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>264.98</v>
+        <v>254.47</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -62589,7 +62589,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3971.44</v>
+        <v>3844.48</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62766,7 +62766,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1261.94</v>
+        <v>1060.42</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63061,7 +63061,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>20929.060000000001</v>
+        <v>20897.38</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63179,7 +63179,7 @@
         <v>23</v>
       </c>
       <c r="F929" s="6">
-        <v>13275.04</v>
+        <v>13275.46</v>
       </c>
       <c r="G929" s="6" t="s">
         <v>23</v>
@@ -63769,7 +63769,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>380.09</v>
+        <v>208.05</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64182,7 +64182,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>22362.63</v>
+        <v>21093.25</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64595,7 +64595,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>485.76</v>
+        <v>461.72</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64831,7 +64831,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>209.5</v>
+        <v>198.9</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65067,7 +65067,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>0</v>
+        <v>208.4</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65088,7 +65088,7 @@
         <v>23</v>
       </c>
       <c r="M961" s="6">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="N961" s="6">
         <v>0</v>
@@ -65303,7 +65303,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>45</v>
+        <v>31.89</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65480,7 +65480,7 @@
         <v>23</v>
       </c>
       <c r="F968" s="6">
-        <v>97.8</v>
+        <v>332.7</v>
       </c>
       <c r="G968" s="6" t="s">
         <v>23</v>
@@ -67427,7 +67427,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>16345.83</v>
+        <v>15859</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67722,7 +67722,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>4464.72</v>
+        <v>4448.95</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67958,7 +67958,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>132.71</v>
+        <v>177.71</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68194,7 +68194,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4009.32</v>
+        <v>6175.12</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68253,7 +68253,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>1041.18</v>
+        <v>361.28</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68274,7 +68274,7 @@
         <v>23</v>
       </c>
       <c r="M1015" s="6">
-        <v>1.99</v>
+        <v>2.71</v>
       </c>
       <c r="N1015" s="6">
         <v>0</v>
@@ -68430,7 +68430,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>278.04000000000002</v>
+        <v>226.59</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68548,7 +68548,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1337.57</v>
+        <v>1292.32</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68666,7 +68666,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>2775.94</v>
+        <v>2534.9299999999998</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68725,7 +68725,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>5853.32</v>
+        <v>5827.56</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68784,7 +68784,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>16796.759999999998</v>
+        <v>16751.84</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -68961,7 +68961,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>5723.03</v>
+        <v>6617.29</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69138,7 +69138,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>754.85</v>
+        <v>1806.95</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69197,7 +69197,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>330.59</v>
+        <v>1372.09</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -70849,7 +70849,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>14575.75</v>
+        <v>14430.85</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71380,7 +71380,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>27226.99</v>
+        <v>23510.97</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71793,7 +71793,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>21711.22</v>
+        <v>20890.599999999999</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71852,7 +71852,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>195914.12</v>
+        <v>192337.74</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -71911,7 +71911,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>5254.89</v>
+        <v>4954.3500000000004</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72206,7 +72206,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>991.02</v>
+        <v>827.52</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72383,7 +72383,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>436.9</v>
+        <v>380.5</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72560,7 +72560,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>238.9</v>
+        <v>2222.9</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72678,7 +72678,7 @@
         <v>23</v>
       </c>
       <c r="F1090" s="6">
-        <v>56</v>
+        <v>107.3</v>
       </c>
       <c r="G1090" s="6" t="s">
         <v>23</v>
@@ -72737,7 +72737,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>2562.2600000000002</v>
+        <v>2534.5500000000002</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16941" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17106" uniqueCount="2691">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7345,9 +7345,6 @@
     <t>G3540</t>
   </si>
   <si>
-    <t>PEGASUS STAR - EXPRESS (CHOCOLATE)</t>
-  </si>
-  <si>
     <t>TC15164</t>
   </si>
   <si>
@@ -7729,12 +7726,6 @@
     <t>TC15206</t>
   </si>
   <si>
-    <t>G3711</t>
-  </si>
-  <si>
-    <t>PERSA 10 (CINZA CLARO)</t>
-  </si>
-  <si>
     <t>TC16001</t>
   </si>
   <si>
@@ -7996,7 +7987,115 @@
     <t>TEXAS 480 C.92 (Cinza)</t>
   </si>
   <si>
-    <t>Lista Produto : 25/01/2021 09:08:04</t>
+    <t>Lista Produto : 23/03/2021 17:17:09</t>
+  </si>
+  <si>
+    <t>PEGASUS STAR-EXPRESS</t>
+  </si>
+  <si>
+    <t>G3741</t>
+  </si>
+  <si>
+    <t>PERSA 10 (Bege)</t>
+  </si>
+  <si>
+    <t>TC15223</t>
+  </si>
+  <si>
+    <t>G3712</t>
+  </si>
+  <si>
+    <t>PERSA 11 (CINZA)</t>
+  </si>
+  <si>
+    <t>TC15224</t>
+  </si>
+  <si>
+    <t>G1042</t>
+  </si>
+  <si>
+    <t>LISBON SAND (BEGE AREIA)</t>
+  </si>
+  <si>
+    <t>TC15225</t>
+  </si>
+  <si>
+    <t>G5310</t>
+  </si>
+  <si>
+    <t>PANAMA 702 (DARK GREY)</t>
+  </si>
+  <si>
+    <t>TC15226</t>
+  </si>
+  <si>
+    <t>G3730</t>
+  </si>
+  <si>
+    <t>PERSA 27 (VERDE)</t>
+  </si>
+  <si>
+    <t>TC15227</t>
+  </si>
+  <si>
+    <t>G3740</t>
+  </si>
+  <si>
+    <t>PERSA 06 (CASTANHO)</t>
+  </si>
+  <si>
+    <t>TC15228</t>
+  </si>
+  <si>
+    <t>G3821</t>
+  </si>
+  <si>
+    <t>QUEENS STAR - OCEAN</t>
+  </si>
+  <si>
+    <t>TC15229</t>
+  </si>
+  <si>
+    <t>G1212</t>
+  </si>
+  <si>
+    <t>RONDA 99 (Dark Grey)</t>
+  </si>
+  <si>
+    <t>TC15230</t>
+  </si>
+  <si>
+    <t>G2140</t>
+  </si>
+  <si>
+    <t>SAWANA 27 (KHAKI)</t>
+  </si>
+  <si>
+    <t>TC15231</t>
+  </si>
+  <si>
+    <t>G2180</t>
+  </si>
+  <si>
+    <t>SAWANA 61 (ROSE)</t>
+  </si>
+  <si>
+    <t>TC15232</t>
+  </si>
+  <si>
+    <t>G2121</t>
+  </si>
+  <si>
+    <t>SAWANA 72 (TEAL)</t>
+  </si>
+  <si>
+    <t>TC16011</t>
+  </si>
+  <si>
+    <t>V0570</t>
+  </si>
+  <si>
+    <t>RIVIERA 51 (LARANJA)</t>
   </si>
 </sst>
 </file>
@@ -8163,8 +8262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1131" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1142" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1142"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8453,10 +8552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1131"/>
+  <dimension ref="A1:S1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8507,7 +8606,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10138,7 +10237,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>33670.800000000003</v>
+        <v>13997.7</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10197,7 +10296,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>4825.45</v>
+        <v>3946.36</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10610,7 +10709,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>5873.55</v>
+        <v>1591.92</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10669,7 +10768,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>4451.2</v>
+        <v>5032.2</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -10964,7 +11063,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>2565.42</v>
+        <v>2453.1</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11318,7 +11417,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>17749.900000000001</v>
+        <v>16757.55</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11436,7 +11535,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>4048</v>
+        <v>3712</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11495,7 +11594,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>31146.47</v>
+        <v>26329.49</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11554,7 +11653,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>1888.35</v>
+        <v>2242.5300000000002</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11613,7 +11712,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>1804.24</v>
+        <v>196.84</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -12085,7 +12184,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>78.400000000000006</v>
+        <v>77.62</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12144,7 +12243,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>12315.56</v>
+        <v>9225.34</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12203,7 +12302,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>1055.6600000000001</v>
+        <v>306.81</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12262,7 +12361,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>2162.4</v>
+        <v>638.55999999999995</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12321,7 +12420,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>481.85</v>
+        <v>119.35</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12439,7 +12538,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>5237.6899999999996</v>
+        <v>5156.0600000000004</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12616,7 +12715,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>13608.24</v>
+        <v>2125.12</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12637,7 +12736,7 @@
         <v>23</v>
       </c>
       <c r="M72" s="6">
-        <v>2.1800000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="N72" s="6">
         <v>0</v>
@@ -12675,7 +12774,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>3778.1</v>
+        <v>10003.030000000001</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -12970,7 +13069,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>40</v>
+        <v>21996</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13014,22 +13113,22 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F79" s="6">
-        <v>0</v>
+        <v>3632</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>23</v>
@@ -13047,10 +13146,10 @@
         <v>21</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M79" s="6">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="N79" s="6">
         <v>0</v>
@@ -13062,7 +13161,7 @@
         <v>21</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="R79" s="6" t="s">
         <v>23</v>
@@ -13073,22 +13172,22 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="6">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>23</v>
@@ -13106,10 +13205,10 @@
         <v>21</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M80" s="6">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="N80" s="6">
         <v>0</v>
@@ -13121,7 +13220,7 @@
         <v>21</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>23</v>
@@ -13132,22 +13231,22 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>1007.02</v>
+        <v>1315.43</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -13180,7 +13279,7 @@
         <v>21</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="R81" s="6" t="s">
         <v>23</v>
@@ -23472,7 +23571,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>1405.3</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -23531,7 +23630,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1321.4</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24003,7 +24102,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>5797.9</v>
+        <v>1413.5</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24357,7 +24456,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="6">
-        <v>26.2</v>
+        <v>1</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>23</v>
@@ -24652,7 +24751,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>5409.9</v>
+        <v>4139.2</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -25124,7 +25223,7 @@
         <v>23</v>
       </c>
       <c r="F284" s="6">
-        <v>1943.47</v>
+        <v>1770.55</v>
       </c>
       <c r="G284" s="6" t="s">
         <v>23</v>
@@ -25773,7 +25872,7 @@
         <v>23</v>
       </c>
       <c r="F295" s="6">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="G295" s="6" t="s">
         <v>23</v>
@@ -25794,7 +25893,7 @@
         <v>23</v>
       </c>
       <c r="M295" s="6">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="N295" s="6">
         <v>0</v>
@@ -26068,7 +26167,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>6918.47</v>
+        <v>7828.39</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26127,7 +26226,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>252.25</v>
+        <v>2714.25</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -26422,7 +26521,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="6">
-        <v>406</v>
+        <v>826.67</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>23</v>
@@ -27130,7 +27229,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>7517.45</v>
+        <v>3759</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27189,7 +27288,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1939.75</v>
+        <v>1813.34</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -27366,7 +27465,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="6">
-        <v>1109.3499999999999</v>
+        <v>1101.0999999999999</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>23</v>
@@ -27484,7 +27583,7 @@
         <v>23</v>
       </c>
       <c r="F324" s="6">
-        <v>938.9</v>
+        <v>852.3</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>23</v>
@@ -27838,7 +27937,7 @@
         <v>23</v>
       </c>
       <c r="F330" s="6">
-        <v>2920.2</v>
+        <v>2818.32</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>23</v>
@@ -28015,7 +28114,7 @@
         <v>23</v>
       </c>
       <c r="F333" s="6">
-        <v>13096</v>
+        <v>13010.9</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>23</v>
@@ -28133,7 +28232,7 @@
         <v>23</v>
       </c>
       <c r="F335" s="6">
-        <v>5613.3</v>
+        <v>3804.66</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>23</v>
@@ -28605,7 +28704,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="6">
-        <v>0</v>
+        <v>741.1</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>23</v>
@@ -28664,7 +28763,7 @@
         <v>23</v>
       </c>
       <c r="F344" s="6">
-        <v>353</v>
+        <v>168.95</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>23</v>
@@ -28685,7 +28784,7 @@
         <v>23</v>
       </c>
       <c r="M344" s="6">
-        <v>3.88</v>
+        <v>3.3</v>
       </c>
       <c r="N344" s="6">
         <v>0</v>
@@ -29018,7 +29117,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>2319.25</v>
+        <v>2206.1</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -29254,7 +29353,7 @@
         <v>23</v>
       </c>
       <c r="F354" s="6">
-        <v>42.5</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>23</v>
@@ -29549,7 +29648,7 @@
         <v>23</v>
       </c>
       <c r="F359" s="6">
-        <v>238.13</v>
+        <v>222.36</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>23</v>
@@ -29667,7 +29766,7 @@
         <v>23</v>
       </c>
       <c r="F361" s="6">
-        <v>391.12</v>
+        <v>389.86</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>23</v>
@@ -29903,7 +30002,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>116.28</v>
+        <v>3711.25</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -29924,7 +30023,7 @@
         <v>23</v>
       </c>
       <c r="M365" s="6">
-        <v>2.83</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="N365" s="6">
         <v>0</v>
@@ -29962,7 +30061,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>704.64</v>
+        <v>4934</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30434,7 +30533,7 @@
         <v>23</v>
       </c>
       <c r="F374" s="6">
-        <v>1118.06</v>
+        <v>1088.21</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>23</v>
@@ -30493,7 +30592,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1852.68</v>
+        <v>1583.85</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30611,7 +30710,7 @@
         <v>23</v>
       </c>
       <c r="F377" s="6">
-        <v>87.55</v>
+        <v>278.14999999999998</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>23</v>
@@ -30847,7 +30946,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>56</v>
+        <v>53.7</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -30906,7 +31005,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>502.52</v>
+        <v>475.73</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -31024,7 +31123,7 @@
         <v>23</v>
       </c>
       <c r="F384" s="6">
-        <v>8.1</v>
+        <v>6.05</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>23</v>
@@ -31142,7 +31241,7 @@
         <v>23</v>
       </c>
       <c r="F386" s="6">
-        <v>959.3</v>
+        <v>2444.1999999999998</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>23</v>
@@ -31378,7 +31477,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>3553.53</v>
+        <v>3054.65</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31437,7 +31536,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>722.38</v>
+        <v>489.26</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31496,7 +31595,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1974.92</v>
+        <v>1892.22</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31614,7 +31713,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>153.1</v>
+        <v>66.62</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31673,7 +31772,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7987.54</v>
+        <v>7880.01</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -31732,7 +31831,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>2427.79</v>
+        <v>5317.36</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31791,7 +31890,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>3370.24</v>
+        <v>7334.54</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31850,7 +31949,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>452.16</v>
+        <v>4889.26</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -31909,7 +32008,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>1985.62</v>
+        <v>5281.81</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -31968,7 +32067,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>1080.0999999999999</v>
+        <v>3327.02</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32027,7 +32126,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1394.43</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32086,7 +32185,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>850.45</v>
+        <v>765.86</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32145,7 +32244,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>2402.61</v>
+        <v>2198.2399999999998</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32204,7 +32303,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>100.72</v>
+        <v>2237.36</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32322,7 +32421,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>1976.75</v>
+        <v>341.73</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32381,7 +32480,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1389.95</v>
+        <v>1279.5</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32440,7 +32539,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>1264.1500000000001</v>
+        <v>975.17499999999995</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32499,7 +32598,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>4571.16</v>
+        <v>2564.7600000000002</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32558,7 +32657,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>3247.94</v>
+        <v>1224.68</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32617,7 +32716,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>681.31</v>
+        <v>310.48</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32676,7 +32775,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>802.4</v>
+        <v>764.8</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32735,7 +32834,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>745.33</v>
+        <v>633.57000000000005</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32794,7 +32893,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>414.48</v>
+        <v>317.49</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33030,7 +33129,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>445.2</v>
+        <v>80.97</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33148,7 +33247,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="6">
-        <v>2574.1</v>
+        <v>2544.2600000000002</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>23</v>
@@ -33207,7 +33306,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>752.7</v>
+        <v>1882.86</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33325,7 +33424,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>459.1</v>
+        <v>2077.25</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33384,7 +33483,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>36.340000000000003</v>
+        <v>32.56</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33443,7 +33542,7 @@
         <v>23</v>
       </c>
       <c r="F425" s="6">
-        <v>74.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="G425" s="6" t="s">
         <v>23</v>
@@ -33502,7 +33601,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1543.94</v>
+        <v>1389.29</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33561,7 +33660,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>2414.36</v>
+        <v>3128.26</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33620,7 +33719,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>566.23</v>
+        <v>644.46</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33679,7 +33778,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>35996.04</v>
+        <v>19181.07</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33738,7 +33837,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3328.05</v>
+        <v>3321.55</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -33856,7 +33955,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>926.2</v>
+        <v>682.05</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -33915,7 +34014,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>1107.21</v>
+        <v>1000.76</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -34151,7 +34250,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>505.74</v>
+        <v>403.19</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -34210,7 +34309,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1246.6400000000001</v>
+        <v>1207.18</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -34741,7 +34840,7 @@
         <v>23</v>
       </c>
       <c r="F447" s="6">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="G447" s="6" t="s">
         <v>23</v>
@@ -34800,7 +34899,7 @@
         <v>23</v>
       </c>
       <c r="F448" s="6">
-        <v>93.35</v>
+        <v>90.35</v>
       </c>
       <c r="G448" s="6" t="s">
         <v>23</v>
@@ -34859,7 +34958,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>1282.49</v>
+        <v>1280.4000000000001</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -57161,7 +57260,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="6">
-        <v>184.95</v>
+        <v>152.05000000000001</v>
       </c>
       <c r="G827" s="6" t="s">
         <v>23</v>
@@ -59462,7 +59561,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1478.54</v>
+        <v>904.4</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59639,7 +59738,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>29068.94</v>
+        <v>23501.37</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60406,7 +60505,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>96203.25</v>
+        <v>86296.56</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60465,7 +60564,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>30244.87</v>
+        <v>33691.83</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60524,7 +60623,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>51215.47</v>
+        <v>36210.400000000001</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60583,7 +60682,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>13954.1</v>
+        <v>11526.66</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60642,7 +60741,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>7725.3</v>
+        <v>6708.3</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61586,7 +61685,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>5559</v>
+        <v>4907.88</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61763,7 +61862,7 @@
         <v>23</v>
       </c>
       <c r="F905" s="6">
-        <v>292.5</v>
+        <v>58.11</v>
       </c>
       <c r="G905" s="6" t="s">
         <v>23</v>
@@ -61822,7 +61921,7 @@
         <v>23</v>
       </c>
       <c r="F906" s="6">
-        <v>524.1</v>
+        <v>464</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>23</v>
@@ -61881,7 +61980,7 @@
         <v>23</v>
       </c>
       <c r="F907" s="6">
-        <v>3031.35</v>
+        <v>2971.25</v>
       </c>
       <c r="G907" s="6" t="s">
         <v>23</v>
@@ -61999,7 +62098,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1779</v>
+        <v>1473.9</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62058,7 +62157,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>6350.76</v>
+        <v>3010.28</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62176,7 +62275,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>3899.51</v>
+        <v>3508.95</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62235,7 +62334,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>4302.05</v>
+        <v>4101.09</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62294,7 +62393,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>2094.1999999999998</v>
+        <v>1121.9000000000001</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62315,7 +62414,7 @@
         <v>23</v>
       </c>
       <c r="M914" s="6">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N914" s="6">
         <v>0</v>
@@ -62471,7 +62570,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>254.47</v>
+        <v>387.59</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -62492,7 +62591,7 @@
         <v>23</v>
       </c>
       <c r="M917" s="6">
-        <v>4.25</v>
+        <v>3.93</v>
       </c>
       <c r="N917" s="6">
         <v>0</v>
@@ -62589,7 +62688,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3844.48</v>
+        <v>3648.56</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62766,7 +62865,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1060.42</v>
+        <v>1236.74</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63061,7 +63160,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>20897.38</v>
+        <v>8921.7199999999993</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63179,7 +63278,7 @@
         <v>23</v>
       </c>
       <c r="F929" s="6">
-        <v>13275.46</v>
+        <v>9587.42</v>
       </c>
       <c r="G929" s="6" t="s">
         <v>23</v>
@@ -63356,7 +63455,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>143</v>
+        <v>198.45</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63474,7 +63573,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>1003.1</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -63769,7 +63868,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>208.05</v>
+        <v>648.48</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -63790,7 +63889,7 @@
         <v>23</v>
       </c>
       <c r="M939" s="6">
-        <v>4.25</v>
+        <v>3.93</v>
       </c>
       <c r="N939" s="6">
         <v>0</v>
@@ -63828,7 +63927,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>4040.9</v>
+        <v>2989.9</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -63946,7 +64045,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>782.8</v>
+        <v>272.98</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64005,7 +64104,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>507.51</v>
+        <v>211.41</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64064,7 +64163,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>534.47</v>
+        <v>890.45</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64085,7 +64184,7 @@
         <v>23</v>
       </c>
       <c r="M944" s="6">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="N944" s="6">
         <v>0</v>
@@ -64123,7 +64222,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>2827.36</v>
+        <v>1932.02</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64182,7 +64281,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>21093.25</v>
+        <v>5573.53</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64300,7 +64399,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>10</v>
+        <v>2633</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64477,7 +64576,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>3373.99</v>
+        <v>2943.32</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64536,7 +64635,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>1710.18</v>
+        <v>4222.4799999999996</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64595,7 +64694,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>461.72</v>
+        <v>807.54</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64654,7 +64753,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>367.5</v>
+        <v>359.75</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -64772,7 +64871,7 @@
         <v>23</v>
       </c>
       <c r="F956" s="6">
-        <v>1024.5</v>
+        <v>3042.4</v>
       </c>
       <c r="G956" s="6" t="s">
         <v>23</v>
@@ -64831,7 +64930,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>198.9</v>
+        <v>1292.73</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65067,7 +65166,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>208.4</v>
+        <v>47.72</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65185,7 +65284,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>1627.6</v>
+        <v>1281.54</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -67368,7 +67467,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>3303.15</v>
+        <v>4095.57</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -67427,7 +67526,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>15859</v>
+        <v>17905.95</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67545,7 +67644,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3626.5</v>
+        <v>3514.7</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67604,7 +67703,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>737.1</v>
+        <v>603.6</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67722,7 +67821,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>4448.95</v>
+        <v>2588.8000000000002</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67840,7 +67939,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>711.27</v>
+        <v>933.17</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -67958,7 +68057,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>177.71</v>
+        <v>132.71</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68194,7 +68293,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>6175.12</v>
+        <v>3719.78</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68253,7 +68352,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>361.28</v>
+        <v>4905.4399999999996</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68371,7 +68470,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>2837.06</v>
+        <v>1030.7</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68430,7 +68529,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>226.59</v>
+        <v>1331.18</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68489,7 +68588,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>34.770000000000003</v>
+        <v>2074.23</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68548,7 +68647,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1292.32</v>
+        <v>788.51</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68607,7 +68706,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>369.46</v>
+        <v>1101.1600000000001</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68666,7 +68765,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>2534.9299999999998</v>
+        <v>6737.93</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68725,7 +68824,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>5827.56</v>
+        <v>4990.78</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68784,7 +68883,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>16751.84</v>
+        <v>12264.51</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -68961,7 +69060,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>6617.29</v>
+        <v>5333.56</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69020,7 +69119,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>491.55</v>
+        <v>1186.1500000000001</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69079,7 +69178,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>782.25</v>
+        <v>935.07</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69138,7 +69237,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>1806.95</v>
+        <v>282.39</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69197,7 +69296,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>1372.09</v>
+        <v>1091.25</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69256,7 +69355,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>442.75</v>
+        <v>325.26</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69315,7 +69414,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>764.68</v>
+        <v>2474.5500000000002</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69374,7 +69473,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>523.5</v>
+        <v>1106.98</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69433,7 +69532,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>9157.7000000000007</v>
+        <v>8322.58</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69492,7 +69591,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>2880.4</v>
+        <v>3026.69</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69551,7 +69650,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>5890.4</v>
+        <v>1675.15</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69610,7 +69709,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>1665.74</v>
+        <v>2164.4</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69669,7 +69768,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>585.70000000000005</v>
+        <v>2680.43</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69728,7 +69827,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>1261.9000000000001</v>
+        <v>1808.37</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -69846,7 +69945,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>988.65</v>
+        <v>608.79999999999995</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -69964,7 +70063,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>1469.6</v>
+        <v>863.7</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -70082,7 +70181,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>570.11</v>
+        <v>558.58000000000004</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70495,7 +70594,7 @@
         <v>23</v>
       </c>
       <c r="F1053" s="6">
-        <v>118.87</v>
+        <v>22</v>
       </c>
       <c r="G1053" s="6" t="s">
         <v>23</v>
@@ -70613,7 +70712,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>179.19</v>
+        <v>203.59</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -70731,7 +70830,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>1925.6</v>
+        <v>2435.63</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70849,7 +70948,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>14430.85</v>
+        <v>19637.419999999998</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -70908,7 +71007,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>12226.65</v>
+        <v>20041.560000000001</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -70967,7 +71066,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>299.75</v>
+        <v>208.72</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71020,13 +71119,13 @@
         <v>2439</v>
       </c>
       <c r="D1062" s="5" t="s">
-        <v>2440</v>
+        <v>2655</v>
       </c>
       <c r="E1062" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>3042.43</v>
+        <v>4036.66</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71070,16 +71169,16 @@
     </row>
     <row r="1063" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1063" s="5" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1063" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1063" s="5" t="s">
         <v>2441</v>
       </c>
-      <c r="B1063" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1063" s="5" t="s">
+      <c r="D1063" s="5" t="s">
         <v>2442</v>
-      </c>
-      <c r="D1063" s="5" t="s">
-        <v>2443</v>
       </c>
       <c r="E1063" s="6" t="s">
         <v>23</v>
@@ -71118,7 +71217,7 @@
         <v>21</v>
       </c>
       <c r="Q1063" s="5" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="R1063" s="6" t="s">
         <v>23</v>
@@ -71129,16 +71228,16 @@
     </row>
     <row r="1064" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1064" s="5" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1064" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1064" s="5" t="s">
         <v>2444</v>
       </c>
-      <c r="B1064" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1064" s="5" t="s">
+      <c r="D1064" s="5" t="s">
         <v>2445</v>
-      </c>
-      <c r="D1064" s="5" t="s">
-        <v>2446</v>
       </c>
       <c r="E1064" s="6" t="s">
         <v>23</v>
@@ -71177,7 +71276,7 @@
         <v>21</v>
       </c>
       <c r="Q1064" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="R1064" s="6" t="s">
         <v>23</v>
@@ -71188,22 +71287,22 @@
     </row>
     <row r="1065" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1065" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1065" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1065" s="5" t="s">
         <v>2447</v>
       </c>
-      <c r="B1065" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1065" s="5" t="s">
+      <c r="D1065" s="5" t="s">
         <v>2448</v>
       </c>
-      <c r="D1065" s="5" t="s">
-        <v>2449</v>
-      </c>
       <c r="E1065" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>319.14999999999998</v>
+        <v>814.95</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71236,7 +71335,7 @@
         <v>21</v>
       </c>
       <c r="Q1065" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="R1065" s="6" t="s">
         <v>23</v>
@@ -71247,16 +71346,16 @@
     </row>
     <row r="1066" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1066" s="5" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1066" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1066" s="5" t="s">
         <v>2450</v>
       </c>
-      <c r="B1066" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1066" s="5" t="s">
+      <c r="D1066" s="5" t="s">
         <v>2451</v>
-      </c>
-      <c r="D1066" s="5" t="s">
-        <v>2452</v>
       </c>
       <c r="E1066" s="6" t="s">
         <v>23</v>
@@ -71295,7 +71394,7 @@
         <v>21</v>
       </c>
       <c r="Q1066" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="R1066" s="6" t="s">
         <v>23</v>
@@ -71306,16 +71405,16 @@
     </row>
     <row r="1067" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1067" s="5" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1067" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1067" s="5" t="s">
         <v>2453</v>
       </c>
-      <c r="B1067" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1067" s="5" t="s">
+      <c r="D1067" s="5" t="s">
         <v>2454</v>
-      </c>
-      <c r="D1067" s="5" t="s">
-        <v>2455</v>
       </c>
       <c r="E1067" s="6" t="s">
         <v>23</v>
@@ -71354,7 +71453,7 @@
         <v>21</v>
       </c>
       <c r="Q1067" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="R1067" s="6" t="s">
         <v>23</v>
@@ -71365,22 +71464,22 @@
     </row>
     <row r="1068" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1068" s="5" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1068" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1068" s="5" t="s">
         <v>2456</v>
       </c>
-      <c r="B1068" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1068" s="5" t="s">
+      <c r="D1068" s="5" t="s">
         <v>2457</v>
       </c>
-      <c r="D1068" s="5" t="s">
-        <v>2458</v>
-      </c>
       <c r="E1068" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>23510.97</v>
+        <v>8325.58</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71413,7 +71512,7 @@
         <v>21</v>
       </c>
       <c r="Q1068" s="5" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="R1068" s="6" t="s">
         <v>23</v>
@@ -71424,16 +71523,16 @@
     </row>
     <row r="1069" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1069" s="5" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1069" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1069" s="5" t="s">
         <v>2459</v>
       </c>
-      <c r="B1069" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1069" s="5" t="s">
+      <c r="D1069" s="5" t="s">
         <v>2460</v>
-      </c>
-      <c r="D1069" s="5" t="s">
-        <v>2461</v>
       </c>
       <c r="E1069" s="6" t="s">
         <v>23</v>
@@ -71472,7 +71571,7 @@
         <v>21</v>
       </c>
       <c r="Q1069" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="R1069" s="6" t="s">
         <v>23</v>
@@ -71483,16 +71582,16 @@
     </row>
     <row r="1070" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1070" s="5" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1070" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1070" s="5" t="s">
         <v>2462</v>
       </c>
-      <c r="B1070" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1070" s="5" t="s">
+      <c r="D1070" s="5" t="s">
         <v>2463</v>
-      </c>
-      <c r="D1070" s="5" t="s">
-        <v>2464</v>
       </c>
       <c r="E1070" s="6" t="s">
         <v>23</v>
@@ -71531,7 +71630,7 @@
         <v>21</v>
       </c>
       <c r="Q1070" s="5" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="R1070" s="6" t="s">
         <v>23</v>
@@ -71542,16 +71641,16 @@
     </row>
     <row r="1071" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1071" s="5" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1071" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1071" s="5" t="s">
         <v>2465</v>
       </c>
-      <c r="B1071" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1071" s="5" t="s">
+      <c r="D1071" s="5" t="s">
         <v>2466</v>
-      </c>
-      <c r="D1071" s="5" t="s">
-        <v>2467</v>
       </c>
       <c r="E1071" s="6" t="s">
         <v>23</v>
@@ -71590,7 +71689,7 @@
         <v>21</v>
       </c>
       <c r="Q1071" s="5" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="R1071" s="6" t="s">
         <v>23</v>
@@ -71601,22 +71700,22 @@
     </row>
     <row r="1072" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1072" s="5" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B1072" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1072" s="5" t="s">
         <v>2468</v>
       </c>
-      <c r="B1072" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1072" s="5" t="s">
+      <c r="D1072" s="5" t="s">
         <v>2469</v>
       </c>
-      <c r="D1072" s="5" t="s">
-        <v>2470</v>
-      </c>
       <c r="E1072" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>10866.53</v>
+        <v>12277.16</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71649,7 +71748,7 @@
         <v>21</v>
       </c>
       <c r="Q1072" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="R1072" s="6" t="s">
         <v>23</v>
@@ -71660,22 +71759,22 @@
     </row>
     <row r="1073" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1073" s="5" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1073" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1073" s="5" t="s">
         <v>2471</v>
       </c>
-      <c r="B1073" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1073" s="5" t="s">
+      <c r="D1073" s="5" t="s">
         <v>2472</v>
       </c>
-      <c r="D1073" s="5" t="s">
-        <v>2473</v>
-      </c>
       <c r="E1073" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>1167.1500000000001</v>
+        <v>227.7</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71708,7 +71807,7 @@
         <v>21</v>
       </c>
       <c r="Q1073" s="5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="R1073" s="6" t="s">
         <v>23</v>
@@ -71719,22 +71818,22 @@
     </row>
     <row r="1074" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1074" s="5" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B1074" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1074" s="5" t="s">
         <v>2474</v>
       </c>
-      <c r="B1074" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1074" s="5" t="s">
+      <c r="D1074" s="5" t="s">
         <v>2475</v>
       </c>
-      <c r="D1074" s="5" t="s">
-        <v>2476</v>
-      </c>
       <c r="E1074" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>18315.580000000002</v>
+        <v>16329.27</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71767,7 +71866,7 @@
         <v>21</v>
       </c>
       <c r="Q1074" s="5" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="R1074" s="6" t="s">
         <v>23</v>
@@ -71778,22 +71877,22 @@
     </row>
     <row r="1075" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1075" s="5" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1075" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1075" s="5" t="s">
         <v>2477</v>
       </c>
-      <c r="B1075" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1075" s="5" t="s">
+      <c r="D1075" s="5" t="s">
         <v>2478</v>
       </c>
-      <c r="D1075" s="5" t="s">
-        <v>2479</v>
-      </c>
       <c r="E1075" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>20890.599999999999</v>
+        <v>13976.61</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71826,7 +71925,7 @@
         <v>21</v>
       </c>
       <c r="Q1075" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="R1075" s="6" t="s">
         <v>23</v>
@@ -71837,22 +71936,22 @@
     </row>
     <row r="1076" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1076" s="5" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B1076" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1076" s="5" t="s">
         <v>2480</v>
       </c>
-      <c r="B1076" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1076" s="5" t="s">
+      <c r="D1076" s="5" t="s">
         <v>2481</v>
       </c>
-      <c r="D1076" s="5" t="s">
-        <v>2482</v>
-      </c>
       <c r="E1076" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>192337.74</v>
+        <v>147780.13</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -71885,7 +71984,7 @@
         <v>21</v>
       </c>
       <c r="Q1076" s="5" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="R1076" s="6" t="s">
         <v>23</v>
@@ -71896,22 +71995,22 @@
     </row>
     <row r="1077" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1077" s="5" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1077" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1077" s="5" t="s">
         <v>2483</v>
       </c>
-      <c r="B1077" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1077" s="5" t="s">
+      <c r="D1077" s="5" t="s">
         <v>2484</v>
       </c>
-      <c r="D1077" s="5" t="s">
-        <v>2485</v>
-      </c>
       <c r="E1077" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>4954.3500000000004</v>
+        <v>2244.21</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -71944,7 +72043,7 @@
         <v>21</v>
       </c>
       <c r="Q1077" s="5" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="R1077" s="6" t="s">
         <v>23</v>
@@ -71955,22 +72054,22 @@
     </row>
     <row r="1078" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1078" s="5" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1078" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1078" s="5" t="s">
         <v>2486</v>
       </c>
-      <c r="B1078" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1078" s="5" t="s">
+      <c r="D1078" s="5" t="s">
         <v>2487</v>
       </c>
-      <c r="D1078" s="5" t="s">
-        <v>2488</v>
-      </c>
       <c r="E1078" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>59084.73</v>
+        <v>36125.07</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72003,7 +72102,7 @@
         <v>21</v>
       </c>
       <c r="Q1078" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="R1078" s="6" t="s">
         <v>23</v>
@@ -72014,22 +72113,22 @@
     </row>
     <row r="1079" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1079" s="5" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1079" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1079" s="5" t="s">
         <v>2489</v>
       </c>
-      <c r="B1079" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1079" s="5" t="s">
+      <c r="D1079" s="5" t="s">
         <v>2490</v>
       </c>
-      <c r="D1079" s="5" t="s">
-        <v>2491</v>
-      </c>
       <c r="E1079" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>1917.49</v>
+        <v>1181.31</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72062,7 +72161,7 @@
         <v>21</v>
       </c>
       <c r="Q1079" s="5" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="R1079" s="6" t="s">
         <v>23</v>
@@ -72073,16 +72172,16 @@
     </row>
     <row r="1080" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1080" s="5" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B1080" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1080" s="5" t="s">
         <v>2492</v>
       </c>
-      <c r="B1080" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1080" s="5" t="s">
+      <c r="D1080" s="5" t="s">
         <v>2493</v>
-      </c>
-      <c r="D1080" s="5" t="s">
-        <v>2494</v>
       </c>
       <c r="E1080" s="6" t="s">
         <v>23</v>
@@ -72121,7 +72220,7 @@
         <v>21</v>
       </c>
       <c r="Q1080" s="5" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="R1080" s="6" t="s">
         <v>23</v>
@@ -72132,16 +72231,16 @@
     </row>
     <row r="1081" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1081" s="5" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B1081" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" s="5" t="s">
         <v>2495</v>
       </c>
-      <c r="B1081" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1081" s="5" t="s">
+      <c r="D1081" s="5" t="s">
         <v>2496</v>
-      </c>
-      <c r="D1081" s="5" t="s">
-        <v>2497</v>
       </c>
       <c r="E1081" s="6" t="s">
         <v>23</v>
@@ -72180,7 +72279,7 @@
         <v>21</v>
       </c>
       <c r="Q1081" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R1081" s="6" t="s">
         <v>23</v>
@@ -72191,22 +72290,22 @@
     </row>
     <row r="1082" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1082" s="5" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B1082" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1082" s="5" t="s">
         <v>2498</v>
       </c>
-      <c r="B1082" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1082" s="5" t="s">
+      <c r="D1082" s="5" t="s">
         <v>2499</v>
       </c>
-      <c r="D1082" s="5" t="s">
-        <v>2500</v>
-      </c>
       <c r="E1082" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>827.52</v>
+        <v>734.12</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72239,7 +72338,7 @@
         <v>21</v>
       </c>
       <c r="Q1082" s="5" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="R1082" s="6" t="s">
         <v>23</v>
@@ -72250,22 +72349,22 @@
     </row>
     <row r="1083" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1083" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1083" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1083" s="5" t="s">
         <v>2501</v>
       </c>
-      <c r="B1083" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1083" s="5" t="s">
+      <c r="D1083" s="5" t="s">
         <v>2502</v>
       </c>
-      <c r="D1083" s="5" t="s">
-        <v>2503</v>
-      </c>
       <c r="E1083" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1083" s="6">
-        <v>443</v>
+        <v>415.52</v>
       </c>
       <c r="G1083" s="6" t="s">
         <v>23</v>
@@ -72298,7 +72397,7 @@
         <v>21</v>
       </c>
       <c r="Q1083" s="5" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="R1083" s="6" t="s">
         <v>23</v>
@@ -72309,16 +72408,16 @@
     </row>
     <row r="1084" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1084" s="5" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B1084" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1084" s="5" t="s">
         <v>2504</v>
       </c>
-      <c r="B1084" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1084" s="5" t="s">
+      <c r="D1084" s="5" t="s">
         <v>2505</v>
-      </c>
-      <c r="D1084" s="5" t="s">
-        <v>2506</v>
       </c>
       <c r="E1084" s="6" t="s">
         <v>23</v>
@@ -72357,7 +72456,7 @@
         <v>21</v>
       </c>
       <c r="Q1084" s="5" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="R1084" s="6" t="s">
         <v>23</v>
@@ -72368,22 +72467,22 @@
     </row>
     <row r="1085" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1085" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1085" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1085" s="5" t="s">
         <v>2507</v>
       </c>
-      <c r="B1085" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1085" s="5" t="s">
+      <c r="D1085" s="5" t="s">
         <v>2508</v>
       </c>
-      <c r="D1085" s="5" t="s">
-        <v>2509</v>
-      </c>
       <c r="E1085" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>380.5</v>
+        <v>238.02</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72416,7 +72515,7 @@
         <v>21</v>
       </c>
       <c r="Q1085" s="5" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="R1085" s="6" t="s">
         <v>23</v>
@@ -72427,16 +72526,16 @@
     </row>
     <row r="1086" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1086" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B1086" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1086" s="5" t="s">
         <v>2510</v>
       </c>
-      <c r="B1086" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1086" s="5" t="s">
+      <c r="D1086" s="5" t="s">
         <v>2511</v>
-      </c>
-      <c r="D1086" s="5" t="s">
-        <v>2512</v>
       </c>
       <c r="E1086" s="6" t="s">
         <v>23</v>
@@ -72475,7 +72574,7 @@
         <v>21</v>
       </c>
       <c r="Q1086" s="5" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="R1086" s="6" t="s">
         <v>23</v>
@@ -72486,22 +72585,22 @@
     </row>
     <row r="1087" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1087" s="5" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1087" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1087" s="5" t="s">
         <v>2513</v>
       </c>
-      <c r="B1087" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1087" s="5" t="s">
+      <c r="D1087" s="5" t="s">
         <v>2514</v>
       </c>
-      <c r="D1087" s="5" t="s">
-        <v>2515</v>
-      </c>
       <c r="E1087" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1087" s="6">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G1087" s="6" t="s">
         <v>23</v>
@@ -72534,7 +72633,7 @@
         <v>21</v>
       </c>
       <c r="Q1087" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="R1087" s="6" t="s">
         <v>23</v>
@@ -72545,22 +72644,22 @@
     </row>
     <row r="1088" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1088" s="5" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1088" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1088" s="5" t="s">
         <v>2516</v>
       </c>
-      <c r="B1088" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1088" s="5" t="s">
+      <c r="D1088" s="5" t="s">
         <v>2517</v>
       </c>
-      <c r="D1088" s="5" t="s">
-        <v>2518</v>
-      </c>
       <c r="E1088" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>2222.9</v>
+        <v>421.5</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72593,7 +72692,7 @@
         <v>21</v>
       </c>
       <c r="Q1088" s="5" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="R1088" s="6" t="s">
         <v>23</v>
@@ -72604,22 +72703,22 @@
     </row>
     <row r="1089" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1089" s="5" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1089" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1089" s="5" t="s">
         <v>2519</v>
       </c>
-      <c r="B1089" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1089" s="5" t="s">
+      <c r="D1089" s="5" t="s">
         <v>2520</v>
       </c>
-      <c r="D1089" s="5" t="s">
-        <v>2521</v>
-      </c>
       <c r="E1089" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>10.5</v>
+        <v>2506.85</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72652,7 +72751,7 @@
         <v>21</v>
       </c>
       <c r="Q1089" s="5" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="R1089" s="6" t="s">
         <v>23</v>
@@ -72663,22 +72762,22 @@
     </row>
     <row r="1090" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1090" s="5" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1090" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1090" s="5" t="s">
         <v>2522</v>
       </c>
-      <c r="B1090" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1090" s="5" t="s">
+      <c r="D1090" s="5" t="s">
         <v>2523</v>
       </c>
-      <c r="D1090" s="5" t="s">
-        <v>2524</v>
-      </c>
       <c r="E1090" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1090" s="6">
-        <v>107.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G1090" s="6" t="s">
         <v>23</v>
@@ -72699,7 +72798,7 @@
         <v>23</v>
       </c>
       <c r="M1090" s="6">
-        <v>4.75</v>
+        <v>3.35</v>
       </c>
       <c r="N1090" s="6">
         <v>0</v>
@@ -72711,7 +72810,7 @@
         <v>21</v>
       </c>
       <c r="Q1090" s="5" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="R1090" s="6" t="s">
         <v>23</v>
@@ -72722,22 +72821,22 @@
     </row>
     <row r="1091" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1091" s="5" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1091" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091" s="5" t="s">
         <v>2525</v>
       </c>
-      <c r="B1091" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1091" s="5" t="s">
+      <c r="D1091" s="5" t="s">
         <v>2526</v>
       </c>
-      <c r="D1091" s="5" t="s">
-        <v>2527</v>
-      </c>
       <c r="E1091" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>2534.5500000000002</v>
+        <v>1454.81</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -72770,7 +72869,7 @@
         <v>21</v>
       </c>
       <c r="Q1091" s="5" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="R1091" s="6" t="s">
         <v>23</v>
@@ -72781,16 +72880,16 @@
     </row>
     <row r="1092" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1092" s="5" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1092" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1092" s="5" t="s">
         <v>2528</v>
       </c>
-      <c r="B1092" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1092" s="5" t="s">
+      <c r="D1092" s="5" t="s">
         <v>2529</v>
-      </c>
-      <c r="D1092" s="5" t="s">
-        <v>2530</v>
       </c>
       <c r="E1092" s="6" t="s">
         <v>23</v>
@@ -72829,7 +72928,7 @@
         <v>21</v>
       </c>
       <c r="Q1092" s="5" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="R1092" s="6" t="s">
         <v>23</v>
@@ -72840,16 +72939,16 @@
     </row>
     <row r="1093" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1093" s="5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B1093" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1093" s="5" t="s">
         <v>2531</v>
       </c>
-      <c r="B1093" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1093" s="5" t="s">
+      <c r="D1093" s="5" t="s">
         <v>2532</v>
-      </c>
-      <c r="D1093" s="5" t="s">
-        <v>2533</v>
       </c>
       <c r="E1093" s="6" t="s">
         <v>23</v>
@@ -72888,7 +72987,7 @@
         <v>21</v>
       </c>
       <c r="Q1093" s="5" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="R1093" s="6" t="s">
         <v>23</v>
@@ -72899,16 +72998,16 @@
     </row>
     <row r="1094" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1094" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1094" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1094" s="5" t="s">
         <v>2534</v>
       </c>
-      <c r="B1094" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1094" s="5" t="s">
+      <c r="D1094" s="5" t="s">
         <v>2535</v>
-      </c>
-      <c r="D1094" s="5" t="s">
-        <v>2536</v>
       </c>
       <c r="E1094" s="6" t="s">
         <v>23</v>
@@ -72947,7 +73046,7 @@
         <v>21</v>
       </c>
       <c r="Q1094" s="5" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="R1094" s="6" t="s">
         <v>23</v>
@@ -72958,22 +73057,22 @@
     </row>
     <row r="1095" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1095" s="5" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B1095" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1095" s="5" t="s">
         <v>2537</v>
       </c>
-      <c r="B1095" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1095" s="5" t="s">
+      <c r="D1095" s="5" t="s">
         <v>2538</v>
       </c>
-      <c r="D1095" s="5" t="s">
-        <v>2539</v>
-      </c>
       <c r="E1095" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>299.8</v>
+        <v>1098.99</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73006,7 +73105,7 @@
         <v>21</v>
       </c>
       <c r="Q1095" s="5" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="R1095" s="6" t="s">
         <v>23</v>
@@ -73017,22 +73116,22 @@
     </row>
     <row r="1096" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1096" s="5" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1096" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1096" s="5" t="s">
         <v>2540</v>
       </c>
-      <c r="B1096" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1096" s="5" t="s">
+      <c r="D1096" s="5" t="s">
         <v>2541</v>
       </c>
-      <c r="D1096" s="5" t="s">
-        <v>2542</v>
-      </c>
       <c r="E1096" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>374.6</v>
+        <v>449.62</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73053,7 +73152,7 @@
         <v>23</v>
       </c>
       <c r="M1096" s="6">
-        <v>3.46</v>
+        <v>2.77</v>
       </c>
       <c r="N1096" s="6">
         <v>0</v>
@@ -73065,7 +73164,7 @@
         <v>21</v>
       </c>
       <c r="Q1096" s="5" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="R1096" s="6" t="s">
         <v>23</v>
@@ -73076,22 +73175,22 @@
     </row>
     <row r="1097" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1097" s="5" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B1097" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1097" s="5" t="s">
         <v>2543</v>
       </c>
-      <c r="B1097" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1097" s="5" t="s">
+      <c r="D1097" s="5" t="s">
         <v>2544</v>
       </c>
-      <c r="D1097" s="5" t="s">
-        <v>2545</v>
-      </c>
       <c r="E1097" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>3.5</v>
+        <v>49.5</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73124,7 +73223,7 @@
         <v>21</v>
       </c>
       <c r="Q1097" s="5" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="R1097" s="6" t="s">
         <v>23</v>
@@ -73135,22 +73234,22 @@
     </row>
     <row r="1098" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1098" s="5" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1098" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1098" s="5" t="s">
         <v>2546</v>
       </c>
-      <c r="B1098" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1098" s="5" t="s">
+      <c r="D1098" s="5" t="s">
         <v>2547</v>
       </c>
-      <c r="D1098" s="5" t="s">
-        <v>2548</v>
-      </c>
       <c r="E1098" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>228.53</v>
+        <v>209.65</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73183,7 +73282,7 @@
         <v>21</v>
       </c>
       <c r="Q1098" s="5" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="R1098" s="6" t="s">
         <v>23</v>
@@ -73194,22 +73293,22 @@
     </row>
     <row r="1099" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1099" s="5" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1099" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1099" s="5" t="s">
         <v>2549</v>
       </c>
-      <c r="B1099" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1099" s="5" t="s">
+      <c r="D1099" s="5" t="s">
         <v>2550</v>
       </c>
-      <c r="D1099" s="5" t="s">
-        <v>2551</v>
-      </c>
       <c r="E1099" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>182.3</v>
+        <v>58.4</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73242,7 +73341,7 @@
         <v>21</v>
       </c>
       <c r="Q1099" s="5" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="R1099" s="6" t="s">
         <v>23</v>
@@ -73253,16 +73352,16 @@
     </row>
     <row r="1100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1100" s="5" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1100" s="5" t="s">
         <v>2552</v>
       </c>
-      <c r="B1100" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1100" s="5" t="s">
+      <c r="D1100" s="5" t="s">
         <v>2553</v>
-      </c>
-      <c r="D1100" s="5" t="s">
-        <v>2554</v>
       </c>
       <c r="E1100" s="6" t="s">
         <v>23</v>
@@ -73301,7 +73400,7 @@
         <v>21</v>
       </c>
       <c r="Q1100" s="5" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="R1100" s="6" t="s">
         <v>23</v>
@@ -73312,16 +73411,16 @@
     </row>
     <row r="1101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1101" s="5" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1101" s="5" t="s">
         <v>2555</v>
       </c>
-      <c r="B1101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1101" s="5" t="s">
+      <c r="D1101" s="5" t="s">
         <v>2556</v>
-      </c>
-      <c r="D1101" s="5" t="s">
-        <v>2557</v>
       </c>
       <c r="E1101" s="6" t="s">
         <v>23</v>
@@ -73360,7 +73459,7 @@
         <v>21</v>
       </c>
       <c r="Q1101" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="R1101" s="6" t="s">
         <v>23</v>
@@ -73371,22 +73470,22 @@
     </row>
     <row r="1102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1102" s="5" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B1102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1102" s="5" t="s">
         <v>2558</v>
       </c>
-      <c r="B1102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1102" s="5" t="s">
+      <c r="D1102" s="5" t="s">
         <v>2559</v>
       </c>
-      <c r="D1102" s="5" t="s">
-        <v>2560</v>
-      </c>
       <c r="E1102" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1102" s="6">
-        <v>378.6</v>
+        <v>2366.7399999999998</v>
       </c>
       <c r="G1102" s="6" t="s">
         <v>23</v>
@@ -73407,7 +73506,7 @@
         <v>23</v>
       </c>
       <c r="M1102" s="6">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="N1102" s="6">
         <v>0</v>
@@ -73419,7 +73518,7 @@
         <v>21</v>
       </c>
       <c r="Q1102" s="5" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="R1102" s="6" t="s">
         <v>23</v>
@@ -73430,22 +73529,22 @@
     </row>
     <row r="1103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1103" s="5" t="s">
         <v>2561</v>
       </c>
-      <c r="B1103" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1103" s="5" t="s">
+      <c r="D1103" s="5" t="s">
         <v>2562</v>
       </c>
-      <c r="D1103" s="5" t="s">
-        <v>2563</v>
-      </c>
       <c r="E1103" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1103" s="6">
-        <v>966.7</v>
+        <v>1043.96</v>
       </c>
       <c r="G1103" s="6" t="s">
         <v>23</v>
@@ -73478,7 +73577,7 @@
         <v>21</v>
       </c>
       <c r="Q1103" s="5" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="R1103" s="6" t="s">
         <v>23</v>
@@ -73489,22 +73588,22 @@
     </row>
     <row r="1104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1104" s="5" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B1104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1104" s="5" t="s">
         <v>2564</v>
       </c>
-      <c r="B1104" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1104" s="5" t="s">
+      <c r="D1104" s="5" t="s">
         <v>2565</v>
       </c>
-      <c r="D1104" s="5" t="s">
-        <v>2566</v>
-      </c>
       <c r="E1104" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>986.6</v>
+        <v>3432.88</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73537,7 +73636,7 @@
         <v>21</v>
       </c>
       <c r="Q1104" s="5" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="R1104" s="6" t="s">
         <v>23</v>
@@ -73548,16 +73647,16 @@
     </row>
     <row r="1105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1105" s="5" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2568</v>
+        <v>2656</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>2569</v>
+        <v>2657</v>
       </c>
       <c r="E1105" s="6" t="s">
         <v>23</v>
@@ -73596,7 +73695,7 @@
         <v>21</v>
       </c>
       <c r="Q1105" s="5" t="s">
-        <v>2568</v>
+        <v>2656</v>
       </c>
       <c r="R1105" s="6" t="s">
         <v>23</v>
@@ -73607,16 +73706,16 @@
     </row>
     <row r="1106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1106" s="5" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="D1106" s="5" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="E1106" s="6" t="s">
         <v>23</v>
@@ -73655,7 +73754,7 @@
         <v>21</v>
       </c>
       <c r="Q1106" s="5" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="R1106" s="6" t="s">
         <v>23</v>
@@ -73666,16 +73765,16 @@
     </row>
     <row r="1107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1107" s="5" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="D1107" s="5" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="E1107" s="6" t="s">
         <v>23</v>
@@ -73714,7 +73813,7 @@
         <v>21</v>
       </c>
       <c r="Q1107" s="5" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="R1107" s="6" t="s">
         <v>23</v>
@@ -73725,22 +73824,22 @@
     </row>
     <row r="1108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1108" s="5" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="D1108" s="5" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E1108" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1108" s="6">
-        <v>486.4</v>
+        <v>425.85</v>
       </c>
       <c r="G1108" s="6" t="s">
         <v>23</v>
@@ -73773,7 +73872,7 @@
         <v>21</v>
       </c>
       <c r="Q1108" s="5" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="R1108" s="6" t="s">
         <v>23</v>
@@ -73784,16 +73883,16 @@
     </row>
     <row r="1109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="D1109" s="5" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="E1109" s="6" t="s">
         <v>23</v>
@@ -73832,7 +73931,7 @@
         <v>21</v>
       </c>
       <c r="Q1109" s="5" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="R1109" s="6" t="s">
         <v>23</v>
@@ -73843,16 +73942,16 @@
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="D1110" s="5" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="E1110" s="6" t="s">
         <v>23</v>
@@ -73891,7 +73990,7 @@
         <v>21</v>
       </c>
       <c r="Q1110" s="5" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="R1110" s="6" t="s">
         <v>23</v>
@@ -73902,16 +74001,16 @@
     </row>
     <row r="1111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="D1111" s="5" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="E1111" s="6" t="s">
         <v>23</v>
@@ -73950,7 +74049,7 @@
         <v>21</v>
       </c>
       <c r="Q1111" s="5" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="R1111" s="6" t="s">
         <v>23</v>
@@ -73961,16 +74060,16 @@
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="D1112" s="5" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>23</v>
@@ -74009,7 +74108,7 @@
         <v>21</v>
       </c>
       <c r="Q1112" s="5" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="R1112" s="6" t="s">
         <v>23</v>
@@ -74020,16 +74119,16 @@
     </row>
     <row r="1113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1113" s="5" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="B1113" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="D1113" s="5" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="E1113" s="6" t="s">
         <v>23</v>
@@ -74068,7 +74167,7 @@
         <v>21</v>
       </c>
       <c r="Q1113" s="5" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="R1113" s="6" t="s">
         <v>23</v>
@@ -74079,16 +74178,16 @@
     </row>
     <row r="1114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1114" s="5" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="B1114" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="D1114" s="5" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="E1114" s="6" t="s">
         <v>23</v>
@@ -74127,7 +74226,7 @@
         <v>21</v>
       </c>
       <c r="Q1114" s="5" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="R1114" s="6" t="s">
         <v>23</v>
@@ -74138,22 +74237,22 @@
     </row>
     <row r="1115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1115" s="5" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="D1115" s="5" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="E1115" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>161.9</v>
+        <v>73.94</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74186,7 +74285,7 @@
         <v>21</v>
       </c>
       <c r="Q1115" s="5" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="R1115" s="6" t="s">
         <v>23</v>
@@ -74197,22 +74296,22 @@
     </row>
     <row r="1116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1116" s="5" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="D1116" s="5" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="E1116" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1116" s="6">
-        <v>436.56</v>
+        <v>345.66</v>
       </c>
       <c r="G1116" s="6" t="s">
         <v>23</v>
@@ -74245,7 +74344,7 @@
         <v>21</v>
       </c>
       <c r="Q1116" s="5" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="R1116" s="6" t="s">
         <v>23</v>
@@ -74256,22 +74355,22 @@
     </row>
     <row r="1117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1117" s="5" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="D1117" s="5" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="E1117" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>162.1</v>
+        <v>311.22000000000003</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74304,7 +74403,7 @@
         <v>21</v>
       </c>
       <c r="Q1117" s="5" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="R1117" s="6" t="s">
         <v>23</v>
@@ -74315,22 +74414,22 @@
     </row>
     <row r="1118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1118" s="5" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="D1118" s="5" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="E1118" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>182.4</v>
+        <v>349.08</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -74363,7 +74462,7 @@
         <v>21</v>
       </c>
       <c r="Q1118" s="5" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="R1118" s="6" t="s">
         <v>23</v>
@@ -74374,22 +74473,22 @@
     </row>
     <row r="1119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1119" s="5" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="D1119" s="5" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="E1119" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>150.69999999999999</v>
+        <v>320.27999999999997</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -74422,7 +74521,7 @@
         <v>21</v>
       </c>
       <c r="Q1119" s="5" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="R1119" s="6" t="s">
         <v>23</v>
@@ -74433,16 +74532,16 @@
     </row>
     <row r="1120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1120" s="5" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="D1120" s="5" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="E1120" s="6" t="s">
         <v>23</v>
@@ -74469,7 +74568,7 @@
         <v>23</v>
       </c>
       <c r="M1120" s="6">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N1120" s="6">
         <v>0</v>
@@ -74481,7 +74580,7 @@
         <v>21</v>
       </c>
       <c r="Q1120" s="5" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="R1120" s="6" t="s">
         <v>23</v>
@@ -74492,22 +74591,22 @@
     </row>
     <row r="1121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1121" s="5" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="D1121" s="5" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="E1121" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>0</v>
+        <v>320.29000000000002</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -74525,10 +74624,10 @@
         <v>21</v>
       </c>
       <c r="L1121" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1121" s="6">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="N1121" s="6">
         <v>0</v>
@@ -74540,7 +74639,7 @@
         <v>21</v>
       </c>
       <c r="Q1121" s="5" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="R1121" s="6" t="s">
         <v>23</v>
@@ -74551,22 +74650,22 @@
     </row>
     <row r="1122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1122" s="5" t="s">
-        <v>2570</v>
+        <v>2658</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>2571</v>
+        <v>2659</v>
       </c>
       <c r="D1122" s="5" t="s">
-        <v>2572</v>
+        <v>2660</v>
       </c>
       <c r="E1122" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1122" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1122" s="6" t="s">
         <v>23</v>
@@ -74584,10 +74683,10 @@
         <v>21</v>
       </c>
       <c r="L1122" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1122" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1122" s="6">
         <v>0</v>
@@ -74599,7 +74698,7 @@
         <v>21</v>
       </c>
       <c r="Q1122" s="5" t="s">
-        <v>2571</v>
+        <v>2659</v>
       </c>
       <c r="R1122" s="6" t="s">
         <v>23</v>
@@ -74610,22 +74709,22 @@
     </row>
     <row r="1123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1123" s="5" t="s">
-        <v>2573</v>
+        <v>2661</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2574</v>
+        <v>2662</v>
       </c>
       <c r="D1123" s="5" t="s">
-        <v>2575</v>
+        <v>2663</v>
       </c>
       <c r="E1123" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1123" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1123" s="6" t="s">
         <v>23</v>
@@ -74643,10 +74742,10 @@
         <v>21</v>
       </c>
       <c r="L1123" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1123" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1123" s="6">
         <v>0</v>
@@ -74658,7 +74757,7 @@
         <v>21</v>
       </c>
       <c r="Q1123" s="5" t="s">
-        <v>2574</v>
+        <v>2662</v>
       </c>
       <c r="R1123" s="6" t="s">
         <v>23</v>
@@ -74669,22 +74768,22 @@
     </row>
     <row r="1124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1124" s="5" t="s">
-        <v>2576</v>
+        <v>2664</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2577</v>
+        <v>2665</v>
       </c>
       <c r="D1124" s="5" t="s">
-        <v>2578</v>
+        <v>2666</v>
       </c>
       <c r="E1124" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1124" s="6">
-        <v>114.8</v>
+        <v>79.2</v>
       </c>
       <c r="G1124" s="6" t="s">
         <v>23</v>
@@ -74705,7 +74804,7 @@
         <v>23</v>
       </c>
       <c r="M1124" s="6">
-        <v>2.65</v>
+        <v>5.39</v>
       </c>
       <c r="N1124" s="6">
         <v>0</v>
@@ -74717,7 +74816,7 @@
         <v>21</v>
       </c>
       <c r="Q1124" s="5" t="s">
-        <v>2577</v>
+        <v>2665</v>
       </c>
       <c r="R1124" s="6" t="s">
         <v>23</v>
@@ -74728,16 +74827,16 @@
     </row>
     <row r="1125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1125" s="5" t="s">
-        <v>2579</v>
+        <v>2667</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2580</v>
+        <v>2668</v>
       </c>
       <c r="D1125" s="5" t="s">
-        <v>2581</v>
+        <v>2669</v>
       </c>
       <c r="E1125" s="6" t="s">
         <v>23</v>
@@ -74776,7 +74875,7 @@
         <v>21</v>
       </c>
       <c r="Q1125" s="5" t="s">
-        <v>2580</v>
+        <v>2668</v>
       </c>
       <c r="R1125" s="6" t="s">
         <v>23</v>
@@ -74787,16 +74886,16 @@
     </row>
     <row r="1126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
-        <v>2582</v>
+        <v>2670</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2583</v>
+        <v>2671</v>
       </c>
       <c r="D1126" s="5" t="s">
-        <v>2584</v>
+        <v>2672</v>
       </c>
       <c r="E1126" s="6" t="s">
         <v>23</v>
@@ -74835,7 +74934,7 @@
         <v>21</v>
       </c>
       <c r="Q1126" s="5" t="s">
-        <v>2583</v>
+        <v>2671</v>
       </c>
       <c r="R1126" s="6" t="s">
         <v>23</v>
@@ -74846,22 +74945,22 @@
     </row>
     <row r="1127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1127" s="5" t="s">
-        <v>2585</v>
+        <v>2673</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2586</v>
+        <v>2674</v>
       </c>
       <c r="D1127" s="5" t="s">
-        <v>2587</v>
+        <v>2675</v>
       </c>
       <c r="E1127" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>56.1</v>
+        <v>130.69</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -74882,7 +74981,7 @@
         <v>23</v>
       </c>
       <c r="M1127" s="6">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="N1127" s="6">
         <v>0</v>
@@ -74894,7 +74993,7 @@
         <v>21</v>
       </c>
       <c r="Q1127" s="5" t="s">
-        <v>2586</v>
+        <v>2674</v>
       </c>
       <c r="R1127" s="6" t="s">
         <v>23</v>
@@ -74905,22 +75004,22 @@
     </row>
     <row r="1128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1128" s="5" t="s">
-        <v>2588</v>
+        <v>2676</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2589</v>
+        <v>2677</v>
       </c>
       <c r="D1128" s="5" t="s">
-        <v>2590</v>
+        <v>2678</v>
       </c>
       <c r="E1128" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1128" s="6">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G1128" s="6" t="s">
         <v>23</v>
@@ -74938,10 +75037,10 @@
         <v>21</v>
       </c>
       <c r="L1128" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1128" s="6">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N1128" s="6">
         <v>0</v>
@@ -74953,7 +75052,7 @@
         <v>21</v>
       </c>
       <c r="Q1128" s="5" t="s">
-        <v>2589</v>
+        <v>2677</v>
       </c>
       <c r="R1128" s="6" t="s">
         <v>23</v>
@@ -74964,16 +75063,16 @@
     </row>
     <row r="1129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1129" s="5" t="s">
-        <v>2591</v>
+        <v>2679</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2592</v>
+        <v>2680</v>
       </c>
       <c r="D1129" s="5" t="s">
-        <v>2593</v>
+        <v>2681</v>
       </c>
       <c r="E1129" s="6" t="s">
         <v>23</v>
@@ -74997,10 +75096,10 @@
         <v>21</v>
       </c>
       <c r="L1129" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1129" s="6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N1129" s="6">
         <v>0</v>
@@ -75012,7 +75111,7 @@
         <v>21</v>
       </c>
       <c r="Q1129" s="5" t="s">
-        <v>2592</v>
+        <v>2680</v>
       </c>
       <c r="R1129" s="6" t="s">
         <v>23</v>
@@ -75023,22 +75122,22 @@
     </row>
     <row r="1130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1130" s="5" t="s">
-        <v>2594</v>
+        <v>2682</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>2602</v>
+        <v>2683</v>
       </c>
       <c r="D1130" s="5" t="s">
-        <v>2595</v>
+        <v>2684</v>
       </c>
       <c r="E1130" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1130" s="6">
-        <v>404.09</v>
+        <v>0</v>
       </c>
       <c r="G1130" s="6" t="s">
         <v>23</v>
@@ -75056,10 +75155,10 @@
         <v>21</v>
       </c>
       <c r="L1130" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1130" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N1130" s="6">
         <v>0</v>
@@ -75071,7 +75170,7 @@
         <v>21</v>
       </c>
       <c r="Q1130" s="5" t="s">
-        <v>2602</v>
+        <v>2683</v>
       </c>
       <c r="R1130" s="6" t="s">
         <v>23</v>
@@ -75082,22 +75181,22 @@
     </row>
     <row r="1131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1131" s="5" t="s">
-        <v>2596</v>
+        <v>2685</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2597</v>
+        <v>2686</v>
       </c>
       <c r="D1131" s="5" t="s">
-        <v>2598</v>
+        <v>2687</v>
       </c>
       <c r="E1131" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1131" s="6">
-        <v>279.67</v>
+        <v>0</v>
       </c>
       <c r="G1131" s="6" t="s">
         <v>23</v>
@@ -75115,27 +75214,676 @@
         <v>21</v>
       </c>
       <c r="L1131" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1131" s="5" t="s">
+        <v>2686</v>
+      </c>
+      <c r="R1131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1131" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1132" s="5" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1132" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D1132" s="5" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E1132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1132" s="6">
+        <v>504</v>
+      </c>
+      <c r="G1132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1132" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="N1132" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1132" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1132" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="R1132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1132" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1133" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1133" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D1133" s="5" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E1133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1133" s="6">
+        <v>1784.9</v>
+      </c>
+      <c r="G1133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1133" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="N1133" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1133" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1133" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="R1133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1133" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1134" s="5" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1134" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1134" s="5" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E1134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1134" s="6">
+        <v>114.8</v>
+      </c>
+      <c r="G1134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1134" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1134" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1134" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1134" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="R1134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1134" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1135" s="5" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1135" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1135" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E1135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1135" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1135" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1135" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1135" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1135" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1135" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="R1135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1135" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1136" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1136" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1136" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E1136" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1136" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1136" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1136" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1136" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1136" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1136" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1136" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="R1136" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1136" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1137" s="5" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1137" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1137" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1137" s="6">
+        <v>56.1</v>
+      </c>
+      <c r="G1137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1137" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1137" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1137" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1137" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="R1137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1137" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1138" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1138" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1138" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E1138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1138" s="6">
+        <v>153</v>
+      </c>
+      <c r="G1138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1138" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1138" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1138" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1138" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R1138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1138" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1139" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1139" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1139" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="G1139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1139" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1139" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1139" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1139" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R1139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1139" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1140" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1140" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1140" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1140" s="6">
+        <v>258.33999999999997</v>
+      </c>
+      <c r="G1140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1140" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1140" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1140" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1140" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R1140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1140" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1141" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1141" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1141" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1141" s="6">
+        <v>1100.8800000000001</v>
+      </c>
+      <c r="G1141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1141" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1141" s="6">
         <v>3.95</v>
       </c>
-      <c r="N1131" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1131" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1131" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1131" s="5" t="s">
-        <v>2597</v>
-      </c>
-      <c r="R1131" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1131" s="5" t="s">
+      <c r="N1141" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1141" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1141" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R1141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1141" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1142" s="5" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="5" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1142" s="5" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E1142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1142" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1142" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1142" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1142" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1142" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1142" s="5" t="s">
+        <v>2689</v>
+      </c>
+      <c r="R1142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1142" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -7987,9 +7987,6 @@
     <t>TEXAS 480 C.92 (Cinza)</t>
   </si>
   <si>
-    <t>Lista Produto : 23/03/2021 17:17:09</t>
-  </si>
-  <si>
     <t>PEGASUS STAR-EXPRESS</t>
   </si>
   <si>
@@ -8096,6 +8093,9 @@
   </si>
   <si>
     <t>RIVIERA 51 (LARANJA)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 06/04/2021 13:36:38</t>
   </si>
 </sst>
 </file>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2654</v>
+        <v>2690</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10237,7 +10237,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>13997.7</v>
+        <v>12133.35</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10768,7 +10768,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>5032.2</v>
+        <v>4255.2</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11063,7 +11063,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>2453.1</v>
+        <v>2257.54</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11417,7 +11417,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>16757.55</v>
+        <v>9523.9</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11594,7 +11594,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>26329.49</v>
+        <v>23366.080000000002</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11653,7 +11653,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>2242.5300000000002</v>
+        <v>1937.73</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12184,7 +12184,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>77.62</v>
+        <v>74.09</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12243,7 +12243,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>9225.34</v>
+        <v>8759.8163000000004</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12302,7 +12302,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>306.81</v>
+        <v>306.02999999999997</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12361,7 +12361,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>638.55999999999995</v>
+        <v>631.5</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12538,7 +12538,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>5156.0600000000004</v>
+        <v>2181.0100000000002</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12715,7 +12715,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>2125.12</v>
+        <v>2117.84</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12774,7 +12774,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>10003.030000000001</v>
+        <v>15900.42</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13069,7 +13069,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>21996</v>
+        <v>33548</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13246,7 +13246,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>1315.43</v>
+        <v>2036.67</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -23571,7 +23571,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>1228.5999999999999</v>
+        <v>1134.9100000000001</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -23630,7 +23630,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1105.6400000000001</v>
+        <v>1072.1600000000001</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24102,7 +24102,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>1413.5</v>
+        <v>3773.1</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24751,7 +24751,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>4139.2</v>
+        <v>3469.9</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -26167,7 +26167,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>7828.39</v>
+        <v>4946.21</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26521,7 +26521,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="6">
-        <v>826.67</v>
+        <v>565.85</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>23</v>
@@ -27229,7 +27229,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>3759</v>
+        <v>2366.2600000000002</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28232,7 +28232,7 @@
         <v>23</v>
       </c>
       <c r="F335" s="6">
-        <v>3804.66</v>
+        <v>1419.93</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>23</v>
@@ -29294,7 +29294,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>152</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -29530,7 +29530,7 @@
         <v>23</v>
       </c>
       <c r="F357" s="6">
-        <v>21.9</v>
+        <v>20.54</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>23</v>
@@ -30002,7 +30002,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3711.25</v>
+        <v>3676.8</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30061,7 +30061,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>4934</v>
+        <v>4029.72</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30592,7 +30592,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1583.85</v>
+        <v>1581.2</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30946,7 +30946,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -31005,7 +31005,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>475.73</v>
+        <v>474.89</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -31477,7 +31477,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>3054.65</v>
+        <v>4197.57</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31536,7 +31536,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>489.26</v>
+        <v>459.18</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31595,7 +31595,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1892.22</v>
+        <v>1620.15</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31713,7 +31713,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>66.62</v>
+        <v>59.1</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31831,7 +31831,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5317.36</v>
+        <v>4841.12</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31890,7 +31890,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>7334.54</v>
+        <v>6062.45</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31949,7 +31949,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>4889.26</v>
+        <v>4878.75</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32067,7 +32067,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>3327.02</v>
+        <v>3318.32</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32126,7 +32126,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1200.0999999999999</v>
+        <v>1199.07</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32303,7 +32303,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>2237.36</v>
+        <v>2233.04</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32421,7 +32421,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>341.73</v>
+        <v>334.16</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32539,7 +32539,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>975.17499999999995</v>
+        <v>576.42499999999995</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32598,7 +32598,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>2564.7600000000002</v>
+        <v>2393.85</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32657,7 +32657,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1224.68</v>
+        <v>917.62</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32716,7 +32716,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>310.48</v>
+        <v>233.85</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32775,7 +32775,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>764.8</v>
+        <v>749.76</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32834,7 +32834,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>633.57000000000005</v>
+        <v>591.16</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32893,7 +32893,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>317.49</v>
+        <v>268.61</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33247,7 +33247,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="6">
-        <v>2544.2600000000002</v>
+        <v>2534.38</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>23</v>
@@ -33306,7 +33306,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>1882.86</v>
+        <v>1875.19</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33424,7 +33424,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>2077.25</v>
+        <v>524.61</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33601,7 +33601,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1389.29</v>
+        <v>1365.33</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33660,7 +33660,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>3128.26</v>
+        <v>3692.09</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33719,7 +33719,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>644.46</v>
+        <v>633.53</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33778,7 +33778,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>19181.07</v>
+        <v>13922.33</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33955,7 +33955,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>682.05</v>
+        <v>653.1</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34014,7 +34014,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>1000.76</v>
+        <v>996.86</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -34250,7 +34250,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>403.19</v>
+        <v>365.3</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -34840,7 +34840,7 @@
         <v>23</v>
       </c>
       <c r="F447" s="6">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="G447" s="6" t="s">
         <v>23</v>
@@ -34958,7 +34958,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>1280.4000000000001</v>
+        <v>1277.94</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -35076,7 +35076,7 @@
         <v>23</v>
       </c>
       <c r="F451" s="6">
-        <v>430.25</v>
+        <v>424.35</v>
       </c>
       <c r="G451" s="6" t="s">
         <v>23</v>
@@ -56965,7 +56965,7 @@
         <v>23</v>
       </c>
       <c r="F822" s="6">
-        <v>245</v>
+        <v>165.2</v>
       </c>
       <c r="G822" s="6" t="s">
         <v>23</v>
@@ -57260,7 +57260,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="6">
-        <v>152.05000000000001</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="G827" s="6" t="s">
         <v>23</v>
@@ -57909,7 +57909,7 @@
         <v>23</v>
       </c>
       <c r="F838" s="6">
-        <v>3722</v>
+        <v>3700.28</v>
       </c>
       <c r="G838" s="6" t="s">
         <v>23</v>
@@ -59561,7 +59561,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>904.4</v>
+        <v>426.44</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59738,7 +59738,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>23501.37</v>
+        <v>17452.13</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60505,7 +60505,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>86296.56</v>
+        <v>74912.289999999994</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60564,7 +60564,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>33691.83</v>
+        <v>24507.72</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60623,7 +60623,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>36210.400000000001</v>
+        <v>31178.94</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60682,7 +60682,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>11526.66</v>
+        <v>6740.62</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60741,7 +60741,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>6708.3</v>
+        <v>4099</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61685,7 +61685,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>4907.88</v>
+        <v>10463.58</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62157,7 +62157,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>3010.28</v>
+        <v>931.97</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62275,7 +62275,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>3508.95</v>
+        <v>3208.45</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62334,7 +62334,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>4101.09</v>
+        <v>3980.89</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62865,7 +62865,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1236.74</v>
+        <v>1212.99</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63160,7 +63160,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>8921.7199999999993</v>
+        <v>8060.61</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63868,7 +63868,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>648.48</v>
+        <v>250.53</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64045,7 +64045,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>272.98</v>
+        <v>561.72</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64104,7 +64104,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>211.41</v>
+        <v>666.83</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64163,7 +64163,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>890.45</v>
+        <v>789.93</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64222,7 +64222,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1932.02</v>
+        <v>636.78</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64281,7 +64281,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>5573.53</v>
+        <v>4181.2700000000004</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64576,7 +64576,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>2943.32</v>
+        <v>6255.47</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64635,7 +64635,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>4222.4799999999996</v>
+        <v>2531.0300000000002</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64694,7 +64694,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>807.54</v>
+        <v>142.04</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64812,7 +64812,7 @@
         <v>23</v>
       </c>
       <c r="F955" s="6">
-        <v>272.5</v>
+        <v>240.12</v>
       </c>
       <c r="G955" s="6" t="s">
         <v>23</v>
@@ -65166,7 +65166,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>47.72</v>
+        <v>75.010000000000005</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65225,7 +65225,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>9205.1</v>
+        <v>8506.6</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65402,7 +65402,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>31.89</v>
+        <v>71.89</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65423,7 +65423,7 @@
         <v>23</v>
       </c>
       <c r="M965" s="6">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="N965" s="6">
         <v>0</v>
@@ -67526,7 +67526,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>17905.95</v>
+        <v>17081.080000000002</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67703,7 +67703,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>603.6</v>
+        <v>359.34</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67821,7 +67821,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>2588.8000000000002</v>
+        <v>2212.7199999999998</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67939,7 +67939,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>933.17</v>
+        <v>428.31</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68057,7 +68057,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>132.71</v>
+        <v>107.09</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68293,7 +68293,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>3719.78</v>
+        <v>2454.5500000000002</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68352,7 +68352,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>4905.4399999999996</v>
+        <v>4386.6000000000004</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68470,7 +68470,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>1030.7</v>
+        <v>993.6</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68588,7 +68588,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>2074.23</v>
+        <v>1356.33</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68647,7 +68647,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>788.51</v>
+        <v>764.66</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68706,7 +68706,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>1101.1600000000001</v>
+        <v>3175.88</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68765,7 +68765,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>6737.93</v>
+        <v>6452.87</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68824,7 +68824,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>4990.78</v>
+        <v>4510.72</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68883,7 +68883,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>12264.51</v>
+        <v>12000</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69060,7 +69060,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>5333.56</v>
+        <v>9597.52</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69119,7 +69119,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>1186.1500000000001</v>
+        <v>1095.58</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69178,7 +69178,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>935.07</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69237,7 +69237,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>282.39</v>
+        <v>141.37</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69296,7 +69296,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>1091.25</v>
+        <v>1040.8</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69355,7 +69355,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>325.26</v>
+        <v>274.81</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69414,7 +69414,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>2474.5500000000002</v>
+        <v>2424.1</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69473,7 +69473,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>1106.98</v>
+        <v>1056.53</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69532,7 +69532,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>8322.58</v>
+        <v>7905.02</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69650,7 +69650,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>1675.15</v>
+        <v>401.85052999999999</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69709,7 +69709,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>2164.4</v>
+        <v>731.57</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69768,7 +69768,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2680.43</v>
+        <v>2439.08</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69827,7 +69827,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>1808.37</v>
+        <v>455.23</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70181,7 +70181,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>558.58000000000004</v>
+        <v>327.68</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70712,7 +70712,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>203.59</v>
+        <v>175.58</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -70830,7 +70830,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>2435.63</v>
+        <v>1236.51</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70948,7 +70948,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>19637.419999999998</v>
+        <v>19434.560000000001</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71066,7 +71066,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>208.72</v>
+        <v>162.27000000000001</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71119,7 +71119,7 @@
         <v>2439</v>
       </c>
       <c r="D1062" s="5" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="E1062" s="6" t="s">
         <v>23</v>
@@ -71184,7 +71184,7 @@
         <v>23</v>
       </c>
       <c r="F1063" s="6">
-        <v>812.55</v>
+        <v>581.65</v>
       </c>
       <c r="G1063" s="6" t="s">
         <v>23</v>
@@ -71479,7 +71479,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>8325.58</v>
+        <v>6705.79</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71715,7 +71715,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>12277.16</v>
+        <v>15017.52</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71774,7 +71774,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>227.7</v>
+        <v>573.66</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71795,7 +71795,7 @@
         <v>23</v>
       </c>
       <c r="M1073" s="6">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="N1073" s="6">
         <v>0</v>
@@ -71833,7 +71833,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>16329.27</v>
+        <v>14968.66</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71892,7 +71892,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>13976.61</v>
+        <v>13386.17</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71951,7 +71951,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>147780.13</v>
+        <v>131817.74</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72010,7 +72010,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>2244.21</v>
+        <v>2142.64</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72069,7 +72069,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>36125.07</v>
+        <v>26428.41</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72128,7 +72128,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>1181.31</v>
+        <v>3268.31</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72482,7 +72482,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>238.02</v>
+        <v>202.3</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72659,7 +72659,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>421.5</v>
+        <v>4373.8</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72718,7 +72718,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>2506.85</v>
+        <v>1738.5</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72777,7 +72777,7 @@
         <v>23</v>
       </c>
       <c r="F1090" s="6">
-        <v>16.100000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G1090" s="6" t="s">
         <v>23</v>
@@ -72836,7 +72836,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>1454.81</v>
+        <v>2055.88</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73072,7 +73072,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>1098.99</v>
+        <v>679.89</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73190,7 +73190,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>49.5</v>
+        <v>42</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73249,7 +73249,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>209.65</v>
+        <v>374.27</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73308,7 +73308,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>58.4</v>
+        <v>107.33799999999999</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73653,16 +73653,16 @@
         <v>21</v>
       </c>
       <c r="C1105" s="5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D1105" s="5" t="s">
         <v>2656</v>
       </c>
-      <c r="D1105" s="5" t="s">
-        <v>2657</v>
-      </c>
       <c r="E1105" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>0</v>
+        <v>960.3</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -73680,10 +73680,10 @@
         <v>21</v>
       </c>
       <c r="L1105" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1105" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N1105" s="6">
         <v>0</v>
@@ -73695,7 +73695,7 @@
         <v>21</v>
       </c>
       <c r="Q1105" s="5" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="R1105" s="6" t="s">
         <v>23</v>
@@ -73780,7 +73780,7 @@
         <v>23</v>
       </c>
       <c r="F1107" s="6">
-        <v>4618.5</v>
+        <v>3924</v>
       </c>
       <c r="G1107" s="6" t="s">
         <v>23</v>
@@ -74193,7 +74193,7 @@
         <v>23</v>
       </c>
       <c r="F1114" s="6">
-        <v>46.1</v>
+        <v>95.6</v>
       </c>
       <c r="G1114" s="6" t="s">
         <v>23</v>
@@ -74429,7 +74429,7 @@
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>349.08</v>
+        <v>111.08</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -74606,7 +74606,7 @@
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>320.29000000000002</v>
+        <v>146.29</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -74650,16 +74650,16 @@
     </row>
     <row r="1122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1122" s="5" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1122" s="5" t="s">
         <v>2658</v>
       </c>
-      <c r="B1122" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1122" s="5" t="s">
+      <c r="D1122" s="5" t="s">
         <v>2659</v>
-      </c>
-      <c r="D1122" s="5" t="s">
-        <v>2660</v>
       </c>
       <c r="E1122" s="6" t="s">
         <v>23</v>
@@ -74698,7 +74698,7 @@
         <v>21</v>
       </c>
       <c r="Q1122" s="5" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="R1122" s="6" t="s">
         <v>23</v>
@@ -74709,16 +74709,16 @@
     </row>
     <row r="1123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1123" s="5" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1123" s="5" t="s">
         <v>2661</v>
       </c>
-      <c r="B1123" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1123" s="5" t="s">
+      <c r="D1123" s="5" t="s">
         <v>2662</v>
-      </c>
-      <c r="D1123" s="5" t="s">
-        <v>2663</v>
       </c>
       <c r="E1123" s="6" t="s">
         <v>23</v>
@@ -74757,7 +74757,7 @@
         <v>21</v>
       </c>
       <c r="Q1123" s="5" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="R1123" s="6" t="s">
         <v>23</v>
@@ -74768,16 +74768,16 @@
     </row>
     <row r="1124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1124" s="5" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1124" s="5" t="s">
         <v>2664</v>
       </c>
-      <c r="B1124" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1124" s="5" t="s">
+      <c r="D1124" s="5" t="s">
         <v>2665</v>
-      </c>
-      <c r="D1124" s="5" t="s">
-        <v>2666</v>
       </c>
       <c r="E1124" s="6" t="s">
         <v>23</v>
@@ -74816,7 +74816,7 @@
         <v>21</v>
       </c>
       <c r="Q1124" s="5" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="R1124" s="6" t="s">
         <v>23</v>
@@ -74827,16 +74827,16 @@
     </row>
     <row r="1125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1125" s="5" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1125" s="5" t="s">
         <v>2667</v>
       </c>
-      <c r="B1125" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1125" s="5" t="s">
+      <c r="D1125" s="5" t="s">
         <v>2668</v>
-      </c>
-      <c r="D1125" s="5" t="s">
-        <v>2669</v>
       </c>
       <c r="E1125" s="6" t="s">
         <v>23</v>
@@ -74875,7 +74875,7 @@
         <v>21</v>
       </c>
       <c r="Q1125" s="5" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="R1125" s="6" t="s">
         <v>23</v>
@@ -74886,16 +74886,16 @@
     </row>
     <row r="1126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1126" s="5" t="s">
         <v>2670</v>
       </c>
-      <c r="B1126" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1126" s="5" t="s">
+      <c r="D1126" s="5" t="s">
         <v>2671</v>
-      </c>
-      <c r="D1126" s="5" t="s">
-        <v>2672</v>
       </c>
       <c r="E1126" s="6" t="s">
         <v>23</v>
@@ -74934,7 +74934,7 @@
         <v>21</v>
       </c>
       <c r="Q1126" s="5" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="R1126" s="6" t="s">
         <v>23</v>
@@ -74945,22 +74945,22 @@
     </row>
     <row r="1127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1127" s="5" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1127" s="5" t="s">
         <v>2673</v>
       </c>
-      <c r="B1127" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1127" s="5" t="s">
+      <c r="D1127" s="5" t="s">
         <v>2674</v>
       </c>
-      <c r="D1127" s="5" t="s">
-        <v>2675</v>
-      </c>
       <c r="E1127" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>130.69</v>
+        <v>106.64</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -74993,7 +74993,7 @@
         <v>21</v>
       </c>
       <c r="Q1127" s="5" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="R1127" s="6" t="s">
         <v>23</v>
@@ -75004,16 +75004,16 @@
     </row>
     <row r="1128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1128" s="5" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1128" s="5" t="s">
         <v>2676</v>
       </c>
-      <c r="B1128" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1128" s="5" t="s">
+      <c r="D1128" s="5" t="s">
         <v>2677</v>
-      </c>
-      <c r="D1128" s="5" t="s">
-        <v>2678</v>
       </c>
       <c r="E1128" s="6" t="s">
         <v>23</v>
@@ -75052,7 +75052,7 @@
         <v>21</v>
       </c>
       <c r="Q1128" s="5" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="R1128" s="6" t="s">
         <v>23</v>
@@ -75063,16 +75063,16 @@
     </row>
     <row r="1129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1129" s="5" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1129" s="5" t="s">
         <v>2679</v>
       </c>
-      <c r="B1129" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1129" s="5" t="s">
+      <c r="D1129" s="5" t="s">
         <v>2680</v>
-      </c>
-      <c r="D1129" s="5" t="s">
-        <v>2681</v>
       </c>
       <c r="E1129" s="6" t="s">
         <v>23</v>
@@ -75111,7 +75111,7 @@
         <v>21</v>
       </c>
       <c r="Q1129" s="5" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="R1129" s="6" t="s">
         <v>23</v>
@@ -75122,16 +75122,16 @@
     </row>
     <row r="1130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1130" s="5" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1130" s="5" t="s">
         <v>2682</v>
       </c>
-      <c r="B1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1130" s="5" t="s">
+      <c r="D1130" s="5" t="s">
         <v>2683</v>
-      </c>
-      <c r="D1130" s="5" t="s">
-        <v>2684</v>
       </c>
       <c r="E1130" s="6" t="s">
         <v>23</v>
@@ -75170,7 +75170,7 @@
         <v>21</v>
       </c>
       <c r="Q1130" s="5" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="R1130" s="6" t="s">
         <v>23</v>
@@ -75181,16 +75181,16 @@
     </row>
     <row r="1131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1131" s="5" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1131" s="5" t="s">
         <v>2685</v>
       </c>
-      <c r="B1131" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1131" s="5" t="s">
+      <c r="D1131" s="5" t="s">
         <v>2686</v>
-      </c>
-      <c r="D1131" s="5" t="s">
-        <v>2687</v>
       </c>
       <c r="E1131" s="6" t="s">
         <v>23</v>
@@ -75229,7 +75229,7 @@
         <v>21</v>
       </c>
       <c r="Q1131" s="5" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="R1131" s="6" t="s">
         <v>23</v>
@@ -75830,16 +75830,16 @@
     </row>
     <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="B1142" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1142" s="5" t="s">
+      <c r="D1142" s="5" t="s">
         <v>2689</v>
-      </c>
-      <c r="D1142" s="5" t="s">
-        <v>2690</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>23</v>
@@ -75878,7 +75878,7 @@
         <v>21</v>
       </c>
       <c r="Q1142" s="5" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="R1142" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17106" uniqueCount="2691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17196" uniqueCount="2705">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8095,7 +8095,49 @@
     <t>RIVIERA 51 (LARANJA)</t>
   </si>
   <si>
-    <t>Lista Produto : 06/04/2021 13:36:38</t>
+    <t>Lista Produto : 09/04/2021 17:38:53</t>
+  </si>
+  <si>
+    <t>TC15233</t>
+  </si>
+  <si>
+    <t>TC15234</t>
+  </si>
+  <si>
+    <t>TC15235</t>
+  </si>
+  <si>
+    <t>G3121</t>
+  </si>
+  <si>
+    <t>MACAU EMERALD</t>
+  </si>
+  <si>
+    <t>TC15236</t>
+  </si>
+  <si>
+    <t>G3180</t>
+  </si>
+  <si>
+    <t>MACAU CORAL</t>
+  </si>
+  <si>
+    <t>TC15237</t>
+  </si>
+  <si>
+    <t>G5402</t>
+  </si>
+  <si>
+    <t>LORIS 01 ICE</t>
+  </si>
+  <si>
+    <t>TC15238</t>
+  </si>
+  <si>
+    <t>G5420</t>
+  </si>
+  <si>
+    <t>LORIS 37 AZUL PETROL</t>
   </si>
 </sst>
 </file>
@@ -8262,8 +8304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1142" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1148" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1148"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8552,7 +8594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1142"/>
+  <dimension ref="A1:S1148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -10237,7 +10279,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>12133.35</v>
+        <v>7533.35</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10768,7 +10810,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>4255.2</v>
+        <v>3485.97</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11063,7 +11105,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>2257.54</v>
+        <v>2167.14</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11417,7 +11459,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>9523.9</v>
+        <v>7633.7</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11594,7 +11636,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>23366.080000000002</v>
+        <v>21369.24</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11653,7 +11695,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>1937.73</v>
+        <v>1686.18</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12243,7 +12285,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>8759.8163000000004</v>
+        <v>8191.8490000000002</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12361,7 +12403,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>631.5</v>
+        <v>607.65</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12538,7 +12580,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>2181.0100000000002</v>
+        <v>1403.61</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12715,7 +12757,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>2117.84</v>
+        <v>880.24</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12774,7 +12816,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>15900.42</v>
+        <v>15358.12</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13246,7 +13288,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>2036.67</v>
+        <v>1783.77</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -24102,7 +24144,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>3773.1</v>
+        <v>3753.7</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24751,7 +24793,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>3469.9</v>
+        <v>3460.2</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -25223,7 +25265,7 @@
         <v>23</v>
       </c>
       <c r="F284" s="6">
-        <v>1770.55</v>
+        <v>689.05</v>
       </c>
       <c r="G284" s="6" t="s">
         <v>23</v>
@@ -25400,7 +25442,7 @@
         <v>23</v>
       </c>
       <c r="F287" s="6">
-        <v>2416.16</v>
+        <v>190.8</v>
       </c>
       <c r="G287" s="6" t="s">
         <v>23</v>
@@ -26167,7 +26209,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>4946.21</v>
+        <v>2717.61</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26521,7 +26563,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="6">
-        <v>565.85</v>
+        <v>377.59</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>23</v>
@@ -27229,7 +27271,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>2366.2600000000002</v>
+        <v>4741.28</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28232,7 +28274,7 @@
         <v>23</v>
       </c>
       <c r="F335" s="6">
-        <v>1419.93</v>
+        <v>1418.06</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>23</v>
@@ -28763,7 +28805,7 @@
         <v>23</v>
       </c>
       <c r="F344" s="6">
-        <v>168.95</v>
+        <v>141.08000000000001</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>23</v>
@@ -28999,7 +29041,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>7</v>
+        <v>98.5</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -30002,7 +30044,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3676.8</v>
+        <v>3643.88</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30061,7 +30103,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>4029.72</v>
+        <v>3798.84</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30238,7 +30280,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="6">
-        <v>231.52</v>
+        <v>209.9</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>23</v>
@@ -30592,7 +30634,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1581.2</v>
+        <v>1572.28</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30769,7 +30811,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="6">
-        <v>409.3</v>
+        <v>146.5</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>23</v>
@@ -31477,7 +31519,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>4197.57</v>
+        <v>4111.74</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31536,7 +31578,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>459.18</v>
+        <v>380.22</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31595,7 +31637,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1620.15</v>
+        <v>1586.31</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31713,7 +31755,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>59.1</v>
+        <v>29.02</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31890,7 +31932,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>6062.45</v>
+        <v>5902.96</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32185,7 +32227,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>765.86</v>
+        <v>723.38</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32539,7 +32581,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>576.42499999999995</v>
+        <v>550.17499999999995</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32598,7 +32640,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>2393.85</v>
+        <v>4768.7700000000004</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32657,7 +32699,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>917.62</v>
+        <v>351.78</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32716,7 +32758,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>233.85</v>
+        <v>166.24</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32775,7 +32817,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>749.76</v>
+        <v>738.48</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32834,7 +32876,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>591.16</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32893,7 +32935,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>268.61</v>
+        <v>257.33</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33424,7 +33466,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>524.61</v>
+        <v>495.75</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33601,7 +33643,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1365.33</v>
+        <v>1364.03</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33660,7 +33702,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>3692.09</v>
+        <v>3381.34</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33778,7 +33820,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>13922.33</v>
+        <v>12633.95</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33837,7 +33879,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3321.55</v>
+        <v>3260.35</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -33955,7 +33997,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>653.1</v>
+        <v>629.04999999999995</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34014,7 +34056,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>996.86</v>
+        <v>991.19</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -34250,7 +34292,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>365.3</v>
+        <v>359.63</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -57909,7 +57951,7 @@
         <v>23</v>
       </c>
       <c r="F838" s="6">
-        <v>3700.28</v>
+        <v>3598</v>
       </c>
       <c r="G838" s="6" t="s">
         <v>23</v>
@@ -59738,7 +59780,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>17452.13</v>
+        <v>29155.03</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60328,7 +60370,7 @@
         <v>23</v>
       </c>
       <c r="F879" s="6">
-        <v>127.8</v>
+        <v>0</v>
       </c>
       <c r="G879" s="6" t="s">
         <v>23</v>
@@ -60505,7 +60547,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>74912.289999999994</v>
+        <v>80944.399999999994</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60564,7 +60606,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>24507.72</v>
+        <v>25071.79</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60623,7 +60665,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>31178.94</v>
+        <v>40217.449999999997</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60682,7 +60724,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>6740.62</v>
+        <v>9269.36</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60741,7 +60783,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>4099</v>
+        <v>3766.78</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -62157,7 +62199,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>931.97</v>
+        <v>917.48</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62865,7 +62907,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1212.99</v>
+        <v>998.19</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63160,7 +63202,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>8060.61</v>
+        <v>7466.23</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63337,7 +63379,7 @@
         <v>23</v>
       </c>
       <c r="F930" s="6">
-        <v>925.6</v>
+        <v>737.8</v>
       </c>
       <c r="G930" s="6" t="s">
         <v>23</v>
@@ -63455,7 +63497,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>198.45</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63573,7 +63615,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>1205.4000000000001</v>
+        <v>1153.45</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -64066,7 +64108,7 @@
         <v>23</v>
       </c>
       <c r="M942" s="6">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="N942" s="6">
         <v>0</v>
@@ -64104,7 +64146,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>666.83</v>
+        <v>451.43</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64125,7 +64167,7 @@
         <v>23</v>
       </c>
       <c r="M943" s="6">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="N943" s="6">
         <v>0</v>
@@ -64576,7 +64618,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>6255.47</v>
+        <v>6205.17</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64812,7 +64854,7 @@
         <v>23</v>
       </c>
       <c r="F955" s="6">
-        <v>240.12</v>
+        <v>199.88</v>
       </c>
       <c r="G955" s="6" t="s">
         <v>23</v>
@@ -65166,7 +65208,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>75.010000000000005</v>
+        <v>97.2</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65402,7 +65444,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>71.89</v>
+        <v>58.58</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -67526,7 +67568,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>17081.080000000002</v>
+        <v>15253.73</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67821,7 +67863,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>2212.7199999999998</v>
+        <v>929.12</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67939,7 +67981,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>428.31</v>
+        <v>622.57000000000005</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68057,7 +68099,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>107.09</v>
+        <v>607.09</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68293,7 +68335,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>2454.5500000000002</v>
+        <v>2388.25</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68352,7 +68394,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>4386.6000000000004</v>
+        <v>4121.3999999999996</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68470,7 +68512,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>993.6</v>
+        <v>808.02</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68529,7 +68571,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>1331.18</v>
+        <v>1294.74</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68588,7 +68630,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>1356.33</v>
+        <v>1324.29</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68647,7 +68689,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>764.66</v>
+        <v>715.97</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68706,7 +68748,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>3175.88</v>
+        <v>3087.92</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68765,7 +68807,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>6452.87</v>
+        <v>6134.55</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68824,7 +68866,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>4510.72</v>
+        <v>4508.88</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68883,7 +68925,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>12000</v>
+        <v>12085.35</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69060,7 +69102,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>9597.52</v>
+        <v>9401.23</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69119,7 +69161,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>1095.58</v>
+        <v>1085.55</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69178,7 +69220,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>612.42999999999995</v>
+        <v>529.66999999999996</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69237,7 +69279,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>141.37</v>
+        <v>-92.35</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69650,7 +69692,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>401.85052999999999</v>
+        <v>15.22968</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69709,7 +69751,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>731.57</v>
+        <v>523.78</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69768,7 +69810,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2439.08</v>
+        <v>2143.4</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69827,7 +69869,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>455.23</v>
+        <v>428.69</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70063,7 +70105,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>863.7</v>
+        <v>510.9</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -70181,7 +70223,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>327.68</v>
+        <v>959.48</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70830,7 +70872,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>1236.51</v>
+        <v>825.15</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70948,7 +70990,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>19434.560000000001</v>
+        <v>16029.41</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71007,7 +71049,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>20041.560000000001</v>
+        <v>18143.37</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71066,7 +71108,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>162.27000000000001</v>
+        <v>147.79</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71125,7 +71167,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>4036.66</v>
+        <v>3964.21</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71361,7 +71403,7 @@
         <v>23</v>
       </c>
       <c r="F1066" s="6">
-        <v>217</v>
+        <v>174.5</v>
       </c>
       <c r="G1066" s="6" t="s">
         <v>23</v>
@@ -71479,7 +71521,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>6705.79</v>
+        <v>11801.69</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71715,7 +71757,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>15017.52</v>
+        <v>14651.15</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71774,7 +71816,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>573.66</v>
+        <v>1749.66</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71833,7 +71875,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>14968.66</v>
+        <v>18817.39</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71892,7 +71934,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>13386.17</v>
+        <v>11317.46</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71951,7 +71993,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>131817.74</v>
+        <v>121531.61</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72010,7 +72052,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>2142.64</v>
+        <v>3096.74</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72069,7 +72111,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>26428.41</v>
+        <v>23631.47</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72128,7 +72170,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>3268.31</v>
+        <v>3222.06</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72305,7 +72347,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>734.12</v>
+        <v>372.72</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72718,7 +72760,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>1738.5</v>
+        <v>1685.93</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72836,7 +72878,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>2055.88</v>
+        <v>2045.36</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73072,7 +73114,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>679.89</v>
+        <v>554.16</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73249,7 +73291,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>374.27</v>
+        <v>366.77</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73308,7 +73350,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>107.33799999999999</v>
+        <v>106.776</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -74606,7 +74648,7 @@
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>146.29</v>
+        <v>49.94</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -74960,7 +75002,7 @@
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>106.64</v>
+        <v>102.94</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -75240,22 +75282,22 @@
     </row>
     <row r="1132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1132" s="5" t="s">
-        <v>2567</v>
+        <v>2691</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2568</v>
+        <v>21</v>
       </c>
       <c r="D1132" s="5" t="s">
-        <v>2569</v>
+        <v>21</v>
       </c>
       <c r="E1132" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1132" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1132" s="6" t="s">
         <v>23</v>
@@ -75273,10 +75315,10 @@
         <v>21</v>
       </c>
       <c r="L1132" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1132" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1132" s="6">
         <v>0</v>
@@ -75288,7 +75330,7 @@
         <v>21</v>
       </c>
       <c r="Q1132" s="5" t="s">
-        <v>2568</v>
+        <v>21</v>
       </c>
       <c r="R1132" s="6" t="s">
         <v>23</v>
@@ -75299,22 +75341,22 @@
     </row>
     <row r="1133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1133" s="5" t="s">
-        <v>2570</v>
+        <v>2692</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2571</v>
+        <v>21</v>
       </c>
       <c r="D1133" s="5" t="s">
-        <v>2572</v>
+        <v>21</v>
       </c>
       <c r="E1133" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1133" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1133" s="6" t="s">
         <v>23</v>
@@ -75332,10 +75374,10 @@
         <v>21</v>
       </c>
       <c r="L1133" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1133" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1133" s="6">
         <v>0</v>
@@ -75347,7 +75389,7 @@
         <v>21</v>
       </c>
       <c r="Q1133" s="5" t="s">
-        <v>2571</v>
+        <v>21</v>
       </c>
       <c r="R1133" s="6" t="s">
         <v>23</v>
@@ -75358,22 +75400,22 @@
     </row>
     <row r="1134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1134" s="5" t="s">
-        <v>2573</v>
+        <v>2693</v>
       </c>
       <c r="B1134" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2574</v>
+        <v>2694</v>
       </c>
       <c r="D1134" s="5" t="s">
-        <v>2575</v>
+        <v>2695</v>
       </c>
       <c r="E1134" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1134" s="6">
-        <v>114.8</v>
+        <v>0</v>
       </c>
       <c r="G1134" s="6" t="s">
         <v>23</v>
@@ -75391,10 +75433,10 @@
         <v>21</v>
       </c>
       <c r="L1134" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1134" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1134" s="6">
         <v>0</v>
@@ -75406,7 +75448,7 @@
         <v>21</v>
       </c>
       <c r="Q1134" s="5" t="s">
-        <v>2574</v>
+        <v>2694</v>
       </c>
       <c r="R1134" s="6" t="s">
         <v>23</v>
@@ -75417,16 +75459,16 @@
     </row>
     <row r="1135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1135" s="5" t="s">
-        <v>2576</v>
+        <v>2696</v>
       </c>
       <c r="B1135" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2577</v>
+        <v>2697</v>
       </c>
       <c r="D1135" s="5" t="s">
-        <v>2578</v>
+        <v>2698</v>
       </c>
       <c r="E1135" s="6" t="s">
         <v>23</v>
@@ -75465,7 +75507,7 @@
         <v>21</v>
       </c>
       <c r="Q1135" s="5" t="s">
-        <v>2577</v>
+        <v>2697</v>
       </c>
       <c r="R1135" s="6" t="s">
         <v>23</v>
@@ -75476,16 +75518,16 @@
     </row>
     <row r="1136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1136" s="5" t="s">
-        <v>2579</v>
+        <v>2699</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2580</v>
+        <v>2700</v>
       </c>
       <c r="D1136" s="5" t="s">
-        <v>2581</v>
+        <v>2701</v>
       </c>
       <c r="E1136" s="6" t="s">
         <v>23</v>
@@ -75524,7 +75566,7 @@
         <v>21</v>
       </c>
       <c r="Q1136" s="5" t="s">
-        <v>2580</v>
+        <v>2700</v>
       </c>
       <c r="R1136" s="6" t="s">
         <v>23</v>
@@ -75535,22 +75577,22 @@
     </row>
     <row r="1137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1137" s="5" t="s">
-        <v>2582</v>
+        <v>2702</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2583</v>
+        <v>2703</v>
       </c>
       <c r="D1137" s="5" t="s">
-        <v>2584</v>
+        <v>2704</v>
       </c>
       <c r="E1137" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1137" s="6">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="G1137" s="6" t="s">
         <v>23</v>
@@ -75568,10 +75610,10 @@
         <v>21</v>
       </c>
       <c r="L1137" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1137" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1137" s="6">
         <v>0</v>
@@ -75583,7 +75625,7 @@
         <v>21</v>
       </c>
       <c r="Q1137" s="5" t="s">
-        <v>2583</v>
+        <v>2703</v>
       </c>
       <c r="R1137" s="6" t="s">
         <v>23</v>
@@ -75594,22 +75636,22 @@
     </row>
     <row r="1138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1138" s="5" t="s">
-        <v>2585</v>
+        <v>2567</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
       <c r="D1138" s="5" t="s">
-        <v>2587</v>
+        <v>2569</v>
       </c>
       <c r="E1138" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1138" s="6">
-        <v>153</v>
+        <v>504</v>
       </c>
       <c r="G1138" s="6" t="s">
         <v>23</v>
@@ -75630,7 +75672,7 @@
         <v>23</v>
       </c>
       <c r="M1138" s="6">
-        <v>4.1500000000000004</v>
+        <v>1.98</v>
       </c>
       <c r="N1138" s="6">
         <v>0</v>
@@ -75642,7 +75684,7 @@
         <v>21</v>
       </c>
       <c r="Q1138" s="5" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
       <c r="R1138" s="6" t="s">
         <v>23</v>
@@ -75653,22 +75695,22 @@
     </row>
     <row r="1139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1139" s="5" t="s">
-        <v>2588</v>
+        <v>2570</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2589</v>
+        <v>2571</v>
       </c>
       <c r="D1139" s="5" t="s">
-        <v>2590</v>
+        <v>2572</v>
       </c>
       <c r="E1139" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1139" s="6">
-        <v>30.9</v>
+        <v>1784.9</v>
       </c>
       <c r="G1139" s="6" t="s">
         <v>23</v>
@@ -75689,7 +75731,7 @@
         <v>23</v>
       </c>
       <c r="M1139" s="6">
-        <v>4.2</v>
+        <v>3.02</v>
       </c>
       <c r="N1139" s="6">
         <v>0</v>
@@ -75701,7 +75743,7 @@
         <v>21</v>
       </c>
       <c r="Q1139" s="5" t="s">
-        <v>2589</v>
+        <v>2571</v>
       </c>
       <c r="R1139" s="6" t="s">
         <v>23</v>
@@ -75712,22 +75754,22 @@
     </row>
     <row r="1140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1140" s="5" t="s">
-        <v>2591</v>
+        <v>2573</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2599</v>
+        <v>2574</v>
       </c>
       <c r="D1140" s="5" t="s">
-        <v>2592</v>
+        <v>2575</v>
       </c>
       <c r="E1140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1140" s="6">
-        <v>258.33999999999997</v>
+        <v>114.8</v>
       </c>
       <c r="G1140" s="6" t="s">
         <v>23</v>
@@ -75748,7 +75790,7 @@
         <v>23</v>
       </c>
       <c r="M1140" s="6">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="N1140" s="6">
         <v>0</v>
@@ -75760,7 +75802,7 @@
         <v>21</v>
       </c>
       <c r="Q1140" s="5" t="s">
-        <v>2599</v>
+        <v>2574</v>
       </c>
       <c r="R1140" s="6" t="s">
         <v>23</v>
@@ -75771,22 +75813,22 @@
     </row>
     <row r="1141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1141" s="5" t="s">
-        <v>2593</v>
+        <v>2576</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2594</v>
+        <v>2577</v>
       </c>
       <c r="D1141" s="5" t="s">
-        <v>2595</v>
+        <v>2578</v>
       </c>
       <c r="E1141" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1141" s="6">
-        <v>1100.8800000000001</v>
+        <v>0</v>
       </c>
       <c r="G1141" s="6" t="s">
         <v>23</v>
@@ -75804,10 +75846,10 @@
         <v>21</v>
       </c>
       <c r="L1141" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1141" s="6">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N1141" s="6">
         <v>0</v>
@@ -75819,7 +75861,7 @@
         <v>21</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2594</v>
+        <v>2577</v>
       </c>
       <c r="R1141" s="6" t="s">
         <v>23</v>
@@ -75830,16 +75872,16 @@
     </row>
     <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
-        <v>2687</v>
+        <v>2579</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2688</v>
+        <v>2580</v>
       </c>
       <c r="D1142" s="5" t="s">
-        <v>2689</v>
+        <v>2581</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>23</v>
@@ -75878,12 +75920,366 @@
         <v>21</v>
       </c>
       <c r="Q1142" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="R1142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1142" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1143" s="5" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1143" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1143" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1143" s="6">
+        <v>56.1</v>
+      </c>
+      <c r="G1143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1143" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1143" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1143" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1143" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="R1143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1143" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1144" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1144" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1144" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E1144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1144" s="6">
+        <v>153</v>
+      </c>
+      <c r="G1144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1144" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1144" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1144" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1144" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R1144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1144" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1145" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1145" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1145" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1145" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="G1145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1145" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1145" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1145" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1145" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R1145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1145" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1146" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1146" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1146" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1146" s="6">
+        <v>258.33999999999997</v>
+      </c>
+      <c r="G1146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1146" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1146" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1146" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1146" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R1146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1146" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1147" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1147" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1147" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1147" s="6">
+        <v>1100.8800000000001</v>
+      </c>
+      <c r="G1147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1147" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1147" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1147" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1147" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R1147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1147" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1148" s="5" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="R1142" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1142" s="5" t="s">
+      <c r="D1148" s="5" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1148" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1148" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1148" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1148" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1148" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1148" s="5" t="s">
+        <v>2688</v>
+      </c>
+      <c r="R1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1148" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17196" uniqueCount="2705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17196" uniqueCount="2707">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8095,9 +8095,6 @@
     <t>RIVIERA 51 (LARANJA)</t>
   </si>
   <si>
-    <t>Lista Produto : 09/04/2021 17:38:53</t>
-  </si>
-  <si>
     <t>TC15233</t>
   </si>
   <si>
@@ -8138,6 +8135,15 @@
   </si>
   <si>
     <t>LORIS 37 AZUL PETROL</t>
+  </si>
+  <si>
+    <t>Lista Produto : 30/04/2021 14:18:59</t>
+  </si>
+  <si>
+    <t>G4721</t>
+  </si>
+  <si>
+    <t>ZENITH 601 (AZUL)</t>
   </si>
 </sst>
 </file>
@@ -8648,7 +8654,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2690</v>
+        <v>2704</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8804,7 +8810,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>23</v>
@@ -9335,7 +9341,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="6">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>23</v>
@@ -9453,7 +9459,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="6">
-        <v>533.5</v>
+        <v>528.5</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>23</v>
@@ -9630,7 +9636,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>23</v>
@@ -10279,7 +10285,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>7533.35</v>
+        <v>833.48</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10338,7 +10344,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>3946.36</v>
+        <v>2579.15</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10574,7 +10580,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="6">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>23</v>
@@ -10751,7 +10757,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>1591.92</v>
+        <v>25</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10810,7 +10816,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>3485.97</v>
+        <v>3027.2</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11105,7 +11111,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>2167.14</v>
+        <v>1906</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11459,7 +11465,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>7633.7</v>
+        <v>217</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11577,7 +11583,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>3712</v>
+        <v>3631</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11636,7 +11642,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>21369.24</v>
+        <v>19180.990000000002</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11695,7 +11701,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>1686.18</v>
+        <v>1049.97</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -11754,7 +11760,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="6">
-        <v>196.84</v>
+        <v>22</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -12226,7 +12232,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>74.09</v>
+        <v>51.3</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12285,7 +12291,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>8191.8490000000002</v>
+        <v>21585.85</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12344,7 +12350,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>306.02999999999997</v>
+        <v>1066</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12403,7 +12409,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>607.65</v>
+        <v>1443.5</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12462,7 +12468,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>119.35</v>
+        <v>86.8</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12521,7 +12527,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>0</v>
+        <v>427.19</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12542,7 +12548,7 @@
         <v>23</v>
       </c>
       <c r="M68" s="6">
-        <v>2.84</v>
+        <v>1.96</v>
       </c>
       <c r="N68" s="6">
         <v>0</v>
@@ -12580,7 +12586,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>1403.61</v>
+        <v>9951.83</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12601,7 +12607,7 @@
         <v>23</v>
       </c>
       <c r="M69" s="6">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="N69" s="6">
         <v>0</v>
@@ -12757,7 +12763,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>880.24</v>
+        <v>88.1</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12816,7 +12822,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>15358.12</v>
+        <v>13762.35</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13111,7 +13117,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>33548</v>
+        <v>23571.21</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13288,7 +13294,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>1783.77</v>
+        <v>1023.2</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -22964,7 +22970,7 @@
         <v>23</v>
       </c>
       <c r="F245" s="6">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>23</v>
@@ -23082,7 +23088,7 @@
         <v>23</v>
       </c>
       <c r="F247" s="6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G247" s="6" t="s">
         <v>23</v>
@@ -23141,7 +23147,7 @@
         <v>23</v>
       </c>
       <c r="F248" s="6">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>23</v>
@@ -23554,7 +23560,7 @@
         <v>23</v>
       </c>
       <c r="F255" s="6">
-        <v>1978.1</v>
+        <v>2473.4</v>
       </c>
       <c r="G255" s="6" t="s">
         <v>23</v>
@@ -23613,7 +23619,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>1134.9100000000001</v>
+        <v>1015.5</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -23672,7 +23678,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>1072.1600000000001</v>
+        <v>956.5</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24144,7 +24150,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>3753.7</v>
+        <v>6388.1</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24498,7 +24504,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>23</v>
@@ -24675,7 +24681,7 @@
         <v>23</v>
       </c>
       <c r="F274" s="6">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G274" s="6" t="s">
         <v>23</v>
@@ -24793,7 +24799,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>3460.2</v>
+        <v>1990</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -24852,7 +24858,7 @@
         <v>23</v>
       </c>
       <c r="F277" s="6">
-        <v>290</v>
+        <v>263.39999999999998</v>
       </c>
       <c r="G277" s="6" t="s">
         <v>23</v>
@@ -24911,7 +24917,7 @@
         <v>23</v>
       </c>
       <c r="F278" s="6">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="G278" s="6" t="s">
         <v>23</v>
@@ -25206,7 +25212,7 @@
         <v>23</v>
       </c>
       <c r="F283" s="6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G283" s="6" t="s">
         <v>23</v>
@@ -25265,7 +25271,7 @@
         <v>23</v>
       </c>
       <c r="F284" s="6">
-        <v>689.05</v>
+        <v>635.5</v>
       </c>
       <c r="G284" s="6" t="s">
         <v>23</v>
@@ -25324,7 +25330,7 @@
         <v>23</v>
       </c>
       <c r="F285" s="6">
-        <v>3414.2</v>
+        <v>3386.2</v>
       </c>
       <c r="G285" s="6" t="s">
         <v>23</v>
@@ -25383,7 +25389,7 @@
         <v>23</v>
       </c>
       <c r="F286" s="6">
-        <v>1001.1</v>
+        <v>773</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>23</v>
@@ -25442,7 +25448,7 @@
         <v>23</v>
       </c>
       <c r="F287" s="6">
-        <v>190.8</v>
+        <v>15</v>
       </c>
       <c r="G287" s="6" t="s">
         <v>23</v>
@@ -25501,7 +25507,7 @@
         <v>23</v>
       </c>
       <c r="F288" s="6">
-        <v>1092.5</v>
+        <v>1211.5</v>
       </c>
       <c r="G288" s="6" t="s">
         <v>23</v>
@@ -25560,7 +25566,7 @@
         <v>23</v>
       </c>
       <c r="F289" s="6">
-        <v>2220</v>
+        <v>2131</v>
       </c>
       <c r="G289" s="6" t="s">
         <v>23</v>
@@ -25796,7 +25802,7 @@
         <v>23</v>
       </c>
       <c r="F293" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G293" s="6" t="s">
         <v>23</v>
@@ -25914,7 +25920,7 @@
         <v>23</v>
       </c>
       <c r="F295" s="6">
-        <v>12.85</v>
+        <v>0</v>
       </c>
       <c r="G295" s="6" t="s">
         <v>23</v>
@@ -26209,7 +26215,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>2717.61</v>
+        <v>1231.8</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26268,7 +26274,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>2714.25</v>
+        <v>2557</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -26563,7 +26569,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="6">
-        <v>377.59</v>
+        <v>168.4</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>23</v>
@@ -26681,7 +26687,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="6">
-        <v>3523.17</v>
+        <v>3523.5</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>23</v>
@@ -27153,7 +27159,7 @@
         <v>23</v>
       </c>
       <c r="F316" s="6">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>23</v>
@@ -27271,7 +27277,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>4741.28</v>
+        <v>3881.78</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27330,7 +27336,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1813.34</v>
+        <v>1742.5</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -27448,7 +27454,7 @@
         <v>23</v>
       </c>
       <c r="F321" s="6">
-        <v>573.45000000000005</v>
+        <v>581.70000000000005</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>23</v>
@@ -27507,7 +27513,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="6">
-        <v>1101.0999999999999</v>
+        <v>1066.5999999999999</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>23</v>
@@ -27625,7 +27631,7 @@
         <v>23</v>
       </c>
       <c r="F324" s="6">
-        <v>852.3</v>
+        <v>840.1</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>23</v>
@@ -27684,7 +27690,7 @@
         <v>23</v>
       </c>
       <c r="F325" s="6">
-        <v>342.4</v>
+        <v>436.5</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>23</v>
@@ -27743,7 +27749,7 @@
         <v>23</v>
       </c>
       <c r="F326" s="6">
-        <v>144.19999999999999</v>
+        <v>90</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>23</v>
@@ -27802,7 +27808,7 @@
         <v>23</v>
       </c>
       <c r="F327" s="6">
-        <v>6080.6</v>
+        <v>6062.6</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>23</v>
@@ -27861,7 +27867,7 @@
         <v>23</v>
       </c>
       <c r="F328" s="6">
-        <v>670.4</v>
+        <v>564.5</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>23</v>
@@ -27920,7 +27926,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="6">
-        <v>273.5</v>
+        <v>307</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>23</v>
@@ -27979,7 +27985,7 @@
         <v>23</v>
       </c>
       <c r="F330" s="6">
-        <v>2818.32</v>
+        <v>2798.4</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>23</v>
@@ -28038,7 +28044,7 @@
         <v>23</v>
       </c>
       <c r="F331" s="6">
-        <v>1618.3</v>
+        <v>1620.3</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>23</v>
@@ -28156,7 +28162,7 @@
         <v>23</v>
       </c>
       <c r="F333" s="6">
-        <v>13010.9</v>
+        <v>12894</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>23</v>
@@ -28274,7 +28280,7 @@
         <v>23</v>
       </c>
       <c r="F335" s="6">
-        <v>1418.06</v>
+        <v>0</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>23</v>
@@ -28451,7 +28457,7 @@
         <v>23</v>
       </c>
       <c r="F338" s="6">
-        <v>3185.5</v>
+        <v>3186.5</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>23</v>
@@ -28569,7 +28575,7 @@
         <v>23</v>
       </c>
       <c r="F340" s="6">
-        <v>1856.7</v>
+        <v>1856.5</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>23</v>
@@ -28746,7 +28752,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="6">
-        <v>741.1</v>
+        <v>418.5</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>23</v>
@@ -28805,7 +28811,7 @@
         <v>23</v>
       </c>
       <c r="F344" s="6">
-        <v>141.08000000000001</v>
+        <v>134</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>23</v>
@@ -28923,7 +28929,7 @@
         <v>23</v>
       </c>
       <c r="F346" s="6">
-        <v>2869.6</v>
+        <v>2853.8</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>23</v>
@@ -29159,7 +29165,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>2206.1</v>
+        <v>1886.9</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -29218,7 +29224,7 @@
         <v>23</v>
       </c>
       <c r="F351" s="6">
-        <v>2584.9</v>
+        <v>2564.9</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>23</v>
@@ -29277,7 +29283,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="6">
-        <v>3969.3</v>
+        <v>3389.7</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>23</v>
@@ -29336,7 +29342,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>132.80000000000001</v>
+        <v>118</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -29395,7 +29401,7 @@
         <v>23</v>
       </c>
       <c r="F354" s="6">
-        <v>16.510000000000002</v>
+        <v>20</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>23</v>
@@ -29454,7 +29460,7 @@
         <v>23</v>
       </c>
       <c r="F355" s="6">
-        <v>51.76</v>
+        <v>191.6</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>23</v>
@@ -29475,7 +29481,7 @@
         <v>23</v>
       </c>
       <c r="M355" s="6">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="N355" s="6">
         <v>0</v>
@@ -29572,7 +29578,7 @@
         <v>23</v>
       </c>
       <c r="F357" s="6">
-        <v>20.54</v>
+        <v>0</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>23</v>
@@ -29690,7 +29696,7 @@
         <v>23</v>
       </c>
       <c r="F359" s="6">
-        <v>222.36</v>
+        <v>153</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>23</v>
@@ -29808,7 +29814,7 @@
         <v>23</v>
       </c>
       <c r="F361" s="6">
-        <v>389.86</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>23</v>
@@ -29867,7 +29873,7 @@
         <v>23</v>
       </c>
       <c r="F362" s="6">
-        <v>381.3</v>
+        <v>350.4</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>23</v>
@@ -30044,7 +30050,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3643.88</v>
+        <v>3423.5</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30103,7 +30109,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>3798.84</v>
+        <v>2046.5</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30162,7 +30168,7 @@
         <v>23</v>
       </c>
       <c r="F367" s="6">
-        <v>664.8</v>
+        <v>675.2</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>23</v>
@@ -30221,7 +30227,7 @@
         <v>23</v>
       </c>
       <c r="F368" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>23</v>
@@ -30280,7 +30286,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="6">
-        <v>209.9</v>
+        <v>10</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>23</v>
@@ -30457,7 +30463,7 @@
         <v>23</v>
       </c>
       <c r="F372" s="6">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>23</v>
@@ -30575,7 +30581,7 @@
         <v>23</v>
       </c>
       <c r="F374" s="6">
-        <v>1088.21</v>
+        <v>1066.0999999999999</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>23</v>
@@ -30634,7 +30640,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1572.28</v>
+        <v>1451.65</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30693,7 +30699,7 @@
         <v>23</v>
       </c>
       <c r="F376" s="6">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>23</v>
@@ -30752,7 +30758,7 @@
         <v>23</v>
       </c>
       <c r="F377" s="6">
-        <v>278.14999999999998</v>
+        <v>224.7</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>23</v>
@@ -30811,7 +30817,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="6">
-        <v>146.5</v>
+        <v>112.5</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>23</v>
@@ -30870,7 +30876,7 @@
         <v>23</v>
       </c>
       <c r="F379" s="6">
-        <v>5.54</v>
+        <v>5</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>23</v>
@@ -30929,7 +30935,7 @@
         <v>23</v>
       </c>
       <c r="F380" s="6">
-        <v>128.9</v>
+        <v>110.5</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>23</v>
@@ -30988,7 +30994,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>51.4</v>
+        <v>60</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -31047,7 +31053,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>474.89</v>
+        <v>287</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -31106,7 +31112,7 @@
         <v>23</v>
       </c>
       <c r="F383" s="6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>23</v>
@@ -31165,7 +31171,7 @@
         <v>23</v>
       </c>
       <c r="F384" s="6">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>23</v>
@@ -31224,7 +31230,7 @@
         <v>23</v>
       </c>
       <c r="F385" s="6">
-        <v>971.2</v>
+        <v>971.1</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>23</v>
@@ -31283,7 +31289,7 @@
         <v>23</v>
       </c>
       <c r="F386" s="6">
-        <v>2444.1999999999998</v>
+        <v>2474.1999999999998</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>23</v>
@@ -31401,7 +31407,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>124.5</v>
+        <v>121.5</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31519,7 +31525,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>4111.74</v>
+        <v>5404.62</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31578,7 +31584,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>380.22</v>
+        <v>210.6</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31637,7 +31643,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1586.31</v>
+        <v>1526.7</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31755,7 +31761,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>29.02</v>
+        <v>115.14</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31776,7 +31782,7 @@
         <v>23</v>
       </c>
       <c r="M394" s="6">
-        <v>3.75</v>
+        <v>3.02</v>
       </c>
       <c r="N394" s="6">
         <v>0</v>
@@ -31814,7 +31820,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7880.01</v>
+        <v>7929.5</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -31873,7 +31879,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>4841.12</v>
+        <v>4154.41</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31932,7 +31938,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>5902.96</v>
+        <v>1246.02</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31991,7 +31997,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>4878.75</v>
+        <v>2371</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32050,7 +32056,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>5281.81</v>
+        <v>1870.4</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32109,7 +32115,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>3318.32</v>
+        <v>2894.92</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32168,7 +32174,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1199.07</v>
+        <v>1989.4</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32227,7 +32233,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>723.38</v>
+        <v>631.05999999999995</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32286,7 +32292,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>2198.2399999999998</v>
+        <v>2164.6999999999998</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32345,7 +32351,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>2233.04</v>
+        <v>1523.22</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32404,7 +32410,7 @@
         <v>23</v>
       </c>
       <c r="F405" s="6">
-        <v>230.9</v>
+        <v>189.1</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>23</v>
@@ -32463,7 +32469,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>334.16</v>
+        <v>188.41</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32522,7 +32528,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1279.5</v>
+        <v>1151.81</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32581,7 +32587,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>550.17499999999995</v>
+        <v>388.3</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32640,7 +32646,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>4768.7700000000004</v>
+        <v>3600.45</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32699,7 +32705,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>351.78</v>
+        <v>1338</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32758,7 +32764,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>166.24</v>
+        <v>37</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32817,7 +32823,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>738.48</v>
+        <v>629</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -32876,7 +32882,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>578.58000000000004</v>
+        <v>472.34</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32935,7 +32941,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>257.33</v>
+        <v>1046.5999999999999</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -32956,7 +32962,7 @@
         <v>23</v>
       </c>
       <c r="M414" s="6">
-        <v>2.61</v>
+        <v>3.02</v>
       </c>
       <c r="N414" s="6">
         <v>0</v>
@@ -33171,7 +33177,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>80.97</v>
+        <v>152.34</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33289,7 +33295,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="6">
-        <v>2534.38</v>
+        <v>2523.1</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>23</v>
@@ -33348,7 +33354,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>1875.19</v>
+        <v>1822.6</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33466,7 +33472,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>495.75</v>
+        <v>107</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33525,7 +33531,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>32.56</v>
+        <v>6.58</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33584,7 +33590,7 @@
         <v>23</v>
       </c>
       <c r="F425" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G425" s="6" t="s">
         <v>23</v>
@@ -33643,7 +33649,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1364.03</v>
+        <v>1269.4000000000001</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33702,7 +33708,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>3381.34</v>
+        <v>1489.08</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33723,7 +33729,7 @@
         <v>23</v>
       </c>
       <c r="M427" s="6">
-        <v>3.02</v>
+        <v>2.46</v>
       </c>
       <c r="N427" s="6">
         <v>0</v>
@@ -33761,7 +33767,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>633.53</v>
+        <v>1354.3</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33820,7 +33826,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>12633.95</v>
+        <v>7544.25</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33879,7 +33885,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3260.35</v>
+        <v>3195.3</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -33997,7 +34003,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>629.04999999999995</v>
+        <v>533.4</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34056,7 +34062,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>991.19</v>
+        <v>925.4</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -34233,7 +34239,7 @@
         <v>23</v>
       </c>
       <c r="F436" s="6">
-        <v>99.1</v>
+        <v>120.4</v>
       </c>
       <c r="G436" s="6" t="s">
         <v>23</v>
@@ -34292,7 +34298,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>359.63</v>
+        <v>282</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -34351,7 +34357,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1207.18</v>
+        <v>1060.4000000000001</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -34882,7 +34888,7 @@
         <v>23</v>
       </c>
       <c r="F447" s="6">
-        <v>9.25</v>
+        <v>5</v>
       </c>
       <c r="G447" s="6" t="s">
         <v>23</v>
@@ -34941,7 +34947,7 @@
         <v>23</v>
       </c>
       <c r="F448" s="6">
-        <v>90.35</v>
+        <v>47.5</v>
       </c>
       <c r="G448" s="6" t="s">
         <v>23</v>
@@ -35000,7 +35006,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>1277.94</v>
+        <v>896.1</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -35059,7 +35065,7 @@
         <v>23</v>
       </c>
       <c r="F450" s="6">
-        <v>303.39999999999998</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="G450" s="6" t="s">
         <v>23</v>
@@ -35118,7 +35124,7 @@
         <v>23</v>
       </c>
       <c r="F451" s="6">
-        <v>424.35</v>
+        <v>404.5</v>
       </c>
       <c r="G451" s="6" t="s">
         <v>23</v>
@@ -41136,7 +41142,7 @@
         <v>23</v>
       </c>
       <c r="F553" s="6">
-        <v>72.2</v>
+        <v>71.2</v>
       </c>
       <c r="G553" s="6" t="s">
         <v>23</v>
@@ -41195,7 +41201,7 @@
         <v>23</v>
       </c>
       <c r="F554" s="6">
-        <v>81.8</v>
+        <v>93.8</v>
       </c>
       <c r="G554" s="6" t="s">
         <v>23</v>
@@ -41313,7 +41319,7 @@
         <v>23</v>
       </c>
       <c r="F556" s="6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G556" s="6" t="s">
         <v>23</v>
@@ -41431,7 +41437,7 @@
         <v>23</v>
       </c>
       <c r="F558" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G558" s="6" t="s">
         <v>23</v>
@@ -57007,7 +57013,7 @@
         <v>23</v>
       </c>
       <c r="F822" s="6">
-        <v>165.2</v>
+        <v>170</v>
       </c>
       <c r="G822" s="6" t="s">
         <v>23</v>
@@ -57302,7 +57308,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="6">
-        <v>151.69999999999999</v>
+        <v>134</v>
       </c>
       <c r="G827" s="6" t="s">
         <v>23</v>
@@ -57774,7 +57780,7 @@
         <v>23</v>
       </c>
       <c r="F835" s="6">
-        <v>7287</v>
+        <v>7283</v>
       </c>
       <c r="G835" s="6" t="s">
         <v>23</v>
@@ -57951,7 +57957,7 @@
         <v>23</v>
       </c>
       <c r="F838" s="6">
-        <v>3598</v>
+        <v>2404</v>
       </c>
       <c r="G838" s="6" t="s">
         <v>23</v>
@@ -59603,7 +59609,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>426.44</v>
+        <v>1617</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59780,7 +59786,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>29155.03</v>
+        <v>15948.19</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60016,7 +60022,7 @@
         <v>23</v>
       </c>
       <c r="F873" s="6">
-        <v>135.77000000000001</v>
+        <v>37</v>
       </c>
       <c r="G873" s="6" t="s">
         <v>23</v>
@@ -60075,7 +60081,7 @@
         <v>23</v>
       </c>
       <c r="F874" s="6">
-        <v>39.33</v>
+        <v>6</v>
       </c>
       <c r="G874" s="6" t="s">
         <v>23</v>
@@ -60370,7 +60376,7 @@
         <v>23</v>
       </c>
       <c r="F879" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G879" s="6" t="s">
         <v>23</v>
@@ -60488,7 +60494,7 @@
         <v>23</v>
       </c>
       <c r="F881" s="6">
-        <v>91.03</v>
+        <v>0</v>
       </c>
       <c r="G881" s="6" t="s">
         <v>23</v>
@@ -60547,7 +60553,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>80944.399999999994</v>
+        <v>53673.05</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60606,7 +60612,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>25071.79</v>
+        <v>30261.07</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60665,7 +60671,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>40217.449999999997</v>
+        <v>37285.199999999997</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60724,7 +60730,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>9269.36</v>
+        <v>13183.12</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60783,7 +60789,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>3766.78</v>
+        <v>7069.78</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61609,7 +61615,7 @@
         <v>23</v>
       </c>
       <c r="F900" s="6">
-        <v>978.2</v>
+        <v>951.5</v>
       </c>
       <c r="G900" s="6" t="s">
         <v>23</v>
@@ -61668,7 +61674,7 @@
         <v>23</v>
       </c>
       <c r="F901" s="6">
-        <v>912.6</v>
+        <v>912</v>
       </c>
       <c r="G901" s="6" t="s">
         <v>23</v>
@@ -61727,7 +61733,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>10463.58</v>
+        <v>7678</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61786,7 +61792,7 @@
         <v>23</v>
       </c>
       <c r="F903" s="6">
-        <v>796.2</v>
+        <v>816.2</v>
       </c>
       <c r="G903" s="6" t="s">
         <v>23</v>
@@ -61904,7 +61910,7 @@
         <v>23</v>
       </c>
       <c r="F905" s="6">
-        <v>58.11</v>
+        <v>35</v>
       </c>
       <c r="G905" s="6" t="s">
         <v>23</v>
@@ -61963,7 +61969,7 @@
         <v>23</v>
       </c>
       <c r="F906" s="6">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>23</v>
@@ -62022,7 +62028,7 @@
         <v>23</v>
       </c>
       <c r="F907" s="6">
-        <v>2971.25</v>
+        <v>3015.4</v>
       </c>
       <c r="G907" s="6" t="s">
         <v>23</v>
@@ -62140,7 +62146,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1473.9</v>
+        <v>1669.5</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62199,7 +62205,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>917.48</v>
+        <v>433.8</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62258,7 +62264,7 @@
         <v>23</v>
       </c>
       <c r="F911" s="6">
-        <v>6618</v>
+        <v>6800.8</v>
       </c>
       <c r="G911" s="6" t="s">
         <v>23</v>
@@ -62317,7 +62323,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>3208.45</v>
+        <v>2672.2</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62376,7 +62382,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>3980.89</v>
+        <v>3992.6</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62435,7 +62441,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>1121.9000000000001</v>
+        <v>934.4</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62494,7 +62500,7 @@
         <v>23</v>
       </c>
       <c r="F915" s="6">
-        <v>549.20000000000005</v>
+        <v>496.8</v>
       </c>
       <c r="G915" s="6" t="s">
         <v>23</v>
@@ -62612,7 +62618,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>387.59</v>
+        <v>525.79999999999995</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -62671,7 +62677,7 @@
         <v>23</v>
       </c>
       <c r="F918" s="6">
-        <v>44.8</v>
+        <v>70</v>
       </c>
       <c r="G918" s="6" t="s">
         <v>23</v>
@@ -62730,7 +62736,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3648.56</v>
+        <v>3550</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62789,7 +62795,7 @@
         <v>23</v>
       </c>
       <c r="F920" s="6">
-        <v>526.70000000000005</v>
+        <v>502.7</v>
       </c>
       <c r="G920" s="6" t="s">
         <v>23</v>
@@ -62907,7 +62913,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>998.19</v>
+        <v>908.66</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -62966,7 +62972,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>1500.3</v>
+        <v>1011.9</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63025,7 +63031,7 @@
         <v>23</v>
       </c>
       <c r="F924" s="6">
-        <v>139.6</v>
+        <v>75</v>
       </c>
       <c r="G924" s="6" t="s">
         <v>23</v>
@@ -63084,7 +63090,7 @@
         <v>23</v>
       </c>
       <c r="F925" s="6">
-        <v>122</v>
+        <v>1289.5</v>
       </c>
       <c r="G925" s="6" t="s">
         <v>23</v>
@@ -63202,7 +63208,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>7466.23</v>
+        <v>6522.3</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63320,7 +63326,7 @@
         <v>23</v>
       </c>
       <c r="F929" s="6">
-        <v>9587.42</v>
+        <v>9520.9</v>
       </c>
       <c r="G929" s="6" t="s">
         <v>23</v>
@@ -63497,7 +63503,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>303.89999999999998</v>
+        <v>693.8</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63615,7 +63621,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>1153.45</v>
+        <v>1145.2</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -63674,7 +63680,7 @@
         <v>23</v>
       </c>
       <c r="F935" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G935" s="6" t="s">
         <v>23</v>
@@ -63910,7 +63916,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>250.53</v>
+        <v>1340.57</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -63969,7 +63975,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>2989.9</v>
+        <v>2956.4</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -64087,7 +64093,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>561.72</v>
+        <v>1250.8699999999999</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64146,7 +64152,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>451.43</v>
+        <v>436.71</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64205,7 +64211,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>789.93</v>
+        <v>673.52</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64264,7 +64270,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>636.78</v>
+        <v>921.99</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64323,7 +64329,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>4181.2700000000004</v>
+        <v>2546.3200000000002</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64618,7 +64624,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>6205.17</v>
+        <v>5860.7</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64677,7 +64683,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>2531.0300000000002</v>
+        <v>2298.1999999999998</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64736,7 +64742,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>142.04</v>
+        <v>32.9</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64795,7 +64801,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>359.75</v>
+        <v>359.5</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -64854,7 +64860,7 @@
         <v>23</v>
       </c>
       <c r="F955" s="6">
-        <v>199.88</v>
+        <v>169.5</v>
       </c>
       <c r="G955" s="6" t="s">
         <v>23</v>
@@ -64913,7 +64919,7 @@
         <v>23</v>
       </c>
       <c r="F956" s="6">
-        <v>3042.4</v>
+        <v>3058.4</v>
       </c>
       <c r="G956" s="6" t="s">
         <v>23</v>
@@ -64972,7 +64978,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>1292.73</v>
+        <v>1269.2</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65031,7 +65037,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>627.70000000000005</v>
+        <v>679.7</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -65090,7 +65096,7 @@
         <v>23</v>
       </c>
       <c r="F959" s="6">
-        <v>1055.3</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="G959" s="6" t="s">
         <v>23</v>
@@ -65149,7 +65155,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>85.4</v>
+        <v>66</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -65208,7 +65214,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>97.2</v>
+        <v>12</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65267,7 +65273,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>8506.6</v>
+        <v>8451.7000000000007</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65326,7 +65332,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>1281.54</v>
+        <v>1042.0999999999999</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65444,7 +65450,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>58.58</v>
+        <v>32</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65562,7 +65568,7 @@
         <v>23</v>
       </c>
       <c r="F967" s="6">
-        <v>27.5</v>
+        <v>12</v>
       </c>
       <c r="G967" s="6" t="s">
         <v>23</v>
@@ -65739,7 +65745,7 @@
         <v>23</v>
       </c>
       <c r="F970" s="6">
-        <v>189.39</v>
+        <v>189.3</v>
       </c>
       <c r="G970" s="6" t="s">
         <v>23</v>
@@ -67509,7 +67515,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>4095.57</v>
+        <v>6864.5</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -67568,7 +67574,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>15253.73</v>
+        <v>21127.68</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67627,7 +67633,7 @@
         <v>23</v>
       </c>
       <c r="F1002" s="6">
-        <v>801.4</v>
+        <v>618.4</v>
       </c>
       <c r="G1002" s="6" t="s">
         <v>23</v>
@@ -67686,7 +67692,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3514.7</v>
+        <v>3464.8</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67745,7 +67751,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>359.34</v>
+        <v>243.77</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67804,7 +67810,7 @@
         <v>23</v>
       </c>
       <c r="F1005" s="6">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G1005" s="6" t="s">
         <v>23</v>
@@ -67863,7 +67869,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>929.12</v>
+        <v>580</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -67922,7 +67928,7 @@
         <v>23</v>
       </c>
       <c r="F1007" s="6">
-        <v>0.95</v>
+        <v>5</v>
       </c>
       <c r="G1007" s="6" t="s">
         <v>23</v>
@@ -67981,7 +67987,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>622.57000000000005</v>
+        <v>294.16000000000003</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68040,7 +68046,7 @@
         <v>23</v>
       </c>
       <c r="F1009" s="6">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="G1009" s="6" t="s">
         <v>23</v>
@@ -68099,7 +68105,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>607.09</v>
+        <v>592.5</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68335,7 +68341,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>2388.25</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68394,7 +68400,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>4121.3999999999996</v>
+        <v>1565.4</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68453,7 +68459,7 @@
         <v>23</v>
       </c>
       <c r="F1016" s="6">
-        <v>466.3</v>
+        <v>449.3</v>
       </c>
       <c r="G1016" s="6" t="s">
         <v>23</v>
@@ -68512,7 +68518,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>808.02</v>
+        <v>236.59</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68571,7 +68577,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>1294.74</v>
+        <v>919.7</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68630,7 +68636,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>1324.29</v>
+        <v>945.99</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68689,7 +68695,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>715.97</v>
+        <v>480</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68748,7 +68754,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>3087.92</v>
+        <v>2843.87</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68807,7 +68813,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>6134.55</v>
+        <v>8890.25</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68866,7 +68872,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>4508.88</v>
+        <v>5931.98</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68925,7 +68931,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>12085.35</v>
+        <v>14289.64</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69102,7 +69108,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>9401.23</v>
+        <v>8083.89</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69161,7 +69167,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>1085.55</v>
+        <v>888.45</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69220,7 +69226,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>529.66999999999996</v>
+        <v>1447.6</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69279,7 +69285,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>-92.35</v>
+        <v>2696.5</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69300,7 +69306,7 @@
         <v>23</v>
       </c>
       <c r="M1030" s="6">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="N1030" s="6">
         <v>0</v>
@@ -69338,7 +69344,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>1040.8</v>
+        <v>793.35</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69397,7 +69403,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>274.81</v>
+        <v>1032.2</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69456,7 +69462,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>2424.1</v>
+        <v>2276.85</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69515,7 +69521,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>1056.53</v>
+        <v>824.3</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69574,7 +69580,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>7905.02</v>
+        <v>10079.9</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69633,7 +69639,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>3026.69</v>
+        <v>2884.2</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69692,7 +69698,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>15.22968</v>
+        <v>62</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69751,7 +69757,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>523.78</v>
+        <v>1965.61</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69810,7 +69816,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2143.4</v>
+        <v>1802.1</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69869,7 +69875,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>428.69</v>
+        <v>1630.85</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70046,7 +70052,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>686.7</v>
+        <v>1404.8</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -70105,7 +70111,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>510.9</v>
+        <v>1059.5</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -70223,7 +70229,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>959.48</v>
+        <v>902.4</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70754,7 +70760,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>175.58</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -70872,7 +70878,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>825.15</v>
+        <v>4827.3999999999996</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70931,7 +70937,7 @@
         <v>23</v>
       </c>
       <c r="F1058" s="6">
-        <v>1853.6</v>
+        <v>1830.6</v>
       </c>
       <c r="G1058" s="6" t="s">
         <v>23</v>
@@ -70990,7 +70996,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>16029.41</v>
+        <v>15347.54</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71049,7 +71055,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>18143.37</v>
+        <v>15663.8</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71108,7 +71114,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>147.79</v>
+        <v>115.9</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71167,7 +71173,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>3964.21</v>
+        <v>5349.56</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71226,7 +71232,7 @@
         <v>23</v>
       </c>
       <c r="F1063" s="6">
-        <v>581.65</v>
+        <v>528.79999999999995</v>
       </c>
       <c r="G1063" s="6" t="s">
         <v>23</v>
@@ -71285,7 +71291,7 @@
         <v>23</v>
       </c>
       <c r="F1064" s="6">
-        <v>315.3</v>
+        <v>279.3</v>
       </c>
       <c r="G1064" s="6" t="s">
         <v>23</v>
@@ -71344,7 +71350,7 @@
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>814.95</v>
+        <v>781.9</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71521,7 +71527,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>11801.69</v>
+        <v>10417.75</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71757,7 +71763,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>14651.15</v>
+        <v>13578.07</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71816,7 +71822,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>1749.66</v>
+        <v>1840.4</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71875,7 +71881,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>18817.39</v>
+        <v>18375.8</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71934,7 +71940,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>11317.46</v>
+        <v>12543.79</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71993,7 +71999,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>121531.61</v>
+        <v>73559.17</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72052,7 +72058,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>3096.74</v>
+        <v>6724.49</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72111,7 +72117,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>23631.47</v>
+        <v>21255.19</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72170,7 +72176,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>3222.06</v>
+        <v>2752</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72229,7 +72235,7 @@
         <v>23</v>
       </c>
       <c r="F1080" s="6">
-        <v>253.78</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="G1080" s="6" t="s">
         <v>23</v>
@@ -72288,7 +72294,7 @@
         <v>23</v>
       </c>
       <c r="F1081" s="6">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="G1081" s="6" t="s">
         <v>23</v>
@@ -72347,7 +72353,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>372.72</v>
+        <v>339</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72406,7 +72412,7 @@
         <v>23</v>
       </c>
       <c r="F1083" s="6">
-        <v>415.52</v>
+        <v>281</v>
       </c>
       <c r="G1083" s="6" t="s">
         <v>23</v>
@@ -72524,7 +72530,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>202.3</v>
+        <v>119.2</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72701,7 +72707,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>4373.8</v>
+        <v>2253.84</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72760,7 +72766,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>1685.93</v>
+        <v>1223</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72819,7 +72825,7 @@
         <v>23</v>
       </c>
       <c r="F1090" s="6">
-        <v>65.400000000000006</v>
+        <v>72.3</v>
       </c>
       <c r="G1090" s="6" t="s">
         <v>23</v>
@@ -72878,7 +72884,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>2045.36</v>
+        <v>1728.87</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73114,7 +73120,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>554.16</v>
+        <v>1340.3</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73173,7 +73179,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>449.62</v>
+        <v>301.77</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73232,7 +73238,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>42</v>
+        <v>44.5</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73291,7 +73297,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>366.77</v>
+        <v>383.36</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73350,7 +73356,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>106.776</v>
+        <v>50.05</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73409,7 +73415,7 @@
         <v>23</v>
       </c>
       <c r="F1100" s="6">
-        <v>163</v>
+        <v>120.4</v>
       </c>
       <c r="G1100" s="6" t="s">
         <v>23</v>
@@ -73468,7 +73474,7 @@
         <v>23</v>
       </c>
       <c r="F1101" s="6">
-        <v>221.4</v>
+        <v>236.4</v>
       </c>
       <c r="G1101" s="6" t="s">
         <v>23</v>
@@ -73527,7 +73533,7 @@
         <v>23</v>
       </c>
       <c r="F1102" s="6">
-        <v>2366.7399999999998</v>
+        <v>2253.8000000000002</v>
       </c>
       <c r="G1102" s="6" t="s">
         <v>23</v>
@@ -73586,7 +73592,7 @@
         <v>23</v>
       </c>
       <c r="F1103" s="6">
-        <v>1043.96</v>
+        <v>2386.4</v>
       </c>
       <c r="G1103" s="6" t="s">
         <v>23</v>
@@ -73645,7 +73651,7 @@
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>3432.88</v>
+        <v>3642.8</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73822,7 +73828,7 @@
         <v>23</v>
       </c>
       <c r="F1107" s="6">
-        <v>3924</v>
+        <v>4033</v>
       </c>
       <c r="G1107" s="6" t="s">
         <v>23</v>
@@ -73881,7 +73887,7 @@
         <v>23</v>
       </c>
       <c r="F1108" s="6">
-        <v>425.85</v>
+        <v>393.4</v>
       </c>
       <c r="G1108" s="6" t="s">
         <v>23</v>
@@ -73940,7 +73946,7 @@
         <v>23</v>
       </c>
       <c r="F1109" s="6">
-        <v>18.309999999999999</v>
+        <v>13</v>
       </c>
       <c r="G1109" s="6" t="s">
         <v>23</v>
@@ -74058,7 +74064,7 @@
         <v>23</v>
       </c>
       <c r="F1111" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G1111" s="6" t="s">
         <v>23</v>
@@ -74294,7 +74300,7 @@
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>73.94</v>
+        <v>40</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74353,7 +74359,7 @@
         <v>23</v>
       </c>
       <c r="F1116" s="6">
-        <v>345.66</v>
+        <v>305</v>
       </c>
       <c r="G1116" s="6" t="s">
         <v>23</v>
@@ -74412,7 +74418,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>311.22000000000003</v>
+        <v>292.8</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74471,7 +74477,7 @@
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>111.08</v>
+        <v>58.4</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -74530,7 +74536,7 @@
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>320.27999999999997</v>
+        <v>269.8</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -74648,7 +74654,7 @@
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>49.94</v>
+        <v>239.3</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -75002,7 +75008,7 @@
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>102.94</v>
+        <v>0</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -75120,7 +75126,7 @@
         <v>23</v>
       </c>
       <c r="F1129" s="6">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="G1129" s="6" t="s">
         <v>23</v>
@@ -75138,10 +75144,10 @@
         <v>21</v>
       </c>
       <c r="L1129" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1129" s="6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N1129" s="6">
         <v>0</v>
@@ -75179,7 +75185,7 @@
         <v>23</v>
       </c>
       <c r="F1130" s="6">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="G1130" s="6" t="s">
         <v>23</v>
@@ -75197,10 +75203,10 @@
         <v>21</v>
       </c>
       <c r="L1130" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1130" s="6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N1130" s="6">
         <v>0</v>
@@ -75238,7 +75244,7 @@
         <v>23</v>
       </c>
       <c r="F1131" s="6">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="G1131" s="6" t="s">
         <v>23</v>
@@ -75256,10 +75262,10 @@
         <v>21</v>
       </c>
       <c r="L1131" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1131" s="6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N1131" s="6">
         <v>0</v>
@@ -75282,16 +75288,16 @@
     </row>
     <row r="1132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1132" s="5" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>21</v>
+        <v>2705</v>
       </c>
       <c r="D1132" s="5" t="s">
-        <v>21</v>
+        <v>2706</v>
       </c>
       <c r="E1132" s="6" t="s">
         <v>23</v>
@@ -75330,7 +75336,7 @@
         <v>21</v>
       </c>
       <c r="Q1132" s="5" t="s">
-        <v>21</v>
+        <v>2705</v>
       </c>
       <c r="R1132" s="6" t="s">
         <v>23</v>
@@ -75341,7 +75347,7 @@
     </row>
     <row r="1133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1133" s="5" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>21</v>
@@ -75400,16 +75406,16 @@
     </row>
     <row r="1134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1134" s="5" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1134" s="5" t="s">
         <v>2693</v>
       </c>
-      <c r="B1134" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1134" s="5" t="s">
+      <c r="D1134" s="5" t="s">
         <v>2694</v>
-      </c>
-      <c r="D1134" s="5" t="s">
-        <v>2695</v>
       </c>
       <c r="E1134" s="6" t="s">
         <v>23</v>
@@ -75448,7 +75454,7 @@
         <v>21</v>
       </c>
       <c r="Q1134" s="5" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="R1134" s="6" t="s">
         <v>23</v>
@@ -75459,16 +75465,16 @@
     </row>
     <row r="1135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1135" s="5" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1135" s="5" t="s">
         <v>2696</v>
       </c>
-      <c r="B1135" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1135" s="5" t="s">
+      <c r="D1135" s="5" t="s">
         <v>2697</v>
-      </c>
-      <c r="D1135" s="5" t="s">
-        <v>2698</v>
       </c>
       <c r="E1135" s="6" t="s">
         <v>23</v>
@@ -75507,7 +75513,7 @@
         <v>21</v>
       </c>
       <c r="Q1135" s="5" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="R1135" s="6" t="s">
         <v>23</v>
@@ -75518,22 +75524,22 @@
     </row>
     <row r="1136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1136" s="5" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1136" s="5" t="s">
         <v>2699</v>
       </c>
-      <c r="B1136" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1136" s="5" t="s">
+      <c r="D1136" s="5" t="s">
         <v>2700</v>
       </c>
-      <c r="D1136" s="5" t="s">
-        <v>2701</v>
-      </c>
       <c r="E1136" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1136" s="6">
-        <v>0</v>
+        <v>199.1</v>
       </c>
       <c r="G1136" s="6" t="s">
         <v>23</v>
@@ -75551,10 +75557,10 @@
         <v>21</v>
       </c>
       <c r="L1136" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1136" s="6">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="N1136" s="6">
         <v>0</v>
@@ -75566,7 +75572,7 @@
         <v>21</v>
       </c>
       <c r="Q1136" s="5" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="R1136" s="6" t="s">
         <v>23</v>
@@ -75577,16 +75583,16 @@
     </row>
     <row r="1137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1137" s="5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1137" s="5" t="s">
         <v>2702</v>
       </c>
-      <c r="B1137" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1137" s="5" t="s">
+      <c r="D1137" s="5" t="s">
         <v>2703</v>
-      </c>
-      <c r="D1137" s="5" t="s">
-        <v>2704</v>
       </c>
       <c r="E1137" s="6" t="s">
         <v>23</v>
@@ -75625,7 +75631,7 @@
         <v>21</v>
       </c>
       <c r="Q1137" s="5" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="R1137" s="6" t="s">
         <v>23</v>
@@ -75769,7 +75775,7 @@
         <v>23</v>
       </c>
       <c r="F1140" s="6">
-        <v>114.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G1140" s="6" t="s">
         <v>23</v>
@@ -76005,7 +76011,7 @@
         <v>23</v>
       </c>
       <c r="F1144" s="6">
-        <v>153</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="G1144" s="6" t="s">
         <v>23</v>
@@ -76064,7 +76070,7 @@
         <v>23</v>
       </c>
       <c r="F1145" s="6">
-        <v>30.9</v>
+        <v>6</v>
       </c>
       <c r="G1145" s="6" t="s">
         <v>23</v>
@@ -76123,7 +76129,7 @@
         <v>23</v>
       </c>
       <c r="F1146" s="6">
-        <v>258.33999999999997</v>
+        <v>1371.1</v>
       </c>
       <c r="G1146" s="6" t="s">
         <v>23</v>
@@ -76182,7 +76188,7 @@
         <v>23</v>
       </c>
       <c r="F1147" s="6">
-        <v>1100.8800000000001</v>
+        <v>361.4</v>
       </c>
       <c r="G1147" s="6" t="s">
         <v>23</v>
@@ -76241,7 +76247,7 @@
         <v>23</v>
       </c>
       <c r="F1148" s="6">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="G1148" s="6" t="s">
         <v>23</v>
@@ -76259,10 +76265,10 @@
         <v>21</v>
       </c>
       <c r="L1148" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1148" s="6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="N1148" s="6">
         <v>0</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17196" uniqueCount="2707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17226" uniqueCount="2715">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8137,13 +8137,37 @@
     <t>LORIS 37 AZUL PETROL</t>
   </si>
   <si>
-    <t>Lista Produto : 30/04/2021 14:18:59</t>
-  </si>
-  <si>
     <t>G4721</t>
   </si>
   <si>
     <t>ZENITH 601 (AZUL)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 17/05/2021 18:22:13</t>
+  </si>
+  <si>
+    <t>G5502</t>
+  </si>
+  <si>
+    <t>SOLID 03 ICE</t>
+  </si>
+  <si>
+    <t>TC15239</t>
+  </si>
+  <si>
+    <t>G5510</t>
+  </si>
+  <si>
+    <t>SOLID 80 CINZA CLARO</t>
+  </si>
+  <si>
+    <t>TC15240</t>
+  </si>
+  <si>
+    <t>G5511</t>
+  </si>
+  <si>
+    <t>SOLID 99 CINZA ESCURO</t>
   </si>
 </sst>
 </file>
@@ -8310,8 +8334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1148" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1148"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1150" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1150"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8600,10 +8624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1148"/>
+  <dimension ref="A1:S1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8654,7 +8678,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10285,7 +10309,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>833.48</v>
+        <v>831.83</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10344,7 +10368,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>2579.15</v>
+        <v>2493.6999999999998</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10757,7 +10781,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -10816,7 +10840,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>3027.2</v>
+        <v>4921.6000000000004</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11111,7 +11135,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>1906</v>
+        <v>1680</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11583,7 +11607,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>3631</v>
+        <v>3402.64</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11642,7 +11666,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>19180.990000000002</v>
+        <v>21231.69</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11701,7 +11725,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>1049.97</v>
+        <v>3753.76</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12232,7 +12256,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>51.3</v>
+        <v>50.2</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12291,7 +12315,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>21585.85</v>
+        <v>21491.05</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12409,7 +12433,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>1443.5</v>
+        <v>1400</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12527,7 +12551,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>427.19</v>
+        <v>3463.35</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12548,7 +12572,7 @@
         <v>23</v>
       </c>
       <c r="M68" s="6">
-        <v>1.96</v>
+        <v>2.41</v>
       </c>
       <c r="N68" s="6">
         <v>0</v>
@@ -12586,7 +12610,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>9951.83</v>
+        <v>9934.01</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12763,7 +12787,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>88.1</v>
+        <v>1500.46</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12822,7 +12846,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>13762.35</v>
+        <v>22987.05</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13117,7 +13141,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>23571.21</v>
+        <v>11356.39</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13294,7 +13318,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>1023.2</v>
+        <v>1031</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -23619,7 +23643,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>1015.5</v>
+        <v>978.3</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -23678,7 +23702,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>956.5</v>
+        <v>952.27</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24799,7 +24823,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>1990</v>
+        <v>2241</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -25271,7 +25295,7 @@
         <v>23</v>
       </c>
       <c r="F284" s="6">
-        <v>635.5</v>
+        <v>552.70000000000005</v>
       </c>
       <c r="G284" s="6" t="s">
         <v>23</v>
@@ -25389,7 +25413,7 @@
         <v>23</v>
       </c>
       <c r="F286" s="6">
-        <v>773</v>
+        <v>771.85</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>23</v>
@@ -26215,7 +26239,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>1231.8</v>
+        <v>400.03</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26236,7 +26260,7 @@
         <v>23</v>
       </c>
       <c r="M300" s="6">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="N300" s="6">
         <v>0</v>
@@ -26274,7 +26298,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>2557</v>
+        <v>2501.2399999999998</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -26687,7 +26711,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="6">
-        <v>3523.5</v>
+        <v>3449.9</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>23</v>
@@ -27336,7 +27360,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1742.5</v>
+        <v>1649.57</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -27454,7 +27478,7 @@
         <v>23</v>
       </c>
       <c r="F321" s="6">
-        <v>581.70000000000005</v>
+        <v>565.20000000000005</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>23</v>
@@ -27513,7 +27537,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="6">
-        <v>1066.5999999999999</v>
+        <v>1058.3499999999999</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>23</v>
@@ -28752,7 +28776,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="6">
-        <v>418.5</v>
+        <v>317.14</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>23</v>
@@ -29047,7 +29071,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>98.5</v>
+        <v>79.28</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -29165,7 +29189,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>1886.9</v>
+        <v>1878.65</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -29283,7 +29307,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="6">
-        <v>3389.7</v>
+        <v>2860.45</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>23</v>
@@ -29342,7 +29366,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>118</v>
+        <v>69.95</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -29932,7 +29956,7 @@
         <v>23</v>
       </c>
       <c r="F363" s="6">
-        <v>198.8</v>
+        <v>197.32</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>23</v>
@@ -30050,7 +30074,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3423.5</v>
+        <v>3420.22</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30109,7 +30133,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>2046.5</v>
+        <v>141.74</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30227,7 +30251,7 @@
         <v>23</v>
       </c>
       <c r="F368" s="6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>23</v>
@@ -30286,7 +30310,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="6">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>23</v>
@@ -30758,7 +30782,7 @@
         <v>23</v>
       </c>
       <c r="F377" s="6">
-        <v>224.7</v>
+        <v>73.8</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>23</v>
@@ -30994,7 +31018,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -31407,7 +31431,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>121.5</v>
+        <v>215.46</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31525,7 +31549,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>5404.62</v>
+        <v>5584.75</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31761,7 +31785,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>115.14</v>
+        <v>112.27</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -31879,7 +31903,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>4154.41</v>
+        <v>3708.53</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31938,7 +31962,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>1246.02</v>
+        <v>930.49</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -31997,7 +32021,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>2371</v>
+        <v>1419.37</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32056,7 +32080,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>1870.4</v>
+        <v>922.95</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32115,7 +32139,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2894.92</v>
+        <v>2776.16</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32174,7 +32198,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1989.4</v>
+        <v>1626.65</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32233,7 +32257,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>631.05999999999995</v>
+        <v>204.23</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32292,7 +32316,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>2164.6999999999998</v>
+        <v>1653.08</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32351,7 +32375,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1523.22</v>
+        <v>1029.72</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32410,7 +32434,7 @@
         <v>23</v>
       </c>
       <c r="F405" s="6">
-        <v>189.1</v>
+        <v>188.08</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>23</v>
@@ -32587,7 +32611,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>388.3</v>
+        <v>386.05</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32646,7 +32670,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>3600.45</v>
+        <v>5131.33</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32705,7 +32729,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1338</v>
+        <v>1315.47</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32764,7 +32788,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>37</v>
+        <v>33.03</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -32882,7 +32906,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>472.34</v>
+        <v>476.1</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32941,7 +32965,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1046.5999999999999</v>
+        <v>1745.81</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33177,7 +33201,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>152.34</v>
+        <v>152.19</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33472,7 +33496,7 @@
         <v>23</v>
       </c>
       <c r="F423" s="6">
-        <v>107</v>
+        <v>82.37</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>23</v>
@@ -33531,7 +33555,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>6.58</v>
+        <v>5.78</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33649,7 +33673,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1269.4000000000001</v>
+        <v>1268.6500000000001</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33708,7 +33732,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>1489.08</v>
+        <v>1459.54</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33826,7 +33850,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>7544.25</v>
+        <v>7436</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34003,7 +34027,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>533.4</v>
+        <v>530.48</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34357,7 +34381,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1060.4000000000001</v>
+        <v>1053.3699999999999</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -34947,7 +34971,7 @@
         <v>23</v>
       </c>
       <c r="F448" s="6">
-        <v>47.5</v>
+        <v>46.75</v>
       </c>
       <c r="G448" s="6" t="s">
         <v>23</v>
@@ -59609,7 +59633,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1617</v>
+        <v>1280.18</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59786,7 +59810,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>15948.19</v>
+        <v>22086.47</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60553,7 +60577,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>53673.05</v>
+        <v>83516.95</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60612,7 +60636,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>30261.07</v>
+        <v>34172.269999999997</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60671,7 +60695,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>37285.199999999997</v>
+        <v>53276.2</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60730,7 +60754,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>13183.12</v>
+        <v>12429.38</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60789,7 +60813,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>7069.78</v>
+        <v>6859.6</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61733,7 +61757,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>7678</v>
+        <v>8446.5</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61969,7 +61993,7 @@
         <v>23</v>
       </c>
       <c r="F906" s="6">
-        <v>434</v>
+        <v>313.04000000000002</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>23</v>
@@ -62736,7 +62760,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3550</v>
+        <v>3494.46</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62913,7 +62937,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>908.66</v>
+        <v>686.62</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -62972,7 +62996,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>1011.9</v>
+        <v>489.12</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63208,7 +63232,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>6522.3</v>
+        <v>6211.88</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63503,7 +63527,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>693.8</v>
+        <v>1003.2</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63916,7 +63940,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1340.57</v>
+        <v>1283.1500000000001</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64093,7 +64117,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>1250.8699999999999</v>
+        <v>1076.58</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64152,7 +64176,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>436.71</v>
+        <v>422.35</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64211,7 +64235,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>673.52</v>
+        <v>1619.52</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64270,7 +64294,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>921.99</v>
+        <v>1854.11</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64329,7 +64353,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>2546.3200000000002</v>
+        <v>2526.15</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64624,7 +64648,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>5860.7</v>
+        <v>4512.62</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64683,7 +64707,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>2298.1999999999998</v>
+        <v>919.03</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64742,7 +64766,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>32.9</v>
+        <v>25.15</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64801,7 +64825,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>359.5</v>
+        <v>1886.2</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -65273,7 +65297,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>8451.7000000000007</v>
+        <v>459.42</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65332,7 +65356,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>1042.0999999999999</v>
+        <v>203.4</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -67515,7 +67539,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>6864.5</v>
+        <v>6790.9</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -67574,7 +67598,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>21127.68</v>
+        <v>20118.89</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67692,7 +67716,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3464.8</v>
+        <v>3393.58</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67987,7 +68011,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>294.16000000000003</v>
+        <v>388.36</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68341,7 +68365,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>152.19999999999999</v>
+        <v>882.56</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68400,7 +68424,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>1565.4</v>
+        <v>1528.12</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68518,7 +68542,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>236.59</v>
+        <v>73.91</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68577,7 +68601,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>919.7</v>
+        <v>923.5</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68636,7 +68660,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>945.99</v>
+        <v>839.19</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68813,7 +68837,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>8890.25</v>
+        <v>7619.6</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68872,7 +68896,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>5931.98</v>
+        <v>6403.99</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68931,7 +68955,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>14289.64</v>
+        <v>14178.96</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69108,7 +69132,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>8083.89</v>
+        <v>8083.1</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69226,7 +69250,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>1447.6</v>
+        <v>1444.66</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69285,7 +69309,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>2696.5</v>
+        <v>2744.48</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69344,7 +69368,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>793.35</v>
+        <v>792.89</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69403,7 +69427,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>1032.2</v>
+        <v>1305.45</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69521,7 +69545,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>824.3</v>
+        <v>833.83</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -69580,7 +69604,7 @@
         <v>23</v>
       </c>
       <c r="F1035" s="6">
-        <v>10079.9</v>
+        <v>9662.34</v>
       </c>
       <c r="G1035" s="6" t="s">
         <v>23</v>
@@ -69698,7 +69722,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>62</v>
+        <v>168.9</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69719,7 +69743,7 @@
         <v>23</v>
       </c>
       <c r="M1037" s="6">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="N1037" s="6">
         <v>0</v>
@@ -69757,7 +69781,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>1965.61</v>
+        <v>1925.8</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69816,7 +69840,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>1802.1</v>
+        <v>729.52</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -69875,7 +69899,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>1630.85</v>
+        <v>1564.5</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70229,7 +70253,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>902.4</v>
+        <v>1712.6</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70878,7 +70902,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>4827.3999999999996</v>
+        <v>4362.95</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -70996,7 +71020,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>15347.54</v>
+        <v>11273.040999999999</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71055,7 +71079,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>15663.8</v>
+        <v>12302.42</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71114,7 +71138,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>115.9</v>
+        <v>3471.9</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71173,7 +71197,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>5349.56</v>
+        <v>4190.3599999999997</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71527,7 +71551,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>10417.75</v>
+        <v>9858.9500000000007</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71586,7 +71610,7 @@
         <v>23</v>
       </c>
       <c r="F1069" s="6">
-        <v>62.2</v>
+        <v>862.1</v>
       </c>
       <c r="G1069" s="6" t="s">
         <v>23</v>
@@ -71763,7 +71787,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>13578.07</v>
+        <v>12521.53</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71881,7 +71905,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>18375.8</v>
+        <v>18342.740000000002</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71940,7 +71964,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>12543.79</v>
+        <v>22370.54</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -71999,7 +72023,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>73559.17</v>
+        <v>54778.38</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72058,7 +72082,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>6724.49</v>
+        <v>6568.94</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72117,7 +72141,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>21255.19</v>
+        <v>14792.97</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72707,7 +72731,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>2253.84</v>
+        <v>580.55999999999995</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72766,7 +72790,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>1223</v>
+        <v>425.97</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72884,7 +72908,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>1728.87</v>
+        <v>1006.51</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73120,7 +73144,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>1340.3</v>
+        <v>1128.76</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73179,7 +73203,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>301.77</v>
+        <v>1212.57</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73297,7 +73321,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>383.36</v>
+        <v>382.86</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73415,7 +73439,7 @@
         <v>23</v>
       </c>
       <c r="F1100" s="6">
-        <v>120.4</v>
+        <v>198.3</v>
       </c>
       <c r="G1100" s="6" t="s">
         <v>23</v>
@@ -74654,7 +74678,7 @@
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>239.3</v>
+        <v>238.5</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -75294,10 +75318,10 @@
         <v>21</v>
       </c>
       <c r="C1132" s="5" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D1132" s="5" t="s">
         <v>2705</v>
-      </c>
-      <c r="D1132" s="5" t="s">
-        <v>2706</v>
       </c>
       <c r="E1132" s="6" t="s">
         <v>23</v>
@@ -75336,7 +75360,7 @@
         <v>21</v>
       </c>
       <c r="Q1132" s="5" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="R1132" s="6" t="s">
         <v>23</v>
@@ -75353,16 +75377,16 @@
         <v>21</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>21</v>
+        <v>2707</v>
       </c>
       <c r="D1133" s="5" t="s">
-        <v>21</v>
+        <v>2708</v>
       </c>
       <c r="E1133" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1133" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G1133" s="6" t="s">
         <v>23</v>
@@ -75380,7 +75404,7 @@
         <v>21</v>
       </c>
       <c r="L1133" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1133" s="6">
         <v>0</v>
@@ -75395,7 +75419,7 @@
         <v>21</v>
       </c>
       <c r="Q1133" s="5" t="s">
-        <v>21</v>
+        <v>2707</v>
       </c>
       <c r="R1133" s="6" t="s">
         <v>23</v>
@@ -75421,7 +75445,7 @@
         <v>23</v>
       </c>
       <c r="F1134" s="6">
-        <v>0</v>
+        <v>783.86</v>
       </c>
       <c r="G1134" s="6" t="s">
         <v>23</v>
@@ -75439,10 +75463,10 @@
         <v>21</v>
       </c>
       <c r="L1134" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1134" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N1134" s="6">
         <v>0</v>
@@ -75480,7 +75504,7 @@
         <v>23</v>
       </c>
       <c r="F1135" s="6">
-        <v>0</v>
+        <v>792.4</v>
       </c>
       <c r="G1135" s="6" t="s">
         <v>23</v>
@@ -75498,10 +75522,10 @@
         <v>21</v>
       </c>
       <c r="L1135" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1135" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N1135" s="6">
         <v>0</v>
@@ -75598,7 +75622,7 @@
         <v>23</v>
       </c>
       <c r="F1137" s="6">
-        <v>0</v>
+        <v>112.4</v>
       </c>
       <c r="G1137" s="6" t="s">
         <v>23</v>
@@ -75616,10 +75640,10 @@
         <v>21</v>
       </c>
       <c r="L1137" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1137" s="6">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="N1137" s="6">
         <v>0</v>
@@ -75642,22 +75666,22 @@
     </row>
     <row r="1138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1138" s="5" t="s">
-        <v>2567</v>
+        <v>2709</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2568</v>
+        <v>2710</v>
       </c>
       <c r="D1138" s="5" t="s">
-        <v>2569</v>
+        <v>2711</v>
       </c>
       <c r="E1138" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1138" s="6">
-        <v>504</v>
+        <v>54</v>
       </c>
       <c r="G1138" s="6" t="s">
         <v>23</v>
@@ -75678,7 +75702,7 @@
         <v>23</v>
       </c>
       <c r="M1138" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1138" s="6">
         <v>0</v>
@@ -75690,7 +75714,7 @@
         <v>21</v>
       </c>
       <c r="Q1138" s="5" t="s">
-        <v>2568</v>
+        <v>2710</v>
       </c>
       <c r="R1138" s="6" t="s">
         <v>23</v>
@@ -75701,22 +75725,22 @@
     </row>
     <row r="1139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1139" s="5" t="s">
-        <v>2570</v>
+        <v>2712</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2571</v>
+        <v>2713</v>
       </c>
       <c r="D1139" s="5" t="s">
-        <v>2572</v>
+        <v>2714</v>
       </c>
       <c r="E1139" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1139" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1139" s="6" t="s">
         <v>23</v>
@@ -75734,10 +75758,10 @@
         <v>21</v>
       </c>
       <c r="L1139" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1139" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1139" s="6">
         <v>0</v>
@@ -75749,7 +75773,7 @@
         <v>21</v>
       </c>
       <c r="Q1139" s="5" t="s">
-        <v>2571</v>
+        <v>2713</v>
       </c>
       <c r="R1139" s="6" t="s">
         <v>23</v>
@@ -75760,22 +75784,22 @@
     </row>
     <row r="1140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1140" s="5" t="s">
-        <v>2573</v>
+        <v>2567</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="D1140" s="5" t="s">
-        <v>2575</v>
+        <v>2569</v>
       </c>
       <c r="E1140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1140" s="6">
-        <v>144.80000000000001</v>
+        <v>504</v>
       </c>
       <c r="G1140" s="6" t="s">
         <v>23</v>
@@ -75796,7 +75820,7 @@
         <v>23</v>
       </c>
       <c r="M1140" s="6">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="N1140" s="6">
         <v>0</v>
@@ -75808,7 +75832,7 @@
         <v>21</v>
       </c>
       <c r="Q1140" s="5" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="R1140" s="6" t="s">
         <v>23</v>
@@ -75819,22 +75843,22 @@
     </row>
     <row r="1141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1141" s="5" t="s">
-        <v>2576</v>
+        <v>2570</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="D1141" s="5" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="E1141" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1141" s="6">
-        <v>0</v>
+        <v>1784.9</v>
       </c>
       <c r="G1141" s="6" t="s">
         <v>23</v>
@@ -75852,10 +75876,10 @@
         <v>21</v>
       </c>
       <c r="L1141" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1141" s="6">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="N1141" s="6">
         <v>0</v>
@@ -75867,7 +75891,7 @@
         <v>21</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="R1141" s="6" t="s">
         <v>23</v>
@@ -75878,22 +75902,22 @@
     </row>
     <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
-        <v>2579</v>
+        <v>2573</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="D1142" s="5" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1142" s="6">
-        <v>0</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G1142" s="6" t="s">
         <v>23</v>
@@ -75911,10 +75935,10 @@
         <v>21</v>
       </c>
       <c r="L1142" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1142" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N1142" s="6">
         <v>0</v>
@@ -75926,7 +75950,7 @@
         <v>21</v>
       </c>
       <c r="Q1142" s="5" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="R1142" s="6" t="s">
         <v>23</v>
@@ -75937,22 +75961,22 @@
     </row>
     <row r="1143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1143" s="5" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="D1143" s="5" t="s">
-        <v>2584</v>
+        <v>2578</v>
       </c>
       <c r="E1143" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1143" s="6">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="G1143" s="6" t="s">
         <v>23</v>
@@ -75970,10 +75994,10 @@
         <v>21</v>
       </c>
       <c r="L1143" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1143" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1143" s="6">
         <v>0</v>
@@ -75985,7 +76009,7 @@
         <v>21</v>
       </c>
       <c r="Q1143" s="5" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="R1143" s="6" t="s">
         <v>23</v>
@@ -75996,22 +76020,22 @@
     </row>
     <row r="1144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1144" s="5" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="D1144" s="5" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
       <c r="E1144" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1144" s="6">
-        <v>153.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1144" s="6" t="s">
         <v>23</v>
@@ -76029,10 +76053,10 @@
         <v>21</v>
       </c>
       <c r="L1144" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1144" s="6">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N1144" s="6">
         <v>0</v>
@@ -76044,7 +76068,7 @@
         <v>21</v>
       </c>
       <c r="Q1144" s="5" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="R1144" s="6" t="s">
         <v>23</v>
@@ -76055,22 +76079,22 @@
     </row>
     <row r="1145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="D1145" s="5" t="s">
-        <v>2590</v>
+        <v>2584</v>
       </c>
       <c r="E1145" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1145" s="6">
-        <v>6</v>
+        <v>56.1</v>
       </c>
       <c r="G1145" s="6" t="s">
         <v>23</v>
@@ -76091,7 +76115,7 @@
         <v>23</v>
       </c>
       <c r="M1145" s="6">
-        <v>4.2</v>
+        <v>2.65</v>
       </c>
       <c r="N1145" s="6">
         <v>0</v>
@@ -76103,7 +76127,7 @@
         <v>21</v>
       </c>
       <c r="Q1145" s="5" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="R1145" s="6" t="s">
         <v>23</v>
@@ -76114,22 +76138,22 @@
     </row>
     <row r="1146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1146" s="5" t="s">
-        <v>2591</v>
+        <v>2585</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2599</v>
+        <v>2586</v>
       </c>
       <c r="D1146" s="5" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="E1146" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1146" s="6">
-        <v>1371.1</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="G1146" s="6" t="s">
         <v>23</v>
@@ -76150,7 +76174,7 @@
         <v>23</v>
       </c>
       <c r="M1146" s="6">
-        <v>3</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N1146" s="6">
         <v>0</v>
@@ -76162,7 +76186,7 @@
         <v>21</v>
       </c>
       <c r="Q1146" s="5" t="s">
-        <v>2599</v>
+        <v>2586</v>
       </c>
       <c r="R1146" s="6" t="s">
         <v>23</v>
@@ -76173,22 +76197,22 @@
     </row>
     <row r="1147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1147" s="5" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="D1147" s="5" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="E1147" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1147" s="6">
-        <v>361.4</v>
+        <v>6</v>
       </c>
       <c r="G1147" s="6" t="s">
         <v>23</v>
@@ -76209,7 +76233,7 @@
         <v>23</v>
       </c>
       <c r="M1147" s="6">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="N1147" s="6">
         <v>0</v>
@@ -76221,7 +76245,7 @@
         <v>21</v>
       </c>
       <c r="Q1147" s="5" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="R1147" s="6" t="s">
         <v>23</v>
@@ -76232,60 +76256,178 @@
     </row>
     <row r="1148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1148" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1148" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1148" s="6">
+        <v>2806.22</v>
+      </c>
+      <c r="G1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1148" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1148" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1148" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1148" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R1148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1148" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1149" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1149" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1149" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1149" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1149" s="6">
+        <v>361.4</v>
+      </c>
+      <c r="G1149" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1149" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1149" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1149" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1149" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1149" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R1149" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1149" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1150" s="5" t="s">
         <v>2687</v>
       </c>
-      <c r="B1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1148" s="5" t="s">
+      <c r="B1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1150" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="D1148" s="5" t="s">
+      <c r="D1150" s="5" t="s">
         <v>2689</v>
       </c>
-      <c r="E1148" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1148" s="6">
-        <v>257</v>
-      </c>
-      <c r="G1148" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1148" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1148" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1148" s="6">
+      <c r="E1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1150" s="6">
+        <v>1684.25</v>
+      </c>
+      <c r="G1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1150" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1150" s="6">
         <v>1.99</v>
       </c>
-      <c r="N1148" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1148" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1148" s="5" t="s">
+      <c r="N1150" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1150" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1150" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="R1148" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1148" s="5" t="s">
+      <c r="R1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1150" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -8143,9 +8143,6 @@
     <t>ZENITH 601 (AZUL)</t>
   </si>
   <si>
-    <t>Lista Produto : 17/05/2021 18:22:13</t>
-  </si>
-  <si>
     <t>G5502</t>
   </si>
   <si>
@@ -8168,6 +8165,9 @@
   </si>
   <si>
     <t>SOLID 99 CINZA ESCURO</t>
+  </si>
+  <si>
+    <t>Lista Produto : 24/05/2021 09:50:36</t>
   </si>
 </sst>
 </file>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2706</v>
+        <v>2714</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10781,7 +10781,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -11607,7 +11607,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>3402.64</v>
+        <v>3174.28</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11666,7 +11666,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>21231.69</v>
+        <v>20902.5</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12315,7 +12315,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>21491.05</v>
+        <v>21556.55</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12551,7 +12551,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>3463.35</v>
+        <v>11231.61</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12610,7 +12610,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>9934.01</v>
+        <v>9932.35</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12787,7 +12787,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>1500.46</v>
+        <v>415.74</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12846,7 +12846,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>22987.05</v>
+        <v>22506.73</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13141,7 +13141,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>11356.39</v>
+        <v>26898.79</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -23702,7 +23702,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>952.27</v>
+        <v>951.5</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24174,7 +24174,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>6388.1</v>
+        <v>4642.1000000000004</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26239,7 +26239,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>400.03</v>
+        <v>2439.63</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26711,7 +26711,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="6">
-        <v>3449.9</v>
+        <v>3449.11</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>23</v>
@@ -27301,7 +27301,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>3881.78</v>
+        <v>3880.93</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28127,7 +28127,7 @@
         <v>23</v>
       </c>
       <c r="F332" s="6">
-        <v>8118.3</v>
+        <v>7805.8</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>23</v>
@@ -29071,7 +29071,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>79.28</v>
+        <v>98.5</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -30133,7 +30133,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>141.74</v>
+        <v>179.94</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30841,7 +30841,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="6">
-        <v>112.5</v>
+        <v>65</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>23</v>
@@ -31018,7 +31018,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>59</v>
+        <v>57.89</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -31549,7 +31549,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>5584.75</v>
+        <v>5314.15</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31608,7 +31608,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>210.6</v>
+        <v>105.32</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -31903,7 +31903,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>3708.53</v>
+        <v>6607.93</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -32139,7 +32139,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2776.16</v>
+        <v>2659.34</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32198,7 +32198,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1626.65</v>
+        <v>1509.83</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32316,7 +32316,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>1653.08</v>
+        <v>1566.19</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32375,7 +32375,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1029.72</v>
+        <v>870.42</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32611,7 +32611,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>386.05</v>
+        <v>386.3</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32670,7 +32670,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>5131.33</v>
+        <v>6380.49</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32906,7 +32906,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>476.1</v>
+        <v>333.22</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -32965,7 +32965,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1745.81</v>
+        <v>1602.93</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33732,7 +33732,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>1459.54</v>
+        <v>6442.74</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33850,7 +33850,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>7436</v>
+        <v>23486.22</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34027,7 +34027,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>530.48</v>
+        <v>530.9</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -59633,7 +59633,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1280.18</v>
+        <v>988.7</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59810,7 +59810,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>22086.47</v>
+        <v>22085.26</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60577,7 +60577,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>83516.95</v>
+        <v>156496.39000000001</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60636,7 +60636,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>34172.269999999997</v>
+        <v>38412.730000000003</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60695,7 +60695,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>53276.2</v>
+        <v>59566.03</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60754,7 +60754,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>12429.38</v>
+        <v>17253</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60813,7 +60813,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>6859.6</v>
+        <v>6418.9</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61757,7 +61757,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>8446.5</v>
+        <v>7271.9</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61993,7 +61993,7 @@
         <v>23</v>
       </c>
       <c r="F906" s="6">
-        <v>313.04000000000002</v>
+        <v>276.98</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>23</v>
@@ -62347,7 +62347,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>2672.2</v>
+        <v>2449.83</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62406,7 +62406,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>3992.6</v>
+        <v>3920.48</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62760,7 +62760,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3494.46</v>
+        <v>3491.89</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -62937,7 +62937,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>686.62</v>
+        <v>674.29</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63468,7 +63468,7 @@
         <v>23</v>
       </c>
       <c r="F931" s="6">
-        <v>693.3</v>
+        <v>582.4</v>
       </c>
       <c r="G931" s="6" t="s">
         <v>23</v>
@@ -63940,7 +63940,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1283.1500000000001</v>
+        <v>1267.79</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64117,7 +64117,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>1076.58</v>
+        <v>1047.8599999999999</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64235,7 +64235,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1619.52</v>
+        <v>1297.28</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64294,7 +64294,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1854.11</v>
+        <v>1830.71</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64648,7 +64648,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>4512.62</v>
+        <v>4113.05</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64707,7 +64707,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>919.03</v>
+        <v>2653.13</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -65002,7 +65002,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>1269.2</v>
+        <v>1258.69</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65238,7 +65238,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65297,7 +65297,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>459.42</v>
+        <v>3730.01</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -67539,7 +67539,7 @@
         <v>23</v>
       </c>
       <c r="F1000" s="6">
-        <v>6790.9</v>
+        <v>6789.77</v>
       </c>
       <c r="G1000" s="6" t="s">
         <v>23</v>
@@ -68365,7 +68365,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>882.56</v>
+        <v>3253.96</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68424,7 +68424,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>1528.12</v>
+        <v>2315.02</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68542,7 +68542,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>73.91</v>
+        <v>71.25</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68837,7 +68837,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>7619.6</v>
+        <v>7407.55</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68896,7 +68896,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>6403.99</v>
+        <v>8320.16</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68955,7 +68955,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>14178.96</v>
+        <v>15162.93</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69250,7 +69250,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>1444.66</v>
+        <v>11496.29</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69309,7 +69309,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>2744.48</v>
+        <v>2643.58</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69722,7 +69722,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>168.9</v>
+        <v>161.12</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69899,7 +69899,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>1564.5</v>
+        <v>5790.94</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70017,7 +70017,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>608.79999999999995</v>
+        <v>1567.7</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -70076,7 +70076,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>1404.8</v>
+        <v>1394.28</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -70902,7 +70902,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>4362.95</v>
+        <v>5523.85</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -71020,7 +71020,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>11273.040999999999</v>
+        <v>9390.6409999999996</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71079,7 +71079,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>12302.42</v>
+        <v>12258.98</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71197,7 +71197,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>4190.3599999999997</v>
+        <v>8664.42</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71374,7 +71374,7 @@
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>781.9</v>
+        <v>1755.2</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71787,7 +71787,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>12521.53</v>
+        <v>12223.35</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -72023,7 +72023,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>54778.38</v>
+        <v>46816.98</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72082,7 +72082,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>6568.94</v>
+        <v>6350.67</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72141,7 +72141,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>14792.97</v>
+        <v>14318.47</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72731,7 +72731,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>580.55999999999995</v>
+        <v>402.06</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72790,7 +72790,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>425.97</v>
+        <v>310.3</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72908,7 +72908,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>1006.51</v>
+        <v>880.27</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73144,7 +73144,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>1128.76</v>
+        <v>1044.68</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73203,7 +73203,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>1212.57</v>
+        <v>791.97</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73321,7 +73321,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>382.86</v>
+        <v>358.38</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73439,7 +73439,7 @@
         <v>23</v>
       </c>
       <c r="F1100" s="6">
-        <v>198.3</v>
+        <v>196.92</v>
       </c>
       <c r="G1100" s="6" t="s">
         <v>23</v>
@@ -73675,7 +73675,7 @@
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>3642.8</v>
+        <v>3476.9</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -73734,7 +73734,7 @@
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>960.3</v>
+        <v>946.99</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -75377,10 +75377,10 @@
         <v>21</v>
       </c>
       <c r="C1133" s="5" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D1133" s="5" t="s">
         <v>2707</v>
-      </c>
-      <c r="D1133" s="5" t="s">
-        <v>2708</v>
       </c>
       <c r="E1133" s="6" t="s">
         <v>23</v>
@@ -75407,7 +75407,7 @@
         <v>23</v>
       </c>
       <c r="M1133" s="6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N1133" s="6">
         <v>0</v>
@@ -75419,7 +75419,7 @@
         <v>21</v>
       </c>
       <c r="Q1133" s="5" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="R1133" s="6" t="s">
         <v>23</v>
@@ -75666,16 +75666,16 @@
     </row>
     <row r="1138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1138" s="5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1138" s="5" t="s">
         <v>2709</v>
       </c>
-      <c r="B1138" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1138" s="5" t="s">
+      <c r="D1138" s="5" t="s">
         <v>2710</v>
-      </c>
-      <c r="D1138" s="5" t="s">
-        <v>2711</v>
       </c>
       <c r="E1138" s="6" t="s">
         <v>23</v>
@@ -75702,7 +75702,7 @@
         <v>23</v>
       </c>
       <c r="M1138" s="6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N1138" s="6">
         <v>0</v>
@@ -75714,7 +75714,7 @@
         <v>21</v>
       </c>
       <c r="Q1138" s="5" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="R1138" s="6" t="s">
         <v>23</v>
@@ -75725,22 +75725,22 @@
     </row>
     <row r="1139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1139" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" s="5" t="s">
         <v>2712</v>
       </c>
-      <c r="B1139" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1139" s="5" t="s">
+      <c r="D1139" s="5" t="s">
         <v>2713</v>
       </c>
-      <c r="D1139" s="5" t="s">
-        <v>2714</v>
-      </c>
       <c r="E1139" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1139" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G1139" s="6" t="s">
         <v>23</v>
@@ -75758,10 +75758,10 @@
         <v>21</v>
       </c>
       <c r="L1139" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1139" s="6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N1139" s="6">
         <v>0</v>
@@ -75773,7 +75773,7 @@
         <v>21</v>
       </c>
       <c r="Q1139" s="5" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="R1139" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -8167,7 +8167,7 @@
     <t>SOLID 99 CINZA ESCURO</t>
   </si>
   <si>
-    <t>Lista Produto : 24/05/2021 09:50:36</t>
+    <t>Lista Produto : 31/05/2021 09:10:47</t>
   </si>
 </sst>
 </file>
@@ -10840,7 +10840,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>4921.6000000000004</v>
+        <v>4144.6000000000004</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11666,7 +11666,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>20902.5</v>
+        <v>18093.72</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11725,7 +11725,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>3753.76</v>
+        <v>3411.76</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12315,7 +12315,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>21556.55</v>
+        <v>20338.55</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12374,7 +12374,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>1066</v>
+        <v>955.34</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12787,7 +12787,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>415.74</v>
+        <v>408.46</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12846,7 +12846,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>22506.73</v>
+        <v>22503.54</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -24174,7 +24174,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>4642.1000000000004</v>
+        <v>7893.22</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26239,7 +26239,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>2439.63</v>
+        <v>2715.83</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26260,7 +26260,7 @@
         <v>23</v>
       </c>
       <c r="M300" s="6">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="N300" s="6">
         <v>0</v>
@@ -28186,7 +28186,7 @@
         <v>23</v>
       </c>
       <c r="F333" s="6">
-        <v>12894</v>
+        <v>12834.43</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>23</v>
@@ -28776,7 +28776,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="6">
-        <v>317.14</v>
+        <v>99.94</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>23</v>
@@ -29307,7 +29307,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="6">
-        <v>2860.45</v>
+        <v>2868.99</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>23</v>
@@ -30074,7 +30074,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3420.22</v>
+        <v>3415.28</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30133,7 +30133,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>179.94</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -31431,7 +31431,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>215.46</v>
+        <v>370.96</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31549,7 +31549,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>5314.15</v>
+        <v>7864.61</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31903,7 +31903,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>6607.93</v>
+        <v>6601.29</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31962,7 +31962,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>930.49</v>
+        <v>917.21</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32139,7 +32139,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2659.34</v>
+        <v>2653.99</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32198,7 +32198,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>1509.83</v>
+        <v>2524.4299999999998</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32316,7 +32316,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>1566.19</v>
+        <v>1565.47</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32375,7 +32375,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>870.42</v>
+        <v>1650.71</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32493,7 +32493,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>188.41</v>
+        <v>1155.6099999999999</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32670,7 +32670,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>6380.49</v>
+        <v>8764.6</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32965,7 +32965,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1602.93</v>
+        <v>1548.5</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33319,7 +33319,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="6">
-        <v>2523.1</v>
+        <v>2533.1</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>23</v>
@@ -33732,7 +33732,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>6442.74</v>
+        <v>7545.14</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33850,7 +33850,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>23486.22</v>
+        <v>18001.439999999999</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -41225,7 +41225,7 @@
         <v>23</v>
       </c>
       <c r="F554" s="6">
-        <v>93.8</v>
+        <v>67.28</v>
       </c>
       <c r="G554" s="6" t="s">
         <v>23</v>
@@ -59810,7 +59810,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>22085.26</v>
+        <v>20525.86</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60577,7 +60577,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>156496.39000000001</v>
+        <v>151703.65</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60636,7 +60636,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>38412.730000000003</v>
+        <v>32436.49</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60695,7 +60695,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>59566.03</v>
+        <v>58876.7</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60754,7 +60754,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>17253</v>
+        <v>16443.77</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60813,7 +60813,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>6418.9</v>
+        <v>6181.6</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61757,7 +61757,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>7271.9</v>
+        <v>7320.82</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62170,7 +62170,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1669.5</v>
+        <v>1618.65</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62288,7 +62288,7 @@
         <v>23</v>
       </c>
       <c r="F911" s="6">
-        <v>6800.8</v>
+        <v>6792.26</v>
       </c>
       <c r="G911" s="6" t="s">
         <v>23</v>
@@ -62347,7 +62347,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>2449.83</v>
+        <v>2448.12</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62937,7 +62937,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>674.29</v>
+        <v>673.37</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -62996,7 +62996,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>489.12</v>
+        <v>497.79</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63232,7 +63232,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>6211.88</v>
+        <v>6201.71</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63527,7 +63527,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>1003.2</v>
+        <v>420</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63940,7 +63940,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1267.79</v>
+        <v>1267.06</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -63999,7 +63999,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>2956.4</v>
+        <v>3419.3</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -64176,7 +64176,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>422.35</v>
+        <v>412.32</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64707,7 +64707,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>2653.13</v>
+        <v>2441.63</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -65061,7 +65061,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>679.7</v>
+        <v>377.9</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -65179,7 +65179,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>66</v>
+        <v>55.94</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -65238,7 +65238,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>106</v>
+        <v>565.5</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65297,7 +65297,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>3730.01</v>
+        <v>3716.81</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65356,7 +65356,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>203.4</v>
+        <v>972.3</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65474,7 +65474,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>32</v>
+        <v>1768.13</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65495,7 +65495,7 @@
         <v>23</v>
       </c>
       <c r="M965" s="6">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="N965" s="6">
         <v>0</v>
@@ -67598,7 +67598,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>20118.89</v>
+        <v>20019.55</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67716,7 +67716,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3393.58</v>
+        <v>3308.84</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67775,7 +67775,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>243.77</v>
+        <v>190.29</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67893,7 +67893,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>580</v>
+        <v>292.05</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68542,7 +68542,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>71.25</v>
+        <v>23.11</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68837,7 +68837,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>7407.55</v>
+        <v>6934.95</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -68896,7 +68896,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>8320.16</v>
+        <v>7783.18</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -68955,7 +68955,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>15162.93</v>
+        <v>15121.14</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69250,7 +69250,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>11496.29</v>
+        <v>6648.7</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69840,7 +69840,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>729.52</v>
+        <v>331.72</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -70076,7 +70076,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>1394.28</v>
+        <v>1282.92</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -70253,7 +70253,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>1712.6</v>
+        <v>1666.5</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -71020,7 +71020,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>9390.6409999999996</v>
+        <v>8646.64</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71079,7 +71079,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>12258.98</v>
+        <v>9520.36</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71197,7 +71197,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>8664.42</v>
+        <v>8425.02</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71610,7 +71610,7 @@
         <v>23</v>
       </c>
       <c r="F1069" s="6">
-        <v>862.1</v>
+        <v>816</v>
       </c>
       <c r="G1069" s="6" t="s">
         <v>23</v>
@@ -71787,7 +71787,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>12223.35</v>
+        <v>15017.36</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71846,7 +71846,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>1840.4</v>
+        <v>2783.4</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71905,7 +71905,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>18342.740000000002</v>
+        <v>17744.87</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71964,7 +71964,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>22370.54</v>
+        <v>36345.14</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72023,7 +72023,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>46816.98</v>
+        <v>45456.63</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72082,7 +72082,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>6350.67</v>
+        <v>7833.31</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72141,7 +72141,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>14318.47</v>
+        <v>12515.91</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72790,7 +72790,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>310.3</v>
+        <v>288.77999999999997</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72908,7 +72908,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>880.27</v>
+        <v>360.31</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73321,7 +73321,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>358.38</v>
+        <v>485.38</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73380,7 +73380,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>50.05</v>
+        <v>327.95</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73557,7 +73557,7 @@
         <v>23</v>
       </c>
       <c r="F1102" s="6">
-        <v>2253.8000000000002</v>
+        <v>3271.2</v>
       </c>
       <c r="G1102" s="6" t="s">
         <v>23</v>
@@ -73675,7 +73675,7 @@
         <v>23</v>
       </c>
       <c r="F1104" s="6">
-        <v>3476.9</v>
+        <v>5536.7</v>
       </c>
       <c r="G1104" s="6" t="s">
         <v>23</v>
@@ -75445,7 +75445,7 @@
         <v>23</v>
       </c>
       <c r="F1134" s="6">
-        <v>783.86</v>
+        <v>525.70000000000005</v>
       </c>
       <c r="G1134" s="6" t="s">
         <v>23</v>
@@ -75504,7 +75504,7 @@
         <v>23</v>
       </c>
       <c r="F1135" s="6">
-        <v>792.4</v>
+        <v>571.12</v>
       </c>
       <c r="G1135" s="6" t="s">
         <v>23</v>
@@ -75563,7 +75563,7 @@
         <v>23</v>
       </c>
       <c r="F1136" s="6">
-        <v>199.1</v>
+        <v>193.21</v>
       </c>
       <c r="G1136" s="6" t="s">
         <v>23</v>
@@ -75622,7 +75622,7 @@
         <v>23</v>
       </c>
       <c r="F1137" s="6">
-        <v>112.4</v>
+        <v>106.51</v>
       </c>
       <c r="G1137" s="6" t="s">
         <v>23</v>
@@ -76271,7 +76271,7 @@
         <v>23</v>
       </c>
       <c r="F1148" s="6">
-        <v>2806.22</v>
+        <v>786.61</v>
       </c>
       <c r="G1148" s="6" t="s">
         <v>23</v>
@@ -76389,7 +76389,7 @@
         <v>23</v>
       </c>
       <c r="F1150" s="6">
-        <v>1684.25</v>
+        <v>789.2</v>
       </c>
       <c r="G1150" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -8167,7 +8167,7 @@
     <t>SOLID 99 CINZA ESCURO</t>
   </si>
   <si>
-    <t>Lista Produto : 31/05/2021 09:10:47</t>
+    <t>Lista Produto : 07/06/2021 09:29:44</t>
   </si>
 </sst>
 </file>
@@ -10368,7 +10368,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>2493.6999999999998</v>
+        <v>2395.7800000000002</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10840,7 +10840,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>4144.6000000000004</v>
+        <v>4142.42</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11135,7 +11135,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>1680</v>
+        <v>1526.32</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11607,7 +11607,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>3174.28</v>
+        <v>3166.03</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11666,7 +11666,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>18093.72</v>
+        <v>14607.2</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11725,7 +11725,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>3411.76</v>
+        <v>3240.76</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12315,7 +12315,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>20338.55</v>
+        <v>20106.55</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12374,7 +12374,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>955.34</v>
+        <v>954.04</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12787,7 +12787,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>408.46</v>
+        <v>416.36</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12846,7 +12846,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>22503.54</v>
+        <v>22025.040000000001</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13141,7 +13141,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>26898.79</v>
+        <v>26785.64</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -24174,7 +24174,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>7893.22</v>
+        <v>7505.22</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26239,7 +26239,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>2715.83</v>
+        <v>2338.2199999999998</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -27301,7 +27301,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>3880.93</v>
+        <v>2572.09</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -29366,7 +29366,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>69.95</v>
+        <v>50.73</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -30074,7 +30074,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3415.28</v>
+        <v>3299.67</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30664,7 +30664,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1451.65</v>
+        <v>1409.61</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -31431,7 +31431,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>370.96</v>
+        <v>155.22999999999999</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31903,7 +31903,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>6601.29</v>
+        <v>5614.87</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31962,7 +31962,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>917.21</v>
+        <v>541.36</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32021,7 +32021,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>1419.37</v>
+        <v>268.83999999999997</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32080,7 +32080,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>922.95</v>
+        <v>315.88</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32257,7 +32257,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>204.23</v>
+        <v>409.73</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32493,7 +32493,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>1155.6099999999999</v>
+        <v>1153.18</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32552,7 +32552,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1151.81</v>
+        <v>1148.81</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -32670,7 +32670,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>8764.6</v>
+        <v>8761.6</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32729,7 +32729,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1315.47</v>
+        <v>1303.77</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -32965,7 +32965,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1548.5</v>
+        <v>1541.63</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33673,7 +33673,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1268.6500000000001</v>
+        <v>1259.27</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33732,7 +33732,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>7545.14</v>
+        <v>7540.29</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33791,7 +33791,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>1354.3</v>
+        <v>1326.18</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -33850,7 +33850,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>18001.439999999999</v>
+        <v>14407.07</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -33909,7 +33909,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3195.3</v>
+        <v>3193.35</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -34027,7 +34027,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>530.9</v>
+        <v>527.9</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34086,7 +34086,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="6">
-        <v>925.4</v>
+        <v>896.51</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>23</v>
@@ -59633,7 +59633,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>988.7</v>
+        <v>579.20000000000005</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59810,7 +59810,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>20525.86</v>
+        <v>31202.61</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60577,7 +60577,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>151703.65</v>
+        <v>143793.46</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60636,7 +60636,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>32436.49</v>
+        <v>32373.54</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60695,7 +60695,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>58876.7</v>
+        <v>58247.199999999997</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60754,7 +60754,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>16443.77</v>
+        <v>16436.11</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -62288,7 +62288,7 @@
         <v>23</v>
       </c>
       <c r="F911" s="6">
-        <v>6792.26</v>
+        <v>6544.6</v>
       </c>
       <c r="G911" s="6" t="s">
         <v>23</v>
@@ -62937,7 +62937,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>673.37</v>
+        <v>662.76</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63114,7 +63114,7 @@
         <v>23</v>
       </c>
       <c r="F925" s="6">
-        <v>1289.5</v>
+        <v>1276.3599999999999</v>
       </c>
       <c r="G925" s="6" t="s">
         <v>23</v>
@@ -63232,7 +63232,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>6201.71</v>
+        <v>5272.71</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63527,7 +63527,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63940,7 +63940,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1267.06</v>
+        <v>1256.42</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -63999,7 +63999,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>3419.3</v>
+        <v>3051.45</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -64235,7 +64235,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1297.28</v>
+        <v>1284.1400000000001</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64294,7 +64294,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1830.71</v>
+        <v>1804.43</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64648,7 +64648,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>4113.05</v>
+        <v>3636.33</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64707,7 +64707,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>2441.63</v>
+        <v>2362.2800000000002</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64825,7 +64825,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>1886.2</v>
+        <v>1806.85</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -65002,7 +65002,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>1258.69</v>
+        <v>1248.18</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65238,7 +65238,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>565.5</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65297,7 +65297,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>3716.81</v>
+        <v>6749.01</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65356,7 +65356,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>972.3</v>
+        <v>5161.8999999999996</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65474,7 +65474,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>1768.13</v>
+        <v>2758.93</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65769,7 +65769,7 @@
         <v>23</v>
       </c>
       <c r="F970" s="6">
-        <v>189.3</v>
+        <v>176.28</v>
       </c>
       <c r="G970" s="6" t="s">
         <v>23</v>
@@ -67598,7 +67598,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>20019.55</v>
+        <v>19725.55</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67716,7 +67716,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3308.84</v>
+        <v>3308.08</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67775,7 +67775,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>190.29</v>
+        <v>384.29</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -67893,7 +67893,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>292.05</v>
+        <v>240.45</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68011,7 +68011,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>388.36</v>
+        <v>336.76</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68601,7 +68601,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>923.5</v>
+        <v>741.94</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68660,7 +68660,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>839.19</v>
+        <v>753.75</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68778,7 +68778,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>2843.87</v>
+        <v>2769.11</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -69132,7 +69132,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>8083.1</v>
+        <v>7662.7</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69250,7 +69250,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>6648.7</v>
+        <v>3575.3</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69722,7 +69722,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>161.12</v>
+        <v>1485.42</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69781,7 +69781,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>1925.8</v>
+        <v>1399.1</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69899,7 +69899,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>5790.94</v>
+        <v>4835.75</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70076,7 +70076,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>1282.92</v>
+        <v>999.02</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -71020,7 +71020,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>8646.64</v>
+        <v>8464.66</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71079,7 +71079,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>9520.36</v>
+        <v>9471.49</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71197,7 +71197,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>8425.02</v>
+        <v>8396.06</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71492,7 +71492,7 @@
         <v>23</v>
       </c>
       <c r="F1067" s="6">
-        <v>19855.5</v>
+        <v>18904.5</v>
       </c>
       <c r="G1067" s="6" t="s">
         <v>23</v>
@@ -71787,7 +71787,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>15017.36</v>
+        <v>14134.79</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71846,7 +71846,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>2783.4</v>
+        <v>2764.64</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -71964,7 +71964,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>36345.14</v>
+        <v>34807.980000000003</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72023,7 +72023,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>45456.63</v>
+        <v>37761.279999999999</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72141,7 +72141,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>12515.91</v>
+        <v>8534.9500000000007</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72200,7 +72200,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>2752</v>
+        <v>2723.53</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72790,7 +72790,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>288.77999999999997</v>
+        <v>246.73</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72908,7 +72908,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>360.31</v>
+        <v>328.78</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73203,7 +73203,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>791.97</v>
+        <v>781.46</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73321,7 +73321,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>485.38</v>
+        <v>289.08999999999997</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73380,7 +73380,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>327.95</v>
+        <v>230.03</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -74324,7 +74324,7 @@
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>40</v>
+        <v>1440.9</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74383,7 +74383,7 @@
         <v>23</v>
       </c>
       <c r="F1116" s="6">
-        <v>305</v>
+        <v>28.36</v>
       </c>
       <c r="G1116" s="6" t="s">
         <v>23</v>
@@ -74442,7 +74442,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>292.8</v>
+        <v>227.28</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74560,7 +74560,7 @@
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>269.8</v>
+        <v>189.72</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -75504,7 +75504,7 @@
         <v>23</v>
       </c>
       <c r="F1135" s="6">
-        <v>571.12</v>
+        <v>561.9</v>
       </c>
       <c r="G1135" s="6" t="s">
         <v>23</v>
@@ -76389,7 +76389,7 @@
         <v>23</v>
       </c>
       <c r="F1150" s="6">
-        <v>789.2</v>
+        <v>775.94</v>
       </c>
       <c r="G1150" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17226" uniqueCount="2715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17286" uniqueCount="2727">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8167,7 +8167,43 @@
     <t>SOLID 99 CINZA ESCURO</t>
   </si>
   <si>
-    <t>Lista Produto : 07/06/2021 09:29:44</t>
+    <t>Lista Produto : 11/06/2021 09:07:42</t>
+  </si>
+  <si>
+    <t>TC15241</t>
+  </si>
+  <si>
+    <t>G3331</t>
+  </si>
+  <si>
+    <t>DEXTER 162 FOREST</t>
+  </si>
+  <si>
+    <t>TC15242</t>
+  </si>
+  <si>
+    <t>G3340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEXTER 05 BEIGE </t>
+  </si>
+  <si>
+    <t>TC15243</t>
+  </si>
+  <si>
+    <t>G5241</t>
+  </si>
+  <si>
+    <t>BALI CAMEL</t>
+  </si>
+  <si>
+    <t>TC15244</t>
+  </si>
+  <si>
+    <t>G2940</t>
+  </si>
+  <si>
+    <t>SORRENTO 902 BEIGE</t>
   </si>
 </sst>
 </file>
@@ -8334,8 +8370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1150" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1154" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1154"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8624,7 +8660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1150"/>
+  <dimension ref="A1:S1154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -10309,7 +10345,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>831.83</v>
+        <v>829.83</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10368,7 +10404,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>2395.7800000000002</v>
+        <v>2269.9299999999998</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10840,7 +10876,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>4142.42</v>
+        <v>3908.32</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11135,7 +11171,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>1526.32</v>
+        <v>1454</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11607,7 +11643,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>3166.03</v>
+        <v>2968.18</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11666,7 +11702,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>14607.2</v>
+        <v>13395.56</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12315,7 +12351,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>20106.55</v>
+        <v>26663.55</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12492,7 +12528,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>86.8</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12551,7 +12587,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>11231.61</v>
+        <v>15335.61</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12610,7 +12646,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>9932.35</v>
+        <v>9914.5300000000007</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -12846,7 +12882,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>22025.040000000001</v>
+        <v>21907.58</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13141,7 +13177,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>26785.64</v>
+        <v>26089.55</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -24174,7 +24210,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>7505.22</v>
+        <v>7500.36</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -25354,7 +25390,7 @@
         <v>23</v>
       </c>
       <c r="F285" s="6">
-        <v>3386.2</v>
+        <v>3375.87</v>
       </c>
       <c r="G285" s="6" t="s">
         <v>23</v>
@@ -26239,7 +26275,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>2338.2199999999998</v>
+        <v>2091.42</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -27301,7 +27337,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>2572.09</v>
+        <v>2563.5500000000002</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27832,7 +27868,7 @@
         <v>23</v>
       </c>
       <c r="F327" s="6">
-        <v>6062.6</v>
+        <v>5806.4</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>23</v>
@@ -28186,7 +28222,7 @@
         <v>23</v>
       </c>
       <c r="F333" s="6">
-        <v>12834.43</v>
+        <v>12800.39</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>23</v>
@@ -29189,7 +29225,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="6">
-        <v>1878.65</v>
+        <v>1862.15</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>23</v>
@@ -30074,7 +30110,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3299.67</v>
+        <v>3247.12</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30664,7 +30700,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1409.61</v>
+        <v>1367.57</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -31431,7 +31467,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>155.22999999999999</v>
+        <v>152.74</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31549,7 +31585,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>7864.61</v>
+        <v>7835.93</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31667,7 +31703,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1526.7</v>
+        <v>1519.43</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -31903,7 +31939,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5614.87</v>
+        <v>5406.84</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31962,7 +31998,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>541.36</v>
+        <v>196.67</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32139,7 +32175,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2653.99</v>
+        <v>2526.0100000000002</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32198,7 +32234,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>2524.4299999999998</v>
+        <v>2481.9499999999998</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32257,7 +32293,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>409.73</v>
+        <v>314.14999999999998</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32375,7 +32411,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1650.71</v>
+        <v>1555.13</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32965,7 +33001,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1541.63</v>
+        <v>1533.09</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33850,7 +33886,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>14407.07</v>
+        <v>8348.76</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34381,7 +34417,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1053.3699999999999</v>
+        <v>1052.44</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -41225,7 +41261,7 @@
         <v>23</v>
       </c>
       <c r="F554" s="6">
-        <v>67.28</v>
+        <v>532.28</v>
       </c>
       <c r="G554" s="6" t="s">
         <v>23</v>
@@ -59633,7 +59669,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>579.20000000000005</v>
+        <v>220.89</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59810,7 +59846,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>31202.61</v>
+        <v>28714.35</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60577,7 +60613,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>143793.46</v>
+        <v>136968.42000000001</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60636,7 +60672,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>32373.54</v>
+        <v>32233.34</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60695,7 +60731,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>58247.199999999997</v>
+        <v>58245.34</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60813,7 +60849,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>6181.6</v>
+        <v>4967.9799999999996</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61757,7 +61793,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>7320.82</v>
+        <v>7319.41</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -61993,7 +62029,7 @@
         <v>23</v>
       </c>
       <c r="F906" s="6">
-        <v>276.98</v>
+        <v>150.77000000000001</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>23</v>
@@ -62170,7 +62206,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1618.65</v>
+        <v>1608.48</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62347,7 +62383,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>2448.12</v>
+        <v>2339.94</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62406,7 +62442,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>3920.48</v>
+        <v>3788.26</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62465,7 +62501,7 @@
         <v>23</v>
       </c>
       <c r="F914" s="6">
-        <v>934.4</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="G914" s="6" t="s">
         <v>23</v>
@@ -62937,7 +62973,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>662.76</v>
+        <v>661.19</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -62996,7 +63032,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>497.79</v>
+        <v>324.39</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63232,7 +63268,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>5272.71</v>
+        <v>2364.94</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63350,7 +63386,7 @@
         <v>23</v>
       </c>
       <c r="F929" s="6">
-        <v>9520.9</v>
+        <v>9511.98</v>
       </c>
       <c r="G929" s="6" t="s">
         <v>23</v>
@@ -63468,7 +63504,7 @@
         <v>23</v>
       </c>
       <c r="F931" s="6">
-        <v>582.4</v>
+        <v>475.4</v>
       </c>
       <c r="G931" s="6" t="s">
         <v>23</v>
@@ -63527,7 +63563,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>177</v>
+        <v>175.58</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -64235,7 +64271,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1284.1400000000001</v>
+        <v>1205.1600000000001</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64294,7 +64330,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1804.43</v>
+        <v>1482.13</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64471,7 +64507,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>2633</v>
+        <v>2624.08</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64707,7 +64743,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>2362.2800000000002</v>
+        <v>3450.83</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64766,7 +64802,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>25.15</v>
+        <v>16.61</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -65238,7 +65274,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>1038.5999999999999</v>
+        <v>758.03</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65297,7 +65333,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>6749.01</v>
+        <v>3803.61</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65356,7 +65392,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>5161.8999999999996</v>
+        <v>4442.5600000000004</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65474,7 +65510,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>2758.93</v>
+        <v>2092.4299999999998</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -67598,7 +67634,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>19725.55</v>
+        <v>23902.95</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67775,7 +67811,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>384.29</v>
+        <v>2213.37</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -68011,7 +68047,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>336.76</v>
+        <v>614.12</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68660,7 +68696,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>753.75</v>
+        <v>732.39</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68719,7 +68755,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>480</v>
+        <v>1576.18</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68778,7 +68814,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>2769.11</v>
+        <v>2719.64</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68955,7 +68991,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>15121.14</v>
+        <v>13192.14</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69132,7 +69168,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>7662.7</v>
+        <v>7610.15</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69250,7 +69286,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>3575.3</v>
+        <v>879.09</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69722,7 +69758,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>1485.42</v>
+        <v>1445.64</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -71020,7 +71056,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>8464.66</v>
+        <v>6742.52</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71079,7 +71115,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>9471.49</v>
+        <v>7844.13</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71197,7 +71233,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>8396.06</v>
+        <v>8367.98</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71374,7 +71410,7 @@
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>1755.2</v>
+        <v>1733.16</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71787,7 +71823,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>14134.79</v>
+        <v>13967.19</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71905,7 +71941,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>17744.87</v>
+        <v>17271.29</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -71964,7 +72000,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>34807.980000000003</v>
+        <v>34140.74</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72023,7 +72059,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>37761.279999999999</v>
+        <v>36859.919999999998</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72141,7 +72177,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>8534.9500000000007</v>
+        <v>8487.5</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -73203,7 +73239,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>781.46</v>
+        <v>774.95</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73734,7 +73770,7 @@
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>946.99</v>
+        <v>693.9</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -74560,7 +74596,7 @@
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>189.72</v>
+        <v>263.82</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -75784,22 +75820,22 @@
     </row>
     <row r="1140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1140" s="5" t="s">
-        <v>2567</v>
+        <v>2715</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2568</v>
+        <v>2716</v>
       </c>
       <c r="D1140" s="5" t="s">
-        <v>2569</v>
+        <v>2717</v>
       </c>
       <c r="E1140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1140" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1140" s="6" t="s">
         <v>23</v>
@@ -75817,10 +75853,10 @@
         <v>21</v>
       </c>
       <c r="L1140" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1140" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1140" s="6">
         <v>0</v>
@@ -75832,7 +75868,7 @@
         <v>21</v>
       </c>
       <c r="Q1140" s="5" t="s">
-        <v>2568</v>
+        <v>2716</v>
       </c>
       <c r="R1140" s="6" t="s">
         <v>23</v>
@@ -75843,22 +75879,22 @@
     </row>
     <row r="1141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1141" s="5" t="s">
-        <v>2570</v>
+        <v>2718</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2571</v>
+        <v>2719</v>
       </c>
       <c r="D1141" s="5" t="s">
-        <v>2572</v>
+        <v>2720</v>
       </c>
       <c r="E1141" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1141" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1141" s="6" t="s">
         <v>23</v>
@@ -75876,10 +75912,10 @@
         <v>21</v>
       </c>
       <c r="L1141" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1141" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1141" s="6">
         <v>0</v>
@@ -75891,7 +75927,7 @@
         <v>21</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2571</v>
+        <v>2719</v>
       </c>
       <c r="R1141" s="6" t="s">
         <v>23</v>
@@ -75902,22 +75938,22 @@
     </row>
     <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
-        <v>2573</v>
+        <v>2721</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2574</v>
+        <v>2722</v>
       </c>
       <c r="D1142" s="5" t="s">
-        <v>2575</v>
+        <v>2723</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1142" s="6">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1142" s="6" t="s">
         <v>23</v>
@@ -75935,10 +75971,10 @@
         <v>21</v>
       </c>
       <c r="L1142" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1142" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1142" s="6">
         <v>0</v>
@@ -75950,7 +75986,7 @@
         <v>21</v>
       </c>
       <c r="Q1142" s="5" t="s">
-        <v>2574</v>
+        <v>2722</v>
       </c>
       <c r="R1142" s="6" t="s">
         <v>23</v>
@@ -75961,16 +75997,16 @@
     </row>
     <row r="1143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1143" s="5" t="s">
-        <v>2576</v>
+        <v>2724</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2577</v>
+        <v>2725</v>
       </c>
       <c r="D1143" s="5" t="s">
-        <v>2578</v>
+        <v>2726</v>
       </c>
       <c r="E1143" s="6" t="s">
         <v>23</v>
@@ -76009,7 +76045,7 @@
         <v>21</v>
       </c>
       <c r="Q1143" s="5" t="s">
-        <v>2577</v>
+        <v>2725</v>
       </c>
       <c r="R1143" s="6" t="s">
         <v>23</v>
@@ -76020,22 +76056,22 @@
     </row>
     <row r="1144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1144" s="5" t="s">
-        <v>2579</v>
+        <v>2567</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="D1144" s="5" t="s">
-        <v>2581</v>
+        <v>2569</v>
       </c>
       <c r="E1144" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1144" s="6">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="G1144" s="6" t="s">
         <v>23</v>
@@ -76053,10 +76089,10 @@
         <v>21</v>
       </c>
       <c r="L1144" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1144" s="6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N1144" s="6">
         <v>0</v>
@@ -76068,7 +76104,7 @@
         <v>21</v>
       </c>
       <c r="Q1144" s="5" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="R1144" s="6" t="s">
         <v>23</v>
@@ -76079,22 +76115,22 @@
     </row>
     <row r="1145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
-        <v>2582</v>
+        <v>2570</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2583</v>
+        <v>2571</v>
       </c>
       <c r="D1145" s="5" t="s">
-        <v>2584</v>
+        <v>2572</v>
       </c>
       <c r="E1145" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1145" s="6">
-        <v>56.1</v>
+        <v>1784.9</v>
       </c>
       <c r="G1145" s="6" t="s">
         <v>23</v>
@@ -76115,7 +76151,7 @@
         <v>23</v>
       </c>
       <c r="M1145" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="N1145" s="6">
         <v>0</v>
@@ -76127,7 +76163,7 @@
         <v>21</v>
       </c>
       <c r="Q1145" s="5" t="s">
-        <v>2583</v>
+        <v>2571</v>
       </c>
       <c r="R1145" s="6" t="s">
         <v>23</v>
@@ -76138,22 +76174,22 @@
     </row>
     <row r="1146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1146" s="5" t="s">
-        <v>2585</v>
+        <v>2573</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2586</v>
+        <v>2574</v>
       </c>
       <c r="D1146" s="5" t="s">
-        <v>2587</v>
+        <v>2575</v>
       </c>
       <c r="E1146" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1146" s="6">
-        <v>153.30000000000001</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G1146" s="6" t="s">
         <v>23</v>
@@ -76174,7 +76210,7 @@
         <v>23</v>
       </c>
       <c r="M1146" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="N1146" s="6">
         <v>0</v>
@@ -76186,7 +76222,7 @@
         <v>21</v>
       </c>
       <c r="Q1146" s="5" t="s">
-        <v>2586</v>
+        <v>2574</v>
       </c>
       <c r="R1146" s="6" t="s">
         <v>23</v>
@@ -76197,22 +76233,22 @@
     </row>
     <row r="1147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1147" s="5" t="s">
-        <v>2588</v>
+        <v>2576</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2589</v>
+        <v>2577</v>
       </c>
       <c r="D1147" s="5" t="s">
-        <v>2590</v>
+        <v>2578</v>
       </c>
       <c r="E1147" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1147" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1147" s="6" t="s">
         <v>23</v>
@@ -76230,10 +76266,10 @@
         <v>21</v>
       </c>
       <c r="L1147" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1147" s="6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N1147" s="6">
         <v>0</v>
@@ -76245,7 +76281,7 @@
         <v>21</v>
       </c>
       <c r="Q1147" s="5" t="s">
-        <v>2589</v>
+        <v>2577</v>
       </c>
       <c r="R1147" s="6" t="s">
         <v>23</v>
@@ -76256,22 +76292,22 @@
     </row>
     <row r="1148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1148" s="5" t="s">
-        <v>2591</v>
+        <v>2579</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2599</v>
+        <v>2580</v>
       </c>
       <c r="D1148" s="5" t="s">
-        <v>2592</v>
+        <v>2581</v>
       </c>
       <c r="E1148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1148" s="6">
-        <v>786.61</v>
+        <v>0</v>
       </c>
       <c r="G1148" s="6" t="s">
         <v>23</v>
@@ -76289,10 +76325,10 @@
         <v>21</v>
       </c>
       <c r="L1148" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1148" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N1148" s="6">
         <v>0</v>
@@ -76304,7 +76340,7 @@
         <v>21</v>
       </c>
       <c r="Q1148" s="5" t="s">
-        <v>2599</v>
+        <v>2580</v>
       </c>
       <c r="R1148" s="6" t="s">
         <v>23</v>
@@ -76315,22 +76351,22 @@
     </row>
     <row r="1149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1149" s="5" t="s">
-        <v>2593</v>
+        <v>2582</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2594</v>
+        <v>2583</v>
       </c>
       <c r="D1149" s="5" t="s">
-        <v>2595</v>
+        <v>2584</v>
       </c>
       <c r="E1149" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1149" s="6">
-        <v>361.4</v>
+        <v>56.1</v>
       </c>
       <c r="G1149" s="6" t="s">
         <v>23</v>
@@ -76351,7 +76387,7 @@
         <v>23</v>
       </c>
       <c r="M1149" s="6">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="N1149" s="6">
         <v>0</v>
@@ -76363,7 +76399,7 @@
         <v>21</v>
       </c>
       <c r="Q1149" s="5" t="s">
-        <v>2594</v>
+        <v>2583</v>
       </c>
       <c r="R1149" s="6" t="s">
         <v>23</v>
@@ -76374,60 +76410,296 @@
     </row>
     <row r="1150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1150" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1150" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1150" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1150" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="G1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1150" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1150" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1150" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1150" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1150" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R1150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1150" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1151" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1151" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1151" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1151" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1151" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1151" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1151" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1151" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1151" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R1151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1151" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1152" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1152" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1152" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1152" s="6">
+        <v>786.61</v>
+      </c>
+      <c r="G1152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1152" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1152" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1152" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1152" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1152" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R1152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1152" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1153" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1153" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1153" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1153" s="6">
+        <v>361.4</v>
+      </c>
+      <c r="G1153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1153" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1153" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1153" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1153" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1153" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R1153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1153" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1154" s="5" t="s">
         <v>2687</v>
       </c>
-      <c r="B1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1150" s="5" t="s">
+      <c r="B1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1154" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="D1150" s="5" t="s">
+      <c r="D1154" s="5" t="s">
         <v>2689</v>
       </c>
-      <c r="E1150" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1150" s="6">
+      <c r="E1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1154" s="6">
         <v>775.94</v>
       </c>
-      <c r="G1150" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1150" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1150" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1150" s="6">
+      <c r="G1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1154" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1154" s="6">
         <v>1.99</v>
       </c>
-      <c r="N1150" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1150" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1150" s="5" t="s">
+      <c r="N1154" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1154" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1154" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="R1150" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1150" s="5" t="s">
+      <c r="R1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1154" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17286" uniqueCount="2727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17481" uniqueCount="2766">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8167,9 +8167,6 @@
     <t>SOLID 99 CINZA ESCURO</t>
   </si>
   <si>
-    <t>Lista Produto : 11/06/2021 09:07:42</t>
-  </si>
-  <si>
     <t>TC15241</t>
   </si>
   <si>
@@ -8204,6 +8201,126 @@
   </si>
   <si>
     <t>SORRENTO 902 BEIGE</t>
+  </si>
+  <si>
+    <t>Lista Produto : 18/06/2021 10:25:49</t>
+  </si>
+  <si>
+    <t>TC15245</t>
+  </si>
+  <si>
+    <t>G2960</t>
+  </si>
+  <si>
+    <t>SORRENTO 401 AMARELO</t>
+  </si>
+  <si>
+    <t>TC15246</t>
+  </si>
+  <si>
+    <t>G2920</t>
+  </si>
+  <si>
+    <t>SORRENTO 607 AZUL ESCURO</t>
+  </si>
+  <si>
+    <t>TC15247</t>
+  </si>
+  <si>
+    <t>G4370</t>
+  </si>
+  <si>
+    <t>SIENA 305 TERRACOTA</t>
+  </si>
+  <si>
+    <t>TC15248</t>
+  </si>
+  <si>
+    <t>G4340</t>
+  </si>
+  <si>
+    <t>SIENA 302 TERRA</t>
+  </si>
+  <si>
+    <t>TC15249</t>
+  </si>
+  <si>
+    <t>G5430</t>
+  </si>
+  <si>
+    <t>LORIS 39 VERDE</t>
+  </si>
+  <si>
+    <t>TC15250</t>
+  </si>
+  <si>
+    <t>G5421</t>
+  </si>
+  <si>
+    <t>LORIS 79 AZUL ESCURO</t>
+  </si>
+  <si>
+    <t>TC15251</t>
+  </si>
+  <si>
+    <t>G5440</t>
+  </si>
+  <si>
+    <t>LORIS 09 TAUPE</t>
+  </si>
+  <si>
+    <t>TC15252</t>
+  </si>
+  <si>
+    <t>G5640</t>
+  </si>
+  <si>
+    <t>SOMETIMES 02 BEGE</t>
+  </si>
+  <si>
+    <t>TC15253</t>
+  </si>
+  <si>
+    <t>G5610</t>
+  </si>
+  <si>
+    <t>SOMETIMES 80 CINZA CLARO</t>
+  </si>
+  <si>
+    <t>TC15254</t>
+  </si>
+  <si>
+    <t>G5670</t>
+  </si>
+  <si>
+    <t>SOMETIMES 54 TERRACOTA</t>
+  </si>
+  <si>
+    <t>TC15255</t>
+  </si>
+  <si>
+    <t>G5630</t>
+  </si>
+  <si>
+    <t>SOMETIMES 70 VERDE AGUA</t>
+  </si>
+  <si>
+    <t>TC15256</t>
+  </si>
+  <si>
+    <t>G1350</t>
+  </si>
+  <si>
+    <t>VARDO 46</t>
+  </si>
+  <si>
+    <t>TC15257</t>
+  </si>
+  <si>
+    <t>G1320</t>
+  </si>
+  <si>
+    <t>VARDO 17</t>
   </si>
 </sst>
 </file>
@@ -8370,8 +8487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1154" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1167" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1167"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8660,7 +8777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1154"/>
+  <dimension ref="A1:S1167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -8714,7 +8831,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2714</v>
+        <v>2726</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10404,7 +10521,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>2269.9299999999998</v>
+        <v>2190.8000000000002</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10876,7 +10993,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>3908.32</v>
+        <v>3216.79</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11702,7 +11819,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>13395.56</v>
+        <v>11168.78</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12292,7 +12409,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>50.2</v>
+        <v>1529.8</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12351,7 +12468,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>26663.55</v>
+        <v>24965.11</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12410,7 +12527,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>954.04</v>
+        <v>910.54</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12587,7 +12704,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>15335.61</v>
+        <v>15218.01</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12823,7 +12940,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>416.36</v>
+        <v>11461.42</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12882,7 +12999,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>21907.58</v>
+        <v>19584.169999999998</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13177,7 +13294,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>26089.55</v>
+        <v>41372.49</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -23738,7 +23855,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>951.5</v>
+        <v>947.78</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24210,7 +24327,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>7500.36</v>
+        <v>9835.06</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26296,7 +26413,7 @@
         <v>23</v>
       </c>
       <c r="M300" s="6">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="N300" s="6">
         <v>0</v>
@@ -27337,7 +27454,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>2563.5500000000002</v>
+        <v>1006.51</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27396,7 +27513,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1649.57</v>
+        <v>1638.71</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -27868,7 +27985,7 @@
         <v>23</v>
       </c>
       <c r="F327" s="6">
-        <v>5806.4</v>
+        <v>5806.05</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>23</v>
@@ -29343,7 +29460,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="6">
-        <v>2868.99</v>
+        <v>2713.14</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>23</v>
@@ -31585,7 +31702,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>7835.93</v>
+        <v>10412.34</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31880,7 +31997,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7929.5</v>
+        <v>7914.13</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -31939,7 +32056,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5406.84</v>
+        <v>5397.88</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -31998,7 +32115,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>196.67</v>
+        <v>179.23</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32116,7 +32233,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>315.88</v>
+        <v>309.24</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32352,7 +32469,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>1565.47</v>
+        <v>1550.1</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32411,7 +32528,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1555.13</v>
+        <v>1524.29</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32529,7 +32646,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>1153.18</v>
+        <v>2622.58</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32706,7 +32823,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>8761.6</v>
+        <v>18858.27</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32765,7 +32882,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1303.77</v>
+        <v>1252.5899999999999</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -33591,7 +33708,7 @@
         <v>23</v>
       </c>
       <c r="F424" s="6">
-        <v>5.78</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>23</v>
@@ -33709,7 +33826,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1259.27</v>
+        <v>1250.69</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33768,7 +33885,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>7540.29</v>
+        <v>9393.59</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -33886,7 +34003,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>8348.76</v>
+        <v>6099.44</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -41282,7 +41399,7 @@
         <v>23</v>
       </c>
       <c r="M554" s="6">
-        <v>4.22</v>
+        <v>3.99</v>
       </c>
       <c r="N554" s="6">
         <v>0</v>
@@ -59669,7 +59786,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>220.89</v>
+        <v>219.26</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59846,7 +59963,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>28714.35</v>
+        <v>25134.51</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60613,7 +60730,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>136968.42000000001</v>
+        <v>136657.69</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60672,7 +60789,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>32233.34</v>
+        <v>40492.400000000001</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60731,7 +60848,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>58245.34</v>
+        <v>53893.1</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60790,7 +60907,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>16436.11</v>
+        <v>20425.89</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -60849,7 +60966,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>4967.9799999999996</v>
+        <v>4961.2</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61793,7 +61910,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>7319.41</v>
+        <v>6877.96</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62973,7 +63090,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>661.19</v>
+        <v>643.24</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63032,7 +63149,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>324.39</v>
+        <v>168.54</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63268,7 +63385,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>2364.94</v>
+        <v>1631.51</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63563,7 +63680,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>175.58</v>
+        <v>78.39</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63681,7 +63798,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>1145.2</v>
+        <v>1048.0999999999999</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -63976,7 +64093,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1256.42</v>
+        <v>1213.74</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64035,7 +64152,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>3051.45</v>
+        <v>2736.15</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -64271,7 +64388,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1205.1600000000001</v>
+        <v>1204.3900000000001</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64389,7 +64506,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>2526.15</v>
+        <v>2514.9</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -64507,7 +64624,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>2624.08</v>
+        <v>2612.83</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64684,7 +64801,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>3636.33</v>
+        <v>3627.76</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64979,7 +65096,7 @@
         <v>23</v>
       </c>
       <c r="F956" s="6">
-        <v>3058.4</v>
+        <v>3048.34</v>
       </c>
       <c r="G956" s="6" t="s">
         <v>23</v>
@@ -65038,7 +65155,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>1248.18</v>
+        <v>1160.48</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65097,7 +65214,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>377.9</v>
+        <v>126.4</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -65215,7 +65332,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>55.94</v>
+        <v>45.88</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -65274,7 +65391,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>758.03</v>
+        <v>756.93</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65333,7 +65450,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>3803.61</v>
+        <v>3794.44</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65354,7 +65471,7 @@
         <v>23</v>
       </c>
       <c r="M962" s="6">
-        <v>2.85</v>
+        <v>2.59</v>
       </c>
       <c r="N962" s="6">
         <v>0</v>
@@ -67634,7 +67751,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>23902.95</v>
+        <v>23867.29</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67752,7 +67869,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3308.08</v>
+        <v>3245.3</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67929,7 +68046,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>240.45</v>
+        <v>1770.45</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68401,7 +68518,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>3253.96</v>
+        <v>4992.3599999999997</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68460,7 +68577,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>2315.02</v>
+        <v>2599.56</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68991,7 +69108,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>13192.14</v>
+        <v>22263.14</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69168,7 +69285,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>7610.15</v>
+        <v>9799.5499999999993</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69286,7 +69403,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>879.09</v>
+        <v>11004.19</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -70053,7 +70170,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>1567.7</v>
+        <v>7566.7</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -70938,7 +71055,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>5523.85</v>
+        <v>7463.75</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -71056,7 +71173,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>6742.52</v>
+        <v>6363.42</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71115,7 +71232,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>7844.13</v>
+        <v>11178.15</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71823,7 +71940,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>13967.19</v>
+        <v>13935.51</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71941,7 +72058,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>17271.29</v>
+        <v>15280.03</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72000,7 +72117,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>34140.74</v>
+        <v>33541.82</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72059,7 +72176,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>36859.919999999998</v>
+        <v>26897.52</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72118,7 +72235,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>7833.31</v>
+        <v>8370.8700000000008</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72177,7 +72294,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>8487.5</v>
+        <v>7711.34</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72826,7 +72943,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>246.73</v>
+        <v>236.62</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -75820,16 +75937,16 @@
     </row>
     <row r="1140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1140" s="5" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1140" s="5" t="s">
         <v>2715</v>
       </c>
-      <c r="B1140" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1140" s="5" t="s">
+      <c r="D1140" s="5" t="s">
         <v>2716</v>
-      </c>
-      <c r="D1140" s="5" t="s">
-        <v>2717</v>
       </c>
       <c r="E1140" s="6" t="s">
         <v>23</v>
@@ -75868,7 +75985,7 @@
         <v>21</v>
       </c>
       <c r="Q1140" s="5" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="R1140" s="6" t="s">
         <v>23</v>
@@ -75879,16 +75996,16 @@
     </row>
     <row r="1141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1141" s="5" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1141" s="5" t="s">
         <v>2718</v>
       </c>
-      <c r="B1141" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1141" s="5" t="s">
+      <c r="D1141" s="5" t="s">
         <v>2719</v>
-      </c>
-      <c r="D1141" s="5" t="s">
-        <v>2720</v>
       </c>
       <c r="E1141" s="6" t="s">
         <v>23</v>
@@ -75927,7 +76044,7 @@
         <v>21</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="R1141" s="6" t="s">
         <v>23</v>
@@ -75938,16 +76055,16 @@
     </row>
     <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="5" t="s">
         <v>2721</v>
       </c>
-      <c r="B1142" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1142" s="5" t="s">
+      <c r="D1142" s="5" t="s">
         <v>2722</v>
-      </c>
-      <c r="D1142" s="5" t="s">
-        <v>2723</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>23</v>
@@ -75986,7 +76103,7 @@
         <v>21</v>
       </c>
       <c r="Q1142" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="R1142" s="6" t="s">
         <v>23</v>
@@ -75997,16 +76114,16 @@
     </row>
     <row r="1143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1143" s="5" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1143" s="5" t="s">
         <v>2724</v>
       </c>
-      <c r="B1143" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1143" s="5" t="s">
+      <c r="D1143" s="5" t="s">
         <v>2725</v>
-      </c>
-      <c r="D1143" s="5" t="s">
-        <v>2726</v>
       </c>
       <c r="E1143" s="6" t="s">
         <v>23</v>
@@ -76045,7 +76162,7 @@
         <v>21</v>
       </c>
       <c r="Q1143" s="5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="R1143" s="6" t="s">
         <v>23</v>
@@ -76056,22 +76173,22 @@
     </row>
     <row r="1144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1144" s="5" t="s">
-        <v>2567</v>
+        <v>2727</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2568</v>
+        <v>2728</v>
       </c>
       <c r="D1144" s="5" t="s">
-        <v>2569</v>
+        <v>2729</v>
       </c>
       <c r="E1144" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1144" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1144" s="6" t="s">
         <v>23</v>
@@ -76089,10 +76206,10 @@
         <v>21</v>
       </c>
       <c r="L1144" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1144" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1144" s="6">
         <v>0</v>
@@ -76104,7 +76221,7 @@
         <v>21</v>
       </c>
       <c r="Q1144" s="5" t="s">
-        <v>2568</v>
+        <v>2728</v>
       </c>
       <c r="R1144" s="6" t="s">
         <v>23</v>
@@ -76115,22 +76232,22 @@
     </row>
     <row r="1145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
-        <v>2570</v>
+        <v>2730</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2571</v>
+        <v>2731</v>
       </c>
       <c r="D1145" s="5" t="s">
-        <v>2572</v>
+        <v>2732</v>
       </c>
       <c r="E1145" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1145" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1145" s="6" t="s">
         <v>23</v>
@@ -76148,10 +76265,10 @@
         <v>21</v>
       </c>
       <c r="L1145" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1145" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1145" s="6">
         <v>0</v>
@@ -76163,7 +76280,7 @@
         <v>21</v>
       </c>
       <c r="Q1145" s="5" t="s">
-        <v>2571</v>
+        <v>2731</v>
       </c>
       <c r="R1145" s="6" t="s">
         <v>23</v>
@@ -76174,22 +76291,22 @@
     </row>
     <row r="1146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1146" s="5" t="s">
-        <v>2573</v>
+        <v>2733</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2574</v>
+        <v>2734</v>
       </c>
       <c r="D1146" s="5" t="s">
-        <v>2575</v>
+        <v>2735</v>
       </c>
       <c r="E1146" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1146" s="6">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1146" s="6" t="s">
         <v>23</v>
@@ -76207,10 +76324,10 @@
         <v>21</v>
       </c>
       <c r="L1146" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1146" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1146" s="6">
         <v>0</v>
@@ -76222,7 +76339,7 @@
         <v>21</v>
       </c>
       <c r="Q1146" s="5" t="s">
-        <v>2574</v>
+        <v>2734</v>
       </c>
       <c r="R1146" s="6" t="s">
         <v>23</v>
@@ -76233,16 +76350,16 @@
     </row>
     <row r="1147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1147" s="5" t="s">
-        <v>2576</v>
+        <v>2736</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2577</v>
+        <v>2737</v>
       </c>
       <c r="D1147" s="5" t="s">
-        <v>2578</v>
+        <v>2738</v>
       </c>
       <c r="E1147" s="6" t="s">
         <v>23</v>
@@ -76281,7 +76398,7 @@
         <v>21</v>
       </c>
       <c r="Q1147" s="5" t="s">
-        <v>2577</v>
+        <v>2737</v>
       </c>
       <c r="R1147" s="6" t="s">
         <v>23</v>
@@ -76292,16 +76409,16 @@
     </row>
     <row r="1148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1148" s="5" t="s">
-        <v>2579</v>
+        <v>2739</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2580</v>
+        <v>2740</v>
       </c>
       <c r="D1148" s="5" t="s">
-        <v>2581</v>
+        <v>2741</v>
       </c>
       <c r="E1148" s="6" t="s">
         <v>23</v>
@@ -76340,7 +76457,7 @@
         <v>21</v>
       </c>
       <c r="Q1148" s="5" t="s">
-        <v>2580</v>
+        <v>2740</v>
       </c>
       <c r="R1148" s="6" t="s">
         <v>23</v>
@@ -76351,22 +76468,22 @@
     </row>
     <row r="1149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1149" s="5" t="s">
-        <v>2582</v>
+        <v>2742</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2583</v>
+        <v>2743</v>
       </c>
       <c r="D1149" s="5" t="s">
-        <v>2584</v>
+        <v>2744</v>
       </c>
       <c r="E1149" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1149" s="6">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="G1149" s="6" t="s">
         <v>23</v>
@@ -76384,10 +76501,10 @@
         <v>21</v>
       </c>
       <c r="L1149" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1149" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1149" s="6">
         <v>0</v>
@@ -76399,7 +76516,7 @@
         <v>21</v>
       </c>
       <c r="Q1149" s="5" t="s">
-        <v>2583</v>
+        <v>2743</v>
       </c>
       <c r="R1149" s="6" t="s">
         <v>23</v>
@@ -76410,22 +76527,22 @@
     </row>
     <row r="1150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1150" s="5" t="s">
-        <v>2585</v>
+        <v>2745</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2586</v>
+        <v>2746</v>
       </c>
       <c r="D1150" s="5" t="s">
-        <v>2587</v>
+        <v>2747</v>
       </c>
       <c r="E1150" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1150" s="6">
-        <v>153.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1150" s="6" t="s">
         <v>23</v>
@@ -76443,10 +76560,10 @@
         <v>21</v>
       </c>
       <c r="L1150" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1150" s="6">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N1150" s="6">
         <v>0</v>
@@ -76458,7 +76575,7 @@
         <v>21</v>
       </c>
       <c r="Q1150" s="5" t="s">
-        <v>2586</v>
+        <v>2746</v>
       </c>
       <c r="R1150" s="6" t="s">
         <v>23</v>
@@ -76469,22 +76586,22 @@
     </row>
     <row r="1151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1151" s="5" t="s">
-        <v>2588</v>
+        <v>2748</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2589</v>
+        <v>2749</v>
       </c>
       <c r="D1151" s="5" t="s">
-        <v>2590</v>
+        <v>2750</v>
       </c>
       <c r="E1151" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1151" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1151" s="6" t="s">
         <v>23</v>
@@ -76502,10 +76619,10 @@
         <v>21</v>
       </c>
       <c r="L1151" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1151" s="6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N1151" s="6">
         <v>0</v>
@@ -76517,7 +76634,7 @@
         <v>21</v>
       </c>
       <c r="Q1151" s="5" t="s">
-        <v>2589</v>
+        <v>2749</v>
       </c>
       <c r="R1151" s="6" t="s">
         <v>23</v>
@@ -76528,22 +76645,22 @@
     </row>
     <row r="1152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1152" s="5" t="s">
-        <v>2591</v>
+        <v>2751</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2599</v>
+        <v>2752</v>
       </c>
       <c r="D1152" s="5" t="s">
-        <v>2592</v>
+        <v>2753</v>
       </c>
       <c r="E1152" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1152" s="6">
-        <v>786.61</v>
+        <v>0</v>
       </c>
       <c r="G1152" s="6" t="s">
         <v>23</v>
@@ -76561,10 +76678,10 @@
         <v>21</v>
       </c>
       <c r="L1152" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1152" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N1152" s="6">
         <v>0</v>
@@ -76576,7 +76693,7 @@
         <v>21</v>
       </c>
       <c r="Q1152" s="5" t="s">
-        <v>2599</v>
+        <v>2752</v>
       </c>
       <c r="R1152" s="6" t="s">
         <v>23</v>
@@ -76587,22 +76704,22 @@
     </row>
     <row r="1153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1153" s="5" t="s">
-        <v>2593</v>
+        <v>2754</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2594</v>
+        <v>2755</v>
       </c>
       <c r="D1153" s="5" t="s">
-        <v>2595</v>
+        <v>2756</v>
       </c>
       <c r="E1153" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1153" s="6">
-        <v>361.4</v>
+        <v>0</v>
       </c>
       <c r="G1153" s="6" t="s">
         <v>23</v>
@@ -76620,10 +76737,10 @@
         <v>21</v>
       </c>
       <c r="L1153" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1153" s="6">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N1153" s="6">
         <v>0</v>
@@ -76635,7 +76752,7 @@
         <v>21</v>
       </c>
       <c r="Q1153" s="5" t="s">
-        <v>2594</v>
+        <v>2755</v>
       </c>
       <c r="R1153" s="6" t="s">
         <v>23</v>
@@ -76646,60 +76763,827 @@
     </row>
     <row r="1154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1154" s="5" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1154" s="5" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D1154" s="5" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1154" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1154" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1154" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1154" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1154" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1154" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1154" s="5" t="s">
+        <v>2758</v>
+      </c>
+      <c r="R1154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1154" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1155" s="5" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1155" s="5" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D1155" s="5" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E1155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1155" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1155" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1155" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1155" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1155" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1155" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1155" s="5" t="s">
+        <v>2761</v>
+      </c>
+      <c r="R1155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1155" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1156" s="5" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1156" s="5" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D1156" s="5" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E1156" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1156" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1156" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1156" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1156" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1156" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1156" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1156" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1156" s="5" t="s">
+        <v>2764</v>
+      </c>
+      <c r="R1156" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1156" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1157" s="5" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1157" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D1157" s="5" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E1157" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1157" s="6">
+        <v>504</v>
+      </c>
+      <c r="G1157" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1157" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1157" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1157" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="N1157" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1157" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1157" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="R1157" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1157" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1158" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1158" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D1158" s="5" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E1158" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1158" s="6">
+        <v>1784.9</v>
+      </c>
+      <c r="G1158" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1158" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1158" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1158" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="N1158" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1158" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1158" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="R1158" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1158" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1159" s="5" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1159" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1159" s="5" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E1159" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1159" s="6">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="G1159" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1159" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1159" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1159" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1159" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1159" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1159" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="R1159" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1159" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1160" s="5" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1160" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1160" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E1160" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1160" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1160" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1160" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1160" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1160" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1160" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1160" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1160" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="R1160" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1160" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1161" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1161" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1161" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E1161" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1161" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1161" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1161" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1161" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1161" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1161" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1161" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1161" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="R1161" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1161" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1162" s="5" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1162" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1162" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1162" s="6">
+        <v>56.1</v>
+      </c>
+      <c r="G1162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1162" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1162" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1162" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1162" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1162" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="R1162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1162" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1163" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1163" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1163" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E1163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1163" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="G1163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1163" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1163" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1163" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1163" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1163" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R1163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1163" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1164" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1164" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1164" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1164" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1164" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1164" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1164" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1164" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1164" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R1164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1164" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1165" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1165" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1165" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1165" s="6">
+        <v>786.61</v>
+      </c>
+      <c r="G1165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1165" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1165" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1165" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1165" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1165" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R1165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1165" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1166" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1166" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1166" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1166" s="6">
+        <v>361.4</v>
+      </c>
+      <c r="G1166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1166" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1166" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1166" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1166" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1166" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R1166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1166" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1167" s="5" t="s">
         <v>2687</v>
       </c>
-      <c r="B1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1154" s="5" t="s">
+      <c r="B1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1167" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="D1154" s="5" t="s">
+      <c r="D1167" s="5" t="s">
         <v>2689</v>
       </c>
-      <c r="E1154" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1154" s="6">
+      <c r="E1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1167" s="6">
         <v>775.94</v>
       </c>
-      <c r="G1154" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1154" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1154" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1154" s="6">
+      <c r="G1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1167" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1167" s="6">
         <v>1.99</v>
       </c>
-      <c r="N1154" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1154" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1154" s="5" t="s">
+      <c r="N1167" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1167" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1167" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="R1154" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1154" s="5" t="s">
+      <c r="R1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1167" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -8203,9 +8203,6 @@
     <t>SORRENTO 902 BEIGE</t>
   </si>
   <si>
-    <t>Lista Produto : 18/06/2021 10:25:49</t>
-  </si>
-  <si>
     <t>TC15245</t>
   </si>
   <si>
@@ -8321,6 +8318,9 @@
   </si>
   <si>
     <t>VARDO 17</t>
+  </si>
+  <si>
+    <t>Lista Produto : 25/06/2021 09:11:38</t>
   </si>
 </sst>
 </file>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2726</v>
+        <v>2765</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10462,7 +10462,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>829.83</v>
+        <v>828.6</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10521,7 +10521,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>2190.8000000000002</v>
+        <v>2189.8200000000002</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10993,7 +10993,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>3216.79</v>
+        <v>2584.67</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11760,7 +11760,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>2968.18</v>
+        <v>2956.64</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11819,7 +11819,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>11168.78</v>
+        <v>11125.54</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11878,7 +11878,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>3240.76</v>
+        <v>2462.29</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12468,7 +12468,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>24965.11</v>
+        <v>24759.26</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12704,7 +12704,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>15218.01</v>
+        <v>14600.25</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12940,7 +12940,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>11461.42</v>
+        <v>6244.78</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12999,7 +12999,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>19584.169999999998</v>
+        <v>17322.66</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13294,7 +13294,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>41372.49</v>
+        <v>41335.120000000003</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -24327,7 +24327,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>9835.06</v>
+        <v>9863.2999999999993</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26392,7 +26392,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>2091.42</v>
+        <v>3450.77</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -27454,7 +27454,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>1006.51</v>
+        <v>1005.87</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28103,7 +28103,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="6">
-        <v>307</v>
+        <v>619</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>23</v>
@@ -29519,7 +29519,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>50.73</v>
+        <v>41.12</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -30817,7 +30817,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1367.57</v>
+        <v>1351.61</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -31584,7 +31584,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>152.74</v>
+        <v>144.71700000000001</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31702,7 +31702,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>10412.34</v>
+        <v>10405.469999999999</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31997,7 +31997,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7914.13</v>
+        <v>7805.07</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -32410,7 +32410,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>314.14999999999998</v>
+        <v>313.45</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32646,7 +32646,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2622.58</v>
+        <v>2247.3200000000002</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -33118,7 +33118,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1533.09</v>
+        <v>1525.98</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33826,7 +33826,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1250.69</v>
+        <v>1246.93</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -34003,7 +34003,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>6099.44</v>
+        <v>6505.13</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -59963,7 +59963,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>25134.51</v>
+        <v>22429.29</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60730,7 +60730,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>136657.69</v>
+        <v>130129.29</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60789,7 +60789,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>40492.400000000001</v>
+        <v>38389.65</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60848,7 +60848,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>53893.1</v>
+        <v>45893.84</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60907,7 +60907,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>20425.89</v>
+        <v>17501.57</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -61910,7 +61910,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>6877.96</v>
+        <v>6206.76</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62500,7 +62500,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>2339.94</v>
+        <v>1808.5</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62559,7 +62559,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>3788.26</v>
+        <v>3522.54</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62677,7 +62677,7 @@
         <v>23</v>
       </c>
       <c r="F915" s="6">
-        <v>496.8</v>
+        <v>486.63</v>
       </c>
       <c r="G915" s="6" t="s">
         <v>23</v>
@@ -62795,7 +62795,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>525.79999999999995</v>
+        <v>367.46</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -63090,7 +63090,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>643.24</v>
+        <v>577.30999999999995</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63149,7 +63149,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>168.54</v>
+        <v>937.2</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63170,7 +63170,7 @@
         <v>23</v>
       </c>
       <c r="M923" s="6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="N923" s="6">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>1631.51</v>
+        <v>4538.84</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63680,7 +63680,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>78.39</v>
+        <v>49.53</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -63798,7 +63798,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>1048.0999999999999</v>
+        <v>1046.82</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -64093,7 +64093,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1213.74</v>
+        <v>1260.0899999999999</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64270,7 +64270,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>1047.8599999999999</v>
+        <v>930.8</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64388,7 +64388,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1204.3900000000001</v>
+        <v>1087.55</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64447,7 +64447,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1482.13</v>
+        <v>1132.8699999999999</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64624,7 +64624,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>2612.83</v>
+        <v>2610.4299999999998</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64860,7 +64860,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>3450.83</v>
+        <v>4181.93</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -65332,7 +65332,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>45.88</v>
+        <v>276.48</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -65450,7 +65450,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>3794.44</v>
+        <v>3787.88</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -67751,7 +67751,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>23867.29</v>
+        <v>23671.61</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67869,7 +67869,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3245.3</v>
+        <v>3233.43</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67928,7 +67928,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>2213.37</v>
+        <v>1841.67</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -68046,7 +68046,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>1770.45</v>
+        <v>1481.13</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68164,7 +68164,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>614.12</v>
+        <v>327.38</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68518,7 +68518,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4992.3599999999997</v>
+        <v>4952.46</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68577,7 +68577,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>2599.56</v>
+        <v>3596.86</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68754,7 +68754,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>741.94</v>
+        <v>688.54</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -68872,7 +68872,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1576.18</v>
+        <v>1522.98</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -69049,7 +69049,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>7783.18</v>
+        <v>7768.46</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -69108,7 +69108,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>22263.14</v>
+        <v>21620.14</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69285,7 +69285,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>9799.5499999999993</v>
+        <v>9779.7900000000009</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69403,7 +69403,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>11004.19</v>
+        <v>24207</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -70406,7 +70406,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>1666.5</v>
+        <v>1995.42</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -71763,7 +71763,7 @@
         <v>23</v>
       </c>
       <c r="F1069" s="6">
-        <v>816</v>
+        <v>677.7</v>
       </c>
       <c r="G1069" s="6" t="s">
         <v>23</v>
@@ -71940,7 +71940,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>13935.51</v>
+        <v>13896.76</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71999,7 +71999,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>2764.64</v>
+        <v>2737.62</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -72058,7 +72058,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>15280.03</v>
+        <v>15244.95</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72117,7 +72117,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>33541.82</v>
+        <v>33345.279999999999</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72176,7 +72176,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>26897.52</v>
+        <v>26946.22</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72294,7 +72294,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>7711.34</v>
+        <v>8303.7099999999991</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72530,7 +72530,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>339</v>
+        <v>81.06</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72943,7 +72943,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>236.62</v>
+        <v>803.85</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -73061,7 +73061,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>328.78</v>
+        <v>710.77</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73297,7 +73297,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>1044.68</v>
+        <v>1006.32</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73356,7 +73356,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>774.95</v>
+        <v>192.99</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73474,7 +73474,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>289.08999999999997</v>
+        <v>338.45</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -74477,7 +74477,7 @@
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>1440.9</v>
+        <v>1395.66</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74595,7 +74595,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>227.28</v>
+        <v>226.24</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74654,7 +74654,7 @@
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>58.4</v>
+        <v>173.1</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -75598,7 +75598,7 @@
         <v>23</v>
       </c>
       <c r="F1134" s="6">
-        <v>525.70000000000005</v>
+        <v>249.1</v>
       </c>
       <c r="G1134" s="6" t="s">
         <v>23</v>
@@ -75657,7 +75657,7 @@
         <v>23</v>
       </c>
       <c r="F1135" s="6">
-        <v>561.9</v>
+        <v>377.5</v>
       </c>
       <c r="G1135" s="6" t="s">
         <v>23</v>
@@ -76173,16 +76173,16 @@
     </row>
     <row r="1144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1144" s="5" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1144" s="5" t="s">
         <v>2727</v>
       </c>
-      <c r="B1144" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1144" s="5" t="s">
+      <c r="D1144" s="5" t="s">
         <v>2728</v>
-      </c>
-      <c r="D1144" s="5" t="s">
-        <v>2729</v>
       </c>
       <c r="E1144" s="6" t="s">
         <v>23</v>
@@ -76221,7 +76221,7 @@
         <v>21</v>
       </c>
       <c r="Q1144" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="R1144" s="6" t="s">
         <v>23</v>
@@ -76232,16 +76232,16 @@
     </row>
     <row r="1145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1145" s="5" t="s">
         <v>2730</v>
       </c>
-      <c r="B1145" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1145" s="5" t="s">
+      <c r="D1145" s="5" t="s">
         <v>2731</v>
-      </c>
-      <c r="D1145" s="5" t="s">
-        <v>2732</v>
       </c>
       <c r="E1145" s="6" t="s">
         <v>23</v>
@@ -76280,7 +76280,7 @@
         <v>21</v>
       </c>
       <c r="Q1145" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="R1145" s="6" t="s">
         <v>23</v>
@@ -76291,16 +76291,16 @@
     </row>
     <row r="1146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1146" s="5" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1146" s="5" t="s">
         <v>2733</v>
       </c>
-      <c r="B1146" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1146" s="5" t="s">
+      <c r="D1146" s="5" t="s">
         <v>2734</v>
-      </c>
-      <c r="D1146" s="5" t="s">
-        <v>2735</v>
       </c>
       <c r="E1146" s="6" t="s">
         <v>23</v>
@@ -76339,7 +76339,7 @@
         <v>21</v>
       </c>
       <c r="Q1146" s="5" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="R1146" s="6" t="s">
         <v>23</v>
@@ -76350,16 +76350,16 @@
     </row>
     <row r="1147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1147" s="5" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1147" s="5" t="s">
         <v>2736</v>
       </c>
-      <c r="B1147" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1147" s="5" t="s">
+      <c r="D1147" s="5" t="s">
         <v>2737</v>
-      </c>
-      <c r="D1147" s="5" t="s">
-        <v>2738</v>
       </c>
       <c r="E1147" s="6" t="s">
         <v>23</v>
@@ -76398,7 +76398,7 @@
         <v>21</v>
       </c>
       <c r="Q1147" s="5" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="R1147" s="6" t="s">
         <v>23</v>
@@ -76409,16 +76409,16 @@
     </row>
     <row r="1148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1148" s="5" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148" s="5" t="s">
         <v>2739</v>
       </c>
-      <c r="B1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1148" s="5" t="s">
+      <c r="D1148" s="5" t="s">
         <v>2740</v>
-      </c>
-      <c r="D1148" s="5" t="s">
-        <v>2741</v>
       </c>
       <c r="E1148" s="6" t="s">
         <v>23</v>
@@ -76457,7 +76457,7 @@
         <v>21</v>
       </c>
       <c r="Q1148" s="5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="R1148" s="6" t="s">
         <v>23</v>
@@ -76468,16 +76468,16 @@
     </row>
     <row r="1149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1149" s="5" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1149" s="5" t="s">
         <v>2742</v>
       </c>
-      <c r="B1149" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1149" s="5" t="s">
+      <c r="D1149" s="5" t="s">
         <v>2743</v>
-      </c>
-      <c r="D1149" s="5" t="s">
-        <v>2744</v>
       </c>
       <c r="E1149" s="6" t="s">
         <v>23</v>
@@ -76516,7 +76516,7 @@
         <v>21</v>
       </c>
       <c r="Q1149" s="5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="R1149" s="6" t="s">
         <v>23</v>
@@ -76527,16 +76527,16 @@
     </row>
     <row r="1150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1150" s="5" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1150" s="5" t="s">
         <v>2745</v>
       </c>
-      <c r="B1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1150" s="5" t="s">
+      <c r="D1150" s="5" t="s">
         <v>2746</v>
-      </c>
-      <c r="D1150" s="5" t="s">
-        <v>2747</v>
       </c>
       <c r="E1150" s="6" t="s">
         <v>23</v>
@@ -76575,7 +76575,7 @@
         <v>21</v>
       </c>
       <c r="Q1150" s="5" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="R1150" s="6" t="s">
         <v>23</v>
@@ -76586,16 +76586,16 @@
     </row>
     <row r="1151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1151" s="5" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1151" s="5" t="s">
         <v>2748</v>
       </c>
-      <c r="B1151" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1151" s="5" t="s">
+      <c r="D1151" s="5" t="s">
         <v>2749</v>
-      </c>
-      <c r="D1151" s="5" t="s">
-        <v>2750</v>
       </c>
       <c r="E1151" s="6" t="s">
         <v>23</v>
@@ -76634,7 +76634,7 @@
         <v>21</v>
       </c>
       <c r="Q1151" s="5" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="R1151" s="6" t="s">
         <v>23</v>
@@ -76645,16 +76645,16 @@
     </row>
     <row r="1152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1152" s="5" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1152" s="5" t="s">
         <v>2751</v>
       </c>
-      <c r="B1152" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1152" s="5" t="s">
+      <c r="D1152" s="5" t="s">
         <v>2752</v>
-      </c>
-      <c r="D1152" s="5" t="s">
-        <v>2753</v>
       </c>
       <c r="E1152" s="6" t="s">
         <v>23</v>
@@ -76693,7 +76693,7 @@
         <v>21</v>
       </c>
       <c r="Q1152" s="5" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="R1152" s="6" t="s">
         <v>23</v>
@@ -76704,16 +76704,16 @@
     </row>
     <row r="1153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1153" s="5" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1153" s="5" t="s">
         <v>2754</v>
       </c>
-      <c r="B1153" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1153" s="5" t="s">
+      <c r="D1153" s="5" t="s">
         <v>2755</v>
-      </c>
-      <c r="D1153" s="5" t="s">
-        <v>2756</v>
       </c>
       <c r="E1153" s="6" t="s">
         <v>23</v>
@@ -76752,7 +76752,7 @@
         <v>21</v>
       </c>
       <c r="Q1153" s="5" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="R1153" s="6" t="s">
         <v>23</v>
@@ -76763,16 +76763,16 @@
     </row>
     <row r="1154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1154" s="5" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1154" s="5" t="s">
         <v>2757</v>
       </c>
-      <c r="B1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1154" s="5" t="s">
+      <c r="D1154" s="5" t="s">
         <v>2758</v>
-      </c>
-      <c r="D1154" s="5" t="s">
-        <v>2759</v>
       </c>
       <c r="E1154" s="6" t="s">
         <v>23</v>
@@ -76811,7 +76811,7 @@
         <v>21</v>
       </c>
       <c r="Q1154" s="5" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="R1154" s="6" t="s">
         <v>23</v>
@@ -76822,16 +76822,16 @@
     </row>
     <row r="1155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1155" s="5" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1155" s="5" t="s">
         <v>2760</v>
       </c>
-      <c r="B1155" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1155" s="5" t="s">
+      <c r="D1155" s="5" t="s">
         <v>2761</v>
-      </c>
-      <c r="D1155" s="5" t="s">
-        <v>2762</v>
       </c>
       <c r="E1155" s="6" t="s">
         <v>23</v>
@@ -76870,7 +76870,7 @@
         <v>21</v>
       </c>
       <c r="Q1155" s="5" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="R1155" s="6" t="s">
         <v>23</v>
@@ -76881,16 +76881,16 @@
     </row>
     <row r="1156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1156" s="5" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1156" s="5" t="s">
         <v>2763</v>
       </c>
-      <c r="B1156" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1156" s="5" t="s">
+      <c r="D1156" s="5" t="s">
         <v>2764</v>
-      </c>
-      <c r="D1156" s="5" t="s">
-        <v>2765</v>
       </c>
       <c r="E1156" s="6" t="s">
         <v>23</v>
@@ -76929,7 +76929,7 @@
         <v>21</v>
       </c>
       <c r="Q1156" s="5" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="R1156" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17481" uniqueCount="2766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17496" uniqueCount="2769">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -7291,9 +7291,6 @@
     <t>G1602</t>
   </si>
   <si>
-    <t>BOLSHOI 01 | YANODA 22 (BRANCO)</t>
-  </si>
-  <si>
     <t>TC15158</t>
   </si>
   <si>
@@ -7612,9 +7609,6 @@
     <t>G4410</t>
   </si>
   <si>
-    <t>TOPAZ 804 C/TRATAMENTO (CINZENTO)</t>
-  </si>
-  <si>
     <t>TC15194</t>
   </si>
   <si>
@@ -8320,7 +8314,22 @@
     <t>VARDO 17</t>
   </si>
   <si>
-    <t>Lista Produto : 25/06/2021 09:11:38</t>
+    <t>Lista Produto : 05/07/2021 09:23:00</t>
+  </si>
+  <si>
+    <t>BOLSHOI 01-YANODA 22 (BRANCO)</t>
+  </si>
+  <si>
+    <t>TOPAZ 804 C/TRATAMENTO (CINZ.)</t>
+  </si>
+  <si>
+    <t>TC15258</t>
+  </si>
+  <si>
+    <t>G5740</t>
+  </si>
+  <si>
+    <t>LUCCA 919 (BEGE)</t>
   </si>
 </sst>
 </file>
@@ -8487,8 +8496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1167" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1167"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1168" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1168"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8777,7 +8786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1167"/>
+  <dimension ref="A1:S1168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -8788,7 +8797,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -8831,7 +8840,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10521,7 +10530,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>2189.8200000000002</v>
+        <v>1255.3699999999999</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -10993,7 +11002,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>2584.67</v>
+        <v>2281.64</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11760,7 +11769,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>2956.64</v>
+        <v>1442.94</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11819,7 +11828,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>11125.54</v>
+        <v>8965.77</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11878,7 +11887,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>2462.29</v>
+        <v>1480.44</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12468,7 +12477,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>24759.26</v>
+        <v>28592.15</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12527,7 +12536,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>910.54</v>
+        <v>813.87</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12586,7 +12595,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>1400</v>
+        <v>1339.9</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12704,7 +12713,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>14600.25</v>
+        <v>11878.03</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12940,7 +12949,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>6244.78</v>
+        <v>34453.86</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -12999,7 +13008,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>17322.66</v>
+        <v>14579.5</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13294,7 +13303,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>41335.120000000003</v>
+        <v>40440.26</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13338,16 +13347,16 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>2606</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>2608</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>23</v>
@@ -13386,7 +13395,7 @@
         <v>21</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="R79" s="6" t="s">
         <v>23</v>
@@ -13397,16 +13406,16 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>2609</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>2611</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>23</v>
@@ -13445,7 +13454,7 @@
         <v>21</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>23</v>
@@ -13456,22 +13465,22 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>2612</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>2613</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>2614</v>
-      </c>
       <c r="E81" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>1031</v>
+        <v>821.25</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -13504,7 +13513,7 @@
         <v>21</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="R81" s="6" t="s">
         <v>23</v>
@@ -23855,7 +23864,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>947.78</v>
+        <v>942.2</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24976,7 +24985,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>2241</v>
+        <v>1853</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -25625,7 +25634,7 @@
         <v>23</v>
       </c>
       <c r="F287" s="6">
-        <v>15</v>
+        <v>14.38</v>
       </c>
       <c r="G287" s="6" t="s">
         <v>23</v>
@@ -26392,7 +26401,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>3450.77</v>
+        <v>5519.61</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26451,7 +26460,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>2501.2399999999998</v>
+        <v>2398.23</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -27454,7 +27463,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>1005.87</v>
+        <v>7425.84</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -30227,7 +30236,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>3247.12</v>
+        <v>2511.42</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30817,7 +30826,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1351.61</v>
+        <v>1299.06</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30876,7 +30885,7 @@
         <v>23</v>
       </c>
       <c r="F376" s="6">
-        <v>144</v>
+        <v>142.74</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>23</v>
@@ -31584,7 +31593,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>144.71700000000001</v>
+        <v>378.41699999999997</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31702,7 +31711,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>10405.469999999999</v>
+        <v>10387.44</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31997,7 +32006,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7805.07</v>
+        <v>7787.52</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -32056,7 +32065,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5397.88</v>
+        <v>5330.9</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -32174,7 +32183,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>268.83999999999997</v>
+        <v>2465.84</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32292,7 +32301,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2526.0100000000002</v>
+        <v>2523.41</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32646,7 +32655,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2247.3200000000002</v>
+        <v>2768.77</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32764,7 +32773,7 @@
         <v>23</v>
       </c>
       <c r="F408" s="6">
-        <v>386.3</v>
+        <v>1353.9</v>
       </c>
       <c r="G408" s="6" t="s">
         <v>23</v>
@@ -32823,7 +32832,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>18858.27</v>
+        <v>18589.830000000002</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -33118,7 +33127,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1525.98</v>
+        <v>1478.73</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33531,7 +33540,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>1822.6</v>
+        <v>754.6</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33885,7 +33894,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>9393.59</v>
+        <v>10152.39</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -34003,7 +34012,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>6505.13</v>
+        <v>20462.59</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34062,7 +34071,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3193.35</v>
+        <v>3188.49</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -41378,7 +41387,7 @@
         <v>23</v>
       </c>
       <c r="F554" s="6">
-        <v>532.28</v>
+        <v>333.38</v>
       </c>
       <c r="G554" s="6" t="s">
         <v>23</v>
@@ -57485,7 +57494,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="6">
-        <v>134</v>
+        <v>133.65</v>
       </c>
       <c r="G827" s="6" t="s">
         <v>23</v>
@@ -59786,7 +59795,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>219.26</v>
+        <v>1792.89</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59963,7 +59972,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>22429.29</v>
+        <v>17601.93</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60730,7 +60739,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>130129.29</v>
+        <v>125996.21</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60789,7 +60798,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>38389.65</v>
+        <v>35814.53</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60848,7 +60857,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>45893.84</v>
+        <v>31409.84</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60966,7 +60975,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>4961.2</v>
+        <v>10284.200000000001</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -61910,7 +61919,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>6206.76</v>
+        <v>8584.9699999999993</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62205,7 +62214,7 @@
         <v>23</v>
       </c>
       <c r="F907" s="6">
-        <v>3015.4</v>
+        <v>2597.84</v>
       </c>
       <c r="G907" s="6" t="s">
         <v>23</v>
@@ -62323,7 +62332,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1608.48</v>
+        <v>1018.62</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62677,7 +62686,7 @@
         <v>23</v>
       </c>
       <c r="F915" s="6">
-        <v>486.63</v>
+        <v>455.42</v>
       </c>
       <c r="G915" s="6" t="s">
         <v>23</v>
@@ -63090,7 +63099,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>577.30999999999995</v>
+        <v>562.88</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63149,7 +63158,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>937.2</v>
+        <v>9615.34</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63385,7 +63394,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>4538.84</v>
+        <v>2533.33</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63798,7 +63807,7 @@
         <v>23</v>
       </c>
       <c r="F934" s="6">
-        <v>1046.82</v>
+        <v>1037.1099999999999</v>
       </c>
       <c r="G934" s="6" t="s">
         <v>23</v>
@@ -64093,7 +64102,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1260.0899999999999</v>
+        <v>1238.19</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64270,7 +64279,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>930.8</v>
+        <v>819.48</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64329,7 +64338,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>412.32</v>
+        <v>333.28</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64388,7 +64397,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1087.55</v>
+        <v>2059.19</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64447,7 +64456,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1132.8699999999999</v>
+        <v>2113.41</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64565,7 +64574,7 @@
         <v>23</v>
       </c>
       <c r="F947" s="6">
-        <v>201.4</v>
+        <v>190.15</v>
       </c>
       <c r="G947" s="6" t="s">
         <v>23</v>
@@ -64624,7 +64633,7 @@
         <v>23</v>
       </c>
       <c r="F948" s="6">
-        <v>2610.4299999999998</v>
+        <v>2601.52</v>
       </c>
       <c r="G948" s="6" t="s">
         <v>23</v>
@@ -64801,7 +64810,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>3627.76</v>
+        <v>6493.93</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64860,7 +64869,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>4181.93</v>
+        <v>5482.36</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64919,7 +64928,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>16.61</v>
+        <v>1032.44</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64978,7 +64987,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>1806.85</v>
+        <v>1599.63</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -65037,7 +65046,7 @@
         <v>23</v>
       </c>
       <c r="F955" s="6">
-        <v>169.5</v>
+        <v>1247.0999999999999</v>
       </c>
       <c r="G955" s="6" t="s">
         <v>23</v>
@@ -65155,7 +65164,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="6">
-        <v>1160.48</v>
+        <v>1151.71</v>
       </c>
       <c r="G957" s="6" t="s">
         <v>23</v>
@@ -65214,7 +65223,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>126.4</v>
+        <v>2175.09</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -65391,7 +65400,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>756.93</v>
+        <v>742.96</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65450,7 +65459,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>3787.88</v>
+        <v>6703.18</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65627,7 +65636,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>2092.4299999999998</v>
+        <v>2051.4899999999998</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -65804,7 +65813,7 @@
         <v>23</v>
       </c>
       <c r="F968" s="6">
-        <v>332.7</v>
+        <v>331.82</v>
       </c>
       <c r="G968" s="6" t="s">
         <v>23</v>
@@ -67751,7 +67760,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>23671.61</v>
+        <v>23651.22</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -67869,7 +67878,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>3233.43</v>
+        <v>2354.6999999999998</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -68046,7 +68055,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>1481.13</v>
+        <v>833.31</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68577,7 +68586,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>3596.86</v>
+        <v>4531.62</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68695,7 +68704,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>23.11</v>
+        <v>2130.21</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68813,7 +68822,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>732.39</v>
+        <v>2869.89</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -68872,7 +68881,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1522.98</v>
+        <v>1416.18</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -68931,7 +68940,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>2719.64</v>
+        <v>2506.04</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68990,7 +68999,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>6934.95</v>
+        <v>8534.73</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -69049,7 +69058,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>7768.46</v>
+        <v>7551.11</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -69108,7 +69117,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>21620.14</v>
+        <v>19330.14</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69285,7 +69294,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>9779.7900000000009</v>
+        <v>9704.99</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69344,7 +69353,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>888.45</v>
+        <v>737.1</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69403,7 +69412,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>24207</v>
+        <v>28628.2</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69462,7 +69471,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>2643.58</v>
+        <v>2542.6799999999998</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69580,7 +69589,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>1305.45</v>
+        <v>1255</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69639,7 +69648,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>2276.85</v>
+        <v>3309.95</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69816,7 +69825,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>2884.2</v>
+        <v>2234.44</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69875,7 +69884,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>1445.64</v>
+        <v>1419.1</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69934,7 +69943,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>1399.1</v>
+        <v>3178.9</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -69993,7 +70002,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>331.72</v>
+        <v>2203.41</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -70052,7 +70061,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>4835.75</v>
+        <v>7676.81</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70170,7 +70179,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>7566.7</v>
+        <v>8342.2999999999993</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -70229,7 +70238,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>999.02</v>
+        <v>733.64</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -70406,7 +70415,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>1995.42</v>
+        <v>1599.8</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70990,7 +70999,7 @@
         <v>2421</v>
       </c>
       <c r="D1056" s="5" t="s">
-        <v>2422</v>
+        <v>2764</v>
       </c>
       <c r="E1056" s="6" t="s">
         <v>23</v>
@@ -71040,22 +71049,22 @@
     </row>
     <row r="1057" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1057" s="5" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1057" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1057" s="5" t="s">
         <v>2423</v>
       </c>
-      <c r="B1057" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1057" s="5" t="s">
+      <c r="D1057" s="5" t="s">
         <v>2424</v>
       </c>
-      <c r="D1057" s="5" t="s">
-        <v>2425</v>
-      </c>
       <c r="E1057" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>7463.75</v>
+        <v>7264.7</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -71088,7 +71097,7 @@
         <v>21</v>
       </c>
       <c r="Q1057" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="R1057" s="6" t="s">
         <v>23</v>
@@ -71099,16 +71108,16 @@
     </row>
     <row r="1058" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1058" s="5" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1058" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1058" s="5" t="s">
         <v>2426</v>
       </c>
-      <c r="B1058" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1058" s="5" t="s">
+      <c r="D1058" s="5" t="s">
         <v>2427</v>
-      </c>
-      <c r="D1058" s="5" t="s">
-        <v>2428</v>
       </c>
       <c r="E1058" s="6" t="s">
         <v>23</v>
@@ -71147,7 +71156,7 @@
         <v>21</v>
       </c>
       <c r="Q1058" s="5" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="R1058" s="6" t="s">
         <v>23</v>
@@ -71158,22 +71167,22 @@
     </row>
     <row r="1059" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1059" s="5" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1059" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1059" s="5" t="s">
         <v>2429</v>
       </c>
-      <c r="B1059" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1059" s="5" t="s">
+      <c r="D1059" s="5" t="s">
         <v>2430</v>
       </c>
-      <c r="D1059" s="5" t="s">
-        <v>2431</v>
-      </c>
       <c r="E1059" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>6363.42</v>
+        <v>6056.6</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71206,7 +71215,7 @@
         <v>21</v>
       </c>
       <c r="Q1059" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="R1059" s="6" t="s">
         <v>23</v>
@@ -71217,22 +71226,22 @@
     </row>
     <row r="1060" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1060" s="5" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1060" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1060" s="5" t="s">
         <v>2432</v>
       </c>
-      <c r="B1060" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1060" s="5" t="s">
+      <c r="D1060" s="5" t="s">
         <v>2433</v>
       </c>
-      <c r="D1060" s="5" t="s">
-        <v>2434</v>
-      </c>
       <c r="E1060" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>11178.15</v>
+        <v>10380.35</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71265,7 +71274,7 @@
         <v>21</v>
       </c>
       <c r="Q1060" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="R1060" s="6" t="s">
         <v>23</v>
@@ -71276,16 +71285,16 @@
     </row>
     <row r="1061" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1061" s="5" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1061" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1061" s="5" t="s">
         <v>2435</v>
       </c>
-      <c r="B1061" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1061" s="5" t="s">
+      <c r="D1061" s="5" t="s">
         <v>2436</v>
-      </c>
-      <c r="D1061" s="5" t="s">
-        <v>2437</v>
       </c>
       <c r="E1061" s="6" t="s">
         <v>23</v>
@@ -71324,7 +71333,7 @@
         <v>21</v>
       </c>
       <c r="Q1061" s="5" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="R1061" s="6" t="s">
         <v>23</v>
@@ -71335,22 +71344,22 @@
     </row>
     <row r="1062" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1062" s="5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1062" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1062" s="5" t="s">
         <v>2438</v>
       </c>
-      <c r="B1062" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1062" s="5" t="s">
-        <v>2439</v>
-      </c>
       <c r="D1062" s="5" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="E1062" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>8367.98</v>
+        <v>8321.6299999999992</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71383,7 +71392,7 @@
         <v>21</v>
       </c>
       <c r="Q1062" s="5" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="R1062" s="6" t="s">
         <v>23</v>
@@ -71394,22 +71403,22 @@
     </row>
     <row r="1063" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1063" s="5" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1063" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1063" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="B1063" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1063" s="5" t="s">
+      <c r="D1063" s="5" t="s">
         <v>2441</v>
       </c>
-      <c r="D1063" s="5" t="s">
-        <v>2442</v>
-      </c>
       <c r="E1063" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1063" s="6">
-        <v>528.79999999999995</v>
+        <v>1290.2</v>
       </c>
       <c r="G1063" s="6" t="s">
         <v>23</v>
@@ -71442,7 +71451,7 @@
         <v>21</v>
       </c>
       <c r="Q1063" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="R1063" s="6" t="s">
         <v>23</v>
@@ -71453,16 +71462,16 @@
     </row>
     <row r="1064" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1064" s="5" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1064" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1064" s="5" t="s">
         <v>2443</v>
       </c>
-      <c r="B1064" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1064" s="5" t="s">
+      <c r="D1064" s="5" t="s">
         <v>2444</v>
-      </c>
-      <c r="D1064" s="5" t="s">
-        <v>2445</v>
       </c>
       <c r="E1064" s="6" t="s">
         <v>23</v>
@@ -71501,7 +71510,7 @@
         <v>21</v>
       </c>
       <c r="Q1064" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="R1064" s="6" t="s">
         <v>23</v>
@@ -71512,22 +71521,22 @@
     </row>
     <row r="1065" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1065" s="5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1065" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1065" s="5" t="s">
         <v>2446</v>
       </c>
-      <c r="B1065" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1065" s="5" t="s">
+      <c r="D1065" s="5" t="s">
         <v>2447</v>
       </c>
-      <c r="D1065" s="5" t="s">
-        <v>2448</v>
-      </c>
       <c r="E1065" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1065" s="6">
-        <v>1733.16</v>
+        <v>2739.96</v>
       </c>
       <c r="G1065" s="6" t="s">
         <v>23</v>
@@ -71560,7 +71569,7 @@
         <v>21</v>
       </c>
       <c r="Q1065" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="R1065" s="6" t="s">
         <v>23</v>
@@ -71571,16 +71580,16 @@
     </row>
     <row r="1066" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1066" s="5" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1066" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1066" s="5" t="s">
         <v>2449</v>
       </c>
-      <c r="B1066" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1066" s="5" t="s">
+      <c r="D1066" s="5" t="s">
         <v>2450</v>
-      </c>
-      <c r="D1066" s="5" t="s">
-        <v>2451</v>
       </c>
       <c r="E1066" s="6" t="s">
         <v>23</v>
@@ -71619,7 +71628,7 @@
         <v>21</v>
       </c>
       <c r="Q1066" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="R1066" s="6" t="s">
         <v>23</v>
@@ -71630,16 +71639,16 @@
     </row>
     <row r="1067" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1067" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1067" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1067" s="5" t="s">
         <v>2452</v>
       </c>
-      <c r="B1067" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1067" s="5" t="s">
+      <c r="D1067" s="5" t="s">
         <v>2453</v>
-      </c>
-      <c r="D1067" s="5" t="s">
-        <v>2454</v>
       </c>
       <c r="E1067" s="6" t="s">
         <v>23</v>
@@ -71678,7 +71687,7 @@
         <v>21</v>
       </c>
       <c r="Q1067" s="5" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="R1067" s="6" t="s">
         <v>23</v>
@@ -71689,22 +71698,22 @@
     </row>
     <row r="1068" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1068" s="5" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1068" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1068" s="5" t="s">
         <v>2455</v>
       </c>
-      <c r="B1068" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1068" s="5" t="s">
+      <c r="D1068" s="5" t="s">
         <v>2456</v>
       </c>
-      <c r="D1068" s="5" t="s">
-        <v>2457</v>
-      </c>
       <c r="E1068" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>9858.9500000000007</v>
+        <v>9845.5499999999993</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -71737,7 +71746,7 @@
         <v>21</v>
       </c>
       <c r="Q1068" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="R1068" s="6" t="s">
         <v>23</v>
@@ -71748,16 +71757,16 @@
     </row>
     <row r="1069" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1069" s="5" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1069" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1069" s="5" t="s">
         <v>2458</v>
       </c>
-      <c r="B1069" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1069" s="5" t="s">
+      <c r="D1069" s="5" t="s">
         <v>2459</v>
-      </c>
-      <c r="D1069" s="5" t="s">
-        <v>2460</v>
       </c>
       <c r="E1069" s="6" t="s">
         <v>23</v>
@@ -71796,7 +71805,7 @@
         <v>21</v>
       </c>
       <c r="Q1069" s="5" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="R1069" s="6" t="s">
         <v>23</v>
@@ -71807,16 +71816,16 @@
     </row>
     <row r="1070" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1070" s="5" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1070" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1070" s="5" t="s">
         <v>2461</v>
       </c>
-      <c r="B1070" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1070" s="5" t="s">
+      <c r="D1070" s="5" t="s">
         <v>2462</v>
-      </c>
-      <c r="D1070" s="5" t="s">
-        <v>2463</v>
       </c>
       <c r="E1070" s="6" t="s">
         <v>23</v>
@@ -71855,7 +71864,7 @@
         <v>21</v>
       </c>
       <c r="Q1070" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="R1070" s="6" t="s">
         <v>23</v>
@@ -71866,16 +71875,16 @@
     </row>
     <row r="1071" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1071" s="5" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1071" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1071" s="5" t="s">
         <v>2464</v>
       </c>
-      <c r="B1071" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1071" s="5" t="s">
+      <c r="D1071" s="5" t="s">
         <v>2465</v>
-      </c>
-      <c r="D1071" s="5" t="s">
-        <v>2466</v>
       </c>
       <c r="E1071" s="6" t="s">
         <v>23</v>
@@ -71914,7 +71923,7 @@
         <v>21</v>
       </c>
       <c r="Q1071" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="R1071" s="6" t="s">
         <v>23</v>
@@ -71925,22 +71934,22 @@
     </row>
     <row r="1072" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1072" s="5" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1072" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1072" s="5" t="s">
         <v>2467</v>
       </c>
-      <c r="B1072" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1072" s="5" t="s">
+      <c r="D1072" s="5" t="s">
         <v>2468</v>
       </c>
-      <c r="D1072" s="5" t="s">
-        <v>2469</v>
-      </c>
       <c r="E1072" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>13896.76</v>
+        <v>11063.83</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -71973,7 +71982,7 @@
         <v>21</v>
       </c>
       <c r="Q1072" s="5" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="R1072" s="6" t="s">
         <v>23</v>
@@ -71984,16 +71993,16 @@
     </row>
     <row r="1073" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1073" s="5" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1073" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1073" s="5" t="s">
         <v>2470</v>
       </c>
-      <c r="B1073" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1073" s="5" t="s">
+      <c r="D1073" s="5" t="s">
         <v>2471</v>
-      </c>
-      <c r="D1073" s="5" t="s">
-        <v>2472</v>
       </c>
       <c r="E1073" s="6" t="s">
         <v>23</v>
@@ -72032,7 +72041,7 @@
         <v>21</v>
       </c>
       <c r="Q1073" s="5" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="R1073" s="6" t="s">
         <v>23</v>
@@ -72043,22 +72052,22 @@
     </row>
     <row r="1074" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1074" s="5" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1074" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1074" s="5" t="s">
         <v>2473</v>
       </c>
-      <c r="B1074" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1074" s="5" t="s">
+      <c r="D1074" s="5" t="s">
         <v>2474</v>
       </c>
-      <c r="D1074" s="5" t="s">
-        <v>2475</v>
-      </c>
       <c r="E1074" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>15244.95</v>
+        <v>14803.08</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72091,7 +72100,7 @@
         <v>21</v>
       </c>
       <c r="Q1074" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="R1074" s="6" t="s">
         <v>23</v>
@@ -72102,22 +72111,22 @@
     </row>
     <row r="1075" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1075" s="5" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1075" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1075" s="5" t="s">
         <v>2476</v>
       </c>
-      <c r="B1075" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1075" s="5" t="s">
+      <c r="D1075" s="5" t="s">
         <v>2477</v>
       </c>
-      <c r="D1075" s="5" t="s">
-        <v>2478</v>
-      </c>
       <c r="E1075" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>33345.279999999999</v>
+        <v>33728.92</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72150,7 +72159,7 @@
         <v>21</v>
       </c>
       <c r="Q1075" s="5" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="R1075" s="6" t="s">
         <v>23</v>
@@ -72161,22 +72170,22 @@
     </row>
     <row r="1076" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1076" s="5" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1076" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1076" s="5" t="s">
         <v>2479</v>
       </c>
-      <c r="B1076" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1076" s="5" t="s">
+      <c r="D1076" s="5" t="s">
         <v>2480</v>
       </c>
-      <c r="D1076" s="5" t="s">
-        <v>2481</v>
-      </c>
       <c r="E1076" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>26946.22</v>
+        <v>26276.79</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72209,7 +72218,7 @@
         <v>21</v>
       </c>
       <c r="Q1076" s="5" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="R1076" s="6" t="s">
         <v>23</v>
@@ -72220,22 +72229,22 @@
     </row>
     <row r="1077" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1077" s="5" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1077" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1077" s="5" t="s">
         <v>2482</v>
       </c>
-      <c r="B1077" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1077" s="5" t="s">
+      <c r="D1077" s="5" t="s">
         <v>2483</v>
       </c>
-      <c r="D1077" s="5" t="s">
-        <v>2484</v>
-      </c>
       <c r="E1077" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>8370.8700000000008</v>
+        <v>8107.76</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72268,7 +72277,7 @@
         <v>21</v>
       </c>
       <c r="Q1077" s="5" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="R1077" s="6" t="s">
         <v>23</v>
@@ -72279,22 +72288,22 @@
     </row>
     <row r="1078" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1078" s="5" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1078" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1078" s="5" t="s">
         <v>2485</v>
       </c>
-      <c r="B1078" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1078" s="5" t="s">
+      <c r="D1078" s="5" t="s">
         <v>2486</v>
       </c>
-      <c r="D1078" s="5" t="s">
-        <v>2487</v>
-      </c>
       <c r="E1078" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>8303.7099999999991</v>
+        <v>26784</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72327,7 +72336,7 @@
         <v>21</v>
       </c>
       <c r="Q1078" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="R1078" s="6" t="s">
         <v>23</v>
@@ -72338,16 +72347,16 @@
     </row>
     <row r="1079" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1079" s="5" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B1079" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1079" s="5" t="s">
         <v>2488</v>
       </c>
-      <c r="B1079" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1079" s="5" t="s">
+      <c r="D1079" s="5" t="s">
         <v>2489</v>
-      </c>
-      <c r="D1079" s="5" t="s">
-        <v>2490</v>
       </c>
       <c r="E1079" s="6" t="s">
         <v>23</v>
@@ -72386,7 +72395,7 @@
         <v>21</v>
       </c>
       <c r="Q1079" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="R1079" s="6" t="s">
         <v>23</v>
@@ -72397,16 +72406,16 @@
     </row>
     <row r="1080" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1080" s="5" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B1080" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1080" s="5" t="s">
         <v>2491</v>
       </c>
-      <c r="B1080" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1080" s="5" t="s">
+      <c r="D1080" s="5" t="s">
         <v>2492</v>
-      </c>
-      <c r="D1080" s="5" t="s">
-        <v>2493</v>
       </c>
       <c r="E1080" s="6" t="s">
         <v>23</v>
@@ -72445,7 +72454,7 @@
         <v>21</v>
       </c>
       <c r="Q1080" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="R1080" s="6" t="s">
         <v>23</v>
@@ -72456,16 +72465,16 @@
     </row>
     <row r="1081" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1081" s="5" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B1081" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" s="5" t="s">
         <v>2494</v>
       </c>
-      <c r="B1081" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1081" s="5" t="s">
+      <c r="D1081" s="5" t="s">
         <v>2495</v>
-      </c>
-      <c r="D1081" s="5" t="s">
-        <v>2496</v>
       </c>
       <c r="E1081" s="6" t="s">
         <v>23</v>
@@ -72504,7 +72513,7 @@
         <v>21</v>
       </c>
       <c r="Q1081" s="5" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="R1081" s="6" t="s">
         <v>23</v>
@@ -72515,16 +72524,16 @@
     </row>
     <row r="1082" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1082" s="5" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1082" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1082" s="5" t="s">
         <v>2497</v>
       </c>
-      <c r="B1082" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1082" s="5" t="s">
+      <c r="D1082" s="5" t="s">
         <v>2498</v>
-      </c>
-      <c r="D1082" s="5" t="s">
-        <v>2499</v>
       </c>
       <c r="E1082" s="6" t="s">
         <v>23</v>
@@ -72563,7 +72572,7 @@
         <v>21</v>
       </c>
       <c r="Q1082" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="R1082" s="6" t="s">
         <v>23</v>
@@ -72574,16 +72583,16 @@
     </row>
     <row r="1083" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1083" s="5" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B1083" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1083" s="5" t="s">
         <v>2500</v>
       </c>
-      <c r="B1083" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1083" s="5" t="s">
+      <c r="D1083" s="5" t="s">
         <v>2501</v>
-      </c>
-      <c r="D1083" s="5" t="s">
-        <v>2502</v>
       </c>
       <c r="E1083" s="6" t="s">
         <v>23</v>
@@ -72622,7 +72631,7 @@
         <v>21</v>
       </c>
       <c r="Q1083" s="5" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="R1083" s="6" t="s">
         <v>23</v>
@@ -72633,16 +72642,16 @@
     </row>
     <row r="1084" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1084" s="5" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1084" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1084" s="5" t="s">
         <v>2503</v>
       </c>
-      <c r="B1084" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1084" s="5" t="s">
+      <c r="D1084" s="5" t="s">
         <v>2504</v>
-      </c>
-      <c r="D1084" s="5" t="s">
-        <v>2505</v>
       </c>
       <c r="E1084" s="6" t="s">
         <v>23</v>
@@ -72681,7 +72690,7 @@
         <v>21</v>
       </c>
       <c r="Q1084" s="5" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="R1084" s="6" t="s">
         <v>23</v>
@@ -72692,16 +72701,16 @@
     </row>
     <row r="1085" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1085" s="5" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B1085" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1085" s="5" t="s">
         <v>2506</v>
       </c>
-      <c r="B1085" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1085" s="5" t="s">
+      <c r="D1085" s="5" t="s">
         <v>2507</v>
-      </c>
-      <c r="D1085" s="5" t="s">
-        <v>2508</v>
       </c>
       <c r="E1085" s="6" t="s">
         <v>23</v>
@@ -72740,7 +72749,7 @@
         <v>21</v>
       </c>
       <c r="Q1085" s="5" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="R1085" s="6" t="s">
         <v>23</v>
@@ -72751,16 +72760,16 @@
     </row>
     <row r="1086" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1086" s="5" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1086" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1086" s="5" t="s">
         <v>2509</v>
       </c>
-      <c r="B1086" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1086" s="5" t="s">
+      <c r="D1086" s="5" t="s">
         <v>2510</v>
-      </c>
-      <c r="D1086" s="5" t="s">
-        <v>2511</v>
       </c>
       <c r="E1086" s="6" t="s">
         <v>23</v>
@@ -72799,7 +72808,7 @@
         <v>21</v>
       </c>
       <c r="Q1086" s="5" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="R1086" s="6" t="s">
         <v>23</v>
@@ -72810,16 +72819,16 @@
     </row>
     <row r="1087" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1087" s="5" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B1087" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1087" s="5" t="s">
         <v>2512</v>
       </c>
-      <c r="B1087" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1087" s="5" t="s">
+      <c r="D1087" s="5" t="s">
         <v>2513</v>
-      </c>
-      <c r="D1087" s="5" t="s">
-        <v>2514</v>
       </c>
       <c r="E1087" s="6" t="s">
         <v>23</v>
@@ -72858,7 +72867,7 @@
         <v>21</v>
       </c>
       <c r="Q1087" s="5" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="R1087" s="6" t="s">
         <v>23</v>
@@ -72869,22 +72878,22 @@
     </row>
     <row r="1088" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1088" s="5" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1088" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1088" s="5" t="s">
         <v>2515</v>
       </c>
-      <c r="B1088" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1088" s="5" t="s">
+      <c r="D1088" s="5" t="s">
         <v>2516</v>
       </c>
-      <c r="D1088" s="5" t="s">
-        <v>2517</v>
-      </c>
       <c r="E1088" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>402.06</v>
+        <v>2364.66</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72917,7 +72926,7 @@
         <v>21</v>
       </c>
       <c r="Q1088" s="5" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="R1088" s="6" t="s">
         <v>23</v>
@@ -72928,22 +72937,22 @@
     </row>
     <row r="1089" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1089" s="5" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B1089" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1089" s="5" t="s">
         <v>2518</v>
       </c>
-      <c r="B1089" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1089" s="5" t="s">
+      <c r="D1089" s="5" t="s">
         <v>2519</v>
       </c>
-      <c r="D1089" s="5" t="s">
-        <v>2520</v>
-      </c>
       <c r="E1089" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>803.85</v>
+        <v>6227.3</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -72976,7 +72985,7 @@
         <v>21</v>
       </c>
       <c r="Q1089" s="5" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="R1089" s="6" t="s">
         <v>23</v>
@@ -72987,16 +72996,16 @@
     </row>
     <row r="1090" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1090" s="5" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1090" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1090" s="5" t="s">
         <v>2521</v>
       </c>
-      <c r="B1090" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1090" s="5" t="s">
+      <c r="D1090" s="5" t="s">
         <v>2522</v>
-      </c>
-      <c r="D1090" s="5" t="s">
-        <v>2523</v>
       </c>
       <c r="E1090" s="6" t="s">
         <v>23</v>
@@ -73035,7 +73044,7 @@
         <v>21</v>
       </c>
       <c r="Q1090" s="5" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="R1090" s="6" t="s">
         <v>23</v>
@@ -73046,22 +73055,22 @@
     </row>
     <row r="1091" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1091" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1091" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091" s="5" t="s">
         <v>2524</v>
       </c>
-      <c r="B1091" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1091" s="5" t="s">
+      <c r="D1091" s="5" t="s">
         <v>2525</v>
       </c>
-      <c r="D1091" s="5" t="s">
-        <v>2526</v>
-      </c>
       <c r="E1091" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>710.77</v>
+        <v>3595.94</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73094,7 +73103,7 @@
         <v>21</v>
       </c>
       <c r="Q1091" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="R1091" s="6" t="s">
         <v>23</v>
@@ -73105,16 +73114,16 @@
     </row>
     <row r="1092" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1092" s="5" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1092" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1092" s="5" t="s">
         <v>2527</v>
       </c>
-      <c r="B1092" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1092" s="5" t="s">
-        <v>2528</v>
-      </c>
       <c r="D1092" s="5" t="s">
-        <v>2529</v>
+        <v>2765</v>
       </c>
       <c r="E1092" s="6" t="s">
         <v>23</v>
@@ -73153,7 +73162,7 @@
         <v>21</v>
       </c>
       <c r="Q1092" s="5" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="R1092" s="6" t="s">
         <v>23</v>
@@ -73164,16 +73173,16 @@
     </row>
     <row r="1093" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1093" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1093" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1093" s="5" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1093" s="5" t="s">
         <v>2530</v>
-      </c>
-      <c r="B1093" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1093" s="5" t="s">
-        <v>2531</v>
-      </c>
-      <c r="D1093" s="5" t="s">
-        <v>2532</v>
       </c>
       <c r="E1093" s="6" t="s">
         <v>23</v>
@@ -73212,7 +73221,7 @@
         <v>21</v>
       </c>
       <c r="Q1093" s="5" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="R1093" s="6" t="s">
         <v>23</v>
@@ -73223,16 +73232,16 @@
     </row>
     <row r="1094" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1094" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B1094" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1094" s="5" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1094" s="5" t="s">
         <v>2533</v>
-      </c>
-      <c r="B1094" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1094" s="5" t="s">
-        <v>2534</v>
-      </c>
-      <c r="D1094" s="5" t="s">
-        <v>2535</v>
       </c>
       <c r="E1094" s="6" t="s">
         <v>23</v>
@@ -73271,7 +73280,7 @@
         <v>21</v>
       </c>
       <c r="Q1094" s="5" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="R1094" s="6" t="s">
         <v>23</v>
@@ -73282,22 +73291,22 @@
     </row>
     <row r="1095" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1095" s="5" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B1095" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1095" s="5" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1095" s="5" t="s">
         <v>2536</v>
       </c>
-      <c r="B1095" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1095" s="5" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D1095" s="5" t="s">
-        <v>2538</v>
-      </c>
       <c r="E1095" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>1006.32</v>
+        <v>3148.71</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73330,7 +73339,7 @@
         <v>21</v>
       </c>
       <c r="Q1095" s="5" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="R1095" s="6" t="s">
         <v>23</v>
@@ -73341,22 +73350,22 @@
     </row>
     <row r="1096" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1096" s="5" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1096" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1096" s="5" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1096" s="5" t="s">
         <v>2539</v>
       </c>
-      <c r="B1096" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1096" s="5" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D1096" s="5" t="s">
-        <v>2541</v>
-      </c>
       <c r="E1096" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>192.99</v>
+        <v>689.66</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73389,7 +73398,7 @@
         <v>21</v>
       </c>
       <c r="Q1096" s="5" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="R1096" s="6" t="s">
         <v>23</v>
@@ -73400,16 +73409,16 @@
     </row>
     <row r="1097" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1097" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B1097" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1097" s="5" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D1097" s="5" t="s">
         <v>2542</v>
-      </c>
-      <c r="B1097" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1097" s="5" t="s">
-        <v>2543</v>
-      </c>
-      <c r="D1097" s="5" t="s">
-        <v>2544</v>
       </c>
       <c r="E1097" s="6" t="s">
         <v>23</v>
@@ -73448,7 +73457,7 @@
         <v>21</v>
       </c>
       <c r="Q1097" s="5" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="R1097" s="6" t="s">
         <v>23</v>
@@ -73459,22 +73468,22 @@
     </row>
     <row r="1098" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1098" s="5" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1098" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1098" s="5" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D1098" s="5" t="s">
         <v>2545</v>
       </c>
-      <c r="B1098" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1098" s="5" t="s">
-        <v>2546</v>
-      </c>
-      <c r="D1098" s="5" t="s">
-        <v>2547</v>
-      </c>
       <c r="E1098" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>338.45</v>
+        <v>323.47000000000003</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73507,7 +73516,7 @@
         <v>21</v>
       </c>
       <c r="Q1098" s="5" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="R1098" s="6" t="s">
         <v>23</v>
@@ -73518,22 +73527,22 @@
     </row>
     <row r="1099" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1099" s="5" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B1099" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1099" s="5" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D1099" s="5" t="s">
         <v>2548</v>
       </c>
-      <c r="B1099" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1099" s="5" t="s">
-        <v>2549</v>
-      </c>
-      <c r="D1099" s="5" t="s">
-        <v>2550</v>
-      </c>
       <c r="E1099" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>230.03</v>
+        <v>142.75</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73566,7 +73575,7 @@
         <v>21</v>
       </c>
       <c r="Q1099" s="5" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="R1099" s="6" t="s">
         <v>23</v>
@@ -73577,16 +73586,16 @@
     </row>
     <row r="1100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1100" s="5" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1100" s="5" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1100" s="5" t="s">
         <v>2551</v>
-      </c>
-      <c r="B1100" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1100" s="5" t="s">
-        <v>2552</v>
-      </c>
-      <c r="D1100" s="5" t="s">
-        <v>2553</v>
       </c>
       <c r="E1100" s="6" t="s">
         <v>23</v>
@@ -73625,7 +73634,7 @@
         <v>21</v>
       </c>
       <c r="Q1100" s="5" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="R1100" s="6" t="s">
         <v>23</v>
@@ -73636,16 +73645,16 @@
     </row>
     <row r="1101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1101" s="5" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1101" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D1101" s="5" t="s">
         <v>2554</v>
-      </c>
-      <c r="B1101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1101" s="5" t="s">
-        <v>2555</v>
-      </c>
-      <c r="D1101" s="5" t="s">
-        <v>2556</v>
       </c>
       <c r="E1101" s="6" t="s">
         <v>23</v>
@@ -73684,7 +73693,7 @@
         <v>21</v>
       </c>
       <c r="Q1101" s="5" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="R1101" s="6" t="s">
         <v>23</v>
@@ -73695,16 +73704,16 @@
     </row>
     <row r="1102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1102" s="5" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B1102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1102" s="5" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D1102" s="5" t="s">
         <v>2557</v>
-      </c>
-      <c r="B1102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1102" s="5" t="s">
-        <v>2558</v>
-      </c>
-      <c r="D1102" s="5" t="s">
-        <v>2559</v>
       </c>
       <c r="E1102" s="6" t="s">
         <v>23</v>
@@ -73743,7 +73752,7 @@
         <v>21</v>
       </c>
       <c r="Q1102" s="5" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="R1102" s="6" t="s">
         <v>23</v>
@@ -73754,16 +73763,16 @@
     </row>
     <row r="1103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B1103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1103" s="5" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1103" s="5" t="s">
         <v>2560</v>
-      </c>
-      <c r="B1103" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1103" s="5" t="s">
-        <v>2561</v>
-      </c>
-      <c r="D1103" s="5" t="s">
-        <v>2562</v>
       </c>
       <c r="E1103" s="6" t="s">
         <v>23</v>
@@ -73802,7 +73811,7 @@
         <v>21</v>
       </c>
       <c r="Q1103" s="5" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="R1103" s="6" t="s">
         <v>23</v>
@@ -73813,16 +73822,16 @@
     </row>
     <row r="1104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1104" s="5" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1104" s="5" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D1104" s="5" t="s">
         <v>2563</v>
-      </c>
-      <c r="B1104" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1104" s="5" t="s">
-        <v>2564</v>
-      </c>
-      <c r="D1104" s="5" t="s">
-        <v>2565</v>
       </c>
       <c r="E1104" s="6" t="s">
         <v>23</v>
@@ -73861,7 +73870,7 @@
         <v>21</v>
       </c>
       <c r="Q1104" s="5" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="R1104" s="6" t="s">
         <v>23</v>
@@ -73872,22 +73881,22 @@
     </row>
     <row r="1105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1105" s="5" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="E1105" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>693.9</v>
+        <v>680.5</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -73920,7 +73929,7 @@
         <v>21</v>
       </c>
       <c r="Q1105" s="5" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="R1105" s="6" t="s">
         <v>23</v>
@@ -73931,16 +73940,16 @@
     </row>
     <row r="1106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1106" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1106" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D1106" s="5" t="s">
         <v>2596</v>
-      </c>
-      <c r="B1106" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1106" s="5" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D1106" s="5" t="s">
-        <v>2598</v>
       </c>
       <c r="E1106" s="6" t="s">
         <v>23</v>
@@ -73979,7 +73988,7 @@
         <v>21</v>
       </c>
       <c r="Q1106" s="5" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="R1106" s="6" t="s">
         <v>23</v>
@@ -73990,16 +73999,16 @@
     </row>
     <row r="1107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1107" s="5" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B1107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1107" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1107" s="5" t="s">
         <v>2600</v>
-      </c>
-      <c r="B1107" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1107" s="5" t="s">
-        <v>2601</v>
-      </c>
-      <c r="D1107" s="5" t="s">
-        <v>2602</v>
       </c>
       <c r="E1107" s="6" t="s">
         <v>23</v>
@@ -74038,7 +74047,7 @@
         <v>21</v>
       </c>
       <c r="Q1107" s="5" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="R1107" s="6" t="s">
         <v>23</v>
@@ -74049,16 +74058,16 @@
     </row>
     <row r="1108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1108" s="5" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B1108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1108" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1108" s="5" t="s">
         <v>2603</v>
-      </c>
-      <c r="B1108" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1108" s="5" t="s">
-        <v>2604</v>
-      </c>
-      <c r="D1108" s="5" t="s">
-        <v>2605</v>
       </c>
       <c r="E1108" s="6" t="s">
         <v>23</v>
@@ -74097,7 +74106,7 @@
         <v>21</v>
       </c>
       <c r="Q1108" s="5" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="R1108" s="6" t="s">
         <v>23</v>
@@ -74108,16 +74117,16 @@
     </row>
     <row r="1109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B1109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1109" s="5" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1109" s="5" t="s">
         <v>2615</v>
-      </c>
-      <c r="B1109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1109" s="5" t="s">
-        <v>2616</v>
-      </c>
-      <c r="D1109" s="5" t="s">
-        <v>2617</v>
       </c>
       <c r="E1109" s="6" t="s">
         <v>23</v>
@@ -74156,7 +74165,7 @@
         <v>21</v>
       </c>
       <c r="Q1109" s="5" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="R1109" s="6" t="s">
         <v>23</v>
@@ -74167,16 +74176,16 @@
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1110" s="5" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D1110" s="5" t="s">
         <v>2618</v>
-      </c>
-      <c r="B1110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1110" s="5" t="s">
-        <v>2619</v>
-      </c>
-      <c r="D1110" s="5" t="s">
-        <v>2620</v>
       </c>
       <c r="E1110" s="6" t="s">
         <v>23</v>
@@ -74215,7 +74224,7 @@
         <v>21</v>
       </c>
       <c r="Q1110" s="5" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="R1110" s="6" t="s">
         <v>23</v>
@@ -74226,17 +74235,17 @@
     </row>
     <row r="1111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B1111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1111" s="5" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D1111" s="5" t="s">
         <v>2621</v>
       </c>
-      <c r="B1111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1111" s="5" t="s">
-        <v>2622</v>
-      </c>
-      <c r="D1111" s="5" t="s">
-        <v>2623</v>
-      </c>
       <c r="E1111" s="6" t="s">
         <v>23</v>
       </c>
@@ -74274,7 +74283,7 @@
         <v>21</v>
       </c>
       <c r="Q1111" s="5" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="R1111" s="6" t="s">
         <v>23</v>
@@ -74285,16 +74294,16 @@
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1112" s="5" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D1112" s="5" t="s">
         <v>2624</v>
-      </c>
-      <c r="B1112" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1112" s="5" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D1112" s="5" t="s">
-        <v>2626</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>23</v>
@@ -74333,7 +74342,7 @@
         <v>21</v>
       </c>
       <c r="Q1112" s="5" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="R1112" s="6" t="s">
         <v>23</v>
@@ -74344,16 +74353,16 @@
     </row>
     <row r="1113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1113" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1113" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1113" s="5" t="s">
         <v>2627</v>
-      </c>
-      <c r="B1113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1113" s="5" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D1113" s="5" t="s">
-        <v>2629</v>
       </c>
       <c r="E1113" s="6" t="s">
         <v>23</v>
@@ -74392,7 +74401,7 @@
         <v>21</v>
       </c>
       <c r="Q1113" s="5" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="R1113" s="6" t="s">
         <v>23</v>
@@ -74403,16 +74412,16 @@
     </row>
     <row r="1114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1114" s="5" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1114" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D1114" s="5" t="s">
         <v>2630</v>
-      </c>
-      <c r="B1114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1114" s="5" t="s">
-        <v>2631</v>
-      </c>
-      <c r="D1114" s="5" t="s">
-        <v>2632</v>
       </c>
       <c r="E1114" s="6" t="s">
         <v>23</v>
@@ -74451,7 +74460,7 @@
         <v>21</v>
       </c>
       <c r="Q1114" s="5" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="R1114" s="6" t="s">
         <v>23</v>
@@ -74462,16 +74471,16 @@
     </row>
     <row r="1115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1115" s="5" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1115" s="5" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D1115" s="5" t="s">
         <v>2633</v>
-      </c>
-      <c r="B1115" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1115" s="5" t="s">
-        <v>2634</v>
-      </c>
-      <c r="D1115" s="5" t="s">
-        <v>2635</v>
       </c>
       <c r="E1115" s="6" t="s">
         <v>23</v>
@@ -74510,7 +74519,7 @@
         <v>21</v>
       </c>
       <c r="Q1115" s="5" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="R1115" s="6" t="s">
         <v>23</v>
@@ -74521,16 +74530,16 @@
     </row>
     <row r="1116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1116" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1116" s="5" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D1116" s="5" t="s">
         <v>2636</v>
-      </c>
-      <c r="B1116" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1116" s="5" t="s">
-        <v>2637</v>
-      </c>
-      <c r="D1116" s="5" t="s">
-        <v>2638</v>
       </c>
       <c r="E1116" s="6" t="s">
         <v>23</v>
@@ -74569,7 +74578,7 @@
         <v>21</v>
       </c>
       <c r="Q1116" s="5" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="R1116" s="6" t="s">
         <v>23</v>
@@ -74580,16 +74589,16 @@
     </row>
     <row r="1117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1117" s="5" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1117" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1117" s="5" t="s">
         <v>2639</v>
-      </c>
-      <c r="B1117" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1117" s="5" t="s">
-        <v>2640</v>
-      </c>
-      <c r="D1117" s="5" t="s">
-        <v>2641</v>
       </c>
       <c r="E1117" s="6" t="s">
         <v>23</v>
@@ -74628,7 +74637,7 @@
         <v>21</v>
       </c>
       <c r="Q1117" s="5" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="R1117" s="6" t="s">
         <v>23</v>
@@ -74639,16 +74648,16 @@
     </row>
     <row r="1118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1118" s="5" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1118" s="5" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D1118" s="5" t="s">
         <v>2642</v>
-      </c>
-      <c r="B1118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1118" s="5" t="s">
-        <v>2643</v>
-      </c>
-      <c r="D1118" s="5" t="s">
-        <v>2644</v>
       </c>
       <c r="E1118" s="6" t="s">
         <v>23</v>
@@ -74687,7 +74696,7 @@
         <v>21</v>
       </c>
       <c r="Q1118" s="5" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="R1118" s="6" t="s">
         <v>23</v>
@@ -74698,16 +74707,16 @@
     </row>
     <row r="1119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1119" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1119" s="5" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D1119" s="5" t="s">
         <v>2645</v>
-      </c>
-      <c r="B1119" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1119" s="5" t="s">
-        <v>2646</v>
-      </c>
-      <c r="D1119" s="5" t="s">
-        <v>2647</v>
       </c>
       <c r="E1119" s="6" t="s">
         <v>23</v>
@@ -74746,7 +74755,7 @@
         <v>21</v>
       </c>
       <c r="Q1119" s="5" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="R1119" s="6" t="s">
         <v>23</v>
@@ -74757,16 +74766,16 @@
     </row>
     <row r="1120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1120" s="5" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1120" s="5" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D1120" s="5" t="s">
         <v>2648</v>
-      </c>
-      <c r="B1120" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1120" s="5" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D1120" s="5" t="s">
-        <v>2650</v>
       </c>
       <c r="E1120" s="6" t="s">
         <v>23</v>
@@ -74805,7 +74814,7 @@
         <v>21</v>
       </c>
       <c r="Q1120" s="5" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="R1120" s="6" t="s">
         <v>23</v>
@@ -74816,16 +74825,16 @@
     </row>
     <row r="1121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1121" s="5" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1121" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D1121" s="5" t="s">
         <v>2651</v>
-      </c>
-      <c r="B1121" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1121" s="5" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D1121" s="5" t="s">
-        <v>2653</v>
       </c>
       <c r="E1121" s="6" t="s">
         <v>23</v>
@@ -74864,7 +74873,7 @@
         <v>21</v>
       </c>
       <c r="Q1121" s="5" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="R1121" s="6" t="s">
         <v>23</v>
@@ -74875,22 +74884,22 @@
     </row>
     <row r="1122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1122" s="5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1122" s="5" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1122" s="5" t="s">
         <v>2657</v>
       </c>
-      <c r="B1122" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1122" s="5" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D1122" s="5" t="s">
-        <v>2659</v>
-      </c>
       <c r="E1122" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1122" s="6">
-        <v>0</v>
+        <v>3006.5</v>
       </c>
       <c r="G1122" s="6" t="s">
         <v>23</v>
@@ -74908,10 +74917,10 @@
         <v>21</v>
       </c>
       <c r="L1122" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1122" s="6">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N1122" s="6">
         <v>0</v>
@@ -74923,7 +74932,7 @@
         <v>21</v>
       </c>
       <c r="Q1122" s="5" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="R1122" s="6" t="s">
         <v>23</v>
@@ -74934,16 +74943,16 @@
     </row>
     <row r="1123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1123" s="5" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1123" s="5" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D1123" s="5" t="s">
         <v>2660</v>
-      </c>
-      <c r="B1123" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1123" s="5" t="s">
-        <v>2661</v>
-      </c>
-      <c r="D1123" s="5" t="s">
-        <v>2662</v>
       </c>
       <c r="E1123" s="6" t="s">
         <v>23</v>
@@ -74982,7 +74991,7 @@
         <v>21</v>
       </c>
       <c r="Q1123" s="5" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="R1123" s="6" t="s">
         <v>23</v>
@@ -74993,16 +75002,16 @@
     </row>
     <row r="1124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1124" s="5" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1124" s="5" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1124" s="5" t="s">
         <v>2663</v>
-      </c>
-      <c r="B1124" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1124" s="5" t="s">
-        <v>2664</v>
-      </c>
-      <c r="D1124" s="5" t="s">
-        <v>2665</v>
       </c>
       <c r="E1124" s="6" t="s">
         <v>23</v>
@@ -75041,7 +75050,7 @@
         <v>21</v>
       </c>
       <c r="Q1124" s="5" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="R1124" s="6" t="s">
         <v>23</v>
@@ -75052,16 +75061,16 @@
     </row>
     <row r="1125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1125" s="5" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1125" s="5" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D1125" s="5" t="s">
         <v>2666</v>
-      </c>
-      <c r="B1125" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1125" s="5" t="s">
-        <v>2667</v>
-      </c>
-      <c r="D1125" s="5" t="s">
-        <v>2668</v>
       </c>
       <c r="E1125" s="6" t="s">
         <v>23</v>
@@ -75100,7 +75109,7 @@
         <v>21</v>
       </c>
       <c r="Q1125" s="5" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="R1125" s="6" t="s">
         <v>23</v>
@@ -75111,16 +75120,16 @@
     </row>
     <row r="1126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1126" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D1126" s="5" t="s">
         <v>2669</v>
-      </c>
-      <c r="B1126" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1126" s="5" t="s">
-        <v>2670</v>
-      </c>
-      <c r="D1126" s="5" t="s">
-        <v>2671</v>
       </c>
       <c r="E1126" s="6" t="s">
         <v>23</v>
@@ -75159,7 +75168,7 @@
         <v>21</v>
       </c>
       <c r="Q1126" s="5" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="R1126" s="6" t="s">
         <v>23</v>
@@ -75170,16 +75179,16 @@
     </row>
     <row r="1127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1127" s="5" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1127" s="5" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D1127" s="5" t="s">
         <v>2672</v>
-      </c>
-      <c r="B1127" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1127" s="5" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D1127" s="5" t="s">
-        <v>2674</v>
       </c>
       <c r="E1127" s="6" t="s">
         <v>23</v>
@@ -75218,7 +75227,7 @@
         <v>21</v>
       </c>
       <c r="Q1127" s="5" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="R1127" s="6" t="s">
         <v>23</v>
@@ -75229,16 +75238,16 @@
     </row>
     <row r="1128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1128" s="5" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1128" s="5" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1128" s="5" t="s">
         <v>2675</v>
-      </c>
-      <c r="B1128" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1128" s="5" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D1128" s="5" t="s">
-        <v>2677</v>
       </c>
       <c r="E1128" s="6" t="s">
         <v>23</v>
@@ -75277,7 +75286,7 @@
         <v>21</v>
       </c>
       <c r="Q1128" s="5" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="R1128" s="6" t="s">
         <v>23</v>
@@ -75288,16 +75297,16 @@
     </row>
     <row r="1129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1129" s="5" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1129" s="5" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D1129" s="5" t="s">
         <v>2678</v>
-      </c>
-      <c r="B1129" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1129" s="5" t="s">
-        <v>2679</v>
-      </c>
-      <c r="D1129" s="5" t="s">
-        <v>2680</v>
       </c>
       <c r="E1129" s="6" t="s">
         <v>23</v>
@@ -75336,7 +75345,7 @@
         <v>21</v>
       </c>
       <c r="Q1129" s="5" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="R1129" s="6" t="s">
         <v>23</v>
@@ -75347,16 +75356,16 @@
     </row>
     <row r="1130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1130" s="5" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1130" s="5" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1130" s="5" t="s">
         <v>2681</v>
-      </c>
-      <c r="B1130" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1130" s="5" t="s">
-        <v>2682</v>
-      </c>
-      <c r="D1130" s="5" t="s">
-        <v>2683</v>
       </c>
       <c r="E1130" s="6" t="s">
         <v>23</v>
@@ -75395,7 +75404,7 @@
         <v>21</v>
       </c>
       <c r="Q1130" s="5" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="R1130" s="6" t="s">
         <v>23</v>
@@ -75406,16 +75415,16 @@
     </row>
     <row r="1131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1131" s="5" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1131" s="5" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D1131" s="5" t="s">
         <v>2684</v>
-      </c>
-      <c r="B1131" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1131" s="5" t="s">
-        <v>2685</v>
-      </c>
-      <c r="D1131" s="5" t="s">
-        <v>2686</v>
       </c>
       <c r="E1131" s="6" t="s">
         <v>23</v>
@@ -75454,7 +75463,7 @@
         <v>21</v>
       </c>
       <c r="Q1131" s="5" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="R1131" s="6" t="s">
         <v>23</v>
@@ -75465,16 +75474,16 @@
     </row>
     <row r="1132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1132" s="5" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="D1132" s="5" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="E1132" s="6" t="s">
         <v>23</v>
@@ -75513,7 +75522,7 @@
         <v>21</v>
       </c>
       <c r="Q1132" s="5" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="R1132" s="6" t="s">
         <v>23</v>
@@ -75524,16 +75533,16 @@
     </row>
     <row r="1133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1133" s="5" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="D1133" s="5" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="E1133" s="6" t="s">
         <v>23</v>
@@ -75572,7 +75581,7 @@
         <v>21</v>
       </c>
       <c r="Q1133" s="5" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="R1133" s="6" t="s">
         <v>23</v>
@@ -75583,16 +75592,16 @@
     </row>
     <row r="1134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1134" s="5" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B1134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1134" s="5" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D1134" s="5" t="s">
         <v>2692</v>
-      </c>
-      <c r="B1134" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1134" s="5" t="s">
-        <v>2693</v>
-      </c>
-      <c r="D1134" s="5" t="s">
-        <v>2694</v>
       </c>
       <c r="E1134" s="6" t="s">
         <v>23</v>
@@ -75631,7 +75640,7 @@
         <v>21</v>
       </c>
       <c r="Q1134" s="5" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="R1134" s="6" t="s">
         <v>23</v>
@@ -75642,16 +75651,16 @@
     </row>
     <row r="1135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1135" s="5" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B1135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1135" s="5" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D1135" s="5" t="s">
         <v>2695</v>
-      </c>
-      <c r="B1135" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1135" s="5" t="s">
-        <v>2696</v>
-      </c>
-      <c r="D1135" s="5" t="s">
-        <v>2697</v>
       </c>
       <c r="E1135" s="6" t="s">
         <v>23</v>
@@ -75690,7 +75699,7 @@
         <v>21</v>
       </c>
       <c r="Q1135" s="5" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="R1135" s="6" t="s">
         <v>23</v>
@@ -75701,22 +75710,22 @@
     </row>
     <row r="1136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1136" s="5" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B1136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1136" s="5" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D1136" s="5" t="s">
         <v>2698</v>
       </c>
-      <c r="B1136" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1136" s="5" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1136" s="5" t="s">
-        <v>2700</v>
-      </c>
       <c r="E1136" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1136" s="6">
-        <v>193.21</v>
+        <v>51.85</v>
       </c>
       <c r="G1136" s="6" t="s">
         <v>23</v>
@@ -75749,7 +75758,7 @@
         <v>21</v>
       </c>
       <c r="Q1136" s="5" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="R1136" s="6" t="s">
         <v>23</v>
@@ -75760,22 +75769,22 @@
     </row>
     <row r="1137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1137" s="5" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B1137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1137" s="5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D1137" s="5" t="s">
         <v>2701</v>
       </c>
-      <c r="B1137" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1137" s="5" t="s">
-        <v>2702</v>
-      </c>
-      <c r="D1137" s="5" t="s">
-        <v>2703</v>
-      </c>
       <c r="E1137" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1137" s="6">
-        <v>106.51</v>
+        <v>18.16</v>
       </c>
       <c r="G1137" s="6" t="s">
         <v>23</v>
@@ -75808,7 +75817,7 @@
         <v>21</v>
       </c>
       <c r="Q1137" s="5" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="R1137" s="6" t="s">
         <v>23</v>
@@ -75819,16 +75828,16 @@
     </row>
     <row r="1138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1138" s="5" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1138" s="5" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D1138" s="5" t="s">
         <v>2708</v>
-      </c>
-      <c r="B1138" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1138" s="5" t="s">
-        <v>2709</v>
-      </c>
-      <c r="D1138" s="5" t="s">
-        <v>2710</v>
       </c>
       <c r="E1138" s="6" t="s">
         <v>23</v>
@@ -75867,7 +75876,7 @@
         <v>21</v>
       </c>
       <c r="Q1138" s="5" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="R1138" s="6" t="s">
         <v>23</v>
@@ -75878,16 +75887,16 @@
     </row>
     <row r="1139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1139" s="5" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" s="5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D1139" s="5" t="s">
         <v>2711</v>
-      </c>
-      <c r="B1139" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1139" s="5" t="s">
-        <v>2712</v>
-      </c>
-      <c r="D1139" s="5" t="s">
-        <v>2713</v>
       </c>
       <c r="E1139" s="6" t="s">
         <v>23</v>
@@ -75926,7 +75935,7 @@
         <v>21</v>
       </c>
       <c r="Q1139" s="5" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="R1139" s="6" t="s">
         <v>23</v>
@@ -75937,16 +75946,16 @@
     </row>
     <row r="1140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1140" s="5" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1140" s="5" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1140" s="5" t="s">
         <v>2714</v>
-      </c>
-      <c r="B1140" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1140" s="5" t="s">
-        <v>2715</v>
-      </c>
-      <c r="D1140" s="5" t="s">
-        <v>2716</v>
       </c>
       <c r="E1140" s="6" t="s">
         <v>23</v>
@@ -75985,7 +75994,7 @@
         <v>21</v>
       </c>
       <c r="Q1140" s="5" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="R1140" s="6" t="s">
         <v>23</v>
@@ -75996,16 +76005,16 @@
     </row>
     <row r="1141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1141" s="5" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1141" s="5" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1141" s="5" t="s">
         <v>2717</v>
-      </c>
-      <c r="B1141" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1141" s="5" t="s">
-        <v>2718</v>
-      </c>
-      <c r="D1141" s="5" t="s">
-        <v>2719</v>
       </c>
       <c r="E1141" s="6" t="s">
         <v>23</v>
@@ -76044,7 +76053,7 @@
         <v>21</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="R1141" s="6" t="s">
         <v>23</v>
@@ -76055,16 +76064,16 @@
     </row>
     <row r="1142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B1142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="5" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D1142" s="5" t="s">
         <v>2720</v>
-      </c>
-      <c r="B1142" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1142" s="5" t="s">
-        <v>2721</v>
-      </c>
-      <c r="D1142" s="5" t="s">
-        <v>2722</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>23</v>
@@ -76103,7 +76112,7 @@
         <v>21</v>
       </c>
       <c r="Q1142" s="5" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="R1142" s="6" t="s">
         <v>23</v>
@@ -76114,16 +76123,16 @@
     </row>
     <row r="1143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1143" s="5" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1143" s="5" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D1143" s="5" t="s">
         <v>2723</v>
-      </c>
-      <c r="B1143" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1143" s="5" t="s">
-        <v>2724</v>
-      </c>
-      <c r="D1143" s="5" t="s">
-        <v>2725</v>
       </c>
       <c r="E1143" s="6" t="s">
         <v>23</v>
@@ -76162,7 +76171,7 @@
         <v>21</v>
       </c>
       <c r="Q1143" s="5" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="R1143" s="6" t="s">
         <v>23</v>
@@ -76173,16 +76182,16 @@
     </row>
     <row r="1144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1144" s="5" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B1144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1144" s="5" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D1144" s="5" t="s">
         <v>2726</v>
-      </c>
-      <c r="B1144" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1144" s="5" t="s">
-        <v>2727</v>
-      </c>
-      <c r="D1144" s="5" t="s">
-        <v>2728</v>
       </c>
       <c r="E1144" s="6" t="s">
         <v>23</v>
@@ -76221,7 +76230,7 @@
         <v>21</v>
       </c>
       <c r="Q1144" s="5" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="R1144" s="6" t="s">
         <v>23</v>
@@ -76232,16 +76241,16 @@
     </row>
     <row r="1145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1145" s="5" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D1145" s="5" t="s">
         <v>2729</v>
-      </c>
-      <c r="B1145" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1145" s="5" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D1145" s="5" t="s">
-        <v>2731</v>
       </c>
       <c r="E1145" s="6" t="s">
         <v>23</v>
@@ -76280,7 +76289,7 @@
         <v>21</v>
       </c>
       <c r="Q1145" s="5" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="R1145" s="6" t="s">
         <v>23</v>
@@ -76291,16 +76300,16 @@
     </row>
     <row r="1146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1146" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1146" s="5" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1146" s="5" t="s">
         <v>2732</v>
-      </c>
-      <c r="B1146" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1146" s="5" t="s">
-        <v>2733</v>
-      </c>
-      <c r="D1146" s="5" t="s">
-        <v>2734</v>
       </c>
       <c r="E1146" s="6" t="s">
         <v>23</v>
@@ -76339,7 +76348,7 @@
         <v>21</v>
       </c>
       <c r="Q1146" s="5" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="R1146" s="6" t="s">
         <v>23</v>
@@ -76350,16 +76359,16 @@
     </row>
     <row r="1147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1147" s="5" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1147" s="5" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1147" s="5" t="s">
         <v>2735</v>
-      </c>
-      <c r="B1147" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1147" s="5" t="s">
-        <v>2736</v>
-      </c>
-      <c r="D1147" s="5" t="s">
-        <v>2737</v>
       </c>
       <c r="E1147" s="6" t="s">
         <v>23</v>
@@ -76398,7 +76407,7 @@
         <v>21</v>
       </c>
       <c r="Q1147" s="5" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="R1147" s="6" t="s">
         <v>23</v>
@@ -76409,16 +76418,16 @@
     </row>
     <row r="1148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1148" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B1148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148" s="5" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1148" s="5" t="s">
         <v>2738</v>
-      </c>
-      <c r="B1148" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1148" s="5" t="s">
-        <v>2739</v>
-      </c>
-      <c r="D1148" s="5" t="s">
-        <v>2740</v>
       </c>
       <c r="E1148" s="6" t="s">
         <v>23</v>
@@ -76457,7 +76466,7 @@
         <v>21</v>
       </c>
       <c r="Q1148" s="5" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="R1148" s="6" t="s">
         <v>23</v>
@@ -76468,16 +76477,16 @@
     </row>
     <row r="1149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1149" s="5" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1149" s="5" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D1149" s="5" t="s">
         <v>2741</v>
-      </c>
-      <c r="B1149" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1149" s="5" t="s">
-        <v>2742</v>
-      </c>
-      <c r="D1149" s="5" t="s">
-        <v>2743</v>
       </c>
       <c r="E1149" s="6" t="s">
         <v>23</v>
@@ -76516,7 +76525,7 @@
         <v>21</v>
       </c>
       <c r="Q1149" s="5" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="R1149" s="6" t="s">
         <v>23</v>
@@ -76527,16 +76536,16 @@
     </row>
     <row r="1150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1150" s="5" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B1150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1150" s="5" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D1150" s="5" t="s">
         <v>2744</v>
-      </c>
-      <c r="B1150" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1150" s="5" t="s">
-        <v>2745</v>
-      </c>
-      <c r="D1150" s="5" t="s">
-        <v>2746</v>
       </c>
       <c r="E1150" s="6" t="s">
         <v>23</v>
@@ -76575,7 +76584,7 @@
         <v>21</v>
       </c>
       <c r="Q1150" s="5" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="R1150" s="6" t="s">
         <v>23</v>
@@ -76586,16 +76595,16 @@
     </row>
     <row r="1151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1151" s="5" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1151" s="5" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1151" s="5" t="s">
         <v>2747</v>
-      </c>
-      <c r="B1151" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1151" s="5" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D1151" s="5" t="s">
-        <v>2749</v>
       </c>
       <c r="E1151" s="6" t="s">
         <v>23</v>
@@ -76634,7 +76643,7 @@
         <v>21</v>
       </c>
       <c r="Q1151" s="5" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="R1151" s="6" t="s">
         <v>23</v>
@@ -76645,16 +76654,16 @@
     </row>
     <row r="1152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1152" s="5" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1152" s="5" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1152" s="5" t="s">
         <v>2750</v>
-      </c>
-      <c r="B1152" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1152" s="5" t="s">
-        <v>2751</v>
-      </c>
-      <c r="D1152" s="5" t="s">
-        <v>2752</v>
       </c>
       <c r="E1152" s="6" t="s">
         <v>23</v>
@@ -76693,7 +76702,7 @@
         <v>21</v>
       </c>
       <c r="Q1152" s="5" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="R1152" s="6" t="s">
         <v>23</v>
@@ -76704,16 +76713,16 @@
     </row>
     <row r="1153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1153" s="5" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B1153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1153" s="5" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D1153" s="5" t="s">
         <v>2753</v>
-      </c>
-      <c r="B1153" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1153" s="5" t="s">
-        <v>2754</v>
-      </c>
-      <c r="D1153" s="5" t="s">
-        <v>2755</v>
       </c>
       <c r="E1153" s="6" t="s">
         <v>23</v>
@@ -76752,7 +76761,7 @@
         <v>21</v>
       </c>
       <c r="Q1153" s="5" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="R1153" s="6" t="s">
         <v>23</v>
@@ -76763,16 +76772,16 @@
     </row>
     <row r="1154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1154" s="5" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B1154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1154" s="5" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D1154" s="5" t="s">
         <v>2756</v>
-      </c>
-      <c r="B1154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1154" s="5" t="s">
-        <v>2757</v>
-      </c>
-      <c r="D1154" s="5" t="s">
-        <v>2758</v>
       </c>
       <c r="E1154" s="6" t="s">
         <v>23</v>
@@ -76811,7 +76820,7 @@
         <v>21</v>
       </c>
       <c r="Q1154" s="5" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="R1154" s="6" t="s">
         <v>23</v>
@@ -76822,16 +76831,16 @@
     </row>
     <row r="1155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1155" s="5" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B1155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1155" s="5" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D1155" s="5" t="s">
         <v>2759</v>
-      </c>
-      <c r="B1155" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1155" s="5" t="s">
-        <v>2760</v>
-      </c>
-      <c r="D1155" s="5" t="s">
-        <v>2761</v>
       </c>
       <c r="E1155" s="6" t="s">
         <v>23</v>
@@ -76870,7 +76879,7 @@
         <v>21</v>
       </c>
       <c r="Q1155" s="5" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="R1155" s="6" t="s">
         <v>23</v>
@@ -76881,16 +76890,16 @@
     </row>
     <row r="1156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1156" s="5" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1156" s="5" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D1156" s="5" t="s">
         <v>2762</v>
-      </c>
-      <c r="B1156" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1156" s="5" t="s">
-        <v>2763</v>
-      </c>
-      <c r="D1156" s="5" t="s">
-        <v>2764</v>
       </c>
       <c r="E1156" s="6" t="s">
         <v>23</v>
@@ -76929,7 +76938,7 @@
         <v>21</v>
       </c>
       <c r="Q1156" s="5" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="R1156" s="6" t="s">
         <v>23</v>
@@ -76940,22 +76949,22 @@
     </row>
     <row r="1157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1157" s="5" t="s">
-        <v>2567</v>
+        <v>2766</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2568</v>
+        <v>2767</v>
       </c>
       <c r="D1157" s="5" t="s">
-        <v>2569</v>
+        <v>2768</v>
       </c>
       <c r="E1157" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1157" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1157" s="6" t="s">
         <v>23</v>
@@ -76973,10 +76982,10 @@
         <v>21</v>
       </c>
       <c r="L1157" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1157" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1157" s="6">
         <v>0</v>
@@ -76988,7 +76997,7 @@
         <v>21</v>
       </c>
       <c r="Q1157" s="5" t="s">
-        <v>2568</v>
+        <v>2767</v>
       </c>
       <c r="R1157" s="6" t="s">
         <v>23</v>
@@ -76999,22 +77008,22 @@
     </row>
     <row r="1158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1158" s="5" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="D1158" s="5" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="E1158" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1158" s="6">
-        <v>1784.9</v>
+        <v>504</v>
       </c>
       <c r="G1158" s="6" t="s">
         <v>23</v>
@@ -77035,7 +77044,7 @@
         <v>23</v>
       </c>
       <c r="M1158" s="6">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="N1158" s="6">
         <v>0</v>
@@ -77047,7 +77056,7 @@
         <v>21</v>
       </c>
       <c r="Q1158" s="5" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="R1158" s="6" t="s">
         <v>23</v>
@@ -77058,22 +77067,22 @@
     </row>
     <row r="1159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1159" s="5" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="D1159" s="5" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="E1159" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1159" s="6">
-        <v>144.80000000000001</v>
+        <v>1784.9</v>
       </c>
       <c r="G1159" s="6" t="s">
         <v>23</v>
@@ -77094,7 +77103,7 @@
         <v>23</v>
       </c>
       <c r="M1159" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="N1159" s="6">
         <v>0</v>
@@ -77106,7 +77115,7 @@
         <v>21</v>
       </c>
       <c r="Q1159" s="5" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="R1159" s="6" t="s">
         <v>23</v>
@@ -77117,22 +77126,22 @@
     </row>
     <row r="1160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1160" s="5" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="D1160" s="5" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="E1160" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1160" s="6">
-        <v>0</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G1160" s="6" t="s">
         <v>23</v>
@@ -77150,10 +77159,10 @@
         <v>21</v>
       </c>
       <c r="L1160" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1160" s="6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N1160" s="6">
         <v>0</v>
@@ -77165,7 +77174,7 @@
         <v>21</v>
       </c>
       <c r="Q1160" s="5" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="R1160" s="6" t="s">
         <v>23</v>
@@ -77176,16 +77185,16 @@
     </row>
     <row r="1161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1161" s="5" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="D1161" s="5" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
       <c r="E1161" s="6" t="s">
         <v>23</v>
@@ -77224,7 +77233,7 @@
         <v>21</v>
       </c>
       <c r="Q1161" s="5" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="R1161" s="6" t="s">
         <v>23</v>
@@ -77235,22 +77244,22 @@
     </row>
     <row r="1162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1162" s="5" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="D1162" s="5" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="E1162" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1162" s="6">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="G1162" s="6" t="s">
         <v>23</v>
@@ -77268,10 +77277,10 @@
         <v>21</v>
       </c>
       <c r="L1162" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1162" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1162" s="6">
         <v>0</v>
@@ -77283,7 +77292,7 @@
         <v>21</v>
       </c>
       <c r="Q1162" s="5" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="R1162" s="6" t="s">
         <v>23</v>
@@ -77294,22 +77303,22 @@
     </row>
     <row r="1163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1163" s="5" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2586</v>
+        <v>2581</v>
       </c>
       <c r="D1163" s="5" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
       <c r="E1163" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1163" s="6">
-        <v>153.30000000000001</v>
+        <v>56.1</v>
       </c>
       <c r="G1163" s="6" t="s">
         <v>23</v>
@@ -77330,7 +77339,7 @@
         <v>23</v>
       </c>
       <c r="M1163" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="N1163" s="6">
         <v>0</v>
@@ -77342,7 +77351,7 @@
         <v>21</v>
       </c>
       <c r="Q1163" s="5" t="s">
-        <v>2586</v>
+        <v>2581</v>
       </c>
       <c r="R1163" s="6" t="s">
         <v>23</v>
@@ -77353,22 +77362,22 @@
     </row>
     <row r="1164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1164" s="5" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="D1164" s="5" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
       <c r="E1164" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1164" s="6">
-        <v>6</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="G1164" s="6" t="s">
         <v>23</v>
@@ -77389,7 +77398,7 @@
         <v>23</v>
       </c>
       <c r="M1164" s="6">
-        <v>4.2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N1164" s="6">
         <v>0</v>
@@ -77401,7 +77410,7 @@
         <v>21</v>
       </c>
       <c r="Q1164" s="5" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="R1164" s="6" t="s">
         <v>23</v>
@@ -77412,22 +77421,22 @@
     </row>
     <row r="1165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
-        <v>2591</v>
+        <v>2586</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2599</v>
+        <v>2587</v>
       </c>
       <c r="D1165" s="5" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="E1165" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1165" s="6">
-        <v>786.61</v>
+        <v>6</v>
       </c>
       <c r="G1165" s="6" t="s">
         <v>23</v>
@@ -77448,7 +77457,7 @@
         <v>23</v>
       </c>
       <c r="M1165" s="6">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N1165" s="6">
         <v>0</v>
@@ -77460,7 +77469,7 @@
         <v>21</v>
       </c>
       <c r="Q1165" s="5" t="s">
-        <v>2599</v>
+        <v>2587</v>
       </c>
       <c r="R1165" s="6" t="s">
         <v>23</v>
@@ -77471,22 +77480,22 @@
     </row>
     <row r="1166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="D1166" s="5" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="E1166" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1166" s="6">
-        <v>361.4</v>
+        <v>3580.71</v>
       </c>
       <c r="G1166" s="6" t="s">
         <v>23</v>
@@ -77507,7 +77516,7 @@
         <v>23</v>
       </c>
       <c r="M1166" s="6">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="N1166" s="6">
         <v>0</v>
@@ -77519,7 +77528,7 @@
         <v>21</v>
       </c>
       <c r="Q1166" s="5" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="R1166" s="6" t="s">
         <v>23</v>
@@ -77530,60 +77539,119 @@
     </row>
     <row r="1167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1167" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1167" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1167" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1167" s="6">
+        <v>361.4</v>
+      </c>
+      <c r="G1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1167" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1167" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1167" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1167" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1167" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R1167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1167" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1168" s="5" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1168" s="5" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D1168" s="5" t="s">
         <v>2687</v>
       </c>
-      <c r="B1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1167" s="5" t="s">
-        <v>2688</v>
-      </c>
-      <c r="D1167" s="5" t="s">
-        <v>2689</v>
-      </c>
-      <c r="E1167" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1167" s="6">
-        <v>775.94</v>
-      </c>
-      <c r="G1167" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1167" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1167" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1167" s="6">
+      <c r="E1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1168" s="6">
+        <v>2712.34</v>
+      </c>
+      <c r="G1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1168" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1168" s="6">
         <v>1.99</v>
       </c>
-      <c r="N1167" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1167" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1167" s="5" t="s">
-        <v>2688</v>
-      </c>
-      <c r="R1167" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1167" s="5" t="s">
+      <c r="N1168" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1168" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1168" s="5" t="s">
+        <v>2686</v>
+      </c>
+      <c r="R1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1168" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17496" uniqueCount="2769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17796" uniqueCount="2829">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8314,9 +8314,6 @@
     <t>VARDO 17</t>
   </si>
   <si>
-    <t>Lista Produto : 05/07/2021 09:23:00</t>
-  </si>
-  <si>
     <t>BOLSHOI 01-YANODA 22 (BRANCO)</t>
   </si>
   <si>
@@ -8330,6 +8327,189 @@
   </si>
   <si>
     <t>LUCCA 919 (BEGE)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 21/07/2021 13:47:15</t>
+  </si>
+  <si>
+    <t>TC15259</t>
+  </si>
+  <si>
+    <t>G5840</t>
+  </si>
+  <si>
+    <t>AVOLA 13604 - 19302 CREAM</t>
+  </si>
+  <si>
+    <t>TC15260</t>
+  </si>
+  <si>
+    <t>G5880</t>
+  </si>
+  <si>
+    <t>AVOLA 13604 - 19324 ROSE</t>
+  </si>
+  <si>
+    <t>TC15261</t>
+  </si>
+  <si>
+    <t>G5810</t>
+  </si>
+  <si>
+    <t>AVOLA 13604 - 19331 CINZA</t>
+  </si>
+  <si>
+    <t>TC15262</t>
+  </si>
+  <si>
+    <t>G5480</t>
+  </si>
+  <si>
+    <t>LORIS 63 ROSA</t>
+  </si>
+  <si>
+    <t>TC15263</t>
+  </si>
+  <si>
+    <t>G5431</t>
+  </si>
+  <si>
+    <t>LORIS 38 DARK GREEN</t>
+  </si>
+  <si>
+    <t>TC15264</t>
+  </si>
+  <si>
+    <t>G0750</t>
+  </si>
+  <si>
+    <t>DUBAI BORDEAUX</t>
+  </si>
+  <si>
+    <t>TC15265</t>
+  </si>
+  <si>
+    <t>G3842</t>
+  </si>
+  <si>
+    <t>QUEENS STAR TOFFEE</t>
+  </si>
+  <si>
+    <t>TC15266</t>
+  </si>
+  <si>
+    <t>G3822</t>
+  </si>
+  <si>
+    <t>QUEENS STAR PETROL</t>
+  </si>
+  <si>
+    <t>TC15267</t>
+  </si>
+  <si>
+    <t>G1260</t>
+  </si>
+  <si>
+    <t>RONDA 45 MOSTAZA</t>
+  </si>
+  <si>
+    <t>TC15268</t>
+  </si>
+  <si>
+    <t>G1221</t>
+  </si>
+  <si>
+    <t>RONDA 79 DEEP BLUE</t>
+  </si>
+  <si>
+    <t>TC15269</t>
+  </si>
+  <si>
+    <t>G2921</t>
+  </si>
+  <si>
+    <t>SORRENTO 605 BLEU CANARD</t>
+  </si>
+  <si>
+    <t>TC15270</t>
+  </si>
+  <si>
+    <t>G2941</t>
+  </si>
+  <si>
+    <t>SORRENTO 803 LIGHT BEIGE</t>
+  </si>
+  <si>
+    <t>TC15271</t>
+  </si>
+  <si>
+    <t>G2942</t>
+  </si>
+  <si>
+    <t>SORRENTO 804 BEIGE</t>
+  </si>
+  <si>
+    <t>TC15272</t>
+  </si>
+  <si>
+    <t>G2943</t>
+  </si>
+  <si>
+    <t>SORRENTO 903 TAUPE</t>
+  </si>
+  <si>
+    <t>TC15273</t>
+  </si>
+  <si>
+    <t>G1341</t>
+  </si>
+  <si>
+    <t>VARDO 25 BEIGE</t>
+  </si>
+  <si>
+    <t>TC15274</t>
+  </si>
+  <si>
+    <t>G1380</t>
+  </si>
+  <si>
+    <t>VARDO 91 ROSE POUDRÉ</t>
+  </si>
+  <si>
+    <t>TC15275</t>
+  </si>
+  <si>
+    <t>G2741</t>
+  </si>
+  <si>
+    <t>SORO 23 (TAUPE)</t>
+  </si>
+  <si>
+    <t>TC15276</t>
+  </si>
+  <si>
+    <t>G2780</t>
+  </si>
+  <si>
+    <t>SORO 61 (ROSA CLARO)</t>
+  </si>
+  <si>
+    <t>TC15277</t>
+  </si>
+  <si>
+    <t>G2712</t>
+  </si>
+  <si>
+    <t>SORO 93 (DARK GREY)</t>
+  </si>
+  <si>
+    <t>TC15278</t>
+  </si>
+  <si>
+    <t>G2902</t>
+  </si>
+  <si>
+    <t>SORRENTO 900 BRANCO</t>
   </si>
 </sst>
 </file>
@@ -8496,8 +8676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1168" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1168"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1188" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1188"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8786,7 +8966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1168"/>
+  <dimension ref="A1:S1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -8840,7 +9020,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2763</v>
+        <v>2768</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10471,7 +10651,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>828.6</v>
+        <v>826.69</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10530,7 +10710,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>1255.3699999999999</v>
+        <v>362.64</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -11769,7 +11949,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>1442.94</v>
+        <v>763.35</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -11828,7 +12008,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>8965.77</v>
+        <v>6667.71</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -11887,7 +12067,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>1480.44</v>
+        <v>1430.41</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12418,7 +12598,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>1529.8</v>
+        <v>2566.4499999999998</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12477,7 +12657,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>28592.15</v>
+        <v>30639.22</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12536,7 +12716,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>813.87</v>
+        <v>802.37</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12654,7 +12834,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>1111.5999999999999</v>
+        <v>1087.75</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12713,7 +12893,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>11878.03</v>
+        <v>7719.83</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12949,7 +13129,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>34453.86</v>
+        <v>25694.880000000001</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -13008,7 +13188,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>14579.5</v>
+        <v>10721.57</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13303,7 +13483,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>40440.26</v>
+        <v>38771.230000000003</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13362,7 +13542,7 @@
         <v>23</v>
       </c>
       <c r="F79" s="6">
-        <v>3632</v>
+        <v>2793</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>23</v>
@@ -24336,7 +24516,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>9863.2999999999993</v>
+        <v>9816.2999999999993</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24985,7 +25165,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>1853</v>
+        <v>2200.1999999999998</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -26401,7 +26581,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>5519.61</v>
+        <v>7002.03</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26460,7 +26640,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>2398.23</v>
+        <v>2389.46</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -27463,7 +27643,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>7425.84</v>
+        <v>14420.93</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28112,7 +28292,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="6">
-        <v>619</v>
+        <v>182.46</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>23</v>
@@ -29233,7 +29413,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>98.5</v>
+        <v>130.84</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -29528,7 +29708,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>41.12</v>
+        <v>136.1</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -29646,7 +29826,7 @@
         <v>23</v>
       </c>
       <c r="F355" s="6">
-        <v>191.6</v>
+        <v>982.4</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>23</v>
@@ -29764,7 +29944,7 @@
         <v>23</v>
       </c>
       <c r="F357" s="6">
-        <v>0</v>
+        <v>55.56</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>23</v>
@@ -29785,7 +29965,7 @@
         <v>23</v>
       </c>
       <c r="M357" s="6">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="N357" s="6">
         <v>0</v>
@@ -30000,7 +30180,7 @@
         <v>23</v>
       </c>
       <c r="F361" s="6">
-        <v>268.89999999999998</v>
+        <v>230.46</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>23</v>
@@ -30236,7 +30416,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>2511.42</v>
+        <v>1791</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30826,7 +31006,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1299.06</v>
+        <v>1285.76</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -30885,7 +31065,7 @@
         <v>23</v>
       </c>
       <c r="F376" s="6">
-        <v>142.74</v>
+        <v>144</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>23</v>
@@ -31593,7 +31773,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>378.41699999999997</v>
+        <v>312.11700000000002</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31711,7 +31891,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>10387.44</v>
+        <v>12055.49</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -32065,7 +32245,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5330.9</v>
+        <v>5078.28</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -32124,7 +32304,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>179.23</v>
+        <v>7394.91</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32183,7 +32363,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>2465.84</v>
+        <v>7275.42</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32242,7 +32422,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>309.24</v>
+        <v>7849.35</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32301,7 +32481,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2523.41</v>
+        <v>2491.5500000000002</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32360,7 +32540,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>2481.9499999999998</v>
+        <v>2460.71</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32419,7 +32599,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>313.45</v>
+        <v>1516.49</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32478,7 +32658,7 @@
         <v>23</v>
       </c>
       <c r="F403" s="6">
-        <v>1550.1</v>
+        <v>1497</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>23</v>
@@ -32537,7 +32717,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>1524.29</v>
+        <v>2501.39</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32655,7 +32835,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2768.77</v>
+        <v>2015.09</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32832,7 +33012,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>18589.830000000002</v>
+        <v>19293.88</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -32950,7 +33130,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>33.03</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -33127,7 +33307,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1478.73</v>
+        <v>1459.93</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33540,7 +33720,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>754.6</v>
+        <v>541</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -33835,7 +34015,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1246.93</v>
+        <v>1217.7950000000001</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -33894,7 +34074,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>10152.39</v>
+        <v>9536.39</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -34012,7 +34192,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>20462.59</v>
+        <v>36871.99</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34897,7 +35077,7 @@
         <v>23</v>
       </c>
       <c r="F444" s="6">
-        <v>261.5</v>
+        <v>240.97499999999999</v>
       </c>
       <c r="G444" s="6" t="s">
         <v>23</v>
@@ -58143,7 +58323,7 @@
         <v>23</v>
       </c>
       <c r="F838" s="6">
-        <v>2404</v>
+        <v>340.6</v>
       </c>
       <c r="G838" s="6" t="s">
         <v>23</v>
@@ -59795,7 +59975,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1792.89</v>
+        <v>1044.31</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -59972,7 +60152,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>17601.93</v>
+        <v>29196.54</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60739,7 +60919,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>125996.21</v>
+        <v>124726.1</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -60798,7 +60978,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>35814.53</v>
+        <v>36062.06</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -60857,7 +61037,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>31409.84</v>
+        <v>40280.239999999998</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -60916,7 +61096,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>17501.57</v>
+        <v>18333.57</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -61919,7 +62099,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>8584.9699999999993</v>
+        <v>9694.65</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62332,7 +62512,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1018.62</v>
+        <v>1008.45</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62509,7 +62689,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>1808.5</v>
+        <v>1751.56</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62686,7 +62866,7 @@
         <v>23</v>
       </c>
       <c r="F915" s="6">
-        <v>455.42</v>
+        <v>453.13</v>
       </c>
       <c r="G915" s="6" t="s">
         <v>23</v>
@@ -62804,7 +62984,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>367.46</v>
+        <v>180.54</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -62922,7 +63102,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3491.89</v>
+        <v>3205.92</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -63099,7 +63279,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>562.88</v>
+        <v>1797.19</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63158,7 +63338,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>9615.34</v>
+        <v>1875.54</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63394,7 +63574,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>2533.33</v>
+        <v>9687.42</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63689,7 +63869,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>49.53</v>
+        <v>1655.7</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -64102,7 +64282,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1238.19</v>
+        <v>2053.77</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64279,7 +64459,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>819.48</v>
+        <v>806.34</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64397,7 +64577,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>2059.19</v>
+        <v>1776.39</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64456,7 +64636,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>2113.41</v>
+        <v>1509.59</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64810,7 +64990,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>6493.93</v>
+        <v>6467.2</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -64869,7 +65049,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>5482.36</v>
+        <v>6171.76</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -64928,7 +65108,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>1032.44</v>
+        <v>3187.84</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -64987,7 +65167,7 @@
         <v>23</v>
       </c>
       <c r="F954" s="6">
-        <v>1599.63</v>
+        <v>1567.75</v>
       </c>
       <c r="G954" s="6" t="s">
         <v>23</v>
@@ -65341,7 +65521,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>276.48</v>
+        <v>256.36</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -65400,7 +65580,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>742.96</v>
+        <v>2713.12</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65459,7 +65639,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>6703.18</v>
+        <v>9842.68</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65518,7 +65698,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>4442.5600000000004</v>
+        <v>6695.06</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65577,7 +65757,7 @@
         <v>23</v>
       </c>
       <c r="F964" s="6">
-        <v>574.9</v>
+        <v>573.05999999999995</v>
       </c>
       <c r="G964" s="6" t="s">
         <v>23</v>
@@ -65636,7 +65816,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>2051.4899999999998</v>
+        <v>2040.88</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -67878,7 +68058,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>2354.6999999999998</v>
+        <v>2143.0300000000002</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -67937,7 +68117,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>1841.67</v>
+        <v>1714.23</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -68055,7 +68235,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>833.31</v>
+        <v>1091.51</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68173,7 +68353,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>327.38</v>
+        <v>389.36</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68527,7 +68707,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4952.46</v>
+        <v>4270.16</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68586,7 +68766,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>4531.62</v>
+        <v>3646.44</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68704,7 +68884,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>2130.21</v>
+        <v>1917.41</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68940,7 +69120,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>2506.04</v>
+        <v>2450.48</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -68999,7 +69179,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>8534.73</v>
+        <v>8594.25</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -69058,7 +69238,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>7551.11</v>
+        <v>10406.209999999999</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -69117,7 +69297,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>19330.14</v>
+        <v>17853.43</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69294,7 +69474,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>9704.99</v>
+        <v>8653.99</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69412,7 +69592,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>28628.2</v>
+        <v>23599</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69530,7 +69710,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>792.89</v>
+        <v>1960.99</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69825,7 +70005,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>2234.44</v>
+        <v>1237.96</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -69884,7 +70064,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>1419.1</v>
+        <v>1392.56</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -69943,7 +70123,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>3178.9</v>
+        <v>2564.7800000000002</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -70002,7 +70182,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2203.41</v>
+        <v>2017.81</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -70061,7 +70241,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>7676.81</v>
+        <v>8034.01</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70297,7 +70477,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>1059.5</v>
+        <v>987.08</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -70356,7 +70536,7 @@
         <v>23</v>
       </c>
       <c r="F1045" s="6">
-        <v>0</v>
+        <v>102.2</v>
       </c>
       <c r="G1045" s="6" t="s">
         <v>23</v>
@@ -70374,7 +70554,7 @@
         <v>21</v>
       </c>
       <c r="L1045" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1045" s="6">
         <v>0</v>
@@ -70415,7 +70595,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>1599.8</v>
+        <v>1184.7</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -70999,7 +71179,7 @@
         <v>2421</v>
       </c>
       <c r="D1056" s="5" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E1056" s="6" t="s">
         <v>23</v>
@@ -71064,7 +71244,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>7264.7</v>
+        <v>5035.92</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -71182,7 +71362,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>6056.6</v>
+        <v>7549.3</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71241,7 +71421,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>10380.35</v>
+        <v>14554.45</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71418,7 +71598,7 @@
         <v>23</v>
       </c>
       <c r="F1063" s="6">
-        <v>1290.2</v>
+        <v>1069.4000000000001</v>
       </c>
       <c r="G1063" s="6" t="s">
         <v>23</v>
@@ -71949,7 +72129,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>11063.83</v>
+        <v>7757.41</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -72008,7 +72188,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>2737.62</v>
+        <v>2657.8</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -72067,7 +72247,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>14803.08</v>
+        <v>20910.689999999999</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72126,7 +72306,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>33728.92</v>
+        <v>34125.49</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72185,7 +72365,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>26276.79</v>
+        <v>69784.570000000007</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72244,7 +72424,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>8107.76</v>
+        <v>12111.63</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72303,7 +72483,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>26784</v>
+        <v>54269.279999999999</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72362,7 +72542,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>2723.53</v>
+        <v>2702.75</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72539,7 +72719,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>81.06</v>
+        <v>158</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72716,7 +72896,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>119.2</v>
+        <v>100.4</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -72893,7 +73073,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>2364.66</v>
+        <v>2172.2600000000002</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -72952,7 +73132,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>6227.3</v>
+        <v>6089.96</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -73070,7 +73250,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>3595.94</v>
+        <v>3370.97</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73123,7 +73303,7 @@
         <v>2527</v>
       </c>
       <c r="D1092" s="5" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="E1092" s="6" t="s">
         <v>23</v>
@@ -73306,7 +73486,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>3148.71</v>
+        <v>3071.67</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73365,7 +73545,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>689.66</v>
+        <v>83.09</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73483,7 +73663,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>323.47000000000003</v>
+        <v>224.6</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73542,7 +73722,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>142.75</v>
+        <v>653.61</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -74486,7 +74666,7 @@
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>1395.66</v>
+        <v>1319.3</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74604,7 +74784,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>226.24</v>
+        <v>197.08</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74663,7 +74843,7 @@
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>173.1</v>
+        <v>129.41999999999999</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -74722,7 +74902,7 @@
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>263.82</v>
+        <v>234.7</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -74781,7 +74961,7 @@
         <v>23</v>
       </c>
       <c r="F1120" s="6">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="G1120" s="6" t="s">
         <v>23</v>
@@ -75194,7 +75374,7 @@
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>0</v>
+        <v>1040.75</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -75215,7 +75395,7 @@
         <v>23</v>
       </c>
       <c r="M1127" s="6">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="N1127" s="6">
         <v>0</v>
@@ -75548,7 +75728,7 @@
         <v>23</v>
       </c>
       <c r="F1133" s="6">
-        <v>59</v>
+        <v>581</v>
       </c>
       <c r="G1133" s="6" t="s">
         <v>23</v>
@@ -75607,7 +75787,7 @@
         <v>23</v>
       </c>
       <c r="F1134" s="6">
-        <v>249.1</v>
+        <v>480.9</v>
       </c>
       <c r="G1134" s="6" t="s">
         <v>23</v>
@@ -75666,7 +75846,7 @@
         <v>23</v>
       </c>
       <c r="F1135" s="6">
-        <v>377.5</v>
+        <v>870.4</v>
       </c>
       <c r="G1135" s="6" t="s">
         <v>23</v>
@@ -75843,7 +76023,7 @@
         <v>23</v>
       </c>
       <c r="F1138" s="6">
-        <v>54</v>
+        <v>575</v>
       </c>
       <c r="G1138" s="6" t="s">
         <v>23</v>
@@ -76079,7 +76259,7 @@
         <v>23</v>
       </c>
       <c r="F1142" s="6">
-        <v>0</v>
+        <v>710.5</v>
       </c>
       <c r="G1142" s="6" t="s">
         <v>23</v>
@@ -76097,10 +76277,10 @@
         <v>21</v>
       </c>
       <c r="L1142" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1142" s="6">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="N1142" s="6">
         <v>0</v>
@@ -76846,7 +77026,7 @@
         <v>23</v>
       </c>
       <c r="F1155" s="6">
-        <v>0</v>
+        <v>596.5</v>
       </c>
       <c r="G1155" s="6" t="s">
         <v>23</v>
@@ -76864,7 +77044,7 @@
         <v>21</v>
       </c>
       <c r="L1155" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1155" s="6">
         <v>0</v>
@@ -76905,7 +77085,7 @@
         <v>23</v>
       </c>
       <c r="F1156" s="6">
-        <v>0</v>
+        <v>610.20000000000005</v>
       </c>
       <c r="G1156" s="6" t="s">
         <v>23</v>
@@ -76923,7 +77103,7 @@
         <v>21</v>
       </c>
       <c r="L1156" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1156" s="6">
         <v>0</v>
@@ -76949,22 +77129,22 @@
     </row>
     <row r="1157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1157" s="5" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B1157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1157" s="5" t="s">
         <v>2766</v>
       </c>
-      <c r="B1157" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1157" s="5" t="s">
+      <c r="D1157" s="5" t="s">
         <v>2767</v>
       </c>
-      <c r="D1157" s="5" t="s">
-        <v>2768</v>
-      </c>
       <c r="E1157" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1157" s="6">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G1157" s="6" t="s">
         <v>23</v>
@@ -76982,7 +77162,7 @@
         <v>21</v>
       </c>
       <c r="L1157" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1157" s="6">
         <v>0</v>
@@ -76997,7 +77177,7 @@
         <v>21</v>
       </c>
       <c r="Q1157" s="5" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="R1157" s="6" t="s">
         <v>23</v>
@@ -77008,22 +77188,22 @@
     </row>
     <row r="1158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1158" s="5" t="s">
-        <v>2565</v>
+        <v>2769</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2566</v>
+        <v>2770</v>
       </c>
       <c r="D1158" s="5" t="s">
-        <v>2567</v>
+        <v>2771</v>
       </c>
       <c r="E1158" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1158" s="6">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G1158" s="6" t="s">
         <v>23</v>
@@ -77041,10 +77221,10 @@
         <v>21</v>
       </c>
       <c r="L1158" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1158" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1158" s="6">
         <v>0</v>
@@ -77056,7 +77236,7 @@
         <v>21</v>
       </c>
       <c r="Q1158" s="5" t="s">
-        <v>2566</v>
+        <v>2770</v>
       </c>
       <c r="R1158" s="6" t="s">
         <v>23</v>
@@ -77067,22 +77247,22 @@
     </row>
     <row r="1159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1159" s="5" t="s">
-        <v>2568</v>
+        <v>2772</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2569</v>
+        <v>2773</v>
       </c>
       <c r="D1159" s="5" t="s">
-        <v>2570</v>
+        <v>2774</v>
       </c>
       <c r="E1159" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1159" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1159" s="6" t="s">
         <v>23</v>
@@ -77100,10 +77280,10 @@
         <v>21</v>
       </c>
       <c r="L1159" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1159" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1159" s="6">
         <v>0</v>
@@ -77115,7 +77295,7 @@
         <v>21</v>
       </c>
       <c r="Q1159" s="5" t="s">
-        <v>2569</v>
+        <v>2773</v>
       </c>
       <c r="R1159" s="6" t="s">
         <v>23</v>
@@ -77126,22 +77306,22 @@
     </row>
     <row r="1160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1160" s="5" t="s">
-        <v>2571</v>
+        <v>2775</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2572</v>
+        <v>2776</v>
       </c>
       <c r="D1160" s="5" t="s">
-        <v>2573</v>
+        <v>2777</v>
       </c>
       <c r="E1160" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1160" s="6">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1160" s="6" t="s">
         <v>23</v>
@@ -77159,10 +77339,10 @@
         <v>21</v>
       </c>
       <c r="L1160" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1160" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1160" s="6">
         <v>0</v>
@@ -77174,7 +77354,7 @@
         <v>21</v>
       </c>
       <c r="Q1160" s="5" t="s">
-        <v>2572</v>
+        <v>2776</v>
       </c>
       <c r="R1160" s="6" t="s">
         <v>23</v>
@@ -77185,16 +77365,16 @@
     </row>
     <row r="1161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1161" s="5" t="s">
-        <v>2574</v>
+        <v>2778</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2575</v>
+        <v>2779</v>
       </c>
       <c r="D1161" s="5" t="s">
-        <v>2576</v>
+        <v>2780</v>
       </c>
       <c r="E1161" s="6" t="s">
         <v>23</v>
@@ -77233,7 +77413,7 @@
         <v>21</v>
       </c>
       <c r="Q1161" s="5" t="s">
-        <v>2575</v>
+        <v>2779</v>
       </c>
       <c r="R1161" s="6" t="s">
         <v>23</v>
@@ -77244,16 +77424,16 @@
     </row>
     <row r="1162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1162" s="5" t="s">
-        <v>2577</v>
+        <v>2781</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2578</v>
+        <v>2782</v>
       </c>
       <c r="D1162" s="5" t="s">
-        <v>2579</v>
+        <v>2783</v>
       </c>
       <c r="E1162" s="6" t="s">
         <v>23</v>
@@ -77292,7 +77472,7 @@
         <v>21</v>
       </c>
       <c r="Q1162" s="5" t="s">
-        <v>2578</v>
+        <v>2782</v>
       </c>
       <c r="R1162" s="6" t="s">
         <v>23</v>
@@ -77303,22 +77483,22 @@
     </row>
     <row r="1163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1163" s="5" t="s">
-        <v>2580</v>
+        <v>2784</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2581</v>
+        <v>2785</v>
       </c>
       <c r="D1163" s="5" t="s">
-        <v>2582</v>
+        <v>2786</v>
       </c>
       <c r="E1163" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1163" s="6">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="G1163" s="6" t="s">
         <v>23</v>
@@ -77336,10 +77516,10 @@
         <v>21</v>
       </c>
       <c r="L1163" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1163" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1163" s="6">
         <v>0</v>
@@ -77351,7 +77531,7 @@
         <v>21</v>
       </c>
       <c r="Q1163" s="5" t="s">
-        <v>2581</v>
+        <v>2785</v>
       </c>
       <c r="R1163" s="6" t="s">
         <v>23</v>
@@ -77362,22 +77542,22 @@
     </row>
     <row r="1164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1164" s="5" t="s">
-        <v>2583</v>
+        <v>2787</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2584</v>
+        <v>2788</v>
       </c>
       <c r="D1164" s="5" t="s">
-        <v>2585</v>
+        <v>2789</v>
       </c>
       <c r="E1164" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1164" s="6">
-        <v>153.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1164" s="6" t="s">
         <v>23</v>
@@ -77395,10 +77575,10 @@
         <v>21</v>
       </c>
       <c r="L1164" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1164" s="6">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N1164" s="6">
         <v>0</v>
@@ -77410,7 +77590,7 @@
         <v>21</v>
       </c>
       <c r="Q1164" s="5" t="s">
-        <v>2584</v>
+        <v>2788</v>
       </c>
       <c r="R1164" s="6" t="s">
         <v>23</v>
@@ -77421,22 +77601,22 @@
     </row>
     <row r="1165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
-        <v>2586</v>
+        <v>2790</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2587</v>
+        <v>2791</v>
       </c>
       <c r="D1165" s="5" t="s">
-        <v>2588</v>
+        <v>2792</v>
       </c>
       <c r="E1165" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1165" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1165" s="6" t="s">
         <v>23</v>
@@ -77454,10 +77634,10 @@
         <v>21</v>
       </c>
       <c r="L1165" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1165" s="6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N1165" s="6">
         <v>0</v>
@@ -77469,7 +77649,7 @@
         <v>21</v>
       </c>
       <c r="Q1165" s="5" t="s">
-        <v>2587</v>
+        <v>2791</v>
       </c>
       <c r="R1165" s="6" t="s">
         <v>23</v>
@@ -77480,22 +77660,22 @@
     </row>
     <row r="1166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
-        <v>2589</v>
+        <v>2793</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2597</v>
+        <v>2794</v>
       </c>
       <c r="D1166" s="5" t="s">
-        <v>2590</v>
+        <v>2795</v>
       </c>
       <c r="E1166" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1166" s="6">
-        <v>3580.71</v>
+        <v>0</v>
       </c>
       <c r="G1166" s="6" t="s">
         <v>23</v>
@@ -77513,10 +77693,10 @@
         <v>21</v>
       </c>
       <c r="L1166" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1166" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N1166" s="6">
         <v>0</v>
@@ -77528,7 +77708,7 @@
         <v>21</v>
       </c>
       <c r="Q1166" s="5" t="s">
-        <v>2597</v>
+        <v>2794</v>
       </c>
       <c r="R1166" s="6" t="s">
         <v>23</v>
@@ -77539,22 +77719,22 @@
     </row>
     <row r="1167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1167" s="5" t="s">
-        <v>2591</v>
+        <v>2796</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2592</v>
+        <v>2797</v>
       </c>
       <c r="D1167" s="5" t="s">
-        <v>2593</v>
+        <v>2798</v>
       </c>
       <c r="E1167" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1167" s="6">
-        <v>361.4</v>
+        <v>0</v>
       </c>
       <c r="G1167" s="6" t="s">
         <v>23</v>
@@ -77572,10 +77752,10 @@
         <v>21</v>
       </c>
       <c r="L1167" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1167" s="6">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N1167" s="6">
         <v>0</v>
@@ -77587,7 +77767,7 @@
         <v>21</v>
       </c>
       <c r="Q1167" s="5" t="s">
-        <v>2592</v>
+        <v>2797</v>
       </c>
       <c r="R1167" s="6" t="s">
         <v>23</v>
@@ -77598,60 +77778,1240 @@
     </row>
     <row r="1168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1168" s="5" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1168" s="5" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D1168" s="5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1168" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1168" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1168" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1168" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1168" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1168" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1168" s="5" t="s">
+        <v>2800</v>
+      </c>
+      <c r="R1168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1168" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1169" s="5" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1169" s="5" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1169" s="5" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E1169" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1169" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1169" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1169" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1169" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1169" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1169" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1169" s="5" t="s">
+        <v>2803</v>
+      </c>
+      <c r="R1169" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1169" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1170" s="5" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B1170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1170" s="5" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1170" s="5" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E1170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1170" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1170" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1170" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1170" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1170" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1170" s="5" t="s">
+        <v>2806</v>
+      </c>
+      <c r="R1170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1170" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1171" s="5" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1171" s="5" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1171" s="5" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1171" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1171" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1171" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1171" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1171" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1171" s="5" t="s">
+        <v>2809</v>
+      </c>
+      <c r="R1171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1171" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1172" s="5" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B1172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1172" s="5" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1172" s="5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E1172" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1172" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1172" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1172" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1172" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1172" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1172" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1172" s="5" t="s">
+        <v>2812</v>
+      </c>
+      <c r="R1172" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1172" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1173" s="5" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1173" s="5" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1173" s="5" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E1173" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1173" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1173" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1173" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1173" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1173" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1173" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1173" s="5" t="s">
+        <v>2815</v>
+      </c>
+      <c r="R1173" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1173" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1174" s="5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B1174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1174" s="5" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1174" s="5" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1174" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1174" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1174" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1174" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1174" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1174" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1174" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1174" s="5" t="s">
+        <v>2818</v>
+      </c>
+      <c r="R1174" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1174" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1175" s="5" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1175" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1175" s="5" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E1175" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1175" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1175" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1175" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1175" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1175" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1175" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1175" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1175" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="R1175" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1175" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1176" s="5" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B1176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1176" s="5" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D1176" s="5" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E1176" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1176" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1176" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1176" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1176" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1176" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1176" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1176" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1176" s="5" t="s">
+        <v>2824</v>
+      </c>
+      <c r="R1176" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1176" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1177" s="5" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1177" s="5" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1177" s="5" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E1177" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1177" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1177" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1177" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1177" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1177" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1177" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1177" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1177" s="5" t="s">
+        <v>2827</v>
+      </c>
+      <c r="R1177" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1177" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1178" s="5" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1178" s="5" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D1178" s="5" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E1178" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1178" s="6">
+        <v>494.12</v>
+      </c>
+      <c r="G1178" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1178" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1178" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1178" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="N1178" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1178" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1178" s="5" t="s">
+        <v>2566</v>
+      </c>
+      <c r="R1178" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1178" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1179" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1179" s="5" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D1179" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E1179" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1179" s="6">
+        <v>1784.9</v>
+      </c>
+      <c r="G1179" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1179" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1179" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1179" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="N1179" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1179" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1179" s="5" t="s">
+        <v>2569</v>
+      </c>
+      <c r="R1179" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1179" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1180" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1180" s="5" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D1180" s="5" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E1180" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1180" s="6">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="G1180" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1180" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1180" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1180" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1180" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1180" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1180" s="5" t="s">
+        <v>2572</v>
+      </c>
+      <c r="R1180" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1180" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1181" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1181" s="5" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D1181" s="5" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E1181" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1181" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1181" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1181" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1181" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1181" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1181" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1181" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1181" s="5" t="s">
+        <v>2575</v>
+      </c>
+      <c r="R1181" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1181" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1182" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1182" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1182" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E1182" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1182" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1182" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1182" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1182" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1182" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1182" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1182" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="R1182" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1182" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1183" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B1183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1183" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D1183" s="5" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E1183" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1183" s="6">
+        <v>56.1</v>
+      </c>
+      <c r="G1183" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1183" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1183" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1183" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="N1183" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1183" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1183" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="R1183" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1183" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1184" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1184" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D1184" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E1184" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1184" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="G1184" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1184" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1184" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1184" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1184" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1184" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1184" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="R1184" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1184" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1185" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1185" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D1185" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E1185" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1185" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1185" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1185" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1185" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1185" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1185" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1185" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1185" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="R1185" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1185" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1186" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1186" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D1186" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1186" s="6">
+        <v>5758.41</v>
+      </c>
+      <c r="G1186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1186" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1186" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1186" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1186" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1186" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="R1186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1186" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1187" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1187" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1187" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1187" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E1187" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1187" s="6">
+        <v>361.4</v>
+      </c>
+      <c r="G1187" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1187" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1187" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1187" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1187" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1187" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1187" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1187" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1187" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1187" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1187" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R1187" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1187" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1188" s="5" t="s">
         <v>2685</v>
       </c>
-      <c r="B1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1168" s="5" t="s">
+      <c r="B1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1188" s="5" t="s">
         <v>2686</v>
       </c>
-      <c r="D1168" s="5" t="s">
+      <c r="D1188" s="5" t="s">
         <v>2687</v>
       </c>
-      <c r="E1168" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1168" s="6">
-        <v>2712.34</v>
-      </c>
-      <c r="G1168" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1168" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1168" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1168" s="6">
+      <c r="E1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1188" s="6">
+        <v>2228.34</v>
+      </c>
+      <c r="G1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1188" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1188" s="6">
         <v>1.99</v>
       </c>
-      <c r="N1168" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1168" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1168" s="5" t="s">
+      <c r="N1188" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1188" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1188" s="5" t="s">
         <v>2686</v>
       </c>
-      <c r="R1168" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1168" s="5" t="s">
+      <c r="R1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1188" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17796" uniqueCount="2829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17856" uniqueCount="2841">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8329,9 +8329,6 @@
     <t>LUCCA 919 (BEGE)</t>
   </si>
   <si>
-    <t>Lista Produto : 21/07/2021 13:47:15</t>
-  </si>
-  <si>
     <t>TC15259</t>
   </si>
   <si>
@@ -8510,6 +8507,45 @@
   </si>
   <si>
     <t>SORRENTO 900 BRANCO</t>
+  </si>
+  <si>
+    <t>Lista Produto : 02/08/2021 09:57:45</t>
+  </si>
+  <si>
+    <t>TC15279</t>
+  </si>
+  <si>
+    <t>G5512</t>
+  </si>
+  <si>
+    <t>SOLID 06 CINZA</t>
+  </si>
+  <si>
+    <t>TC15280</t>
+  </si>
+  <si>
+    <t>G5410</t>
+  </si>
+  <si>
+    <t>LORIS 80 LIGHT GREY</t>
+  </si>
+  <si>
+    <t>TC15281</t>
+  </si>
+  <si>
+    <t>G5411</t>
+  </si>
+  <si>
+    <t>LORIS 97 DARK GREY</t>
+  </si>
+  <si>
+    <t>TC15282</t>
+  </si>
+  <si>
+    <t>G0314</t>
+  </si>
+  <si>
+    <t>GUSTO 95 (DARK GREY)</t>
   </si>
 </sst>
 </file>
@@ -8676,8 +8712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1188" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1188"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1192" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1192"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -8966,7 +9002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1188"/>
+  <dimension ref="A1:S1192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -9020,7 +9056,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2768</v>
+        <v>2828</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12008,7 +12044,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>6667.71</v>
+        <v>6486.91</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12716,7 +12752,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>802.37</v>
+        <v>633.52</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12893,7 +12929,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>7719.83</v>
+        <v>7831.01</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12952,7 +12988,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>9914.5300000000007</v>
+        <v>9845.82</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -13129,7 +13165,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>25694.880000000001</v>
+        <v>19077.66</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -13188,7 +13224,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>10721.57</v>
+        <v>8771.26</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13483,7 +13519,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>38771.230000000003</v>
+        <v>38676.83</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13542,7 +13578,7 @@
         <v>23</v>
       </c>
       <c r="F79" s="6">
-        <v>2793</v>
+        <v>1626.79</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>23</v>
@@ -24516,7 +24552,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>9816.2999999999993</v>
+        <v>8458.2999999999993</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26581,7 +26617,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>7002.03</v>
+        <v>6650.34</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26640,7 +26676,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>2389.46</v>
+        <v>2345.87</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -27643,7 +27679,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>14420.93</v>
+        <v>14379.08</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28292,7 +28328,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="6">
-        <v>182.46</v>
+        <v>487.96</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>23</v>
@@ -31891,7 +31927,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>12055.49</v>
+        <v>10675.92</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31950,7 +31986,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>105.32</v>
+        <v>82.76</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -32009,7 +32045,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1519.43</v>
+        <v>1508.15</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -32127,7 +32163,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>112.27</v>
+        <v>97.23</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -32245,7 +32281,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5078.28</v>
+        <v>5033.4799999999996</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -32304,7 +32340,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>7394.91</v>
+        <v>7681.38</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32363,7 +32399,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>7275.42</v>
+        <v>7561.92</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32422,7 +32458,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>7849.35</v>
+        <v>13641.54</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32835,7 +32871,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2015.09</v>
+        <v>1336.37</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -33012,7 +33048,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>19293.88</v>
+        <v>17396.02</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -33130,7 +33166,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>128.83000000000001</v>
+        <v>121.31</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -33248,7 +33284,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>333.22</v>
+        <v>209.2</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -33307,7 +33343,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1459.93</v>
+        <v>1444.89</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -34015,7 +34051,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1217.7950000000001</v>
+        <v>1077.9349999999999</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -34074,7 +34110,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>9536.39</v>
+        <v>8019.15</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -34192,7 +34228,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>36871.99</v>
+        <v>51103.79</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34251,7 +34287,7 @@
         <v>23</v>
       </c>
       <c r="F430" s="6">
-        <v>3188.49</v>
+        <v>3180.58</v>
       </c>
       <c r="G430" s="6" t="s">
         <v>23</v>
@@ -35490,7 +35526,7 @@
         <v>23</v>
       </c>
       <c r="F451" s="6">
-        <v>404.5</v>
+        <v>356.32</v>
       </c>
       <c r="G451" s="6" t="s">
         <v>23</v>
@@ -59975,7 +60011,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1044.31</v>
+        <v>1029.01</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -60152,7 +60188,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>29196.54</v>
+        <v>27698.16</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60978,7 +61014,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>36062.06</v>
+        <v>34284.660000000003</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -62099,7 +62135,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>9694.65</v>
+        <v>11527.97</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62748,7 +62784,7 @@
         <v>23</v>
       </c>
       <c r="F913" s="6">
-        <v>3522.54</v>
+        <v>3099.34</v>
       </c>
       <c r="G913" s="6" t="s">
         <v>23</v>
@@ -62925,7 +62961,7 @@
         <v>23</v>
       </c>
       <c r="F916" s="6">
-        <v>366.8</v>
+        <v>338.33</v>
       </c>
       <c r="G916" s="6" t="s">
         <v>23</v>
@@ -62984,7 +63020,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>180.54</v>
+        <v>169.87</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -63279,7 +63315,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1797.19</v>
+        <v>1812.45</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63574,7 +63610,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>9687.42</v>
+        <v>9084.86</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63869,7 +63905,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>1655.7</v>
+        <v>1688.76</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -64518,7 +64554,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>333.28</v>
+        <v>762.88</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64636,7 +64672,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1509.59</v>
+        <v>1503.7</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -65049,7 +65085,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>6171.76</v>
+        <v>6147.66</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -65108,7 +65144,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>3187.84</v>
+        <v>3240.84</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -65580,7 +65616,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>2713.12</v>
+        <v>2011.84</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65639,7 +65675,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>9842.68</v>
+        <v>8552.58</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65698,7 +65734,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>6695.06</v>
+        <v>4894.9799999999996</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65757,7 +65793,7 @@
         <v>23</v>
       </c>
       <c r="F964" s="6">
-        <v>573.05999999999995</v>
+        <v>569.38</v>
       </c>
       <c r="G964" s="6" t="s">
         <v>23</v>
@@ -65816,7 +65852,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>2040.88</v>
+        <v>1966.61</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -67940,7 +67976,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>23651.22</v>
+        <v>20410.439999999999</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -68235,7 +68271,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>1091.51</v>
+        <v>1022</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68256,7 +68292,7 @@
         <v>23</v>
       </c>
       <c r="M1006" s="6">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="N1006" s="6">
         <v>0</v>
@@ -68412,7 +68448,7 @@
         <v>23</v>
       </c>
       <c r="F1009" s="6">
-        <v>1058</v>
+        <v>972.32</v>
       </c>
       <c r="G1009" s="6" t="s">
         <v>23</v>
@@ -68471,7 +68507,7 @@
         <v>23</v>
       </c>
       <c r="F1010" s="6">
-        <v>592.5</v>
+        <v>541.26</v>
       </c>
       <c r="G1010" s="6" t="s">
         <v>23</v>
@@ -68707,7 +68743,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4270.16</v>
+        <v>4016.7</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68766,7 +68802,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>3646.44</v>
+        <v>2833.98</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68884,7 +68920,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>1917.41</v>
+        <v>1497.01</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -69179,7 +69215,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>8594.25</v>
+        <v>8336.65</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -69297,7 +69333,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>17853.43</v>
+        <v>15551.45</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69474,7 +69510,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>8653.99</v>
+        <v>8651.33</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69533,7 +69569,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>737.1</v>
+        <v>676.56</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69651,7 +69687,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>2542.6799999999998</v>
+        <v>2441.7800000000002</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69828,7 +69864,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>3309.95</v>
+        <v>3269.59</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -70123,7 +70159,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>2564.7800000000002</v>
+        <v>2392.27</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -70557,7 +70593,7 @@
         <v>23</v>
       </c>
       <c r="M1045" s="6">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="N1045" s="6">
         <v>0</v>
@@ -71362,7 +71398,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>7549.3</v>
+        <v>9521</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71834,7 +71870,7 @@
         <v>23</v>
       </c>
       <c r="F1067" s="6">
-        <v>18904.5</v>
+        <v>17335.349999999999</v>
       </c>
       <c r="G1067" s="6" t="s">
         <v>23</v>
@@ -71893,7 +71929,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>9845.5499999999993</v>
+        <v>13258.15</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -72129,7 +72165,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>7757.41</v>
+        <v>6561.66</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -72188,7 +72224,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>2657.8</v>
+        <v>3150.74</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -72247,7 +72283,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>20910.689999999999</v>
+        <v>20892.37</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72306,7 +72342,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>34125.49</v>
+        <v>40969.99</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72365,7 +72401,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>69784.570000000007</v>
+        <v>92124.32</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72424,7 +72460,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>12111.63</v>
+        <v>13399.63</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72483,7 +72519,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>54269.279999999999</v>
+        <v>53486.62</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72542,7 +72578,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>2702.75</v>
+        <v>2658.9</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72719,7 +72755,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>158</v>
+        <v>153.59</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -73073,7 +73109,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>2172.2600000000002</v>
+        <v>2081.1799999999998</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -73250,7 +73286,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>3370.97</v>
+        <v>2218.0500000000002</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73486,7 +73522,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>3071.67</v>
+        <v>13068.67</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73545,7 +73581,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>83.09</v>
+        <v>1503.89</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73604,7 +73640,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>44.5</v>
+        <v>37</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73663,7 +73699,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>224.6</v>
+        <v>175.73</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73722,7 +73758,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>653.61</v>
+        <v>653.048</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -74784,7 +74820,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>197.08</v>
+        <v>277.11</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74843,7 +74879,7 @@
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>129.41999999999999</v>
+        <v>429.22</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -74902,7 +74938,7 @@
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>234.7</v>
+        <v>553.64</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -75079,7 +75115,7 @@
         <v>23</v>
       </c>
       <c r="F1122" s="6">
-        <v>3006.5</v>
+        <v>4082.2</v>
       </c>
       <c r="G1122" s="6" t="s">
         <v>23</v>
@@ -75728,7 +75764,7 @@
         <v>23</v>
       </c>
       <c r="F1133" s="6">
-        <v>581</v>
+        <v>556.16</v>
       </c>
       <c r="G1133" s="6" t="s">
         <v>23</v>
@@ -75787,7 +75823,7 @@
         <v>23</v>
       </c>
       <c r="F1134" s="6">
-        <v>480.9</v>
+        <v>873.6</v>
       </c>
       <c r="G1134" s="6" t="s">
         <v>23</v>
@@ -76082,7 +76118,7 @@
         <v>23</v>
       </c>
       <c r="F1139" s="6">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G1139" s="6" t="s">
         <v>23</v>
@@ -77047,7 +77083,7 @@
         <v>23</v>
       </c>
       <c r="M1155" s="6">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="N1155" s="6">
         <v>0</v>
@@ -77106,7 +77142,7 @@
         <v>23</v>
       </c>
       <c r="M1156" s="6">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="N1156" s="6">
         <v>0</v>
@@ -77165,7 +77201,7 @@
         <v>23</v>
       </c>
       <c r="M1157" s="6">
-        <v>0</v>
+        <v>6.51</v>
       </c>
       <c r="N1157" s="6">
         <v>0</v>
@@ -77188,16 +77224,16 @@
     </row>
     <row r="1158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1158" s="5" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B1158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1158" s="5" t="s">
         <v>2769</v>
       </c>
-      <c r="B1158" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1158" s="5" t="s">
+      <c r="D1158" s="5" t="s">
         <v>2770</v>
-      </c>
-      <c r="D1158" s="5" t="s">
-        <v>2771</v>
       </c>
       <c r="E1158" s="6" t="s">
         <v>23</v>
@@ -77236,7 +77272,7 @@
         <v>21</v>
       </c>
       <c r="Q1158" s="5" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="R1158" s="6" t="s">
         <v>23</v>
@@ -77247,16 +77283,16 @@
     </row>
     <row r="1159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1159" s="5" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1159" s="5" t="s">
         <v>2772</v>
       </c>
-      <c r="B1159" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1159" s="5" t="s">
+      <c r="D1159" s="5" t="s">
         <v>2773</v>
-      </c>
-      <c r="D1159" s="5" t="s">
-        <v>2774</v>
       </c>
       <c r="E1159" s="6" t="s">
         <v>23</v>
@@ -77295,7 +77331,7 @@
         <v>21</v>
       </c>
       <c r="Q1159" s="5" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="R1159" s="6" t="s">
         <v>23</v>
@@ -77306,16 +77342,16 @@
     </row>
     <row r="1160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1160" s="5" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1160" s="5" t="s">
         <v>2775</v>
       </c>
-      <c r="B1160" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1160" s="5" t="s">
+      <c r="D1160" s="5" t="s">
         <v>2776</v>
-      </c>
-      <c r="D1160" s="5" t="s">
-        <v>2777</v>
       </c>
       <c r="E1160" s="6" t="s">
         <v>23</v>
@@ -77354,7 +77390,7 @@
         <v>21</v>
       </c>
       <c r="Q1160" s="5" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="R1160" s="6" t="s">
         <v>23</v>
@@ -77365,16 +77401,16 @@
     </row>
     <row r="1161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1161" s="5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1161" s="5" t="s">
         <v>2778</v>
       </c>
-      <c r="B1161" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1161" s="5" t="s">
+      <c r="D1161" s="5" t="s">
         <v>2779</v>
-      </c>
-      <c r="D1161" s="5" t="s">
-        <v>2780</v>
       </c>
       <c r="E1161" s="6" t="s">
         <v>23</v>
@@ -77413,7 +77449,7 @@
         <v>21</v>
       </c>
       <c r="Q1161" s="5" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="R1161" s="6" t="s">
         <v>23</v>
@@ -77424,16 +77460,16 @@
     </row>
     <row r="1162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1162" s="5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B1162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1162" s="5" t="s">
         <v>2781</v>
       </c>
-      <c r="B1162" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1162" s="5" t="s">
+      <c r="D1162" s="5" t="s">
         <v>2782</v>
-      </c>
-      <c r="D1162" s="5" t="s">
-        <v>2783</v>
       </c>
       <c r="E1162" s="6" t="s">
         <v>23</v>
@@ -77472,7 +77508,7 @@
         <v>21</v>
       </c>
       <c r="Q1162" s="5" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="R1162" s="6" t="s">
         <v>23</v>
@@ -77483,16 +77519,16 @@
     </row>
     <row r="1163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1163" s="5" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1163" s="5" t="s">
         <v>2784</v>
       </c>
-      <c r="B1163" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1163" s="5" t="s">
+      <c r="D1163" s="5" t="s">
         <v>2785</v>
-      </c>
-      <c r="D1163" s="5" t="s">
-        <v>2786</v>
       </c>
       <c r="E1163" s="6" t="s">
         <v>23</v>
@@ -77531,7 +77567,7 @@
         <v>21</v>
       </c>
       <c r="Q1163" s="5" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="R1163" s="6" t="s">
         <v>23</v>
@@ -77542,16 +77578,16 @@
     </row>
     <row r="1164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1164" s="5" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B1164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1164" s="5" t="s">
         <v>2787</v>
       </c>
-      <c r="B1164" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1164" s="5" t="s">
+      <c r="D1164" s="5" t="s">
         <v>2788</v>
-      </c>
-      <c r="D1164" s="5" t="s">
-        <v>2789</v>
       </c>
       <c r="E1164" s="6" t="s">
         <v>23</v>
@@ -77590,7 +77626,7 @@
         <v>21</v>
       </c>
       <c r="Q1164" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="R1164" s="6" t="s">
         <v>23</v>
@@ -77601,16 +77637,16 @@
     </row>
     <row r="1165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1165" s="5" t="s">
         <v>2790</v>
       </c>
-      <c r="B1165" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1165" s="5" t="s">
+      <c r="D1165" s="5" t="s">
         <v>2791</v>
-      </c>
-      <c r="D1165" s="5" t="s">
-        <v>2792</v>
       </c>
       <c r="E1165" s="6" t="s">
         <v>23</v>
@@ -77649,7 +77685,7 @@
         <v>21</v>
       </c>
       <c r="Q1165" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="R1165" s="6" t="s">
         <v>23</v>
@@ -77660,16 +77696,16 @@
     </row>
     <row r="1166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1166" s="5" t="s">
         <v>2793</v>
       </c>
-      <c r="B1166" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1166" s="5" t="s">
+      <c r="D1166" s="5" t="s">
         <v>2794</v>
-      </c>
-      <c r="D1166" s="5" t="s">
-        <v>2795</v>
       </c>
       <c r="E1166" s="6" t="s">
         <v>23</v>
@@ -77708,7 +77744,7 @@
         <v>21</v>
       </c>
       <c r="Q1166" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="R1166" s="6" t="s">
         <v>23</v>
@@ -77719,16 +77755,16 @@
     </row>
     <row r="1167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1167" s="5" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1167" s="5" t="s">
         <v>2796</v>
       </c>
-      <c r="B1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1167" s="5" t="s">
+      <c r="D1167" s="5" t="s">
         <v>2797</v>
-      </c>
-      <c r="D1167" s="5" t="s">
-        <v>2798</v>
       </c>
       <c r="E1167" s="6" t="s">
         <v>23</v>
@@ -77767,7 +77803,7 @@
         <v>21</v>
       </c>
       <c r="Q1167" s="5" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="R1167" s="6" t="s">
         <v>23</v>
@@ -77778,16 +77814,16 @@
     </row>
     <row r="1168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1168" s="5" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1168" s="5" t="s">
         <v>2799</v>
       </c>
-      <c r="B1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1168" s="5" t="s">
+      <c r="D1168" s="5" t="s">
         <v>2800</v>
-      </c>
-      <c r="D1168" s="5" t="s">
-        <v>2801</v>
       </c>
       <c r="E1168" s="6" t="s">
         <v>23</v>
@@ -77826,7 +77862,7 @@
         <v>21</v>
       </c>
       <c r="Q1168" s="5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="R1168" s="6" t="s">
         <v>23</v>
@@ -77837,16 +77873,16 @@
     </row>
     <row r="1169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1169" s="5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B1169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1169" s="5" t="s">
         <v>2802</v>
       </c>
-      <c r="B1169" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1169" s="5" t="s">
+      <c r="D1169" s="5" t="s">
         <v>2803</v>
-      </c>
-      <c r="D1169" s="5" t="s">
-        <v>2804</v>
       </c>
       <c r="E1169" s="6" t="s">
         <v>23</v>
@@ -77885,7 +77921,7 @@
         <v>21</v>
       </c>
       <c r="Q1169" s="5" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="R1169" s="6" t="s">
         <v>23</v>
@@ -77896,16 +77932,16 @@
     </row>
     <row r="1170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1170" s="5" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1170" s="5" t="s">
         <v>2805</v>
       </c>
-      <c r="B1170" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1170" s="5" t="s">
+      <c r="D1170" s="5" t="s">
         <v>2806</v>
-      </c>
-      <c r="D1170" s="5" t="s">
-        <v>2807</v>
       </c>
       <c r="E1170" s="6" t="s">
         <v>23</v>
@@ -77944,7 +77980,7 @@
         <v>21</v>
       </c>
       <c r="Q1170" s="5" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="R1170" s="6" t="s">
         <v>23</v>
@@ -77955,16 +77991,16 @@
     </row>
     <row r="1171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1171" s="5" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B1171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1171" s="5" t="s">
         <v>2808</v>
       </c>
-      <c r="B1171" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1171" s="5" t="s">
+      <c r="D1171" s="5" t="s">
         <v>2809</v>
-      </c>
-      <c r="D1171" s="5" t="s">
-        <v>2810</v>
       </c>
       <c r="E1171" s="6" t="s">
         <v>23</v>
@@ -78003,7 +78039,7 @@
         <v>21</v>
       </c>
       <c r="Q1171" s="5" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="R1171" s="6" t="s">
         <v>23</v>
@@ -78014,16 +78050,16 @@
     </row>
     <row r="1172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1172" s="5" t="s">
         <v>2811</v>
       </c>
-      <c r="B1172" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1172" s="5" t="s">
+      <c r="D1172" s="5" t="s">
         <v>2812</v>
-      </c>
-      <c r="D1172" s="5" t="s">
-        <v>2813</v>
       </c>
       <c r="E1172" s="6" t="s">
         <v>23</v>
@@ -78062,7 +78098,7 @@
         <v>21</v>
       </c>
       <c r="Q1172" s="5" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="R1172" s="6" t="s">
         <v>23</v>
@@ -78073,16 +78109,16 @@
     </row>
     <row r="1173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1173" s="5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B1173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1173" s="5" t="s">
         <v>2814</v>
       </c>
-      <c r="B1173" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1173" s="5" t="s">
+      <c r="D1173" s="5" t="s">
         <v>2815</v>
-      </c>
-      <c r="D1173" s="5" t="s">
-        <v>2816</v>
       </c>
       <c r="E1173" s="6" t="s">
         <v>23</v>
@@ -78121,7 +78157,7 @@
         <v>21</v>
       </c>
       <c r="Q1173" s="5" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="R1173" s="6" t="s">
         <v>23</v>
@@ -78132,22 +78168,22 @@
     </row>
     <row r="1174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1174" s="5" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1174" s="5" t="s">
         <v>2817</v>
       </c>
-      <c r="B1174" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1174" s="5" t="s">
+      <c r="D1174" s="5" t="s">
         <v>2818</v>
       </c>
-      <c r="D1174" s="5" t="s">
-        <v>2819</v>
-      </c>
       <c r="E1174" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1174" s="6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G1174" s="6" t="s">
         <v>23</v>
@@ -78165,7 +78201,7 @@
         <v>21</v>
       </c>
       <c r="L1174" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1174" s="6">
         <v>0</v>
@@ -78180,7 +78216,7 @@
         <v>21</v>
       </c>
       <c r="Q1174" s="5" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="R1174" s="6" t="s">
         <v>23</v>
@@ -78191,22 +78227,22 @@
     </row>
     <row r="1175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1175" s="5" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1175" s="5" t="s">
         <v>2820</v>
       </c>
-      <c r="B1175" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1175" s="5" t="s">
+      <c r="D1175" s="5" t="s">
         <v>2821</v>
       </c>
-      <c r="D1175" s="5" t="s">
-        <v>2822</v>
-      </c>
       <c r="E1175" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1175" s="6">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="G1175" s="6" t="s">
         <v>23</v>
@@ -78224,7 +78260,7 @@
         <v>21</v>
       </c>
       <c r="L1175" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1175" s="6">
         <v>0</v>
@@ -78239,7 +78275,7 @@
         <v>21</v>
       </c>
       <c r="Q1175" s="5" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="R1175" s="6" t="s">
         <v>23</v>
@@ -78250,22 +78286,22 @@
     </row>
     <row r="1176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1176" s="5" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1176" s="5" t="s">
         <v>2823</v>
       </c>
-      <c r="B1176" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1176" s="5" t="s">
+      <c r="D1176" s="5" t="s">
         <v>2824</v>
       </c>
-      <c r="D1176" s="5" t="s">
-        <v>2825</v>
-      </c>
       <c r="E1176" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1176" s="6">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="G1176" s="6" t="s">
         <v>23</v>
@@ -78283,7 +78319,7 @@
         <v>21</v>
       </c>
       <c r="L1176" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1176" s="6">
         <v>0</v>
@@ -78298,7 +78334,7 @@
         <v>21</v>
       </c>
       <c r="Q1176" s="5" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="R1176" s="6" t="s">
         <v>23</v>
@@ -78309,16 +78345,16 @@
     </row>
     <row r="1177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1177" s="5" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B1177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1177" s="5" t="s">
         <v>2826</v>
       </c>
-      <c r="B1177" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1177" s="5" t="s">
+      <c r="D1177" s="5" t="s">
         <v>2827</v>
-      </c>
-      <c r="D1177" s="5" t="s">
-        <v>2828</v>
       </c>
       <c r="E1177" s="6" t="s">
         <v>23</v>
@@ -78357,7 +78393,7 @@
         <v>21</v>
       </c>
       <c r="Q1177" s="5" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="R1177" s="6" t="s">
         <v>23</v>
@@ -78368,22 +78404,22 @@
     </row>
     <row r="1178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1178" s="5" t="s">
-        <v>2565</v>
+        <v>2829</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2566</v>
+        <v>2830</v>
       </c>
       <c r="D1178" s="5" t="s">
-        <v>2567</v>
+        <v>2831</v>
       </c>
       <c r="E1178" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1178" s="6">
-        <v>494.12</v>
+        <v>0</v>
       </c>
       <c r="G1178" s="6" t="s">
         <v>23</v>
@@ -78401,10 +78437,10 @@
         <v>21</v>
       </c>
       <c r="L1178" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1178" s="6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N1178" s="6">
         <v>0</v>
@@ -78416,7 +78452,7 @@
         <v>21</v>
       </c>
       <c r="Q1178" s="5" t="s">
-        <v>2566</v>
+        <v>2830</v>
       </c>
       <c r="R1178" s="6" t="s">
         <v>23</v>
@@ -78427,22 +78463,22 @@
     </row>
     <row r="1179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1179" s="5" t="s">
-        <v>2568</v>
+        <v>2832</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2569</v>
+        <v>2833</v>
       </c>
       <c r="D1179" s="5" t="s">
-        <v>2570</v>
+        <v>2834</v>
       </c>
       <c r="E1179" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1179" s="6">
-        <v>1784.9</v>
+        <v>0</v>
       </c>
       <c r="G1179" s="6" t="s">
         <v>23</v>
@@ -78460,10 +78496,10 @@
         <v>21</v>
       </c>
       <c r="L1179" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1179" s="6">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N1179" s="6">
         <v>0</v>
@@ -78475,7 +78511,7 @@
         <v>21</v>
       </c>
       <c r="Q1179" s="5" t="s">
-        <v>2569</v>
+        <v>2833</v>
       </c>
       <c r="R1179" s="6" t="s">
         <v>23</v>
@@ -78486,22 +78522,22 @@
     </row>
     <row r="1180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
-        <v>2571</v>
+        <v>2835</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2572</v>
+        <v>2836</v>
       </c>
       <c r="D1180" s="5" t="s">
-        <v>2573</v>
+        <v>2837</v>
       </c>
       <c r="E1180" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1180" s="6">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G1180" s="6" t="s">
         <v>23</v>
@@ -78519,10 +78555,10 @@
         <v>21</v>
       </c>
       <c r="L1180" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1180" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N1180" s="6">
         <v>0</v>
@@ -78534,7 +78570,7 @@
         <v>21</v>
       </c>
       <c r="Q1180" s="5" t="s">
-        <v>2572</v>
+        <v>2836</v>
       </c>
       <c r="R1180" s="6" t="s">
         <v>23</v>
@@ -78545,16 +78581,16 @@
     </row>
     <row r="1181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1181" s="5" t="s">
-        <v>2574</v>
+        <v>2838</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2575</v>
+        <v>2839</v>
       </c>
       <c r="D1181" s="5" t="s">
-        <v>2576</v>
+        <v>2840</v>
       </c>
       <c r="E1181" s="6" t="s">
         <v>23</v>
@@ -78593,7 +78629,7 @@
         <v>21</v>
       </c>
       <c r="Q1181" s="5" t="s">
-        <v>2575</v>
+        <v>2839</v>
       </c>
       <c r="R1181" s="6" t="s">
         <v>23</v>
@@ -78604,22 +78640,22 @@
     </row>
     <row r="1182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1182" s="5" t="s">
-        <v>2577</v>
+        <v>2565</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2578</v>
+        <v>2566</v>
       </c>
       <c r="D1182" s="5" t="s">
-        <v>2579</v>
+        <v>2567</v>
       </c>
       <c r="E1182" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1182" s="6">
-        <v>0</v>
+        <v>494.12</v>
       </c>
       <c r="G1182" s="6" t="s">
         <v>23</v>
@@ -78637,10 +78673,10 @@
         <v>21</v>
       </c>
       <c r="L1182" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1182" s="6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N1182" s="6">
         <v>0</v>
@@ -78652,7 +78688,7 @@
         <v>21</v>
       </c>
       <c r="Q1182" s="5" t="s">
-        <v>2578</v>
+        <v>2566</v>
       </c>
       <c r="R1182" s="6" t="s">
         <v>23</v>
@@ -78663,22 +78699,22 @@
     </row>
     <row r="1183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1183" s="5" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2581</v>
+        <v>2569</v>
       </c>
       <c r="D1183" s="5" t="s">
-        <v>2582</v>
+        <v>2570</v>
       </c>
       <c r="E1183" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1183" s="6">
-        <v>56.1</v>
+        <v>1784.9</v>
       </c>
       <c r="G1183" s="6" t="s">
         <v>23</v>
@@ -78699,7 +78735,7 @@
         <v>23</v>
       </c>
       <c r="M1183" s="6">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="N1183" s="6">
         <v>0</v>
@@ -78711,7 +78747,7 @@
         <v>21</v>
       </c>
       <c r="Q1183" s="5" t="s">
-        <v>2581</v>
+        <v>2569</v>
       </c>
       <c r="R1183" s="6" t="s">
         <v>23</v>
@@ -78722,22 +78758,22 @@
     </row>
     <row r="1184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1184" s="5" t="s">
-        <v>2583</v>
+        <v>2571</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2584</v>
+        <v>2572</v>
       </c>
       <c r="D1184" s="5" t="s">
-        <v>2585</v>
+        <v>2573</v>
       </c>
       <c r="E1184" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1184" s="6">
-        <v>153.30000000000001</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G1184" s="6" t="s">
         <v>23</v>
@@ -78758,7 +78794,7 @@
         <v>23</v>
       </c>
       <c r="M1184" s="6">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="N1184" s="6">
         <v>0</v>
@@ -78770,7 +78806,7 @@
         <v>21</v>
       </c>
       <c r="Q1184" s="5" t="s">
-        <v>2584</v>
+        <v>2572</v>
       </c>
       <c r="R1184" s="6" t="s">
         <v>23</v>
@@ -78781,22 +78817,22 @@
     </row>
     <row r="1185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1185" s="5" t="s">
-        <v>2586</v>
+        <v>2574</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2587</v>
+        <v>2575</v>
       </c>
       <c r="D1185" s="5" t="s">
-        <v>2588</v>
+        <v>2576</v>
       </c>
       <c r="E1185" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1185" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1185" s="6" t="s">
         <v>23</v>
@@ -78814,10 +78850,10 @@
         <v>21</v>
       </c>
       <c r="L1185" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1185" s="6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N1185" s="6">
         <v>0</v>
@@ -78829,7 +78865,7 @@
         <v>21</v>
       </c>
       <c r="Q1185" s="5" t="s">
-        <v>2587</v>
+        <v>2575</v>
       </c>
       <c r="R1185" s="6" t="s">
         <v>23</v>
@@ -78840,22 +78876,22 @@
     </row>
     <row r="1186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1186" s="5" t="s">
-        <v>2589</v>
+        <v>2577</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2597</v>
+        <v>2578</v>
       </c>
       <c r="D1186" s="5" t="s">
-        <v>2590</v>
+        <v>2579</v>
       </c>
       <c r="E1186" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1186" s="6">
-        <v>5758.41</v>
+        <v>0</v>
       </c>
       <c r="G1186" s="6" t="s">
         <v>23</v>
@@ -78873,10 +78909,10 @@
         <v>21</v>
       </c>
       <c r="L1186" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1186" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N1186" s="6">
         <v>0</v>
@@ -78888,7 +78924,7 @@
         <v>21</v>
       </c>
       <c r="Q1186" s="5" t="s">
-        <v>2597</v>
+        <v>2578</v>
       </c>
       <c r="R1186" s="6" t="s">
         <v>23</v>
@@ -78899,22 +78935,22 @@
     </row>
     <row r="1187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1187" s="5" t="s">
-        <v>2591</v>
+        <v>2580</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>2592</v>
+        <v>2581</v>
       </c>
       <c r="D1187" s="5" t="s">
-        <v>2593</v>
+        <v>2582</v>
       </c>
       <c r="E1187" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1187" s="6">
-        <v>361.4</v>
+        <v>56.1</v>
       </c>
       <c r="G1187" s="6" t="s">
         <v>23</v>
@@ -78935,7 +78971,7 @@
         <v>23</v>
       </c>
       <c r="M1187" s="6">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="N1187" s="6">
         <v>0</v>
@@ -78947,7 +78983,7 @@
         <v>21</v>
       </c>
       <c r="Q1187" s="5" t="s">
-        <v>2592</v>
+        <v>2581</v>
       </c>
       <c r="R1187" s="6" t="s">
         <v>23</v>
@@ -78958,60 +78994,296 @@
     </row>
     <row r="1188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1188" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1188" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D1188" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1188" s="6">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="G1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1188" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1188" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N1188" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1188" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1188" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="R1188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1188" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1189" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1189" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D1189" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E1189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1189" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1189" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1189" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N1189" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1189" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1189" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="R1189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1189" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1190" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1190" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D1190" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E1190" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1190" s="6">
+        <v>3183.53</v>
+      </c>
+      <c r="G1190" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1190" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1190" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1190" s="6">
+        <v>3</v>
+      </c>
+      <c r="N1190" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1190" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1190" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="R1190" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1190" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1191" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1191" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1191" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E1191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1191" s="6">
+        <v>361.4</v>
+      </c>
+      <c r="G1191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1191" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1191" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="N1191" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1191" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1191" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R1191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1191" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1192" s="5" t="s">
         <v>2685</v>
       </c>
-      <c r="B1188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1188" s="5" t="s">
+      <c r="B1192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1192" s="5" t="s">
         <v>2686</v>
       </c>
-      <c r="D1188" s="5" t="s">
+      <c r="D1192" s="5" t="s">
         <v>2687</v>
       </c>
-      <c r="E1188" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1188" s="6">
-        <v>2228.34</v>
-      </c>
-      <c r="G1188" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1188" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1188" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1188" s="6">
+      <c r="E1192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1192" s="6">
+        <v>1293.3599999999999</v>
+      </c>
+      <c r="G1192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1192" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1192" s="6">
         <v>1.99</v>
       </c>
-      <c r="N1188" s="6">
-        <v>0</v>
-      </c>
-      <c r="O1188" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1188" s="5" t="s">
+      <c r="N1192" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1192" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1192" s="5" t="s">
         <v>2686</v>
       </c>
-      <c r="R1188" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1188" s="5" t="s">
+      <c r="R1192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1192" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -8431,21 +8431,9 @@
     <t>TC15270</t>
   </si>
   <si>
-    <t>G2941</t>
-  </si>
-  <si>
-    <t>SORRENTO 803 LIGHT BEIGE</t>
-  </si>
-  <si>
     <t>TC15271</t>
   </si>
   <si>
-    <t>G2942</t>
-  </si>
-  <si>
-    <t>SORRENTO 804 BEIGE</t>
-  </si>
-  <si>
     <t>TC15272</t>
   </si>
   <si>
@@ -8509,9 +8497,6 @@
     <t>SORRENTO 900 BRANCO</t>
   </si>
   <si>
-    <t>Lista Produto : 02/08/2021 09:57:45</t>
-  </si>
-  <si>
     <t>TC15279</t>
   </si>
   <si>
@@ -8546,6 +8531,21 @@
   </si>
   <si>
     <t>GUSTO 95 (DARK GREY)</t>
+  </si>
+  <si>
+    <t>Lista Produto : 30/08/2021 10:03:08</t>
+  </si>
+  <si>
+    <t>G2911</t>
+  </si>
+  <si>
+    <t>SORRENTO 803 LIGHT GREY</t>
+  </si>
+  <si>
+    <t>G2912</t>
+  </si>
+  <si>
+    <t>SORRENTO 804 MEDIUM GREY</t>
   </si>
 </sst>
 </file>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2828</v>
+        <v>2836</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10687,7 +10687,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>826.69</v>
+        <v>6820.44</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10746,7 +10746,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>362.64</v>
+        <v>236.02</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -11159,7 +11159,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>25</v>
+        <v>9980.2999999999993</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -11218,7 +11218,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="6">
-        <v>2281.64</v>
+        <v>3601.98</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>23</v>
@@ -11513,7 +11513,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>1454</v>
+        <v>1318.4</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11985,7 +11985,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>763.35</v>
+        <v>259.95</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -12044,7 +12044,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>6486.91</v>
+        <v>5040.13</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12103,7 +12103,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>1430.41</v>
+        <v>6882.66</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12634,7 +12634,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>2566.4499999999998</v>
+        <v>2530.1999999999998</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12693,7 +12693,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>30639.22</v>
+        <v>26524.47</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12752,7 +12752,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>633.52</v>
+        <v>385.91</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12811,7 +12811,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>1339.9</v>
+        <v>1152.5</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12870,7 +12870,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>1087.75</v>
+        <v>958.45</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12929,7 +12929,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>7831.01</v>
+        <v>2056.63</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -12988,7 +12988,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>9845.82</v>
+        <v>9756.1200000000008</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>23</v>
@@ -13165,7 +13165,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>19077.66</v>
+        <v>9948.5400000000009</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -13224,7 +13224,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>8771.26</v>
+        <v>15249.92</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13519,7 +13519,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>38676.83</v>
+        <v>38442.32</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13578,7 +13578,7 @@
         <v>23</v>
       </c>
       <c r="F79" s="6">
-        <v>1626.79</v>
+        <v>909.45</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>23</v>
@@ -13637,7 +13637,7 @@
         <v>23</v>
       </c>
       <c r="F80" s="6">
-        <v>2501</v>
+        <v>1997.6</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>23</v>
@@ -13696,7 +13696,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>821.25</v>
+        <v>343.02</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -24021,7 +24021,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>978.3</v>
+        <v>967.14</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -24080,7 +24080,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>942.2</v>
+        <v>893.84</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24552,7 +24552,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>8458.2999999999993</v>
+        <v>7243.92</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -24906,7 +24906,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="6">
-        <v>8</v>
+        <v>2022</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>23</v>
@@ -24927,7 +24927,7 @@
         <v>23</v>
       </c>
       <c r="M271" s="6">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="N271" s="6">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="6">
-        <v>2200.1999999999998</v>
+        <v>2827.7</v>
       </c>
       <c r="G276" s="6" t="s">
         <v>23</v>
@@ -25791,7 +25791,7 @@
         <v>23</v>
       </c>
       <c r="F286" s="6">
-        <v>771.85</v>
+        <v>691.64</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>23</v>
@@ -26617,7 +26617,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>6650.34</v>
+        <v>2346.46</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26676,7 +26676,7 @@
         <v>23</v>
       </c>
       <c r="F301" s="6">
-        <v>2345.87</v>
+        <v>1353.8</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>23</v>
@@ -27679,7 +27679,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>14379.08</v>
+        <v>8897.57</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -27738,7 +27738,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="6">
-        <v>1638.71</v>
+        <v>1575.01</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>23</v>
@@ -28328,7 +28328,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="6">
-        <v>487.96</v>
+        <v>412.04</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>23</v>
@@ -29449,7 +29449,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>130.84</v>
+        <v>121.23</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -29685,7 +29685,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="6">
-        <v>2713.14</v>
+        <v>2531.83</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>23</v>
@@ -29862,7 +29862,7 @@
         <v>23</v>
       </c>
       <c r="F355" s="6">
-        <v>982.4</v>
+        <v>925.64</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>23</v>
@@ -30334,7 +30334,7 @@
         <v>23</v>
       </c>
       <c r="F363" s="6">
-        <v>197.32</v>
+        <v>193.28</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>23</v>
@@ -30452,7 +30452,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>1791</v>
+        <v>1503.84</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30511,7 +30511,7 @@
         <v>23</v>
       </c>
       <c r="F366" s="6">
-        <v>160.69999999999999</v>
+        <v>105.8</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>23</v>
@@ -30688,7 +30688,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="6">
-        <v>9.1</v>
+        <v>-3.33</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>23</v>
@@ -31042,7 +31042,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1285.76</v>
+        <v>1075.56</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -31160,7 +31160,7 @@
         <v>23</v>
       </c>
       <c r="F377" s="6">
-        <v>73.8</v>
+        <v>59.38</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>23</v>
@@ -31396,7 +31396,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>57.89</v>
+        <v>50.83</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -31455,7 +31455,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>287</v>
+        <v>285.42</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -31691,7 +31691,7 @@
         <v>23</v>
       </c>
       <c r="F386" s="6">
-        <v>2474.1999999999998</v>
+        <v>2457.7800000000002</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>23</v>
@@ -31750,7 +31750,7 @@
         <v>23</v>
       </c>
       <c r="F387" s="6">
-        <v>1869.3</v>
+        <v>1845.23</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>23</v>
@@ -31809,7 +31809,7 @@
         <v>23</v>
       </c>
       <c r="F388" s="6">
-        <v>312.11700000000002</v>
+        <v>311.21699999999998</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>23</v>
@@ -31927,7 +31927,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>10675.92</v>
+        <v>5131.75</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31986,7 +31986,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>82.76</v>
+        <v>63.96</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -32045,7 +32045,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1508.15</v>
+        <v>1463.03</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -32163,7 +32163,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>97.23</v>
+        <v>85.95</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -32222,7 +32222,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7787.52</v>
+        <v>7703.3</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -32281,7 +32281,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>5033.4799999999996</v>
+        <v>4428.68</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -32340,7 +32340,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>7681.38</v>
+        <v>7660.9</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32399,7 +32399,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>7561.92</v>
+        <v>6333.52</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32458,7 +32458,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>13641.54</v>
+        <v>9797.5</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32517,7 +32517,7 @@
         <v>23</v>
       </c>
       <c r="F400" s="6">
-        <v>2491.5500000000002</v>
+        <v>2489.77</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>23</v>
@@ -32576,7 +32576,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>2460.71</v>
+        <v>2458.9299999999998</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32635,7 +32635,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>1516.49</v>
+        <v>1514.71</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32753,7 +32753,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>2501.39</v>
+        <v>2431.5300000000002</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32871,7 +32871,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>1336.37</v>
+        <v>2683.67</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -33048,7 +33048,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>17396.02</v>
+        <v>15073.4</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -33166,7 +33166,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>121.31</v>
+        <v>97.65</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -33225,7 +33225,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>629</v>
+        <v>621.48</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -33284,7 +33284,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>209.2</v>
+        <v>237.39</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -33343,7 +33343,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1444.89</v>
+        <v>1411.35</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -33579,7 +33579,7 @@
         <v>23</v>
       </c>
       <c r="F418" s="6">
-        <v>152.19</v>
+        <v>147.65</v>
       </c>
       <c r="G418" s="6" t="s">
         <v>23</v>
@@ -33756,7 +33756,7 @@
         <v>23</v>
       </c>
       <c r="F421" s="6">
-        <v>541</v>
+        <v>109.76</v>
       </c>
       <c r="G421" s="6" t="s">
         <v>23</v>
@@ -34051,7 +34051,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1077.9349999999999</v>
+        <v>1069.7149999999999</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -34110,7 +34110,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>8019.15</v>
+        <v>2964.16</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -34228,7 +34228,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>51103.79</v>
+        <v>12216</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34700,7 +34700,7 @@
         <v>23</v>
       </c>
       <c r="F437" s="6">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="G437" s="6" t="s">
         <v>23</v>
@@ -35408,7 +35408,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>896.1</v>
+        <v>893.64</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -57710,7 +57710,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="6">
-        <v>133.65</v>
+        <v>133.05000000000001</v>
       </c>
       <c r="G827" s="6" t="s">
         <v>23</v>
@@ -58182,7 +58182,7 @@
         <v>23</v>
       </c>
       <c r="F835" s="6">
-        <v>7283</v>
+        <v>7272.49</v>
       </c>
       <c r="G835" s="6" t="s">
         <v>23</v>
@@ -58359,7 +58359,7 @@
         <v>23</v>
       </c>
       <c r="F838" s="6">
-        <v>340.6</v>
+        <v>338.51</v>
       </c>
       <c r="G838" s="6" t="s">
         <v>23</v>
@@ -60011,7 +60011,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>1029.01</v>
+        <v>827.63</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -60129,7 +60129,7 @@
         <v>23</v>
       </c>
       <c r="F868" s="6">
-        <v>1108.0999999999999</v>
+        <v>1091.68</v>
       </c>
       <c r="G868" s="6" t="s">
         <v>23</v>
@@ -60188,7 +60188,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>27698.16</v>
+        <v>30169.46</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60955,7 +60955,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>124726.1</v>
+        <v>109237.62</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -61014,7 +61014,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>34284.660000000003</v>
+        <v>31245.48</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -61073,7 +61073,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>40280.239999999998</v>
+        <v>40123.269999999997</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -61191,7 +61191,7 @@
         <v>23</v>
       </c>
       <c r="F886" s="6">
-        <v>10284.200000000001</v>
+        <v>8928.2000000000007</v>
       </c>
       <c r="G886" s="6" t="s">
         <v>23</v>
@@ -62076,7 +62076,7 @@
         <v>23</v>
       </c>
       <c r="F901" s="6">
-        <v>912</v>
+        <v>885.07</v>
       </c>
       <c r="G901" s="6" t="s">
         <v>23</v>
@@ -62135,7 +62135,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>11527.97</v>
+        <v>8539.26</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62548,7 +62548,7 @@
         <v>23</v>
       </c>
       <c r="F909" s="6">
-        <v>1008.45</v>
+        <v>805.05</v>
       </c>
       <c r="G909" s="6" t="s">
         <v>23</v>
@@ -62725,7 +62725,7 @@
         <v>23</v>
       </c>
       <c r="F912" s="6">
-        <v>1751.56</v>
+        <v>1434.16</v>
       </c>
       <c r="G912" s="6" t="s">
         <v>23</v>
@@ -62902,7 +62902,7 @@
         <v>23</v>
       </c>
       <c r="F915" s="6">
-        <v>453.13</v>
+        <v>402.28</v>
       </c>
       <c r="G915" s="6" t="s">
         <v>23</v>
@@ -63020,7 +63020,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>169.87</v>
+        <v>1638.79</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -63138,7 +63138,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3205.92</v>
+        <v>3087.25</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -63315,7 +63315,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>1812.45</v>
+        <v>2903.68</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63374,7 +63374,7 @@
         <v>23</v>
       </c>
       <c r="F923" s="6">
-        <v>1875.54</v>
+        <v>463.25</v>
       </c>
       <c r="G923" s="6" t="s">
         <v>23</v>
@@ -63492,7 +63492,7 @@
         <v>23</v>
       </c>
       <c r="F925" s="6">
-        <v>1276.3599999999999</v>
+        <v>1199.79</v>
       </c>
       <c r="G925" s="6" t="s">
         <v>23</v>
@@ -63610,7 +63610,7 @@
         <v>23</v>
       </c>
       <c r="F927" s="6">
-        <v>9084.86</v>
+        <v>4567.2299999999996</v>
       </c>
       <c r="G927" s="6" t="s">
         <v>23</v>
@@ -63905,7 +63905,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>1688.76</v>
+        <v>2608.98</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -64318,7 +64318,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>2053.77</v>
+        <v>1754.17</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64495,7 +64495,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>806.34</v>
+        <v>449.02</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64554,7 +64554,7 @@
         <v>23</v>
       </c>
       <c r="F943" s="6">
-        <v>762.88</v>
+        <v>935.78</v>
       </c>
       <c r="G943" s="6" t="s">
         <v>23</v>
@@ -64613,7 +64613,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1776.39</v>
+        <v>1667.35</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64672,7 +64672,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>1503.7</v>
+        <v>439.75</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64731,7 +64731,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>2514.9</v>
+        <v>2505.9899999999998</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -65026,7 +65026,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>6467.2</v>
+        <v>6404.63</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -65085,7 +65085,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>6147.66</v>
+        <v>6070.59</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -65144,7 +65144,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>3240.84</v>
+        <v>2660.77</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -65439,7 +65439,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>2175.09</v>
+        <v>2164.58</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -65557,7 +65557,7 @@
         <v>23</v>
       </c>
       <c r="F960" s="6">
-        <v>256.36</v>
+        <v>245.84</v>
       </c>
       <c r="G960" s="6" t="s">
         <v>23</v>
@@ -65616,7 +65616,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>2011.84</v>
+        <v>3026.34</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65675,7 +65675,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>8552.58</v>
+        <v>6717.61</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65734,7 +65734,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>4894.9799999999996</v>
+        <v>9174.58</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -65852,7 +65852,7 @@
         <v>23</v>
       </c>
       <c r="F965" s="6">
-        <v>1966.61</v>
+        <v>1939.44</v>
       </c>
       <c r="G965" s="6" t="s">
         <v>23</v>
@@ -67976,7 +67976,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>20410.439999999999</v>
+        <v>12402.51</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -68094,7 +68094,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>2143.0300000000002</v>
+        <v>2087.8000000000002</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -68153,7 +68153,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>1714.23</v>
+        <v>1480.59</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -68271,7 +68271,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>1022</v>
+        <v>792.33</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68389,7 +68389,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>389.36</v>
+        <v>1480.4</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68743,7 +68743,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>4016.7</v>
+        <v>2011.55</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68802,7 +68802,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>2833.98</v>
+        <v>455.72</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68920,7 +68920,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>1497.01</v>
+        <v>341.05</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68979,7 +68979,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>688.54</v>
+        <v>334.7</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -69038,7 +69038,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>2869.89</v>
+        <v>2656.29</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -69097,7 +69097,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1416.18</v>
+        <v>1191.9000000000001</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -69156,7 +69156,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>2450.48</v>
+        <v>2023.28</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -69215,7 +69215,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>8336.65</v>
+        <v>5798.6</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -69274,7 +69274,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>10406.209999999999</v>
+        <v>9061.2800000000007</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -69333,7 +69333,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>15551.45</v>
+        <v>15512.81</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69510,7 +69510,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>8651.33</v>
+        <v>4843.66</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69569,7 +69569,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>676.56</v>
+        <v>565.57000000000005</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69628,7 +69628,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>23599</v>
+        <v>11215.61</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69687,7 +69687,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>2441.7800000000002</v>
+        <v>2139.08</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69746,7 +69746,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>1960.99</v>
+        <v>1940.81</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69805,7 +69805,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>1255</v>
+        <v>1130.8599999999999</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69864,7 +69864,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>3269.59</v>
+        <v>3207.6</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -70041,7 +70041,7 @@
         <v>23</v>
       </c>
       <c r="F1036" s="6">
-        <v>1237.96</v>
+        <v>999.16</v>
       </c>
       <c r="G1036" s="6" t="s">
         <v>23</v>
@@ -70100,7 +70100,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>1392.56</v>
+        <v>1279.74</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -70159,7 +70159,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>2392.27</v>
+        <v>2030.47</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -70218,7 +70218,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2017.81</v>
+        <v>2060.12</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -70277,7 +70277,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>8034.01</v>
+        <v>7457.46</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70395,7 +70395,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>8342.2999999999993</v>
+        <v>7303.34</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -70454,7 +70454,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>733.64</v>
+        <v>527.27</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -70513,7 +70513,7 @@
         <v>23</v>
       </c>
       <c r="F1044" s="6">
-        <v>987.08</v>
+        <v>706.01</v>
       </c>
       <c r="G1044" s="6" t="s">
         <v>23</v>
@@ -70572,7 +70572,7 @@
         <v>23</v>
       </c>
       <c r="F1045" s="6">
-        <v>102.2</v>
+        <v>604.95000000000005</v>
       </c>
       <c r="G1045" s="6" t="s">
         <v>23</v>
@@ -70631,7 +70631,7 @@
         <v>23</v>
       </c>
       <c r="F1046" s="6">
-        <v>1184.7</v>
+        <v>2149.16</v>
       </c>
       <c r="G1046" s="6" t="s">
         <v>23</v>
@@ -71044,7 +71044,7 @@
         <v>23</v>
       </c>
       <c r="F1053" s="6">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="G1053" s="6" t="s">
         <v>23</v>
@@ -71162,7 +71162,7 @@
         <v>23</v>
       </c>
       <c r="F1055" s="6">
-        <v>147.80000000000001</v>
+        <v>84.15</v>
       </c>
       <c r="G1055" s="6" t="s">
         <v>23</v>
@@ -71280,7 +71280,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>5035.92</v>
+        <v>3626.1</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -71398,7 +71398,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>9521</v>
+        <v>9592.2999999999993</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71457,7 +71457,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>14554.45</v>
+        <v>7055.75</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71516,7 +71516,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>3471.9</v>
+        <v>3109.9</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71575,7 +71575,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>8321.6299999999992</v>
+        <v>6808.19</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -71870,7 +71870,7 @@
         <v>23</v>
       </c>
       <c r="F1067" s="6">
-        <v>17335.349999999999</v>
+        <v>17322.240000000002</v>
       </c>
       <c r="G1067" s="6" t="s">
         <v>23</v>
@@ -71929,7 +71929,7 @@
         <v>23</v>
       </c>
       <c r="F1068" s="6">
-        <v>13258.15</v>
+        <v>12676.85</v>
       </c>
       <c r="G1068" s="6" t="s">
         <v>23</v>
@@ -72165,7 +72165,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>6561.66</v>
+        <v>2728.57</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -72224,7 +72224,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>3150.74</v>
+        <v>1152.4000000000001</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -72283,7 +72283,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>20892.37</v>
+        <v>20022.43</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72342,7 +72342,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>40969.99</v>
+        <v>37166.089999999997</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72401,7 +72401,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>92124.32</v>
+        <v>109051.85</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72460,7 +72460,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>13399.63</v>
+        <v>12214.84</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72519,7 +72519,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>53486.62</v>
+        <v>43752.36</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72578,7 +72578,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>2658.9</v>
+        <v>2571.94</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72755,7 +72755,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>153.59</v>
+        <v>139.1</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -72932,7 +72932,7 @@
         <v>23</v>
       </c>
       <c r="F1085" s="6">
-        <v>100.4</v>
+        <v>70.319999999999993</v>
       </c>
       <c r="G1085" s="6" t="s">
         <v>23</v>
@@ -73109,7 +73109,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>2081.1799999999998</v>
+        <v>425.84</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -73168,7 +73168,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>6089.96</v>
+        <v>5584.97</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -73286,7 +73286,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>2218.0500000000002</v>
+        <v>5218.28</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73522,7 +73522,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>13068.67</v>
+        <v>16408.73</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73581,7 +73581,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>1503.89</v>
+        <v>1981.63</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73699,7 +73699,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>175.73</v>
+        <v>147.13</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73935,7 +73935,7 @@
         <v>23</v>
       </c>
       <c r="F1102" s="6">
-        <v>3271.2</v>
+        <v>3261.89</v>
       </c>
       <c r="G1102" s="6" t="s">
         <v>23</v>
@@ -74112,7 +74112,7 @@
         <v>23</v>
       </c>
       <c r="F1105" s="6">
-        <v>680.5</v>
+        <v>358.9</v>
       </c>
       <c r="G1105" s="6" t="s">
         <v>23</v>
@@ -74702,7 +74702,7 @@
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>1319.3</v>
+        <v>1317.87</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74820,7 +74820,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>277.11</v>
+        <v>555.41999999999996</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74879,7 +74879,7 @@
         <v>23</v>
       </c>
       <c r="F1118" s="6">
-        <v>429.22</v>
+        <v>282.35000000000002</v>
       </c>
       <c r="G1118" s="6" t="s">
         <v>23</v>
@@ -74997,7 +74997,7 @@
         <v>23</v>
       </c>
       <c r="F1120" s="6">
-        <v>313</v>
+        <v>282.68</v>
       </c>
       <c r="G1120" s="6" t="s">
         <v>23</v>
@@ -75056,7 +75056,7 @@
         <v>23</v>
       </c>
       <c r="F1121" s="6">
-        <v>238.5</v>
+        <v>129.75</v>
       </c>
       <c r="G1121" s="6" t="s">
         <v>23</v>
@@ -75410,7 +75410,7 @@
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>1040.75</v>
+        <v>1014.85</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -75764,7 +75764,7 @@
         <v>23</v>
       </c>
       <c r="F1133" s="6">
-        <v>556.16</v>
+        <v>510.22</v>
       </c>
       <c r="G1133" s="6" t="s">
         <v>23</v>
@@ -75941,7 +75941,7 @@
         <v>23</v>
       </c>
       <c r="F1136" s="6">
-        <v>51.85</v>
+        <v>127.76</v>
       </c>
       <c r="G1136" s="6" t="s">
         <v>23</v>
@@ -76000,7 +76000,7 @@
         <v>23</v>
       </c>
       <c r="F1137" s="6">
-        <v>18.16</v>
+        <v>339.86</v>
       </c>
       <c r="G1137" s="6" t="s">
         <v>23</v>
@@ -76059,7 +76059,7 @@
         <v>23</v>
       </c>
       <c r="F1138" s="6">
-        <v>575</v>
+        <v>482.17</v>
       </c>
       <c r="G1138" s="6" t="s">
         <v>23</v>
@@ -76118,7 +76118,7 @@
         <v>23</v>
       </c>
       <c r="F1139" s="6">
-        <v>121</v>
+        <v>133.85</v>
       </c>
       <c r="G1139" s="6" t="s">
         <v>23</v>
@@ -76177,7 +76177,7 @@
         <v>23</v>
       </c>
       <c r="F1140" s="6">
-        <v>0</v>
+        <v>170.25</v>
       </c>
       <c r="G1140" s="6" t="s">
         <v>23</v>
@@ -76195,7 +76195,7 @@
         <v>21</v>
       </c>
       <c r="L1140" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1140" s="6">
         <v>0</v>
@@ -76236,7 +76236,7 @@
         <v>23</v>
       </c>
       <c r="F1141" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G1141" s="6" t="s">
         <v>23</v>
@@ -76254,7 +76254,7 @@
         <v>21</v>
       </c>
       <c r="L1141" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1141" s="6">
         <v>0</v>
@@ -76531,7 +76531,7 @@
         <v>23</v>
       </c>
       <c r="F1146" s="6">
-        <v>0</v>
+        <v>-23.24</v>
       </c>
       <c r="G1146" s="6" t="s">
         <v>23</v>
@@ -76549,7 +76549,7 @@
         <v>21</v>
       </c>
       <c r="L1146" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M1146" s="6">
         <v>0</v>
@@ -77879,10 +77879,10 @@
         <v>21</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2802</v>
+        <v>2837</v>
       </c>
       <c r="D1169" s="5" t="s">
-        <v>2803</v>
+        <v>2838</v>
       </c>
       <c r="E1169" s="6" t="s">
         <v>23</v>
@@ -77921,7 +77921,7 @@
         <v>21</v>
       </c>
       <c r="Q1169" s="5" t="s">
-        <v>2802</v>
+        <v>2837</v>
       </c>
       <c r="R1169" s="6" t="s">
         <v>23</v>
@@ -77932,16 +77932,16 @@
     </row>
     <row r="1170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1170" s="5" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2805</v>
+        <v>2839</v>
       </c>
       <c r="D1170" s="5" t="s">
-        <v>2806</v>
+        <v>2840</v>
       </c>
       <c r="E1170" s="6" t="s">
         <v>23</v>
@@ -77980,7 +77980,7 @@
         <v>21</v>
       </c>
       <c r="Q1170" s="5" t="s">
-        <v>2805</v>
+        <v>2839</v>
       </c>
       <c r="R1170" s="6" t="s">
         <v>23</v>
@@ -77991,16 +77991,16 @@
     </row>
     <row r="1171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1171" s="5" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="D1171" s="5" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="E1171" s="6" t="s">
         <v>23</v>
@@ -78039,7 +78039,7 @@
         <v>21</v>
       </c>
       <c r="Q1171" s="5" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="R1171" s="6" t="s">
         <v>23</v>
@@ -78050,16 +78050,16 @@
     </row>
     <row r="1172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="D1172" s="5" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="E1172" s="6" t="s">
         <v>23</v>
@@ -78098,7 +78098,7 @@
         <v>21</v>
       </c>
       <c r="Q1172" s="5" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="R1172" s="6" t="s">
         <v>23</v>
@@ -78109,16 +78109,16 @@
     </row>
     <row r="1173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1173" s="5" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="B1173" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="D1173" s="5" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="E1173" s="6" t="s">
         <v>23</v>
@@ -78157,7 +78157,7 @@
         <v>21</v>
       </c>
       <c r="Q1173" s="5" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="R1173" s="6" t="s">
         <v>23</v>
@@ -78168,22 +78168,22 @@
     </row>
     <row r="1174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1174" s="5" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="B1174" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="D1174" s="5" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="E1174" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1174" s="6">
-        <v>48</v>
+        <v>70.81</v>
       </c>
       <c r="G1174" s="6" t="s">
         <v>23</v>
@@ -78204,7 +78204,7 @@
         <v>23</v>
       </c>
       <c r="M1174" s="6">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="N1174" s="6">
         <v>0</v>
@@ -78216,7 +78216,7 @@
         <v>21</v>
       </c>
       <c r="Q1174" s="5" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="R1174" s="6" t="s">
         <v>23</v>
@@ -78227,22 +78227,22 @@
     </row>
     <row r="1175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1175" s="5" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="B1175" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="D1175" s="5" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="E1175" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1175" s="6">
-        <v>48.3</v>
+        <v>71.41</v>
       </c>
       <c r="G1175" s="6" t="s">
         <v>23</v>
@@ -78263,7 +78263,7 @@
         <v>23</v>
       </c>
       <c r="M1175" s="6">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="N1175" s="6">
         <v>0</v>
@@ -78275,7 +78275,7 @@
         <v>21</v>
       </c>
       <c r="Q1175" s="5" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="R1175" s="6" t="s">
         <v>23</v>
@@ -78286,22 +78286,22 @@
     </row>
     <row r="1176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1176" s="5" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="D1176" s="5" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="E1176" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F1176" s="6">
-        <v>46.7</v>
+        <v>68.209999999999994</v>
       </c>
       <c r="G1176" s="6" t="s">
         <v>23</v>
@@ -78322,7 +78322,7 @@
         <v>23</v>
       </c>
       <c r="M1176" s="6">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="N1176" s="6">
         <v>0</v>
@@ -78334,7 +78334,7 @@
         <v>21</v>
       </c>
       <c r="Q1176" s="5" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="R1176" s="6" t="s">
         <v>23</v>
@@ -78345,16 +78345,16 @@
     </row>
     <row r="1177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1177" s="5" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="D1177" s="5" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="E1177" s="6" t="s">
         <v>23</v>
@@ -78393,7 +78393,7 @@
         <v>21</v>
       </c>
       <c r="Q1177" s="5" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="R1177" s="6" t="s">
         <v>23</v>
@@ -78404,16 +78404,16 @@
     </row>
     <row r="1178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1178" s="5" t="s">
-        <v>2829</v>
+        <v>2824</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="D1178" s="5" t="s">
-        <v>2831</v>
+        <v>2826</v>
       </c>
       <c r="E1178" s="6" t="s">
         <v>23</v>
@@ -78452,7 +78452,7 @@
         <v>21</v>
       </c>
       <c r="Q1178" s="5" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="R1178" s="6" t="s">
         <v>23</v>
@@ -78463,16 +78463,16 @@
     </row>
     <row r="1179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1179" s="5" t="s">
-        <v>2832</v>
+        <v>2827</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2833</v>
+        <v>2828</v>
       </c>
       <c r="D1179" s="5" t="s">
-        <v>2834</v>
+        <v>2829</v>
       </c>
       <c r="E1179" s="6" t="s">
         <v>23</v>
@@ -78511,7 +78511,7 @@
         <v>21</v>
       </c>
       <c r="Q1179" s="5" t="s">
-        <v>2833</v>
+        <v>2828</v>
       </c>
       <c r="R1179" s="6" t="s">
         <v>23</v>
@@ -78522,16 +78522,16 @@
     </row>
     <row r="1180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
-        <v>2835</v>
+        <v>2830</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="D1180" s="5" t="s">
-        <v>2837</v>
+        <v>2832</v>
       </c>
       <c r="E1180" s="6" t="s">
         <v>23</v>
@@ -78570,7 +78570,7 @@
         <v>21</v>
       </c>
       <c r="Q1180" s="5" t="s">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="R1180" s="6" t="s">
         <v>23</v>
@@ -78581,16 +78581,16 @@
     </row>
     <row r="1181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1181" s="5" t="s">
-        <v>2838</v>
+        <v>2833</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2839</v>
+        <v>2834</v>
       </c>
       <c r="D1181" s="5" t="s">
-        <v>2840</v>
+        <v>2835</v>
       </c>
       <c r="E1181" s="6" t="s">
         <v>23</v>
@@ -78629,7 +78629,7 @@
         <v>21</v>
       </c>
       <c r="Q1181" s="5" t="s">
-        <v>2839</v>
+        <v>2834</v>
       </c>
       <c r="R1181" s="6" t="s">
         <v>23</v>
@@ -79127,7 +79127,7 @@
         <v>23</v>
       </c>
       <c r="F1190" s="6">
-        <v>3183.53</v>
+        <v>1271.32</v>
       </c>
       <c r="G1190" s="6" t="s">
         <v>23</v>
@@ -79245,7 +79245,7 @@
         <v>23</v>
       </c>
       <c r="F1192" s="6">
-        <v>1293.3599999999999</v>
+        <v>354.9</v>
       </c>
       <c r="G1192" s="6" t="s">
         <v>23</v>

--- a/EXCEL LIBS/TC_02.xlsx
+++ b/EXCEL LIBS/TC_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17856" uniqueCount="2841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17901" uniqueCount="2850">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -8386,12 +8386,6 @@
     <t>TC15265</t>
   </si>
   <si>
-    <t>G3842</t>
-  </si>
-  <si>
-    <t>QUEENS STAR TOFFEE</t>
-  </si>
-  <si>
     <t>TC15266</t>
   </si>
   <si>
@@ -8533,9 +8527,6 @@
     <t>GUSTO 95 (DARK GREY)</t>
   </si>
   <si>
-    <t>Lista Produto : 30/08/2021 10:03:08</t>
-  </si>
-  <si>
     <t>G2911</t>
   </si>
   <si>
@@ -8546,6 +8537,42 @@
   </si>
   <si>
     <t>SORRENTO 804 MEDIUM GREY</t>
+  </si>
+  <si>
+    <t>TC15283</t>
+  </si>
+  <si>
+    <t>G0441</t>
+  </si>
+  <si>
+    <t>PORTLAND 22 (BEGE)</t>
+  </si>
+  <si>
+    <t>TC15284</t>
+  </si>
+  <si>
+    <t>G0411</t>
+  </si>
+  <si>
+    <t>PORTLAND 90 (CINZENTO CLARO)</t>
+  </si>
+  <si>
+    <t>TC15285</t>
+  </si>
+  <si>
+    <t>G0412</t>
+  </si>
+  <si>
+    <t>PORTLAND 96 (ANTRACITE)</t>
+  </si>
+  <si>
+    <t>G5520</t>
+  </si>
+  <si>
+    <t>SOLID 79 AZUL ESCURO</t>
+  </si>
+  <si>
+    <t>Lista Produto : 09/09/2021 09:32:20</t>
   </si>
 </sst>
 </file>
@@ -8712,8 +8739,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1192" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:S1192"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:S1195" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:S1195"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Nº" dataDxfId="15"/>
     <tableColumn id="2" name="Cód. Barras Efacec" dataDxfId="14"/>
@@ -9002,7 +9029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1192"/>
+  <dimension ref="A1:S1195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -9056,7 +9083,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2836</v>
+        <v>2849</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9566,7 +9593,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>23</v>
@@ -10687,7 +10714,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6">
-        <v>6820.44</v>
+        <v>6805.62</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>23</v>
@@ -10746,7 +10773,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="6">
-        <v>236.02</v>
+        <v>198.61</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>23</v>
@@ -11159,7 +11186,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="6">
-        <v>9980.2999999999993</v>
+        <v>9976.74</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>23</v>
@@ -11513,7 +11540,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="6">
-        <v>1318.4</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -11867,7 +11894,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6">
-        <v>217</v>
+        <v>199.54</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -11985,7 +12012,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="6">
-        <v>259.95</v>
+        <v>1059.1500000000001</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -12044,7 +12071,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="6">
-        <v>5040.13</v>
+        <v>4749.83</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -12103,7 +12130,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="6">
-        <v>6882.66</v>
+        <v>6669.7</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>23</v>
@@ -12634,7 +12661,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="6">
-        <v>2530.1999999999998</v>
+        <v>2440.7600000000002</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>23</v>
@@ -12693,7 +12720,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="6">
-        <v>26524.47</v>
+        <v>22682.38</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>23</v>
@@ -12752,7 +12779,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="6">
-        <v>385.91</v>
+        <v>1425.04</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>23</v>
@@ -12811,7 +12838,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="6">
-        <v>1152.5</v>
+        <v>1147.31</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -12870,7 +12897,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>958.45</v>
+        <v>457.93</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>23</v>
@@ -12929,7 +12956,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>2056.63</v>
+        <v>1385.43</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
@@ -13165,7 +13192,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>9948.5400000000009</v>
+        <v>8907.2999999999993</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>23</v>
@@ -13224,7 +13251,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="6">
-        <v>15249.92</v>
+        <v>15192.5</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>23</v>
@@ -13519,7 +13546,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="6">
-        <v>38442.32</v>
+        <v>37878.21</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>23</v>
@@ -13578,7 +13605,7 @@
         <v>23</v>
       </c>
       <c r="F79" s="6">
-        <v>909.45</v>
+        <v>842.33</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>23</v>
@@ -13599,7 +13626,7 @@
         <v>23</v>
       </c>
       <c r="M79" s="6">
-        <v>1.96</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N79" s="6">
         <v>0</v>
@@ -13637,7 +13664,7 @@
         <v>23</v>
       </c>
       <c r="F80" s="6">
-        <v>1997.6</v>
+        <v>4233.6000000000004</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>23</v>
@@ -13696,7 +13723,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="6">
-        <v>343.02</v>
+        <v>259.12</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>23</v>
@@ -23785,7 +23812,7 @@
         <v>23</v>
       </c>
       <c r="F252" s="6">
-        <v>2222.1999999999998</v>
+        <v>2212.5700000000002</v>
       </c>
       <c r="G252" s="6" t="s">
         <v>23</v>
@@ -24021,7 +24048,7 @@
         <v>23</v>
       </c>
       <c r="F256" s="6">
-        <v>967.14</v>
+        <v>939.24</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>23</v>
@@ -24080,7 +24107,7 @@
         <v>23</v>
       </c>
       <c r="F257" s="6">
-        <v>893.84</v>
+        <v>888.26</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>23</v>
@@ -24552,7 +24579,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="6">
-        <v>7243.92</v>
+        <v>6783.38</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>23</v>
@@ -26617,7 +26644,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="6">
-        <v>2346.46</v>
+        <v>2319.88</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>23</v>
@@ -26971,7 +26998,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="6">
-        <v>168.4</v>
+        <v>166.71</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>23</v>
@@ -27679,7 +27706,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="6">
-        <v>8897.57</v>
+        <v>8829.4</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>23</v>
@@ -28151,7 +28178,7 @@
         <v>23</v>
       </c>
       <c r="F326" s="6">
-        <v>90</v>
+        <v>87.28</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>23</v>
@@ -28269,7 +28296,7 @@
         <v>23</v>
       </c>
       <c r="F328" s="6">
-        <v>564.5</v>
+        <v>559.9</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>23</v>
@@ -29154,7 +29181,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="6">
-        <v>99.94</v>
+        <v>96.82</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>23</v>
@@ -29449,7 +29476,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="6">
-        <v>121.23</v>
+        <v>103.66</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>23</v>
@@ -29685,7 +29712,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="6">
-        <v>2531.83</v>
+        <v>2324.0300000000002</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>23</v>
@@ -29744,7 +29771,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="6">
-        <v>136.1</v>
+        <v>128.59</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>23</v>
@@ -29980,7 +30007,7 @@
         <v>23</v>
       </c>
       <c r="F357" s="6">
-        <v>55.56</v>
+        <v>54.2</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>23</v>
@@ -30452,7 +30479,7 @@
         <v>23</v>
       </c>
       <c r="F365" s="6">
-        <v>1503.84</v>
+        <v>1484.25</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>23</v>
@@ -30629,7 +30656,7 @@
         <v>23</v>
       </c>
       <c r="F368" s="6">
-        <v>2.1</v>
+        <v>0.48</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>23</v>
@@ -31042,7 +31069,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="6">
-        <v>1075.56</v>
+        <v>925.63</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>23</v>
@@ -31396,7 +31423,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="6">
-        <v>50.83</v>
+        <v>46.86</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>23</v>
@@ -31455,7 +31482,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="6">
-        <v>285.42</v>
+        <v>274.32</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>23</v>
@@ -31573,7 +31600,7 @@
         <v>23</v>
       </c>
       <c r="F384" s="6">
-        <v>0</v>
+        <v>-6.9</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>23</v>
@@ -31927,7 +31954,7 @@
         <v>23</v>
       </c>
       <c r="F390" s="6">
-        <v>5131.75</v>
+        <v>4357.25</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>23</v>
@@ -31986,7 +32013,7 @@
         <v>23</v>
       </c>
       <c r="F391" s="6">
-        <v>63.96</v>
+        <v>389.76</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>23</v>
@@ -32007,7 +32034,7 @@
         <v>23</v>
       </c>
       <c r="M391" s="6">
-        <v>3.75</v>
+        <v>3.02</v>
       </c>
       <c r="N391" s="6">
         <v>0</v>
@@ -32045,7 +32072,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="6">
-        <v>1463.03</v>
+        <v>1451.75</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>23</v>
@@ -32163,7 +32190,7 @@
         <v>23</v>
       </c>
       <c r="F394" s="6">
-        <v>85.95</v>
+        <v>140.03</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>23</v>
@@ -32184,7 +32211,7 @@
         <v>23</v>
       </c>
       <c r="M394" s="6">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="N394" s="6">
         <v>0</v>
@@ -32222,7 +32249,7 @@
         <v>23</v>
       </c>
       <c r="F395" s="6">
-        <v>7703.3</v>
+        <v>7678.46</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>23</v>
@@ -32281,7 +32308,7 @@
         <v>23</v>
       </c>
       <c r="F396" s="6">
-        <v>4428.68</v>
+        <v>8551.26</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>23</v>
@@ -32340,7 +32367,7 @@
         <v>23</v>
       </c>
       <c r="F397" s="6">
-        <v>7660.9</v>
+        <v>8043.23</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>23</v>
@@ -32399,7 +32426,7 @@
         <v>23</v>
       </c>
       <c r="F398" s="6">
-        <v>6333.52</v>
+        <v>6300.24</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>23</v>
@@ -32458,7 +32485,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="6">
-        <v>9797.5</v>
+        <v>9479.27</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>23</v>
@@ -32576,7 +32603,7 @@
         <v>23</v>
       </c>
       <c r="F401" s="6">
-        <v>2458.9299999999998</v>
+        <v>3558.85</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>23</v>
@@ -32635,7 +32662,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="6">
-        <v>1514.71</v>
+        <v>1472.23</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>23</v>
@@ -32753,7 +32780,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="6">
-        <v>2431.5300000000002</v>
+        <v>2416.16</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>23</v>
@@ -32871,7 +32898,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="6">
-        <v>2683.67</v>
+        <v>2565.84</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>23</v>
@@ -32930,7 +32957,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="6">
-        <v>1148.81</v>
+        <v>1133.77</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>23</v>
@@ -33048,7 +33075,7 @@
         <v>23</v>
       </c>
       <c r="F409" s="6">
-        <v>15073.4</v>
+        <v>14696.76</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>23</v>
@@ -33107,7 +33134,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="6">
-        <v>1252.5899999999999</v>
+        <v>1236.4100000000001</v>
       </c>
       <c r="G410" s="6" t="s">
         <v>23</v>
@@ -33166,7 +33193,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="6">
-        <v>97.65</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>23</v>
@@ -33225,7 +33252,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="6">
-        <v>621.48</v>
+        <v>610.20000000000005</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>23</v>
@@ -33284,7 +33311,7 @@
         <v>23</v>
       </c>
       <c r="F413" s="6">
-        <v>237.39</v>
+        <v>196.03</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>23</v>
@@ -33343,7 +33370,7 @@
         <v>23</v>
       </c>
       <c r="F414" s="6">
-        <v>1411.35</v>
+        <v>1368.01</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>23</v>
@@ -34051,7 +34078,7 @@
         <v>23</v>
       </c>
       <c r="F426" s="6">
-        <v>1069.7149999999999</v>
+        <v>1057.425</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>23</v>
@@ -34110,7 +34137,7 @@
         <v>23</v>
       </c>
       <c r="F427" s="6">
-        <v>2964.16</v>
+        <v>10766.91</v>
       </c>
       <c r="G427" s="6" t="s">
         <v>23</v>
@@ -34169,7 +34196,7 @@
         <v>23</v>
       </c>
       <c r="F428" s="6">
-        <v>1326.18</v>
+        <v>1315.19</v>
       </c>
       <c r="G428" s="6" t="s">
         <v>23</v>
@@ -34228,7 +34255,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="6">
-        <v>12216</v>
+        <v>8631.5</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>23</v>
@@ -34405,7 +34432,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="6">
-        <v>527.9</v>
+        <v>527.51</v>
       </c>
       <c r="G432" s="6" t="s">
         <v>23</v>
@@ -34759,7 +34786,7 @@
         <v>23</v>
       </c>
       <c r="F438" s="6">
-        <v>1052.44</v>
+        <v>1049.97</v>
       </c>
       <c r="G438" s="6" t="s">
         <v>23</v>
@@ -35408,7 +35435,7 @@
         <v>23</v>
       </c>
       <c r="F449" s="6">
-        <v>893.64</v>
+        <v>842.94</v>
       </c>
       <c r="G449" s="6" t="s">
         <v>23</v>
@@ -41780,7 +41807,7 @@
         <v>23</v>
       </c>
       <c r="F557" s="6">
-        <v>137.1</v>
+        <v>131.38</v>
       </c>
       <c r="G557" s="6" t="s">
         <v>23</v>
@@ -60011,7 +60038,7 @@
         <v>23</v>
       </c>
       <c r="F866" s="6">
-        <v>827.63</v>
+        <v>2684.26</v>
       </c>
       <c r="G866" s="6" t="s">
         <v>23</v>
@@ -60188,7 +60215,7 @@
         <v>23</v>
       </c>
       <c r="F869" s="6">
-        <v>30169.46</v>
+        <v>38715.019999999997</v>
       </c>
       <c r="G869" s="6" t="s">
         <v>23</v>
@@ -60955,7 +60982,7 @@
         <v>23</v>
       </c>
       <c r="F882" s="6">
-        <v>109237.62</v>
+        <v>102164.38</v>
       </c>
       <c r="G882" s="6" t="s">
         <v>23</v>
@@ -61014,7 +61041,7 @@
         <v>23</v>
       </c>
       <c r="F883" s="6">
-        <v>31245.48</v>
+        <v>26675.72</v>
       </c>
       <c r="G883" s="6" t="s">
         <v>23</v>
@@ -61073,7 +61100,7 @@
         <v>23</v>
       </c>
       <c r="F884" s="6">
-        <v>40123.269999999997</v>
+        <v>49123.27</v>
       </c>
       <c r="G884" s="6" t="s">
         <v>23</v>
@@ -61132,7 +61159,7 @@
         <v>23</v>
       </c>
       <c r="F885" s="6">
-        <v>18333.57</v>
+        <v>20533.53</v>
       </c>
       <c r="G885" s="6" t="s">
         <v>23</v>
@@ -62135,7 +62162,7 @@
         <v>23</v>
       </c>
       <c r="F902" s="6">
-        <v>8539.26</v>
+        <v>13563.16</v>
       </c>
       <c r="G902" s="6" t="s">
         <v>23</v>
@@ -62607,7 +62634,7 @@
         <v>23</v>
       </c>
       <c r="F910" s="6">
-        <v>433.8</v>
+        <v>416.02</v>
       </c>
       <c r="G910" s="6" t="s">
         <v>23</v>
@@ -62902,7 +62929,7 @@
         <v>23</v>
       </c>
       <c r="F915" s="6">
-        <v>402.28</v>
+        <v>341.74</v>
       </c>
       <c r="G915" s="6" t="s">
         <v>23</v>
@@ -63020,7 +63047,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="6">
-        <v>1638.79</v>
+        <v>1495.53</v>
       </c>
       <c r="G917" s="6" t="s">
         <v>23</v>
@@ -63138,7 +63165,7 @@
         <v>23</v>
       </c>
       <c r="F919" s="6">
-        <v>3087.25</v>
+        <v>3064.78</v>
       </c>
       <c r="G919" s="6" t="s">
         <v>23</v>
@@ -63315,7 +63342,7 @@
         <v>23</v>
       </c>
       <c r="F922" s="6">
-        <v>2903.68</v>
+        <v>2874.8</v>
       </c>
       <c r="G922" s="6" t="s">
         <v>23</v>
@@ -63905,7 +63932,7 @@
         <v>23</v>
       </c>
       <c r="F932" s="6">
-        <v>2608.98</v>
+        <v>2485.65</v>
       </c>
       <c r="G932" s="6" t="s">
         <v>23</v>
@@ -64318,7 +64345,7 @@
         <v>23</v>
       </c>
       <c r="F939" s="6">
-        <v>1754.17</v>
+        <v>1625.99</v>
       </c>
       <c r="G939" s="6" t="s">
         <v>23</v>
@@ -64377,7 +64404,7 @@
         <v>23</v>
       </c>
       <c r="F940" s="6">
-        <v>2736.15</v>
+        <v>2734.34</v>
       </c>
       <c r="G940" s="6" t="s">
         <v>23</v>
@@ -64495,7 +64522,7 @@
         <v>23</v>
       </c>
       <c r="F942" s="6">
-        <v>449.02</v>
+        <v>435.88</v>
       </c>
       <c r="G942" s="6" t="s">
         <v>23</v>
@@ -64613,7 +64640,7 @@
         <v>23</v>
       </c>
       <c r="F944" s="6">
-        <v>1667.35</v>
+        <v>1654.21</v>
       </c>
       <c r="G944" s="6" t="s">
         <v>23</v>
@@ -64672,7 +64699,7 @@
         <v>23</v>
       </c>
       <c r="F945" s="6">
-        <v>439.75</v>
+        <v>436.45</v>
       </c>
       <c r="G945" s="6" t="s">
         <v>23</v>
@@ -64731,7 +64758,7 @@
         <v>23</v>
       </c>
       <c r="F946" s="6">
-        <v>2505.9899999999998</v>
+        <v>2504.08</v>
       </c>
       <c r="G946" s="6" t="s">
         <v>23</v>
@@ -65026,7 +65053,7 @@
         <v>23</v>
       </c>
       <c r="F951" s="6">
-        <v>6404.63</v>
+        <v>6390.82</v>
       </c>
       <c r="G951" s="6" t="s">
         <v>23</v>
@@ -65085,7 +65112,7 @@
         <v>23</v>
       </c>
       <c r="F952" s="6">
-        <v>6070.59</v>
+        <v>8139.79</v>
       </c>
       <c r="G952" s="6" t="s">
         <v>23</v>
@@ -65144,7 +65171,7 @@
         <v>23</v>
       </c>
       <c r="F953" s="6">
-        <v>2660.77</v>
+        <v>2647.37</v>
       </c>
       <c r="G953" s="6" t="s">
         <v>23</v>
@@ -65439,7 +65466,7 @@
         <v>23</v>
       </c>
       <c r="F958" s="6">
-        <v>2164.58</v>
+        <v>2154.0700000000002</v>
       </c>
       <c r="G958" s="6" t="s">
         <v>23</v>
@@ -65616,7 +65643,7 @@
         <v>23</v>
       </c>
       <c r="F961" s="6">
-        <v>3026.34</v>
+        <v>3012.37</v>
       </c>
       <c r="G961" s="6" t="s">
         <v>23</v>
@@ -65675,7 +65702,7 @@
         <v>23</v>
       </c>
       <c r="F962" s="6">
-        <v>6717.61</v>
+        <v>4047.12</v>
       </c>
       <c r="G962" s="6" t="s">
         <v>23</v>
@@ -65734,7 +65761,7 @@
         <v>23</v>
       </c>
       <c r="F963" s="6">
-        <v>9174.58</v>
+        <v>7497.62</v>
       </c>
       <c r="G963" s="6" t="s">
         <v>23</v>
@@ -67976,7 +68003,7 @@
         <v>23</v>
       </c>
       <c r="F1001" s="6">
-        <v>12402.51</v>
+        <v>19304.21</v>
       </c>
       <c r="G1001" s="6" t="s">
         <v>23</v>
@@ -68094,7 +68121,7 @@
         <v>23</v>
       </c>
       <c r="F1003" s="6">
-        <v>2087.8000000000002</v>
+        <v>2033.59</v>
       </c>
       <c r="G1003" s="6" t="s">
         <v>23</v>
@@ -68153,7 +68180,7 @@
         <v>23</v>
       </c>
       <c r="F1004" s="6">
-        <v>1480.59</v>
+        <v>1342.53</v>
       </c>
       <c r="G1004" s="6" t="s">
         <v>23</v>
@@ -68271,7 +68298,7 @@
         <v>23</v>
       </c>
       <c r="F1006" s="6">
-        <v>792.33</v>
+        <v>3674.2</v>
       </c>
       <c r="G1006" s="6" t="s">
         <v>23</v>
@@ -68389,7 +68416,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="6">
-        <v>1480.4</v>
+        <v>1384.82</v>
       </c>
       <c r="G1008" s="6" t="s">
         <v>23</v>
@@ -68743,7 +68770,7 @@
         <v>23</v>
       </c>
       <c r="F1014" s="6">
-        <v>2011.55</v>
+        <v>2593.61</v>
       </c>
       <c r="G1014" s="6" t="s">
         <v>23</v>
@@ -68802,7 +68829,7 @@
         <v>23</v>
       </c>
       <c r="F1015" s="6">
-        <v>455.72</v>
+        <v>3152.83</v>
       </c>
       <c r="G1015" s="6" t="s">
         <v>23</v>
@@ -68823,7 +68850,7 @@
         <v>23</v>
       </c>
       <c r="M1015" s="6">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="N1015" s="6">
         <v>0</v>
@@ -68920,7 +68947,7 @@
         <v>23</v>
       </c>
       <c r="F1017" s="6">
-        <v>341.05</v>
+        <v>170.68</v>
       </c>
       <c r="G1017" s="6" t="s">
         <v>23</v>
@@ -68979,7 +69006,7 @@
         <v>23</v>
       </c>
       <c r="F1018" s="6">
-        <v>334.7</v>
+        <v>2374.6999999999998</v>
       </c>
       <c r="G1018" s="6" t="s">
         <v>23</v>
@@ -69038,7 +69065,7 @@
         <v>23</v>
       </c>
       <c r="F1019" s="6">
-        <v>2656.29</v>
+        <v>2549.4899999999998</v>
       </c>
       <c r="G1019" s="6" t="s">
         <v>23</v>
@@ -69097,7 +69124,7 @@
         <v>23</v>
       </c>
       <c r="F1020" s="6">
-        <v>1191.9000000000001</v>
+        <v>991.8</v>
       </c>
       <c r="G1020" s="6" t="s">
         <v>23</v>
@@ -69156,7 +69183,7 @@
         <v>23</v>
       </c>
       <c r="F1021" s="6">
-        <v>2023.28</v>
+        <v>1702.88</v>
       </c>
       <c r="G1021" s="6" t="s">
         <v>23</v>
@@ -69215,7 +69242,7 @@
         <v>23</v>
       </c>
       <c r="F1022" s="6">
-        <v>5798.6</v>
+        <v>5149.3100000000004</v>
       </c>
       <c r="G1022" s="6" t="s">
         <v>23</v>
@@ -69274,7 +69301,7 @@
         <v>23</v>
       </c>
       <c r="F1023" s="6">
-        <v>9061.2800000000007</v>
+        <v>8553.67</v>
       </c>
       <c r="G1023" s="6" t="s">
         <v>23</v>
@@ -69333,7 +69360,7 @@
         <v>23</v>
       </c>
       <c r="F1024" s="6">
-        <v>15512.81</v>
+        <v>15036.99</v>
       </c>
       <c r="G1024" s="6" t="s">
         <v>23</v>
@@ -69510,7 +69537,7 @@
         <v>23</v>
       </c>
       <c r="F1027" s="6">
-        <v>4843.66</v>
+        <v>4841.6099999999997</v>
       </c>
       <c r="G1027" s="6" t="s">
         <v>23</v>
@@ -69569,7 +69596,7 @@
         <v>23</v>
       </c>
       <c r="F1028" s="6">
-        <v>565.57000000000005</v>
+        <v>484.85</v>
       </c>
       <c r="G1028" s="6" t="s">
         <v>23</v>
@@ -69628,7 +69655,7 @@
         <v>23</v>
       </c>
       <c r="F1029" s="6">
-        <v>11215.61</v>
+        <v>6759.92</v>
       </c>
       <c r="G1029" s="6" t="s">
         <v>23</v>
@@ -69687,7 +69714,7 @@
         <v>23</v>
       </c>
       <c r="F1030" s="6">
-        <v>2139.08</v>
+        <v>1880.42</v>
       </c>
       <c r="G1030" s="6" t="s">
         <v>23</v>
@@ -69746,7 +69773,7 @@
         <v>23</v>
       </c>
       <c r="F1031" s="6">
-        <v>1940.81</v>
+        <v>1900.45</v>
       </c>
       <c r="G1031" s="6" t="s">
         <v>23</v>
@@ -69805,7 +69832,7 @@
         <v>23</v>
       </c>
       <c r="F1032" s="6">
-        <v>1130.8599999999999</v>
+        <v>875.91</v>
       </c>
       <c r="G1032" s="6" t="s">
         <v>23</v>
@@ -69864,7 +69891,7 @@
         <v>23</v>
       </c>
       <c r="F1033" s="6">
-        <v>3207.6</v>
+        <v>1394.25</v>
       </c>
       <c r="G1033" s="6" t="s">
         <v>23</v>
@@ -69923,7 +69950,7 @@
         <v>23</v>
       </c>
       <c r="F1034" s="6">
-        <v>833.83</v>
+        <v>803.56</v>
       </c>
       <c r="G1034" s="6" t="s">
         <v>23</v>
@@ -70100,7 +70127,7 @@
         <v>23</v>
       </c>
       <c r="F1037" s="6">
-        <v>1279.74</v>
+        <v>1107.26</v>
       </c>
       <c r="G1037" s="6" t="s">
         <v>23</v>
@@ -70159,7 +70186,7 @@
         <v>23</v>
       </c>
       <c r="F1038" s="6">
-        <v>2030.47</v>
+        <v>6721.86</v>
       </c>
       <c r="G1038" s="6" t="s">
         <v>23</v>
@@ -70218,7 +70245,7 @@
         <v>23</v>
       </c>
       <c r="F1039" s="6">
-        <v>2060.12</v>
+        <v>2529.42</v>
       </c>
       <c r="G1039" s="6" t="s">
         <v>23</v>
@@ -70277,7 +70304,7 @@
         <v>23</v>
       </c>
       <c r="F1040" s="6">
-        <v>7457.46</v>
+        <v>7391.16</v>
       </c>
       <c r="G1040" s="6" t="s">
         <v>23</v>
@@ -70395,7 +70422,7 @@
         <v>23</v>
       </c>
       <c r="F1042" s="6">
-        <v>7303.34</v>
+        <v>7159.04</v>
       </c>
       <c r="G1042" s="6" t="s">
         <v>23</v>
@@ -70454,7 +70481,7 @@
         <v>23</v>
       </c>
       <c r="F1043" s="6">
-        <v>527.27</v>
+        <v>273.63</v>
       </c>
       <c r="G1043" s="6" t="s">
         <v>23</v>
@@ -70572,7 +70599,7 @@
         <v>23</v>
       </c>
       <c r="F1045" s="6">
-        <v>604.95000000000005</v>
+        <v>1018.95</v>
       </c>
       <c r="G1045" s="6" t="s">
         <v>23</v>
@@ -71280,7 +71307,7 @@
         <v>23</v>
       </c>
       <c r="F1057" s="6">
-        <v>3626.1</v>
+        <v>3505.02</v>
       </c>
       <c r="G1057" s="6" t="s">
         <v>23</v>
@@ -71398,7 +71425,7 @@
         <v>23</v>
       </c>
       <c r="F1059" s="6">
-        <v>9592.2999999999993</v>
+        <v>14200.29</v>
       </c>
       <c r="G1059" s="6" t="s">
         <v>23</v>
@@ -71457,7 +71484,7 @@
         <v>23</v>
       </c>
       <c r="F1060" s="6">
-        <v>7055.75</v>
+        <v>6943.19</v>
       </c>
       <c r="G1060" s="6" t="s">
         <v>23</v>
@@ -71516,7 +71543,7 @@
         <v>23</v>
       </c>
       <c r="F1061" s="6">
-        <v>3109.9</v>
+        <v>3882.3</v>
       </c>
       <c r="G1061" s="6" t="s">
         <v>23</v>
@@ -71575,7 +71602,7 @@
         <v>23</v>
       </c>
       <c r="F1062" s="6">
-        <v>6808.19</v>
+        <v>6744.23</v>
       </c>
       <c r="G1062" s="6" t="s">
         <v>23</v>
@@ -72165,7 +72192,7 @@
         <v>23</v>
       </c>
       <c r="F1072" s="6">
-        <v>2728.57</v>
+        <v>9993.01</v>
       </c>
       <c r="G1072" s="6" t="s">
         <v>23</v>
@@ -72224,7 +72251,7 @@
         <v>23</v>
       </c>
       <c r="F1073" s="6">
-        <v>1152.4000000000001</v>
+        <v>1095.67</v>
       </c>
       <c r="G1073" s="6" t="s">
         <v>23</v>
@@ -72283,7 +72310,7 @@
         <v>23</v>
       </c>
       <c r="F1074" s="6">
-        <v>20022.43</v>
+        <v>19823.95</v>
       </c>
       <c r="G1074" s="6" t="s">
         <v>23</v>
@@ -72342,7 +72369,7 @@
         <v>23</v>
       </c>
       <c r="F1075" s="6">
-        <v>37166.089999999997</v>
+        <v>46997.85</v>
       </c>
       <c r="G1075" s="6" t="s">
         <v>23</v>
@@ -72401,7 +72428,7 @@
         <v>23</v>
       </c>
       <c r="F1076" s="6">
-        <v>109051.85</v>
+        <v>114347.04</v>
       </c>
       <c r="G1076" s="6" t="s">
         <v>23</v>
@@ -72460,7 +72487,7 @@
         <v>23</v>
       </c>
       <c r="F1077" s="6">
-        <v>12214.84</v>
+        <v>11980.95</v>
       </c>
       <c r="G1077" s="6" t="s">
         <v>23</v>
@@ -72519,7 +72546,7 @@
         <v>23</v>
       </c>
       <c r="F1078" s="6">
-        <v>43752.36</v>
+        <v>40350.269999999997</v>
       </c>
       <c r="G1078" s="6" t="s">
         <v>23</v>
@@ -72578,7 +72605,7 @@
         <v>23</v>
       </c>
       <c r="F1079" s="6">
-        <v>2571.94</v>
+        <v>2520.14</v>
       </c>
       <c r="G1079" s="6" t="s">
         <v>23</v>
@@ -72755,7 +72782,7 @@
         <v>23</v>
       </c>
       <c r="F1082" s="6">
-        <v>139.1</v>
+        <v>132.16999999999999</v>
       </c>
       <c r="G1082" s="6" t="s">
         <v>23</v>
@@ -73109,7 +73136,7 @@
         <v>23</v>
       </c>
       <c r="F1088" s="6">
-        <v>425.84</v>
+        <v>2361.94</v>
       </c>
       <c r="G1088" s="6" t="s">
         <v>23</v>
@@ -73168,7 +73195,7 @@
         <v>23</v>
       </c>
       <c r="F1089" s="6">
-        <v>5584.97</v>
+        <v>2977.37</v>
       </c>
       <c r="G1089" s="6" t="s">
         <v>23</v>
@@ -73286,7 +73313,7 @@
         <v>23</v>
       </c>
       <c r="F1091" s="6">
-        <v>5218.28</v>
+        <v>3915.41</v>
       </c>
       <c r="G1091" s="6" t="s">
         <v>23</v>
@@ -73307,7 +73334,7 @@
         <v>23</v>
       </c>
       <c r="M1091" s="6">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="N1091" s="6">
         <v>0</v>
@@ -73522,7 +73549,7 @@
         <v>23</v>
       </c>
       <c r="F1095" s="6">
-        <v>16408.73</v>
+        <v>8219.91</v>
       </c>
       <c r="G1095" s="6" t="s">
         <v>23</v>
@@ -73581,7 +73608,7 @@
         <v>23</v>
       </c>
       <c r="F1096" s="6">
-        <v>1981.63</v>
+        <v>1654.61</v>
       </c>
       <c r="G1096" s="6" t="s">
         <v>23</v>
@@ -73602,7 +73629,7 @@
         <v>23</v>
       </c>
       <c r="M1096" s="6">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="N1096" s="6">
         <v>0</v>
@@ -73640,7 +73667,7 @@
         <v>23</v>
       </c>
       <c r="F1097" s="6">
-        <v>37</v>
+        <v>136.5</v>
       </c>
       <c r="G1097" s="6" t="s">
         <v>23</v>
@@ -73699,7 +73726,7 @@
         <v>23</v>
       </c>
       <c r="F1098" s="6">
-        <v>147.13</v>
+        <v>128.94999999999999</v>
       </c>
       <c r="G1098" s="6" t="s">
         <v>23</v>
@@ -73758,7 +73785,7 @@
         <v>23</v>
       </c>
       <c r="F1099" s="6">
-        <v>653.048</v>
+        <v>1637.758</v>
       </c>
       <c r="G1099" s="6" t="s">
         <v>23</v>
@@ -73935,7 +73962,7 @@
         <v>23</v>
       </c>
       <c r="F1102" s="6">
-        <v>3261.89</v>
+        <v>3233.96</v>
       </c>
       <c r="G1102" s="6" t="s">
         <v>23</v>
@@ -74702,7 +74729,7 @@
         <v>23</v>
       </c>
       <c r="F1115" s="6">
-        <v>1317.87</v>
+        <v>1756.97</v>
       </c>
       <c r="G1115" s="6" t="s">
         <v>23</v>
@@ -74761,7 +74788,7 @@
         <v>23</v>
       </c>
       <c r="F1116" s="6">
-        <v>28.36</v>
+        <v>344.42</v>
       </c>
       <c r="G1116" s="6" t="s">
         <v>23</v>
@@ -74820,7 +74847,7 @@
         <v>23</v>
       </c>
       <c r="F1117" s="6">
-        <v>555.41999999999996</v>
+        <v>543.67999999999995</v>
       </c>
       <c r="G1117" s="6" t="s">
         <v>23</v>
@@ -74938,7 +74965,7 @@
         <v>23</v>
       </c>
       <c r="F1119" s="6">
-        <v>553.64</v>
+        <v>510.92</v>
       </c>
       <c r="G1119" s="6" t="s">
         <v>23</v>
@@ -74997,7 +75024,7 @@
         <v>23</v>
       </c>
       <c r="F1120" s="6">
-        <v>282.68</v>
+        <v>271.5</v>
       </c>
       <c r="G1120" s="6" t="s">
         <v>23</v>
@@ -75115,7 +75142,7 @@
         <v>23</v>
       </c>
       <c r="F1122" s="6">
-        <v>4082.2</v>
+        <v>8941.2000000000007</v>
       </c>
       <c r="G1122" s="6" t="s">
         <v>23</v>
@@ -75410,7 +75437,7 @@
         <v>23</v>
       </c>
       <c r="F1127" s="6">
-        <v>1014.85</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="G1127" s="6" t="s">
         <v>23</v>
@@ -76059,7 +76086,7 @@
         <v>23</v>
       </c>
       <c r="F1138" s="6">
-        <v>482.17</v>
+        <v>466.07</v>
       </c>
       <c r="G1138" s="6" t="s">
         <v>23</v>
@@ -76177,7 +76204,7 @@
         <v>23</v>
       </c>
       <c r="F1140" s="6">
-        <v>170.25</v>
+        <v>162.5</v>
       </c>
       <c r="G1140" s="6" t="s">
         <v>23</v>
@@ -76236,7 +76263,7 @@
         <v>23</v>
       </c>
       <c r="F1141" s="6">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G1141" s="6" t="s">
         <v>23</v>
@@ -77584,10 +77611,10 @@
         <v>21</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2787</v>
+        <v>2847</v>
       </c>
       <c r="D1164" s="5" t="s">
-        <v>2788</v>
+        <v>2848</v>
       </c>
       <c r="E1164" s="6" t="s">
         <v>23</v>
@@ -77626,7 +77653,7 @@
         <v>21</v>
       </c>
       <c r="Q1164" s="5" t="s">
-        <v>2787</v>
+        <v>2847</v>
       </c>
       <c r="R1164" s="6" t="s">
         <v>23</v>
@@ -77637,16 +77664,16 @@
     </row>
     <row r="1165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1165" s="5" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1165" s="5" t="s">
         <v>2789</v>
-      </c>
-      <c r="B1165" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1165" s="5" t="s">
-        <v>2790</v>
-      </c>
-      <c r="D1165" s="5" t="s">
-        <v>2791</v>
       </c>
       <c r="E1165" s="6" t="s">
         <v>23</v>
@@ -77685,7 +77712,7 @@
         <v>21</v>
       </c>
       <c r="Q1165" s="5" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="R1165" s="6" t="s">
         <v>23</v>
@@ -77696,16 +77723,16 @@
     </row>
     <row r="1166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B1166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1166" s="5" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1166" s="5" t="s">
         <v>2792</v>
-      </c>
-      <c r="B1166" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1166" s="5" t="s">
-        <v>2793</v>
-      </c>
-      <c r="D1166" s="5" t="s">
-        <v>2794</v>
       </c>
       <c r="E1166" s="6" t="s">
         <v>23</v>
@@ -77744,7 +77771,7 @@
         <v>21</v>
       </c>
       <c r="Q1166" s="5" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="R1166" s="6" t="s">
         <v>23</v>
@@ -77755,16 +77782,16 @@
     </row>
     <row r="1167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1167" s="5" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1167" s="5" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D1167" s="5" t="s">
         <v>2795</v>
-      </c>
-      <c r="B1167" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1167" s="5" t="s">
-        <v>2796</v>
-      </c>
-      <c r="D1167" s="5" t="s">
-        <v>2797</v>
       </c>
       <c r="E1167" s="6" t="s">
         <v>23</v>
@@ -77803,7 +77830,7 @@
         <v>21</v>
       </c>
       <c r="Q1167" s="5" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="R1167" s="6" t="s">
         <v>23</v>
@@ -77814,16 +77841,16 @@
     </row>
     <row r="1168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1168" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1168" s="5" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D1168" s="5" t="s">
         <v>2798</v>
-      </c>
-      <c r="B1168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1168" s="5" t="s">
-        <v>2799</v>
-      </c>
-      <c r="D1168" s="5" t="s">
-        <v>2800</v>
       </c>
       <c r="E1168" s="6" t="s">
         <v>23</v>
@@ -77862,7 +77889,7 @@
         <v>21</v>
       </c>
       <c r="Q1168" s="5" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="R1168" s="6" t="s">
         <v>23</v>
@@ -77873,16 +77900,16 @@
     </row>
     <row r="1169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1169" s="5" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="D1169" s="5" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="E1169" s="6" t="s">
         <v>23</v>
@@ -77921,7 +77948,7 @@
         <v>21</v>
       </c>
       <c r="Q1169" s="5" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="R1169" s="6" t="s">
         <v>23</v>
@@ -77932,16 +77959,16 @@
     </row>
     <row r="1170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1170" s="5" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="D1170" s="5" t="s">
-        <v>2840</v>
+        <v